--- a/temp/iter - copia.xlsx
+++ b/temp/iter - copia.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556119D2-62C2-4321-BE3A-37F4C6046ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CA4610-956A-4C08-A121-362D92168A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18890" yWindow="330" windowWidth="19180" windowHeight="17300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
     <sheet name="Formulario_TEST" sheetId="14" r:id="rId2"/>
     <sheet name="Martingala ITER_2" sheetId="16" r:id="rId3"/>
-    <sheet name="Tablero" sheetId="15" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="17" r:id="rId4"/>
+    <sheet name="Tablero" sheetId="15" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Formulario_TEST!$A$1:$M$27</definedName>
@@ -576,22 +577,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -603,7 +589,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -618,11 +619,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -924,24 +925,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="K2" s="55" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="K2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
     </row>
     <row r="3" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
@@ -986,42 +987,42 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="55" t="s">
+      <c r="T3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AB3" s="55" t="s">
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AB3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55"/>
-      <c r="AM3" s="52" t="s">
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AM3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="54"/>
-      <c r="AW3" s="52" t="s">
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="48"/>
+      <c r="AS3" s="49"/>
+      <c r="AW3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
-      <c r="BB3" s="53"/>
-      <c r="BC3" s="54"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="48"/>
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="48"/>
+      <c r="BC3" s="49"/>
     </row>
     <row r="4" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
@@ -1593,10 +1594,10 @@
         <f t="shared" ref="AS7:AS10" si="21">AR7-AQ7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AT7" s="50" t="s">
+      <c r="AT7" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AU7" s="51"/>
+      <c r="AU7" s="55"/>
       <c r="AW7" s="36">
         <v>3</v>
       </c>
@@ -1622,10 +1623,10 @@
         <f t="shared" ref="BC7:BC10" si="23">BB7-BA7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="BD7" s="48" t="s">
+      <c r="BD7" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="BE7" s="49"/>
+      <c r="BE7" s="51"/>
     </row>
     <row r="8" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
@@ -1923,10 +1924,10 @@
         <f t="shared" si="21"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AT9" s="46" t="s">
+      <c r="AT9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AU9" s="47"/>
+      <c r="AU9" s="53"/>
       <c r="AW9" s="36">
         <v>5</v>
       </c>
@@ -1952,10 +1953,10 @@
         <f t="shared" si="23"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="BD9" s="46" t="s">
+      <c r="BD9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="BE9" s="47"/>
+      <c r="BE9" s="53"/>
     </row>
     <row r="10" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T10" s="8">
@@ -2076,15 +2077,15 @@
       </c>
     </row>
     <row r="11" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -2137,15 +2138,15 @@
       </c>
     </row>
     <row r="12" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -2265,24 +2266,24 @@
         <f>P13-O13</f>
         <v>1.8</v>
       </c>
-      <c r="AM13" s="52" t="s">
+      <c r="AM13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AN13" s="53"/>
-      <c r="AO13" s="53"/>
-      <c r="AP13" s="53"/>
-      <c r="AQ13" s="53"/>
-      <c r="AR13" s="53"/>
-      <c r="AS13" s="54"/>
-      <c r="AW13" s="52" t="s">
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="48"/>
+      <c r="AP13" s="48"/>
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="48"/>
+      <c r="AS13" s="49"/>
+      <c r="AW13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AX13" s="53"/>
-      <c r="AY13" s="53"/>
-      <c r="AZ13" s="53"/>
-      <c r="BA13" s="53"/>
-      <c r="BB13" s="53"/>
-      <c r="BC13" s="54"/>
+      <c r="AX13" s="48"/>
+      <c r="AY13" s="48"/>
+      <c r="AZ13" s="48"/>
+      <c r="BA13" s="48"/>
+      <c r="BB13" s="48"/>
+      <c r="BC13" s="49"/>
     </row>
     <row r="14" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
@@ -2537,15 +2538,15 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="55" t="s">
+      <c r="T16" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
       <c r="AM16" s="36">
         <v>2</v>
       </c>
@@ -2673,15 +2674,15 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="55" t="s">
+      <c r="AD17" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="55"/>
-      <c r="AG17" s="55"/>
-      <c r="AH17" s="55"/>
-      <c r="AI17" s="55"/>
-      <c r="AJ17" s="55"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
       <c r="AM17" s="36">
         <v>3</v>
       </c>
@@ -2707,10 +2708,10 @@
         <f t="shared" ref="AS17:AS20" si="41">AR17-AQ17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="AT17" s="48" t="s">
+      <c r="AT17" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AU17" s="49"/>
+      <c r="AU17" s="51"/>
       <c r="AW17" s="36">
         <v>3</v>
       </c>
@@ -2736,10 +2737,10 @@
         <f t="shared" ref="BC17:BC20" si="43">BB17-BA17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="BD17" s="48" t="s">
+      <c r="BD17" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="BE17" s="49"/>
+      <c r="BE17" s="51"/>
     </row>
     <row r="18" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
@@ -3020,10 +3021,10 @@
         <f t="shared" si="41"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="AT19" s="46" t="s">
+      <c r="AT19" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AU19" s="47"/>
+      <c r="AU19" s="53"/>
       <c r="AW19" s="36">
         <v>5</v>
       </c>
@@ -3049,10 +3050,10 @@
         <f t="shared" si="43"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="BD19" s="46" t="s">
+      <c r="BD19" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="BE19" s="47"/>
+      <c r="BE19" s="53"/>
     </row>
     <row r="20" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="S20">
@@ -3179,15 +3180,15 @@
       </c>
     </row>
     <row r="21" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K21" s="55" t="s">
+      <c r="K21" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -3246,15 +3247,15 @@
       </c>
     </row>
     <row r="22" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -3430,24 +3431,24 @@
         <f t="shared" si="55"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="AM23" s="52" t="s">
+      <c r="AM23" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="53"/>
-      <c r="AP23" s="53"/>
-      <c r="AQ23" s="53"/>
-      <c r="AR23" s="53"/>
-      <c r="AS23" s="54"/>
-      <c r="AW23" s="52" t="s">
+      <c r="AN23" s="48"/>
+      <c r="AO23" s="48"/>
+      <c r="AP23" s="48"/>
+      <c r="AQ23" s="48"/>
+      <c r="AR23" s="48"/>
+      <c r="AS23" s="49"/>
+      <c r="AW23" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="53"/>
-      <c r="AZ23" s="53"/>
-      <c r="BA23" s="53"/>
-      <c r="BB23" s="53"/>
-      <c r="BC23" s="54"/>
+      <c r="AX23" s="48"/>
+      <c r="AY23" s="48"/>
+      <c r="AZ23" s="48"/>
+      <c r="BA23" s="48"/>
+      <c r="BB23" s="48"/>
+      <c r="BC23" s="49"/>
     </row>
     <row r="24" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
@@ -3961,10 +3962,10 @@
         <f t="shared" ref="AS27:AS30" si="73">AR27-AQ27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="AT27" s="48" t="s">
+      <c r="AT27" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AU27" s="49"/>
+      <c r="AU27" s="51"/>
       <c r="AW27" s="36">
         <v>3</v>
       </c>
@@ -3990,10 +3991,10 @@
         <f t="shared" ref="BC27:BC30" si="75">BB27-BA27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="BD27" s="48" t="s">
+      <c r="BD27" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="BE27" s="49"/>
+      <c r="BE27" s="51"/>
     </row>
     <row r="28" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
@@ -4185,15 +4186,15 @@
         <f t="shared" ref="Y29:Y38" si="81">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="55" t="s">
+      <c r="AD29" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="55"/>
-      <c r="AG29" s="55"/>
-      <c r="AH29" s="55"/>
-      <c r="AI29" s="55"/>
-      <c r="AJ29" s="55"/>
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="46"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="46"/>
+      <c r="AI29" s="46"/>
+      <c r="AJ29" s="46"/>
       <c r="AM29" s="36">
         <v>5</v>
       </c>
@@ -4219,10 +4220,10 @@
         <f t="shared" si="73"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AT29" s="46" t="s">
+      <c r="AT29" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AU29" s="47"/>
+      <c r="AU29" s="53"/>
       <c r="AW29" s="36">
         <v>5</v>
       </c>
@@ -4248,10 +4249,10 @@
         <f t="shared" si="75"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="BD29" s="46" t="s">
+      <c r="BD29" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="BE29" s="47"/>
+      <c r="BE29" s="53"/>
     </row>
     <row r="30" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T30" s="18" t="s">
@@ -4414,24 +4415,24 @@
       </c>
     </row>
     <row r="32" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="K32" s="55" t="s">
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="K32" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -4570,24 +4571,24 @@
         <f t="shared" ref="AJ33:AJ38" si="86">AI33-AH33</f>
         <v>9</v>
       </c>
-      <c r="AM33" s="52" t="s">
+      <c r="AM33" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AN33" s="53"/>
-      <c r="AO33" s="53"/>
-      <c r="AP33" s="53"/>
-      <c r="AQ33" s="53"/>
-      <c r="AR33" s="53"/>
-      <c r="AS33" s="54"/>
-      <c r="AW33" s="52" t="s">
+      <c r="AN33" s="48"/>
+      <c r="AO33" s="48"/>
+      <c r="AP33" s="48"/>
+      <c r="AQ33" s="48"/>
+      <c r="AR33" s="48"/>
+      <c r="AS33" s="49"/>
+      <c r="AW33" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AX33" s="53"/>
-      <c r="AY33" s="53"/>
-      <c r="AZ33" s="53"/>
-      <c r="BA33" s="53"/>
-      <c r="BB33" s="53"/>
-      <c r="BC33" s="54"/>
+      <c r="AX33" s="48"/>
+      <c r="AY33" s="48"/>
+      <c r="AZ33" s="48"/>
+      <c r="BA33" s="48"/>
+      <c r="BB33" s="48"/>
+      <c r="BC33" s="49"/>
     </row>
     <row r="34" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
@@ -5151,10 +5152,10 @@
         <f t="shared" ref="AS37:AS40" si="100">AR37-AQ37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="AT37" s="48" t="s">
+      <c r="AT37" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AU37" s="49"/>
+      <c r="AU37" s="51"/>
       <c r="AW37" s="36">
         <v>3</v>
       </c>
@@ -5180,10 +5181,10 @@
         <f t="shared" ref="BC37:BC40" si="102">BB37-BA37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="BD37" s="48" t="s">
+      <c r="BD37" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="BE37" s="49"/>
+      <c r="BE37" s="51"/>
     </row>
     <row r="38" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
@@ -5439,10 +5440,10 @@
         <f t="shared" si="100"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AT39" s="46" t="s">
+      <c r="AT39" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AU39" s="47"/>
+      <c r="AU39" s="53"/>
       <c r="AW39" s="36">
         <v>5</v>
       </c>
@@ -5468,10 +5469,10 @@
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD39" s="46" t="s">
+      <c r="BD39" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="BE39" s="47"/>
+      <c r="BE39" s="53"/>
     </row>
     <row r="40" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K40" s="8">
@@ -5602,15 +5603,15 @@
       </c>
     </row>
     <row r="42" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -5659,24 +5660,24 @@
       <c r="H43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM43" s="52" t="s">
+      <c r="AM43" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="53"/>
-      <c r="AO43" s="53"/>
-      <c r="AP43" s="53"/>
-      <c r="AQ43" s="53"/>
-      <c r="AR43" s="53"/>
-      <c r="AS43" s="54"/>
-      <c r="AW43" s="52" t="s">
+      <c r="AN43" s="48"/>
+      <c r="AO43" s="48"/>
+      <c r="AP43" s="48"/>
+      <c r="AQ43" s="48"/>
+      <c r="AR43" s="48"/>
+      <c r="AS43" s="49"/>
+      <c r="AW43" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AX43" s="53"/>
-      <c r="AY43" s="53"/>
-      <c r="AZ43" s="53"/>
-      <c r="BA43" s="53"/>
-      <c r="BB43" s="53"/>
-      <c r="BC43" s="54"/>
+      <c r="AX43" s="48"/>
+      <c r="AY43" s="48"/>
+      <c r="AZ43" s="48"/>
+      <c r="BA43" s="48"/>
+      <c r="BB43" s="48"/>
+      <c r="BC43" s="49"/>
     </row>
     <row r="44" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
@@ -5931,15 +5932,15 @@
         <f t="shared" si="114"/>
         <v>126</v>
       </c>
-      <c r="T47" s="55" t="s">
+      <c r="T47" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="55"/>
-      <c r="V47" s="55"/>
-      <c r="W47" s="55"/>
-      <c r="X47" s="55"/>
-      <c r="Y47" s="55"/>
-      <c r="Z47" s="55"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="46"/>
+      <c r="Z47" s="46"/>
       <c r="AM47" s="36">
         <v>3</v>
       </c>
@@ -5965,10 +5966,10 @@
         <f t="shared" ref="AS47:AS50" si="120">AR47-AQ47</f>
         <v>9</v>
       </c>
-      <c r="AT47" s="48" t="s">
+      <c r="AT47" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AU47" s="49"/>
+      <c r="AU47" s="51"/>
       <c r="AW47" s="36">
         <v>3</v>
       </c>
@@ -5994,10 +5995,10 @@
         <f t="shared" ref="BC47:BC50" si="122">BB47-BA47</f>
         <v>18</v>
       </c>
-      <c r="BD47" s="48" t="s">
+      <c r="BD47" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="BE47" s="49"/>
+      <c r="BE47" s="51"/>
     </row>
     <row r="48" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
@@ -6191,10 +6192,10 @@
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT49" s="46" t="s">
+      <c r="AT49" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AU49" s="47"/>
+      <c r="AU49" s="53"/>
       <c r="AW49" s="36">
         <v>5</v>
       </c>
@@ -6220,10 +6221,10 @@
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD49" s="46" t="s">
+      <c r="BD49" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="BE49" s="47"/>
+      <c r="BE49" s="53"/>
     </row>
     <row r="50" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T50" s="8">
@@ -6346,15 +6347,15 @@
       </c>
     </row>
     <row r="52" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -6673,15 +6674,15 @@
       </c>
     </row>
     <row r="62" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
     </row>
     <row r="63" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
@@ -6876,39 +6877,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T47:Z47"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AM43:AS43"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="AW13:BC13"/>
-    <mergeCell ref="AW23:BC23"/>
-    <mergeCell ref="AW33:BC33"/>
-    <mergeCell ref="AW43:BC43"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AT49:AU49"/>
     <mergeCell ref="BD49:BE49"/>
     <mergeCell ref="BD39:BE39"/>
@@ -6923,6 +6891,39 @@
     <mergeCell ref="AT29:AU29"/>
     <mergeCell ref="AT39:AU39"/>
     <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="AW13:BC13"/>
+    <mergeCell ref="AW23:BC23"/>
+    <mergeCell ref="AW33:BC33"/>
+    <mergeCell ref="AW43:BC43"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T47:Z47"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AM43:AS43"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" orientation="portrait" r:id="rId1"/>
@@ -7430,41 +7431,41 @@
   </sheetPr>
   <dimension ref="B1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S59" sqref="M55:S59"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="61"/>
       <c r="K1">
         <v>113.4</v>
       </c>
     </row>
     <row r="2" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-      <c r="M3" s="52" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
+      <c r="M3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="54"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="49"/>
     </row>
     <row r="4" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="34" t="s">
@@ -7640,10 +7641,10 @@
         <f t="shared" ref="H7:H10" si="5">G7-F7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="51"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="44"/>
       <c r="M7" s="36">
         <v>3</v>
@@ -7670,10 +7671,10 @@
         <f t="shared" ref="S7:S10" si="7">R7-Q7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="T7" s="48" t="s">
+      <c r="T7" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="49"/>
+      <c r="U7" s="51"/>
     </row>
     <row r="8" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="36">
@@ -7773,10 +7774,10 @@
         <f t="shared" si="5"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="47"/>
+      <c r="J9" s="53"/>
       <c r="K9" s="44"/>
       <c r="M9" s="36">
         <v>5</v>
@@ -7803,10 +7804,10 @@
         <f t="shared" si="7"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="T9" s="46" t="s">
+      <c r="T9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="47"/>
+      <c r="U9" s="53"/>
     </row>
     <row r="10" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="39">
@@ -7880,26 +7881,31 @@
         <v>10.499999999999922</v>
       </c>
     </row>
+    <row r="11" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>-60</v>
+      </c>
+    </row>
     <row r="12" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="54"/>
-      <c r="M13" s="52" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
+      <c r="M13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="54"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="49"/>
     </row>
     <row r="14" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="34" t="s">
@@ -8075,10 +8081,10 @@
         <f t="shared" ref="H17:H20" si="13">G17-F17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="49"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="44"/>
       <c r="M17" s="36">
         <v>3</v>
@@ -8105,10 +8111,10 @@
         <f t="shared" ref="S17:S20" si="15">R17-Q17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="T17" s="48" t="s">
+      <c r="T17" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="49"/>
+      <c r="U17" s="51"/>
     </row>
     <row r="18" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="36">
@@ -8208,10 +8214,10 @@
         <f t="shared" si="13"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="47"/>
+      <c r="J19" s="53"/>
       <c r="K19" s="44"/>
       <c r="M19" s="36">
         <v>5</v>
@@ -8238,10 +8244,10 @@
         <f t="shared" si="15"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="T19" s="46" t="s">
+      <c r="T19" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="U19" s="47"/>
+      <c r="U19" s="53"/>
     </row>
     <row r="20" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="39">
@@ -8317,24 +8323,24 @@
     </row>
     <row r="22" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="54"/>
-      <c r="M23" s="52" t="s">
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="M23" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="54"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="49"/>
     </row>
     <row r="24" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="34" t="s">
@@ -8510,10 +8516,10 @@
         <f t="shared" ref="H27:H30" si="21">G27-F27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="51"/>
       <c r="K27" s="44"/>
       <c r="M27" s="36">
         <v>3</v>
@@ -8540,10 +8546,10 @@
         <f t="shared" ref="S27:S30" si="23">R27-Q27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="T27" s="48" t="s">
+      <c r="T27" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="U27" s="49"/>
+      <c r="U27" s="51"/>
     </row>
     <row r="28" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="36">
@@ -8643,10 +8649,10 @@
         <f t="shared" si="21"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="I29" s="46" t="s">
+      <c r="I29" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="47"/>
+      <c r="J29" s="53"/>
       <c r="K29" s="44"/>
       <c r="M29" s="36">
         <v>5</v>
@@ -8673,10 +8679,10 @@
         <f t="shared" si="23"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="T29" s="46" t="s">
+      <c r="T29" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="47"/>
+      <c r="U29" s="53"/>
     </row>
     <row r="30" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="39">
@@ -8752,24 +8758,24 @@
     </row>
     <row r="32" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="33" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54"/>
-      <c r="M33" s="52" t="s">
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="49"/>
+      <c r="M33" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="54"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="49"/>
     </row>
     <row r="34" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="34" t="s">
@@ -8945,10 +8951,10 @@
         <f t="shared" ref="H37:H40" si="29">G37-F37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="I37" s="48" t="s">
+      <c r="I37" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="49"/>
+      <c r="J37" s="51"/>
       <c r="K37" s="44"/>
       <c r="M37" s="36">
         <v>3</v>
@@ -8975,10 +8981,10 @@
         <f t="shared" ref="S37:S40" si="31">R37-Q37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="T37" s="48" t="s">
+      <c r="T37" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="U37" s="49"/>
+      <c r="U37" s="51"/>
     </row>
     <row r="38" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="36">
@@ -9078,10 +9084,10 @@
         <f t="shared" si="29"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="I39" s="46" t="s">
+      <c r="I39" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="47"/>
+      <c r="J39" s="53"/>
       <c r="K39" s="44"/>
       <c r="M39" s="36">
         <v>5</v>
@@ -9108,10 +9114,10 @@
         <f t="shared" si="31"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="T39" s="46" t="s">
+      <c r="T39" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="U39" s="47"/>
+      <c r="U39" s="53"/>
     </row>
     <row r="40" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="39">
@@ -9187,24 +9193,24 @@
     </row>
     <row r="42" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="43" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
-      <c r="M43" s="52" t="s">
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="49"/>
+      <c r="M43" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="54"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="49"/>
     </row>
     <row r="44" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="34" t="s">
@@ -9380,10 +9386,10 @@
         <f t="shared" ref="H47:H50" si="37">G47-F47</f>
         <v>9</v>
       </c>
-      <c r="I47" s="48" t="s">
+      <c r="I47" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="J47" s="49"/>
+      <c r="J47" s="51"/>
       <c r="K47" s="44"/>
       <c r="M47" s="36">
         <v>3</v>
@@ -9410,10 +9416,10 @@
         <f t="shared" ref="S47:S50" si="39">R47-Q47</f>
         <v>18</v>
       </c>
-      <c r="T47" s="48" t="s">
+      <c r="T47" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="U47" s="49"/>
+      <c r="U47" s="51"/>
     </row>
     <row r="48" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="36">
@@ -9513,10 +9519,10 @@
         <f t="shared" si="37"/>
         <v>9</v>
       </c>
-      <c r="I49" s="46" t="s">
+      <c r="I49" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="47"/>
+      <c r="J49" s="53"/>
       <c r="K49" s="44"/>
       <c r="M49" s="36">
         <v>5</v>
@@ -9543,10 +9549,10 @@
         <f t="shared" si="39"/>
         <v>18</v>
       </c>
-      <c r="T49" s="46" t="s">
+      <c r="T49" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="47"/>
+      <c r="U49" s="53"/>
     </row>
     <row r="50" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B50" s="39">
@@ -9622,15 +9628,15 @@
     </row>
     <row r="52" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="53" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M53" s="52" t="s">
+      <c r="M53" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="53"/>
-      <c r="S53" s="54"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="49"/>
     </row>
     <row r="54" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M54" s="34" t="s">
@@ -9735,10 +9741,10 @@
         <f t="shared" ref="S57:S60" si="43">R57-Q57</f>
         <v>54</v>
       </c>
-      <c r="T57" s="48" t="s">
+      <c r="T57" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="U57" s="49"/>
+      <c r="U57" s="51"/>
     </row>
     <row r="58" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M58" s="36">
@@ -9801,10 +9807,10 @@
         <f t="shared" si="43"/>
         <v>54</v>
       </c>
-      <c r="T59" s="46" t="s">
+      <c r="T59" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="U59" s="47"/>
+      <c r="U59" s="53"/>
     </row>
     <row r="60" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M60" s="39">
@@ -9843,6 +9849,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="M23:S23"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="M43:S43"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="M33:S33"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="M3:S3"/>
     <mergeCell ref="M53:S53"/>
@@ -9859,24 +9883,6 @@
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="T19:U19"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="M43:S43"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="M33:S33"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="I29:J29"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
@@ -9884,6 +9890,1656 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6037E6E-3BFA-4141-85F8-5D761FC0DC30}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <f>B1+0.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2">
+        <f>C1+0.1</f>
+        <v>2.1</v>
+      </c>
+      <c r="D2">
+        <f>D1+0.1</f>
+        <v>3.1</v>
+      </c>
+      <c r="E2">
+        <f>E1+0.1</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F2">
+        <f>F1+0.1</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G2">
+        <f>G1+0.1</f>
+        <v>6.1</v>
+      </c>
+      <c r="H2">
+        <f>H1+0.1</f>
+        <v>7.1</v>
+      </c>
+      <c r="I2">
+        <f>I1+0.1</f>
+        <v>8.1</v>
+      </c>
+      <c r="J2">
+        <f>J1+0.1</f>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:J10" si="0">B2+0.1</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4.2999999999999989</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>5.2999999999999989</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>6.2999999999999989</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>7.2999999999999989</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>8.2999999999999989</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>9.2999999999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4.3999999999999986</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>9.3999999999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999982</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>5.4999999999999982</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999982</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999982</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>8.4999999999999982</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>9.4999999999999982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.6000000000000005</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2.6000000000000005</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999979</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>5.5999999999999979</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>6.5999999999999979</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>7.5999999999999979</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>8.5999999999999979</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>9.5999999999999979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000006</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2.7000000000000006</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>3.7000000000000006</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4.6999999999999975</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>5.6999999999999975</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>6.6999999999999975</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>7.6999999999999975</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>8.6999999999999975</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000007</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3.8000000000000007</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4.7999999999999972</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>6.7999999999999972</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>7.7999999999999972</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>9.7999999999999972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.9000000000000008</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000008</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000008</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4.8999999999999968</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>5.8999999999999968</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>6.8999999999999968</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>7.8999999999999968</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>8.8999999999999968</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>9.8999999999999968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f>A12+0.1</f>
+        <v>10.1</v>
+      </c>
+      <c r="B13">
+        <f>B12+0.1</f>
+        <v>11.1</v>
+      </c>
+      <c r="C13">
+        <f>C12+0.1</f>
+        <v>12.1</v>
+      </c>
+      <c r="D13">
+        <f>D12+0.1</f>
+        <v>13.1</v>
+      </c>
+      <c r="E13">
+        <f>E12+0.1</f>
+        <v>14.1</v>
+      </c>
+      <c r="F13">
+        <f>F12+0.1</f>
+        <v>15.1</v>
+      </c>
+      <c r="G13">
+        <f>G12+0.1</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H13">
+        <f>H12+0.1</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I13">
+        <f>I12+0.1</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J13">
+        <f>J12+0.1</f>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" ref="A14:B21" si="1">A13+0.1</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C21" si="2">C13+0.1</f>
+        <v>12.2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D21" si="3">D13+0.1</f>
+        <v>13.2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E21" si="4">E13+0.1</f>
+        <v>14.2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F21" si="5">F13+0.1</f>
+        <v>15.2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G21" si="6">G13+0.1</f>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H21" si="7">H13+0.1</f>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I21" si="8">I13+0.1</f>
+        <v>18.200000000000003</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:J21" si="9">J13+0.1</f>
+        <v>19.200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>10.299999999999999</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>11.299999999999999</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>13.299999999999999</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>14.299999999999999</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>15.299999999999999</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>16.300000000000004</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>17.300000000000004</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>18.300000000000004</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="9"/>
+        <v>19.300000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>10.399999999999999</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>12.399999999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>13.399999999999999</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>16.400000000000006</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>17.400000000000006</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="8"/>
+        <v>18.400000000000006</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="9"/>
+        <v>19.400000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>10.499999999999998</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>11.499999999999998</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>12.499999999999998</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>13.499999999999998</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>14.499999999999998</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>15.499999999999998</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>16.500000000000007</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>17.500000000000007</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>18.500000000000007</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="9"/>
+        <v>19.500000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>10.599999999999998</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>11.599999999999998</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>12.599999999999998</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>13.599999999999998</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>14.599999999999998</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>15.599999999999998</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>16.600000000000009</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>17.600000000000009</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="8"/>
+        <v>18.600000000000009</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="9"/>
+        <v>19.600000000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>10.699999999999998</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>11.699999999999998</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>12.699999999999998</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>13.699999999999998</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>14.699999999999998</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>15.699999999999998</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>16.70000000000001</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>17.70000000000001</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>18.70000000000001</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="9"/>
+        <v>19.70000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>12.799999999999997</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>13.799999999999997</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>14.799999999999997</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>15.799999999999997</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>16.800000000000011</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>17.800000000000011</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>18.800000000000011</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>19.800000000000011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>10.899999999999997</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>11.899999999999997</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>12.899999999999997</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>13.899999999999997</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>14.899999999999997</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>15.899999999999997</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>16.900000000000013</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>17.900000000000013</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="8"/>
+        <v>18.900000000000013</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="9"/>
+        <v>19.900000000000013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <v>28</v>
+      </c>
+      <c r="J23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f>A23+0.1</f>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B24">
+        <f>B23+0.1</f>
+        <v>21.1</v>
+      </c>
+      <c r="C24">
+        <f>C23+0.1</f>
+        <v>22.1</v>
+      </c>
+      <c r="D24">
+        <f>D23+0.1</f>
+        <v>23.1</v>
+      </c>
+      <c r="E24">
+        <f>E23+0.1</f>
+        <v>24.1</v>
+      </c>
+      <c r="F24">
+        <f>F23+0.1</f>
+        <v>25.1</v>
+      </c>
+      <c r="G24">
+        <f>G23+0.1</f>
+        <v>26.1</v>
+      </c>
+      <c r="H24">
+        <f>H23+0.1</f>
+        <v>27.1</v>
+      </c>
+      <c r="I24">
+        <f>I23+0.1</f>
+        <v>28.1</v>
+      </c>
+      <c r="J24">
+        <f>J23+0.1</f>
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f t="shared" ref="A25:A32" si="10">A24+0.1</f>
+        <v>20.200000000000003</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:B32" si="11">B24+0.1</f>
+        <v>21.200000000000003</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:C32" si="12">C24+0.1</f>
+        <v>22.200000000000003</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:D32" si="13">D24+0.1</f>
+        <v>23.200000000000003</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E32" si="14">E24+0.1</f>
+        <v>24.200000000000003</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F32" si="15">F24+0.1</f>
+        <v>25.200000000000003</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G32" si="16">G24+0.1</f>
+        <v>26.200000000000003</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H32" si="17">H24+0.1</f>
+        <v>27.200000000000003</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:I32" si="18">I24+0.1</f>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J32" si="19">J24+0.1</f>
+        <v>29.200000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f t="shared" si="10"/>
+        <v>20.300000000000004</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="11"/>
+        <v>21.300000000000004</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="12"/>
+        <v>22.300000000000004</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="13"/>
+        <v>23.300000000000004</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="14"/>
+        <v>24.300000000000004</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="15"/>
+        <v>25.300000000000004</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="16"/>
+        <v>26.300000000000004</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="17"/>
+        <v>27.300000000000004</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="18"/>
+        <v>28.300000000000004</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="19"/>
+        <v>29.300000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f t="shared" si="10"/>
+        <v>20.400000000000006</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="11"/>
+        <v>21.400000000000006</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="12"/>
+        <v>22.400000000000006</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="13"/>
+        <v>23.400000000000006</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="14"/>
+        <v>24.400000000000006</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="15"/>
+        <v>25.400000000000006</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="16"/>
+        <v>26.400000000000006</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="17"/>
+        <v>27.400000000000006</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="18"/>
+        <v>28.400000000000006</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="19"/>
+        <v>29.400000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f t="shared" si="10"/>
+        <v>20.500000000000007</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="11"/>
+        <v>21.500000000000007</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="12"/>
+        <v>22.500000000000007</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="13"/>
+        <v>23.500000000000007</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="14"/>
+        <v>24.500000000000007</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="15"/>
+        <v>25.500000000000007</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="16"/>
+        <v>26.500000000000007</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="17"/>
+        <v>27.500000000000007</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="18"/>
+        <v>28.500000000000007</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="19"/>
+        <v>29.500000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f t="shared" si="10"/>
+        <v>20.600000000000009</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="11"/>
+        <v>21.600000000000009</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="12"/>
+        <v>22.600000000000009</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="13"/>
+        <v>23.600000000000009</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="14"/>
+        <v>24.600000000000009</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="15"/>
+        <v>25.600000000000009</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="16"/>
+        <v>26.600000000000009</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="17"/>
+        <v>27.600000000000009</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="18"/>
+        <v>28.600000000000009</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="19"/>
+        <v>29.600000000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f t="shared" si="10"/>
+        <v>20.70000000000001</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="11"/>
+        <v>21.70000000000001</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="12"/>
+        <v>22.70000000000001</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="13"/>
+        <v>23.70000000000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="14"/>
+        <v>24.70000000000001</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="15"/>
+        <v>25.70000000000001</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="16"/>
+        <v>26.70000000000001</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="17"/>
+        <v>27.70000000000001</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="18"/>
+        <v>28.70000000000001</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="19"/>
+        <v>29.70000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f t="shared" si="10"/>
+        <v>20.800000000000011</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="11"/>
+        <v>21.800000000000011</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="12"/>
+        <v>22.800000000000011</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="13"/>
+        <v>23.800000000000011</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="14"/>
+        <v>24.800000000000011</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="15"/>
+        <v>25.800000000000011</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="16"/>
+        <v>26.800000000000011</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="17"/>
+        <v>27.800000000000011</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="18"/>
+        <v>28.800000000000011</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="19"/>
+        <v>29.800000000000011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f t="shared" si="10"/>
+        <v>20.900000000000013</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="11"/>
+        <v>21.900000000000013</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="12"/>
+        <v>22.900000000000013</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="13"/>
+        <v>23.900000000000013</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="14"/>
+        <v>24.900000000000013</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="15"/>
+        <v>25.900000000000013</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="16"/>
+        <v>26.900000000000013</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="17"/>
+        <v>27.900000000000013</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="18"/>
+        <v>28.900000000000013</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="19"/>
+        <v>29.900000000000013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>34</v>
+      </c>
+      <c r="F34">
+        <v>35</v>
+      </c>
+      <c r="G34">
+        <v>36</v>
+      </c>
+      <c r="H34">
+        <v>37</v>
+      </c>
+      <c r="I34">
+        <v>38</v>
+      </c>
+      <c r="J34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f>A34+0.1</f>
+        <v>30.1</v>
+      </c>
+      <c r="B35">
+        <f>B34+0.1</f>
+        <v>31.1</v>
+      </c>
+      <c r="C35">
+        <f>C34+0.1</f>
+        <v>32.1</v>
+      </c>
+      <c r="D35">
+        <f>D34+0.1</f>
+        <v>33.1</v>
+      </c>
+      <c r="E35">
+        <f>E34+0.1</f>
+        <v>34.1</v>
+      </c>
+      <c r="F35">
+        <f>F34+0.1</f>
+        <v>35.1</v>
+      </c>
+      <c r="G35">
+        <f>G34+0.1</f>
+        <v>36.1</v>
+      </c>
+      <c r="H35">
+        <f>H34+0.1</f>
+        <v>37.1</v>
+      </c>
+      <c r="I35">
+        <f>I34+0.1</f>
+        <v>38.1</v>
+      </c>
+      <c r="J35">
+        <f>J34+0.1</f>
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f t="shared" ref="A36:A43" si="20">A35+0.1</f>
+        <v>30.200000000000003</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:B43" si="21">B35+0.1</f>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C43" si="22">C35+0.1</f>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:D43" si="23">D35+0.1</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:E43" si="24">E35+0.1</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:F43" si="25">F35+0.1</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G43" si="26">G35+0.1</f>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H43" si="27">H35+0.1</f>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I43" si="28">I35+0.1</f>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36:J43" si="29">J35+0.1</f>
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f t="shared" si="20"/>
+        <v>30.300000000000004</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="21"/>
+        <v>31.300000000000004</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="22"/>
+        <v>32.300000000000004</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="23"/>
+        <v>33.300000000000004</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="24"/>
+        <v>34.300000000000004</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="25"/>
+        <v>35.300000000000004</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="26"/>
+        <v>36.300000000000004</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="27"/>
+        <v>37.300000000000004</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="28"/>
+        <v>38.300000000000004</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="29"/>
+        <v>39.300000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f t="shared" si="20"/>
+        <v>30.400000000000006</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="21"/>
+        <v>31.400000000000006</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="22"/>
+        <v>32.400000000000006</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="23"/>
+        <v>33.400000000000006</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="24"/>
+        <v>34.400000000000006</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="25"/>
+        <v>35.400000000000006</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="26"/>
+        <v>36.400000000000006</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="27"/>
+        <v>37.400000000000006</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="28"/>
+        <v>38.400000000000006</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="29"/>
+        <v>39.400000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f t="shared" si="20"/>
+        <v>30.500000000000007</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="21"/>
+        <v>31.500000000000007</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="22"/>
+        <v>32.500000000000007</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="23"/>
+        <v>33.500000000000007</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="24"/>
+        <v>34.500000000000007</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="25"/>
+        <v>35.500000000000007</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="26"/>
+        <v>36.500000000000007</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="27"/>
+        <v>37.500000000000007</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="28"/>
+        <v>38.500000000000007</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="29"/>
+        <v>39.500000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f t="shared" si="20"/>
+        <v>30.600000000000009</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="21"/>
+        <v>31.600000000000009</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="22"/>
+        <v>32.600000000000009</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="23"/>
+        <v>33.600000000000009</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="24"/>
+        <v>34.600000000000009</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="25"/>
+        <v>35.600000000000009</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="26"/>
+        <v>36.600000000000009</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="27"/>
+        <v>37.600000000000009</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="28"/>
+        <v>38.600000000000009</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="29"/>
+        <v>39.600000000000009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f t="shared" si="20"/>
+        <v>30.70000000000001</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="21"/>
+        <v>31.70000000000001</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="22"/>
+        <v>32.70000000000001</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="23"/>
+        <v>33.70000000000001</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="24"/>
+        <v>34.70000000000001</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="25"/>
+        <v>35.70000000000001</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="26"/>
+        <v>36.70000000000001</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="27"/>
+        <v>37.70000000000001</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="28"/>
+        <v>38.70000000000001</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="29"/>
+        <v>39.70000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f t="shared" si="20"/>
+        <v>30.800000000000011</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="21"/>
+        <v>31.800000000000011</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="22"/>
+        <v>32.800000000000011</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="23"/>
+        <v>33.800000000000011</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="24"/>
+        <v>34.800000000000011</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="25"/>
+        <v>35.800000000000011</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="26"/>
+        <v>36.800000000000011</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="27"/>
+        <v>37.800000000000011</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="28"/>
+        <v>38.800000000000011</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="29"/>
+        <v>39.800000000000011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f t="shared" si="20"/>
+        <v>30.900000000000013</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="21"/>
+        <v>31.900000000000013</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="22"/>
+        <v>32.900000000000013</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="23"/>
+        <v>33.900000000000013</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="24"/>
+        <v>34.900000000000013</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="25"/>
+        <v>35.900000000000013</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="26"/>
+        <v>36.900000000000013</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="27"/>
+        <v>37.900000000000013</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="28"/>
+        <v>38.900000000000013</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="29"/>
+        <v>39.900000000000013</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE15A31C-658C-4517-9C16-F9A3BB1636BA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>

--- a/temp/iter - copia.xlsx
+++ b/temp/iter - copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CA4610-956A-4C08-A121-362D92168A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38039B3B-96CF-4AEE-A94A-D115023D7C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
@@ -577,7 +577,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,22 +604,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -619,11 +619,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -925,24 +925,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="K2" s="46" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="K2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
     </row>
     <row r="3" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
@@ -987,42 +987,42 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="46" t="s">
+      <c r="T3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AB3" s="46" t="s">
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AB3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AM3" s="47" t="s">
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AM3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="48"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="48"/>
-      <c r="AS3" s="49"/>
-      <c r="AW3" s="47" t="s">
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="54"/>
+      <c r="AW3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="48"/>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="48"/>
-      <c r="BB3" s="48"/>
-      <c r="BC3" s="49"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
+      <c r="BB3" s="53"/>
+      <c r="BC3" s="54"/>
     </row>
     <row r="4" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
@@ -1594,10 +1594,10 @@
         <f t="shared" ref="AS7:AS10" si="21">AR7-AQ7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AT7" s="54" t="s">
+      <c r="AT7" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AU7" s="55"/>
+      <c r="AU7" s="51"/>
       <c r="AW7" s="36">
         <v>3</v>
       </c>
@@ -1623,10 +1623,10 @@
         <f t="shared" ref="BC7:BC10" si="23">BB7-BA7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="BD7" s="50" t="s">
+      <c r="BD7" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="BE7" s="51"/>
+      <c r="BE7" s="49"/>
     </row>
     <row r="8" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
@@ -1924,10 +1924,10 @@
         <f t="shared" si="21"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AT9" s="52" t="s">
+      <c r="AT9" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AU9" s="53"/>
+      <c r="AU9" s="47"/>
       <c r="AW9" s="36">
         <v>5</v>
       </c>
@@ -1953,10 +1953,10 @@
         <f t="shared" si="23"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="BD9" s="52" t="s">
+      <c r="BD9" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BE9" s="53"/>
+      <c r="BE9" s="47"/>
     </row>
     <row r="10" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T10" s="8">
@@ -2077,15 +2077,15 @@
       </c>
     </row>
     <row r="11" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -2138,15 +2138,15 @@
       </c>
     </row>
     <row r="12" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -2266,24 +2266,24 @@
         <f>P13-O13</f>
         <v>1.8</v>
       </c>
-      <c r="AM13" s="47" t="s">
+      <c r="AM13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="49"/>
-      <c r="AW13" s="47" t="s">
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="54"/>
+      <c r="AW13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="48"/>
-      <c r="AZ13" s="48"/>
-      <c r="BA13" s="48"/>
-      <c r="BB13" s="48"/>
-      <c r="BC13" s="49"/>
+      <c r="AX13" s="53"/>
+      <c r="AY13" s="53"/>
+      <c r="AZ13" s="53"/>
+      <c r="BA13" s="53"/>
+      <c r="BB13" s="53"/>
+      <c r="BC13" s="54"/>
     </row>
     <row r="14" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
@@ -2538,15 +2538,15 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="46" t="s">
+      <c r="T16" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
       <c r="AM16" s="36">
         <v>2</v>
       </c>
@@ -2674,15 +2674,15 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="46" t="s">
+      <c r="AD17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="46"/>
-      <c r="AI17" s="46"/>
-      <c r="AJ17" s="46"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="55"/>
+      <c r="AH17" s="55"/>
+      <c r="AI17" s="55"/>
+      <c r="AJ17" s="55"/>
       <c r="AM17" s="36">
         <v>3</v>
       </c>
@@ -2708,10 +2708,10 @@
         <f t="shared" ref="AS17:AS20" si="41">AR17-AQ17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="AT17" s="50" t="s">
+      <c r="AT17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AU17" s="51"/>
+      <c r="AU17" s="49"/>
       <c r="AW17" s="36">
         <v>3</v>
       </c>
@@ -2737,10 +2737,10 @@
         <f t="shared" ref="BC17:BC20" si="43">BB17-BA17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="BD17" s="50" t="s">
+      <c r="BD17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="BE17" s="51"/>
+      <c r="BE17" s="49"/>
     </row>
     <row r="18" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
@@ -3021,10 +3021,10 @@
         <f t="shared" si="41"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="AT19" s="52" t="s">
+      <c r="AT19" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AU19" s="53"/>
+      <c r="AU19" s="47"/>
       <c r="AW19" s="36">
         <v>5</v>
       </c>
@@ -3050,10 +3050,10 @@
         <f t="shared" si="43"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="BD19" s="52" t="s">
+      <c r="BD19" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BE19" s="53"/>
+      <c r="BE19" s="47"/>
     </row>
     <row r="20" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="S20">
@@ -3180,15 +3180,15 @@
       </c>
     </row>
     <row r="21" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K21" s="46" t="s">
+      <c r="K21" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -3247,15 +3247,15 @@
       </c>
     </row>
     <row r="22" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -3431,24 +3431,24 @@
         <f t="shared" si="55"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="AM23" s="47" t="s">
+      <c r="AM23" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AN23" s="48"/>
-      <c r="AO23" s="48"/>
-      <c r="AP23" s="48"/>
-      <c r="AQ23" s="48"/>
-      <c r="AR23" s="48"/>
-      <c r="AS23" s="49"/>
-      <c r="AW23" s="47" t="s">
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="53"/>
+      <c r="AP23" s="53"/>
+      <c r="AQ23" s="53"/>
+      <c r="AR23" s="53"/>
+      <c r="AS23" s="54"/>
+      <c r="AW23" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AX23" s="48"/>
-      <c r="AY23" s="48"/>
-      <c r="AZ23" s="48"/>
-      <c r="BA23" s="48"/>
-      <c r="BB23" s="48"/>
-      <c r="BC23" s="49"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="53"/>
+      <c r="AZ23" s="53"/>
+      <c r="BA23" s="53"/>
+      <c r="BB23" s="53"/>
+      <c r="BC23" s="54"/>
     </row>
     <row r="24" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
@@ -3962,10 +3962,10 @@
         <f t="shared" ref="AS27:AS30" si="73">AR27-AQ27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="AT27" s="50" t="s">
+      <c r="AT27" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AU27" s="51"/>
+      <c r="AU27" s="49"/>
       <c r="AW27" s="36">
         <v>3</v>
       </c>
@@ -3991,10 +3991,10 @@
         <f t="shared" ref="BC27:BC30" si="75">BB27-BA27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="BD27" s="50" t="s">
+      <c r="BD27" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="BE27" s="51"/>
+      <c r="BE27" s="49"/>
     </row>
     <row r="28" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
@@ -4186,15 +4186,15 @@
         <f t="shared" ref="Y29:Y38" si="81">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="46" t="s">
+      <c r="AD29" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="46"/>
-      <c r="AF29" s="46"/>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="46"/>
-      <c r="AI29" s="46"/>
-      <c r="AJ29" s="46"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="55"/>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="55"/>
+      <c r="AJ29" s="55"/>
       <c r="AM29" s="36">
         <v>5</v>
       </c>
@@ -4220,10 +4220,10 @@
         <f t="shared" si="73"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AT29" s="52" t="s">
+      <c r="AT29" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AU29" s="53"/>
+      <c r="AU29" s="47"/>
       <c r="AW29" s="36">
         <v>5</v>
       </c>
@@ -4249,10 +4249,10 @@
         <f t="shared" si="75"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="BD29" s="52" t="s">
+      <c r="BD29" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BE29" s="53"/>
+      <c r="BE29" s="47"/>
     </row>
     <row r="30" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T30" s="18" t="s">
@@ -4415,24 +4415,24 @@
       </c>
     </row>
     <row r="32" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="K32" s="46" t="s">
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="K32" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -4571,24 +4571,24 @@
         <f t="shared" ref="AJ33:AJ38" si="86">AI33-AH33</f>
         <v>9</v>
       </c>
-      <c r="AM33" s="47" t="s">
+      <c r="AM33" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AN33" s="48"/>
-      <c r="AO33" s="48"/>
-      <c r="AP33" s="48"/>
-      <c r="AQ33" s="48"/>
-      <c r="AR33" s="48"/>
-      <c r="AS33" s="49"/>
-      <c r="AW33" s="47" t="s">
+      <c r="AN33" s="53"/>
+      <c r="AO33" s="53"/>
+      <c r="AP33" s="53"/>
+      <c r="AQ33" s="53"/>
+      <c r="AR33" s="53"/>
+      <c r="AS33" s="54"/>
+      <c r="AW33" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AX33" s="48"/>
-      <c r="AY33" s="48"/>
-      <c r="AZ33" s="48"/>
-      <c r="BA33" s="48"/>
-      <c r="BB33" s="48"/>
-      <c r="BC33" s="49"/>
+      <c r="AX33" s="53"/>
+      <c r="AY33" s="53"/>
+      <c r="AZ33" s="53"/>
+      <c r="BA33" s="53"/>
+      <c r="BB33" s="53"/>
+      <c r="BC33" s="54"/>
     </row>
     <row r="34" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
@@ -5152,10 +5152,10 @@
         <f t="shared" ref="AS37:AS40" si="100">AR37-AQ37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="AT37" s="50" t="s">
+      <c r="AT37" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AU37" s="51"/>
+      <c r="AU37" s="49"/>
       <c r="AW37" s="36">
         <v>3</v>
       </c>
@@ -5181,10 +5181,10 @@
         <f t="shared" ref="BC37:BC40" si="102">BB37-BA37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="BD37" s="50" t="s">
+      <c r="BD37" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="BE37" s="51"/>
+      <c r="BE37" s="49"/>
     </row>
     <row r="38" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
@@ -5440,10 +5440,10 @@
         <f t="shared" si="100"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AT39" s="52" t="s">
+      <c r="AT39" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AU39" s="53"/>
+      <c r="AU39" s="47"/>
       <c r="AW39" s="36">
         <v>5</v>
       </c>
@@ -5469,10 +5469,10 @@
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD39" s="52" t="s">
+      <c r="BD39" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BE39" s="53"/>
+      <c r="BE39" s="47"/>
     </row>
     <row r="40" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K40" s="8">
@@ -5603,15 +5603,15 @@
       </c>
     </row>
     <row r="42" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -5660,24 +5660,24 @@
       <c r="H43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM43" s="47" t="s">
+      <c r="AM43" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="48"/>
-      <c r="AO43" s="48"/>
-      <c r="AP43" s="48"/>
-      <c r="AQ43" s="48"/>
-      <c r="AR43" s="48"/>
-      <c r="AS43" s="49"/>
-      <c r="AW43" s="47" t="s">
+      <c r="AN43" s="53"/>
+      <c r="AO43" s="53"/>
+      <c r="AP43" s="53"/>
+      <c r="AQ43" s="53"/>
+      <c r="AR43" s="53"/>
+      <c r="AS43" s="54"/>
+      <c r="AW43" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AX43" s="48"/>
-      <c r="AY43" s="48"/>
-      <c r="AZ43" s="48"/>
-      <c r="BA43" s="48"/>
-      <c r="BB43" s="48"/>
-      <c r="BC43" s="49"/>
+      <c r="AX43" s="53"/>
+      <c r="AY43" s="53"/>
+      <c r="AZ43" s="53"/>
+      <c r="BA43" s="53"/>
+      <c r="BB43" s="53"/>
+      <c r="BC43" s="54"/>
     </row>
     <row r="44" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
@@ -5932,15 +5932,15 @@
         <f t="shared" si="114"/>
         <v>126</v>
       </c>
-      <c r="T47" s="46" t="s">
+      <c r="T47" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="46"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
-      <c r="X47" s="46"/>
-      <c r="Y47" s="46"/>
-      <c r="Z47" s="46"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="55"/>
+      <c r="Z47" s="55"/>
       <c r="AM47" s="36">
         <v>3</v>
       </c>
@@ -5966,10 +5966,10 @@
         <f t="shared" ref="AS47:AS50" si="120">AR47-AQ47</f>
         <v>9</v>
       </c>
-      <c r="AT47" s="50" t="s">
+      <c r="AT47" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AU47" s="51"/>
+      <c r="AU47" s="49"/>
       <c r="AW47" s="36">
         <v>3</v>
       </c>
@@ -5995,10 +5995,10 @@
         <f t="shared" ref="BC47:BC50" si="122">BB47-BA47</f>
         <v>18</v>
       </c>
-      <c r="BD47" s="50" t="s">
+      <c r="BD47" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="BE47" s="51"/>
+      <c r="BE47" s="49"/>
     </row>
     <row r="48" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
@@ -6192,10 +6192,10 @@
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT49" s="52" t="s">
+      <c r="AT49" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AU49" s="53"/>
+      <c r="AU49" s="47"/>
       <c r="AW49" s="36">
         <v>5</v>
       </c>
@@ -6221,10 +6221,10 @@
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD49" s="52" t="s">
+      <c r="BD49" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BE49" s="53"/>
+      <c r="BE49" s="47"/>
     </row>
     <row r="50" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T50" s="8">
@@ -6347,15 +6347,15 @@
       </c>
     </row>
     <row r="52" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -6674,15 +6674,15 @@
       </c>
     </row>
     <row r="62" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
     </row>
     <row r="63" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
@@ -6877,6 +6877,39 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T47:Z47"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AM43:AS43"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="AW13:BC13"/>
+    <mergeCell ref="AW23:BC23"/>
+    <mergeCell ref="AW33:BC33"/>
+    <mergeCell ref="AW43:BC43"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AT49:AU49"/>
     <mergeCell ref="BD49:BE49"/>
     <mergeCell ref="BD39:BE39"/>
@@ -6891,39 +6924,6 @@
     <mergeCell ref="AT29:AU29"/>
     <mergeCell ref="AT39:AU39"/>
     <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="AW13:BC13"/>
-    <mergeCell ref="AW23:BC23"/>
-    <mergeCell ref="AW33:BC33"/>
-    <mergeCell ref="AW43:BC43"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T47:Z47"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AM43:AS43"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" orientation="portrait" r:id="rId1"/>
@@ -7431,41 +7431,41 @@
   </sheetPr>
   <dimension ref="B1:U60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="61"/>
+      <c r="J1" s="60"/>
       <c r="K1">
         <v>113.4</v>
       </c>
     </row>
     <row r="2" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-      <c r="M3" s="47" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
+      <c r="M3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="49"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="54"/>
     </row>
     <row r="4" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="34" t="s">
@@ -7641,10 +7641,10 @@
         <f t="shared" ref="H7:H10" si="5">G7-F7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="44"/>
       <c r="M7" s="36">
         <v>3</v>
@@ -7671,10 +7671,10 @@
         <f t="shared" ref="S7:S10" si="7">R7-Q7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="T7" s="50" t="s">
+      <c r="T7" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="51"/>
+      <c r="U7" s="49"/>
     </row>
     <row r="8" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="36">
@@ -7774,10 +7774,10 @@
         <f t="shared" si="5"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="53"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="44"/>
       <c r="M9" s="36">
         <v>5</v>
@@ -7804,10 +7804,10 @@
         <f t="shared" si="7"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="T9" s="52" t="s">
+      <c r="T9" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="53"/>
+      <c r="U9" s="47"/>
     </row>
     <row r="10" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="39">
@@ -7888,24 +7888,24 @@
     </row>
     <row r="12" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
-      <c r="M13" s="47" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="M13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="49"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="54"/>
     </row>
     <row r="14" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="34" t="s">
@@ -8081,10 +8081,10 @@
         <f t="shared" ref="H17:H20" si="13">G17-F17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="51"/>
+      <c r="J17" s="49"/>
       <c r="K17" s="44"/>
       <c r="M17" s="36">
         <v>3</v>
@@ -8111,10 +8111,10 @@
         <f t="shared" ref="S17:S20" si="15">R17-Q17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="T17" s="50" t="s">
+      <c r="T17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="51"/>
+      <c r="U17" s="49"/>
     </row>
     <row r="18" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="36">
@@ -8214,10 +8214,10 @@
         <f t="shared" si="13"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="53"/>
+      <c r="J19" s="47"/>
       <c r="K19" s="44"/>
       <c r="M19" s="36">
         <v>5</v>
@@ -8244,10 +8244,10 @@
         <f t="shared" si="15"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="T19" s="52" t="s">
+      <c r="T19" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="U19" s="53"/>
+      <c r="U19" s="47"/>
     </row>
     <row r="20" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="39">
@@ -8323,24 +8323,24 @@
     </row>
     <row r="22" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="M23" s="47" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+      <c r="M23" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="49"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="54"/>
     </row>
     <row r="24" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="34" t="s">
@@ -8516,10 +8516,10 @@
         <f t="shared" ref="H27:H30" si="21">G27-F27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="I27" s="50" t="s">
+      <c r="I27" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="51"/>
+      <c r="J27" s="49"/>
       <c r="K27" s="44"/>
       <c r="M27" s="36">
         <v>3</v>
@@ -8546,10 +8546,10 @@
         <f t="shared" ref="S27:S30" si="23">R27-Q27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="T27" s="50" t="s">
+      <c r="T27" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="U27" s="51"/>
+      <c r="U27" s="49"/>
     </row>
     <row r="28" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="36">
@@ -8649,10 +8649,10 @@
         <f t="shared" si="21"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="I29" s="52" t="s">
+      <c r="I29" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="53"/>
+      <c r="J29" s="47"/>
       <c r="K29" s="44"/>
       <c r="M29" s="36">
         <v>5</v>
@@ -8679,10 +8679,10 @@
         <f t="shared" si="23"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="T29" s="52" t="s">
+      <c r="T29" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="53"/>
+      <c r="U29" s="47"/>
     </row>
     <row r="30" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="39">
@@ -8758,24 +8758,24 @@
     </row>
     <row r="32" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="33" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="49"/>
-      <c r="M33" s="47" t="s">
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="54"/>
+      <c r="M33" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="49"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="54"/>
     </row>
     <row r="34" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="34" t="s">
@@ -8951,10 +8951,10 @@
         <f t="shared" ref="H37:H40" si="29">G37-F37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="I37" s="50" t="s">
+      <c r="I37" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="51"/>
+      <c r="J37" s="49"/>
       <c r="K37" s="44"/>
       <c r="M37" s="36">
         <v>3</v>
@@ -8981,10 +8981,10 @@
         <f t="shared" ref="S37:S40" si="31">R37-Q37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="T37" s="50" t="s">
+      <c r="T37" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="U37" s="51"/>
+      <c r="U37" s="49"/>
     </row>
     <row r="38" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="36">
@@ -9084,10 +9084,10 @@
         <f t="shared" si="29"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="I39" s="52" t="s">
+      <c r="I39" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="53"/>
+      <c r="J39" s="47"/>
       <c r="K39" s="44"/>
       <c r="M39" s="36">
         <v>5</v>
@@ -9114,10 +9114,10 @@
         <f t="shared" si="31"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="T39" s="52" t="s">
+      <c r="T39" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="U39" s="53"/>
+      <c r="U39" s="47"/>
     </row>
     <row r="40" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="39">
@@ -9193,24 +9193,24 @@
     </row>
     <row r="42" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="43" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="49"/>
-      <c r="M43" s="47" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="54"/>
+      <c r="M43" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="49"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="54"/>
     </row>
     <row r="44" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="34" t="s">
@@ -9386,10 +9386,10 @@
         <f t="shared" ref="H47:H50" si="37">G47-F47</f>
         <v>9</v>
       </c>
-      <c r="I47" s="50" t="s">
+      <c r="I47" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="J47" s="51"/>
+      <c r="J47" s="49"/>
       <c r="K47" s="44"/>
       <c r="M47" s="36">
         <v>3</v>
@@ -9416,10 +9416,10 @@
         <f t="shared" ref="S47:S50" si="39">R47-Q47</f>
         <v>18</v>
       </c>
-      <c r="T47" s="50" t="s">
+      <c r="T47" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="U47" s="51"/>
+      <c r="U47" s="49"/>
     </row>
     <row r="48" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="36">
@@ -9519,10 +9519,10 @@
         <f t="shared" si="37"/>
         <v>9</v>
       </c>
-      <c r="I49" s="52" t="s">
+      <c r="I49" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="53"/>
+      <c r="J49" s="47"/>
       <c r="K49" s="44"/>
       <c r="M49" s="36">
         <v>5</v>
@@ -9549,10 +9549,10 @@
         <f t="shared" si="39"/>
         <v>18</v>
       </c>
-      <c r="T49" s="52" t="s">
+      <c r="T49" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="53"/>
+      <c r="U49" s="47"/>
     </row>
     <row r="50" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B50" s="39">
@@ -9628,15 +9628,15 @@
     </row>
     <row r="52" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="53" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M53" s="47" t="s">
+      <c r="M53" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="48"/>
-      <c r="S53" s="49"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="53"/>
+      <c r="S53" s="54"/>
     </row>
     <row r="54" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M54" s="34" t="s">
@@ -9669,23 +9669,23 @@
         <v>18</v>
       </c>
       <c r="O55" s="9">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="P55" s="8">
         <f>N55*O55</f>
-        <v>54</v>
+        <v>3.6</v>
       </c>
       <c r="Q55" s="10">
         <f>P55</f>
-        <v>54</v>
+        <v>3.6</v>
       </c>
       <c r="R55" s="8">
         <f>O55*36</f>
-        <v>108</v>
+        <v>7.2</v>
       </c>
       <c r="S55" s="37">
         <f>R55-Q55</f>
-        <v>54</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="56" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -9696,23 +9696,23 @@
         <v>18</v>
       </c>
       <c r="O56" s="9">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="P56" s="8">
         <f t="shared" ref="P56:P60" si="40">N56*O56</f>
-        <v>108</v>
+        <v>7.2</v>
       </c>
       <c r="Q56" s="10">
         <f>P56+Q55</f>
-        <v>162</v>
+        <v>10.8</v>
       </c>
       <c r="R56" s="8">
         <f t="shared" ref="R56:R60" si="41">O56*36</f>
-        <v>216</v>
+        <v>14.4</v>
       </c>
       <c r="S56" s="38">
         <f>R56-Q56</f>
-        <v>54</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="57" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -9723,28 +9723,28 @@
         <v>18</v>
       </c>
       <c r="O57" s="9">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="P57" s="8">
         <f t="shared" si="40"/>
-        <v>216</v>
+        <v>14.4</v>
       </c>
       <c r="Q57" s="10">
         <f t="shared" ref="Q57:Q60" si="42">P57+Q56</f>
-        <v>378</v>
+        <v>25.200000000000003</v>
       </c>
       <c r="R57" s="8">
         <f t="shared" si="41"/>
-        <v>432</v>
+        <v>28.8</v>
       </c>
       <c r="S57" s="37">
         <f t="shared" ref="S57:S60" si="43">R57-Q57</f>
-        <v>54</v>
-      </c>
-      <c r="T57" s="50" t="s">
+        <v>3.5999999999999979</v>
+      </c>
+      <c r="T57" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="U57" s="51"/>
+      <c r="U57" s="49"/>
     </row>
     <row r="58" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M58" s="36">
@@ -9754,31 +9754,31 @@
         <v>18</v>
       </c>
       <c r="O58" s="9">
-        <v>24</v>
+        <v>1.6</v>
       </c>
       <c r="P58" s="8">
         <f t="shared" si="40"/>
-        <v>432</v>
+        <v>28.8</v>
       </c>
       <c r="Q58" s="10">
         <f t="shared" si="42"/>
-        <v>810</v>
+        <v>54</v>
       </c>
       <c r="R58" s="8">
         <f t="shared" si="41"/>
-        <v>864</v>
+        <v>57.6</v>
       </c>
       <c r="S58" s="38">
         <f t="shared" si="43"/>
-        <v>54</v>
+        <v>3.6000000000000014</v>
       </c>
       <c r="T58" s="32">
         <f>Q60</f>
-        <v>3402</v>
+        <v>226.8</v>
       </c>
       <c r="U58" s="30">
         <f>T58/S60</f>
-        <v>63</v>
+        <v>63.000000000000099</v>
       </c>
     </row>
     <row r="59" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -9789,28 +9789,28 @@
         <v>18</v>
       </c>
       <c r="O59" s="9">
-        <v>48</v>
+        <v>3.2</v>
       </c>
       <c r="P59" s="8">
         <f t="shared" si="40"/>
-        <v>864</v>
+        <v>57.6</v>
       </c>
       <c r="Q59" s="10">
         <f t="shared" si="42"/>
-        <v>1674</v>
+        <v>111.6</v>
       </c>
       <c r="R59" s="8">
         <f t="shared" si="41"/>
-        <v>1728</v>
+        <v>115.2</v>
       </c>
       <c r="S59" s="37">
         <f t="shared" si="43"/>
-        <v>54</v>
-      </c>
-      <c r="T59" s="52" t="s">
+        <v>3.6000000000000085</v>
+      </c>
+      <c r="T59" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="U59" s="53"/>
+      <c r="U59" s="47"/>
     </row>
     <row r="60" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M60" s="39">
@@ -9820,41 +9820,47 @@
         <v>18</v>
       </c>
       <c r="O60" s="41">
-        <v>96</v>
+        <v>6.4</v>
       </c>
       <c r="P60" s="40">
         <f t="shared" si="40"/>
-        <v>1728</v>
+        <v>115.2</v>
       </c>
       <c r="Q60" s="42">
         <f t="shared" si="42"/>
-        <v>3402</v>
+        <v>226.8</v>
       </c>
       <c r="R60" s="40">
         <f t="shared" si="41"/>
-        <v>3456</v>
+        <v>230.4</v>
       </c>
       <c r="S60" s="43">
         <f t="shared" si="43"/>
-        <v>54</v>
+        <v>3.5999999999999943</v>
       </c>
       <c r="T60" s="33">
         <f>Q60-Q50</f>
-        <v>2268</v>
+        <v>-907.2</v>
       </c>
       <c r="U60" s="31">
         <f>T60/S60</f>
-        <v>42</v>
+        <v>-252.0000000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="M53:S53"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="T17:U17"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="M43:S43"/>
@@ -9869,20 +9875,14 @@
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="M3:S3"/>
-    <mergeCell ref="M53:S53"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="T17:U17"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="T7:U7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="M23:S23"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="T49:U49"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
@@ -9896,8 +9896,8 @@
   </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9939,39 +9939,39 @@
         <v>0.1</v>
       </c>
       <c r="B2">
-        <f>B1+0.1</f>
+        <f t="shared" ref="B2:J2" si="0">B1+0.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="C2">
-        <f>C1+0.1</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
       <c r="D2">
-        <f>D1+0.1</f>
+        <f t="shared" si="0"/>
         <v>3.1</v>
       </c>
       <c r="E2">
-        <f>E1+0.1</f>
+        <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="F2">
-        <f>F1+0.1</f>
+        <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="G2">
-        <f>G1+0.1</f>
+        <f t="shared" si="0"/>
         <v>6.1</v>
       </c>
       <c r="H2">
-        <f>H1+0.1</f>
+        <f t="shared" si="0"/>
         <v>7.1</v>
       </c>
       <c r="I2">
-        <f>I1+0.1</f>
+        <f t="shared" si="0"/>
         <v>8.1</v>
       </c>
       <c r="J2">
-        <f>J1+0.1</f>
+        <f t="shared" si="0"/>
         <v>9.1</v>
       </c>
     </row>
@@ -9980,39 +9980,39 @@
         <v>0.2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:J10" si="0">B2+0.1</f>
+        <f t="shared" ref="B3:J10" si="1">B2+0.1</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1999999999999993</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1999999999999993</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.1999999999999993</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -10021,39 +10021,39 @@
         <v>0.3</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3000000000000003</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3000000000000003</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2999999999999989</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2999999999999989</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2999999999999989</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2999999999999989</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2999999999999989</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2999999999999989</v>
       </c>
     </row>
@@ -10062,39 +10062,39 @@
         <v>0.4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4000000000000004</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3999999999999986</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3999999999999986</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3999999999999986</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3999999999999986</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3999999999999986</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3999999999999986</v>
       </c>
     </row>
@@ -10103,39 +10103,39 @@
         <v>0.5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5000000000000004</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5000000000000004</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5000000000000004</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4999999999999982</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4999999999999982</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4999999999999982</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4999999999999982</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4999999999999982</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4999999999999982</v>
       </c>
     </row>
@@ -10144,39 +10144,39 @@
         <v>0.6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6000000000000005</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6000000000000005</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6000000000000005</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5999999999999979</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5999999999999979</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5999999999999979</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5999999999999979</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5999999999999979</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5999999999999979</v>
       </c>
     </row>
@@ -10185,39 +10185,39 @@
         <v>0.7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7000000000000006</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7000000000000006</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7000000000000006</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6999999999999975</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6999999999999975</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6999999999999975</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6999999999999975</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6999999999999975</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6999999999999975</v>
       </c>
     </row>
@@ -10226,39 +10226,39 @@
         <v>0.8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8000000000000007</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8000000000000007</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7999999999999972</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7999999999999972</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7999999999999972</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7999999999999972</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7999999999999972</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.7999999999999972</v>
       </c>
     </row>
@@ -10267,39 +10267,39 @@
         <v>0.9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9000000000000008</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9000000000000008</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9000000000000008</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8999999999999968</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8999999999999968</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8999999999999968</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8999999999999968</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8999999999999968</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8999999999999968</v>
       </c>
     </row>
@@ -10337,379 +10337,379 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f>A12+0.1</f>
+        <f t="shared" ref="A13:J13" si="2">A12+0.1</f>
         <v>10.1</v>
       </c>
       <c r="B13">
-        <f>B12+0.1</f>
+        <f t="shared" si="2"/>
         <v>11.1</v>
       </c>
       <c r="C13">
-        <f>C12+0.1</f>
+        <f t="shared" si="2"/>
         <v>12.1</v>
       </c>
       <c r="D13">
-        <f>D12+0.1</f>
+        <f t="shared" si="2"/>
         <v>13.1</v>
       </c>
       <c r="E13">
-        <f>E12+0.1</f>
+        <f t="shared" si="2"/>
         <v>14.1</v>
       </c>
       <c r="F13">
-        <f>F12+0.1</f>
+        <f t="shared" si="2"/>
         <v>15.1</v>
       </c>
       <c r="G13">
-        <f>G12+0.1</f>
+        <f t="shared" si="2"/>
         <v>16.100000000000001</v>
       </c>
       <c r="H13">
-        <f>H12+0.1</f>
+        <f t="shared" si="2"/>
         <v>17.100000000000001</v>
       </c>
       <c r="I13">
-        <f>I12+0.1</f>
+        <f t="shared" si="2"/>
         <v>18.100000000000001</v>
       </c>
       <c r="J13">
-        <f>J12+0.1</f>
+        <f t="shared" si="2"/>
         <v>19.100000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f t="shared" ref="A14:B21" si="1">A13+0.1</f>
+        <f t="shared" ref="A14:B21" si="3">A13+0.1</f>
         <v>10.199999999999999</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.2</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C21" si="2">C13+0.1</f>
+        <f t="shared" ref="C14:C21" si="4">C13+0.1</f>
         <v>12.2</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D21" si="3">D13+0.1</f>
+        <f t="shared" ref="D14:D21" si="5">D13+0.1</f>
         <v>13.2</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E21" si="4">E13+0.1</f>
+        <f t="shared" ref="E14:E21" si="6">E13+0.1</f>
         <v>14.2</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F21" si="5">F13+0.1</f>
+        <f t="shared" ref="F14:F21" si="7">F13+0.1</f>
         <v>15.2</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G21" si="6">G13+0.1</f>
+        <f t="shared" ref="G14:G21" si="8">G13+0.1</f>
         <v>16.200000000000003</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H21" si="7">H13+0.1</f>
+        <f t="shared" ref="H14:H21" si="9">H13+0.1</f>
         <v>17.200000000000003</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:I21" si="8">I13+0.1</f>
+        <f t="shared" ref="I14:I21" si="10">I13+0.1</f>
         <v>18.200000000000003</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J14:J21" si="9">J13+0.1</f>
+        <f t="shared" ref="J14:J21" si="11">J13+0.1</f>
         <v>19.200000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.299999999999999</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.299999999999999</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.299999999999999</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.299999999999999</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14.299999999999999</v>
       </c>
       <c r="F15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.299999999999999</v>
       </c>
       <c r="G15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.300000000000004</v>
       </c>
       <c r="H15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17.300000000000004</v>
       </c>
       <c r="I15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18.300000000000004</v>
       </c>
       <c r="J15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.300000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.399999999999999</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.399999999999999</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.399999999999999</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.399999999999999</v>
       </c>
       <c r="E16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14.399999999999999</v>
       </c>
       <c r="F16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.399999999999999</v>
       </c>
       <c r="G16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.400000000000006</v>
       </c>
       <c r="H16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17.400000000000006</v>
       </c>
       <c r="I16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18.400000000000006</v>
       </c>
       <c r="J16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.400000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.499999999999998</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.499999999999998</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.499999999999998</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.499999999999998</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14.499999999999998</v>
       </c>
       <c r="F17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.499999999999998</v>
       </c>
       <c r="G17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.500000000000007</v>
       </c>
       <c r="H17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17.500000000000007</v>
       </c>
       <c r="I17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18.500000000000007</v>
       </c>
       <c r="J17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.500000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.599999999999998</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.599999999999998</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.599999999999998</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.599999999999998</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14.599999999999998</v>
       </c>
       <c r="F18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.599999999999998</v>
       </c>
       <c r="G18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.600000000000009</v>
       </c>
       <c r="H18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17.600000000000009</v>
       </c>
       <c r="I18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18.600000000000009</v>
       </c>
       <c r="J18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.600000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.699999999999998</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.699999999999998</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.699999999999998</v>
       </c>
       <c r="D19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.699999999999998</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14.699999999999998</v>
       </c>
       <c r="F19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.699999999999998</v>
       </c>
       <c r="G19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.70000000000001</v>
       </c>
       <c r="H19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17.70000000000001</v>
       </c>
       <c r="I19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18.70000000000001</v>
       </c>
       <c r="J19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.70000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.799999999999997</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.799999999999997</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.799999999999997</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.799999999999997</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14.799999999999997</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.799999999999997</v>
       </c>
       <c r="G20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.800000000000011</v>
       </c>
       <c r="H20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17.800000000000011</v>
       </c>
       <c r="I20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18.800000000000011</v>
       </c>
       <c r="J20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.800000000000011</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.899999999999997</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.899999999999997</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.899999999999997</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.899999999999997</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14.899999999999997</v>
       </c>
       <c r="F21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.899999999999997</v>
       </c>
       <c r="G21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.900000000000013</v>
       </c>
       <c r="H21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17.900000000000013</v>
       </c>
       <c r="I21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18.900000000000013</v>
       </c>
       <c r="J21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.900000000000013</v>
       </c>
     </row>
@@ -10747,379 +10747,379 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
-        <f>A23+0.1</f>
+        <f t="shared" ref="A24:J24" si="12">A23+0.1</f>
         <v>20.100000000000001</v>
       </c>
       <c r="B24">
-        <f>B23+0.1</f>
+        <f t="shared" si="12"/>
         <v>21.1</v>
       </c>
       <c r="C24">
-        <f>C23+0.1</f>
+        <f t="shared" si="12"/>
         <v>22.1</v>
       </c>
       <c r="D24">
-        <f>D23+0.1</f>
+        <f t="shared" si="12"/>
         <v>23.1</v>
       </c>
       <c r="E24">
-        <f>E23+0.1</f>
+        <f t="shared" si="12"/>
         <v>24.1</v>
       </c>
       <c r="F24">
-        <f>F23+0.1</f>
+        <f t="shared" si="12"/>
         <v>25.1</v>
       </c>
       <c r="G24">
-        <f>G23+0.1</f>
+        <f t="shared" si="12"/>
         <v>26.1</v>
       </c>
       <c r="H24">
-        <f>H23+0.1</f>
+        <f t="shared" si="12"/>
         <v>27.1</v>
       </c>
       <c r="I24">
-        <f>I23+0.1</f>
+        <f t="shared" si="12"/>
         <v>28.1</v>
       </c>
       <c r="J24">
-        <f>J23+0.1</f>
+        <f t="shared" si="12"/>
         <v>29.1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
-        <f t="shared" ref="A25:A32" si="10">A24+0.1</f>
+        <f t="shared" ref="A25:A32" si="13">A24+0.1</f>
         <v>20.200000000000003</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:B32" si="11">B24+0.1</f>
+        <f t="shared" ref="B25:B32" si="14">B24+0.1</f>
         <v>21.200000000000003</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:C32" si="12">C24+0.1</f>
+        <f t="shared" ref="C25:C32" si="15">C24+0.1</f>
         <v>22.200000000000003</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D32" si="13">D24+0.1</f>
+        <f t="shared" ref="D25:D32" si="16">D24+0.1</f>
         <v>23.200000000000003</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:E32" si="14">E24+0.1</f>
+        <f t="shared" ref="E25:E32" si="17">E24+0.1</f>
         <v>24.200000000000003</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F32" si="15">F24+0.1</f>
+        <f t="shared" ref="F25:F32" si="18">F24+0.1</f>
         <v>25.200000000000003</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25:G32" si="16">G24+0.1</f>
+        <f t="shared" ref="G25:G32" si="19">G24+0.1</f>
         <v>26.200000000000003</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H32" si="17">H24+0.1</f>
+        <f t="shared" ref="H25:H32" si="20">H24+0.1</f>
         <v>27.200000000000003</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:I32" si="18">I24+0.1</f>
+        <f t="shared" ref="I25:I32" si="21">I24+0.1</f>
         <v>28.200000000000003</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25:J32" si="19">J24+0.1</f>
+        <f t="shared" ref="J25:J32" si="22">J24+0.1</f>
         <v>29.200000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>20.300000000000004</v>
       </c>
       <c r="B26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>21.300000000000004</v>
       </c>
       <c r="C26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>22.300000000000004</v>
       </c>
       <c r="D26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>23.300000000000004</v>
       </c>
       <c r="E26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>24.300000000000004</v>
       </c>
       <c r="F26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25.300000000000004</v>
       </c>
       <c r="G26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>26.300000000000004</v>
       </c>
       <c r="H26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.300000000000004</v>
       </c>
       <c r="I26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>28.300000000000004</v>
       </c>
       <c r="J26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>29.300000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>20.400000000000006</v>
       </c>
       <c r="B27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>21.400000000000006</v>
       </c>
       <c r="C27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>22.400000000000006</v>
       </c>
       <c r="D27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>23.400000000000006</v>
       </c>
       <c r="E27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>24.400000000000006</v>
       </c>
       <c r="F27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25.400000000000006</v>
       </c>
       <c r="G27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>26.400000000000006</v>
       </c>
       <c r="H27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.400000000000006</v>
       </c>
       <c r="I27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>28.400000000000006</v>
       </c>
       <c r="J27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>29.400000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>20.500000000000007</v>
       </c>
       <c r="B28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>21.500000000000007</v>
       </c>
       <c r="C28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>22.500000000000007</v>
       </c>
       <c r="D28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>23.500000000000007</v>
       </c>
       <c r="E28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>24.500000000000007</v>
       </c>
       <c r="F28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25.500000000000007</v>
       </c>
       <c r="G28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>26.500000000000007</v>
       </c>
       <c r="H28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.500000000000007</v>
       </c>
       <c r="I28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>28.500000000000007</v>
       </c>
       <c r="J28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>29.500000000000007</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>20.600000000000009</v>
       </c>
       <c r="B29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>21.600000000000009</v>
       </c>
       <c r="C29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>22.600000000000009</v>
       </c>
       <c r="D29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>23.600000000000009</v>
       </c>
       <c r="E29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>24.600000000000009</v>
       </c>
       <c r="F29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25.600000000000009</v>
       </c>
       <c r="G29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>26.600000000000009</v>
       </c>
       <c r="H29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.600000000000009</v>
       </c>
       <c r="I29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>28.600000000000009</v>
       </c>
       <c r="J29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>29.600000000000009</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>20.70000000000001</v>
       </c>
       <c r="B30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>21.70000000000001</v>
       </c>
       <c r="C30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>22.70000000000001</v>
       </c>
       <c r="D30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>23.70000000000001</v>
       </c>
       <c r="E30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>24.70000000000001</v>
       </c>
       <c r="F30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25.70000000000001</v>
       </c>
       <c r="G30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>26.70000000000001</v>
       </c>
       <c r="H30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.70000000000001</v>
       </c>
       <c r="I30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>28.70000000000001</v>
       </c>
       <c r="J30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>29.70000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>20.800000000000011</v>
       </c>
       <c r="B31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>21.800000000000011</v>
       </c>
       <c r="C31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>22.800000000000011</v>
       </c>
       <c r="D31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>23.800000000000011</v>
       </c>
       <c r="E31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>24.800000000000011</v>
       </c>
       <c r="F31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25.800000000000011</v>
       </c>
       <c r="G31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>26.800000000000011</v>
       </c>
       <c r="H31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.800000000000011</v>
       </c>
       <c r="I31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>28.800000000000011</v>
       </c>
       <c r="J31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>29.800000000000011</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>20.900000000000013</v>
       </c>
       <c r="B32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>21.900000000000013</v>
       </c>
       <c r="C32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>22.900000000000013</v>
       </c>
       <c r="D32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>23.900000000000013</v>
       </c>
       <c r="E32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>24.900000000000013</v>
       </c>
       <c r="F32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25.900000000000013</v>
       </c>
       <c r="G32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>26.900000000000013</v>
       </c>
       <c r="H32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.900000000000013</v>
       </c>
       <c r="I32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>28.900000000000013</v>
       </c>
       <c r="J32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>29.900000000000013</v>
       </c>
     </row>
@@ -11157,379 +11157,379 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
-        <f>A34+0.1</f>
+        <f t="shared" ref="A35:J35" si="23">A34+0.1</f>
         <v>30.1</v>
       </c>
       <c r="B35">
-        <f>B34+0.1</f>
+        <f t="shared" si="23"/>
         <v>31.1</v>
       </c>
       <c r="C35">
-        <f>C34+0.1</f>
+        <f t="shared" si="23"/>
         <v>32.1</v>
       </c>
       <c r="D35">
-        <f>D34+0.1</f>
+        <f t="shared" si="23"/>
         <v>33.1</v>
       </c>
       <c r="E35">
-        <f>E34+0.1</f>
+        <f t="shared" si="23"/>
         <v>34.1</v>
       </c>
       <c r="F35">
-        <f>F34+0.1</f>
+        <f t="shared" si="23"/>
         <v>35.1</v>
       </c>
       <c r="G35">
-        <f>G34+0.1</f>
+        <f t="shared" si="23"/>
         <v>36.1</v>
       </c>
       <c r="H35">
-        <f>H34+0.1</f>
+        <f t="shared" si="23"/>
         <v>37.1</v>
       </c>
       <c r="I35">
-        <f>I34+0.1</f>
+        <f t="shared" si="23"/>
         <v>38.1</v>
       </c>
       <c r="J35">
-        <f>J34+0.1</f>
+        <f t="shared" si="23"/>
         <v>39.1</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
-        <f t="shared" ref="A36:A43" si="20">A35+0.1</f>
+        <f t="shared" ref="A36:A43" si="24">A35+0.1</f>
         <v>30.200000000000003</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36:B43" si="21">B35+0.1</f>
+        <f t="shared" ref="B36:B43" si="25">B35+0.1</f>
         <v>31.200000000000003</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C43" si="22">C35+0.1</f>
+        <f t="shared" ref="C36:C43" si="26">C35+0.1</f>
         <v>32.200000000000003</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D43" si="23">D35+0.1</f>
+        <f t="shared" ref="D36:D43" si="27">D35+0.1</f>
         <v>33.200000000000003</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E43" si="24">E35+0.1</f>
+        <f t="shared" ref="E36:E43" si="28">E35+0.1</f>
         <v>34.200000000000003</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F43" si="25">F35+0.1</f>
+        <f t="shared" ref="F36:F43" si="29">F35+0.1</f>
         <v>35.200000000000003</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:G43" si="26">G35+0.1</f>
+        <f t="shared" ref="G36:G43" si="30">G35+0.1</f>
         <v>36.200000000000003</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H43" si="27">H35+0.1</f>
+        <f t="shared" ref="H36:H43" si="31">H35+0.1</f>
         <v>37.200000000000003</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36:I43" si="28">I35+0.1</f>
+        <f t="shared" ref="I36:I43" si="32">I35+0.1</f>
         <v>38.200000000000003</v>
       </c>
       <c r="J36">
-        <f t="shared" ref="J36:J43" si="29">J35+0.1</f>
+        <f t="shared" ref="J36:J43" si="33">J35+0.1</f>
         <v>39.200000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>30.300000000000004</v>
       </c>
       <c r="B37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>31.300000000000004</v>
       </c>
       <c r="C37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>32.300000000000004</v>
       </c>
       <c r="D37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>33.300000000000004</v>
       </c>
       <c r="E37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>34.300000000000004</v>
       </c>
       <c r="F37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>35.300000000000004</v>
       </c>
       <c r="G37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>36.300000000000004</v>
       </c>
       <c r="H37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>37.300000000000004</v>
       </c>
       <c r="I37">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>38.300000000000004</v>
       </c>
       <c r="J37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>39.300000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>30.400000000000006</v>
       </c>
       <c r="B38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>31.400000000000006</v>
       </c>
       <c r="C38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>32.400000000000006</v>
       </c>
       <c r="D38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>33.400000000000006</v>
       </c>
       <c r="E38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>34.400000000000006</v>
       </c>
       <c r="F38">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>35.400000000000006</v>
       </c>
       <c r="G38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>36.400000000000006</v>
       </c>
       <c r="H38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>37.400000000000006</v>
       </c>
       <c r="I38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>38.400000000000006</v>
       </c>
       <c r="J38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>39.400000000000006</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>30.500000000000007</v>
       </c>
       <c r="B39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>31.500000000000007</v>
       </c>
       <c r="C39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>32.500000000000007</v>
       </c>
       <c r="D39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>33.500000000000007</v>
       </c>
       <c r="E39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>34.500000000000007</v>
       </c>
       <c r="F39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>35.500000000000007</v>
       </c>
       <c r="G39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>36.500000000000007</v>
       </c>
       <c r="H39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>37.500000000000007</v>
       </c>
       <c r="I39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>38.500000000000007</v>
       </c>
       <c r="J39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>39.500000000000007</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>30.600000000000009</v>
       </c>
       <c r="B40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>31.600000000000009</v>
       </c>
       <c r="C40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>32.600000000000009</v>
       </c>
       <c r="D40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>33.600000000000009</v>
       </c>
       <c r="E40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>34.600000000000009</v>
       </c>
       <c r="F40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>35.600000000000009</v>
       </c>
       <c r="G40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>36.600000000000009</v>
       </c>
       <c r="H40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>37.600000000000009</v>
       </c>
       <c r="I40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>38.600000000000009</v>
       </c>
       <c r="J40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>39.600000000000009</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>30.70000000000001</v>
       </c>
       <c r="B41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>31.70000000000001</v>
       </c>
       <c r="C41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>32.70000000000001</v>
       </c>
       <c r="D41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>33.70000000000001</v>
       </c>
       <c r="E41">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>34.70000000000001</v>
       </c>
       <c r="F41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>35.70000000000001</v>
       </c>
       <c r="G41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>36.70000000000001</v>
       </c>
       <c r="H41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>37.70000000000001</v>
       </c>
       <c r="I41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>38.70000000000001</v>
       </c>
       <c r="J41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>39.70000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>30.800000000000011</v>
       </c>
       <c r="B42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>31.800000000000011</v>
       </c>
       <c r="C42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>32.800000000000011</v>
       </c>
       <c r="D42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>33.800000000000011</v>
       </c>
       <c r="E42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>34.800000000000011</v>
       </c>
       <c r="F42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>35.800000000000011</v>
       </c>
       <c r="G42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>36.800000000000011</v>
       </c>
       <c r="H42">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>37.800000000000011</v>
       </c>
       <c r="I42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>38.800000000000011</v>
       </c>
       <c r="J42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>39.800000000000011</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>30.900000000000013</v>
       </c>
       <c r="B43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>31.900000000000013</v>
       </c>
       <c r="C43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>32.900000000000013</v>
       </c>
       <c r="D43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>33.900000000000013</v>
       </c>
       <c r="E43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>34.900000000000013</v>
       </c>
       <c r="F43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>35.900000000000013</v>
       </c>
       <c r="G43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>36.900000000000013</v>
       </c>
       <c r="H43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>37.900000000000013</v>
       </c>
       <c r="I43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>38.900000000000013</v>
       </c>
       <c r="J43">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>39.900000000000013</v>
       </c>
     </row>

--- a/temp/iter - copia.xlsx
+++ b/temp/iter - copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38039B3B-96CF-4AEE-A94A-D115023D7C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B16AB2-0ADF-4265-8559-18A8724F6DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="39">
   <si>
     <t>Rep</t>
   </si>
@@ -454,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,12 +523,6 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -577,22 +571,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -604,7 +583,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -917,34 +911,34 @@
       <selection activeCell="BG20" sqref="BG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="8" width="16" hidden="1" customWidth="1"/>
     <col min="9" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="55" t="s">
+    <row r="2" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="K2" s="55" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="K2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-    </row>
-    <row r="3" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+    </row>
+    <row r="3" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -987,44 +981,44 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="55" t="s">
+      <c r="T3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AB3" s="55" t="s">
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AB3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55"/>
-      <c r="AM3" s="52" t="s">
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AM3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="54"/>
-      <c r="AW3" s="52" t="s">
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="47"/>
+      <c r="AW3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
-      <c r="BB3" s="53"/>
-      <c r="BC3" s="54"/>
-    </row>
-    <row r="4" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="46"/>
+      <c r="BC3" s="47"/>
+    </row>
+    <row r="4" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -1118,7 +1112,7 @@
       <c r="AH4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AM4" s="34" t="s">
+      <c r="AM4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AN4" s="24" t="s">
@@ -1136,10 +1130,10 @@
       <c r="AR4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="35" t="s">
+      <c r="AS4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AW4" s="34" t="s">
+      <c r="AW4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AX4" s="24" t="s">
@@ -1157,11 +1151,11 @@
       <c r="BB4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BC4" s="35" t="s">
+      <c r="BC4" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -1263,7 +1257,7 @@
         <f>AG5-AF5</f>
         <v>1.8</v>
       </c>
-      <c r="AM5" s="36">
+      <c r="AM5" s="34">
         <v>1</v>
       </c>
       <c r="AN5" s="8">
@@ -1284,11 +1278,11 @@
         <f>AO5*36</f>
         <v>3.6</v>
       </c>
-      <c r="AS5" s="37">
+      <c r="AS5" s="35">
         <f>AR5-AQ5</f>
         <v>1.8</v>
       </c>
-      <c r="AW5" s="36">
+      <c r="AW5" s="34">
         <v>1</v>
       </c>
       <c r="AX5" s="8">
@@ -1309,12 +1303,12 @@
         <f>AY5*36</f>
         <v>21.599999999999998</v>
       </c>
-      <c r="BC5" s="37">
+      <c r="BC5" s="35">
         <f>BB5-BA5</f>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -1416,7 +1410,7 @@
         <f>AG6-AF6</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="AM6" s="36">
+      <c r="AM6" s="34">
         <v>2</v>
       </c>
       <c r="AN6" s="8">
@@ -1437,11 +1431,11 @@
         <f t="shared" ref="AR6:AR10" si="13">AO6*36</f>
         <v>7.2</v>
       </c>
-      <c r="AS6" s="38">
+      <c r="AS6" s="36">
         <f>AR6-AQ6</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="AW6" s="36">
+      <c r="AW6" s="34">
         <v>2</v>
       </c>
       <c r="AX6" s="8">
@@ -1462,12 +1456,12 @@
         <f t="shared" ref="BB6:BB10" si="15">AY6*36</f>
         <v>43.199999999999996</v>
       </c>
-      <c r="BC6" s="38">
+      <c r="BC6" s="36">
         <f>BB6-BA6</f>
         <v>10.799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -1569,7 +1563,7 @@
         <f t="shared" ref="AH7:AH12" si="19">AG7-AF7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AM7" s="36">
+      <c r="AM7" s="34">
         <v>3</v>
       </c>
       <c r="AN7" s="8">
@@ -1590,15 +1584,15 @@
         <f t="shared" si="13"/>
         <v>14.4</v>
       </c>
-      <c r="AS7" s="37">
+      <c r="AS7" s="35">
         <f t="shared" ref="AS7:AS10" si="21">AR7-AQ7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AT7" s="50" t="s">
+      <c r="AT7" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AU7" s="51"/>
-      <c r="AW7" s="36">
+      <c r="AU7" s="53"/>
+      <c r="AW7" s="34">
         <v>3</v>
       </c>
       <c r="AX7" s="8">
@@ -1619,7 +1613,7 @@
         <f t="shared" si="15"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="BC7" s="37">
+      <c r="BC7" s="35">
         <f t="shared" ref="BC7:BC10" si="23">BB7-BA7</f>
         <v>10.799999999999997</v>
       </c>
@@ -1628,7 +1622,7 @@
       </c>
       <c r="BE7" s="49"/>
     </row>
-    <row r="8" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -1730,7 +1724,7 @@
         <f t="shared" si="19"/>
         <v>1.8000000000000007</v>
       </c>
-      <c r="AM8" s="36">
+      <c r="AM8" s="34">
         <v>4</v>
       </c>
       <c r="AN8" s="8">
@@ -1751,19 +1745,19 @@
         <f t="shared" si="13"/>
         <v>28.8</v>
       </c>
-      <c r="AS8" s="38">
+      <c r="AS8" s="36">
         <f t="shared" si="21"/>
         <v>1.8000000000000007</v>
       </c>
-      <c r="AT8" s="32">
+      <c r="AT8" s="30">
         <f>AQ10</f>
         <v>113.4</v>
       </c>
-      <c r="AU8" s="29">
+      <c r="AU8" s="28">
         <f>AT8/AS10</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="AW8" s="36">
+      <c r="AW8" s="34">
         <v>4</v>
       </c>
       <c r="AX8" s="8">
@@ -1784,20 +1778,20 @@
         <f t="shared" si="15"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="BC8" s="38">
+      <c r="BC8" s="36">
         <f t="shared" si="23"/>
         <v>10.799999999999983</v>
       </c>
-      <c r="BD8" s="32">
+      <c r="BD8" s="30">
         <f>BA10</f>
         <v>680.39999999999986</v>
       </c>
-      <c r="BE8" s="29">
+      <c r="BE8" s="28">
         <f>BD8/BC10</f>
         <v>62.999999999999588</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>6</v>
@@ -1899,7 +1893,7 @@
         <f t="shared" si="19"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AM9" s="36">
+      <c r="AM9" s="34">
         <v>5</v>
       </c>
       <c r="AN9" s="8">
@@ -1920,15 +1914,15 @@
         <f t="shared" si="13"/>
         <v>57.6</v>
       </c>
-      <c r="AS9" s="37">
+      <c r="AS9" s="35">
         <f t="shared" si="21"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AT9" s="46" t="s">
+      <c r="AT9" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AU9" s="47"/>
-      <c r="AW9" s="36">
+      <c r="AU9" s="51"/>
+      <c r="AW9" s="34">
         <v>5</v>
       </c>
       <c r="AX9" s="8">
@@ -1949,16 +1943,16 @@
         <f t="shared" si="15"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="BC9" s="37">
+      <c r="BC9" s="35">
         <f t="shared" si="23"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="BD9" s="46" t="s">
+      <c r="BD9" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="BE9" s="47"/>
-    </row>
-    <row r="10" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BE9" s="51"/>
+    </row>
+    <row r="10" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T10" s="8">
         <v>6</v>
       </c>
@@ -2009,83 +2003,83 @@
         <f t="shared" si="19"/>
         <v>1.7999999999999972</v>
       </c>
-      <c r="AM10" s="39">
+      <c r="AM10" s="37">
         <v>6</v>
       </c>
-      <c r="AN10" s="40">
-        <v>18</v>
-      </c>
-      <c r="AO10" s="41">
+      <c r="AN10" s="38">
+        <v>18</v>
+      </c>
+      <c r="AO10" s="39">
         <v>3.2</v>
       </c>
-      <c r="AP10" s="40">
+      <c r="AP10" s="38">
         <f t="shared" si="12"/>
         <v>57.6</v>
       </c>
-      <c r="AQ10" s="42">
+      <c r="AQ10" s="40">
         <f t="shared" si="20"/>
         <v>113.4</v>
       </c>
-      <c r="AR10" s="40">
+      <c r="AR10" s="38">
         <f t="shared" si="13"/>
         <v>115.2</v>
       </c>
-      <c r="AS10" s="43">
+      <c r="AS10" s="41">
         <f t="shared" si="21"/>
         <v>1.7999999999999972</v>
       </c>
-      <c r="AT10" s="33">
+      <c r="AT10" s="31">
         <f>AQ10</f>
         <v>113.4</v>
       </c>
-      <c r="AU10" s="31">
+      <c r="AU10" s="29">
         <f>AT10/AS10</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="AW10" s="39">
+      <c r="AW10" s="37">
         <v>6</v>
       </c>
-      <c r="AX10" s="40">
-        <v>18</v>
-      </c>
-      <c r="AY10" s="41">
+      <c r="AX10" s="38">
+        <v>18</v>
+      </c>
+      <c r="AY10" s="39">
         <v>19.2</v>
       </c>
-      <c r="AZ10" s="40">
+      <c r="AZ10" s="38">
         <f t="shared" si="14"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="BA10" s="42">
+      <c r="BA10" s="40">
         <f t="shared" si="22"/>
         <v>680.39999999999986</v>
       </c>
-      <c r="BB10" s="40">
+      <c r="BB10" s="38">
         <f t="shared" si="15"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="BC10" s="43">
+      <c r="BC10" s="41">
         <f t="shared" si="23"/>
         <v>10.800000000000068</v>
       </c>
-      <c r="BD10" s="33">
+      <c r="BD10" s="31">
         <f>BA10-AQ50</f>
         <v>113.39999999999986</v>
       </c>
-      <c r="BE10" s="31">
+      <c r="BE10" s="29">
         <f>BD10/BC10</f>
         <v>10.499999999999922</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K11" s="55" t="s">
+    <row r="11" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -2137,16 +2131,16 @@
         <v>1.7999999999999829</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="55" t="s">
+    <row r="12" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -2219,7 +2213,7 @@
         <v>1.8000000000000114</v>
       </c>
     </row>
-    <row r="13" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -2266,26 +2260,26 @@
         <f>P13-O13</f>
         <v>1.8</v>
       </c>
-      <c r="AM13" s="52" t="s">
+      <c r="AM13" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AN13" s="53"/>
-      <c r="AO13" s="53"/>
-      <c r="AP13" s="53"/>
-      <c r="AQ13" s="53"/>
-      <c r="AR13" s="53"/>
-      <c r="AS13" s="54"/>
-      <c r="AW13" s="52" t="s">
+      <c r="AN13" s="46"/>
+      <c r="AO13" s="46"/>
+      <c r="AP13" s="46"/>
+      <c r="AQ13" s="46"/>
+      <c r="AR13" s="46"/>
+      <c r="AS13" s="47"/>
+      <c r="AW13" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AX13" s="53"/>
-      <c r="AY13" s="53"/>
-      <c r="AZ13" s="53"/>
-      <c r="BA13" s="53"/>
-      <c r="BB13" s="53"/>
-      <c r="BC13" s="54"/>
-    </row>
-    <row r="14" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AX13" s="46"/>
+      <c r="AY13" s="46"/>
+      <c r="AZ13" s="46"/>
+      <c r="BA13" s="46"/>
+      <c r="BB13" s="46"/>
+      <c r="BC13" s="47"/>
+    </row>
+    <row r="14" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>1</v>
@@ -2337,7 +2331,7 @@
         <f>P14-O14</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="AM14" s="34" t="s">
+      <c r="AM14" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AN14" s="24" t="s">
@@ -2355,10 +2349,10 @@
       <c r="AR14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AS14" s="35" t="s">
+      <c r="AS14" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AW14" s="34" t="s">
+      <c r="AW14" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AX14" s="24" t="s">
@@ -2376,11 +2370,11 @@
       <c r="BB14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BC14" s="35" t="s">
+      <c r="BC14" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>2</v>
@@ -2432,7 +2426,7 @@
         <f t="shared" ref="Q15:Q18" si="33">P15-O15</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AM15" s="36">
+      <c r="AM15" s="34">
         <v>1</v>
       </c>
       <c r="AN15" s="8">
@@ -2453,11 +2447,11 @@
         <f>AO15*36</f>
         <v>7.2</v>
       </c>
-      <c r="AS15" s="37">
+      <c r="AS15" s="35">
         <f>AR15-AQ15</f>
         <v>3.6</v>
       </c>
-      <c r="AW15" s="36">
+      <c r="AW15" s="34">
         <v>1</v>
       </c>
       <c r="AX15" s="8">
@@ -2478,12 +2472,12 @@
         <f>AY15*36</f>
         <v>25.2</v>
       </c>
-      <c r="BC15" s="37">
+      <c r="BC15" s="35">
         <f>BB15-BA15</f>
         <v>12.6</v>
       </c>
     </row>
-    <row r="16" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>3</v>
@@ -2538,16 +2532,16 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="55" t="s">
+      <c r="T16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
-      <c r="AM16" s="36">
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AM16" s="34">
         <v>2</v>
       </c>
       <c r="AN16" s="8">
@@ -2568,11 +2562,11 @@
         <f t="shared" ref="AR16:AR20" si="37">AO16*36</f>
         <v>14.4</v>
       </c>
-      <c r="AS16" s="38">
+      <c r="AS16" s="36">
         <f>AR16-AQ16</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="AW16" s="36">
+      <c r="AW16" s="34">
         <v>2</v>
       </c>
       <c r="AX16" s="8">
@@ -2593,12 +2587,12 @@
         <f t="shared" ref="BB16:BB20" si="39">AY16*36</f>
         <v>50.4</v>
       </c>
-      <c r="BC16" s="38">
+      <c r="BC16" s="36">
         <f>BB16-BA16</f>
         <v>12.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>4</v>
@@ -2674,16 +2668,16 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="55" t="s">
+      <c r="AD17" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="55"/>
-      <c r="AG17" s="55"/>
-      <c r="AH17" s="55"/>
-      <c r="AI17" s="55"/>
-      <c r="AJ17" s="55"/>
-      <c r="AM17" s="36">
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
+      <c r="AM17" s="34">
         <v>3</v>
       </c>
       <c r="AN17" s="8">
@@ -2704,7 +2698,7 @@
         <f t="shared" si="37"/>
         <v>28.8</v>
       </c>
-      <c r="AS17" s="37">
+      <c r="AS17" s="35">
         <f t="shared" ref="AS17:AS20" si="41">AR17-AQ17</f>
         <v>3.5999999999999979</v>
       </c>
@@ -2712,7 +2706,7 @@
         <v>35</v>
       </c>
       <c r="AU17" s="49"/>
-      <c r="AW17" s="36">
+      <c r="AW17" s="34">
         <v>3</v>
       </c>
       <c r="AX17" s="8">
@@ -2733,7 +2727,7 @@
         <f t="shared" si="39"/>
         <v>100.8</v>
       </c>
-      <c r="BC17" s="37">
+      <c r="BC17" s="35">
         <f t="shared" ref="BC17:BC20" si="43">BB17-BA17</f>
         <v>12.600000000000009</v>
       </c>
@@ -2742,7 +2736,7 @@
       </c>
       <c r="BE17" s="49"/>
     </row>
-    <row r="18" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>5</v>
@@ -2846,7 +2840,7 @@
       <c r="AJ18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AM18" s="36">
+      <c r="AM18" s="34">
         <v>4</v>
       </c>
       <c r="AN18" s="8">
@@ -2867,19 +2861,19 @@
         <f t="shared" si="37"/>
         <v>57.6</v>
       </c>
-      <c r="AS18" s="38">
+      <c r="AS18" s="36">
         <f t="shared" si="41"/>
         <v>3.6000000000000014</v>
       </c>
-      <c r="AT18" s="32">
+      <c r="AT18" s="30">
         <f>AQ20</f>
         <v>226.8</v>
       </c>
-      <c r="AU18" s="29">
+      <c r="AU18" s="28">
         <f>AT18/AS20</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="AW18" s="36">
+      <c r="AW18" s="34">
         <v>4</v>
       </c>
       <c r="AX18" s="8">
@@ -2900,20 +2894,20 @@
         <f t="shared" si="39"/>
         <v>201.6</v>
       </c>
-      <c r="BC18" s="38">
+      <c r="BC18" s="36">
         <f t="shared" si="43"/>
         <v>12.599999999999994</v>
       </c>
-      <c r="BD18" s="32">
+      <c r="BD18" s="30">
         <f>BA20</f>
         <v>793.8</v>
       </c>
-      <c r="BE18" s="29">
+      <c r="BE18" s="28">
         <f>BD18/BC20</f>
         <v>62.999999999999879</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>6</v>
@@ -2996,7 +2990,7 @@
         <f>AI19-AH19</f>
         <v>1.8</v>
       </c>
-      <c r="AM19" s="36">
+      <c r="AM19" s="34">
         <v>5</v>
       </c>
       <c r="AN19" s="8">
@@ -3017,15 +3011,15 @@
         <f t="shared" si="37"/>
         <v>115.2</v>
       </c>
-      <c r="AS19" s="37">
+      <c r="AS19" s="35">
         <f t="shared" si="41"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="AT19" s="46" t="s">
+      <c r="AT19" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AU19" s="47"/>
-      <c r="AW19" s="36">
+      <c r="AU19" s="51"/>
+      <c r="AW19" s="34">
         <v>5</v>
       </c>
       <c r="AX19" s="8">
@@ -3046,16 +3040,16 @@
         <f t="shared" si="39"/>
         <v>403.2</v>
       </c>
-      <c r="BC19" s="37">
+      <c r="BC19" s="35">
         <f t="shared" si="43"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="BD19" s="46" t="s">
+      <c r="BD19" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="BE19" s="47"/>
-    </row>
-    <row r="20" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BE19" s="51"/>
+    </row>
+    <row r="20" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S20">
         <v>25</v>
       </c>
@@ -3112,83 +3106,83 @@
         <f>AI20-AH20</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="AM20" s="39">
+      <c r="AM20" s="37">
         <v>6</v>
       </c>
-      <c r="AN20" s="40">
-        <v>18</v>
-      </c>
-      <c r="AO20" s="41">
+      <c r="AN20" s="38">
+        <v>18</v>
+      </c>
+      <c r="AO20" s="39">
         <v>6.4</v>
       </c>
-      <c r="AP20" s="40">
+      <c r="AP20" s="38">
         <f t="shared" si="36"/>
         <v>115.2</v>
       </c>
-      <c r="AQ20" s="42">
+      <c r="AQ20" s="40">
         <f t="shared" si="40"/>
         <v>226.8</v>
       </c>
-      <c r="AR20" s="40">
+      <c r="AR20" s="38">
         <f t="shared" si="37"/>
         <v>230.4</v>
       </c>
-      <c r="AS20" s="43">
+      <c r="AS20" s="41">
         <f t="shared" si="41"/>
         <v>3.5999999999999943</v>
       </c>
-      <c r="AT20" s="33">
+      <c r="AT20" s="31">
         <f>AQ20-AQ10</f>
         <v>113.4</v>
       </c>
-      <c r="AU20" s="31">
+      <c r="AU20" s="29">
         <f>AT20/AS20</f>
         <v>31.50000000000005</v>
       </c>
-      <c r="AW20" s="39">
+      <c r="AW20" s="37">
         <v>6</v>
       </c>
-      <c r="AX20" s="40">
-        <v>18</v>
-      </c>
-      <c r="AY20" s="41">
+      <c r="AX20" s="38">
+        <v>18</v>
+      </c>
+      <c r="AY20" s="39">
         <v>22.4</v>
       </c>
-      <c r="AZ20" s="40">
+      <c r="AZ20" s="38">
         <f t="shared" si="38"/>
         <v>403.2</v>
       </c>
-      <c r="BA20" s="42">
+      <c r="BA20" s="40">
         <f t="shared" si="42"/>
         <v>793.8</v>
       </c>
-      <c r="BB20" s="40">
+      <c r="BB20" s="38">
         <f t="shared" si="39"/>
         <v>806.4</v>
       </c>
-      <c r="BC20" s="43">
+      <c r="BC20" s="41">
         <f t="shared" si="43"/>
         <v>12.600000000000023</v>
       </c>
-      <c r="BD20" s="33">
+      <c r="BD20" s="31">
         <f>BA20-BA10</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="BE20" s="31">
+      <c r="BE20" s="29">
         <f>BD20/BC20</f>
         <v>8.9999999999999911</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K21" s="55" t="s">
+    <row r="21" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -3246,16 +3240,16 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="55" t="s">
+    <row r="22" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -3331,7 +3325,7 @@
         <v>3.6000000000000014</v>
       </c>
     </row>
-    <row r="23" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -3431,26 +3425,26 @@
         <f t="shared" si="55"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="AM23" s="52" t="s">
+      <c r="AM23" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="53"/>
-      <c r="AP23" s="53"/>
-      <c r="AQ23" s="53"/>
-      <c r="AR23" s="53"/>
-      <c r="AS23" s="54"/>
-      <c r="AW23" s="52" t="s">
+      <c r="AN23" s="46"/>
+      <c r="AO23" s="46"/>
+      <c r="AP23" s="46"/>
+      <c r="AQ23" s="46"/>
+      <c r="AR23" s="46"/>
+      <c r="AS23" s="47"/>
+      <c r="AW23" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="53"/>
-      <c r="AZ23" s="53"/>
-      <c r="BA23" s="53"/>
-      <c r="BB23" s="53"/>
-      <c r="BC23" s="54"/>
-    </row>
-    <row r="24" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AX23" s="46"/>
+      <c r="AY23" s="46"/>
+      <c r="AZ23" s="46"/>
+      <c r="BA23" s="46"/>
+      <c r="BB23" s="46"/>
+      <c r="BC23" s="47"/>
+    </row>
+    <row r="24" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>1</v>
@@ -3552,7 +3546,7 @@
         <f t="shared" si="55"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AM24" s="34" t="s">
+      <c r="AM24" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AN24" s="24" t="s">
@@ -3570,10 +3564,10 @@
       <c r="AR24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AS24" s="35" t="s">
+      <c r="AS24" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AW24" s="34" t="s">
+      <c r="AW24" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AX24" s="24" t="s">
@@ -3591,11 +3585,11 @@
       <c r="BB24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BC24" s="35" t="s">
+      <c r="BC24" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>2</v>
@@ -3697,7 +3691,7 @@
         <f t="shared" si="55"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="AM25" s="36">
+      <c r="AM25" s="34">
         <v>1</v>
       </c>
       <c r="AN25" s="8">
@@ -3718,11 +3712,11 @@
         <f>AO25*36</f>
         <v>10.799999999999999</v>
       </c>
-      <c r="AS25" s="37">
+      <c r="AS25" s="35">
         <f>AR25-AQ25</f>
         <v>5.3999999999999995</v>
       </c>
-      <c r="AW25" s="36">
+      <c r="AW25" s="34">
         <v>1</v>
       </c>
       <c r="AX25" s="8">
@@ -3743,12 +3737,12 @@
         <f>AY25*36</f>
         <v>28.8</v>
       </c>
-      <c r="BC25" s="37">
+      <c r="BC25" s="35">
         <f>BB25-BA25</f>
         <v>14.4</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>3</v>
@@ -3834,7 +3828,7 @@
         <f t="shared" si="55"/>
         <v>10.799999999999955</v>
       </c>
-      <c r="AM26" s="36">
+      <c r="AM26" s="34">
         <v>2</v>
       </c>
       <c r="AN26" s="8">
@@ -3855,11 +3849,11 @@
         <f t="shared" ref="AR26:AR30" si="69">AO26*36</f>
         <v>21.599999999999998</v>
       </c>
-      <c r="AS26" s="38">
+      <c r="AS26" s="36">
         <f>AR26-AQ26</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="AW26" s="36">
+      <c r="AW26" s="34">
         <v>2</v>
       </c>
       <c r="AX26" s="8">
@@ -3880,12 +3874,12 @@
         <f t="shared" ref="BB26:BB30" si="71">AY26*36</f>
         <v>57.6</v>
       </c>
-      <c r="BC26" s="38">
+      <c r="BC26" s="36">
         <f>BB26-BA26</f>
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>4</v>
@@ -3937,7 +3931,7 @@
         <f t="shared" si="65"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AM27" s="36">
+      <c r="AM27" s="34">
         <v>3</v>
       </c>
       <c r="AN27" s="8">
@@ -3958,7 +3952,7 @@
         <f t="shared" si="69"/>
         <v>43.199999999999996</v>
       </c>
-      <c r="AS27" s="37">
+      <c r="AS27" s="35">
         <f t="shared" ref="AS27:AS30" si="73">AR27-AQ27</f>
         <v>5.3999999999999986</v>
       </c>
@@ -3966,7 +3960,7 @@
         <v>35</v>
       </c>
       <c r="AU27" s="49"/>
-      <c r="AW27" s="36">
+      <c r="AW27" s="34">
         <v>3</v>
       </c>
       <c r="AX27" s="8">
@@ -3987,7 +3981,7 @@
         <f t="shared" si="71"/>
         <v>115.2</v>
       </c>
-      <c r="BC27" s="37">
+      <c r="BC27" s="35">
         <f t="shared" ref="BC27:BC30" si="75">BB27-BA27</f>
         <v>14.399999999999991</v>
       </c>
@@ -3996,7 +3990,7 @@
       </c>
       <c r="BE27" s="49"/>
     </row>
-    <row r="28" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>5</v>
@@ -4070,7 +4064,7 @@
         <f>W28*U28</f>
         <v>0</v>
       </c>
-      <c r="AM28" s="36">
+      <c r="AM28" s="34">
         <v>4</v>
       </c>
       <c r="AN28" s="8">
@@ -4091,19 +4085,19 @@
         <f t="shared" si="69"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="AS28" s="38">
+      <c r="AS28" s="36">
         <f t="shared" si="73"/>
         <v>5.3999999999999915</v>
       </c>
-      <c r="AT28" s="32">
+      <c r="AT28" s="30">
         <f>AQ30</f>
         <v>340.19999999999993</v>
       </c>
-      <c r="AU28" s="29">
+      <c r="AU28" s="28">
         <f>AT28/AS30</f>
         <v>62.999999999999588</v>
       </c>
-      <c r="AW28" s="36">
+      <c r="AW28" s="34">
         <v>4</v>
       </c>
       <c r="AX28" s="8">
@@ -4124,20 +4118,20 @@
         <f t="shared" si="71"/>
         <v>230.4</v>
       </c>
-      <c r="BC28" s="38">
+      <c r="BC28" s="36">
         <f t="shared" si="75"/>
         <v>14.400000000000006</v>
       </c>
-      <c r="BD28" s="32">
+      <c r="BD28" s="30">
         <f>BA30</f>
         <v>907.2</v>
       </c>
-      <c r="BE28" s="29">
+      <c r="BE28" s="28">
         <f>BD28/BC30</f>
         <v>63.000000000000099</v>
       </c>
     </row>
-    <row r="29" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>6</v>
@@ -4186,16 +4180,16 @@
         <f t="shared" ref="Y29:Y38" si="81">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="55" t="s">
+      <c r="AD29" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="55"/>
-      <c r="AG29" s="55"/>
-      <c r="AH29" s="55"/>
-      <c r="AI29" s="55"/>
-      <c r="AJ29" s="55"/>
-      <c r="AM29" s="36">
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AM29" s="34">
         <v>5</v>
       </c>
       <c r="AN29" s="8">
@@ -4216,15 +4210,15 @@
         <f t="shared" si="69"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="AS29" s="37">
+      <c r="AS29" s="35">
         <f t="shared" si="73"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AT29" s="46" t="s">
+      <c r="AT29" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AU29" s="47"/>
-      <c r="AW29" s="36">
+      <c r="AU29" s="51"/>
+      <c r="AW29" s="34">
         <v>5</v>
       </c>
       <c r="AX29" s="8">
@@ -4245,16 +4239,16 @@
         <f t="shared" si="71"/>
         <v>460.8</v>
       </c>
-      <c r="BC29" s="37">
+      <c r="BC29" s="35">
         <f t="shared" si="75"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="BD29" s="46" t="s">
+      <c r="BD29" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="BE29" s="47"/>
-    </row>
-    <row r="30" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BE29" s="51"/>
+    </row>
+    <row r="30" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T30" s="18" t="s">
         <v>25</v>
       </c>
@@ -4298,74 +4292,74 @@
       <c r="AJ30" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AM30" s="39">
+      <c r="AM30" s="37">
         <v>6</v>
       </c>
-      <c r="AN30" s="40">
-        <v>18</v>
-      </c>
-      <c r="AO30" s="41">
+      <c r="AN30" s="38">
+        <v>18</v>
+      </c>
+      <c r="AO30" s="39">
         <v>9.6</v>
       </c>
-      <c r="AP30" s="40">
+      <c r="AP30" s="38">
         <f t="shared" si="68"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="AQ30" s="42">
+      <c r="AQ30" s="40">
         <f t="shared" si="72"/>
         <v>340.19999999999993</v>
       </c>
-      <c r="AR30" s="40">
+      <c r="AR30" s="38">
         <f t="shared" si="69"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="AS30" s="43">
+      <c r="AS30" s="41">
         <f t="shared" si="73"/>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AT30" s="33">
+      <c r="AT30" s="31">
         <f>AQ30-AQ20</f>
         <v>113.39999999999992</v>
       </c>
-      <c r="AU30" s="31">
+      <c r="AU30" s="29">
         <f>AT30/AS30</f>
         <v>20.999999999999854</v>
       </c>
-      <c r="AW30" s="39">
+      <c r="AW30" s="37">
         <v>6</v>
       </c>
-      <c r="AX30" s="40">
-        <v>18</v>
-      </c>
-      <c r="AY30" s="41">
+      <c r="AX30" s="38">
+        <v>18</v>
+      </c>
+      <c r="AY30" s="39">
         <v>25.6</v>
       </c>
-      <c r="AZ30" s="40">
+      <c r="AZ30" s="38">
         <f t="shared" si="70"/>
         <v>460.8</v>
       </c>
-      <c r="BA30" s="42">
+      <c r="BA30" s="40">
         <f t="shared" si="74"/>
         <v>907.2</v>
       </c>
-      <c r="BB30" s="40">
+      <c r="BB30" s="38">
         <f t="shared" si="71"/>
         <v>921.6</v>
       </c>
-      <c r="BC30" s="43">
+      <c r="BC30" s="41">
         <f t="shared" si="75"/>
         <v>14.399999999999977</v>
       </c>
-      <c r="BD30" s="33">
+      <c r="BD30" s="31">
         <f>BA30-BA20</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="BE30" s="31">
+      <c r="BE30" s="29">
         <f>BD30/BC30</f>
         <v>7.8750000000000187</v>
       </c>
     </row>
-    <row r="31" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T31" s="18" t="s">
         <v>24</v>
       </c>
@@ -4414,25 +4408,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="55" t="s">
+    <row r="32" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="K32" s="55" t="s">
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="K32" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -4481,7 +4475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -4571,26 +4565,26 @@
         <f t="shared" ref="AJ33:AJ38" si="86">AI33-AH33</f>
         <v>9</v>
       </c>
-      <c r="AM33" s="52" t="s">
+      <c r="AM33" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AN33" s="53"/>
-      <c r="AO33" s="53"/>
-      <c r="AP33" s="53"/>
-      <c r="AQ33" s="53"/>
-      <c r="AR33" s="53"/>
-      <c r="AS33" s="54"/>
-      <c r="AW33" s="52" t="s">
+      <c r="AN33" s="46"/>
+      <c r="AO33" s="46"/>
+      <c r="AP33" s="46"/>
+      <c r="AQ33" s="46"/>
+      <c r="AR33" s="46"/>
+      <c r="AS33" s="47"/>
+      <c r="AW33" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AX33" s="53"/>
-      <c r="AY33" s="53"/>
-      <c r="AZ33" s="53"/>
-      <c r="BA33" s="53"/>
-      <c r="BB33" s="53"/>
-      <c r="BC33" s="54"/>
-    </row>
-    <row r="34" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AX33" s="46"/>
+      <c r="AY33" s="46"/>
+      <c r="AZ33" s="46"/>
+      <c r="BA33" s="46"/>
+      <c r="BB33" s="46"/>
+      <c r="BC33" s="47"/>
+    </row>
+    <row r="34" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8">
         <v>1</v>
@@ -4688,7 +4682,7 @@
         <f t="shared" si="86"/>
         <v>9</v>
       </c>
-      <c r="AM34" s="34" t="s">
+      <c r="AM34" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AN34" s="24" t="s">
@@ -4706,10 +4700,10 @@
       <c r="AR34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AS34" s="35" t="s">
+      <c r="AS34" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AW34" s="34" t="s">
+      <c r="AW34" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AX34" s="24" t="s">
@@ -4727,11 +4721,11 @@
       <c r="BB34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BC34" s="35" t="s">
+      <c r="BC34" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>2</v>
@@ -4829,7 +4823,7 @@
         <f t="shared" si="86"/>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AM35" s="36">
+      <c r="AM35" s="34">
         <v>1</v>
       </c>
       <c r="AN35" s="8">
@@ -4850,11 +4844,11 @@
         <f>AO35*36</f>
         <v>14.4</v>
       </c>
-      <c r="AS35" s="37">
+      <c r="AS35" s="35">
         <f>AR35-AQ35</f>
         <v>7.2</v>
       </c>
-      <c r="AW35" s="36">
+      <c r="AW35" s="34">
         <v>1</v>
       </c>
       <c r="AX35" s="8">
@@ -4875,12 +4869,12 @@
         <f>AY35*36</f>
         <v>32.4</v>
       </c>
-      <c r="BC35" s="37">
+      <c r="BC35" s="35">
         <f>BB35-BA35</f>
         <v>16.2</v>
       </c>
     </row>
-    <row r="36" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
         <v>3</v>
@@ -4978,7 +4972,7 @@
         <f t="shared" si="86"/>
         <v>5.3999999999999773</v>
       </c>
-      <c r="AM36" s="36">
+      <c r="AM36" s="34">
         <v>2</v>
       </c>
       <c r="AN36" s="8">
@@ -4999,11 +4993,11 @@
         <f t="shared" ref="AR36:AR40" si="96">AO36*36</f>
         <v>28.8</v>
       </c>
-      <c r="AS36" s="38">
+      <c r="AS36" s="36">
         <f>AR36-AQ36</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="AW36" s="36">
+      <c r="AW36" s="34">
         <v>2</v>
       </c>
       <c r="AX36" s="8">
@@ -5024,12 +5018,12 @@
         <f t="shared" ref="BB36:BB40" si="98">AY36*36</f>
         <v>64.8</v>
       </c>
-      <c r="BC36" s="38">
+      <c r="BC36" s="36">
         <f>BB36-BA36</f>
         <v>16.200000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>4</v>
@@ -5127,7 +5121,7 @@
         <f t="shared" si="86"/>
         <v>-826.2</v>
       </c>
-      <c r="AM37" s="36">
+      <c r="AM37" s="34">
         <v>3</v>
       </c>
       <c r="AN37" s="8">
@@ -5148,7 +5142,7 @@
         <f t="shared" si="96"/>
         <v>57.6</v>
       </c>
-      <c r="AS37" s="37">
+      <c r="AS37" s="35">
         <f t="shared" ref="AS37:AS40" si="100">AR37-AQ37</f>
         <v>7.1999999999999957</v>
       </c>
@@ -5156,7 +5150,7 @@
         <v>35</v>
       </c>
       <c r="AU37" s="49"/>
-      <c r="AW37" s="36">
+      <c r="AW37" s="34">
         <v>3</v>
       </c>
       <c r="AX37" s="8">
@@ -5177,7 +5171,7 @@
         <f t="shared" si="98"/>
         <v>129.6</v>
       </c>
-      <c r="BC37" s="37">
+      <c r="BC37" s="35">
         <f t="shared" ref="BC37:BC40" si="102">BB37-BA37</f>
         <v>16.200000000000003</v>
       </c>
@@ -5186,7 +5180,7 @@
       </c>
       <c r="BE37" s="49"/>
     </row>
-    <row r="38" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="8">
         <v>5</v>
@@ -5284,7 +5278,7 @@
         <f t="shared" si="86"/>
         <v>-826.2</v>
       </c>
-      <c r="AM38" s="36">
+      <c r="AM38" s="34">
         <v>4</v>
       </c>
       <c r="AN38" s="8">
@@ -5305,19 +5299,19 @@
         <f t="shared" si="96"/>
         <v>115.2</v>
       </c>
-      <c r="AS38" s="38">
+      <c r="AS38" s="36">
         <f t="shared" si="100"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="AT38" s="32">
+      <c r="AT38" s="30">
         <f>AQ40</f>
         <v>453.6</v>
       </c>
-      <c r="AU38" s="29">
+      <c r="AU38" s="28">
         <f>AT38/AS40</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="AW38" s="36">
+      <c r="AW38" s="34">
         <v>4</v>
       </c>
       <c r="AX38" s="8">
@@ -5338,20 +5332,20 @@
         <f t="shared" si="98"/>
         <v>259.2</v>
       </c>
-      <c r="BC38" s="38">
+      <c r="BC38" s="36">
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD38" s="32">
+      <c r="BD38" s="30">
         <f>BA40</f>
         <v>1020.5999999999999</v>
       </c>
-      <c r="BE38" s="29">
+      <c r="BE38" s="28">
         <f>BD38/BC40</f>
         <v>62.999999999999815</v>
       </c>
     </row>
-    <row r="39" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>6</v>
@@ -5415,7 +5409,7 @@
         <f>Y39/U39</f>
         <v>14.856338028169016</v>
       </c>
-      <c r="AM39" s="36">
+      <c r="AM39" s="34">
         <v>5</v>
       </c>
       <c r="AN39" s="8">
@@ -5436,15 +5430,15 @@
         <f t="shared" si="96"/>
         <v>230.4</v>
       </c>
-      <c r="AS39" s="37">
+      <c r="AS39" s="35">
         <f t="shared" si="100"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AT39" s="46" t="s">
+      <c r="AT39" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AU39" s="47"/>
-      <c r="AW39" s="36">
+      <c r="AU39" s="51"/>
+      <c r="AW39" s="34">
         <v>5</v>
       </c>
       <c r="AX39" s="8">
@@ -5465,16 +5459,16 @@
         <f t="shared" si="98"/>
         <v>518.4</v>
       </c>
-      <c r="BC39" s="37">
+      <c r="BC39" s="35">
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD39" s="46" t="s">
+      <c r="BD39" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="BE39" s="47"/>
-    </row>
-    <row r="40" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BE39" s="51"/>
+    </row>
+    <row r="40" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="8">
         <v>7</v>
       </c>
@@ -5504,74 +5498,74 @@
         <f>-X23</f>
         <v>-988.2</v>
       </c>
-      <c r="AM40" s="39">
+      <c r="AM40" s="37">
         <v>6</v>
       </c>
-      <c r="AN40" s="40">
-        <v>18</v>
-      </c>
-      <c r="AO40" s="41">
+      <c r="AN40" s="38">
+        <v>18</v>
+      </c>
+      <c r="AO40" s="39">
         <v>12.8</v>
       </c>
-      <c r="AP40" s="40">
+      <c r="AP40" s="38">
         <f t="shared" si="95"/>
         <v>230.4</v>
       </c>
-      <c r="AQ40" s="42">
+      <c r="AQ40" s="40">
         <f t="shared" si="99"/>
         <v>453.6</v>
       </c>
-      <c r="AR40" s="40">
+      <c r="AR40" s="38">
         <f t="shared" si="96"/>
         <v>460.8</v>
       </c>
-      <c r="AS40" s="43">
+      <c r="AS40" s="41">
         <f t="shared" si="100"/>
         <v>7.1999999999999886</v>
       </c>
-      <c r="AT40" s="33">
+      <c r="AT40" s="31">
         <f>AQ40-AQ30</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="AU40" s="31">
+      <c r="AU40" s="29">
         <f>AT40/AS40</f>
         <v>15.750000000000037</v>
       </c>
-      <c r="AW40" s="39">
+      <c r="AW40" s="37">
         <v>6</v>
       </c>
-      <c r="AX40" s="40">
-        <v>18</v>
-      </c>
-      <c r="AY40" s="41">
+      <c r="AX40" s="38">
+        <v>18</v>
+      </c>
+      <c r="AY40" s="39">
         <v>28.8</v>
       </c>
-      <c r="AZ40" s="40">
+      <c r="AZ40" s="38">
         <f t="shared" si="97"/>
         <v>518.4</v>
       </c>
-      <c r="BA40" s="42">
+      <c r="BA40" s="40">
         <f t="shared" si="101"/>
         <v>1020.5999999999999</v>
       </c>
-      <c r="BB40" s="40">
+      <c r="BB40" s="38">
         <f t="shared" si="98"/>
         <v>1036.8</v>
       </c>
-      <c r="BC40" s="43">
+      <c r="BC40" s="41">
         <f t="shared" si="102"/>
         <v>16.200000000000045</v>
       </c>
-      <c r="BD40" s="33">
+      <c r="BD40" s="31">
         <f>BA40-BA30</f>
         <v>113.39999999999986</v>
       </c>
-      <c r="BE40" s="31">
+      <c r="BE40" s="29">
         <f>BD40/BC40</f>
         <v>6.9999999999999716</v>
       </c>
     </row>
-    <row r="41" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K41" s="8">
         <v>8</v>
       </c>
@@ -5602,16 +5596,16 @@
         <v>1121.4000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="55" t="s">
+    <row r="42" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -5638,7 +5632,7 @@
         <v>1.8000000000000682</v>
       </c>
     </row>
-    <row r="43" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -5660,26 +5654,26 @@
       <c r="H43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM43" s="52" t="s">
+      <c r="AM43" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="53"/>
-      <c r="AO43" s="53"/>
-      <c r="AP43" s="53"/>
-      <c r="AQ43" s="53"/>
-      <c r="AR43" s="53"/>
-      <c r="AS43" s="54"/>
-      <c r="AW43" s="52" t="s">
+      <c r="AN43" s="46"/>
+      <c r="AO43" s="46"/>
+      <c r="AP43" s="46"/>
+      <c r="AQ43" s="46"/>
+      <c r="AR43" s="46"/>
+      <c r="AS43" s="47"/>
+      <c r="AW43" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AX43" s="53"/>
-      <c r="AY43" s="53"/>
-      <c r="AZ43" s="53"/>
-      <c r="BA43" s="53"/>
-      <c r="BB43" s="53"/>
-      <c r="BC43" s="54"/>
-    </row>
-    <row r="44" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AX43" s="46"/>
+      <c r="AY43" s="46"/>
+      <c r="AZ43" s="46"/>
+      <c r="BA43" s="46"/>
+      <c r="BB43" s="46"/>
+      <c r="BC43" s="47"/>
+    </row>
+    <row r="44" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8">
         <v>1</v>
@@ -5706,7 +5700,7 @@
         <f>G44-F44</f>
         <v>90</v>
       </c>
-      <c r="AM44" s="34" t="s">
+      <c r="AM44" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AN44" s="24" t="s">
@@ -5724,10 +5718,10 @@
       <c r="AR44" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AS44" s="35" t="s">
+      <c r="AS44" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AW44" s="34" t="s">
+      <c r="AW44" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AX44" s="24" t="s">
@@ -5745,11 +5739,11 @@
       <c r="BB44" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BC44" s="35" t="s">
+      <c r="BC44" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>2</v>
@@ -5776,7 +5770,7 @@
         <f>G45-F45</f>
         <v>54</v>
       </c>
-      <c r="AM45" s="36">
+      <c r="AM45" s="34">
         <v>1</v>
       </c>
       <c r="AN45" s="8">
@@ -5797,11 +5791,11 @@
         <f>AO45*36</f>
         <v>18</v>
       </c>
-      <c r="AS45" s="37">
+      <c r="AS45" s="35">
         <f>AR45-AQ45</f>
         <v>9</v>
       </c>
-      <c r="AW45" s="36">
+      <c r="AW45" s="34">
         <v>1</v>
       </c>
       <c r="AX45" s="8">
@@ -5822,12 +5816,12 @@
         <f>AY45*36</f>
         <v>36</v>
       </c>
-      <c r="BC45" s="37">
+      <c r="BC45" s="35">
         <f>BB45-BA45</f>
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="8">
         <v>3</v>
@@ -5854,7 +5848,7 @@
         <f t="shared" ref="H46:H47" si="114">G46-F46</f>
         <v>126</v>
       </c>
-      <c r="AM46" s="36">
+      <c r="AM46" s="34">
         <v>2</v>
       </c>
       <c r="AN46" s="8">
@@ -5875,11 +5869,11 @@
         <f t="shared" ref="AR46:AR50" si="116">AO46*36</f>
         <v>36</v>
       </c>
-      <c r="AS46" s="38">
+      <c r="AS46" s="36">
         <f>AR46-AQ46</f>
         <v>9</v>
       </c>
-      <c r="AW46" s="36">
+      <c r="AW46" s="34">
         <v>2</v>
       </c>
       <c r="AX46" s="8">
@@ -5900,12 +5894,12 @@
         <f t="shared" ref="BB46:BB50" si="118">AY46*36</f>
         <v>72</v>
       </c>
-      <c r="BC46" s="38">
+      <c r="BC46" s="36">
         <f>BB46-BA46</f>
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>4</v>
@@ -5932,16 +5926,16 @@
         <f t="shared" si="114"/>
         <v>126</v>
       </c>
-      <c r="T47" s="55" t="s">
+      <c r="T47" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="55"/>
-      <c r="V47" s="55"/>
-      <c r="W47" s="55"/>
-      <c r="X47" s="55"/>
-      <c r="Y47" s="55"/>
-      <c r="Z47" s="55"/>
-      <c r="AM47" s="36">
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
+      <c r="AM47" s="34">
         <v>3</v>
       </c>
       <c r="AN47" s="8">
@@ -5962,7 +5956,7 @@
         <f t="shared" si="116"/>
         <v>72</v>
       </c>
-      <c r="AS47" s="37">
+      <c r="AS47" s="35">
         <f t="shared" ref="AS47:AS50" si="120">AR47-AQ47</f>
         <v>9</v>
       </c>
@@ -5970,7 +5964,7 @@
         <v>35</v>
       </c>
       <c r="AU47" s="49"/>
-      <c r="AW47" s="36">
+      <c r="AW47" s="34">
         <v>3</v>
       </c>
       <c r="AX47" s="8">
@@ -5991,7 +5985,7 @@
         <f t="shared" si="118"/>
         <v>144</v>
       </c>
-      <c r="BC47" s="37">
+      <c r="BC47" s="35">
         <f t="shared" ref="BC47:BC50" si="122">BB47-BA47</f>
         <v>18</v>
       </c>
@@ -6000,7 +5994,7 @@
       </c>
       <c r="BE47" s="49"/>
     </row>
-    <row r="48" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8">
         <v>5</v>
@@ -6048,7 +6042,7 @@
       <c r="Z48" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AM48" s="36">
+      <c r="AM48" s="34">
         <v>4</v>
       </c>
       <c r="AN48" s="8">
@@ -6069,19 +6063,19 @@
         <f t="shared" si="116"/>
         <v>144</v>
       </c>
-      <c r="AS48" s="38">
+      <c r="AS48" s="36">
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT48" s="32">
+      <c r="AT48" s="30">
         <f>AQ50</f>
         <v>567</v>
       </c>
-      <c r="AU48" s="29">
+      <c r="AU48" s="28">
         <f>AT48/AS50</f>
         <v>63</v>
       </c>
-      <c r="AW48" s="36">
+      <c r="AW48" s="34">
         <v>4</v>
       </c>
       <c r="AX48" s="8">
@@ -6102,20 +6096,20 @@
         <f t="shared" si="118"/>
         <v>288</v>
       </c>
-      <c r="BC48" s="38">
+      <c r="BC48" s="36">
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD48" s="32">
+      <c r="BD48" s="30">
         <f>BA50</f>
         <v>1134</v>
       </c>
-      <c r="BE48" s="29">
+      <c r="BE48" s="28">
         <f>BD48/BC50</f>
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8">
         <v>6</v>
@@ -6167,7 +6161,7 @@
         <f>Y49-X49</f>
         <v>3.6</v>
       </c>
-      <c r="AM49" s="36">
+      <c r="AM49" s="34">
         <v>5</v>
       </c>
       <c r="AN49" s="8">
@@ -6188,15 +6182,15 @@
         <f t="shared" si="116"/>
         <v>288</v>
       </c>
-      <c r="AS49" s="37">
+      <c r="AS49" s="35">
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT49" s="46" t="s">
+      <c r="AT49" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AU49" s="47"/>
-      <c r="AW49" s="36">
+      <c r="AU49" s="51"/>
+      <c r="AW49" s="34">
         <v>5</v>
       </c>
       <c r="AX49" s="8">
@@ -6217,16 +6211,16 @@
         <f t="shared" si="118"/>
         <v>576</v>
       </c>
-      <c r="BC49" s="37">
+      <c r="BC49" s="35">
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD49" s="46" t="s">
+      <c r="BD49" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="BE49" s="47"/>
-    </row>
-    <row r="50" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BE49" s="51"/>
+    </row>
+    <row r="50" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T50" s="8">
         <v>2</v>
       </c>
@@ -6252,74 +6246,74 @@
         <f>Y50-X50</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="AM50" s="39">
+      <c r="AM50" s="37">
         <v>6</v>
       </c>
-      <c r="AN50" s="40">
-        <v>18</v>
-      </c>
-      <c r="AO50" s="41">
+      <c r="AN50" s="38">
+        <v>18</v>
+      </c>
+      <c r="AO50" s="39">
         <v>16</v>
       </c>
-      <c r="AP50" s="40">
+      <c r="AP50" s="38">
         <f t="shared" si="115"/>
         <v>288</v>
       </c>
-      <c r="AQ50" s="42">
+      <c r="AQ50" s="40">
         <f t="shared" si="119"/>
         <v>567</v>
       </c>
-      <c r="AR50" s="40">
+      <c r="AR50" s="38">
         <f t="shared" si="116"/>
         <v>576</v>
       </c>
-      <c r="AS50" s="43">
+      <c r="AS50" s="41">
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT50" s="33">
+      <c r="AT50" s="31">
         <f>AQ50-AQ40</f>
         <v>113.39999999999998</v>
       </c>
-      <c r="AU50" s="31">
+      <c r="AU50" s="29">
         <f>AT50/AS50</f>
         <v>12.599999999999998</v>
       </c>
-      <c r="AW50" s="39">
+      <c r="AW50" s="37">
         <v>6</v>
       </c>
-      <c r="AX50" s="40">
-        <v>18</v>
-      </c>
-      <c r="AY50" s="41">
+      <c r="AX50" s="38">
+        <v>18</v>
+      </c>
+      <c r="AY50" s="39">
         <v>32</v>
       </c>
-      <c r="AZ50" s="40">
+      <c r="AZ50" s="38">
         <f t="shared" si="117"/>
         <v>576</v>
       </c>
-      <c r="BA50" s="42">
+      <c r="BA50" s="40">
         <f t="shared" si="121"/>
         <v>1134</v>
       </c>
-      <c r="BB50" s="40">
+      <c r="BB50" s="38">
         <f t="shared" si="118"/>
         <v>1152</v>
       </c>
-      <c r="BC50" s="43">
+      <c r="BC50" s="41">
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD50" s="33">
+      <c r="BD50" s="31">
         <f>BA50-BA40</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="BE50" s="31">
+      <c r="BE50" s="29">
         <f>BD50/BC50</f>
         <v>6.3000000000000052</v>
       </c>
     </row>
-    <row r="51" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T51" s="8">
         <v>3</v>
       </c>
@@ -6346,16 +6340,16 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="55" t="s">
+    <row r="52" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -6382,7 +6376,7 @@
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="53" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>0</v>
       </c>
@@ -6430,7 +6424,7 @@
         <v>14.400000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="8">
         <v>1</v>
@@ -6483,7 +6477,7 @@
         <v>14.400000000000034</v>
       </c>
     </row>
-    <row r="55" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8">
         <v>2</v>
@@ -6536,7 +6530,7 @@
         <v>21.600000000000023</v>
       </c>
     </row>
-    <row r="56" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="8">
         <v>3</v>
@@ -6589,7 +6583,7 @@
         <v>21.599999999999909</v>
       </c>
     </row>
-    <row r="57" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="8">
         <v>4</v>
@@ -6617,7 +6611,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="8">
         <v>5</v>
@@ -6645,7 +6639,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="59" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="8">
         <v>6</v>
@@ -6673,18 +6667,18 @@
         <v>720</v>
       </c>
     </row>
-    <row r="62" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="55" t="s">
+    <row r="62" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-    </row>
-    <row r="63" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+    </row>
+    <row r="63" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>0</v>
       </c>
@@ -6707,7 +6701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="8">
         <v>1</v>
@@ -6735,7 +6729,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="8">
         <v>2</v>
@@ -6763,7 +6757,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="8">
         <v>3</v>
@@ -6791,7 +6785,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="8">
         <v>4</v>
@@ -6819,7 +6813,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="8">
         <v>5</v>
@@ -6847,7 +6841,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="8">
         <v>6</v>
@@ -6877,39 +6871,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T47:Z47"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AM43:AS43"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="AW13:BC13"/>
-    <mergeCell ref="AW23:BC23"/>
-    <mergeCell ref="AW33:BC33"/>
-    <mergeCell ref="AW43:BC43"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AT49:AU49"/>
     <mergeCell ref="BD49:BE49"/>
     <mergeCell ref="BD39:BE39"/>
@@ -6924,6 +6885,39 @@
     <mergeCell ref="AT29:AU29"/>
     <mergeCell ref="AT39:AU39"/>
     <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="AW13:BC13"/>
+    <mergeCell ref="AW23:BC23"/>
+    <mergeCell ref="AW33:BC33"/>
+    <mergeCell ref="AW43:BC43"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T47:Z47"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AM43:AS43"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" orientation="portrait" r:id="rId1"/>
@@ -6941,77 +6935,77 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="1" customWidth="1"/>
-    <col min="2" max="13" width="9.54296875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-    </row>
-    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-    </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+    </row>
+    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+    </row>
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="57" t="s">
+      <c r="D3" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-    </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+    </row>
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -7031,7 +7025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -7048,7 +7042,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -7065,7 +7059,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -7082,7 +7076,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -7099,7 +7093,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -7116,7 +7110,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -7133,7 +7127,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -7150,7 +7144,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -7167,7 +7161,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -7184,7 +7178,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -7201,7 +7195,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -7218,7 +7212,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -7235,7 +7229,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -7252,7 +7246,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -7269,7 +7263,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -7286,7 +7280,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -7303,7 +7297,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -7320,7 +7314,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -7337,7 +7331,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -7354,7 +7348,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -7371,38 +7365,38 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="9.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="56" t="s">
+    <row r="25" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-    </row>
-    <row r="27" spans="1:13" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+    </row>
+    <row r="27" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7429,46 +7423,46 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:U60"/>
+  <dimension ref="B1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+      <selection activeCell="F10" activeCellId="1" sqref="F20 F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I1" s="60" t="s">
+    <row r="1" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="58"/>
       <c r="K1">
         <v>113.4</v>
       </c>
     </row>
-    <row r="2" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="52" t="s">
+    <row r="2" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-      <c r="M3" s="52" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="M3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="54"/>
-    </row>
-    <row r="4" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="34" t="s">
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="47"/>
+    </row>
+    <row r="4" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -7486,10 +7480,10 @@
       <c r="G4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="24" t="s">
@@ -7507,12 +7501,12 @@
       <c r="R4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="S4" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="36">
+    <row r="5" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="34">
         <v>1</v>
       </c>
       <c r="C5" s="8">
@@ -7533,11 +7527,11 @@
         <f>D5*36</f>
         <v>3.6</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="35">
         <f>G5-F5</f>
         <v>1.8</v>
       </c>
-      <c r="M5" s="36">
+      <c r="M5" s="34">
         <v>1</v>
       </c>
       <c r="N5" s="8">
@@ -7558,13 +7552,13 @@
         <f>O5*36</f>
         <v>21.599999999999998</v>
       </c>
-      <c r="S5" s="37">
+      <c r="S5" s="35">
         <f>R5-Q5</f>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="36">
+    <row r="6" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="34">
         <v>2</v>
       </c>
       <c r="C6" s="8">
@@ -7585,11 +7579,11 @@
         <f t="shared" ref="G6:G10" si="1">D6*36</f>
         <v>7.2</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="36">
         <f>G6-F6</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="34">
         <v>2</v>
       </c>
       <c r="N6" s="8">
@@ -7610,13 +7604,13 @@
         <f t="shared" ref="R6:R10" si="3">O6*36</f>
         <v>43.199999999999996</v>
       </c>
-      <c r="S6" s="38">
+      <c r="S6" s="36">
         <f>R6-Q6</f>
         <v>10.799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="36">
+    <row r="7" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="34">
         <v>3</v>
       </c>
       <c r="C7" s="8">
@@ -7637,16 +7631,16 @@
         <f t="shared" si="1"/>
         <v>14.4</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="35">
         <f t="shared" ref="H7:H10" si="5">G7-F7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="44"/>
-      <c r="M7" s="36">
+      <c r="J7" s="53"/>
+      <c r="K7" s="42"/>
+      <c r="M7" s="34">
         <v>3</v>
       </c>
       <c r="N7" s="8">
@@ -7667,7 +7661,7 @@
         <f t="shared" si="3"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="S7" s="37">
+      <c r="S7" s="35">
         <f t="shared" ref="S7:S10" si="7">R7-Q7</f>
         <v>10.799999999999997</v>
       </c>
@@ -7676,8 +7670,8 @@
       </c>
       <c r="U7" s="49"/>
     </row>
-    <row r="8" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="36">
+    <row r="8" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="34">
         <v>4</v>
       </c>
       <c r="C8" s="8">
@@ -7698,23 +7692,23 @@
         <f t="shared" si="1"/>
         <v>28.8</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="36">
         <f t="shared" si="5"/>
         <v>1.8000000000000007</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="30">
         <f>F10</f>
         <v>113.4</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="28">
         <f>I8/H10</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="43">
         <f>K1+I8</f>
         <v>226.8</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="34">
         <v>4</v>
       </c>
       <c r="N8" s="8">
@@ -7735,21 +7729,21 @@
         <f t="shared" si="3"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="S8" s="38">
+      <c r="S8" s="36">
         <f t="shared" si="7"/>
         <v>10.799999999999983</v>
       </c>
-      <c r="T8" s="32">
+      <c r="T8" s="30">
         <f>Q10</f>
         <v>680.39999999999986</v>
       </c>
-      <c r="U8" s="29">
+      <c r="U8" s="28">
         <f>T8/S10</f>
         <v>62.999999999999588</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="36">
+    <row r="9" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="34">
         <v>5</v>
       </c>
       <c r="C9" s="8">
@@ -7770,16 +7764,16 @@
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="35">
         <f t="shared" si="5"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="44"/>
-      <c r="M9" s="36">
+      <c r="J9" s="51"/>
+      <c r="K9" s="42"/>
+      <c r="M9" s="34">
         <v>5</v>
       </c>
       <c r="N9" s="8">
@@ -7800,115 +7794,110 @@
         <f t="shared" si="3"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="S9" s="37">
+      <c r="S9" s="35">
         <f t="shared" si="7"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="T9" s="46" t="s">
+      <c r="T9" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="47"/>
-    </row>
-    <row r="10" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="39">
+      <c r="U9" s="51"/>
+    </row>
+    <row r="10" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="37">
         <v>6</v>
       </c>
-      <c r="C10" s="40">
-        <v>18</v>
-      </c>
-      <c r="D10" s="41">
+      <c r="C10" s="38">
+        <v>18</v>
+      </c>
+      <c r="D10" s="39">
         <v>3.2</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="38">
         <f t="shared" si="0"/>
         <v>57.6</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="40">
         <f t="shared" si="4"/>
         <v>113.4</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="38">
         <f t="shared" si="1"/>
         <v>115.2</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="41">
         <f t="shared" si="5"/>
         <v>1.7999999999999972</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <f>F10</f>
         <v>113.4</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="29">
         <f>I10/H10</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="43">
         <f>I10+K8</f>
         <v>340.20000000000005</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="37">
         <v>6</v>
       </c>
-      <c r="N10" s="40">
-        <v>18</v>
-      </c>
-      <c r="O10" s="41">
+      <c r="N10" s="38">
+        <v>18</v>
+      </c>
+      <c r="O10" s="39">
         <v>19.2</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="38">
         <f t="shared" si="2"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="Q10" s="42">
+      <c r="Q10" s="40">
         <f t="shared" si="6"/>
         <v>680.39999999999986</v>
       </c>
-      <c r="R10" s="40">
+      <c r="R10" s="38">
         <f t="shared" si="3"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="S10" s="43">
+      <c r="S10" s="41">
         <f t="shared" si="7"/>
         <v>10.800000000000068</v>
       </c>
-      <c r="T10" s="33">
+      <c r="T10" s="31">
         <f>Q10-F50</f>
         <v>113.39999999999986</v>
       </c>
-      <c r="U10" s="31">
+      <c r="U10" s="29">
         <f>T10/S10</f>
         <v>10.499999999999922</v>
       </c>
     </row>
-    <row r="11" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F11">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="52" t="s">
+    <row r="12" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="54"/>
-      <c r="M13" s="52" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="M13" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="54"/>
-    </row>
-    <row r="14" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="34" t="s">
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="47"/>
+    </row>
+    <row r="14" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="24" t="s">
@@ -7926,10 +7915,10 @@
       <c r="G14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="34" t="s">
+      <c r="M14" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N14" s="24" t="s">
@@ -7947,12 +7936,12 @@
       <c r="R14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="35" t="s">
+      <c r="S14" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="36">
+    <row r="15" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="34">
         <v>1</v>
       </c>
       <c r="C15" s="8">
@@ -7973,11 +7962,11 @@
         <f>D15*36</f>
         <v>7.2</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="35">
         <f>G15-F15</f>
         <v>3.6</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="34">
         <v>1</v>
       </c>
       <c r="N15" s="8">
@@ -7998,13 +7987,13 @@
         <f>O15*36</f>
         <v>25.2</v>
       </c>
-      <c r="S15" s="37">
+      <c r="S15" s="35">
         <f>R15-Q15</f>
         <v>12.6</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="36">
+    <row r="16" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="34">
         <v>2</v>
       </c>
       <c r="C16" s="8">
@@ -8025,11 +8014,11 @@
         <f t="shared" ref="G16:G20" si="9">D16*36</f>
         <v>14.4</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="36">
         <f>G16-F16</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="M16" s="36">
+      <c r="M16" s="34">
         <v>2</v>
       </c>
       <c r="N16" s="8">
@@ -8050,13 +8039,13 @@
         <f t="shared" ref="R16:R20" si="11">O16*36</f>
         <v>50.4</v>
       </c>
-      <c r="S16" s="38">
+      <c r="S16" s="36">
         <f>R16-Q16</f>
         <v>12.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="36">
+    <row r="17" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="34">
         <v>3</v>
       </c>
       <c r="C17" s="8">
@@ -8077,7 +8066,7 @@
         <f t="shared" si="9"/>
         <v>28.8</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="35">
         <f t="shared" ref="H17:H20" si="13">G17-F17</f>
         <v>3.5999999999999979</v>
       </c>
@@ -8085,8 +8074,8 @@
         <v>35</v>
       </c>
       <c r="J17" s="49"/>
-      <c r="K17" s="44"/>
-      <c r="M17" s="36">
+      <c r="K17" s="42"/>
+      <c r="M17" s="34">
         <v>3</v>
       </c>
       <c r="N17" s="8">
@@ -8107,7 +8096,7 @@
         <f t="shared" si="11"/>
         <v>100.8</v>
       </c>
-      <c r="S17" s="37">
+      <c r="S17" s="35">
         <f t="shared" ref="S17:S20" si="15">R17-Q17</f>
         <v>12.600000000000009</v>
       </c>
@@ -8116,8 +8105,8 @@
       </c>
       <c r="U17" s="49"/>
     </row>
-    <row r="18" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="36">
+    <row r="18" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="34">
         <v>4</v>
       </c>
       <c r="C18" s="8">
@@ -8138,23 +8127,23 @@
         <f t="shared" si="9"/>
         <v>57.6</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="36">
         <f t="shared" si="13"/>
         <v>3.6000000000000014</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="30">
         <f>F20</f>
         <v>226.8</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="28">
         <f>I18/H20</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="43">
         <f>K10+I18</f>
         <v>567</v>
       </c>
-      <c r="M18" s="36">
+      <c r="M18" s="34">
         <v>4</v>
       </c>
       <c r="N18" s="8">
@@ -8175,21 +8164,21 @@
         <f t="shared" si="11"/>
         <v>201.6</v>
       </c>
-      <c r="S18" s="38">
+      <c r="S18" s="36">
         <f t="shared" si="15"/>
         <v>12.599999999999994</v>
       </c>
-      <c r="T18" s="32">
+      <c r="T18" s="30">
         <f>Q20</f>
         <v>793.8</v>
       </c>
-      <c r="U18" s="29">
+      <c r="U18" s="28">
         <f>T18/S20</f>
         <v>62.999999999999879</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="36">
+    <row r="19" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="34">
         <v>5</v>
       </c>
       <c r="C19" s="8">
@@ -8210,16 +8199,16 @@
         <f t="shared" si="9"/>
         <v>115.2</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="35">
         <f t="shared" si="13"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="44"/>
-      <c r="M19" s="36">
+      <c r="J19" s="51"/>
+      <c r="K19" s="42"/>
+      <c r="M19" s="34">
         <v>5</v>
       </c>
       <c r="N19" s="8">
@@ -8240,110 +8229,110 @@
         <f t="shared" si="11"/>
         <v>403.2</v>
       </c>
-      <c r="S19" s="37">
+      <c r="S19" s="35">
         <f t="shared" si="15"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="T19" s="46" t="s">
+      <c r="T19" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="U19" s="47"/>
-    </row>
-    <row r="20" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="39">
+      <c r="U19" s="51"/>
+    </row>
+    <row r="20" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="37">
         <v>6</v>
       </c>
-      <c r="C20" s="40">
-        <v>18</v>
-      </c>
-      <c r="D20" s="41">
+      <c r="C20" s="38">
+        <v>18</v>
+      </c>
+      <c r="D20" s="39">
         <v>6.4</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="38">
         <f t="shared" si="8"/>
         <v>115.2</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="40">
         <f t="shared" si="12"/>
         <v>226.8</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="38">
         <f t="shared" si="9"/>
         <v>230.4</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="41">
         <f t="shared" si="13"/>
         <v>3.5999999999999943</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="31">
         <f>F20-F10</f>
         <v>113.4</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="29">
         <f>I20/H20</f>
         <v>31.50000000000005</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="43">
         <f>I20+K18</f>
         <v>680.4</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="37">
         <v>6</v>
       </c>
-      <c r="N20" s="40">
-        <v>18</v>
-      </c>
-      <c r="O20" s="41">
+      <c r="N20" s="38">
+        <v>18</v>
+      </c>
+      <c r="O20" s="39">
         <v>22.4</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="38">
         <f t="shared" si="10"/>
         <v>403.2</v>
       </c>
-      <c r="Q20" s="42">
+      <c r="Q20" s="40">
         <f t="shared" si="14"/>
         <v>793.8</v>
       </c>
-      <c r="R20" s="40">
+      <c r="R20" s="38">
         <f t="shared" si="11"/>
         <v>806.4</v>
       </c>
-      <c r="S20" s="43">
+      <c r="S20" s="41">
         <f t="shared" si="15"/>
         <v>12.600000000000023</v>
       </c>
-      <c r="T20" s="33">
+      <c r="T20" s="31">
         <f>Q20-Q10</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="U20" s="31">
+      <c r="U20" s="29">
         <f>T20/S20</f>
         <v>8.9999999999999911</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="52" t="s">
+    <row r="22" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="54"/>
-      <c r="M23" s="52" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="M23" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="54"/>
-    </row>
-    <row r="24" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="34" t="s">
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="47"/>
+    </row>
+    <row r="24" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -8361,10 +8350,10 @@
       <c r="G24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="34" t="s">
+      <c r="M24" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N24" s="24" t="s">
@@ -8382,12 +8371,12 @@
       <c r="R24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="35" t="s">
+      <c r="S24" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="36">
+    <row r="25" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="34">
         <v>1</v>
       </c>
       <c r="C25" s="8">
@@ -8408,11 +8397,11 @@
         <f>D25*36</f>
         <v>10.799999999999999</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="35">
         <f>G25-F25</f>
         <v>5.3999999999999995</v>
       </c>
-      <c r="M25" s="36">
+      <c r="M25" s="34">
         <v>1</v>
       </c>
       <c r="N25" s="8">
@@ -8433,13 +8422,13 @@
         <f>O25*36</f>
         <v>28.8</v>
       </c>
-      <c r="S25" s="37">
+      <c r="S25" s="35">
         <f>R25-Q25</f>
         <v>14.4</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="36">
+    <row r="26" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="34">
         <v>2</v>
       </c>
       <c r="C26" s="8">
@@ -8460,11 +8449,11 @@
         <f t="shared" ref="G26:G30" si="17">D26*36</f>
         <v>21.599999999999998</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="36">
         <f>G26-F26</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="M26" s="36">
+      <c r="M26" s="34">
         <v>2</v>
       </c>
       <c r="N26" s="8">
@@ -8485,13 +8474,13 @@
         <f t="shared" ref="R26:R30" si="19">O26*36</f>
         <v>57.6</v>
       </c>
-      <c r="S26" s="38">
+      <c r="S26" s="36">
         <f>R26-Q26</f>
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="36">
+    <row r="27" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="34">
         <v>3</v>
       </c>
       <c r="C27" s="8">
@@ -8512,7 +8501,7 @@
         <f t="shared" si="17"/>
         <v>43.199999999999996</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="35">
         <f t="shared" ref="H27:H30" si="21">G27-F27</f>
         <v>5.3999999999999986</v>
       </c>
@@ -8520,8 +8509,8 @@
         <v>35</v>
       </c>
       <c r="J27" s="49"/>
-      <c r="K27" s="44"/>
-      <c r="M27" s="36">
+      <c r="K27" s="42"/>
+      <c r="M27" s="34">
         <v>3</v>
       </c>
       <c r="N27" s="8">
@@ -8542,7 +8531,7 @@
         <f t="shared" si="19"/>
         <v>115.2</v>
       </c>
-      <c r="S27" s="37">
+      <c r="S27" s="35">
         <f t="shared" ref="S27:S30" si="23">R27-Q27</f>
         <v>14.399999999999991</v>
       </c>
@@ -8551,8 +8540,8 @@
       </c>
       <c r="U27" s="49"/>
     </row>
-    <row r="28" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="36">
+    <row r="28" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="34">
         <v>4</v>
       </c>
       <c r="C28" s="8">
@@ -8573,23 +8562,23 @@
         <f t="shared" si="17"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="36">
         <f t="shared" si="21"/>
         <v>5.3999999999999915</v>
       </c>
-      <c r="I28" s="32">
+      <c r="I28" s="30">
         <f>F30</f>
         <v>340.19999999999993</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J28" s="28">
         <f>I28/H30</f>
         <v>62.999999999999588</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="43">
         <f>K20+I28</f>
         <v>1020.5999999999999</v>
       </c>
-      <c r="M28" s="36">
+      <c r="M28" s="34">
         <v>4</v>
       </c>
       <c r="N28" s="8">
@@ -8610,21 +8599,21 @@
         <f t="shared" si="19"/>
         <v>230.4</v>
       </c>
-      <c r="S28" s="38">
+      <c r="S28" s="36">
         <f t="shared" si="23"/>
         <v>14.400000000000006</v>
       </c>
-      <c r="T28" s="32">
+      <c r="T28" s="30">
         <f>Q30</f>
         <v>907.2</v>
       </c>
-      <c r="U28" s="29">
+      <c r="U28" s="28">
         <f>T28/S30</f>
         <v>63.000000000000099</v>
       </c>
     </row>
-    <row r="29" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="36">
+    <row r="29" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="34">
         <v>5</v>
       </c>
       <c r="C29" s="8">
@@ -8645,16 +8634,16 @@
         <f t="shared" si="17"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="35">
         <f t="shared" si="21"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="I29" s="46" t="s">
+      <c r="I29" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="47"/>
-      <c r="K29" s="44"/>
-      <c r="M29" s="36">
+      <c r="J29" s="51"/>
+      <c r="K29" s="42"/>
+      <c r="M29" s="34">
         <v>5</v>
       </c>
       <c r="N29" s="8">
@@ -8675,110 +8664,110 @@
         <f t="shared" si="19"/>
         <v>460.8</v>
       </c>
-      <c r="S29" s="37">
+      <c r="S29" s="35">
         <f t="shared" si="23"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="T29" s="46" t="s">
+      <c r="T29" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="47"/>
-    </row>
-    <row r="30" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="39">
+      <c r="U29" s="51"/>
+    </row>
+    <row r="30" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="37">
         <v>6</v>
       </c>
-      <c r="C30" s="40">
-        <v>18</v>
-      </c>
-      <c r="D30" s="41">
+      <c r="C30" s="38">
+        <v>18</v>
+      </c>
+      <c r="D30" s="39">
         <v>9.6</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="38">
         <f t="shared" si="16"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="40">
         <f t="shared" si="20"/>
         <v>340.19999999999993</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="38">
         <f t="shared" si="17"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="41">
         <f t="shared" si="21"/>
         <v>5.4000000000000341</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="31">
         <f>F30-F20</f>
         <v>113.39999999999992</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="29">
         <f>I30/H30</f>
         <v>20.999999999999854</v>
       </c>
-      <c r="K30" s="45">
+      <c r="K30" s="43">
         <f>I30+K28</f>
         <v>1133.9999999999998</v>
       </c>
-      <c r="M30" s="39">
+      <c r="M30" s="37">
         <v>6</v>
       </c>
-      <c r="N30" s="40">
-        <v>18</v>
-      </c>
-      <c r="O30" s="41">
+      <c r="N30" s="38">
+        <v>18</v>
+      </c>
+      <c r="O30" s="39">
         <v>25.6</v>
       </c>
-      <c r="P30" s="40">
+      <c r="P30" s="38">
         <f t="shared" si="18"/>
         <v>460.8</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="Q30" s="40">
         <f t="shared" si="22"/>
         <v>907.2</v>
       </c>
-      <c r="R30" s="40">
+      <c r="R30" s="38">
         <f t="shared" si="19"/>
         <v>921.6</v>
       </c>
-      <c r="S30" s="43">
+      <c r="S30" s="41">
         <f t="shared" si="23"/>
         <v>14.399999999999977</v>
       </c>
-      <c r="T30" s="33">
+      <c r="T30" s="31">
         <f>Q30-Q20</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="U30" s="31">
+      <c r="U30" s="29">
         <f>T30/S30</f>
         <v>7.8750000000000187</v>
       </c>
     </row>
-    <row r="32" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="52" t="s">
+    <row r="32" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54"/>
-      <c r="M33" s="52" t="s">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="47"/>
+      <c r="M33" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="54"/>
-    </row>
-    <row r="34" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="34" t="s">
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="47"/>
+    </row>
+    <row r="34" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="24" t="s">
@@ -8796,10 +8785,10 @@
       <c r="G34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="35" t="s">
+      <c r="H34" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M34" s="34" t="s">
+      <c r="M34" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N34" s="24" t="s">
@@ -8817,12 +8806,12 @@
       <c r="R34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S34" s="35" t="s">
+      <c r="S34" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="36">
+    <row r="35" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="34">
         <v>1</v>
       </c>
       <c r="C35" s="8">
@@ -8843,11 +8832,11 @@
         <f>D35*36</f>
         <v>14.4</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="35">
         <f>G35-F35</f>
         <v>7.2</v>
       </c>
-      <c r="M35" s="36">
+      <c r="M35" s="34">
         <v>1</v>
       </c>
       <c r="N35" s="8">
@@ -8868,13 +8857,13 @@
         <f>O35*36</f>
         <v>32.4</v>
       </c>
-      <c r="S35" s="37">
+      <c r="S35" s="35">
         <f>R35-Q35</f>
         <v>16.2</v>
       </c>
     </row>
-    <row r="36" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="36">
+    <row r="36" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="34">
         <v>2</v>
       </c>
       <c r="C36" s="8">
@@ -8895,11 +8884,11 @@
         <f t="shared" ref="G36:G40" si="25">D36*36</f>
         <v>28.8</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="36">
         <f>G36-F36</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="M36" s="36">
+      <c r="M36" s="34">
         <v>2</v>
       </c>
       <c r="N36" s="8">
@@ -8920,13 +8909,13 @@
         <f t="shared" ref="R36:R40" si="27">O36*36</f>
         <v>64.8</v>
       </c>
-      <c r="S36" s="38">
+      <c r="S36" s="36">
         <f>R36-Q36</f>
         <v>16.200000000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="36">
+    <row r="37" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="34">
         <v>3</v>
       </c>
       <c r="C37" s="8">
@@ -8947,7 +8936,7 @@
         <f t="shared" si="25"/>
         <v>57.6</v>
       </c>
-      <c r="H37" s="37">
+      <c r="H37" s="35">
         <f t="shared" ref="H37:H40" si="29">G37-F37</f>
         <v>7.1999999999999957</v>
       </c>
@@ -8955,8 +8944,8 @@
         <v>35</v>
       </c>
       <c r="J37" s="49"/>
-      <c r="K37" s="44"/>
-      <c r="M37" s="36">
+      <c r="K37" s="42"/>
+      <c r="M37" s="34">
         <v>3</v>
       </c>
       <c r="N37" s="8">
@@ -8977,7 +8966,7 @@
         <f t="shared" si="27"/>
         <v>129.6</v>
       </c>
-      <c r="S37" s="37">
+      <c r="S37" s="35">
         <f t="shared" ref="S37:S40" si="31">R37-Q37</f>
         <v>16.200000000000003</v>
       </c>
@@ -8986,8 +8975,8 @@
       </c>
       <c r="U37" s="49"/>
     </row>
-    <row r="38" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="36">
+    <row r="38" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="34">
         <v>4</v>
       </c>
       <c r="C38" s="8">
@@ -9008,23 +8997,23 @@
         <f t="shared" si="25"/>
         <v>115.2</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="36">
         <f t="shared" si="29"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="I38" s="32">
+      <c r="I38" s="30">
         <f>F40</f>
         <v>453.6</v>
       </c>
-      <c r="J38" s="29">
+      <c r="J38" s="28">
         <f>I38/H40</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="K38" s="45">
+      <c r="K38" s="43">
         <f>K30+I38</f>
         <v>1587.6</v>
       </c>
-      <c r="M38" s="36">
+      <c r="M38" s="34">
         <v>4</v>
       </c>
       <c r="N38" s="8">
@@ -9045,21 +9034,21 @@
         <f t="shared" si="27"/>
         <v>259.2</v>
       </c>
-      <c r="S38" s="38">
+      <c r="S38" s="36">
         <f t="shared" si="31"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="T38" s="32">
+      <c r="T38" s="30">
         <f>Q40</f>
         <v>1020.5999999999999</v>
       </c>
-      <c r="U38" s="29">
+      <c r="U38" s="28">
         <f>T38/S40</f>
         <v>62.999999999999815</v>
       </c>
     </row>
-    <row r="39" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="36">
+    <row r="39" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="34">
         <v>5</v>
       </c>
       <c r="C39" s="8">
@@ -9080,16 +9069,16 @@
         <f t="shared" si="25"/>
         <v>230.4</v>
       </c>
-      <c r="H39" s="37">
+      <c r="H39" s="35">
         <f t="shared" si="29"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="I39" s="46" t="s">
+      <c r="I39" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="47"/>
-      <c r="K39" s="44"/>
-      <c r="M39" s="36">
+      <c r="J39" s="51"/>
+      <c r="K39" s="42"/>
+      <c r="M39" s="34">
         <v>5</v>
       </c>
       <c r="N39" s="8">
@@ -9110,110 +9099,110 @@
         <f t="shared" si="27"/>
         <v>518.4</v>
       </c>
-      <c r="S39" s="37">
+      <c r="S39" s="35">
         <f t="shared" si="31"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="T39" s="46" t="s">
+      <c r="T39" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="U39" s="47"/>
-    </row>
-    <row r="40" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="39">
+      <c r="U39" s="51"/>
+    </row>
+    <row r="40" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="37">
         <v>6</v>
       </c>
-      <c r="C40" s="40">
-        <v>18</v>
-      </c>
-      <c r="D40" s="41">
+      <c r="C40" s="38">
+        <v>18</v>
+      </c>
+      <c r="D40" s="39">
         <v>12.8</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="38">
         <f t="shared" si="24"/>
         <v>230.4</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F40" s="40">
         <f t="shared" si="28"/>
         <v>453.6</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="38">
         <f t="shared" si="25"/>
         <v>460.8</v>
       </c>
-      <c r="H40" s="43">
+      <c r="H40" s="41">
         <f t="shared" si="29"/>
         <v>7.1999999999999886</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="31">
         <f>F40-F30</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="J40" s="31">
+      <c r="J40" s="29">
         <f>I40/H40</f>
         <v>15.750000000000037</v>
       </c>
-      <c r="K40" s="45">
+      <c r="K40" s="43">
         <f>I40+K38</f>
         <v>1701</v>
       </c>
-      <c r="M40" s="39">
+      <c r="M40" s="37">
         <v>6</v>
       </c>
-      <c r="N40" s="40">
-        <v>18</v>
-      </c>
-      <c r="O40" s="41">
+      <c r="N40" s="38">
+        <v>18</v>
+      </c>
+      <c r="O40" s="39">
         <v>28.8</v>
       </c>
-      <c r="P40" s="40">
+      <c r="P40" s="38">
         <f t="shared" si="26"/>
         <v>518.4</v>
       </c>
-      <c r="Q40" s="42">
+      <c r="Q40" s="40">
         <f t="shared" si="30"/>
         <v>1020.5999999999999</v>
       </c>
-      <c r="R40" s="40">
+      <c r="R40" s="38">
         <f t="shared" si="27"/>
         <v>1036.8</v>
       </c>
-      <c r="S40" s="43">
+      <c r="S40" s="41">
         <f t="shared" si="31"/>
         <v>16.200000000000045</v>
       </c>
-      <c r="T40" s="33">
+      <c r="T40" s="31">
         <f>Q40-Q30</f>
         <v>113.39999999999986</v>
       </c>
-      <c r="U40" s="31">
+      <c r="U40" s="29">
         <f>T40/S40</f>
         <v>6.9999999999999716</v>
       </c>
     </row>
-    <row r="42" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="52" t="s">
+    <row r="42" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
-      <c r="M43" s="52" t="s">
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="47"/>
+      <c r="M43" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="54"/>
-    </row>
-    <row r="44" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="34" t="s">
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="47"/>
+    </row>
+    <row r="44" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="24" t="s">
@@ -9231,10 +9220,10 @@
       <c r="G44" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="35" t="s">
+      <c r="H44" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="34" t="s">
+      <c r="M44" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N44" s="24" t="s">
@@ -9252,12 +9241,12 @@
       <c r="R44" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S44" s="35" t="s">
+      <c r="S44" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="36">
+    <row r="45" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="34">
         <v>1</v>
       </c>
       <c r="C45" s="8">
@@ -9278,11 +9267,11 @@
         <f>D45*36</f>
         <v>18</v>
       </c>
-      <c r="H45" s="37">
+      <c r="H45" s="35">
         <f>G45-F45</f>
         <v>9</v>
       </c>
-      <c r="M45" s="36">
+      <c r="M45" s="34">
         <v>1</v>
       </c>
       <c r="N45" s="8">
@@ -9303,13 +9292,13 @@
         <f>O45*36</f>
         <v>36</v>
       </c>
-      <c r="S45" s="37">
+      <c r="S45" s="35">
         <f>R45-Q45</f>
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="36">
+    <row r="46" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="34">
         <v>2</v>
       </c>
       <c r="C46" s="8">
@@ -9330,11 +9319,11 @@
         <f t="shared" ref="G46:G50" si="33">D46*36</f>
         <v>36</v>
       </c>
-      <c r="H46" s="38">
+      <c r="H46" s="36">
         <f>G46-F46</f>
         <v>9</v>
       </c>
-      <c r="M46" s="36">
+      <c r="M46" s="34">
         <v>2</v>
       </c>
       <c r="N46" s="8">
@@ -9355,13 +9344,13 @@
         <f t="shared" ref="R46:R50" si="35">O46*36</f>
         <v>72</v>
       </c>
-      <c r="S46" s="38">
+      <c r="S46" s="36">
         <f>R46-Q46</f>
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="36">
+    <row r="47" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="34">
         <v>3</v>
       </c>
       <c r="C47" s="8">
@@ -9382,7 +9371,7 @@
         <f t="shared" si="33"/>
         <v>72</v>
       </c>
-      <c r="H47" s="37">
+      <c r="H47" s="35">
         <f t="shared" ref="H47:H50" si="37">G47-F47</f>
         <v>9</v>
       </c>
@@ -9390,8 +9379,8 @@
         <v>35</v>
       </c>
       <c r="J47" s="49"/>
-      <c r="K47" s="44"/>
-      <c r="M47" s="36">
+      <c r="K47" s="42"/>
+      <c r="M47" s="34">
         <v>3</v>
       </c>
       <c r="N47" s="8">
@@ -9412,7 +9401,7 @@
         <f t="shared" si="35"/>
         <v>144</v>
       </c>
-      <c r="S47" s="37">
+      <c r="S47" s="35">
         <f t="shared" ref="S47:S50" si="39">R47-Q47</f>
         <v>18</v>
       </c>
@@ -9421,8 +9410,8 @@
       </c>
       <c r="U47" s="49"/>
     </row>
-    <row r="48" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="36">
+    <row r="48" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="34">
         <v>4</v>
       </c>
       <c r="C48" s="8">
@@ -9443,23 +9432,23 @@
         <f t="shared" si="33"/>
         <v>144</v>
       </c>
-      <c r="H48" s="38">
+      <c r="H48" s="36">
         <f t="shared" si="37"/>
         <v>9</v>
       </c>
-      <c r="I48" s="32">
+      <c r="I48" s="30">
         <f>F50</f>
         <v>567</v>
       </c>
-      <c r="J48" s="29">
+      <c r="J48" s="28">
         <f>I48/H50</f>
         <v>63</v>
       </c>
-      <c r="K48" s="45">
+      <c r="K48" s="43">
         <f>K40+I48</f>
         <v>2268</v>
       </c>
-      <c r="M48" s="36">
+      <c r="M48" s="34">
         <v>4</v>
       </c>
       <c r="N48" s="8">
@@ -9480,21 +9469,21 @@
         <f t="shared" si="35"/>
         <v>288</v>
       </c>
-      <c r="S48" s="38">
+      <c r="S48" s="36">
         <f t="shared" si="39"/>
         <v>18</v>
       </c>
-      <c r="T48" s="32">
+      <c r="T48" s="30">
         <f>Q50</f>
         <v>1134</v>
       </c>
-      <c r="U48" s="29">
+      <c r="U48" s="28">
         <f>T48/S50</f>
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="36">
+    <row r="49" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="34">
         <v>5</v>
       </c>
       <c r="C49" s="8">
@@ -9515,16 +9504,16 @@
         <f t="shared" si="33"/>
         <v>288</v>
       </c>
-      <c r="H49" s="37">
+      <c r="H49" s="35">
         <f t="shared" si="37"/>
         <v>9</v>
       </c>
-      <c r="I49" s="46" t="s">
+      <c r="I49" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="47"/>
-      <c r="K49" s="44"/>
-      <c r="M49" s="36">
+      <c r="J49" s="51"/>
+      <c r="K49" s="42"/>
+      <c r="M49" s="34">
         <v>5</v>
       </c>
       <c r="N49" s="8">
@@ -9545,322 +9534,89 @@
         <f t="shared" si="35"/>
         <v>576</v>
       </c>
-      <c r="S49" s="37">
+      <c r="S49" s="35">
         <f t="shared" si="39"/>
         <v>18</v>
       </c>
-      <c r="T49" s="46" t="s">
+      <c r="T49" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="47"/>
-    </row>
-    <row r="50" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="39">
+      <c r="U49" s="51"/>
+    </row>
+    <row r="50" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="37">
         <v>6</v>
       </c>
-      <c r="C50" s="40">
-        <v>18</v>
-      </c>
-      <c r="D50" s="41">
+      <c r="C50" s="38">
+        <v>18</v>
+      </c>
+      <c r="D50" s="39">
         <v>16</v>
       </c>
-      <c r="E50" s="40">
+      <c r="E50" s="38">
         <f t="shared" si="32"/>
         <v>288</v>
       </c>
-      <c r="F50" s="42">
+      <c r="F50" s="40">
         <f t="shared" si="36"/>
         <v>567</v>
       </c>
-      <c r="G50" s="40">
+      <c r="G50" s="38">
         <f t="shared" si="33"/>
         <v>576</v>
       </c>
-      <c r="H50" s="43">
+      <c r="H50" s="41">
         <f t="shared" si="37"/>
         <v>9</v>
       </c>
-      <c r="I50" s="33">
+      <c r="I50" s="31">
         <f>F50-F40</f>
         <v>113.39999999999998</v>
       </c>
-      <c r="J50" s="31">
+      <c r="J50" s="29">
         <f>I50/H50</f>
         <v>12.599999999999998</v>
       </c>
-      <c r="K50" s="45">
+      <c r="K50" s="43">
         <f>I50+K48</f>
         <v>2381.4</v>
       </c>
-      <c r="M50" s="39">
+      <c r="M50" s="37">
         <v>6</v>
       </c>
-      <c r="N50" s="40">
-        <v>18</v>
-      </c>
-      <c r="O50" s="41">
+      <c r="N50" s="38">
+        <v>18</v>
+      </c>
+      <c r="O50" s="39">
         <v>32</v>
       </c>
-      <c r="P50" s="40">
+      <c r="P50" s="38">
         <f t="shared" si="34"/>
         <v>576</v>
       </c>
-      <c r="Q50" s="42">
+      <c r="Q50" s="40">
         <f t="shared" si="38"/>
         <v>1134</v>
       </c>
-      <c r="R50" s="40">
+      <c r="R50" s="38">
         <f t="shared" si="35"/>
         <v>1152</v>
       </c>
-      <c r="S50" s="43">
+      <c r="S50" s="41">
         <f t="shared" si="39"/>
         <v>18</v>
       </c>
-      <c r="T50" s="33">
+      <c r="T50" s="31">
         <f>Q50-Q40</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="U50" s="31">
+      <c r="U50" s="29">
         <f>T50/S50</f>
         <v>6.3000000000000052</v>
       </c>
     </row>
-    <row r="52" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="53" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M53" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="53"/>
-      <c r="S53" s="54"/>
-    </row>
-    <row r="54" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M54" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N54" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P54" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M55" s="36">
-        <v>1</v>
-      </c>
-      <c r="N55" s="8">
-        <v>18</v>
-      </c>
-      <c r="O55" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="P55" s="8">
-        <f>N55*O55</f>
-        <v>3.6</v>
-      </c>
-      <c r="Q55" s="10">
-        <f>P55</f>
-        <v>3.6</v>
-      </c>
-      <c r="R55" s="8">
-        <f>O55*36</f>
-        <v>7.2</v>
-      </c>
-      <c r="S55" s="37">
-        <f>R55-Q55</f>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="56" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M56" s="36">
-        <v>2</v>
-      </c>
-      <c r="N56" s="8">
-        <v>18</v>
-      </c>
-      <c r="O56" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="P56" s="8">
-        <f t="shared" ref="P56:P60" si="40">N56*O56</f>
-        <v>7.2</v>
-      </c>
-      <c r="Q56" s="10">
-        <f>P56+Q55</f>
-        <v>10.8</v>
-      </c>
-      <c r="R56" s="8">
-        <f t="shared" ref="R56:R60" si="41">O56*36</f>
-        <v>14.4</v>
-      </c>
-      <c r="S56" s="38">
-        <f>R56-Q56</f>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M57" s="36">
-        <v>3</v>
-      </c>
-      <c r="N57" s="8">
-        <v>18</v>
-      </c>
-      <c r="O57" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="P57" s="8">
-        <f t="shared" si="40"/>
-        <v>14.4</v>
-      </c>
-      <c r="Q57" s="10">
-        <f t="shared" ref="Q57:Q60" si="42">P57+Q56</f>
-        <v>25.200000000000003</v>
-      </c>
-      <c r="R57" s="8">
-        <f t="shared" si="41"/>
-        <v>28.8</v>
-      </c>
-      <c r="S57" s="37">
-        <f t="shared" ref="S57:S60" si="43">R57-Q57</f>
-        <v>3.5999999999999979</v>
-      </c>
-      <c r="T57" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="U57" s="49"/>
-    </row>
-    <row r="58" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M58" s="36">
-        <v>4</v>
-      </c>
-      <c r="N58" s="8">
-        <v>18</v>
-      </c>
-      <c r="O58" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="P58" s="8">
-        <f t="shared" si="40"/>
-        <v>28.8</v>
-      </c>
-      <c r="Q58" s="10">
-        <f t="shared" si="42"/>
-        <v>54</v>
-      </c>
-      <c r="R58" s="8">
-        <f t="shared" si="41"/>
-        <v>57.6</v>
-      </c>
-      <c r="S58" s="38">
-        <f t="shared" si="43"/>
-        <v>3.6000000000000014</v>
-      </c>
-      <c r="T58" s="32">
-        <f>Q60</f>
-        <v>226.8</v>
-      </c>
-      <c r="U58" s="30">
-        <f>T58/S60</f>
-        <v>63.000000000000099</v>
-      </c>
-    </row>
-    <row r="59" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M59" s="36">
-        <v>5</v>
-      </c>
-      <c r="N59" s="8">
-        <v>18</v>
-      </c>
-      <c r="O59" s="9">
-        <v>3.2</v>
-      </c>
-      <c r="P59" s="8">
-        <f t="shared" si="40"/>
-        <v>57.6</v>
-      </c>
-      <c r="Q59" s="10">
-        <f t="shared" si="42"/>
-        <v>111.6</v>
-      </c>
-      <c r="R59" s="8">
-        <f t="shared" si="41"/>
-        <v>115.2</v>
-      </c>
-      <c r="S59" s="37">
-        <f t="shared" si="43"/>
-        <v>3.6000000000000085</v>
-      </c>
-      <c r="T59" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="U59" s="47"/>
-    </row>
-    <row r="60" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M60" s="39">
-        <v>6</v>
-      </c>
-      <c r="N60" s="40">
-        <v>18</v>
-      </c>
-      <c r="O60" s="41">
-        <v>6.4</v>
-      </c>
-      <c r="P60" s="40">
-        <f t="shared" si="40"/>
-        <v>115.2</v>
-      </c>
-      <c r="Q60" s="42">
-        <f t="shared" si="42"/>
-        <v>226.8</v>
-      </c>
-      <c r="R60" s="40">
-        <f t="shared" si="41"/>
-        <v>230.4</v>
-      </c>
-      <c r="S60" s="43">
-        <f t="shared" si="43"/>
-        <v>3.5999999999999943</v>
-      </c>
-      <c r="T60" s="33">
-        <f>Q60-Q50</f>
-        <v>-907.2</v>
-      </c>
-      <c r="U60" s="31">
-        <f>T60/S60</f>
-        <v>-252.0000000000004</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="M53:S53"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="T17:U17"/>
+  <mergeCells count="31">
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="M43:S43"/>
@@ -9877,15 +9633,24 @@
     <mergeCell ref="M3:S3"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="T7:U7"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="T17:U17"/>
     <mergeCell ref="T27:U27"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="M23:S23"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="T49:U49"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="T19:U19"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9900,9 +9665,9 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -9934,7 +9699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -9975,7 +9740,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -10016,7 +9781,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -10057,7 +9822,7 @@
         <v>9.2999999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -10098,7 +9863,7 @@
         <v>9.3999999999999986</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -10139,7 +9904,7 @@
         <v>9.4999999999999982</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -10180,7 +9945,7 @@
         <v>9.5999999999999979</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -10221,7 +9986,7 @@
         <v>9.6999999999999975</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -10262,7 +10027,7 @@
         <v>9.7999999999999972</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -10303,7 +10068,7 @@
         <v>9.8999999999999968</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10335,7 +10100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ref="A13:J13" si="2">A12+0.1</f>
         <v>10.1</v>
@@ -10377,7 +10142,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ref="A14:B21" si="3">A13+0.1</f>
         <v>10.199999999999999</v>
@@ -10419,7 +10184,7 @@
         <v>19.200000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="3"/>
         <v>10.299999999999999</v>
@@ -10461,7 +10226,7 @@
         <v>19.300000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="3"/>
         <v>10.399999999999999</v>
@@ -10503,7 +10268,7 @@
         <v>19.400000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="3"/>
         <v>10.499999999999998</v>
@@ -10545,7 +10310,7 @@
         <v>19.500000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="3"/>
         <v>10.599999999999998</v>
@@ -10587,7 +10352,7 @@
         <v>19.600000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="3"/>
         <v>10.699999999999998</v>
@@ -10629,7 +10394,7 @@
         <v>19.70000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="3"/>
         <v>10.799999999999997</v>
@@ -10671,7 +10436,7 @@
         <v>19.800000000000011</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="3"/>
         <v>10.899999999999997</v>
@@ -10713,7 +10478,7 @@
         <v>19.900000000000013</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -10745,7 +10510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ref="A24:J24" si="12">A23+0.1</f>
         <v>20.100000000000001</v>
@@ -10787,7 +10552,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ref="A25:A32" si="13">A24+0.1</f>
         <v>20.200000000000003</v>
@@ -10829,7 +10594,7 @@
         <v>29.200000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="13"/>
         <v>20.300000000000004</v>
@@ -10871,7 +10636,7 @@
         <v>29.300000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="13"/>
         <v>20.400000000000006</v>
@@ -10913,7 +10678,7 @@
         <v>29.400000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="13"/>
         <v>20.500000000000007</v>
@@ -10955,7 +10720,7 @@
         <v>29.500000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="13"/>
         <v>20.600000000000009</v>
@@ -10997,7 +10762,7 @@
         <v>29.600000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="13"/>
         <v>20.70000000000001</v>
@@ -11039,7 +10804,7 @@
         <v>29.70000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="13"/>
         <v>20.800000000000011</v>
@@ -11081,7 +10846,7 @@
         <v>29.800000000000011</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="13"/>
         <v>20.900000000000013</v>
@@ -11123,7 +10888,7 @@
         <v>29.900000000000013</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -11155,7 +10920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ref="A35:J35" si="23">A34+0.1</f>
         <v>30.1</v>
@@ -11197,7 +10962,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ref="A36:A43" si="24">A35+0.1</f>
         <v>30.200000000000003</v>
@@ -11239,7 +11004,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="24"/>
         <v>30.300000000000004</v>
@@ -11281,7 +11046,7 @@
         <v>39.300000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="24"/>
         <v>30.400000000000006</v>
@@ -11323,7 +11088,7 @@
         <v>39.400000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="24"/>
         <v>30.500000000000007</v>
@@ -11365,7 +11130,7 @@
         <v>39.500000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="24"/>
         <v>30.600000000000009</v>
@@ -11407,7 +11172,7 @@
         <v>39.600000000000009</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="24"/>
         <v>30.70000000000001</v>
@@ -11449,7 +11214,7 @@
         <v>39.70000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="24"/>
         <v>30.800000000000011</v>
@@ -11491,7 +11256,7 @@
         <v>39.800000000000011</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="24"/>
         <v>30.900000000000013</v>
@@ -11550,10 +11315,10 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.65" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62">
+    <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -11593,8 +11358,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
+    <row r="3" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -11632,8 +11397,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
+    <row r="4" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>

--- a/temp/iter - copia.xlsx
+++ b/temp/iter - copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B16AB2-0ADF-4265-8559-18A8724F6DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5E1A3B-24E2-4042-BA79-17CAEB000117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="39">
   <si>
     <t>Rep</t>
   </si>
@@ -454,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,6 +574,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,11 +625,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,24 +931,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="K2" s="44" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="K2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
     </row>
     <row r="3" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -981,42 +993,42 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="44" t="s">
+      <c r="T3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AB3" s="44" t="s">
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AB3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AM3" s="45" t="s">
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AM3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="47"/>
-      <c r="AW3" s="45" t="s">
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="50"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="51"/>
+      <c r="AW3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46"/>
-      <c r="BC3" s="47"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="50"/>
+      <c r="BC3" s="51"/>
     </row>
     <row r="4" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -1588,10 +1600,10 @@
         <f t="shared" ref="AS7:AS10" si="21">AR7-AQ7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AT7" s="52" t="s">
+      <c r="AT7" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="AU7" s="53"/>
+      <c r="AU7" s="57"/>
       <c r="AW7" s="34">
         <v>3</v>
       </c>
@@ -1617,10 +1629,10 @@
         <f t="shared" ref="BC7:BC10" si="23">BB7-BA7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="BD7" s="48" t="s">
+      <c r="BD7" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="BE7" s="49"/>
+      <c r="BE7" s="53"/>
     </row>
     <row r="8" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -1918,10 +1930,10 @@
         <f t="shared" si="21"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AT9" s="50" t="s">
+      <c r="AT9" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="AU9" s="51"/>
+      <c r="AU9" s="55"/>
       <c r="AW9" s="34">
         <v>5</v>
       </c>
@@ -1947,10 +1959,10 @@
         <f t="shared" si="23"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="BD9" s="50" t="s">
+      <c r="BD9" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="BE9" s="51"/>
+      <c r="BE9" s="55"/>
     </row>
     <row r="10" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T10" s="8">
@@ -2071,15 +2083,15 @@
       </c>
     </row>
     <row r="11" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="44" t="s">
+      <c r="K11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -2132,15 +2144,15 @@
       </c>
     </row>
     <row r="12" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -2260,24 +2272,24 @@
         <f>P13-O13</f>
         <v>1.8</v>
       </c>
-      <c r="AM13" s="45" t="s">
+      <c r="AM13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AN13" s="46"/>
-      <c r="AO13" s="46"/>
-      <c r="AP13" s="46"/>
-      <c r="AQ13" s="46"/>
-      <c r="AR13" s="46"/>
-      <c r="AS13" s="47"/>
-      <c r="AW13" s="45" t="s">
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="51"/>
+      <c r="AW13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AX13" s="46"/>
-      <c r="AY13" s="46"/>
-      <c r="AZ13" s="46"/>
-      <c r="BA13" s="46"/>
-      <c r="BB13" s="46"/>
-      <c r="BC13" s="47"/>
+      <c r="AX13" s="50"/>
+      <c r="AY13" s="50"/>
+      <c r="AZ13" s="50"/>
+      <c r="BA13" s="50"/>
+      <c r="BB13" s="50"/>
+      <c r="BC13" s="51"/>
     </row>
     <row r="14" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -2532,15 +2544,15 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="44" t="s">
+      <c r="T16" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
       <c r="AM16" s="34">
         <v>2</v>
       </c>
@@ -2668,15 +2680,15 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="44" t="s">
+      <c r="AD17" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="44"/>
-      <c r="AJ17" s="44"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="48"/>
       <c r="AM17" s="34">
         <v>3</v>
       </c>
@@ -2702,10 +2714,10 @@
         <f t="shared" ref="AS17:AS20" si="41">AR17-AQ17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="AT17" s="48" t="s">
+      <c r="AT17" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AU17" s="49"/>
+      <c r="AU17" s="53"/>
       <c r="AW17" s="34">
         <v>3</v>
       </c>
@@ -2731,10 +2743,10 @@
         <f t="shared" ref="BC17:BC20" si="43">BB17-BA17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="BD17" s="48" t="s">
+      <c r="BD17" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="BE17" s="49"/>
+      <c r="BE17" s="53"/>
     </row>
     <row r="18" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -3015,10 +3027,10 @@
         <f t="shared" si="41"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="AT19" s="50" t="s">
+      <c r="AT19" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="AU19" s="51"/>
+      <c r="AU19" s="55"/>
       <c r="AW19" s="34">
         <v>5</v>
       </c>
@@ -3044,10 +3056,10 @@
         <f t="shared" si="43"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="BD19" s="50" t="s">
+      <c r="BD19" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="BE19" s="51"/>
+      <c r="BE19" s="55"/>
     </row>
     <row r="20" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S20">
@@ -3174,15 +3186,15 @@
       </c>
     </row>
     <row r="21" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K21" s="44" t="s">
+      <c r="K21" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -3241,15 +3253,15 @@
       </c>
     </row>
     <row r="22" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -3425,24 +3437,24 @@
         <f t="shared" si="55"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="AM23" s="45" t="s">
+      <c r="AM23" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AN23" s="46"/>
-      <c r="AO23" s="46"/>
-      <c r="AP23" s="46"/>
-      <c r="AQ23" s="46"/>
-      <c r="AR23" s="46"/>
-      <c r="AS23" s="47"/>
-      <c r="AW23" s="45" t="s">
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="50"/>
+      <c r="AP23" s="50"/>
+      <c r="AQ23" s="50"/>
+      <c r="AR23" s="50"/>
+      <c r="AS23" s="51"/>
+      <c r="AW23" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AX23" s="46"/>
-      <c r="AY23" s="46"/>
-      <c r="AZ23" s="46"/>
-      <c r="BA23" s="46"/>
-      <c r="BB23" s="46"/>
-      <c r="BC23" s="47"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="50"/>
+      <c r="BB23" s="50"/>
+      <c r="BC23" s="51"/>
     </row>
     <row r="24" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -3956,10 +3968,10 @@
         <f t="shared" ref="AS27:AS30" si="73">AR27-AQ27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="AT27" s="48" t="s">
+      <c r="AT27" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AU27" s="49"/>
+      <c r="AU27" s="53"/>
       <c r="AW27" s="34">
         <v>3</v>
       </c>
@@ -3985,10 +3997,10 @@
         <f t="shared" ref="BC27:BC30" si="75">BB27-BA27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="BD27" s="48" t="s">
+      <c r="BD27" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="BE27" s="49"/>
+      <c r="BE27" s="53"/>
     </row>
     <row r="28" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -4180,15 +4192,15 @@
         <f t="shared" ref="Y29:Y38" si="81">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="44" t="s">
+      <c r="AD29" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="44"/>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="44"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="48"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="48"/>
+      <c r="AJ29" s="48"/>
       <c r="AM29" s="34">
         <v>5</v>
       </c>
@@ -4214,10 +4226,10 @@
         <f t="shared" si="73"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AT29" s="50" t="s">
+      <c r="AT29" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="AU29" s="51"/>
+      <c r="AU29" s="55"/>
       <c r="AW29" s="34">
         <v>5</v>
       </c>
@@ -4243,10 +4255,10 @@
         <f t="shared" si="75"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="BD29" s="50" t="s">
+      <c r="BD29" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="BE29" s="51"/>
+      <c r="BE29" s="55"/>
     </row>
     <row r="30" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T30" s="18" t="s">
@@ -4409,24 +4421,24 @@
       </c>
     </row>
     <row r="32" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="K32" s="44" t="s">
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="K32" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -4565,24 +4577,24 @@
         <f t="shared" ref="AJ33:AJ38" si="86">AI33-AH33</f>
         <v>9</v>
       </c>
-      <c r="AM33" s="45" t="s">
+      <c r="AM33" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AN33" s="46"/>
-      <c r="AO33" s="46"/>
-      <c r="AP33" s="46"/>
-      <c r="AQ33" s="46"/>
-      <c r="AR33" s="46"/>
-      <c r="AS33" s="47"/>
-      <c r="AW33" s="45" t="s">
+      <c r="AN33" s="50"/>
+      <c r="AO33" s="50"/>
+      <c r="AP33" s="50"/>
+      <c r="AQ33" s="50"/>
+      <c r="AR33" s="50"/>
+      <c r="AS33" s="51"/>
+      <c r="AW33" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AX33" s="46"/>
-      <c r="AY33" s="46"/>
-      <c r="AZ33" s="46"/>
-      <c r="BA33" s="46"/>
-      <c r="BB33" s="46"/>
-      <c r="BC33" s="47"/>
+      <c r="AX33" s="50"/>
+      <c r="AY33" s="50"/>
+      <c r="AZ33" s="50"/>
+      <c r="BA33" s="50"/>
+      <c r="BB33" s="50"/>
+      <c r="BC33" s="51"/>
     </row>
     <row r="34" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -5146,10 +5158,10 @@
         <f t="shared" ref="AS37:AS40" si="100">AR37-AQ37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="AT37" s="48" t="s">
+      <c r="AT37" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AU37" s="49"/>
+      <c r="AU37" s="53"/>
       <c r="AW37" s="34">
         <v>3</v>
       </c>
@@ -5175,10 +5187,10 @@
         <f t="shared" ref="BC37:BC40" si="102">BB37-BA37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="BD37" s="48" t="s">
+      <c r="BD37" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="BE37" s="49"/>
+      <c r="BE37" s="53"/>
     </row>
     <row r="38" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -5434,10 +5446,10 @@
         <f t="shared" si="100"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AT39" s="50" t="s">
+      <c r="AT39" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="AU39" s="51"/>
+      <c r="AU39" s="55"/>
       <c r="AW39" s="34">
         <v>5</v>
       </c>
@@ -5463,10 +5475,10 @@
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD39" s="50" t="s">
+      <c r="BD39" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="BE39" s="51"/>
+      <c r="BE39" s="55"/>
     </row>
     <row r="40" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="8">
@@ -5597,15 +5609,15 @@
       </c>
     </row>
     <row r="42" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -5654,24 +5666,24 @@
       <c r="H43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM43" s="45" t="s">
+      <c r="AM43" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="46"/>
-      <c r="AO43" s="46"/>
-      <c r="AP43" s="46"/>
-      <c r="AQ43" s="46"/>
-      <c r="AR43" s="46"/>
-      <c r="AS43" s="47"/>
-      <c r="AW43" s="45" t="s">
+      <c r="AN43" s="50"/>
+      <c r="AO43" s="50"/>
+      <c r="AP43" s="50"/>
+      <c r="AQ43" s="50"/>
+      <c r="AR43" s="50"/>
+      <c r="AS43" s="51"/>
+      <c r="AW43" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AX43" s="46"/>
-      <c r="AY43" s="46"/>
-      <c r="AZ43" s="46"/>
-      <c r="BA43" s="46"/>
-      <c r="BB43" s="46"/>
-      <c r="BC43" s="47"/>
+      <c r="AX43" s="50"/>
+      <c r="AY43" s="50"/>
+      <c r="AZ43" s="50"/>
+      <c r="BA43" s="50"/>
+      <c r="BB43" s="50"/>
+      <c r="BC43" s="51"/>
     </row>
     <row r="44" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
@@ -5926,15 +5938,15 @@
         <f t="shared" si="114"/>
         <v>126</v>
       </c>
-      <c r="T47" s="44" t="s">
+      <c r="T47" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="44"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="44"/>
-      <c r="X47" s="44"/>
-      <c r="Y47" s="44"/>
-      <c r="Z47" s="44"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="48"/>
+      <c r="W47" s="48"/>
+      <c r="X47" s="48"/>
+      <c r="Y47" s="48"/>
+      <c r="Z47" s="48"/>
       <c r="AM47" s="34">
         <v>3</v>
       </c>
@@ -5960,10 +5972,10 @@
         <f t="shared" ref="AS47:AS50" si="120">AR47-AQ47</f>
         <v>9</v>
       </c>
-      <c r="AT47" s="48" t="s">
+      <c r="AT47" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AU47" s="49"/>
+      <c r="AU47" s="53"/>
       <c r="AW47" s="34">
         <v>3</v>
       </c>
@@ -5989,10 +6001,10 @@
         <f t="shared" ref="BC47:BC50" si="122">BB47-BA47</f>
         <v>18</v>
       </c>
-      <c r="BD47" s="48" t="s">
+      <c r="BD47" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="BE47" s="49"/>
+      <c r="BE47" s="53"/>
     </row>
     <row r="48" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
@@ -6186,10 +6198,10 @@
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT49" s="50" t="s">
+      <c r="AT49" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="AU49" s="51"/>
+      <c r="AU49" s="55"/>
       <c r="AW49" s="34">
         <v>5</v>
       </c>
@@ -6215,10 +6227,10 @@
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD49" s="50" t="s">
+      <c r="BD49" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="BE49" s="51"/>
+      <c r="BE49" s="55"/>
     </row>
     <row r="50" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T50" s="8">
@@ -6341,15 +6353,15 @@
       </c>
     </row>
     <row r="52" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -6668,15 +6680,15 @@
       </c>
     </row>
     <row r="62" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
     </row>
     <row r="63" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
@@ -6942,70 +6954,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="55" t="s">
+      <c r="D3" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
     </row>
     <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -7367,36 +7379,36 @@
     </row>
     <row r="25" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
     </row>
     <row r="27" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7423,45 +7435,54 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:U50"/>
+  <dimension ref="B1:AF56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" activeCellId="1" sqref="F20 F10"/>
+      <selection activeCell="F31" sqref="F31:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="58" t="s">
+    <row r="1" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="58"/>
+      <c r="J1" s="63"/>
       <c r="K1">
         <v>113.4</v>
       </c>
     </row>
-    <row r="2" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+    <row r="2" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="M3" s="45" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
+      <c r="M3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="47"/>
-    </row>
-    <row r="4" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="51"/>
+      <c r="W3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="51"/>
+    </row>
+    <row r="4" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
@@ -7504,8 +7525,29 @@
       <c r="S4" s="33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34">
         <v>1</v>
       </c>
@@ -7556,8 +7598,33 @@
         <f>R5-Q5</f>
         <v>10.799999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W5" s="34">
+        <v>1</v>
+      </c>
+      <c r="X5" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Z5" s="8">
+        <f>X5*Y5</f>
+        <v>1.8</v>
+      </c>
+      <c r="AA5" s="10">
+        <f>Z5</f>
+        <v>1.8</v>
+      </c>
+      <c r="AB5" s="8">
+        <f>Y5*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="AC5" s="35">
+        <f>AB5-AA5</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="34">
         <v>2</v>
       </c>
@@ -7608,8 +7675,33 @@
         <f>R6-Q6</f>
         <v>10.799999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="34">
+        <v>2</v>
+      </c>
+      <c r="X6" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="Z6" s="8">
+        <f t="shared" ref="Z6:Z10" si="4">X6*Y6</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="AA6" s="10">
+        <f>Z6+AA5</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="AB6" s="8">
+        <f t="shared" ref="AB6:AB10" si="5">Y6*36</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AC6" s="36">
+        <f>AB6-AA6</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34">
         <v>3</v>
       </c>
@@ -7624,7 +7716,7 @@
         <v>7.2</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" ref="F7:F10" si="4">E7+F6</f>
+        <f t="shared" ref="F7:F12" si="6">E7+F6</f>
         <v>12.600000000000001</v>
       </c>
       <c r="G7" s="8">
@@ -7632,13 +7724,13 @@
         <v>14.4</v>
       </c>
       <c r="H7" s="35">
-        <f t="shared" ref="H7:H10" si="5">G7-F7</f>
+        <f t="shared" ref="H7:H10" si="7">G7-F7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="53"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="42"/>
       <c r="M7" s="34">
         <v>3</v>
@@ -7654,7 +7746,7 @@
         <v>43.199999999999996</v>
       </c>
       <c r="Q7" s="10">
-        <f t="shared" ref="Q7:Q10" si="6">P7+Q6</f>
+        <f t="shared" ref="Q7:Q10" si="8">P7+Q6</f>
         <v>75.599999999999994</v>
       </c>
       <c r="R7" s="8">
@@ -7662,15 +7754,45 @@
         <v>86.399999999999991</v>
       </c>
       <c r="S7" s="35">
-        <f t="shared" ref="S7:S10" si="7">R7-Q7</f>
+        <f t="shared" ref="S7:S10" si="9">R7-Q7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="T7" s="48" t="s">
+      <c r="T7" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="49"/>
-    </row>
-    <row r="8" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="53"/>
+      <c r="W7" s="34">
+        <v>3</v>
+      </c>
+      <c r="X7" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="Z7" s="8">
+        <f t="shared" si="4"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AA7" s="10">
+        <f t="shared" ref="AA7:AA10" si="10">Z7+AA6</f>
+        <v>18</v>
+      </c>
+      <c r="AB7" s="8">
+        <f t="shared" si="5"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="AC7" s="35">
+        <f t="shared" ref="AC7:AC10" si="11">AB7-AA7</f>
+        <v>3.5999999999999979</v>
+      </c>
+      <c r="AD7" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="42"/>
+    </row>
+    <row r="8" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34">
         <v>4</v>
       </c>
@@ -7685,7 +7807,7 @@
         <v>14.4</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="G8" s="8">
@@ -7693,7 +7815,7 @@
         <v>28.8</v>
       </c>
       <c r="H8" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="I8" s="30">
@@ -7722,7 +7844,7 @@
         <v>86.399999999999991</v>
       </c>
       <c r="Q8" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>162</v>
       </c>
       <c r="R8" s="8">
@@ -7730,7 +7852,7 @@
         <v>172.79999999999998</v>
       </c>
       <c r="S8" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.799999999999983</v>
       </c>
       <c r="T8" s="30">
@@ -7741,8 +7863,45 @@
         <f>T8/S10</f>
         <v>62.999999999999588</v>
       </c>
-    </row>
-    <row r="9" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="34">
+        <v>4</v>
+      </c>
+      <c r="X8" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="Z8" s="8">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="AA8" s="10">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="AB8" s="8">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="AC8" s="36">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AD8" s="30">
+        <f>AA10</f>
+        <v>207</v>
+      </c>
+      <c r="AE8" s="45">
+        <f>AD8/AC10</f>
+        <v>23</v>
+      </c>
+      <c r="AF8" s="43">
+        <f>AF1+AD8</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="34">
         <v>5</v>
       </c>
@@ -7757,7 +7916,7 @@
         <v>28.8</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>55.8</v>
       </c>
       <c r="G9" s="8">
@@ -7765,13 +7924,13 @@
         <v>57.6</v>
       </c>
       <c r="H9" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="51"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="42"/>
       <c r="M9" s="34">
         <v>5</v>
@@ -7787,7 +7946,7 @@
         <v>172.79999999999998</v>
       </c>
       <c r="Q9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>334.79999999999995</v>
       </c>
       <c r="R9" s="8">
@@ -7795,15 +7954,45 @@
         <v>345.59999999999997</v>
       </c>
       <c r="S9" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="T9" s="50" t="s">
+      <c r="T9" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="51"/>
-    </row>
-    <row r="10" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U9" s="55"/>
+      <c r="W9" s="34">
+        <v>5</v>
+      </c>
+      <c r="X9" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="8">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="AA9" s="10">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="AB9" s="8">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="AC9" s="35">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AD9" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="42"/>
+    </row>
+    <row r="10" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="37">
         <v>6</v>
       </c>
@@ -7818,7 +8007,7 @@
         <v>57.6</v>
       </c>
       <c r="F10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>113.4</v>
       </c>
       <c r="G10" s="38">
@@ -7826,7 +8015,7 @@
         <v>115.2</v>
       </c>
       <c r="H10" s="41">
-        <f t="shared" si="5"/>
+        <f>G10-F10</f>
         <v>1.7999999999999972</v>
       </c>
       <c r="I10" s="31">
@@ -7855,7 +8044,7 @@
         <v>345.59999999999997</v>
       </c>
       <c r="Q10" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>680.39999999999986</v>
       </c>
       <c r="R10" s="38">
@@ -7863,7 +8052,7 @@
         <v>691.19999999999993</v>
       </c>
       <c r="S10" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.800000000000068</v>
       </c>
       <c r="T10" s="31">
@@ -7874,29 +8063,128 @@
         <f>T10/S10</f>
         <v>10.499999999999922</v>
       </c>
-    </row>
-    <row r="12" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
+      <c r="W10" s="37">
+        <v>6</v>
+      </c>
+      <c r="X10" s="38">
+        <v>18</v>
+      </c>
+      <c r="Y10" s="39">
+        <v>6</v>
+      </c>
+      <c r="Z10" s="38">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="AA10" s="40">
+        <f t="shared" si="10"/>
+        <v>207</v>
+      </c>
+      <c r="AB10" s="38">
+        <f t="shared" si="5"/>
+        <v>216</v>
+      </c>
+      <c r="AC10" s="41">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AD10" s="31">
+        <f>AA10</f>
+        <v>207</v>
+      </c>
+      <c r="AE10" s="29">
+        <f>AD10/AC10</f>
+        <v>23</v>
+      </c>
+      <c r="AF10" s="43">
+        <f>AD10+AF8</f>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="34">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" ref="E11:E12" si="12">C11*D11</f>
+        <v>115.2</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="6"/>
+        <v>228.60000000000002</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" ref="G11:G12" si="13">D11*36</f>
+        <v>230.4</v>
+      </c>
+      <c r="H11" s="35">
+        <f t="shared" ref="H11:H12" si="14">G11-F11</f>
+        <v>1.7999999999999829</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="37">
         <v>8</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
-      <c r="M13" s="45" t="s">
+      <c r="C12" s="38">
+        <v>18</v>
+      </c>
+      <c r="D12" s="39">
+        <v>12.8</v>
+      </c>
+      <c r="E12" s="38">
+        <f t="shared" si="12"/>
+        <v>230.4</v>
+      </c>
+      <c r="F12" s="40">
+        <f t="shared" si="6"/>
+        <v>459</v>
+      </c>
+      <c r="G12" s="38">
+        <f t="shared" si="13"/>
+        <v>460.8</v>
+      </c>
+      <c r="H12" s="41">
+        <f t="shared" si="14"/>
+        <v>1.8000000000000114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
-    </row>
-    <row r="14" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
+      <c r="M13" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
+      <c r="W13" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="51"/>
+    </row>
+    <row r="14" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
         <v>0</v>
       </c>
@@ -7939,8 +8227,29 @@
       <c r="S14" s="33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W14" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="34">
         <v>1</v>
       </c>
@@ -7991,8 +8300,33 @@
         <f>R15-Q15</f>
         <v>12.6</v>
       </c>
-    </row>
-    <row r="16" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W15" s="34">
+        <v>1</v>
+      </c>
+      <c r="X15" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Z15" s="8">
+        <f>X15*Y15</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA15" s="10">
+        <f>Z15</f>
+        <v>3.6</v>
+      </c>
+      <c r="AB15" s="8">
+        <f>Y15*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="AC15" s="35">
+        <f>AB15-AA15</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="34">
         <v>2</v>
       </c>
@@ -8003,7 +8337,7 @@
         <v>0.4</v>
       </c>
       <c r="E16" s="8">
-        <f t="shared" ref="E16:E20" si="8">C16*D16</f>
+        <f t="shared" ref="E16:E20" si="15">C16*D16</f>
         <v>7.2</v>
       </c>
       <c r="F16" s="10">
@@ -8011,7 +8345,7 @@
         <v>10.8</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" ref="G16:G20" si="9">D16*36</f>
+        <f t="shared" ref="G16:G20" si="16">D16*36</f>
         <v>14.4</v>
       </c>
       <c r="H16" s="36">
@@ -8028,7 +8362,7 @@
         <v>1.4</v>
       </c>
       <c r="P16" s="8">
-        <f t="shared" ref="P16:P20" si="10">N16*O16</f>
+        <f t="shared" ref="P16:P20" si="17">N16*O16</f>
         <v>25.2</v>
       </c>
       <c r="Q16" s="10">
@@ -8036,15 +8370,40 @@
         <v>37.799999999999997</v>
       </c>
       <c r="R16" s="8">
-        <f t="shared" ref="R16:R20" si="11">O16*36</f>
+        <f t="shared" ref="R16:R20" si="18">O16*36</f>
         <v>50.4</v>
       </c>
       <c r="S16" s="36">
         <f>R16-Q16</f>
         <v>12.600000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W16" s="34">
+        <v>2</v>
+      </c>
+      <c r="X16" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="Z16" s="8">
+        <f t="shared" ref="Z16:Z20" si="19">X16*Y16</f>
+        <v>7.2</v>
+      </c>
+      <c r="AA16" s="10">
+        <f>Z16+AA15</f>
+        <v>10.8</v>
+      </c>
+      <c r="AB16" s="8">
+        <f t="shared" ref="AB16:AB20" si="20">Y16*36</f>
+        <v>14.4</v>
+      </c>
+      <c r="AC16" s="36">
+        <f>AB16-AA16</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="34">
         <v>3</v>
       </c>
@@ -8055,25 +8414,25 @@
         <v>0.8</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>14.4</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" ref="F17:F20" si="12">E17+F16</f>
+        <f t="shared" ref="F17:F20" si="21">E17+F16</f>
         <v>25.200000000000003</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>28.8</v>
       </c>
       <c r="H17" s="35">
-        <f t="shared" ref="H17:H20" si="13">G17-F17</f>
+        <f t="shared" ref="H17:H20" si="22">G17-F17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="49"/>
+      <c r="J17" s="53"/>
       <c r="K17" s="42"/>
       <c r="M17" s="34">
         <v>3</v>
@@ -8085,27 +8444,57 @@
         <v>2.8</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>50.4</v>
       </c>
       <c r="Q17" s="10">
-        <f t="shared" ref="Q17:Q20" si="14">P17+Q16</f>
+        <f t="shared" ref="Q17:Q20" si="23">P17+Q16</f>
         <v>88.199999999999989</v>
       </c>
       <c r="R17" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>100.8</v>
       </c>
       <c r="S17" s="35">
-        <f t="shared" ref="S17:S20" si="15">R17-Q17</f>
+        <f t="shared" ref="S17:S20" si="24">R17-Q17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="T17" s="48" t="s">
+      <c r="T17" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="49"/>
-    </row>
-    <row r="18" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="53"/>
+      <c r="W17" s="34">
+        <v>3</v>
+      </c>
+      <c r="X17" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="8">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="AA17" s="10">
+        <f t="shared" ref="AA17:AA20" si="25">Z17+AA16</f>
+        <v>28.8</v>
+      </c>
+      <c r="AB17" s="8">
+        <f t="shared" si="20"/>
+        <v>36</v>
+      </c>
+      <c r="AC17" s="35">
+        <f t="shared" ref="AC17:AC20" si="26">AB17-AA17</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="AD17" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="42"/>
+    </row>
+    <row r="18" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="34">
         <v>4</v>
       </c>
@@ -8116,19 +8505,19 @@
         <v>1.6</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>28.8</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>54</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>57.6</v>
       </c>
       <c r="H18" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3.6000000000000014</v>
       </c>
       <c r="I18" s="30">
@@ -8153,19 +8542,19 @@
         <v>5.6</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>100.8</v>
       </c>
       <c r="Q18" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>189</v>
       </c>
       <c r="R18" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>201.6</v>
       </c>
       <c r="S18" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>12.599999999999994</v>
       </c>
       <c r="T18" s="30">
@@ -8176,8 +8565,45 @@
         <f>T18/S20</f>
         <v>62.999999999999879</v>
       </c>
-    </row>
-    <row r="19" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W18" s="34">
+        <v>4</v>
+      </c>
+      <c r="X18" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="8">
+        <f t="shared" si="19"/>
+        <v>36</v>
+      </c>
+      <c r="AA18" s="10">
+        <f t="shared" si="25"/>
+        <v>64.8</v>
+      </c>
+      <c r="AB18" s="8">
+        <f t="shared" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="AC18" s="36">
+        <f t="shared" si="26"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="AD18" s="30">
+        <f>AA20</f>
+        <v>280.8</v>
+      </c>
+      <c r="AE18" s="45">
+        <f>AD18/AC20</f>
+        <v>39.000000000000064</v>
+      </c>
+      <c r="AF18" s="43">
+        <f>AF11+AD18</f>
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="34">
         <v>5</v>
       </c>
@@ -8188,25 +8614,25 @@
         <v>3.2</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>57.6</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>111.6</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>115.2</v>
       </c>
       <c r="H19" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="51"/>
+      <c r="J19" s="55"/>
       <c r="K19" s="42"/>
       <c r="M19" s="34">
         <v>5</v>
@@ -8218,27 +8644,57 @@
         <v>11.2</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>201.6</v>
       </c>
       <c r="Q19" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>390.6</v>
       </c>
       <c r="R19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>403.2</v>
       </c>
       <c r="S19" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="T19" s="50" t="s">
+      <c r="T19" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="U19" s="51"/>
-    </row>
-    <row r="20" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="55"/>
+      <c r="W19" s="34">
+        <v>5</v>
+      </c>
+      <c r="X19" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="8">
+        <f t="shared" si="19"/>
+        <v>72</v>
+      </c>
+      <c r="AA19" s="10">
+        <f t="shared" si="25"/>
+        <v>136.80000000000001</v>
+      </c>
+      <c r="AB19" s="8">
+        <f t="shared" si="20"/>
+        <v>144</v>
+      </c>
+      <c r="AC19" s="35">
+        <f t="shared" si="26"/>
+        <v>7.1999999999999886</v>
+      </c>
+      <c r="AD19" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="42"/>
+    </row>
+    <row r="20" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="37">
         <v>6</v>
       </c>
@@ -8249,19 +8705,19 @@
         <v>6.4</v>
       </c>
       <c r="E20" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>115.2</v>
       </c>
       <c r="F20" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>226.8</v>
       </c>
       <c r="G20" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>230.4</v>
       </c>
       <c r="H20" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3.5999999999999943</v>
       </c>
       <c r="I20" s="31">
@@ -8286,19 +8742,19 @@
         <v>22.4</v>
       </c>
       <c r="P20" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>403.2</v>
       </c>
       <c r="Q20" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>793.8</v>
       </c>
       <c r="R20" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>806.4</v>
       </c>
       <c r="S20" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>12.600000000000023</v>
       </c>
       <c r="T20" s="31">
@@ -8309,29 +8765,93 @@
         <f>T20/S20</f>
         <v>8.9999999999999911</v>
       </c>
-    </row>
-    <row r="22" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="45" t="s">
+      <c r="W20" s="37">
+        <v>6</v>
+      </c>
+      <c r="X20" s="38">
+        <v>18</v>
+      </c>
+      <c r="Y20" s="39">
         <v>8</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="M23" s="45" t="s">
+      <c r="Z20" s="38">
+        <f t="shared" si="19"/>
+        <v>144</v>
+      </c>
+      <c r="AA20" s="40">
+        <f t="shared" si="25"/>
+        <v>280.8</v>
+      </c>
+      <c r="AB20" s="38">
+        <f t="shared" si="20"/>
+        <v>288</v>
+      </c>
+      <c r="AC20" s="41">
+        <f t="shared" si="26"/>
+        <v>7.1999999999999886</v>
+      </c>
+      <c r="AD20" s="31">
+        <f>AA20</f>
+        <v>280.8</v>
+      </c>
+      <c r="AE20" s="29">
+        <f>AD20/AC20</f>
+        <v>39.000000000000064</v>
+      </c>
+      <c r="AF20" s="43">
+        <f>AD20+AF18</f>
+        <v>561.6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="34">
+        <v>7</v>
+      </c>
+      <c r="C21" s="8">
+        <v>18</v>
+      </c>
+      <c r="D21" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" ref="E21" si="27">C21*D21</f>
+        <v>230.4</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" ref="F21" si="28">E21+F20</f>
+        <v>457.20000000000005</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" ref="G21" si="29">D21*36</f>
+        <v>460.8</v>
+      </c>
+      <c r="H21" s="35">
+        <f t="shared" ref="H21" si="30">G21-F21</f>
+        <v>3.5999999999999659</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="47"/>
-    </row>
-    <row r="24" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="M23" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="51"/>
+    </row>
+    <row r="24" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32" t="s">
         <v>0</v>
       </c>
@@ -8375,7 +8895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="34">
         <v>1</v>
       </c>
@@ -8426,8 +8946,19 @@
         <f>R25-Q25</f>
         <v>14.4</v>
       </c>
-    </row>
-    <row r="26" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y25" s="9"/>
+      <c r="Z25">
+        <v>33</v>
+      </c>
+      <c r="AA25">
+        <v>1.8</v>
+      </c>
+      <c r="AB25">
+        <f>Z25*AA25</f>
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="34">
         <v>2</v>
       </c>
@@ -8438,7 +8969,7 @@
         <v>0.6</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" ref="E26:E30" si="16">C26*D26</f>
+        <f t="shared" ref="E26:E30" si="31">C26*D26</f>
         <v>10.799999999999999</v>
       </c>
       <c r="F26" s="10">
@@ -8446,7 +8977,7 @@
         <v>16.2</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" ref="G26:G30" si="17">D26*36</f>
+        <f t="shared" ref="G26:G30" si="32">D26*36</f>
         <v>21.599999999999998</v>
       </c>
       <c r="H26" s="36">
@@ -8463,7 +8994,7 @@
         <v>1.6</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" ref="P26:P30" si="18">N26*O26</f>
+        <f t="shared" ref="P26:P30" si="33">N26*O26</f>
         <v>28.8</v>
       </c>
       <c r="Q26" s="10">
@@ -8471,15 +9002,26 @@
         <v>43.2</v>
       </c>
       <c r="R26" s="8">
-        <f t="shared" ref="R26:R30" si="19">O26*36</f>
+        <f t="shared" ref="R26:R30" si="34">O26*36</f>
         <v>57.6</v>
       </c>
       <c r="S26" s="36">
         <f>R26-Q26</f>
         <v>14.399999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y26" s="9"/>
+      <c r="Z26">
+        <v>14</v>
+      </c>
+      <c r="AA26">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" ref="AB26:AB30" si="35">Z26*AA26</f>
+        <v>50.399999999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="34">
         <v>3</v>
       </c>
@@ -8490,25 +9032,25 @@
         <v>1.2</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>21.599999999999998</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" ref="F27:F30" si="20">E27+F26</f>
+        <f t="shared" ref="F27:F30" si="36">E27+F26</f>
         <v>37.799999999999997</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>43.199999999999996</v>
       </c>
       <c r="H27" s="35">
-        <f t="shared" ref="H27:H30" si="21">G27-F27</f>
+        <f t="shared" ref="H27:H30" si="37">G27-F27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="53"/>
       <c r="K27" s="42"/>
       <c r="M27" s="34">
         <v>3</v>
@@ -8520,27 +9062,38 @@
         <v>3.2</v>
       </c>
       <c r="P27" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>57.6</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" ref="Q27:Q30" si="22">P27+Q26</f>
+        <f t="shared" ref="Q27:Q30" si="38">P27+Q26</f>
         <v>100.80000000000001</v>
       </c>
       <c r="R27" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>115.2</v>
       </c>
       <c r="S27" s="35">
-        <f t="shared" ref="S27:S30" si="23">R27-Q27</f>
+        <f t="shared" ref="S27:S30" si="39">R27-Q27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="T27" s="48" t="s">
+      <c r="T27" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="U27" s="49"/>
-    </row>
-    <row r="28" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U27" s="53"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27">
+        <v>10</v>
+      </c>
+      <c r="AA27">
+        <v>3.5999999999999979</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="35"/>
+        <v>35.999999999999979</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="34">
         <v>4</v>
       </c>
@@ -8551,19 +9104,19 @@
         <v>2.4</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>43.199999999999996</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>81</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>86.399999999999991</v>
       </c>
       <c r="H28" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v>5.3999999999999915</v>
       </c>
       <c r="I28" s="30">
@@ -8588,19 +9141,19 @@
         <v>6.4</v>
       </c>
       <c r="P28" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>115.2</v>
       </c>
       <c r="Q28" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>216</v>
       </c>
       <c r="R28" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>230.4</v>
       </c>
       <c r="S28" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>14.400000000000006</v>
       </c>
       <c r="T28" s="30">
@@ -8611,8 +9164,19 @@
         <f>T28/S30</f>
         <v>63.000000000000099</v>
       </c>
-    </row>
-    <row r="29" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y28" s="9"/>
+      <c r="Z28">
+        <v>7</v>
+      </c>
+      <c r="AA28">
+        <v>9</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="35"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="34">
         <v>5</v>
       </c>
@@ -8623,25 +9187,25 @@
         <v>4.8</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>86.399999999999991</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>167.39999999999998</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>172.79999999999998</v>
       </c>
       <c r="H29" s="35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="I29" s="50" t="s">
+      <c r="I29" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="51"/>
+      <c r="J29" s="55"/>
       <c r="K29" s="42"/>
       <c r="M29" s="34">
         <v>5</v>
@@ -8653,27 +9217,38 @@
         <v>12.8</v>
       </c>
       <c r="P29" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>230.4</v>
       </c>
       <c r="Q29" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>446.4</v>
       </c>
       <c r="R29" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>460.8</v>
       </c>
       <c r="S29" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="T29" s="50" t="s">
+      <c r="T29" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="51"/>
-    </row>
-    <row r="30" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U29" s="55"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29">
+        <v>3</v>
+      </c>
+      <c r="AA29">
+        <v>9</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="35"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
         <v>6</v>
       </c>
@@ -8684,19 +9259,19 @@
         <v>9.6</v>
       </c>
       <c r="E30" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>172.79999999999998</v>
       </c>
       <c r="F30" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>340.19999999999993</v>
       </c>
       <c r="G30" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>345.59999999999997</v>
       </c>
       <c r="H30" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v>5.4000000000000341</v>
       </c>
       <c r="I30" s="31">
@@ -8721,19 +9296,19 @@
         <v>25.6</v>
       </c>
       <c r="P30" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>460.8</v>
       </c>
       <c r="Q30" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>907.2</v>
       </c>
       <c r="R30" s="38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>921.6</v>
       </c>
       <c r="S30" s="41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>14.399999999999977</v>
       </c>
       <c r="T30" s="31">
@@ -8744,29 +9319,82 @@
         <f>T30/S30</f>
         <v>7.8750000000000187</v>
       </c>
-    </row>
-    <row r="32" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="45" t="s">
+      <c r="Y30" s="39"/>
+      <c r="Z30">
+        <v>3</v>
+      </c>
+      <c r="AA30">
+        <v>9</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="35"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="34">
+        <v>7</v>
+      </c>
+      <c r="C31" s="8">
+        <v>18</v>
+      </c>
+      <c r="D31" s="9">
+        <v>19.2</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" ref="E31" si="40">C31*D31</f>
+        <v>345.59999999999997</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" ref="F31" si="41">E31+F30</f>
+        <v>685.8</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" ref="G31" si="42">D31*36</f>
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H31" s="35">
+        <f t="shared" ref="H31" si="43">G31-F31</f>
+        <v>5.3999999999999773</v>
+      </c>
+      <c r="AB31">
+        <f>SUM(AB25:AB30)</f>
+        <v>262.79999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="47"/>
-      <c r="M33" s="45" t="s">
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
+      <c r="M33" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="47"/>
-    </row>
-    <row r="34" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="51"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33">
+        <v>33</v>
+      </c>
+      <c r="AA33">
+        <v>3.6</v>
+      </c>
+      <c r="AB33">
+        <f>Z33*AA33</f>
+        <v>118.8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="32" t="s">
         <v>0</v>
       </c>
@@ -8809,8 +9437,19 @@
       <c r="S34" s="33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y34" s="9"/>
+      <c r="Z34">
+        <v>14</v>
+      </c>
+      <c r="AA34">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" ref="AB34:AB38" si="44">Z34*AA34</f>
+        <v>50.399999999999991</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="34">
         <v>1</v>
       </c>
@@ -8861,8 +9500,19 @@
         <f>R35-Q35</f>
         <v>16.2</v>
       </c>
-    </row>
-    <row r="36" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y35" s="9"/>
+      <c r="Z35">
+        <v>10</v>
+      </c>
+      <c r="AA35">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="44"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="34">
         <v>2</v>
       </c>
@@ -8873,7 +9523,7 @@
         <v>0.8</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" ref="E36:E40" si="24">C36*D36</f>
+        <f t="shared" ref="E36:E40" si="45">C36*D36</f>
         <v>14.4</v>
       </c>
       <c r="F36" s="10">
@@ -8881,7 +9531,7 @@
         <v>21.6</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" ref="G36:G40" si="25">D36*36</f>
+        <f t="shared" ref="G36:G40" si="46">D36*36</f>
         <v>28.8</v>
       </c>
       <c r="H36" s="36">
@@ -8898,7 +9548,7 @@
         <v>1.8</v>
       </c>
       <c r="P36" s="8">
-        <f t="shared" ref="P36:P40" si="26">N36*O36</f>
+        <f t="shared" ref="P36:P40" si="47">N36*O36</f>
         <v>32.4</v>
       </c>
       <c r="Q36" s="10">
@@ -8906,15 +9556,26 @@
         <v>48.599999999999994</v>
       </c>
       <c r="R36" s="8">
-        <f t="shared" ref="R36:R40" si="27">O36*36</f>
+        <f t="shared" ref="R36:R40" si="48">O36*36</f>
         <v>64.8</v>
       </c>
       <c r="S36" s="36">
         <f>R36-Q36</f>
         <v>16.200000000000003</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y36" s="9"/>
+      <c r="Z36">
+        <v>7</v>
+      </c>
+      <c r="AA36">
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="44"/>
+        <v>50.40000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="34">
         <v>3</v>
       </c>
@@ -8925,25 +9586,25 @@
         <v>1.6</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="45"/>
         <v>28.8</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" ref="F37:F40" si="28">E37+F36</f>
+        <f t="shared" ref="F37:F40" si="49">E37+F36</f>
         <v>50.400000000000006</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="46"/>
         <v>57.6</v>
       </c>
       <c r="H37" s="35">
-        <f t="shared" ref="H37:H40" si="29">G37-F37</f>
+        <f t="shared" ref="H37:H40" si="50">G37-F37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="I37" s="48" t="s">
+      <c r="I37" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="49"/>
+      <c r="J37" s="53"/>
       <c r="K37" s="42"/>
       <c r="M37" s="34">
         <v>3</v>
@@ -8955,27 +9616,38 @@
         <v>3.6</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="47"/>
         <v>64.8</v>
       </c>
       <c r="Q37" s="10">
-        <f t="shared" ref="Q37:Q40" si="30">P37+Q36</f>
+        <f t="shared" ref="Q37:Q40" si="51">P37+Q36</f>
         <v>113.39999999999999</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="48"/>
         <v>129.6</v>
       </c>
       <c r="S37" s="35">
-        <f t="shared" ref="S37:S40" si="31">R37-Q37</f>
+        <f t="shared" ref="S37:S40" si="52">R37-Q37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="T37" s="48" t="s">
+      <c r="T37" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="U37" s="49"/>
-    </row>
-    <row r="38" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U37" s="53"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37">
+        <v>3</v>
+      </c>
+      <c r="AA37">
+        <v>7.1999999999999886</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="44"/>
+        <v>21.599999999999966</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="34">
         <v>4</v>
       </c>
@@ -8986,19 +9658,19 @@
         <v>3.2</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="45"/>
         <v>57.6</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="49"/>
         <v>108</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="46"/>
         <v>115.2</v>
       </c>
       <c r="H38" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="50"/>
         <v>7.2000000000000028</v>
       </c>
       <c r="I38" s="30">
@@ -9023,19 +9695,19 @@
         <v>7.2</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="47"/>
         <v>129.6</v>
       </c>
       <c r="Q38" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="51"/>
         <v>243</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="48"/>
         <v>259.2</v>
       </c>
       <c r="S38" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="52"/>
         <v>16.199999999999989</v>
       </c>
       <c r="T38" s="30">
@@ -9046,8 +9718,19 @@
         <f>T38/S40</f>
         <v>62.999999999999815</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y38" s="39"/>
+      <c r="Z38">
+        <v>3</v>
+      </c>
+      <c r="AA38">
+        <v>7.1999999999999886</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="44"/>
+        <v>21.599999999999966</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="34">
         <v>5</v>
       </c>
@@ -9058,25 +9741,25 @@
         <v>6.4</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="45"/>
         <v>115.2</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="49"/>
         <v>223.2</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="46"/>
         <v>230.4</v>
       </c>
       <c r="H39" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="50"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="I39" s="50" t="s">
+      <c r="I39" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="51"/>
+      <c r="J39" s="55"/>
       <c r="K39" s="42"/>
       <c r="M39" s="34">
         <v>5</v>
@@ -9088,27 +9771,31 @@
         <v>14.4</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="47"/>
         <v>259.2</v>
       </c>
       <c r="Q39" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="51"/>
         <v>502.2</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="48"/>
         <v>518.4</v>
       </c>
       <c r="S39" s="35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="52"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="T39" s="50" t="s">
+      <c r="T39" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="U39" s="51"/>
-    </row>
-    <row r="40" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U39" s="55"/>
+      <c r="AB39">
+        <f>SUM(AB33:AB38)</f>
+        <v>334.79999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="37">
         <v>6</v>
       </c>
@@ -9119,19 +9806,19 @@
         <v>12.8</v>
       </c>
       <c r="E40" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="45"/>
         <v>230.4</v>
       </c>
       <c r="F40" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="49"/>
         <v>453.6</v>
       </c>
       <c r="G40" s="38">
-        <f t="shared" si="25"/>
+        <f t="shared" si="46"/>
         <v>460.8</v>
       </c>
       <c r="H40" s="41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="50"/>
         <v>7.1999999999999886</v>
       </c>
       <c r="I40" s="31">
@@ -9156,19 +9843,19 @@
         <v>28.8</v>
       </c>
       <c r="P40" s="38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="47"/>
         <v>518.4</v>
       </c>
       <c r="Q40" s="40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="51"/>
         <v>1020.5999999999999</v>
       </c>
       <c r="R40" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="48"/>
         <v>1036.8</v>
       </c>
       <c r="S40" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="52"/>
         <v>16.200000000000045</v>
       </c>
       <c r="T40" s="31">
@@ -9180,28 +9867,86 @@
         <v>6.9999999999999716</v>
       </c>
     </row>
-    <row r="42" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="45" t="s">
+    <row r="41" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W41" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="47"/>
-      <c r="M43" s="45" t="s">
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="51"/>
+    </row>
+    <row r="42" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W42" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="X42" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z42" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA42" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB42" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="47"/>
-    </row>
-    <row r="44" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="51"/>
+      <c r="M43" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="51"/>
+      <c r="W43" s="34">
+        <v>1</v>
+      </c>
+      <c r="X43" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y43" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="Z43" s="8">
+        <f>X43*Y43</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="AA43" s="10">
+        <f>Z43</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="AB43" s="8">
+        <f>Y43*36</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AC43" s="35">
+        <f>AB43-AA43</f>
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="32" t="s">
         <v>0</v>
       </c>
@@ -9244,8 +9989,33 @@
       <c r="S44" s="33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W44" s="34">
+        <v>2</v>
+      </c>
+      <c r="X44" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y44" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="Z44" s="8">
+        <f t="shared" ref="Z44:Z48" si="53">X44*Y44</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AA44" s="10">
+        <f>Z44+AA43</f>
+        <v>16.2</v>
+      </c>
+      <c r="AB44" s="8">
+        <f t="shared" ref="AB44:AB48" si="54">Y44*36</f>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="AC44" s="36">
+        <f>AB44-AA44</f>
+        <v>5.3999999999999986</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="34">
         <v>1</v>
       </c>
@@ -9296,8 +10066,38 @@
         <f>R45-Q45</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W45" s="34">
+        <v>3</v>
+      </c>
+      <c r="X45" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y45" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="Z45" s="8">
+        <f t="shared" si="53"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="AA45" s="10">
+        <f t="shared" ref="AA45:AA48" si="55">Z45+AA44</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AB45" s="8">
+        <f t="shared" si="54"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="AC45" s="35">
+        <f t="shared" ref="AC45:AC48" si="56">AB45-AA45</f>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="AD45" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE45" s="57"/>
+      <c r="AF45" s="42"/>
+    </row>
+    <row r="46" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="34">
         <v>2</v>
       </c>
@@ -9308,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" ref="E46:E50" si="32">C46*D46</f>
+        <f t="shared" ref="E46:E50" si="57">C46*D46</f>
         <v>18</v>
       </c>
       <c r="F46" s="10">
@@ -9316,7 +10116,7 @@
         <v>27</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" ref="G46:G50" si="33">D46*36</f>
+        <f t="shared" ref="G46:G50" si="58">D46*36</f>
         <v>36</v>
       </c>
       <c r="H46" s="36">
@@ -9333,7 +10133,7 @@
         <v>2</v>
       </c>
       <c r="P46" s="8">
-        <f t="shared" ref="P46:P50" si="34">N46*O46</f>
+        <f t="shared" ref="P46:P50" si="59">N46*O46</f>
         <v>36</v>
       </c>
       <c r="Q46" s="10">
@@ -9341,15 +10141,52 @@
         <v>54</v>
       </c>
       <c r="R46" s="8">
-        <f t="shared" ref="R46:R50" si="35">O46*36</f>
+        <f t="shared" ref="R46:R50" si="60">O46*36</f>
         <v>72</v>
       </c>
       <c r="S46" s="36">
         <f>R46-Q46</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W46" s="34">
+        <v>4</v>
+      </c>
+      <c r="X46" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y46" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="Z46" s="8">
+        <f t="shared" si="53"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="AA46" s="10">
+        <f t="shared" si="55"/>
+        <v>81</v>
+      </c>
+      <c r="AB46" s="8">
+        <f t="shared" si="54"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="AC46" s="36">
+        <f t="shared" si="56"/>
+        <v>5.3999999999999915</v>
+      </c>
+      <c r="AD46" s="30">
+        <f>AA48</f>
+        <v>340.19999999999993</v>
+      </c>
+      <c r="AE46" s="46">
+        <f>AD46/AC48</f>
+        <v>62.999999999999588</v>
+      </c>
+      <c r="AF46" s="43">
+        <f>AF39+AD46</f>
+        <v>340.19999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="34">
         <v>3</v>
       </c>
@@ -9360,25 +10197,25 @@
         <v>2</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="57"/>
         <v>36</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" ref="F47:F50" si="36">E47+F46</f>
+        <f t="shared" ref="F47:F50" si="61">E47+F46</f>
         <v>63</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="58"/>
         <v>72</v>
       </c>
       <c r="H47" s="35">
-        <f t="shared" ref="H47:H50" si="37">G47-F47</f>
+        <f t="shared" ref="H47:H50" si="62">G47-F47</f>
         <v>9</v>
       </c>
-      <c r="I47" s="48" t="s">
+      <c r="I47" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="J47" s="49"/>
+      <c r="J47" s="53"/>
       <c r="K47" s="42"/>
       <c r="M47" s="34">
         <v>3</v>
@@ -9390,27 +10227,57 @@
         <v>4</v>
       </c>
       <c r="P47" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="59"/>
         <v>72</v>
       </c>
       <c r="Q47" s="10">
-        <f t="shared" ref="Q47:Q50" si="38">P47+Q46</f>
+        <f t="shared" ref="Q47:Q50" si="63">P47+Q46</f>
         <v>126</v>
       </c>
       <c r="R47" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="60"/>
         <v>144</v>
       </c>
       <c r="S47" s="35">
-        <f t="shared" ref="S47:S50" si="39">R47-Q47</f>
-        <v>18</v>
-      </c>
-      <c r="T47" s="48" t="s">
+        <f t="shared" ref="S47:S50" si="64">R47-Q47</f>
+        <v>18</v>
+      </c>
+      <c r="T47" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="U47" s="49"/>
-    </row>
-    <row r="48" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U47" s="53"/>
+      <c r="W47" s="34">
+        <v>5</v>
+      </c>
+      <c r="X47" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y47" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="Z47" s="8">
+        <f t="shared" si="53"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="AA47" s="10">
+        <f t="shared" si="55"/>
+        <v>167.39999999999998</v>
+      </c>
+      <c r="AB47" s="8">
+        <f t="shared" si="54"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="AC47" s="35">
+        <f t="shared" si="56"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="AD47" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE47" s="55"/>
+      <c r="AF47" s="42"/>
+    </row>
+    <row r="48" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="34">
         <v>4</v>
       </c>
@@ -9421,19 +10288,19 @@
         <v>4</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="57"/>
         <v>72</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="61"/>
         <v>135</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="58"/>
         <v>144</v>
       </c>
       <c r="H48" s="36">
-        <f t="shared" si="37"/>
+        <f t="shared" si="62"/>
         <v>9</v>
       </c>
       <c r="I48" s="30">
@@ -9458,19 +10325,19 @@
         <v>8</v>
       </c>
       <c r="P48" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="59"/>
         <v>144</v>
       </c>
       <c r="Q48" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="63"/>
         <v>270</v>
       </c>
       <c r="R48" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="60"/>
         <v>288</v>
       </c>
       <c r="S48" s="36">
-        <f t="shared" si="39"/>
+        <f t="shared" si="64"/>
         <v>18</v>
       </c>
       <c r="T48" s="30">
@@ -9481,8 +10348,45 @@
         <f>T48/S50</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="49" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W48" s="37">
+        <v>6</v>
+      </c>
+      <c r="X48" s="38">
+        <v>18</v>
+      </c>
+      <c r="Y48" s="39">
+        <v>9.6</v>
+      </c>
+      <c r="Z48" s="38">
+        <f t="shared" si="53"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="AA48" s="40">
+        <f t="shared" si="55"/>
+        <v>340.19999999999993</v>
+      </c>
+      <c r="AB48" s="38">
+        <f t="shared" si="54"/>
+        <v>345.59999999999997</v>
+      </c>
+      <c r="AC48" s="41">
+        <f t="shared" si="56"/>
+        <v>5.4000000000000341</v>
+      </c>
+      <c r="AD48" s="31">
+        <f>AA48</f>
+        <v>340.19999999999993</v>
+      </c>
+      <c r="AE48" s="29">
+        <f>AD48/AC48</f>
+        <v>62.999999999999588</v>
+      </c>
+      <c r="AF48" s="43">
+        <f>AD48+AF46</f>
+        <v>680.39999999999986</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="34">
         <v>5</v>
       </c>
@@ -9493,25 +10397,25 @@
         <v>8</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="57"/>
         <v>144</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="61"/>
         <v>279</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="58"/>
         <v>288</v>
       </c>
       <c r="H49" s="35">
-        <f t="shared" si="37"/>
+        <f t="shared" si="62"/>
         <v>9</v>
       </c>
-      <c r="I49" s="50" t="s">
+      <c r="I49" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="51"/>
+      <c r="J49" s="55"/>
       <c r="K49" s="42"/>
       <c r="M49" s="34">
         <v>5</v>
@@ -9523,27 +10427,27 @@
         <v>16</v>
       </c>
       <c r="P49" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="59"/>
         <v>288</v>
       </c>
       <c r="Q49" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="63"/>
         <v>558</v>
       </c>
       <c r="R49" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="60"/>
         <v>576</v>
       </c>
       <c r="S49" s="35">
-        <f t="shared" si="39"/>
-        <v>18</v>
-      </c>
-      <c r="T49" s="50" t="s">
+        <f t="shared" si="64"/>
+        <v>18</v>
+      </c>
+      <c r="T49" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="51"/>
-    </row>
-    <row r="50" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U49" s="55"/>
+    </row>
+    <row r="50" spans="2:28" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="37">
         <v>6</v>
       </c>
@@ -9554,19 +10458,19 @@
         <v>16</v>
       </c>
       <c r="E50" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="57"/>
         <v>288</v>
       </c>
       <c r="F50" s="40">
-        <f t="shared" si="36"/>
+        <f t="shared" si="61"/>
         <v>567</v>
       </c>
       <c r="G50" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="58"/>
         <v>576</v>
       </c>
       <c r="H50" s="41">
-        <f t="shared" si="37"/>
+        <f t="shared" si="62"/>
         <v>9</v>
       </c>
       <c r="I50" s="31">
@@ -9591,19 +10495,19 @@
         <v>32</v>
       </c>
       <c r="P50" s="38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="59"/>
         <v>576</v>
       </c>
       <c r="Q50" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="63"/>
         <v>1134</v>
       </c>
       <c r="R50" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="60"/>
         <v>1152</v>
       </c>
       <c r="S50" s="41">
-        <f t="shared" si="39"/>
+        <f t="shared" si="64"/>
         <v>18</v>
       </c>
       <c r="T50" s="31">
@@ -9614,9 +10518,88 @@
         <f>T50/S50</f>
         <v>6.3000000000000052</v>
       </c>
+      <c r="Z50">
+        <v>33</v>
+      </c>
+      <c r="AA50">
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="AB50">
+        <f>Z50*AA50</f>
+        <v>178.2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z51">
+        <v>14</v>
+      </c>
+      <c r="AA51">
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" ref="AB51:AB55" si="65">Z51*AA51</f>
+        <v>75.59999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z52">
+        <v>10</v>
+      </c>
+      <c r="AA52">
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="65"/>
+        <v>53.999999999999986</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z53">
+        <v>7</v>
+      </c>
+      <c r="AA53">
+        <v>5.3999999999999915</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="65"/>
+        <v>37.79999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z54">
+        <v>3</v>
+      </c>
+      <c r="AA54">
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="65"/>
+        <v>16.200000000000017</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z55">
+        <v>3</v>
+      </c>
+      <c r="AA55">
+        <v>5.4000000000000341</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="65"/>
+        <v>16.200000000000102</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB56">
+        <f>SUM(AB50:AB55)</f>
+        <v>378.00000000000006</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="40">
+    <mergeCell ref="W41:AC41"/>
+    <mergeCell ref="AD45:AE45"/>
+    <mergeCell ref="AD47:AE47"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="M43:S43"/>
@@ -9633,21 +10616,27 @@
     <mergeCell ref="M3:S3"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="T7:U7"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="M23:S23"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="T49:U49"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="M13:S13"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="T27:U27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="T49:U49"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="T9:U9"/>
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="T19:U19"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="W13:AC13"/>
+    <mergeCell ref="AD17:AE17"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
@@ -11318,7 +12307,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60">
+      <c r="A2" s="64">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -11359,7 +12348,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -11398,7 +12387,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>

--- a/temp/iter - copia.xlsx
+++ b/temp/iter - copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5E1A3B-24E2-4042-BA79-17CAEB000117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BACDE0C-F9FC-4F0A-AA1A-769C2B3A1AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11685" yWindow="4605" windowWidth="17085" windowHeight="10815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Formulario_TEST!$A$1:$M$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Martingala ITER_2'!$A$1:$AG$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7432,13 +7433,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9606BF1C-A351-497E-AD56-66400B551869}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="B1:AF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:H31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="Q37" zoomScale="85" zoomScaleNormal="25" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AC51" sqref="AC51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7724,7 +7722,7 @@
         <v>14.4</v>
       </c>
       <c r="H7" s="35">
-        <f t="shared" ref="H7:H10" si="7">G7-F7</f>
+        <f t="shared" ref="H7:H9" si="7">G7-F7</f>
         <v>1.7999999999999989</v>
       </c>
       <c r="I7" s="62" t="s">
@@ -9927,23 +9925,23 @@
         <v>18</v>
       </c>
       <c r="Y43" s="9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="Z43" s="8">
         <f>X43*Y43</f>
-        <v>5.3999999999999995</v>
+        <v>18</v>
       </c>
       <c r="AA43" s="10">
         <f>Z43</f>
-        <v>5.3999999999999995</v>
+        <v>18</v>
       </c>
       <c r="AB43" s="8">
         <f>Y43*36</f>
-        <v>10.799999999999999</v>
+        <v>36</v>
       </c>
       <c r="AC43" s="35">
         <f>AB43-AA43</f>
-        <v>5.3999999999999995</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="2:32" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9996,23 +9994,23 @@
         <v>18</v>
       </c>
       <c r="Y44" s="9">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="Z44" s="8">
         <f t="shared" ref="Z44:Z48" si="53">X44*Y44</f>
-        <v>10.799999999999999</v>
+        <v>36</v>
       </c>
       <c r="AA44" s="10">
         <f>Z44+AA43</f>
-        <v>16.2</v>
+        <v>54</v>
       </c>
       <c r="AB44" s="8">
         <f t="shared" ref="AB44:AB48" si="54">Y44*36</f>
-        <v>21.599999999999998</v>
+        <v>72</v>
       </c>
       <c r="AC44" s="36">
         <f>AB44-AA44</f>
-        <v>5.3999999999999986</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10073,23 +10071,23 @@
         <v>18</v>
       </c>
       <c r="Y45" s="9">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="Z45" s="8">
         <f t="shared" si="53"/>
-        <v>21.599999999999998</v>
+        <v>72</v>
       </c>
       <c r="AA45" s="10">
         <f t="shared" ref="AA45:AA48" si="55">Z45+AA44</f>
-        <v>37.799999999999997</v>
+        <v>126</v>
       </c>
       <c r="AB45" s="8">
         <f t="shared" si="54"/>
-        <v>43.199999999999996</v>
+        <v>144</v>
       </c>
       <c r="AC45" s="35">
         <f t="shared" ref="AC45:AC48" si="56">AB45-AA45</f>
-        <v>5.3999999999999986</v>
+        <v>18</v>
       </c>
       <c r="AD45" s="62" t="s">
         <v>35</v>
@@ -10155,35 +10153,35 @@
         <v>18</v>
       </c>
       <c r="Y46" s="9">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="Z46" s="8">
         <f t="shared" si="53"/>
-        <v>43.199999999999996</v>
+        <v>144</v>
       </c>
       <c r="AA46" s="10">
         <f t="shared" si="55"/>
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="AB46" s="8">
         <f t="shared" si="54"/>
-        <v>86.399999999999991</v>
+        <v>288</v>
       </c>
       <c r="AC46" s="36">
         <f t="shared" si="56"/>
-        <v>5.3999999999999915</v>
+        <v>18</v>
       </c>
       <c r="AD46" s="30">
         <f>AA48</f>
-        <v>340.19999999999993</v>
+        <v>1134</v>
       </c>
       <c r="AE46" s="46">
         <f>AD46/AC48</f>
-        <v>62.999999999999588</v>
+        <v>63</v>
       </c>
       <c r="AF46" s="43">
         <f>AF39+AD46</f>
-        <v>340.19999999999993</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="47" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10253,23 +10251,23 @@
         <v>18</v>
       </c>
       <c r="Y47" s="9">
-        <v>4.8</v>
+        <v>16</v>
       </c>
       <c r="Z47" s="8">
         <f t="shared" si="53"/>
-        <v>86.399999999999991</v>
+        <v>288</v>
       </c>
       <c r="AA47" s="10">
         <f t="shared" si="55"/>
-        <v>167.39999999999998</v>
+        <v>558</v>
       </c>
       <c r="AB47" s="8">
         <f t="shared" si="54"/>
-        <v>172.79999999999998</v>
+        <v>576</v>
       </c>
       <c r="AC47" s="35">
         <f t="shared" si="56"/>
-        <v>5.4000000000000057</v>
+        <v>18</v>
       </c>
       <c r="AD47" s="54" t="s">
         <v>38</v>
@@ -10355,35 +10353,35 @@
         <v>18</v>
       </c>
       <c r="Y48" s="39">
-        <v>9.6</v>
+        <v>32</v>
       </c>
       <c r="Z48" s="38">
         <f t="shared" si="53"/>
-        <v>172.79999999999998</v>
+        <v>576</v>
       </c>
       <c r="AA48" s="40">
         <f t="shared" si="55"/>
-        <v>340.19999999999993</v>
+        <v>1134</v>
       </c>
       <c r="AB48" s="38">
         <f t="shared" si="54"/>
-        <v>345.59999999999997</v>
+        <v>1152</v>
       </c>
       <c r="AC48" s="41">
         <f t="shared" si="56"/>
-        <v>5.4000000000000341</v>
+        <v>18</v>
       </c>
       <c r="AD48" s="31">
         <f>AA48</f>
-        <v>340.19999999999993</v>
+        <v>1134</v>
       </c>
       <c r="AE48" s="29">
         <f>AD48/AC48</f>
-        <v>62.999999999999588</v>
+        <v>63</v>
       </c>
       <c r="AF48" s="43">
         <f>AD48+AF46</f>
-        <v>680.39999999999986</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="49" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10522,11 +10520,11 @@
         <v>33</v>
       </c>
       <c r="AA50">
-        <v>5.3999999999999995</v>
+        <v>18</v>
       </c>
       <c r="AB50">
         <f>Z50*AA50</f>
-        <v>178.2</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10534,11 +10532,11 @@
         <v>14</v>
       </c>
       <c r="AA51">
-        <v>5.3999999999999986</v>
+        <v>18</v>
       </c>
       <c r="AB51">
         <f t="shared" ref="AB51:AB55" si="65">Z51*AA51</f>
-        <v>75.59999999999998</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10546,11 +10544,11 @@
         <v>10</v>
       </c>
       <c r="AA52">
-        <v>5.3999999999999986</v>
+        <v>18</v>
       </c>
       <c r="AB52">
         <f t="shared" si="65"/>
-        <v>53.999999999999986</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10558,11 +10556,11 @@
         <v>7</v>
       </c>
       <c r="AA53">
-        <v>5.3999999999999915</v>
+        <v>18</v>
       </c>
       <c r="AB53">
         <f t="shared" si="65"/>
-        <v>37.79999999999994</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10570,11 +10568,11 @@
         <v>3</v>
       </c>
       <c r="AA54">
-        <v>5.4000000000000057</v>
+        <v>18</v>
       </c>
       <c r="AB54">
         <f t="shared" si="65"/>
-        <v>16.200000000000017</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10582,17 +10580,17 @@
         <v>3</v>
       </c>
       <c r="AA55">
-        <v>5.4000000000000341</v>
+        <v>18</v>
       </c>
       <c r="AB55">
         <f t="shared" si="65"/>
-        <v>16.200000000000102</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB56">
         <f>SUM(AB50:AB55)</f>
-        <v>378.00000000000006</v>
+        <v>1260</v>
       </c>
     </row>
   </sheetData>
@@ -10618,6 +10616,8 @@
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="M23:S23"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="T9:U9"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="T49:U49"/>
     <mergeCell ref="B13:H13"/>
@@ -10625,8 +10625,6 @@
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="T27:U27"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="T9:U9"/>
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="T19:U19"/>
@@ -10639,7 +10637,7 @@
     <mergeCell ref="AD17:AE17"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/temp/iter - copia.xlsx
+++ b/temp/iter - copia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B16AB2-0ADF-4265-8559-18A8724F6DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9BB817-AE90-4CEB-BBC1-B61EB3AA4BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Formulario_TEST!$A$1:$M$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="39">
   <si>
     <t>Rep</t>
   </si>
@@ -454,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,15 +574,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,10 +586,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -919,24 +934,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="K2" s="44" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="K2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
     </row>
     <row r="3" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -981,42 +996,42 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="44" t="s">
+      <c r="T3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AB3" s="44" t="s">
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AB3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AM3" s="45" t="s">
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AM3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="47"/>
-      <c r="AW3" s="45" t="s">
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="57"/>
+      <c r="AW3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46"/>
-      <c r="BC3" s="47"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="57"/>
     </row>
     <row r="4" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -1588,10 +1603,10 @@
         <f t="shared" ref="AS7:AS10" si="21">AR7-AQ7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AT7" s="52" t="s">
+      <c r="AT7" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="AU7" s="53"/>
+      <c r="AU7" s="54"/>
       <c r="AW7" s="34">
         <v>3</v>
       </c>
@@ -1617,10 +1632,10 @@
         <f t="shared" ref="BC7:BC10" si="23">BB7-BA7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="BD7" s="48" t="s">
+      <c r="BD7" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="BE7" s="49"/>
+      <c r="BE7" s="52"/>
     </row>
     <row r="8" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -1918,10 +1933,10 @@
         <f t="shared" si="21"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AT9" s="50" t="s">
+      <c r="AT9" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AU9" s="51"/>
+      <c r="AU9" s="50"/>
       <c r="AW9" s="34">
         <v>5</v>
       </c>
@@ -1947,10 +1962,10 @@
         <f t="shared" si="23"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="BD9" s="50" t="s">
+      <c r="BD9" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="BE9" s="51"/>
+      <c r="BE9" s="50"/>
     </row>
     <row r="10" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T10" s="8">
@@ -2071,15 +2086,15 @@
       </c>
     </row>
     <row r="11" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="44" t="s">
+      <c r="K11" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -2132,15 +2147,15 @@
       </c>
     </row>
     <row r="12" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -2260,24 +2275,24 @@
         <f>P13-O13</f>
         <v>1.8</v>
       </c>
-      <c r="AM13" s="45" t="s">
+      <c r="AM13" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AN13" s="46"/>
-      <c r="AO13" s="46"/>
-      <c r="AP13" s="46"/>
-      <c r="AQ13" s="46"/>
-      <c r="AR13" s="46"/>
-      <c r="AS13" s="47"/>
-      <c r="AW13" s="45" t="s">
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="56"/>
+      <c r="AR13" s="56"/>
+      <c r="AS13" s="57"/>
+      <c r="AW13" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AX13" s="46"/>
-      <c r="AY13" s="46"/>
-      <c r="AZ13" s="46"/>
-      <c r="BA13" s="46"/>
-      <c r="BB13" s="46"/>
-      <c r="BC13" s="47"/>
+      <c r="AX13" s="56"/>
+      <c r="AY13" s="56"/>
+      <c r="AZ13" s="56"/>
+      <c r="BA13" s="56"/>
+      <c r="BB13" s="56"/>
+      <c r="BC13" s="57"/>
     </row>
     <row r="14" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -2532,15 +2547,15 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="44" t="s">
+      <c r="T16" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
       <c r="AM16" s="34">
         <v>2</v>
       </c>
@@ -2668,15 +2683,15 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="44" t="s">
+      <c r="AD17" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="44"/>
-      <c r="AJ17" s="44"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="58"/>
       <c r="AM17" s="34">
         <v>3</v>
       </c>
@@ -2702,10 +2717,10 @@
         <f t="shared" ref="AS17:AS20" si="41">AR17-AQ17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="AT17" s="48" t="s">
+      <c r="AT17" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="AU17" s="49"/>
+      <c r="AU17" s="52"/>
       <c r="AW17" s="34">
         <v>3</v>
       </c>
@@ -2731,10 +2746,10 @@
         <f t="shared" ref="BC17:BC20" si="43">BB17-BA17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="BD17" s="48" t="s">
+      <c r="BD17" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="BE17" s="49"/>
+      <c r="BE17" s="52"/>
     </row>
     <row r="18" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -3015,10 +3030,10 @@
         <f t="shared" si="41"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="AT19" s="50" t="s">
+      <c r="AT19" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AU19" s="51"/>
+      <c r="AU19" s="50"/>
       <c r="AW19" s="34">
         <v>5</v>
       </c>
@@ -3044,10 +3059,10 @@
         <f t="shared" si="43"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="BD19" s="50" t="s">
+      <c r="BD19" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="BE19" s="51"/>
+      <c r="BE19" s="50"/>
     </row>
     <row r="20" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S20">
@@ -3174,15 +3189,15 @@
       </c>
     </row>
     <row r="21" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K21" s="44" t="s">
+      <c r="K21" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -3241,15 +3256,15 @@
       </c>
     </row>
     <row r="22" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -3425,24 +3440,24 @@
         <f t="shared" si="55"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="AM23" s="45" t="s">
+      <c r="AM23" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AN23" s="46"/>
-      <c r="AO23" s="46"/>
-      <c r="AP23" s="46"/>
-      <c r="AQ23" s="46"/>
-      <c r="AR23" s="46"/>
-      <c r="AS23" s="47"/>
-      <c r="AW23" s="45" t="s">
+      <c r="AN23" s="56"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="56"/>
+      <c r="AQ23" s="56"/>
+      <c r="AR23" s="56"/>
+      <c r="AS23" s="57"/>
+      <c r="AW23" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AX23" s="46"/>
-      <c r="AY23" s="46"/>
-      <c r="AZ23" s="46"/>
-      <c r="BA23" s="46"/>
-      <c r="BB23" s="46"/>
-      <c r="BC23" s="47"/>
+      <c r="AX23" s="56"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="56"/>
+      <c r="BA23" s="56"/>
+      <c r="BB23" s="56"/>
+      <c r="BC23" s="57"/>
     </row>
     <row r="24" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -3956,10 +3971,10 @@
         <f t="shared" ref="AS27:AS30" si="73">AR27-AQ27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="AT27" s="48" t="s">
+      <c r="AT27" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="AU27" s="49"/>
+      <c r="AU27" s="52"/>
       <c r="AW27" s="34">
         <v>3</v>
       </c>
@@ -3985,10 +4000,10 @@
         <f t="shared" ref="BC27:BC30" si="75">BB27-BA27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="BD27" s="48" t="s">
+      <c r="BD27" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="BE27" s="49"/>
+      <c r="BE27" s="52"/>
     </row>
     <row r="28" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -4180,15 +4195,15 @@
         <f t="shared" ref="Y29:Y38" si="81">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="44" t="s">
+      <c r="AD29" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="44"/>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="44"/>
+      <c r="AE29" s="58"/>
+      <c r="AF29" s="58"/>
+      <c r="AG29" s="58"/>
+      <c r="AH29" s="58"/>
+      <c r="AI29" s="58"/>
+      <c r="AJ29" s="58"/>
       <c r="AM29" s="34">
         <v>5</v>
       </c>
@@ -4214,10 +4229,10 @@
         <f t="shared" si="73"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AT29" s="50" t="s">
+      <c r="AT29" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AU29" s="51"/>
+      <c r="AU29" s="50"/>
       <c r="AW29" s="34">
         <v>5</v>
       </c>
@@ -4243,10 +4258,10 @@
         <f t="shared" si="75"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="BD29" s="50" t="s">
+      <c r="BD29" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="BE29" s="51"/>
+      <c r="BE29" s="50"/>
     </row>
     <row r="30" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T30" s="18" t="s">
@@ -4409,24 +4424,24 @@
       </c>
     </row>
     <row r="32" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="K32" s="44" t="s">
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="K32" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -4565,24 +4580,24 @@
         <f t="shared" ref="AJ33:AJ38" si="86">AI33-AH33</f>
         <v>9</v>
       </c>
-      <c r="AM33" s="45" t="s">
+      <c r="AM33" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AN33" s="46"/>
-      <c r="AO33" s="46"/>
-      <c r="AP33" s="46"/>
-      <c r="AQ33" s="46"/>
-      <c r="AR33" s="46"/>
-      <c r="AS33" s="47"/>
-      <c r="AW33" s="45" t="s">
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="56"/>
+      <c r="AP33" s="56"/>
+      <c r="AQ33" s="56"/>
+      <c r="AR33" s="56"/>
+      <c r="AS33" s="57"/>
+      <c r="AW33" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AX33" s="46"/>
-      <c r="AY33" s="46"/>
-      <c r="AZ33" s="46"/>
-      <c r="BA33" s="46"/>
-      <c r="BB33" s="46"/>
-      <c r="BC33" s="47"/>
+      <c r="AX33" s="56"/>
+      <c r="AY33" s="56"/>
+      <c r="AZ33" s="56"/>
+      <c r="BA33" s="56"/>
+      <c r="BB33" s="56"/>
+      <c r="BC33" s="57"/>
     </row>
     <row r="34" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -5146,10 +5161,10 @@
         <f t="shared" ref="AS37:AS40" si="100">AR37-AQ37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="AT37" s="48" t="s">
+      <c r="AT37" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="AU37" s="49"/>
+      <c r="AU37" s="52"/>
       <c r="AW37" s="34">
         <v>3</v>
       </c>
@@ -5175,10 +5190,10 @@
         <f t="shared" ref="BC37:BC40" si="102">BB37-BA37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="BD37" s="48" t="s">
+      <c r="BD37" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="BE37" s="49"/>
+      <c r="BE37" s="52"/>
     </row>
     <row r="38" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -5434,10 +5449,10 @@
         <f t="shared" si="100"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AT39" s="50" t="s">
+      <c r="AT39" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AU39" s="51"/>
+      <c r="AU39" s="50"/>
       <c r="AW39" s="34">
         <v>5</v>
       </c>
@@ -5463,10 +5478,10 @@
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD39" s="50" t="s">
+      <c r="BD39" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="BE39" s="51"/>
+      <c r="BE39" s="50"/>
     </row>
     <row r="40" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="8">
@@ -5597,15 +5612,15 @@
       </c>
     </row>
     <row r="42" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -5654,24 +5669,24 @@
       <c r="H43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM43" s="45" t="s">
+      <c r="AM43" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="46"/>
-      <c r="AO43" s="46"/>
-      <c r="AP43" s="46"/>
-      <c r="AQ43" s="46"/>
-      <c r="AR43" s="46"/>
-      <c r="AS43" s="47"/>
-      <c r="AW43" s="45" t="s">
+      <c r="AN43" s="56"/>
+      <c r="AO43" s="56"/>
+      <c r="AP43" s="56"/>
+      <c r="AQ43" s="56"/>
+      <c r="AR43" s="56"/>
+      <c r="AS43" s="57"/>
+      <c r="AW43" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AX43" s="46"/>
-      <c r="AY43" s="46"/>
-      <c r="AZ43" s="46"/>
-      <c r="BA43" s="46"/>
-      <c r="BB43" s="46"/>
-      <c r="BC43" s="47"/>
+      <c r="AX43" s="56"/>
+      <c r="AY43" s="56"/>
+      <c r="AZ43" s="56"/>
+      <c r="BA43" s="56"/>
+      <c r="BB43" s="56"/>
+      <c r="BC43" s="57"/>
     </row>
     <row r="44" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
@@ -5926,15 +5941,15 @@
         <f t="shared" si="114"/>
         <v>126</v>
       </c>
-      <c r="T47" s="44" t="s">
+      <c r="T47" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="44"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="44"/>
-      <c r="X47" s="44"/>
-      <c r="Y47" s="44"/>
-      <c r="Z47" s="44"/>
+      <c r="U47" s="58"/>
+      <c r="V47" s="58"/>
+      <c r="W47" s="58"/>
+      <c r="X47" s="58"/>
+      <c r="Y47" s="58"/>
+      <c r="Z47" s="58"/>
       <c r="AM47" s="34">
         <v>3</v>
       </c>
@@ -5960,10 +5975,10 @@
         <f t="shared" ref="AS47:AS50" si="120">AR47-AQ47</f>
         <v>9</v>
       </c>
-      <c r="AT47" s="48" t="s">
+      <c r="AT47" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="AU47" s="49"/>
+      <c r="AU47" s="52"/>
       <c r="AW47" s="34">
         <v>3</v>
       </c>
@@ -5989,10 +6004,10 @@
         <f t="shared" ref="BC47:BC50" si="122">BB47-BA47</f>
         <v>18</v>
       </c>
-      <c r="BD47" s="48" t="s">
+      <c r="BD47" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="BE47" s="49"/>
+      <c r="BE47" s="52"/>
     </row>
     <row r="48" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
@@ -6186,10 +6201,10 @@
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT49" s="50" t="s">
+      <c r="AT49" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AU49" s="51"/>
+      <c r="AU49" s="50"/>
       <c r="AW49" s="34">
         <v>5</v>
       </c>
@@ -6215,10 +6230,10 @@
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD49" s="50" t="s">
+      <c r="BD49" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="BE49" s="51"/>
+      <c r="BE49" s="50"/>
     </row>
     <row r="50" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T50" s="8">
@@ -6341,15 +6356,15 @@
       </c>
     </row>
     <row r="52" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -6668,15 +6683,15 @@
       </c>
     </row>
     <row r="62" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
     </row>
     <row r="63" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
@@ -6871,6 +6886,39 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T47:Z47"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AM43:AS43"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="AW13:BC13"/>
+    <mergeCell ref="AW23:BC23"/>
+    <mergeCell ref="AW33:BC33"/>
+    <mergeCell ref="AW43:BC43"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AT49:AU49"/>
     <mergeCell ref="BD49:BE49"/>
     <mergeCell ref="BD39:BE39"/>
@@ -6885,39 +6933,6 @@
     <mergeCell ref="AT29:AU29"/>
     <mergeCell ref="AT39:AU39"/>
     <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="AW13:BC13"/>
-    <mergeCell ref="AW23:BC23"/>
-    <mergeCell ref="AW33:BC33"/>
-    <mergeCell ref="AW43:BC43"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T47:Z47"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AM43:AS43"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" orientation="portrait" r:id="rId1"/>
@@ -6942,70 +6957,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="55" t="s">
+      <c r="D3" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
     </row>
     <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -7367,36 +7382,36 @@
     </row>
     <row r="25" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
     </row>
     <row r="27" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7423,43 +7438,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:U50"/>
+  <dimension ref="B1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" activeCellId="1" sqref="F20 F10"/>
+      <selection activeCell="H11" sqref="C10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="58"/>
+      <c r="J1" s="63"/>
       <c r="K1">
         <v>113.4</v>
       </c>
     </row>
     <row r="2" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="M3" s="45" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="M3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="47"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="57"/>
     </row>
     <row r="4" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
@@ -7635,10 +7650,10 @@
         <f t="shared" ref="H7:H10" si="5">G7-F7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="53"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="42"/>
       <c r="M7" s="34">
         <v>3</v>
@@ -7665,10 +7680,10 @@
         <f t="shared" ref="S7:S10" si="7">R7-Q7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="T7" s="48" t="s">
+      <c r="T7" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="49"/>
+      <c r="U7" s="52"/>
     </row>
     <row r="8" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34">
@@ -7768,10 +7783,10 @@
         <f t="shared" si="5"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="51"/>
+      <c r="J9" s="50"/>
       <c r="K9" s="42"/>
       <c r="M9" s="34">
         <v>5</v>
@@ -7798,10 +7813,10 @@
         <f t="shared" si="7"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="T9" s="50" t="s">
+      <c r="T9" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="51"/>
+      <c r="U9" s="50"/>
     </row>
     <row r="10" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="37">
@@ -7875,26 +7890,65 @@
         <v>10.499999999999922</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="34">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" ref="E11" si="8">C11*D11</f>
+        <v>115.2</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" ref="F11" si="9">E11+F10</f>
+        <v>228.60000000000002</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" ref="G11" si="10">D11*36</f>
+        <v>230.4</v>
+      </c>
+      <c r="H11" s="36">
+        <f t="shared" ref="H11" si="11">G11-F11</f>
+        <v>1.7999999999999829</v>
+      </c>
+      <c r="K11">
+        <v>-168.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="19">
+        <f>SUM(K10:K11)</f>
+        <v>171.30000000000004</v>
+      </c>
+    </row>
     <row r="13" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
-      <c r="M13" s="45" t="s">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
+      <c r="K13">
+        <f>K12/1.8</f>
+        <v>95.166666666666686</v>
+      </c>
+      <c r="M13" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
     </row>
     <row r="14" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
@@ -8003,7 +8057,7 @@
         <v>0.4</v>
       </c>
       <c r="E16" s="8">
-        <f t="shared" ref="E16:E20" si="8">C16*D16</f>
+        <f t="shared" ref="E16:E20" si="12">C16*D16</f>
         <v>7.2</v>
       </c>
       <c r="F16" s="10">
@@ -8011,7 +8065,7 @@
         <v>10.8</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" ref="G16:G20" si="9">D16*36</f>
+        <f t="shared" ref="G16:G20" si="13">D16*36</f>
         <v>14.4</v>
       </c>
       <c r="H16" s="36">
@@ -8028,7 +8082,7 @@
         <v>1.4</v>
       </c>
       <c r="P16" s="8">
-        <f t="shared" ref="P16:P20" si="10">N16*O16</f>
+        <f t="shared" ref="P16:P20" si="14">N16*O16</f>
         <v>25.2</v>
       </c>
       <c r="Q16" s="10">
@@ -8036,7 +8090,7 @@
         <v>37.799999999999997</v>
       </c>
       <c r="R16" s="8">
-        <f t="shared" ref="R16:R20" si="11">O16*36</f>
+        <f t="shared" ref="R16:R20" si="15">O16*36</f>
         <v>50.4</v>
       </c>
       <c r="S16" s="36">
@@ -8055,25 +8109,25 @@
         <v>0.8</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>14.4</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" ref="F17:F20" si="12">E17+F16</f>
+        <f t="shared" ref="F17:F20" si="16">E17+F16</f>
         <v>25.200000000000003</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>28.8</v>
       </c>
       <c r="H17" s="35">
-        <f t="shared" ref="H17:H20" si="13">G17-F17</f>
+        <f t="shared" ref="H17:H20" si="17">G17-F17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="49"/>
+      <c r="J17" s="52"/>
       <c r="K17" s="42"/>
       <c r="M17" s="34">
         <v>3</v>
@@ -8085,25 +8139,25 @@
         <v>2.8</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>50.4</v>
       </c>
       <c r="Q17" s="10">
-        <f t="shared" ref="Q17:Q20" si="14">P17+Q16</f>
+        <f t="shared" ref="Q17:Q20" si="18">P17+Q16</f>
         <v>88.199999999999989</v>
       </c>
       <c r="R17" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>100.8</v>
       </c>
       <c r="S17" s="35">
-        <f t="shared" ref="S17:S20" si="15">R17-Q17</f>
+        <f t="shared" ref="S17:S20" si="19">R17-Q17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="T17" s="48" t="s">
+      <c r="T17" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="49"/>
+      <c r="U17" s="52"/>
     </row>
     <row r="18" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="34">
@@ -8116,19 +8170,19 @@
         <v>1.6</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>28.8</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>54</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>57.6</v>
       </c>
       <c r="H18" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.6000000000000014</v>
       </c>
       <c r="I18" s="30">
@@ -8153,19 +8207,19 @@
         <v>5.6</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>100.8</v>
       </c>
       <c r="Q18" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>189</v>
       </c>
       <c r="R18" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>201.6</v>
       </c>
       <c r="S18" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>12.599999999999994</v>
       </c>
       <c r="T18" s="30">
@@ -8188,25 +8242,25 @@
         <v>3.2</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>57.6</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>111.6</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>115.2</v>
       </c>
       <c r="H19" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="51"/>
+      <c r="J19" s="50"/>
       <c r="K19" s="42"/>
       <c r="M19" s="34">
         <v>5</v>
@@ -8218,25 +8272,25 @@
         <v>11.2</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>201.6</v>
       </c>
       <c r="Q19" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>390.6</v>
       </c>
       <c r="R19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>403.2</v>
       </c>
       <c r="S19" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="T19" s="50" t="s">
+      <c r="T19" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="U19" s="51"/>
+      <c r="U19" s="50"/>
     </row>
     <row r="20" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="37">
@@ -8249,19 +8303,19 @@
         <v>6.4</v>
       </c>
       <c r="E20" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>115.2</v>
       </c>
       <c r="F20" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>226.8</v>
       </c>
       <c r="G20" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>230.4</v>
       </c>
       <c r="H20" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.5999999999999943</v>
       </c>
       <c r="I20" s="31">
@@ -8286,19 +8340,19 @@
         <v>22.4</v>
       </c>
       <c r="P20" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>403.2</v>
       </c>
       <c r="Q20" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>793.8</v>
       </c>
       <c r="R20" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>806.4</v>
       </c>
       <c r="S20" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>12.600000000000023</v>
       </c>
       <c r="T20" s="31">
@@ -8312,24 +8366,24 @@
     </row>
     <row r="22" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="M23" s="45" t="s">
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57"/>
+      <c r="M23" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="47"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="57"/>
     </row>
     <row r="24" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32" t="s">
@@ -8438,7 +8492,7 @@
         <v>0.6</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" ref="E26:E30" si="16">C26*D26</f>
+        <f t="shared" ref="E26:E30" si="20">C26*D26</f>
         <v>10.799999999999999</v>
       </c>
       <c r="F26" s="10">
@@ -8446,7 +8500,7 @@
         <v>16.2</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" ref="G26:G30" si="17">D26*36</f>
+        <f t="shared" ref="G26:G30" si="21">D26*36</f>
         <v>21.599999999999998</v>
       </c>
       <c r="H26" s="36">
@@ -8463,7 +8517,7 @@
         <v>1.6</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" ref="P26:P30" si="18">N26*O26</f>
+        <f t="shared" ref="P26:P30" si="22">N26*O26</f>
         <v>28.8</v>
       </c>
       <c r="Q26" s="10">
@@ -8471,7 +8525,7 @@
         <v>43.2</v>
       </c>
       <c r="R26" s="8">
-        <f t="shared" ref="R26:R30" si="19">O26*36</f>
+        <f t="shared" ref="R26:R30" si="23">O26*36</f>
         <v>57.6</v>
       </c>
       <c r="S26" s="36">
@@ -8490,25 +8544,25 @@
         <v>1.2</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>21.599999999999998</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" ref="F27:F30" si="20">E27+F26</f>
+        <f t="shared" ref="F27:F30" si="24">E27+F26</f>
         <v>37.799999999999997</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>43.199999999999996</v>
       </c>
       <c r="H27" s="35">
-        <f t="shared" ref="H27:H30" si="21">G27-F27</f>
+        <f t="shared" ref="H27:H30" si="25">G27-F27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="42"/>
       <c r="M27" s="34">
         <v>3</v>
@@ -8520,25 +8574,25 @@
         <v>3.2</v>
       </c>
       <c r="P27" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>57.6</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" ref="Q27:Q30" si="22">P27+Q26</f>
+        <f t="shared" ref="Q27:Q30" si="26">P27+Q26</f>
         <v>100.80000000000001</v>
       </c>
       <c r="R27" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>115.2</v>
       </c>
       <c r="S27" s="35">
-        <f t="shared" ref="S27:S30" si="23">R27-Q27</f>
+        <f t="shared" ref="S27:S30" si="27">R27-Q27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="T27" s="48" t="s">
+      <c r="T27" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="U27" s="49"/>
+      <c r="U27" s="52"/>
     </row>
     <row r="28" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="34">
@@ -8551,19 +8605,19 @@
         <v>2.4</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>43.199999999999996</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>81</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>86.399999999999991</v>
       </c>
       <c r="H28" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.3999999999999915</v>
       </c>
       <c r="I28" s="30">
@@ -8588,19 +8642,19 @@
         <v>6.4</v>
       </c>
       <c r="P28" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>115.2</v>
       </c>
       <c r="Q28" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>216</v>
       </c>
       <c r="R28" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>230.4</v>
       </c>
       <c r="S28" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>14.400000000000006</v>
       </c>
       <c r="T28" s="30">
@@ -8623,25 +8677,25 @@
         <v>4.8</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>86.399999999999991</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>167.39999999999998</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>172.79999999999998</v>
       </c>
       <c r="H29" s="35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="I29" s="50" t="s">
+      <c r="I29" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="51"/>
+      <c r="J29" s="50"/>
       <c r="K29" s="42"/>
       <c r="M29" s="34">
         <v>5</v>
@@ -8653,25 +8707,25 @@
         <v>12.8</v>
       </c>
       <c r="P29" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>230.4</v>
       </c>
       <c r="Q29" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>446.4</v>
       </c>
       <c r="R29" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>460.8</v>
       </c>
       <c r="S29" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="T29" s="50" t="s">
+      <c r="T29" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="51"/>
+      <c r="U29" s="50"/>
     </row>
     <row r="30" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
@@ -8684,19 +8738,19 @@
         <v>9.6</v>
       </c>
       <c r="E30" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>172.79999999999998</v>
       </c>
       <c r="F30" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>340.19999999999993</v>
       </c>
       <c r="G30" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>345.59999999999997</v>
       </c>
       <c r="H30" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.4000000000000341</v>
       </c>
       <c r="I30" s="31">
@@ -8721,19 +8775,19 @@
         <v>25.6</v>
       </c>
       <c r="P30" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>460.8</v>
       </c>
       <c r="Q30" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>907.2</v>
       </c>
       <c r="R30" s="38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>921.6</v>
       </c>
       <c r="S30" s="41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>14.399999999999977</v>
       </c>
       <c r="T30" s="31">
@@ -8747,24 +8801,24 @@
     </row>
     <row r="32" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="47"/>
-      <c r="M33" s="45" t="s">
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="57"/>
+      <c r="M33" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="47"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="57"/>
     </row>
     <row r="34" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="32" t="s">
@@ -8873,7 +8927,7 @@
         <v>0.8</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" ref="E36:E40" si="24">C36*D36</f>
+        <f t="shared" ref="E36:E40" si="28">C36*D36</f>
         <v>14.4</v>
       </c>
       <c r="F36" s="10">
@@ -8881,7 +8935,7 @@
         <v>21.6</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" ref="G36:G40" si="25">D36*36</f>
+        <f t="shared" ref="G36:G40" si="29">D36*36</f>
         <v>28.8</v>
       </c>
       <c r="H36" s="36">
@@ -8898,7 +8952,7 @@
         <v>1.8</v>
       </c>
       <c r="P36" s="8">
-        <f t="shared" ref="P36:P40" si="26">N36*O36</f>
+        <f t="shared" ref="P36:P40" si="30">N36*O36</f>
         <v>32.4</v>
       </c>
       <c r="Q36" s="10">
@@ -8906,7 +8960,7 @@
         <v>48.599999999999994</v>
       </c>
       <c r="R36" s="8">
-        <f t="shared" ref="R36:R40" si="27">O36*36</f>
+        <f t="shared" ref="R36:R40" si="31">O36*36</f>
         <v>64.8</v>
       </c>
       <c r="S36" s="36">
@@ -8925,25 +8979,25 @@
         <v>1.6</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>28.8</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" ref="F37:F40" si="28">E37+F36</f>
+        <f t="shared" ref="F37:F40" si="32">E37+F36</f>
         <v>50.400000000000006</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>57.6</v>
       </c>
       <c r="H37" s="35">
-        <f t="shared" ref="H37:H40" si="29">G37-F37</f>
+        <f t="shared" ref="H37:H40" si="33">G37-F37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="I37" s="48" t="s">
+      <c r="I37" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="49"/>
+      <c r="J37" s="52"/>
       <c r="K37" s="42"/>
       <c r="M37" s="34">
         <v>3</v>
@@ -8955,25 +9009,25 @@
         <v>3.6</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>64.8</v>
       </c>
       <c r="Q37" s="10">
-        <f t="shared" ref="Q37:Q40" si="30">P37+Q36</f>
+        <f t="shared" ref="Q37:Q40" si="34">P37+Q36</f>
         <v>113.39999999999999</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>129.6</v>
       </c>
       <c r="S37" s="35">
-        <f t="shared" ref="S37:S40" si="31">R37-Q37</f>
+        <f t="shared" ref="S37:S40" si="35">R37-Q37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="T37" s="48" t="s">
+      <c r="T37" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="U37" s="49"/>
+      <c r="U37" s="52"/>
     </row>
     <row r="38" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="34">
@@ -8986,19 +9040,19 @@
         <v>3.2</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>57.6</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>108</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>115.2</v>
       </c>
       <c r="H38" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>7.2000000000000028</v>
       </c>
       <c r="I38" s="30">
@@ -9023,19 +9077,19 @@
         <v>7.2</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>129.6</v>
       </c>
       <c r="Q38" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>243</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>259.2</v>
       </c>
       <c r="S38" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>16.199999999999989</v>
       </c>
       <c r="T38" s="30">
@@ -9058,25 +9112,25 @@
         <v>6.4</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>115.2</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>223.2</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>230.4</v>
       </c>
       <c r="H39" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="I39" s="50" t="s">
+      <c r="I39" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="51"/>
+      <c r="J39" s="50"/>
       <c r="K39" s="42"/>
       <c r="M39" s="34">
         <v>5</v>
@@ -9088,25 +9142,25 @@
         <v>14.4</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>259.2</v>
       </c>
       <c r="Q39" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>502.2</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>518.4</v>
       </c>
       <c r="S39" s="35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="T39" s="50" t="s">
+      <c r="T39" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="U39" s="51"/>
+      <c r="U39" s="50"/>
     </row>
     <row r="40" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="37">
@@ -9119,19 +9173,19 @@
         <v>12.8</v>
       </c>
       <c r="E40" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>230.4</v>
       </c>
       <c r="F40" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>453.6</v>
       </c>
       <c r="G40" s="38">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>460.8</v>
       </c>
       <c r="H40" s="41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>7.1999999999999886</v>
       </c>
       <c r="I40" s="31">
@@ -9156,19 +9210,19 @@
         <v>28.8</v>
       </c>
       <c r="P40" s="38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>518.4</v>
       </c>
       <c r="Q40" s="40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1020.5999999999999</v>
       </c>
       <c r="R40" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1036.8</v>
       </c>
       <c r="S40" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>16.200000000000045</v>
       </c>
       <c r="T40" s="31">
@@ -9182,24 +9236,24 @@
     </row>
     <row r="42" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="47"/>
-      <c r="M43" s="45" t="s">
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="57"/>
+      <c r="M43" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="47"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="57"/>
     </row>
     <row r="44" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="32" t="s">
@@ -9308,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" ref="E46:E50" si="32">C46*D46</f>
+        <f t="shared" ref="E46:E50" si="36">C46*D46</f>
         <v>18</v>
       </c>
       <c r="F46" s="10">
@@ -9316,7 +9370,7 @@
         <v>27</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" ref="G46:G50" si="33">D46*36</f>
+        <f t="shared" ref="G46:G50" si="37">D46*36</f>
         <v>36</v>
       </c>
       <c r="H46" s="36">
@@ -9333,7 +9387,7 @@
         <v>2</v>
       </c>
       <c r="P46" s="8">
-        <f t="shared" ref="P46:P50" si="34">N46*O46</f>
+        <f t="shared" ref="P46:P50" si="38">N46*O46</f>
         <v>36</v>
       </c>
       <c r="Q46" s="10">
@@ -9341,7 +9395,7 @@
         <v>54</v>
       </c>
       <c r="R46" s="8">
-        <f t="shared" ref="R46:R50" si="35">O46*36</f>
+        <f t="shared" ref="R46:R50" si="39">O46*36</f>
         <v>72</v>
       </c>
       <c r="S46" s="36">
@@ -9360,25 +9414,25 @@
         <v>2</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>36</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" ref="F47:F50" si="36">E47+F46</f>
+        <f t="shared" ref="F47:F50" si="40">E47+F46</f>
         <v>63</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>72</v>
       </c>
       <c r="H47" s="35">
-        <f t="shared" ref="H47:H50" si="37">G47-F47</f>
+        <f t="shared" ref="H47:H50" si="41">G47-F47</f>
         <v>9</v>
       </c>
-      <c r="I47" s="48" t="s">
+      <c r="I47" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="J47" s="49"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="42"/>
       <c r="M47" s="34">
         <v>3</v>
@@ -9390,25 +9444,25 @@
         <v>4</v>
       </c>
       <c r="P47" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>72</v>
       </c>
       <c r="Q47" s="10">
-        <f t="shared" ref="Q47:Q50" si="38">P47+Q46</f>
+        <f t="shared" ref="Q47:Q50" si="42">P47+Q46</f>
         <v>126</v>
       </c>
       <c r="R47" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>144</v>
       </c>
       <c r="S47" s="35">
-        <f t="shared" ref="S47:S50" si="39">R47-Q47</f>
-        <v>18</v>
-      </c>
-      <c r="T47" s="48" t="s">
+        <f t="shared" ref="S47:S50" si="43">R47-Q47</f>
+        <v>18</v>
+      </c>
+      <c r="T47" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="U47" s="49"/>
+      <c r="U47" s="52"/>
     </row>
     <row r="48" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="34">
@@ -9421,19 +9475,19 @@
         <v>4</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>72</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>135</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>144</v>
       </c>
       <c r="H48" s="36">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
       <c r="I48" s="30">
@@ -9458,19 +9512,19 @@
         <v>8</v>
       </c>
       <c r="P48" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>144</v>
       </c>
       <c r="Q48" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>270</v>
       </c>
       <c r="R48" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>288</v>
       </c>
       <c r="S48" s="36">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="T48" s="30">
@@ -9493,25 +9547,25 @@
         <v>8</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>144</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>279</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>288</v>
       </c>
       <c r="H49" s="35">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
-      <c r="I49" s="50" t="s">
+      <c r="I49" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="51"/>
+      <c r="J49" s="50"/>
       <c r="K49" s="42"/>
       <c r="M49" s="34">
         <v>5</v>
@@ -9523,25 +9577,25 @@
         <v>16</v>
       </c>
       <c r="P49" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>288</v>
       </c>
       <c r="Q49" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>558</v>
       </c>
       <c r="R49" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>576</v>
       </c>
       <c r="S49" s="35">
-        <f t="shared" si="39"/>
-        <v>18</v>
-      </c>
-      <c r="T49" s="50" t="s">
+        <f t="shared" si="43"/>
+        <v>18</v>
+      </c>
+      <c r="T49" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="51"/>
+      <c r="U49" s="50"/>
     </row>
     <row r="50" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="37">
@@ -9554,19 +9608,19 @@
         <v>16</v>
       </c>
       <c r="E50" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>288</v>
       </c>
       <c r="F50" s="40">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>567</v>
       </c>
       <c r="G50" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>576</v>
       </c>
       <c r="H50" s="41">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
       <c r="I50" s="31">
@@ -9591,19 +9645,19 @@
         <v>32</v>
       </c>
       <c r="P50" s="38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>576</v>
       </c>
       <c r="Q50" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1134</v>
       </c>
       <c r="R50" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1152</v>
       </c>
       <c r="S50" s="41">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="T50" s="31">
@@ -9615,8 +9669,462 @@
         <v>6.3000000000000052</v>
       </c>
     </row>
+    <row r="61" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="57"/>
+      <c r="M62" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="56"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="56"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="57"/>
+    </row>
+    <row r="63" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M63" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N63" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P63" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q63" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="R63" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="S63" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="34">
+        <v>1</v>
+      </c>
+      <c r="C64" s="8">
+        <v>18</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E64" s="8">
+        <f>C64*D64</f>
+        <v>9</v>
+      </c>
+      <c r="F64" s="10">
+        <f>E64</f>
+        <v>9</v>
+      </c>
+      <c r="G64" s="8">
+        <f>D64*36</f>
+        <v>18</v>
+      </c>
+      <c r="H64" s="35">
+        <f>G64-F64</f>
+        <v>9</v>
+      </c>
+      <c r="M64" s="34">
+        <v>1</v>
+      </c>
+      <c r="N64" s="8">
+        <v>18</v>
+      </c>
+      <c r="O64" s="9">
+        <v>3</v>
+      </c>
+      <c r="P64" s="8">
+        <f>N64*O64</f>
+        <v>54</v>
+      </c>
+      <c r="Q64" s="10">
+        <f>P64</f>
+        <v>54</v>
+      </c>
+      <c r="R64" s="8">
+        <f>O64*36</f>
+        <v>108</v>
+      </c>
+      <c r="S64" s="35">
+        <f>R64-Q64</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="34">
+        <v>2</v>
+      </c>
+      <c r="C65" s="8">
+        <v>18</v>
+      </c>
+      <c r="D65" s="9">
+        <v>1</v>
+      </c>
+      <c r="E65" s="8">
+        <f t="shared" ref="E65:E69" si="44">C65*D65</f>
+        <v>18</v>
+      </c>
+      <c r="F65" s="10">
+        <f>E65+F64</f>
+        <v>27</v>
+      </c>
+      <c r="G65" s="8">
+        <f t="shared" ref="G65:G69" si="45">D65*36</f>
+        <v>36</v>
+      </c>
+      <c r="H65" s="36">
+        <f>G65-F65</f>
+        <v>9</v>
+      </c>
+      <c r="M65" s="34">
+        <v>2</v>
+      </c>
+      <c r="N65" s="8">
+        <v>18</v>
+      </c>
+      <c r="O65" s="9">
+        <v>6</v>
+      </c>
+      <c r="P65" s="8">
+        <f t="shared" ref="P65:P69" si="46">N65*O65</f>
+        <v>108</v>
+      </c>
+      <c r="Q65" s="10">
+        <f>P65+Q64</f>
+        <v>162</v>
+      </c>
+      <c r="R65" s="8">
+        <f t="shared" ref="R65:R69" si="47">O65*36</f>
+        <v>216</v>
+      </c>
+      <c r="S65" s="36">
+        <f>R65-Q65</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="34">
+        <v>3</v>
+      </c>
+      <c r="C66" s="8">
+        <v>18</v>
+      </c>
+      <c r="D66" s="9">
+        <v>2</v>
+      </c>
+      <c r="E66" s="8">
+        <f t="shared" si="44"/>
+        <v>36</v>
+      </c>
+      <c r="F66" s="10">
+        <f t="shared" ref="F66:F69" si="48">E66+F65</f>
+        <v>63</v>
+      </c>
+      <c r="G66" s="8">
+        <f t="shared" si="45"/>
+        <v>72</v>
+      </c>
+      <c r="H66" s="35">
+        <f t="shared" ref="H66:H69" si="49">G66-F66</f>
+        <v>9</v>
+      </c>
+      <c r="I66" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="J66" s="52"/>
+      <c r="K66" s="42"/>
+      <c r="M66" s="34">
+        <v>3</v>
+      </c>
+      <c r="N66" s="8">
+        <v>18</v>
+      </c>
+      <c r="O66" s="9">
+        <v>12</v>
+      </c>
+      <c r="P66" s="8">
+        <f t="shared" si="46"/>
+        <v>216</v>
+      </c>
+      <c r="Q66" s="10">
+        <f t="shared" ref="Q66:Q69" si="50">P66+Q65</f>
+        <v>378</v>
+      </c>
+      <c r="R66" s="8">
+        <f t="shared" si="47"/>
+        <v>432</v>
+      </c>
+      <c r="S66" s="35">
+        <f t="shared" ref="S66:S69" si="51">R66-Q66</f>
+        <v>54</v>
+      </c>
+      <c r="T66" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="U66" s="46"/>
+    </row>
+    <row r="67" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="34">
+        <v>4</v>
+      </c>
+      <c r="C67" s="8">
+        <v>18</v>
+      </c>
+      <c r="D67" s="9">
+        <v>4</v>
+      </c>
+      <c r="E67" s="8">
+        <f t="shared" si="44"/>
+        <v>72</v>
+      </c>
+      <c r="F67" s="10">
+        <f t="shared" si="48"/>
+        <v>135</v>
+      </c>
+      <c r="G67" s="8">
+        <f t="shared" si="45"/>
+        <v>144</v>
+      </c>
+      <c r="H67" s="36">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="I67" s="30">
+        <f>F69</f>
+        <v>567</v>
+      </c>
+      <c r="J67" s="48">
+        <f>I67/H69</f>
+        <v>63</v>
+      </c>
+      <c r="K67" s="43">
+        <f>K59+I67</f>
+        <v>567</v>
+      </c>
+      <c r="M67" s="34">
+        <v>4</v>
+      </c>
+      <c r="N67" s="8">
+        <v>18</v>
+      </c>
+      <c r="O67" s="9">
+        <v>25</v>
+      </c>
+      <c r="P67" s="8">
+        <f t="shared" si="46"/>
+        <v>450</v>
+      </c>
+      <c r="Q67" s="10">
+        <f t="shared" si="50"/>
+        <v>828</v>
+      </c>
+      <c r="R67" s="8">
+        <f t="shared" si="47"/>
+        <v>900</v>
+      </c>
+      <c r="S67" s="36">
+        <f t="shared" si="51"/>
+        <v>72</v>
+      </c>
+      <c r="T67" s="30">
+        <f>Q69</f>
+        <v>3528</v>
+      </c>
+      <c r="U67" s="48">
+        <f>T67/S69</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="34">
+        <v>5</v>
+      </c>
+      <c r="C68" s="8">
+        <v>18</v>
+      </c>
+      <c r="D68" s="9">
+        <v>8</v>
+      </c>
+      <c r="E68" s="8">
+        <f t="shared" si="44"/>
+        <v>144</v>
+      </c>
+      <c r="F68" s="10">
+        <f t="shared" si="48"/>
+        <v>279</v>
+      </c>
+      <c r="G68" s="8">
+        <f t="shared" si="45"/>
+        <v>288</v>
+      </c>
+      <c r="H68" s="35">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="I68" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="J68" s="50"/>
+      <c r="K68" s="42"/>
+      <c r="M68" s="34">
+        <v>5</v>
+      </c>
+      <c r="N68" s="8">
+        <v>18</v>
+      </c>
+      <c r="O68" s="9">
+        <v>50</v>
+      </c>
+      <c r="P68" s="8">
+        <f t="shared" si="46"/>
+        <v>900</v>
+      </c>
+      <c r="Q68" s="10">
+        <f t="shared" si="50"/>
+        <v>1728</v>
+      </c>
+      <c r="R68" s="8">
+        <f t="shared" si="47"/>
+        <v>1800</v>
+      </c>
+      <c r="S68" s="35">
+        <f t="shared" si="51"/>
+        <v>72</v>
+      </c>
+      <c r="T68" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="U68" s="48"/>
+    </row>
+    <row r="69" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="37">
+        <v>6</v>
+      </c>
+      <c r="C69" s="38">
+        <v>18</v>
+      </c>
+      <c r="D69" s="39">
+        <v>16</v>
+      </c>
+      <c r="E69" s="38">
+        <f t="shared" si="44"/>
+        <v>288</v>
+      </c>
+      <c r="F69" s="40">
+        <f t="shared" si="48"/>
+        <v>567</v>
+      </c>
+      <c r="G69" s="38">
+        <f t="shared" si="45"/>
+        <v>576</v>
+      </c>
+      <c r="H69" s="41">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="I69" s="31">
+        <f>F69-F59</f>
+        <v>567</v>
+      </c>
+      <c r="J69" s="29">
+        <f>I69/H69</f>
+        <v>63</v>
+      </c>
+      <c r="K69" s="43">
+        <f>I69+K67</f>
+        <v>1134</v>
+      </c>
+      <c r="M69" s="37">
+        <v>6</v>
+      </c>
+      <c r="N69" s="38">
+        <v>18</v>
+      </c>
+      <c r="O69" s="39">
+        <v>100</v>
+      </c>
+      <c r="P69" s="38">
+        <f t="shared" si="46"/>
+        <v>1800</v>
+      </c>
+      <c r="Q69" s="40">
+        <f t="shared" si="50"/>
+        <v>3528</v>
+      </c>
+      <c r="R69" s="38">
+        <f t="shared" si="47"/>
+        <v>3600</v>
+      </c>
+      <c r="S69" s="41">
+        <f t="shared" si="51"/>
+        <v>72</v>
+      </c>
+      <c r="T69" s="31">
+        <f>Q69-Q55</f>
+        <v>3528</v>
+      </c>
+      <c r="U69" s="29">
+        <f>T69/S69</f>
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="35">
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="M62:S62"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="M23:S23"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T27:U27"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="M43:S43"/>
@@ -9633,21 +10141,6 @@
     <mergeCell ref="M3:S3"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="T7:U7"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="T19:U19"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
@@ -11318,7 +11811,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60">
+      <c r="A2" s="65">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -11359,7 +11852,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -11398,7 +11891,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>

--- a/temp/iter - copia.xlsx
+++ b/temp/iter - copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9BB817-AE90-4CEB-BBC1-B61EB3AA4BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACDAF39-FCCD-455A-BA30-C3593B674A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Martingala ITER_2" sheetId="16" r:id="rId3"/>
     <sheet name="Hoja1" sheetId="17" r:id="rId4"/>
     <sheet name="Tablero" sheetId="15" r:id="rId5"/>
+    <sheet name="Resultados" sheetId="18" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Formulario_TEST!$A$1:$M$27</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="43">
   <si>
     <t>Rep</t>
   </si>
@@ -157,6 +158,18 @@
   <si>
     <t>2ª Asegurar Iter+Next Iter</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Nº</t>
+  </si>
 </sst>
 </file>
 
@@ -222,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -450,11 +463,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -584,6 +732,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -934,24 +1109,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="K2" s="58" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="K2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
     </row>
     <row r="3" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -996,42 +1171,42 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="58" t="s">
+      <c r="T3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AB3" s="58" t="s">
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AB3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AM3" s="55" t="s">
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AM3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="57"/>
-      <c r="AW3" s="55" t="s">
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="71"/>
+      <c r="AQ3" s="71"/>
+      <c r="AR3" s="71"/>
+      <c r="AS3" s="72"/>
+      <c r="AW3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="57"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="71"/>
+      <c r="BB3" s="71"/>
+      <c r="BC3" s="72"/>
     </row>
     <row r="4" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -1603,10 +1778,10 @@
         <f t="shared" ref="AS7:AS10" si="21">AR7-AQ7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AT7" s="53" t="s">
+      <c r="AT7" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="AU7" s="54"/>
+      <c r="AU7" s="69"/>
       <c r="AW7" s="34">
         <v>3</v>
       </c>
@@ -1632,10 +1807,10 @@
         <f t="shared" ref="BC7:BC10" si="23">BB7-BA7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="BD7" s="51" t="s">
+      <c r="BD7" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="BE7" s="52"/>
+      <c r="BE7" s="67"/>
     </row>
     <row r="8" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -1933,10 +2108,10 @@
         <f t="shared" si="21"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AT9" s="49" t="s">
+      <c r="AT9" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="AU9" s="50"/>
+      <c r="AU9" s="65"/>
       <c r="AW9" s="34">
         <v>5</v>
       </c>
@@ -1962,10 +2137,10 @@
         <f t="shared" si="23"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="BD9" s="49" t="s">
+      <c r="BD9" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="BE9" s="50"/>
+      <c r="BE9" s="65"/>
     </row>
     <row r="10" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T10" s="8">
@@ -2086,15 +2261,15 @@
       </c>
     </row>
     <row r="11" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="58" t="s">
+      <c r="K11" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -2147,15 +2322,15 @@
       </c>
     </row>
     <row r="12" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -2275,24 +2450,24 @@
         <f>P13-O13</f>
         <v>1.8</v>
       </c>
-      <c r="AM13" s="55" t="s">
+      <c r="AM13" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="56"/>
-      <c r="AP13" s="56"/>
-      <c r="AQ13" s="56"/>
-      <c r="AR13" s="56"/>
-      <c r="AS13" s="57"/>
-      <c r="AW13" s="55" t="s">
+      <c r="AN13" s="71"/>
+      <c r="AO13" s="71"/>
+      <c r="AP13" s="71"/>
+      <c r="AQ13" s="71"/>
+      <c r="AR13" s="71"/>
+      <c r="AS13" s="72"/>
+      <c r="AW13" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AX13" s="56"/>
-      <c r="AY13" s="56"/>
-      <c r="AZ13" s="56"/>
-      <c r="BA13" s="56"/>
-      <c r="BB13" s="56"/>
-      <c r="BC13" s="57"/>
+      <c r="AX13" s="71"/>
+      <c r="AY13" s="71"/>
+      <c r="AZ13" s="71"/>
+      <c r="BA13" s="71"/>
+      <c r="BB13" s="71"/>
+      <c r="BC13" s="72"/>
     </row>
     <row r="14" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -2547,15 +2722,15 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="58" t="s">
+      <c r="T16" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
       <c r="AM16" s="34">
         <v>2</v>
       </c>
@@ -2683,15 +2858,15 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="58" t="s">
+      <c r="AD17" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="73"/>
+      <c r="AI17" s="73"/>
+      <c r="AJ17" s="73"/>
       <c r="AM17" s="34">
         <v>3</v>
       </c>
@@ -2717,10 +2892,10 @@
         <f t="shared" ref="AS17:AS20" si="41">AR17-AQ17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="AT17" s="51" t="s">
+      <c r="AT17" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="AU17" s="52"/>
+      <c r="AU17" s="67"/>
       <c r="AW17" s="34">
         <v>3</v>
       </c>
@@ -2746,10 +2921,10 @@
         <f t="shared" ref="BC17:BC20" si="43">BB17-BA17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="BD17" s="51" t="s">
+      <c r="BD17" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="BE17" s="52"/>
+      <c r="BE17" s="67"/>
     </row>
     <row r="18" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -3030,10 +3205,10 @@
         <f t="shared" si="41"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="AT19" s="49" t="s">
+      <c r="AT19" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="AU19" s="50"/>
+      <c r="AU19" s="65"/>
       <c r="AW19" s="34">
         <v>5</v>
       </c>
@@ -3059,10 +3234,10 @@
         <f t="shared" si="43"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="BD19" s="49" t="s">
+      <c r="BD19" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="BE19" s="50"/>
+      <c r="BE19" s="65"/>
     </row>
     <row r="20" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S20">
@@ -3189,15 +3364,15 @@
       </c>
     </row>
     <row r="21" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K21" s="58" t="s">
+      <c r="K21" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -3256,15 +3431,15 @@
       </c>
     </row>
     <row r="22" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -3440,24 +3615,24 @@
         <f t="shared" si="55"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="AM23" s="55" t="s">
+      <c r="AM23" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AN23" s="56"/>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="56"/>
-      <c r="AQ23" s="56"/>
-      <c r="AR23" s="56"/>
-      <c r="AS23" s="57"/>
-      <c r="AW23" s="55" t="s">
+      <c r="AN23" s="71"/>
+      <c r="AO23" s="71"/>
+      <c r="AP23" s="71"/>
+      <c r="AQ23" s="71"/>
+      <c r="AR23" s="71"/>
+      <c r="AS23" s="72"/>
+      <c r="AW23" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="56"/>
-      <c r="BB23" s="56"/>
-      <c r="BC23" s="57"/>
+      <c r="AX23" s="71"/>
+      <c r="AY23" s="71"/>
+      <c r="AZ23" s="71"/>
+      <c r="BA23" s="71"/>
+      <c r="BB23" s="71"/>
+      <c r="BC23" s="72"/>
     </row>
     <row r="24" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -3971,10 +4146,10 @@
         <f t="shared" ref="AS27:AS30" si="73">AR27-AQ27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="AT27" s="51" t="s">
+      <c r="AT27" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="AU27" s="52"/>
+      <c r="AU27" s="67"/>
       <c r="AW27" s="34">
         <v>3</v>
       </c>
@@ -4000,10 +4175,10 @@
         <f t="shared" ref="BC27:BC30" si="75">BB27-BA27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="BD27" s="51" t="s">
+      <c r="BD27" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="BE27" s="52"/>
+      <c r="BE27" s="67"/>
     </row>
     <row r="28" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -4195,15 +4370,15 @@
         <f t="shared" ref="Y29:Y38" si="81">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="58" t="s">
+      <c r="AD29" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="58"/>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="58"/>
-      <c r="AH29" s="58"/>
-      <c r="AI29" s="58"/>
-      <c r="AJ29" s="58"/>
+      <c r="AE29" s="73"/>
+      <c r="AF29" s="73"/>
+      <c r="AG29" s="73"/>
+      <c r="AH29" s="73"/>
+      <c r="AI29" s="73"/>
+      <c r="AJ29" s="73"/>
       <c r="AM29" s="34">
         <v>5</v>
       </c>
@@ -4229,10 +4404,10 @@
         <f t="shared" si="73"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AT29" s="49" t="s">
+      <c r="AT29" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="AU29" s="50"/>
+      <c r="AU29" s="65"/>
       <c r="AW29" s="34">
         <v>5</v>
       </c>
@@ -4258,10 +4433,10 @@
         <f t="shared" si="75"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="BD29" s="49" t="s">
+      <c r="BD29" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="BE29" s="50"/>
+      <c r="BE29" s="65"/>
     </row>
     <row r="30" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T30" s="18" t="s">
@@ -4424,24 +4599,24 @@
       </c>
     </row>
     <row r="32" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="K32" s="58" t="s">
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="K32" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -4580,24 +4755,24 @@
         <f t="shared" ref="AJ33:AJ38" si="86">AI33-AH33</f>
         <v>9</v>
       </c>
-      <c r="AM33" s="55" t="s">
+      <c r="AM33" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="56"/>
-      <c r="AQ33" s="56"/>
-      <c r="AR33" s="56"/>
-      <c r="AS33" s="57"/>
-      <c r="AW33" s="55" t="s">
+      <c r="AN33" s="71"/>
+      <c r="AO33" s="71"/>
+      <c r="AP33" s="71"/>
+      <c r="AQ33" s="71"/>
+      <c r="AR33" s="71"/>
+      <c r="AS33" s="72"/>
+      <c r="AW33" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AX33" s="56"/>
-      <c r="AY33" s="56"/>
-      <c r="AZ33" s="56"/>
-      <c r="BA33" s="56"/>
-      <c r="BB33" s="56"/>
-      <c r="BC33" s="57"/>
+      <c r="AX33" s="71"/>
+      <c r="AY33" s="71"/>
+      <c r="AZ33" s="71"/>
+      <c r="BA33" s="71"/>
+      <c r="BB33" s="71"/>
+      <c r="BC33" s="72"/>
     </row>
     <row r="34" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -5161,10 +5336,10 @@
         <f t="shared" ref="AS37:AS40" si="100">AR37-AQ37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="AT37" s="51" t="s">
+      <c r="AT37" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="AU37" s="52"/>
+      <c r="AU37" s="67"/>
       <c r="AW37" s="34">
         <v>3</v>
       </c>
@@ -5190,10 +5365,10 @@
         <f t="shared" ref="BC37:BC40" si="102">BB37-BA37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="BD37" s="51" t="s">
+      <c r="BD37" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="BE37" s="52"/>
+      <c r="BE37" s="67"/>
     </row>
     <row r="38" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -5449,10 +5624,10 @@
         <f t="shared" si="100"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AT39" s="49" t="s">
+      <c r="AT39" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="AU39" s="50"/>
+      <c r="AU39" s="65"/>
       <c r="AW39" s="34">
         <v>5</v>
       </c>
@@ -5478,10 +5653,10 @@
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD39" s="49" t="s">
+      <c r="BD39" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="BE39" s="50"/>
+      <c r="BE39" s="65"/>
     </row>
     <row r="40" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="8">
@@ -5612,15 +5787,15 @@
       </c>
     </row>
     <row r="42" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -5669,24 +5844,24 @@
       <c r="H43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM43" s="55" t="s">
+      <c r="AM43" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="56"/>
-      <c r="AO43" s="56"/>
-      <c r="AP43" s="56"/>
-      <c r="AQ43" s="56"/>
-      <c r="AR43" s="56"/>
-      <c r="AS43" s="57"/>
-      <c r="AW43" s="55" t="s">
+      <c r="AN43" s="71"/>
+      <c r="AO43" s="71"/>
+      <c r="AP43" s="71"/>
+      <c r="AQ43" s="71"/>
+      <c r="AR43" s="71"/>
+      <c r="AS43" s="72"/>
+      <c r="AW43" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AX43" s="56"/>
-      <c r="AY43" s="56"/>
-      <c r="AZ43" s="56"/>
-      <c r="BA43" s="56"/>
-      <c r="BB43" s="56"/>
-      <c r="BC43" s="57"/>
+      <c r="AX43" s="71"/>
+      <c r="AY43" s="71"/>
+      <c r="AZ43" s="71"/>
+      <c r="BA43" s="71"/>
+      <c r="BB43" s="71"/>
+      <c r="BC43" s="72"/>
     </row>
     <row r="44" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
@@ -5941,15 +6116,15 @@
         <f t="shared" si="114"/>
         <v>126</v>
       </c>
-      <c r="T47" s="58" t="s">
+      <c r="T47" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="58"/>
-      <c r="V47" s="58"/>
-      <c r="W47" s="58"/>
-      <c r="X47" s="58"/>
-      <c r="Y47" s="58"/>
-      <c r="Z47" s="58"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="73"/>
+      <c r="X47" s="73"/>
+      <c r="Y47" s="73"/>
+      <c r="Z47" s="73"/>
       <c r="AM47" s="34">
         <v>3</v>
       </c>
@@ -5975,10 +6150,10 @@
         <f t="shared" ref="AS47:AS50" si="120">AR47-AQ47</f>
         <v>9</v>
       </c>
-      <c r="AT47" s="51" t="s">
+      <c r="AT47" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="AU47" s="52"/>
+      <c r="AU47" s="67"/>
       <c r="AW47" s="34">
         <v>3</v>
       </c>
@@ -6004,10 +6179,10 @@
         <f t="shared" ref="BC47:BC50" si="122">BB47-BA47</f>
         <v>18</v>
       </c>
-      <c r="BD47" s="51" t="s">
+      <c r="BD47" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="BE47" s="52"/>
+      <c r="BE47" s="67"/>
     </row>
     <row r="48" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
@@ -6201,10 +6376,10 @@
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT49" s="49" t="s">
+      <c r="AT49" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="AU49" s="50"/>
+      <c r="AU49" s="65"/>
       <c r="AW49" s="34">
         <v>5</v>
       </c>
@@ -6230,10 +6405,10 @@
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD49" s="49" t="s">
+      <c r="BD49" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="BE49" s="50"/>
+      <c r="BE49" s="65"/>
     </row>
     <row r="50" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T50" s="8">
@@ -6356,15 +6531,15 @@
       </c>
     </row>
     <row r="52" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -6683,15 +6858,15 @@
       </c>
     </row>
     <row r="62" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
     </row>
     <row r="63" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
@@ -6957,70 +7132,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="60" t="s">
+      <c r="D3" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
     </row>
     <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -7382,36 +7557,36 @@
     </row>
     <row r="25" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
     </row>
     <row r="27" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7438,43 +7613,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:U69"/>
+  <dimension ref="B1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="C10:H11"/>
+    <sheetView tabSelected="1" topLeftCell="D21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="63"/>
+      <c r="J1" s="78"/>
       <c r="K1">
         <v>113.4</v>
       </c>
     </row>
     <row r="2" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
-      <c r="M3" s="55" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
+      <c r="M3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="57"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="72"/>
     </row>
     <row r="4" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
@@ -7650,10 +7825,10 @@
         <f t="shared" ref="H7:H10" si="5">G7-F7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="54"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="42"/>
       <c r="M7" s="34">
         <v>3</v>
@@ -7680,10 +7855,10 @@
         <f t="shared" ref="S7:S10" si="7">R7-Q7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="T7" s="51" t="s">
+      <c r="T7" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="52"/>
+      <c r="U7" s="67"/>
     </row>
     <row r="8" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34">
@@ -7783,10 +7958,10 @@
         <f t="shared" si="5"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="65"/>
       <c r="K9" s="42"/>
       <c r="M9" s="34">
         <v>5</v>
@@ -7813,10 +7988,10 @@
         <f t="shared" si="7"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="T9" s="49" t="s">
+      <c r="T9" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="50"/>
+      <c r="U9" s="65"/>
     </row>
     <row r="10" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="37">
@@ -7927,28 +8102,28 @@
       </c>
     </row>
     <row r="13" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
       <c r="K13">
         <f>K12/1.8</f>
         <v>95.166666666666686</v>
       </c>
-      <c r="M13" s="55" t="s">
+      <c r="M13" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="57"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="72"/>
     </row>
     <row r="14" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
@@ -8124,10 +8299,10 @@
         <f t="shared" ref="H17:H20" si="17">G17-F17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="52"/>
+      <c r="J17" s="67"/>
       <c r="K17" s="42"/>
       <c r="M17" s="34">
         <v>3</v>
@@ -8154,10 +8329,10 @@
         <f t="shared" ref="S17:S20" si="19">R17-Q17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="T17" s="51" t="s">
+      <c r="T17" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="52"/>
+      <c r="U17" s="67"/>
     </row>
     <row r="18" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="34">
@@ -8257,10 +8432,10 @@
         <f t="shared" si="17"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="I19" s="49" t="s">
+      <c r="I19" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="50"/>
+      <c r="J19" s="65"/>
       <c r="K19" s="42"/>
       <c r="M19" s="34">
         <v>5</v>
@@ -8287,10 +8462,10 @@
         <f t="shared" si="19"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="T19" s="49" t="s">
+      <c r="T19" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="U19" s="50"/>
+      <c r="U19" s="65"/>
     </row>
     <row r="20" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="37">
@@ -8364,26 +8539,53 @@
         <v>8.9999999999999911</v>
       </c>
     </row>
+    <row r="21" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="34">
+        <v>7</v>
+      </c>
+      <c r="C21" s="8">
+        <v>18</v>
+      </c>
+      <c r="D21" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" ref="E21" si="20">C21*D21</f>
+        <v>230.4</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" ref="F21" si="21">E21+F20</f>
+        <v>457.20000000000005</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" ref="G21" si="22">D21*36</f>
+        <v>460.8</v>
+      </c>
+      <c r="H21" s="35">
+        <f t="shared" ref="H21" si="23">G21-F21</f>
+        <v>3.5999999999999659</v>
+      </c>
+    </row>
     <row r="22" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
-      <c r="M23" s="55" t="s">
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="72"/>
+      <c r="M23" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="57"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="72"/>
     </row>
     <row r="24" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32" t="s">
@@ -8492,7 +8694,7 @@
         <v>0.6</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" ref="E26:E30" si="20">C26*D26</f>
+        <f t="shared" ref="E26:E30" si="24">C26*D26</f>
         <v>10.799999999999999</v>
       </c>
       <c r="F26" s="10">
@@ -8500,7 +8702,7 @@
         <v>16.2</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" ref="G26:G30" si="21">D26*36</f>
+        <f t="shared" ref="G26:G30" si="25">D26*36</f>
         <v>21.599999999999998</v>
       </c>
       <c r="H26" s="36">
@@ -8517,7 +8719,7 @@
         <v>1.6</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" ref="P26:P30" si="22">N26*O26</f>
+        <f t="shared" ref="P26:P30" si="26">N26*O26</f>
         <v>28.8</v>
       </c>
       <c r="Q26" s="10">
@@ -8525,7 +8727,7 @@
         <v>43.2</v>
       </c>
       <c r="R26" s="8">
-        <f t="shared" ref="R26:R30" si="23">O26*36</f>
+        <f t="shared" ref="R26:R30" si="27">O26*36</f>
         <v>57.6</v>
       </c>
       <c r="S26" s="36">
@@ -8544,25 +8746,25 @@
         <v>1.2</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>21.599999999999998</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" ref="F27:F30" si="24">E27+F26</f>
+        <f t="shared" ref="F27:F30" si="28">E27+F26</f>
         <v>37.799999999999997</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>43.199999999999996</v>
       </c>
       <c r="H27" s="35">
-        <f t="shared" ref="H27:H30" si="25">G27-F27</f>
+        <f t="shared" ref="H27:H30" si="29">G27-F27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="52"/>
+      <c r="J27" s="67"/>
       <c r="K27" s="42"/>
       <c r="M27" s="34">
         <v>3</v>
@@ -8574,25 +8776,25 @@
         <v>3.2</v>
       </c>
       <c r="P27" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>57.6</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" ref="Q27:Q30" si="26">P27+Q26</f>
+        <f t="shared" ref="Q27:Q30" si="30">P27+Q26</f>
         <v>100.80000000000001</v>
       </c>
       <c r="R27" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>115.2</v>
       </c>
       <c r="S27" s="35">
-        <f t="shared" ref="S27:S30" si="27">R27-Q27</f>
+        <f t="shared" ref="S27:S30" si="31">R27-Q27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="T27" s="51" t="s">
+      <c r="T27" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="U27" s="52"/>
+      <c r="U27" s="67"/>
     </row>
     <row r="28" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="34">
@@ -8605,19 +8807,19 @@
         <v>2.4</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>43.199999999999996</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>81</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>86.399999999999991</v>
       </c>
       <c r="H28" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5.3999999999999915</v>
       </c>
       <c r="I28" s="30">
@@ -8642,19 +8844,19 @@
         <v>6.4</v>
       </c>
       <c r="P28" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>115.2</v>
       </c>
       <c r="Q28" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>216</v>
       </c>
       <c r="R28" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>230.4</v>
       </c>
       <c r="S28" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>14.400000000000006</v>
       </c>
       <c r="T28" s="30">
@@ -8677,25 +8879,25 @@
         <v>4.8</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>86.399999999999991</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>167.39999999999998</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>172.79999999999998</v>
       </c>
       <c r="H29" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="I29" s="49" t="s">
+      <c r="I29" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="50"/>
+      <c r="J29" s="65"/>
       <c r="K29" s="42"/>
       <c r="M29" s="34">
         <v>5</v>
@@ -8707,25 +8909,25 @@
         <v>12.8</v>
       </c>
       <c r="P29" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>230.4</v>
       </c>
       <c r="Q29" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>446.4</v>
       </c>
       <c r="R29" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>460.8</v>
       </c>
       <c r="S29" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="T29" s="49" t="s">
+      <c r="T29" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="50"/>
+      <c r="U29" s="65"/>
     </row>
     <row r="30" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37">
@@ -8738,19 +8940,19 @@
         <v>9.6</v>
       </c>
       <c r="E30" s="38">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>172.79999999999998</v>
       </c>
       <c r="F30" s="40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>340.19999999999993</v>
       </c>
       <c r="G30" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>345.59999999999997</v>
       </c>
       <c r="H30" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5.4000000000000341</v>
       </c>
       <c r="I30" s="31">
@@ -8775,19 +8977,19 @@
         <v>25.6</v>
       </c>
       <c r="P30" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>460.8</v>
       </c>
       <c r="Q30" s="40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>907.2</v>
       </c>
       <c r="R30" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>921.6</v>
       </c>
       <c r="S30" s="41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>14.399999999999977</v>
       </c>
       <c r="T30" s="31">
@@ -8801,24 +9003,24 @@
     </row>
     <row r="32" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="57"/>
-      <c r="M33" s="55" t="s">
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="72"/>
+      <c r="M33" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="57"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="72"/>
     </row>
     <row r="34" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="32" t="s">
@@ -8927,7 +9129,7 @@
         <v>0.8</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" ref="E36:E40" si="28">C36*D36</f>
+        <f t="shared" ref="E36:E40" si="32">C36*D36</f>
         <v>14.4</v>
       </c>
       <c r="F36" s="10">
@@ -8935,7 +9137,7 @@
         <v>21.6</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" ref="G36:G40" si="29">D36*36</f>
+        <f t="shared" ref="G36:G40" si="33">D36*36</f>
         <v>28.8</v>
       </c>
       <c r="H36" s="36">
@@ -8952,7 +9154,7 @@
         <v>1.8</v>
       </c>
       <c r="P36" s="8">
-        <f t="shared" ref="P36:P40" si="30">N36*O36</f>
+        <f t="shared" ref="P36:P40" si="34">N36*O36</f>
         <v>32.4</v>
       </c>
       <c r="Q36" s="10">
@@ -8960,7 +9162,7 @@
         <v>48.599999999999994</v>
       </c>
       <c r="R36" s="8">
-        <f t="shared" ref="R36:R40" si="31">O36*36</f>
+        <f t="shared" ref="R36:R40" si="35">O36*36</f>
         <v>64.8</v>
       </c>
       <c r="S36" s="36">
@@ -8979,25 +9181,25 @@
         <v>1.6</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>28.8</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" ref="F37:F40" si="32">E37+F36</f>
+        <f t="shared" ref="F37:F40" si="36">E37+F36</f>
         <v>50.400000000000006</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>57.6</v>
       </c>
       <c r="H37" s="35">
-        <f t="shared" ref="H37:H40" si="33">G37-F37</f>
+        <f t="shared" ref="H37:H40" si="37">G37-F37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="I37" s="51" t="s">
+      <c r="I37" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="52"/>
+      <c r="J37" s="67"/>
       <c r="K37" s="42"/>
       <c r="M37" s="34">
         <v>3</v>
@@ -9009,25 +9211,25 @@
         <v>3.6</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>64.8</v>
       </c>
       <c r="Q37" s="10">
-        <f t="shared" ref="Q37:Q40" si="34">P37+Q36</f>
+        <f t="shared" ref="Q37:Q40" si="38">P37+Q36</f>
         <v>113.39999999999999</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>129.6</v>
       </c>
       <c r="S37" s="35">
-        <f t="shared" ref="S37:S40" si="35">R37-Q37</f>
+        <f t="shared" ref="S37:S40" si="39">R37-Q37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="T37" s="51" t="s">
+      <c r="T37" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="U37" s="52"/>
+      <c r="U37" s="67"/>
     </row>
     <row r="38" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="34">
@@ -9040,19 +9242,19 @@
         <v>3.2</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>57.6</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>108</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>115.2</v>
       </c>
       <c r="H38" s="36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>7.2000000000000028</v>
       </c>
       <c r="I38" s="30">
@@ -9077,19 +9279,19 @@
         <v>7.2</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>129.6</v>
       </c>
       <c r="Q38" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>243</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>259.2</v>
       </c>
       <c r="S38" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>16.199999999999989</v>
       </c>
       <c r="T38" s="30">
@@ -9112,25 +9314,25 @@
         <v>6.4</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>115.2</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>223.2</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>230.4</v>
       </c>
       <c r="H39" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="I39" s="49" t="s">
+      <c r="I39" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="50"/>
+      <c r="J39" s="65"/>
       <c r="K39" s="42"/>
       <c r="M39" s="34">
         <v>5</v>
@@ -9142,25 +9344,25 @@
         <v>14.4</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>259.2</v>
       </c>
       <c r="Q39" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>502.2</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>518.4</v>
       </c>
       <c r="S39" s="35">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="T39" s="49" t="s">
+      <c r="T39" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="U39" s="50"/>
+      <c r="U39" s="65"/>
     </row>
     <row r="40" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="37">
@@ -9173,19 +9375,19 @@
         <v>12.8</v>
       </c>
       <c r="E40" s="38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>230.4</v>
       </c>
       <c r="F40" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>453.6</v>
       </c>
       <c r="G40" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>460.8</v>
       </c>
       <c r="H40" s="41">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>7.1999999999999886</v>
       </c>
       <c r="I40" s="31">
@@ -9210,19 +9412,19 @@
         <v>28.8</v>
       </c>
       <c r="P40" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>518.4</v>
       </c>
       <c r="Q40" s="40">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1020.5999999999999</v>
       </c>
       <c r="R40" s="38">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1036.8</v>
       </c>
       <c r="S40" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>16.200000000000045</v>
       </c>
       <c r="T40" s="31">
@@ -9236,24 +9438,24 @@
     </row>
     <row r="42" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="57"/>
-      <c r="M43" s="55" t="s">
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="72"/>
+      <c r="M43" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="57"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="72"/>
     </row>
     <row r="44" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="32" t="s">
@@ -9362,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" ref="E46:E50" si="36">C46*D46</f>
+        <f t="shared" ref="E46:E50" si="40">C46*D46</f>
         <v>18</v>
       </c>
       <c r="F46" s="10">
@@ -9370,7 +9572,7 @@
         <v>27</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" ref="G46:G50" si="37">D46*36</f>
+        <f t="shared" ref="G46:G50" si="41">D46*36</f>
         <v>36</v>
       </c>
       <c r="H46" s="36">
@@ -9387,7 +9589,7 @@
         <v>2</v>
       </c>
       <c r="P46" s="8">
-        <f t="shared" ref="P46:P50" si="38">N46*O46</f>
+        <f t="shared" ref="P46:P50" si="42">N46*O46</f>
         <v>36</v>
       </c>
       <c r="Q46" s="10">
@@ -9395,7 +9597,7 @@
         <v>54</v>
       </c>
       <c r="R46" s="8">
-        <f t="shared" ref="R46:R50" si="39">O46*36</f>
+        <f t="shared" ref="R46:R50" si="43">O46*36</f>
         <v>72</v>
       </c>
       <c r="S46" s="36">
@@ -9414,25 +9616,25 @@
         <v>2</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>36</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" ref="F47:F50" si="40">E47+F46</f>
+        <f t="shared" ref="F47:F50" si="44">E47+F46</f>
         <v>63</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>72</v>
       </c>
       <c r="H47" s="35">
-        <f t="shared" ref="H47:H50" si="41">G47-F47</f>
+        <f t="shared" ref="H47:H50" si="45">G47-F47</f>
         <v>9</v>
       </c>
-      <c r="I47" s="51" t="s">
+      <c r="I47" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="J47" s="52"/>
+      <c r="J47" s="67"/>
       <c r="K47" s="42"/>
       <c r="M47" s="34">
         <v>3</v>
@@ -9444,25 +9646,25 @@
         <v>4</v>
       </c>
       <c r="P47" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>72</v>
       </c>
       <c r="Q47" s="10">
-        <f t="shared" ref="Q47:Q50" si="42">P47+Q46</f>
+        <f t="shared" ref="Q47:Q50" si="46">P47+Q46</f>
         <v>126</v>
       </c>
       <c r="R47" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>144</v>
       </c>
       <c r="S47" s="35">
-        <f t="shared" ref="S47:S50" si="43">R47-Q47</f>
-        <v>18</v>
-      </c>
-      <c r="T47" s="51" t="s">
+        <f t="shared" ref="S47:S50" si="47">R47-Q47</f>
+        <v>18</v>
+      </c>
+      <c r="T47" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="U47" s="52"/>
+      <c r="U47" s="67"/>
     </row>
     <row r="48" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="34">
@@ -9475,19 +9677,19 @@
         <v>4</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>72</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>135</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>144</v>
       </c>
       <c r="H48" s="36">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9</v>
       </c>
       <c r="I48" s="30">
@@ -9512,19 +9714,19 @@
         <v>8</v>
       </c>
       <c r="P48" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>144</v>
       </c>
       <c r="Q48" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>270</v>
       </c>
       <c r="R48" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>288</v>
       </c>
       <c r="S48" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>18</v>
       </c>
       <c r="T48" s="30">
@@ -9547,25 +9749,25 @@
         <v>8</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>144</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>279</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>288</v>
       </c>
       <c r="H49" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9</v>
       </c>
-      <c r="I49" s="49" t="s">
+      <c r="I49" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="50"/>
+      <c r="J49" s="65"/>
       <c r="K49" s="42"/>
       <c r="M49" s="34">
         <v>5</v>
@@ -9577,25 +9779,25 @@
         <v>16</v>
       </c>
       <c r="P49" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>288</v>
       </c>
       <c r="Q49" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>558</v>
       </c>
       <c r="R49" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>576</v>
       </c>
       <c r="S49" s="35">
-        <f t="shared" si="43"/>
-        <v>18</v>
-      </c>
-      <c r="T49" s="49" t="s">
+        <f t="shared" si="47"/>
+        <v>18</v>
+      </c>
+      <c r="T49" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="50"/>
+      <c r="U49" s="65"/>
     </row>
     <row r="50" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="37">
@@ -9608,19 +9810,19 @@
         <v>16</v>
       </c>
       <c r="E50" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>288</v>
       </c>
       <c r="F50" s="40">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>567</v>
       </c>
       <c r="G50" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>576</v>
       </c>
       <c r="H50" s="41">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9</v>
       </c>
       <c r="I50" s="31">
@@ -9645,19 +9847,19 @@
         <v>32</v>
       </c>
       <c r="P50" s="38">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>576</v>
       </c>
       <c r="Q50" s="40">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1134</v>
       </c>
       <c r="R50" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1152</v>
       </c>
       <c r="S50" s="41">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>18</v>
       </c>
       <c r="T50" s="31">
@@ -9671,24 +9873,24 @@
     </row>
     <row r="61" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="57"/>
-      <c r="M62" s="55" t="s">
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="72"/>
+      <c r="M62" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="56"/>
-      <c r="O62" s="56"/>
-      <c r="P62" s="56"/>
-      <c r="Q62" s="56"/>
-      <c r="R62" s="56"/>
-      <c r="S62" s="57"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="72"/>
     </row>
     <row r="63" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="32" t="s">
@@ -9742,23 +9944,23 @@
         <v>18</v>
       </c>
       <c r="D64" s="9">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E64" s="8">
         <f>C64*D64</f>
-        <v>9</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="F64" s="10">
         <f>E64</f>
-        <v>9</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="G64" s="8">
         <f>D64*36</f>
-        <v>18</v>
+        <v>10.799999999999999</v>
       </c>
       <c r="H64" s="35">
         <f>G64-F64</f>
-        <v>9</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="M64" s="34">
         <v>1</v>
@@ -9767,23 +9969,23 @@
         <v>18</v>
       </c>
       <c r="O64" s="9">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="P64" s="8">
         <f>N64*O64</f>
-        <v>54</v>
+        <v>3.6</v>
       </c>
       <c r="Q64" s="10">
         <f>P64</f>
-        <v>54</v>
+        <v>3.6</v>
       </c>
       <c r="R64" s="8">
         <f>O64*36</f>
-        <v>108</v>
+        <v>7.2</v>
       </c>
       <c r="S64" s="35">
         <f>R64-Q64</f>
-        <v>54</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="65" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9794,23 +9996,23 @@
         <v>18</v>
       </c>
       <c r="D65" s="9">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" ref="E65:E69" si="44">C65*D65</f>
-        <v>18</v>
+        <f t="shared" ref="E65:E69" si="48">C65*D65</f>
+        <v>10.799999999999999</v>
       </c>
       <c r="F65" s="10">
         <f>E65+F64</f>
-        <v>27</v>
+        <v>16.2</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" ref="G65:G69" si="45">D65*36</f>
-        <v>36</v>
+        <f t="shared" ref="G65:G69" si="49">D65*36</f>
+        <v>21.599999999999998</v>
       </c>
       <c r="H65" s="36">
         <f>G65-F65</f>
-        <v>9</v>
+        <v>5.3999999999999986</v>
       </c>
       <c r="M65" s="34">
         <v>2</v>
@@ -9819,23 +10021,23 @@
         <v>18</v>
       </c>
       <c r="O65" s="9">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="P65" s="8">
-        <f t="shared" ref="P65:P69" si="46">N65*O65</f>
-        <v>108</v>
+        <f t="shared" ref="P65:P69" si="50">N65*O65</f>
+        <v>7.2</v>
       </c>
       <c r="Q65" s="10">
         <f>P65+Q64</f>
-        <v>162</v>
+        <v>10.8</v>
       </c>
       <c r="R65" s="8">
-        <f t="shared" ref="R65:R69" si="47">O65*36</f>
-        <v>216</v>
+        <f t="shared" ref="R65:R69" si="51">O65*36</f>
+        <v>14.4</v>
       </c>
       <c r="S65" s="36">
         <f>R65-Q65</f>
-        <v>54</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="66" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9846,28 +10048,28 @@
         <v>18</v>
       </c>
       <c r="D66" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
+        <v>18</v>
+      </c>
+      <c r="F66" s="10">
+        <f t="shared" ref="F66:F69" si="52">E66+F65</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G66" s="8">
+        <f t="shared" si="49"/>
         <v>36</v>
       </c>
-      <c r="F66" s="10">
-        <f t="shared" ref="F66:F69" si="48">E66+F65</f>
-        <v>63</v>
-      </c>
-      <c r="G66" s="8">
-        <f t="shared" si="45"/>
-        <v>72</v>
-      </c>
       <c r="H66" s="35">
-        <f t="shared" ref="H66:H69" si="49">G66-F66</f>
-        <v>9</v>
-      </c>
-      <c r="I66" s="51" t="s">
+        <f t="shared" ref="H66:H69" si="53">G66-F66</f>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="I66" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="J66" s="52"/>
+      <c r="J66" s="67"/>
       <c r="K66" s="42"/>
       <c r="M66" s="34">
         <v>3</v>
@@ -9876,23 +10078,23 @@
         <v>18</v>
       </c>
       <c r="O66" s="9">
-        <v>12</v>
+        <v>0.7</v>
       </c>
       <c r="P66" s="8">
-        <f t="shared" si="46"/>
-        <v>216</v>
+        <f t="shared" si="50"/>
+        <v>12.6</v>
       </c>
       <c r="Q66" s="10">
-        <f t="shared" ref="Q66:Q69" si="50">P66+Q65</f>
-        <v>378</v>
+        <f t="shared" ref="Q66:Q69" si="54">P66+Q65</f>
+        <v>23.4</v>
       </c>
       <c r="R66" s="8">
-        <f t="shared" si="47"/>
-        <v>432</v>
+        <f t="shared" si="51"/>
+        <v>25.2</v>
       </c>
       <c r="S66" s="35">
-        <f t="shared" ref="S66:S69" si="51">R66-Q66</f>
-        <v>54</v>
+        <f t="shared" ref="S66:S69" si="55">R66-Q66</f>
+        <v>1.8000000000000007</v>
       </c>
       <c r="T66" s="45" t="s">
         <v>35</v>
@@ -9907,35 +10109,35 @@
         <v>18</v>
       </c>
       <c r="D67" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
+        <v>36</v>
+      </c>
+      <c r="F67" s="10">
+        <f t="shared" si="52"/>
+        <v>70.2</v>
+      </c>
+      <c r="G67" s="8">
+        <f t="shared" si="49"/>
         <v>72</v>
       </c>
-      <c r="F67" s="10">
-        <f t="shared" si="48"/>
-        <v>135</v>
-      </c>
-      <c r="G67" s="8">
-        <f t="shared" si="45"/>
-        <v>144</v>
-      </c>
       <c r="H67" s="36">
-        <f t="shared" si="49"/>
-        <v>9</v>
+        <f t="shared" si="53"/>
+        <v>1.7999999999999972</v>
       </c>
       <c r="I67" s="30">
         <f>F69</f>
-        <v>567</v>
+        <v>286.2</v>
       </c>
       <c r="J67" s="48">
         <f>I67/H69</f>
-        <v>63</v>
+        <v>158.99999999999898</v>
       </c>
       <c r="K67" s="43">
         <f>K59+I67</f>
-        <v>567</v>
+        <v>286.2</v>
       </c>
       <c r="M67" s="34">
         <v>4</v>
@@ -9944,31 +10146,31 @@
         <v>18</v>
       </c>
       <c r="O67" s="9">
-        <v>25</v>
+        <v>1.4</v>
       </c>
       <c r="P67" s="8">
-        <f t="shared" si="46"/>
-        <v>450</v>
+        <f t="shared" si="50"/>
+        <v>25.2</v>
       </c>
       <c r="Q67" s="10">
-        <f t="shared" si="50"/>
-        <v>828</v>
+        <f t="shared" si="54"/>
+        <v>48.599999999999994</v>
       </c>
       <c r="R67" s="8">
-        <f t="shared" si="47"/>
-        <v>900</v>
+        <f t="shared" si="51"/>
+        <v>50.4</v>
       </c>
       <c r="S67" s="36">
-        <f t="shared" si="51"/>
-        <v>72</v>
+        <f t="shared" si="55"/>
+        <v>1.8000000000000043</v>
       </c>
       <c r="T67" s="30">
         <f>Q69</f>
-        <v>3528</v>
+        <v>207</v>
       </c>
       <c r="U67" s="48">
         <f>T67/S69</f>
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9979,28 +10181,28 @@
         <v>18</v>
       </c>
       <c r="D68" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E68" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
+        <v>72</v>
+      </c>
+      <c r="F68" s="10">
+        <f t="shared" si="52"/>
+        <v>142.19999999999999</v>
+      </c>
+      <c r="G68" s="8">
+        <f t="shared" si="49"/>
         <v>144</v>
       </c>
-      <c r="F68" s="10">
-        <f t="shared" si="48"/>
-        <v>279</v>
-      </c>
-      <c r="G68" s="8">
-        <f t="shared" si="45"/>
-        <v>288</v>
-      </c>
       <c r="H68" s="35">
-        <f t="shared" si="49"/>
-        <v>9</v>
-      </c>
-      <c r="I68" s="49" t="s">
+        <f t="shared" si="53"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="I68" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="J68" s="50"/>
+      <c r="J68" s="65"/>
       <c r="K68" s="42"/>
       <c r="M68" s="34">
         <v>5</v>
@@ -10009,23 +10211,23 @@
         <v>18</v>
       </c>
       <c r="O68" s="9">
-        <v>50</v>
+        <v>2.8</v>
       </c>
       <c r="P68" s="8">
-        <f t="shared" si="46"/>
-        <v>900</v>
+        <f t="shared" si="50"/>
+        <v>50.4</v>
       </c>
       <c r="Q68" s="10">
-        <f t="shared" si="50"/>
-        <v>1728</v>
+        <f t="shared" si="54"/>
+        <v>99</v>
       </c>
       <c r="R68" s="8">
-        <f t="shared" si="47"/>
-        <v>1800</v>
+        <f t="shared" si="51"/>
+        <v>100.8</v>
       </c>
       <c r="S68" s="35">
-        <f t="shared" si="51"/>
-        <v>72</v>
+        <f t="shared" si="55"/>
+        <v>1.7999999999999972</v>
       </c>
       <c r="T68" s="47" t="s">
         <v>36</v>
@@ -10040,35 +10242,35 @@
         <v>18</v>
       </c>
       <c r="D69" s="39">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E69" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
+        <v>144</v>
+      </c>
+      <c r="F69" s="40">
+        <f t="shared" si="52"/>
+        <v>286.2</v>
+      </c>
+      <c r="G69" s="38">
+        <f t="shared" si="49"/>
         <v>288</v>
       </c>
-      <c r="F69" s="40">
-        <f t="shared" si="48"/>
-        <v>567</v>
-      </c>
-      <c r="G69" s="38">
-        <f t="shared" si="45"/>
-        <v>576</v>
-      </c>
       <c r="H69" s="41">
-        <f t="shared" si="49"/>
-        <v>9</v>
+        <f t="shared" si="53"/>
+        <v>1.8000000000000114</v>
       </c>
       <c r="I69" s="31">
         <f>F69-F59</f>
-        <v>567</v>
+        <v>286.2</v>
       </c>
       <c r="J69" s="29">
         <f>I69/H69</f>
-        <v>63</v>
+        <v>158.99999999999898</v>
       </c>
       <c r="K69" s="43">
         <f>I69+K67</f>
-        <v>1134</v>
+        <v>572.4</v>
       </c>
       <c r="M69" s="37">
         <v>6</v>
@@ -10077,58 +10279,326 @@
         <v>18</v>
       </c>
       <c r="O69" s="39">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="P69" s="38">
-        <f t="shared" si="46"/>
-        <v>1800</v>
+        <f t="shared" si="50"/>
+        <v>108</v>
       </c>
       <c r="Q69" s="40">
-        <f t="shared" si="50"/>
-        <v>3528</v>
+        <f t="shared" si="54"/>
+        <v>207</v>
       </c>
       <c r="R69" s="38">
-        <f t="shared" si="47"/>
-        <v>3600</v>
+        <f t="shared" si="51"/>
+        <v>216</v>
       </c>
       <c r="S69" s="41">
-        <f t="shared" si="51"/>
-        <v>72</v>
+        <f t="shared" si="55"/>
+        <v>9</v>
       </c>
       <c r="T69" s="31">
         <f>Q69-Q55</f>
-        <v>3528</v>
+        <v>207</v>
       </c>
       <c r="U69" s="29">
         <f>T69/S69</f>
-        <v>49</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M70" s="34">
+        <v>7</v>
+      </c>
+      <c r="N70" s="8">
+        <v>18</v>
+      </c>
+      <c r="O70" s="9">
+        <v>12</v>
+      </c>
+      <c r="P70" s="8">
+        <f t="shared" ref="P70" si="56">N70*O70</f>
+        <v>216</v>
+      </c>
+      <c r="Q70" s="10">
+        <f t="shared" ref="Q70" si="57">P70+Q69</f>
+        <v>423</v>
+      </c>
+      <c r="R70" s="8">
+        <f t="shared" ref="R70" si="58">O70*36</f>
+        <v>432</v>
+      </c>
+      <c r="S70" s="35">
+        <f t="shared" ref="S70" si="59">R70-Q70</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M73" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="N73" s="71"/>
+      <c r="O73" s="71"/>
+      <c r="P73" s="71"/>
+      <c r="Q73" s="71"/>
+      <c r="R73" s="71"/>
+      <c r="S73" s="72"/>
+    </row>
+    <row r="74" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M74" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N74" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P74" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q74" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="R74" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="S74" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M75" s="34">
+        <v>1</v>
+      </c>
+      <c r="N75" s="8">
+        <v>18</v>
+      </c>
+      <c r="O75" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="P75" s="8">
+        <f>N75*O75</f>
+        <v>1.8</v>
+      </c>
+      <c r="Q75" s="10">
+        <f>P75</f>
+        <v>1.8</v>
+      </c>
+      <c r="R75" s="8">
+        <f>O75*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="S75" s="35">
+        <f>R75-Q75</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M76" s="34">
+        <v>2</v>
+      </c>
+      <c r="N76" s="8">
+        <v>18</v>
+      </c>
+      <c r="O76" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="P76" s="8">
+        <f t="shared" ref="P76:P81" si="60">N76*O76</f>
+        <v>3.6</v>
+      </c>
+      <c r="Q76" s="10">
+        <f>P76+Q75</f>
+        <v>5.4</v>
+      </c>
+      <c r="R76" s="8">
+        <f t="shared" ref="R76:R81" si="61">O76*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="S76" s="36">
+        <f>R76-Q76</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M77" s="34">
+        <v>3</v>
+      </c>
+      <c r="N77" s="8">
+        <v>18</v>
+      </c>
+      <c r="O77" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="P77" s="8">
+        <f t="shared" si="60"/>
+        <v>9</v>
+      </c>
+      <c r="Q77" s="10">
+        <f t="shared" ref="Q77:Q81" si="62">P77+Q76</f>
+        <v>14.4</v>
+      </c>
+      <c r="R77" s="8">
+        <f t="shared" si="61"/>
+        <v>18</v>
+      </c>
+      <c r="S77" s="35">
+        <f t="shared" ref="S77:S81" si="63">R77-Q77</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="T77" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="U77" s="62"/>
+    </row>
+    <row r="78" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M78" s="34">
+        <v>4</v>
+      </c>
+      <c r="N78" s="8">
+        <v>18</v>
+      </c>
+      <c r="O78" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="P78" s="8">
+        <f t="shared" si="60"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="Q78" s="10">
+        <f t="shared" si="62"/>
+        <v>36</v>
+      </c>
+      <c r="R78" s="8">
+        <f t="shared" si="61"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="S78" s="36">
+        <f t="shared" si="63"/>
+        <v>7.1999999999999957</v>
+      </c>
+      <c r="T78" s="30">
+        <f>Q80</f>
+        <v>169.2</v>
+      </c>
+      <c r="U78" s="60">
+        <f>T78/S80</f>
+        <v>15.666666666666648</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M79" s="34">
+        <v>5</v>
+      </c>
+      <c r="N79" s="8">
+        <v>18</v>
+      </c>
+      <c r="O79" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="P79" s="8">
+        <f t="shared" si="60"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="Q79" s="10">
+        <f t="shared" si="62"/>
+        <v>79.199999999999989</v>
+      </c>
+      <c r="R79" s="8">
+        <f t="shared" si="61"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="S79" s="35">
+        <f t="shared" si="63"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="T79" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="U79" s="60"/>
+    </row>
+    <row r="80" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M80" s="37">
+        <v>6</v>
+      </c>
+      <c r="N80" s="38">
+        <v>18</v>
+      </c>
+      <c r="O80" s="39">
+        <v>5</v>
+      </c>
+      <c r="P80" s="38">
+        <f t="shared" si="60"/>
+        <v>90</v>
+      </c>
+      <c r="Q80" s="40">
+        <f t="shared" si="62"/>
+        <v>169.2</v>
+      </c>
+      <c r="R80" s="38">
+        <f t="shared" si="61"/>
+        <v>180</v>
+      </c>
+      <c r="S80" s="41">
+        <f t="shared" si="63"/>
+        <v>10.800000000000011</v>
+      </c>
+      <c r="T80" s="31">
+        <f>Q80-Q66</f>
+        <v>145.79999999999998</v>
+      </c>
+      <c r="U80" s="29">
+        <f>T80/S80</f>
+        <v>13.499999999999984</v>
+      </c>
+    </row>
+    <row r="81" spans="13:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M81" s="34">
+        <v>7</v>
+      </c>
+      <c r="N81" s="8">
+        <v>18</v>
+      </c>
+      <c r="O81" s="9">
+        <v>10</v>
+      </c>
+      <c r="P81" s="8">
+        <f t="shared" si="60"/>
+        <v>180</v>
+      </c>
+      <c r="Q81" s="10">
+        <f t="shared" si="62"/>
+        <v>349.2</v>
+      </c>
+      <c r="R81" s="8">
+        <f t="shared" si="61"/>
+        <v>360</v>
+      </c>
+      <c r="S81" s="35">
+        <f t="shared" si="63"/>
+        <v>10.800000000000011</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="M62:S62"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="I49:J49"/>
+  <mergeCells count="36">
+    <mergeCell ref="T7:U7"/>
     <mergeCell ref="T49:U49"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="M13:S13"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="T27:U27"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="M43:S43"/>
-    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M23:S23"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="I49:J49"/>
     <mergeCell ref="T47:U47"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="M33:S33"/>
@@ -10136,14 +10606,22 @@
     <mergeCell ref="T37:U37"/>
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="T39:U39"/>
+    <mergeCell ref="M73:S73"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="M43:S43"/>
+    <mergeCell ref="I47:J47"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="M3:S3"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="M62:S62"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11811,7 +12289,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65">
+      <c r="A2" s="80">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -11852,7 +12330,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -11891,7 +12369,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -11936,4 +12414,373 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750A3CA0-3C46-43C9-8837-0DCBE73B5F4D}">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="7" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="55"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="55"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="55"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="55"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="55"/>
+    </row>
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="55"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="55"/>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="55"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="55"/>
+    </row>
+    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="55"/>
+    </row>
+    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="55"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="55"/>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="55"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="55"/>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="55"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="55"/>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="55"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="55"/>
+    </row>
+    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="55"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="55"/>
+    </row>
+    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="55"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="55"/>
+    </row>
+    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="55"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="55"/>
+    </row>
+    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="55"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="54"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="55"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="55"/>
+    </row>
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="55"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="55"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="55"/>
+    </row>
+    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="55"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="55"/>
+    </row>
+    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="54"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="55"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="55"/>
+    </row>
+    <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="55"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="55"/>
+    </row>
+    <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="55"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="55"/>
+    </row>
+    <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="55"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="55"/>
+    </row>
+    <row r="27" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="55"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="55"/>
+    </row>
+    <row r="28" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="55"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="55"/>
+    </row>
+    <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="55"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="55"/>
+    </row>
+    <row r="30" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="55"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="55"/>
+    </row>
+    <row r="31" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="55"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="55"/>
+    </row>
+    <row r="32" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="55"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="55"/>
+    </row>
+    <row r="33" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="56"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="58"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/temp/iter - copia.xlsx
+++ b/temp/iter - copia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9BB817-AE90-4CEB-BBC1-B61EB3AA4BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20FE923-BB39-40EE-ACFC-B2173779AA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="5840" windowWidth="28800" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Formulario_TEST!$A$1:$M$27</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="39">
   <si>
     <t>Rep</t>
   </si>
@@ -454,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -586,22 +586,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -613,7 +601,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -926,34 +929,34 @@
       <selection activeCell="BG20" sqref="BG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="8" width="16" hidden="1" customWidth="1"/>
     <col min="9" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
+    <row r="2" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="K2" s="58" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-    </row>
-    <row r="3" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+    </row>
+    <row r="3" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -996,44 +999,44 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="58" t="s">
+      <c r="T3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AB3" s="58" t="s">
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AB3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AM3" s="55" t="s">
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AM3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="57"/>
-      <c r="AW3" s="55" t="s">
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="53"/>
+      <c r="AW3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="57"/>
-    </row>
-    <row r="4" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="52"/>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52"/>
+      <c r="BC3" s="53"/>
+    </row>
+    <row r="4" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -1170,7 +1173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -1323,7 +1326,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -1476,7 +1479,7 @@
         <v>10.799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -1603,10 +1606,10 @@
         <f t="shared" ref="AS7:AS10" si="21">AR7-AQ7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AT7" s="53" t="s">
+      <c r="AT7" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="AU7" s="54"/>
+      <c r="AU7" s="59"/>
       <c r="AW7" s="34">
         <v>3</v>
       </c>
@@ -1632,12 +1635,12 @@
         <f t="shared" ref="BC7:BC10" si="23">BB7-BA7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="BD7" s="51" t="s">
+      <c r="BD7" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="BE7" s="52"/>
-    </row>
-    <row r="8" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BE7" s="55"/>
+    </row>
+    <row r="8" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -1806,7 +1809,7 @@
         <v>62.999999999999588</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>6</v>
@@ -1933,10 +1936,10 @@
         <f t="shared" si="21"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AT9" s="49" t="s">
+      <c r="AT9" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AU9" s="50"/>
+      <c r="AU9" s="57"/>
       <c r="AW9" s="34">
         <v>5</v>
       </c>
@@ -1962,12 +1965,12 @@
         <f t="shared" si="23"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="BD9" s="49" t="s">
+      <c r="BD9" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="BE9" s="50"/>
-    </row>
-    <row r="10" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE9" s="57"/>
+    </row>
+    <row r="10" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T10" s="8">
         <v>6</v>
       </c>
@@ -2085,16 +2088,16 @@
         <v>10.499999999999922</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="58" t="s">
+    <row r="11" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -2146,16 +2149,16 @@
         <v>1.7999999999999829</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58" t="s">
+    <row r="12" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>1.8000000000000114</v>
       </c>
     </row>
-    <row r="13" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -2275,26 +2278,26 @@
         <f>P13-O13</f>
         <v>1.8</v>
       </c>
-      <c r="AM13" s="55" t="s">
+      <c r="AM13" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="56"/>
-      <c r="AP13" s="56"/>
-      <c r="AQ13" s="56"/>
-      <c r="AR13" s="56"/>
-      <c r="AS13" s="57"/>
-      <c r="AW13" s="55" t="s">
+      <c r="AN13" s="52"/>
+      <c r="AO13" s="52"/>
+      <c r="AP13" s="52"/>
+      <c r="AQ13" s="52"/>
+      <c r="AR13" s="52"/>
+      <c r="AS13" s="53"/>
+      <c r="AW13" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AX13" s="56"/>
-      <c r="AY13" s="56"/>
-      <c r="AZ13" s="56"/>
-      <c r="BA13" s="56"/>
-      <c r="BB13" s="56"/>
-      <c r="BC13" s="57"/>
-    </row>
-    <row r="14" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX13" s="52"/>
+      <c r="AY13" s="52"/>
+      <c r="AZ13" s="52"/>
+      <c r="BA13" s="52"/>
+      <c r="BB13" s="52"/>
+      <c r="BC13" s="53"/>
+    </row>
+    <row r="14" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>1</v>
@@ -2389,7 +2392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>2</v>
@@ -2492,7 +2495,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="16" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>3</v>
@@ -2547,15 +2550,15 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="58" t="s">
+      <c r="T16" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
       <c r="AM16" s="34">
         <v>2</v>
       </c>
@@ -2607,7 +2610,7 @@
         <v>12.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>4</v>
@@ -2683,15 +2686,15 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="58" t="s">
+      <c r="AD17" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="50"/>
       <c r="AM17" s="34">
         <v>3</v>
       </c>
@@ -2717,10 +2720,10 @@
         <f t="shared" ref="AS17:AS20" si="41">AR17-AQ17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="AT17" s="51" t="s">
+      <c r="AT17" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AU17" s="52"/>
+      <c r="AU17" s="55"/>
       <c r="AW17" s="34">
         <v>3</v>
       </c>
@@ -2746,12 +2749,12 @@
         <f t="shared" ref="BC17:BC20" si="43">BB17-BA17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="BD17" s="51" t="s">
+      <c r="BD17" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="BE17" s="52"/>
-    </row>
-    <row r="18" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BE17" s="55"/>
+    </row>
+    <row r="18" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>5</v>
@@ -2922,7 +2925,7 @@
         <v>62.999999999999879</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>6</v>
@@ -3030,10 +3033,10 @@
         <f t="shared" si="41"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="AT19" s="49" t="s">
+      <c r="AT19" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AU19" s="50"/>
+      <c r="AU19" s="57"/>
       <c r="AW19" s="34">
         <v>5</v>
       </c>
@@ -3059,12 +3062,12 @@
         <f t="shared" si="43"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="BD19" s="49" t="s">
+      <c r="BD19" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="BE19" s="50"/>
-    </row>
-    <row r="20" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE19" s="57"/>
+    </row>
+    <row r="20" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="S20">
         <v>25</v>
       </c>
@@ -3188,16 +3191,16 @@
         <v>8.9999999999999911</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K21" s="58" t="s">
+    <row r="21" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -3255,16 +3258,16 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="58" t="s">
+    <row r="22" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -3340,7 +3343,7 @@
         <v>3.6000000000000014</v>
       </c>
     </row>
-    <row r="23" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -3440,26 +3443,26 @@
         <f t="shared" si="55"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="AM23" s="55" t="s">
+      <c r="AM23" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AN23" s="56"/>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="56"/>
-      <c r="AQ23" s="56"/>
-      <c r="AR23" s="56"/>
-      <c r="AS23" s="57"/>
-      <c r="AW23" s="55" t="s">
+      <c r="AN23" s="52"/>
+      <c r="AO23" s="52"/>
+      <c r="AP23" s="52"/>
+      <c r="AQ23" s="52"/>
+      <c r="AR23" s="52"/>
+      <c r="AS23" s="53"/>
+      <c r="AW23" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="56"/>
-      <c r="BB23" s="56"/>
-      <c r="BC23" s="57"/>
-    </row>
-    <row r="24" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX23" s="52"/>
+      <c r="AY23" s="52"/>
+      <c r="AZ23" s="52"/>
+      <c r="BA23" s="52"/>
+      <c r="BB23" s="52"/>
+      <c r="BC23" s="53"/>
+    </row>
+    <row r="24" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>1</v>
@@ -3604,7 +3607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>2</v>
@@ -3757,7 +3760,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>3</v>
@@ -3894,7 +3897,7 @@
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>4</v>
@@ -3971,10 +3974,10 @@
         <f t="shared" ref="AS27:AS30" si="73">AR27-AQ27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="AT27" s="51" t="s">
+      <c r="AT27" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AU27" s="52"/>
+      <c r="AU27" s="55"/>
       <c r="AW27" s="34">
         <v>3</v>
       </c>
@@ -4000,12 +4003,12 @@
         <f t="shared" ref="BC27:BC30" si="75">BB27-BA27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="BD27" s="51" t="s">
+      <c r="BD27" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="BE27" s="52"/>
-    </row>
-    <row r="28" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BE27" s="55"/>
+    </row>
+    <row r="28" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>5</v>
@@ -4146,7 +4149,7 @@
         <v>63.000000000000099</v>
       </c>
     </row>
-    <row r="29" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>6</v>
@@ -4195,15 +4198,15 @@
         <f t="shared" ref="Y29:Y38" si="81">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="58" t="s">
+      <c r="AD29" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="58"/>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="58"/>
-      <c r="AH29" s="58"/>
-      <c r="AI29" s="58"/>
-      <c r="AJ29" s="58"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
+      <c r="AH29" s="50"/>
+      <c r="AI29" s="50"/>
+      <c r="AJ29" s="50"/>
       <c r="AM29" s="34">
         <v>5</v>
       </c>
@@ -4229,10 +4232,10 @@
         <f t="shared" si="73"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AT29" s="49" t="s">
+      <c r="AT29" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AU29" s="50"/>
+      <c r="AU29" s="57"/>
       <c r="AW29" s="34">
         <v>5</v>
       </c>
@@ -4258,12 +4261,12 @@
         <f t="shared" si="75"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="BD29" s="49" t="s">
+      <c r="BD29" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="BE29" s="50"/>
-    </row>
-    <row r="30" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE29" s="57"/>
+    </row>
+    <row r="30" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T30" s="18" t="s">
         <v>25</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>7.8750000000000187</v>
       </c>
     </row>
-    <row r="31" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T31" s="18" t="s">
         <v>24</v>
       </c>
@@ -4423,25 +4426,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="58" t="s">
+    <row r="32" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="K32" s="58" t="s">
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="K32" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -4580,26 +4583,26 @@
         <f t="shared" ref="AJ33:AJ38" si="86">AI33-AH33</f>
         <v>9</v>
       </c>
-      <c r="AM33" s="55" t="s">
+      <c r="AM33" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="56"/>
-      <c r="AQ33" s="56"/>
-      <c r="AR33" s="56"/>
-      <c r="AS33" s="57"/>
-      <c r="AW33" s="55" t="s">
+      <c r="AN33" s="52"/>
+      <c r="AO33" s="52"/>
+      <c r="AP33" s="52"/>
+      <c r="AQ33" s="52"/>
+      <c r="AR33" s="52"/>
+      <c r="AS33" s="53"/>
+      <c r="AW33" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AX33" s="56"/>
-      <c r="AY33" s="56"/>
-      <c r="AZ33" s="56"/>
-      <c r="BA33" s="56"/>
-      <c r="BB33" s="56"/>
-      <c r="BC33" s="57"/>
-    </row>
-    <row r="34" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX33" s="52"/>
+      <c r="AY33" s="52"/>
+      <c r="AZ33" s="52"/>
+      <c r="BA33" s="52"/>
+      <c r="BB33" s="52"/>
+      <c r="BC33" s="53"/>
+    </row>
+    <row r="34" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="8">
         <v>1</v>
@@ -4740,7 +4743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>2</v>
@@ -4889,7 +4892,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="36" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
         <v>3</v>
@@ -5038,7 +5041,7 @@
         <v>16.200000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>4</v>
@@ -5161,10 +5164,10 @@
         <f t="shared" ref="AS37:AS40" si="100">AR37-AQ37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="AT37" s="51" t="s">
+      <c r="AT37" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AU37" s="52"/>
+      <c r="AU37" s="55"/>
       <c r="AW37" s="34">
         <v>3</v>
       </c>
@@ -5190,12 +5193,12 @@
         <f t="shared" ref="BC37:BC40" si="102">BB37-BA37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="BD37" s="51" t="s">
+      <c r="BD37" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="BE37" s="52"/>
-    </row>
-    <row r="38" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BE37" s="55"/>
+    </row>
+    <row r="38" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="8">
         <v>5</v>
@@ -5360,7 +5363,7 @@
         <v>62.999999999999815</v>
       </c>
     </row>
-    <row r="39" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>6</v>
@@ -5449,10 +5452,10 @@
         <f t="shared" si="100"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AT39" s="49" t="s">
+      <c r="AT39" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AU39" s="50"/>
+      <c r="AU39" s="57"/>
       <c r="AW39" s="34">
         <v>5</v>
       </c>
@@ -5478,12 +5481,12 @@
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD39" s="49" t="s">
+      <c r="BD39" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="BE39" s="50"/>
-    </row>
-    <row r="40" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE39" s="57"/>
+    </row>
+    <row r="40" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K40" s="8">
         <v>7</v>
       </c>
@@ -5580,7 +5583,7 @@
         <v>6.9999999999999716</v>
       </c>
     </row>
-    <row r="41" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K41" s="8">
         <v>8</v>
       </c>
@@ -5611,16 +5614,16 @@
         <v>1121.4000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="58" t="s">
+    <row r="42" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -5647,7 +5650,7 @@
         <v>1.8000000000000682</v>
       </c>
     </row>
-    <row r="43" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -5669,26 +5672,26 @@
       <c r="H43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM43" s="55" t="s">
+      <c r="AM43" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="56"/>
-      <c r="AO43" s="56"/>
-      <c r="AP43" s="56"/>
-      <c r="AQ43" s="56"/>
-      <c r="AR43" s="56"/>
-      <c r="AS43" s="57"/>
-      <c r="AW43" s="55" t="s">
+      <c r="AN43" s="52"/>
+      <c r="AO43" s="52"/>
+      <c r="AP43" s="52"/>
+      <c r="AQ43" s="52"/>
+      <c r="AR43" s="52"/>
+      <c r="AS43" s="53"/>
+      <c r="AW43" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AX43" s="56"/>
-      <c r="AY43" s="56"/>
-      <c r="AZ43" s="56"/>
-      <c r="BA43" s="56"/>
-      <c r="BB43" s="56"/>
-      <c r="BC43" s="57"/>
-    </row>
-    <row r="44" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX43" s="52"/>
+      <c r="AY43" s="52"/>
+      <c r="AZ43" s="52"/>
+      <c r="BA43" s="52"/>
+      <c r="BB43" s="52"/>
+      <c r="BC43" s="53"/>
+    </row>
+    <row r="44" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="8">
         <v>1</v>
@@ -5758,7 +5761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>2</v>
@@ -5836,7 +5839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="7"/>
       <c r="B46" s="8">
         <v>3</v>
@@ -5914,7 +5917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>4</v>
@@ -5941,15 +5944,15 @@
         <f t="shared" si="114"/>
         <v>126</v>
       </c>
-      <c r="T47" s="58" t="s">
+      <c r="T47" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="58"/>
-      <c r="V47" s="58"/>
-      <c r="W47" s="58"/>
-      <c r="X47" s="58"/>
-      <c r="Y47" s="58"/>
-      <c r="Z47" s="58"/>
+      <c r="U47" s="50"/>
+      <c r="V47" s="50"/>
+      <c r="W47" s="50"/>
+      <c r="X47" s="50"/>
+      <c r="Y47" s="50"/>
+      <c r="Z47" s="50"/>
       <c r="AM47" s="34">
         <v>3</v>
       </c>
@@ -5975,10 +5978,10 @@
         <f t="shared" ref="AS47:AS50" si="120">AR47-AQ47</f>
         <v>9</v>
       </c>
-      <c r="AT47" s="51" t="s">
+      <c r="AT47" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AU47" s="52"/>
+      <c r="AU47" s="55"/>
       <c r="AW47" s="34">
         <v>3</v>
       </c>
@@ -6004,12 +6007,12 @@
         <f t="shared" ref="BC47:BC50" si="122">BB47-BA47</f>
         <v>18</v>
       </c>
-      <c r="BD47" s="51" t="s">
+      <c r="BD47" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="BE47" s="52"/>
-    </row>
-    <row r="48" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BE47" s="55"/>
+    </row>
+    <row r="48" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="8">
         <v>5</v>
@@ -6124,7 +6127,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
       <c r="B49" s="8">
         <v>6</v>
@@ -6201,10 +6204,10 @@
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT49" s="49" t="s">
+      <c r="AT49" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AU49" s="50"/>
+      <c r="AU49" s="57"/>
       <c r="AW49" s="34">
         <v>5</v>
       </c>
@@ -6230,12 +6233,12 @@
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD49" s="49" t="s">
+      <c r="BD49" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="BE49" s="50"/>
-    </row>
-    <row r="50" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE49" s="57"/>
+    </row>
+    <row r="50" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T50" s="8">
         <v>2</v>
       </c>
@@ -6328,7 +6331,7 @@
         <v>6.3000000000000052</v>
       </c>
     </row>
-    <row r="51" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T51" s="8">
         <v>3</v>
       </c>
@@ -6355,16 +6358,16 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="58" t="s">
+    <row r="52" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -6391,7 +6394,7 @@
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="53" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>0</v>
       </c>
@@ -6439,7 +6442,7 @@
         <v>14.400000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7"/>
       <c r="B54" s="8">
         <v>1</v>
@@ -6492,7 +6495,7 @@
         <v>14.400000000000034</v>
       </c>
     </row>
-    <row r="55" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7"/>
       <c r="B55" s="8">
         <v>2</v>
@@ -6545,7 +6548,7 @@
         <v>21.600000000000023</v>
       </c>
     </row>
-    <row r="56" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7"/>
       <c r="B56" s="8">
         <v>3</v>
@@ -6598,7 +6601,7 @@
         <v>21.599999999999909</v>
       </c>
     </row>
-    <row r="57" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7"/>
       <c r="B57" s="8">
         <v>4</v>
@@ -6626,7 +6629,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
       <c r="B58" s="8">
         <v>5</v>
@@ -6654,7 +6657,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="59" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7"/>
       <c r="B59" s="8">
         <v>6</v>
@@ -6682,18 +6685,18 @@
         <v>720</v>
       </c>
     </row>
-    <row r="62" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="58" t="s">
+    <row r="62" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-    </row>
-    <row r="63" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+    </row>
+    <row r="63" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
         <v>0</v>
       </c>
@@ -6716,7 +6719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7"/>
       <c r="B64" s="8">
         <v>1</v>
@@ -6744,7 +6747,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7"/>
       <c r="B65" s="8">
         <v>2</v>
@@ -6772,7 +6775,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7"/>
       <c r="B66" s="8">
         <v>3</v>
@@ -6800,7 +6803,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7"/>
       <c r="B67" s="8">
         <v>4</v>
@@ -6828,7 +6831,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7"/>
       <c r="B68" s="8">
         <v>5</v>
@@ -6856,7 +6859,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7"/>
       <c r="B69" s="8">
         <v>6</v>
@@ -6886,39 +6889,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T47:Z47"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AM43:AS43"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="AW13:BC13"/>
-    <mergeCell ref="AW23:BC23"/>
-    <mergeCell ref="AW33:BC33"/>
-    <mergeCell ref="AW43:BC43"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AT49:AU49"/>
     <mergeCell ref="BD49:BE49"/>
     <mergeCell ref="BD39:BE39"/>
@@ -6933,6 +6903,39 @@
     <mergeCell ref="AT29:AU29"/>
     <mergeCell ref="AT39:AU39"/>
     <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="AW13:BC13"/>
+    <mergeCell ref="AW23:BC23"/>
+    <mergeCell ref="AW33:BC33"/>
+    <mergeCell ref="AW43:BC43"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T47:Z47"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AM43:AS43"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" orientation="portrait" r:id="rId1"/>
@@ -6950,77 +6953,77 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2" max="13" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" style="1" customWidth="1"/>
+    <col min="2" max="13" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-    </row>
-    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-    </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+    </row>
+    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+    </row>
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="60" t="s">
+      <c r="D3" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-    </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+    </row>
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -7040,7 +7043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -7057,7 +7060,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -7074,7 +7077,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -7091,7 +7094,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -7108,7 +7111,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -7125,7 +7128,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -7142,7 +7145,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -7159,7 +7162,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -7176,7 +7179,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -7193,7 +7196,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -7210,7 +7213,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -7227,7 +7230,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -7244,7 +7247,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -7261,7 +7264,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -7278,7 +7281,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -7295,7 +7298,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -7312,7 +7315,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -7329,7 +7332,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -7346,7 +7349,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -7363,7 +7366,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -7380,38 +7383,38 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+    <row r="25" spans="1:13" ht="9.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-    </row>
-    <row r="27" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+    </row>
+    <row r="27" spans="1:13" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7438,45 +7441,45 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:U69"/>
+  <dimension ref="B1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="C10:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="63" t="s">
+    <row r="1" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="63"/>
+      <c r="J1" s="64"/>
       <c r="K1">
         <v>113.4</v>
       </c>
     </row>
-    <row r="2" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+    <row r="2" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
-      <c r="M3" s="55" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="M3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="57"/>
-    </row>
-    <row r="4" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="53"/>
+    </row>
+    <row r="4" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
@@ -7520,7 +7523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="34">
         <v>1</v>
       </c>
@@ -7572,7 +7575,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="34">
         <v>2</v>
       </c>
@@ -7624,7 +7627,7 @@
         <v>10.799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="34">
         <v>3</v>
       </c>
@@ -7650,10 +7653,10 @@
         <f t="shared" ref="H7:H10" si="5">G7-F7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="54"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="42"/>
       <c r="M7" s="34">
         <v>3</v>
@@ -7680,12 +7683,12 @@
         <f t="shared" ref="S7:S10" si="7">R7-Q7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="T7" s="51" t="s">
+      <c r="T7" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="52"/>
-    </row>
-    <row r="8" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="55"/>
+    </row>
+    <row r="8" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="34">
         <v>4</v>
       </c>
@@ -7757,7 +7760,7 @@
         <v>62.999999999999588</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="34">
         <v>5</v>
       </c>
@@ -7783,10 +7786,10 @@
         <f t="shared" si="5"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="57"/>
       <c r="K9" s="42"/>
       <c r="M9" s="34">
         <v>5</v>
@@ -7813,12 +7816,12 @@
         <f t="shared" si="7"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="T9" s="49" t="s">
+      <c r="T9" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="50"/>
-    </row>
-    <row r="10" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U9" s="57"/>
+    </row>
+    <row r="10" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="37">
         <v>6</v>
       </c>
@@ -7890,7 +7893,7 @@
         <v>10.499999999999922</v>
       </c>
     </row>
-    <row r="11" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="34">
         <v>7</v>
       </c>
@@ -7920,37 +7923,37 @@
         <v>-168.9</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K12" s="19">
         <f>SUM(K10:K11)</f>
         <v>171.30000000000004</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="55" t="s">
+    <row r="13" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
       <c r="K13">
         <f>K12/1.8</f>
         <v>95.166666666666686</v>
       </c>
-      <c r="M13" s="55" t="s">
+      <c r="M13" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="57"/>
-    </row>
-    <row r="14" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="53"/>
+    </row>
+    <row r="14" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="32" t="s">
         <v>0</v>
       </c>
@@ -7994,7 +7997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="34">
         <v>1</v>
       </c>
@@ -8046,7 +8049,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="34">
         <v>2</v>
       </c>
@@ -8098,7 +8101,7 @@
         <v>12.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="34">
         <v>3</v>
       </c>
@@ -8124,10 +8127,10 @@
         <f t="shared" ref="H17:H20" si="17">G17-F17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="52"/>
+      <c r="J17" s="55"/>
       <c r="K17" s="42"/>
       <c r="M17" s="34">
         <v>3</v>
@@ -8154,12 +8157,12 @@
         <f t="shared" ref="S17:S20" si="19">R17-Q17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="T17" s="51" t="s">
+      <c r="T17" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="52"/>
-    </row>
-    <row r="18" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="55"/>
+    </row>
+    <row r="18" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="34">
         <v>4</v>
       </c>
@@ -8231,7 +8234,7 @@
         <v>62.999999999999879</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="34">
         <v>5</v>
       </c>
@@ -8257,10 +8260,10 @@
         <f t="shared" si="17"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="I19" s="49" t="s">
+      <c r="I19" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="50"/>
+      <c r="J19" s="57"/>
       <c r="K19" s="42"/>
       <c r="M19" s="34">
         <v>5</v>
@@ -8287,12 +8290,12 @@
         <f t="shared" si="19"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="T19" s="49" t="s">
+      <c r="T19" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="U19" s="50"/>
-    </row>
-    <row r="20" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="57"/>
+    </row>
+    <row r="20" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="37">
         <v>6</v>
       </c>
@@ -8364,28 +8367,28 @@
         <v>8.9999999999999911</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="55" t="s">
+    <row r="22" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
-      <c r="M23" s="55" t="s">
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="M23" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="57"/>
-    </row>
-    <row r="24" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="53"/>
+    </row>
+    <row r="24" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="32" t="s">
         <v>0</v>
       </c>
@@ -8429,7 +8432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="34">
         <v>1</v>
       </c>
@@ -8481,7 +8484,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="34">
         <v>2</v>
       </c>
@@ -8533,7 +8536,7 @@
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="34">
         <v>3</v>
       </c>
@@ -8559,10 +8562,10 @@
         <f t="shared" ref="H27:H30" si="25">G27-F27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="52"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="42"/>
       <c r="M27" s="34">
         <v>3</v>
@@ -8589,12 +8592,12 @@
         <f t="shared" ref="S27:S30" si="27">R27-Q27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="T27" s="51" t="s">
+      <c r="T27" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="U27" s="52"/>
-    </row>
-    <row r="28" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U27" s="55"/>
+    </row>
+    <row r="28" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34">
         <v>4</v>
       </c>
@@ -8666,7 +8669,7 @@
         <v>63.000000000000099</v>
       </c>
     </row>
-    <row r="29" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="34">
         <v>5</v>
       </c>
@@ -8692,10 +8695,10 @@
         <f t="shared" si="25"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="I29" s="49" t="s">
+      <c r="I29" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="50"/>
+      <c r="J29" s="57"/>
       <c r="K29" s="42"/>
       <c r="M29" s="34">
         <v>5</v>
@@ -8722,12 +8725,12 @@
         <f t="shared" si="27"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="T29" s="49" t="s">
+      <c r="T29" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="50"/>
-    </row>
-    <row r="30" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U29" s="57"/>
+    </row>
+    <row r="30" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="37">
         <v>6</v>
       </c>
@@ -8799,28 +8802,28 @@
         <v>7.8750000000000187</v>
       </c>
     </row>
-    <row r="32" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="55" t="s">
+    <row r="32" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="57"/>
-      <c r="M33" s="55" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
+      <c r="M33" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="57"/>
-    </row>
-    <row r="34" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="53"/>
+    </row>
+    <row r="34" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="32" t="s">
         <v>0</v>
       </c>
@@ -8864,7 +8867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="34">
         <v>1</v>
       </c>
@@ -8916,7 +8919,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="36" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B36" s="34">
         <v>2</v>
       </c>
@@ -8968,7 +8971,7 @@
         <v>16.200000000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="34">
         <v>3</v>
       </c>
@@ -8994,10 +8997,10 @@
         <f t="shared" ref="H37:H40" si="33">G37-F37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="I37" s="51" t="s">
+      <c r="I37" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="52"/>
+      <c r="J37" s="55"/>
       <c r="K37" s="42"/>
       <c r="M37" s="34">
         <v>3</v>
@@ -9024,12 +9027,12 @@
         <f t="shared" ref="S37:S40" si="35">R37-Q37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="T37" s="51" t="s">
+      <c r="T37" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="U37" s="52"/>
-    </row>
-    <row r="38" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U37" s="55"/>
+    </row>
+    <row r="38" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="34">
         <v>4</v>
       </c>
@@ -9101,7 +9104,7 @@
         <v>62.999999999999815</v>
       </c>
     </row>
-    <row r="39" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="34">
         <v>5</v>
       </c>
@@ -9127,10 +9130,10 @@
         <f t="shared" si="33"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="I39" s="49" t="s">
+      <c r="I39" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="50"/>
+      <c r="J39" s="57"/>
       <c r="K39" s="42"/>
       <c r="M39" s="34">
         <v>5</v>
@@ -9157,12 +9160,12 @@
         <f t="shared" si="35"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="T39" s="49" t="s">
+      <c r="T39" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="U39" s="50"/>
-    </row>
-    <row r="40" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U39" s="57"/>
+    </row>
+    <row r="40" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="37">
         <v>6</v>
       </c>
@@ -9234,28 +9237,28 @@
         <v>6.9999999999999716</v>
       </c>
     </row>
-    <row r="42" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="55" t="s">
+    <row r="42" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="57"/>
-      <c r="M43" s="55" t="s">
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="53"/>
+      <c r="M43" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="57"/>
-    </row>
-    <row r="44" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="53"/>
+    </row>
+    <row r="44" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="32" t="s">
         <v>0</v>
       </c>
@@ -9299,7 +9302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="34">
         <v>1</v>
       </c>
@@ -9351,7 +9354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="34">
         <v>2</v>
       </c>
@@ -9403,7 +9406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="34">
         <v>3</v>
       </c>
@@ -9429,10 +9432,10 @@
         <f t="shared" ref="H47:H50" si="41">G47-F47</f>
         <v>9</v>
       </c>
-      <c r="I47" s="51" t="s">
+      <c r="I47" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J47" s="52"/>
+      <c r="J47" s="55"/>
       <c r="K47" s="42"/>
       <c r="M47" s="34">
         <v>3</v>
@@ -9459,12 +9462,12 @@
         <f t="shared" ref="S47:S50" si="43">R47-Q47</f>
         <v>18</v>
       </c>
-      <c r="T47" s="51" t="s">
+      <c r="T47" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="U47" s="52"/>
-    </row>
-    <row r="48" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U47" s="55"/>
+    </row>
+    <row r="48" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="34">
         <v>4</v>
       </c>
@@ -9536,7 +9539,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="34">
         <v>5</v>
       </c>
@@ -9562,10 +9565,10 @@
         <f t="shared" si="41"/>
         <v>9</v>
       </c>
-      <c r="I49" s="49" t="s">
+      <c r="I49" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="50"/>
+      <c r="J49" s="57"/>
       <c r="K49" s="42"/>
       <c r="M49" s="34">
         <v>5</v>
@@ -9592,12 +9595,12 @@
         <f t="shared" si="43"/>
         <v>18</v>
       </c>
-      <c r="T49" s="49" t="s">
+      <c r="T49" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="50"/>
-    </row>
-    <row r="50" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U49" s="57"/>
+    </row>
+    <row r="50" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B50" s="37">
         <v>6</v>
       </c>
@@ -9669,28 +9672,28 @@
         <v>6.3000000000000052</v>
       </c>
     </row>
-    <row r="61" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="55" t="s">
+    <row r="61" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="57"/>
-      <c r="M62" s="55" t="s">
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="53"/>
+      <c r="M62" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="56"/>
-      <c r="O62" s="56"/>
-      <c r="P62" s="56"/>
-      <c r="Q62" s="56"/>
-      <c r="R62" s="56"/>
-      <c r="S62" s="57"/>
-    </row>
-    <row r="63" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
+      <c r="R62" s="52"/>
+      <c r="S62" s="53"/>
+    </row>
+    <row r="63" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="32" t="s">
         <v>0</v>
       </c>
@@ -9734,7 +9737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="34">
         <v>1</v>
       </c>
@@ -9767,26 +9770,26 @@
         <v>18</v>
       </c>
       <c r="O64" s="9">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="P64" s="8">
         <f>N64*O64</f>
-        <v>54</v>
+        <v>3.6</v>
       </c>
       <c r="Q64" s="10">
         <f>P64</f>
-        <v>54</v>
+        <v>3.6</v>
       </c>
       <c r="R64" s="8">
         <f>O64*36</f>
-        <v>108</v>
+        <v>7.2</v>
       </c>
       <c r="S64" s="35">
         <f>R64-Q64</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B65" s="34">
         <v>2</v>
       </c>
@@ -9819,26 +9822,26 @@
         <v>18</v>
       </c>
       <c r="O65" s="9">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="P65" s="8">
         <f t="shared" ref="P65:P69" si="46">N65*O65</f>
-        <v>108</v>
+        <v>7.2</v>
       </c>
       <c r="Q65" s="10">
         <f>P65+Q64</f>
-        <v>162</v>
+        <v>10.8</v>
       </c>
       <c r="R65" s="8">
         <f t="shared" ref="R65:R69" si="47">O65*36</f>
-        <v>216</v>
+        <v>14.4</v>
       </c>
       <c r="S65" s="36">
         <f>R65-Q65</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="34">
         <v>3</v>
       </c>
@@ -9864,10 +9867,10 @@
         <f t="shared" ref="H66:H69" si="49">G66-F66</f>
         <v>9</v>
       </c>
-      <c r="I66" s="51" t="s">
+      <c r="I66" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J66" s="52"/>
+      <c r="J66" s="55"/>
       <c r="K66" s="42"/>
       <c r="M66" s="34">
         <v>3</v>
@@ -9876,30 +9879,30 @@
         <v>18</v>
       </c>
       <c r="O66" s="9">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="P66" s="8">
         <f t="shared" si="46"/>
-        <v>216</v>
+        <v>14.4</v>
       </c>
       <c r="Q66" s="10">
         <f t="shared" ref="Q66:Q69" si="50">P66+Q65</f>
-        <v>378</v>
+        <v>25.200000000000003</v>
       </c>
       <c r="R66" s="8">
         <f t="shared" si="47"/>
-        <v>432</v>
+        <v>28.8</v>
       </c>
       <c r="S66" s="35">
         <f t="shared" ref="S66:S69" si="51">R66-Q66</f>
-        <v>54</v>
+        <v>3.5999999999999979</v>
       </c>
       <c r="T66" s="45" t="s">
         <v>35</v>
       </c>
       <c r="U66" s="46"/>
     </row>
-    <row r="67" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="34">
         <v>4</v>
       </c>
@@ -9944,34 +9947,34 @@
         <v>18</v>
       </c>
       <c r="O67" s="9">
-        <v>25</v>
+        <v>1.6</v>
       </c>
       <c r="P67" s="8">
         <f t="shared" si="46"/>
-        <v>450</v>
+        <v>28.8</v>
       </c>
       <c r="Q67" s="10">
         <f t="shared" si="50"/>
-        <v>828</v>
+        <v>54</v>
       </c>
       <c r="R67" s="8">
         <f t="shared" si="47"/>
-        <v>900</v>
+        <v>57.6</v>
       </c>
       <c r="S67" s="36">
         <f t="shared" si="51"/>
-        <v>72</v>
+        <v>3.6000000000000014</v>
       </c>
       <c r="T67" s="30">
         <f>Q69</f>
-        <v>3528</v>
+        <v>226.8</v>
       </c>
       <c r="U67" s="48">
         <f>T67/S69</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63.000000000000099</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="34">
         <v>5</v>
       </c>
@@ -9997,10 +10000,10 @@
         <f t="shared" si="49"/>
         <v>9</v>
       </c>
-      <c r="I68" s="49" t="s">
+      <c r="I68" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J68" s="50"/>
+      <c r="J68" s="57"/>
       <c r="K68" s="42"/>
       <c r="M68" s="34">
         <v>5</v>
@@ -10009,30 +10012,30 @@
         <v>18</v>
       </c>
       <c r="O68" s="9">
-        <v>50</v>
+        <v>3.2</v>
       </c>
       <c r="P68" s="8">
         <f t="shared" si="46"/>
-        <v>900</v>
+        <v>57.6</v>
       </c>
       <c r="Q68" s="10">
         <f t="shared" si="50"/>
-        <v>1728</v>
+        <v>111.6</v>
       </c>
       <c r="R68" s="8">
         <f t="shared" si="47"/>
-        <v>1800</v>
+        <v>115.2</v>
       </c>
       <c r="S68" s="35">
         <f t="shared" si="51"/>
-        <v>72</v>
+        <v>3.6000000000000085</v>
       </c>
       <c r="T68" s="47" t="s">
         <v>36</v>
       </c>
       <c r="U68" s="48"/>
     </row>
-    <row r="69" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B69" s="37">
         <v>6</v>
       </c>
@@ -10077,54 +10080,287 @@
         <v>18</v>
       </c>
       <c r="O69" s="39">
-        <v>100</v>
+        <v>6.4</v>
       </c>
       <c r="P69" s="38">
         <f t="shared" si="46"/>
-        <v>1800</v>
+        <v>115.2</v>
       </c>
       <c r="Q69" s="40">
         <f t="shared" si="50"/>
-        <v>3528</v>
+        <v>226.8</v>
       </c>
       <c r="R69" s="38">
         <f t="shared" si="47"/>
-        <v>3600</v>
+        <v>230.4</v>
       </c>
       <c r="S69" s="41">
         <f t="shared" si="51"/>
-        <v>72</v>
+        <v>3.5999999999999943</v>
       </c>
       <c r="T69" s="31">
         <f>Q69-Q55</f>
-        <v>3528</v>
+        <v>226.8</v>
       </c>
       <c r="U69" s="29">
         <f>T69/S69</f>
-        <v>49</v>
+        <v>63.000000000000099</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M70" s="34">
+        <v>7</v>
+      </c>
+      <c r="N70" s="8">
+        <v>18</v>
+      </c>
+      <c r="O70" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="P70" s="8">
+        <f t="shared" ref="P70" si="52">N70*O70</f>
+        <v>230.4</v>
+      </c>
+      <c r="Q70" s="10">
+        <f t="shared" ref="Q70" si="53">P70+Q69</f>
+        <v>457.20000000000005</v>
+      </c>
+      <c r="R70" s="8">
+        <f t="shared" ref="R70" si="54">O70*36</f>
+        <v>460.8</v>
+      </c>
+      <c r="S70" s="35">
+        <f t="shared" ref="S70" si="55">R70-Q70</f>
+        <v>3.5999999999999659</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="73" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M73" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="N73" s="52"/>
+      <c r="O73" s="52"/>
+      <c r="P73" s="52"/>
+      <c r="Q73" s="52"/>
+      <c r="R73" s="52"/>
+      <c r="S73" s="53"/>
+    </row>
+    <row r="74" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M74" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N74" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P74" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q74" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="R74" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="S74" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M75" s="34">
+        <v>1</v>
+      </c>
+      <c r="N75" s="8">
+        <v>18</v>
+      </c>
+      <c r="O75" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="P75" s="8">
+        <f>N75*O75</f>
+        <v>1.8</v>
+      </c>
+      <c r="Q75" s="10">
+        <f>P75</f>
+        <v>1.8</v>
+      </c>
+      <c r="R75" s="8">
+        <f>O75*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="S75" s="35">
+        <f>R75-Q75</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M76" s="34">
+        <v>2</v>
+      </c>
+      <c r="N76" s="8">
+        <v>18</v>
+      </c>
+      <c r="O76" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="P76" s="8">
+        <f t="shared" ref="P76:P81" si="56">N76*O76</f>
+        <v>3.6</v>
+      </c>
+      <c r="Q76" s="10">
+        <f>P76+Q75</f>
+        <v>5.4</v>
+      </c>
+      <c r="R76" s="8">
+        <f t="shared" ref="R76:R81" si="57">O76*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="S76" s="36">
+        <f>R76-Q76</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M77" s="34">
+        <v>3</v>
+      </c>
+      <c r="N77" s="8">
+        <v>18</v>
+      </c>
+      <c r="O77" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="P77" s="8">
+        <f t="shared" si="56"/>
+        <v>9</v>
+      </c>
+      <c r="Q77" s="10">
+        <f t="shared" ref="Q77:Q81" si="58">P77+Q76</f>
+        <v>14.4</v>
+      </c>
+      <c r="R77" s="8">
+        <f t="shared" si="57"/>
+        <v>18</v>
+      </c>
+      <c r="S77" s="35">
+        <f t="shared" ref="S77:S81" si="59">R77-Q77</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M78" s="34">
+        <v>4</v>
+      </c>
+      <c r="N78" s="8">
+        <v>18</v>
+      </c>
+      <c r="O78" s="9">
+        <v>1</v>
+      </c>
+      <c r="P78" s="8">
+        <f t="shared" si="56"/>
+        <v>18</v>
+      </c>
+      <c r="Q78" s="10">
+        <f t="shared" si="58"/>
+        <v>32.4</v>
+      </c>
+      <c r="R78" s="8">
+        <f t="shared" si="57"/>
+        <v>36</v>
+      </c>
+      <c r="S78" s="36">
+        <f t="shared" si="59"/>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M79" s="34">
+        <v>5</v>
+      </c>
+      <c r="N79" s="8">
+        <v>18</v>
+      </c>
+      <c r="O79" s="9">
+        <v>2</v>
+      </c>
+      <c r="P79" s="8">
+        <f t="shared" si="56"/>
+        <v>36</v>
+      </c>
+      <c r="Q79" s="10">
+        <f t="shared" si="58"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="R79" s="8">
+        <f t="shared" si="57"/>
+        <v>72</v>
+      </c>
+      <c r="S79" s="35">
+        <f t="shared" si="59"/>
+        <v>3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M80" s="37">
+        <v>6</v>
+      </c>
+      <c r="N80" s="38">
+        <v>18</v>
+      </c>
+      <c r="O80" s="39">
+        <v>4</v>
+      </c>
+      <c r="P80" s="38">
+        <f t="shared" si="56"/>
+        <v>72</v>
+      </c>
+      <c r="Q80" s="40">
+        <f t="shared" si="58"/>
+        <v>140.4</v>
+      </c>
+      <c r="R80" s="38">
+        <f t="shared" si="57"/>
+        <v>144</v>
+      </c>
+      <c r="S80" s="41">
+        <f t="shared" si="59"/>
+        <v>3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="81" spans="13:19" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M81" s="34">
+        <v>7</v>
+      </c>
+      <c r="N81" s="8">
+        <v>18</v>
+      </c>
+      <c r="O81" s="9">
+        <v>8</v>
+      </c>
+      <c r="P81" s="8">
+        <f t="shared" si="56"/>
+        <v>144</v>
+      </c>
+      <c r="Q81" s="10">
+        <f t="shared" si="58"/>
+        <v>284.39999999999998</v>
+      </c>
+      <c r="R81" s="8">
+        <f t="shared" si="57"/>
+        <v>288</v>
+      </c>
+      <c r="S81" s="35">
+        <f t="shared" si="59"/>
+        <v>3.6000000000000227</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="M62:S62"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T27:U27"/>
+  <mergeCells count="36">
+    <mergeCell ref="M73:S73"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="M43:S43"/>
@@ -10141,6 +10377,25 @@
     <mergeCell ref="M3:S3"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M23:S23"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="M62:S62"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="I49:J49"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
@@ -10158,9 +10413,9 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0</v>
       </c>
@@ -10192,7 +10447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -10233,7 +10488,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -10274,7 +10529,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -10315,7 +10570,7 @@
         <v>9.2999999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -10356,7 +10611,7 @@
         <v>9.3999999999999986</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -10397,7 +10652,7 @@
         <v>9.4999999999999982</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -10438,7 +10693,7 @@
         <v>9.5999999999999979</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -10479,7 +10734,7 @@
         <v>9.6999999999999975</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -10520,7 +10775,7 @@
         <v>9.7999999999999972</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -10561,7 +10816,7 @@
         <v>9.8999999999999968</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10593,7 +10848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" ref="A13:J13" si="2">A12+0.1</f>
         <v>10.1</v>
@@ -10635,7 +10890,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" ref="A14:B21" si="3">A13+0.1</f>
         <v>10.199999999999999</v>
@@ -10677,7 +10932,7 @@
         <v>19.200000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="3"/>
         <v>10.299999999999999</v>
@@ -10719,7 +10974,7 @@
         <v>19.300000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="3"/>
         <v>10.399999999999999</v>
@@ -10761,7 +11016,7 @@
         <v>19.400000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="3"/>
         <v>10.499999999999998</v>
@@ -10803,7 +11058,7 @@
         <v>19.500000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="3"/>
         <v>10.599999999999998</v>
@@ -10845,7 +11100,7 @@
         <v>19.600000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="3"/>
         <v>10.699999999999998</v>
@@ -10887,7 +11142,7 @@
         <v>19.70000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="3"/>
         <v>10.799999999999997</v>
@@ -10929,7 +11184,7 @@
         <v>19.800000000000011</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="3"/>
         <v>10.899999999999997</v>
@@ -10971,7 +11226,7 @@
         <v>19.900000000000013</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>20</v>
       </c>
@@ -11003,7 +11258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" ref="A24:J24" si="12">A23+0.1</f>
         <v>20.100000000000001</v>
@@ -11045,7 +11300,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" ref="A25:A32" si="13">A24+0.1</f>
         <v>20.200000000000003</v>
@@ -11087,7 +11342,7 @@
         <v>29.200000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="13"/>
         <v>20.300000000000004</v>
@@ -11129,7 +11384,7 @@
         <v>29.300000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="13"/>
         <v>20.400000000000006</v>
@@ -11171,7 +11426,7 @@
         <v>29.400000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="13"/>
         <v>20.500000000000007</v>
@@ -11213,7 +11468,7 @@
         <v>29.500000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="13"/>
         <v>20.600000000000009</v>
@@ -11255,7 +11510,7 @@
         <v>29.600000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="13"/>
         <v>20.70000000000001</v>
@@ -11297,7 +11552,7 @@
         <v>29.70000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="13"/>
         <v>20.800000000000011</v>
@@ -11339,7 +11594,7 @@
         <v>29.800000000000011</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="13"/>
         <v>20.900000000000013</v>
@@ -11381,7 +11636,7 @@
         <v>29.900000000000013</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>30</v>
       </c>
@@ -11413,7 +11668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" ref="A35:J35" si="23">A34+0.1</f>
         <v>30.1</v>
@@ -11455,7 +11710,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" ref="A36:A43" si="24">A35+0.1</f>
         <v>30.200000000000003</v>
@@ -11497,7 +11752,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="24"/>
         <v>30.300000000000004</v>
@@ -11539,7 +11794,7 @@
         <v>39.300000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="24"/>
         <v>30.400000000000006</v>
@@ -11581,7 +11836,7 @@
         <v>39.400000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="24"/>
         <v>30.500000000000007</v>
@@ -11623,7 +11878,7 @@
         <v>39.500000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="24"/>
         <v>30.600000000000009</v>
@@ -11665,7 +11920,7 @@
         <v>39.600000000000009</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="24"/>
         <v>30.70000000000001</v>
@@ -11707,7 +11962,7 @@
         <v>39.70000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="24"/>
         <v>30.800000000000011</v>
@@ -11749,7 +12004,7 @@
         <v>39.800000000000011</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="24"/>
         <v>30.900000000000013</v>
@@ -11808,10 +12063,10 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65">
+    <row r="2" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="66">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -11851,8 +12106,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
+    <row r="3" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="66"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -11890,8 +12145,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+    <row r="4" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="66"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>

--- a/temp/iter - copia.xlsx
+++ b/temp/iter - copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20FE923-BB39-40EE-ACFC-B2173779AA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC25F9D5-17BB-4337-893D-6BE46EF07D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="5840" windowWidth="28800" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13395" yWindow="2760" windowWidth="12705" windowHeight="12000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="39">
   <si>
     <t>Rep</t>
   </si>
@@ -152,10 +152,10 @@
     <t>2ª Asegurar Iter</t>
   </si>
   <si>
-    <t>CASH INICIAL</t>
+    <t>Martingala ITER-1,5</t>
   </si>
   <si>
-    <t>2ª Asegurar Iter+Next Iter</t>
+    <t>Martingala ITER-2,5</t>
   </si>
 </sst>
 </file>
@@ -222,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -260,19 +260,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -454,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,67 +510,46 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -592,31 +558,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -629,12 +601,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -929,34 +895,34 @@
       <selection activeCell="BG20" sqref="BG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="8" width="16" hidden="1" customWidth="1"/>
     <col min="9" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+    <row r="2" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="K2" s="50" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="K2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-    </row>
-    <row r="3" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+    </row>
+    <row r="3" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -999,24 +965,24 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AB3" s="50" t="s">
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AB3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
       <c r="AM3" s="51" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1002,7 @@
       <c r="BB3" s="52"/>
       <c r="BC3" s="53"/>
     </row>
-    <row r="4" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -1173,7 +1139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -1326,7 +1292,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -1479,7 +1445,7 @@
         <v>10.799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -1606,10 +1572,10 @@
         <f t="shared" ref="AS7:AS10" si="21">AR7-AQ7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AT7" s="58" t="s">
+      <c r="AT7" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="AU7" s="59"/>
+      <c r="AU7" s="50"/>
       <c r="AW7" s="34">
         <v>3</v>
       </c>
@@ -1635,12 +1601,12 @@
         <f t="shared" ref="BC7:BC10" si="23">BB7-BA7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="BD7" s="54" t="s">
+      <c r="BD7" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="BE7" s="55"/>
-    </row>
-    <row r="8" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BE7" s="48"/>
+    </row>
+    <row r="8" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -1809,7 +1775,7 @@
         <v>62.999999999999588</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>6</v>
@@ -1936,10 +1902,10 @@
         <f t="shared" si="21"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AT9" s="56" t="s">
+      <c r="AT9" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AU9" s="57"/>
+      <c r="AU9" s="46"/>
       <c r="AW9" s="34">
         <v>5</v>
       </c>
@@ -1965,12 +1931,12 @@
         <f t="shared" si="23"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="BD9" s="56" t="s">
+      <c r="BD9" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="BE9" s="57"/>
-    </row>
-    <row r="10" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BE9" s="46"/>
+    </row>
+    <row r="10" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T10" s="8">
         <v>6</v>
       </c>
@@ -2088,16 +2054,16 @@
         <v>10.499999999999922</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K11" s="50" t="s">
+    <row r="11" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -2149,16 +2115,16 @@
         <v>1.7999999999999829</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="50" t="s">
+    <row r="12" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -2231,7 +2197,7 @@
         <v>1.8000000000000114</v>
       </c>
     </row>
-    <row r="13" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -2297,7 +2263,7 @@
       <c r="BB13" s="52"/>
       <c r="BC13" s="53"/>
     </row>
-    <row r="14" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>1</v>
@@ -2392,7 +2358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>2</v>
@@ -2495,7 +2461,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="16" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>3</v>
@@ -2550,15 +2516,15 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="50" t="s">
+      <c r="T16" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
       <c r="AM16" s="34">
         <v>2</v>
       </c>
@@ -2610,7 +2576,7 @@
         <v>12.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>4</v>
@@ -2686,15 +2652,15 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="50" t="s">
+      <c r="AD17" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="50"/>
-      <c r="AI17" s="50"/>
-      <c r="AJ17" s="50"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="54"/>
       <c r="AM17" s="34">
         <v>3</v>
       </c>
@@ -2720,10 +2686,10 @@
         <f t="shared" ref="AS17:AS20" si="41">AR17-AQ17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="AT17" s="54" t="s">
+      <c r="AT17" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AU17" s="55"/>
+      <c r="AU17" s="48"/>
       <c r="AW17" s="34">
         <v>3</v>
       </c>
@@ -2749,12 +2715,12 @@
         <f t="shared" ref="BC17:BC20" si="43">BB17-BA17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="BD17" s="54" t="s">
+      <c r="BD17" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="BE17" s="55"/>
-    </row>
-    <row r="18" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BE17" s="48"/>
+    </row>
+    <row r="18" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>5</v>
@@ -2925,7 +2891,7 @@
         <v>62.999999999999879</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>6</v>
@@ -3033,10 +2999,10 @@
         <f t="shared" si="41"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="AT19" s="56" t="s">
+      <c r="AT19" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AU19" s="57"/>
+      <c r="AU19" s="46"/>
       <c r="AW19" s="34">
         <v>5</v>
       </c>
@@ -3062,12 +3028,12 @@
         <f t="shared" si="43"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="BD19" s="56" t="s">
+      <c r="BD19" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="BE19" s="57"/>
-    </row>
-    <row r="20" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BE19" s="46"/>
+    </row>
+    <row r="20" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S20">
         <v>25</v>
       </c>
@@ -3191,16 +3157,16 @@
         <v>8.9999999999999911</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K21" s="50" t="s">
+    <row r="21" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -3258,16 +3224,16 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="50" t="s">
+    <row r="22" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -3343,7 +3309,7 @@
         <v>3.6000000000000014</v>
       </c>
     </row>
-    <row r="23" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -3462,7 +3428,7 @@
       <c r="BB23" s="52"/>
       <c r="BC23" s="53"/>
     </row>
-    <row r="24" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>1</v>
@@ -3607,7 +3573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>2</v>
@@ -3760,7 +3726,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>3</v>
@@ -3897,7 +3863,7 @@
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>4</v>
@@ -3974,10 +3940,10 @@
         <f t="shared" ref="AS27:AS30" si="73">AR27-AQ27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="AT27" s="54" t="s">
+      <c r="AT27" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AU27" s="55"/>
+      <c r="AU27" s="48"/>
       <c r="AW27" s="34">
         <v>3</v>
       </c>
@@ -4003,12 +3969,12 @@
         <f t="shared" ref="BC27:BC30" si="75">BB27-BA27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="BD27" s="54" t="s">
+      <c r="BD27" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="BE27" s="55"/>
-    </row>
-    <row r="28" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BE27" s="48"/>
+    </row>
+    <row r="28" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>5</v>
@@ -4149,7 +4115,7 @@
         <v>63.000000000000099</v>
       </c>
     </row>
-    <row r="29" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>6</v>
@@ -4198,15 +4164,15 @@
         <f t="shared" ref="Y29:Y38" si="81">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="50" t="s">
+      <c r="AD29" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="50"/>
-      <c r="AI29" s="50"/>
-      <c r="AJ29" s="50"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="54"/>
       <c r="AM29" s="34">
         <v>5</v>
       </c>
@@ -4232,10 +4198,10 @@
         <f t="shared" si="73"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AT29" s="56" t="s">
+      <c r="AT29" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AU29" s="57"/>
+      <c r="AU29" s="46"/>
       <c r="AW29" s="34">
         <v>5</v>
       </c>
@@ -4261,12 +4227,12 @@
         <f t="shared" si="75"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="BD29" s="56" t="s">
+      <c r="BD29" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="BE29" s="57"/>
-    </row>
-    <row r="30" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BE29" s="46"/>
+    </row>
+    <row r="30" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T30" s="18" t="s">
         <v>25</v>
       </c>
@@ -4377,7 +4343,7 @@
         <v>7.8750000000000187</v>
       </c>
     </row>
-    <row r="31" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T31" s="18" t="s">
         <v>24</v>
       </c>
@@ -4426,25 +4392,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="50" t="s">
+    <row r="32" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="K32" s="50" t="s">
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="K32" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -4493,7 +4459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -4602,7 +4568,7 @@
       <c r="BB33" s="52"/>
       <c r="BC33" s="53"/>
     </row>
-    <row r="34" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8">
         <v>1</v>
@@ -4743,7 +4709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>2</v>
@@ -4892,7 +4858,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="36" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
         <v>3</v>
@@ -5041,7 +5007,7 @@
         <v>16.200000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>4</v>
@@ -5164,10 +5130,10 @@
         <f t="shared" ref="AS37:AS40" si="100">AR37-AQ37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="AT37" s="54" t="s">
+      <c r="AT37" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AU37" s="55"/>
+      <c r="AU37" s="48"/>
       <c r="AW37" s="34">
         <v>3</v>
       </c>
@@ -5193,12 +5159,12 @@
         <f t="shared" ref="BC37:BC40" si="102">BB37-BA37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="BD37" s="54" t="s">
+      <c r="BD37" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="BE37" s="55"/>
-    </row>
-    <row r="38" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BE37" s="48"/>
+    </row>
+    <row r="38" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="8">
         <v>5</v>
@@ -5363,7 +5329,7 @@
         <v>62.999999999999815</v>
       </c>
     </row>
-    <row r="39" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>6</v>
@@ -5452,10 +5418,10 @@
         <f t="shared" si="100"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AT39" s="56" t="s">
+      <c r="AT39" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AU39" s="57"/>
+      <c r="AU39" s="46"/>
       <c r="AW39" s="34">
         <v>5</v>
       </c>
@@ -5481,12 +5447,12 @@
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD39" s="56" t="s">
+      <c r="BD39" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="BE39" s="57"/>
-    </row>
-    <row r="40" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BE39" s="46"/>
+    </row>
+    <row r="40" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="8">
         <v>7</v>
       </c>
@@ -5583,7 +5549,7 @@
         <v>6.9999999999999716</v>
       </c>
     </row>
-    <row r="41" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K41" s="8">
         <v>8</v>
       </c>
@@ -5614,16 +5580,16 @@
         <v>1121.4000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="50" t="s">
+    <row r="42" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -5650,7 +5616,7 @@
         <v>1.8000000000000682</v>
       </c>
     </row>
-    <row r="43" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -5691,7 +5657,7 @@
       <c r="BB43" s="52"/>
       <c r="BC43" s="53"/>
     </row>
-    <row r="44" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8">
         <v>1</v>
@@ -5761,7 +5727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>2</v>
@@ -5839,7 +5805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="8">
         <v>3</v>
@@ -5917,7 +5883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>4</v>
@@ -5944,15 +5910,15 @@
         <f t="shared" si="114"/>
         <v>126</v>
       </c>
-      <c r="T47" s="50" t="s">
+      <c r="T47" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="50"/>
-      <c r="V47" s="50"/>
-      <c r="W47" s="50"/>
-      <c r="X47" s="50"/>
-      <c r="Y47" s="50"/>
-      <c r="Z47" s="50"/>
+      <c r="U47" s="54"/>
+      <c r="V47" s="54"/>
+      <c r="W47" s="54"/>
+      <c r="X47" s="54"/>
+      <c r="Y47" s="54"/>
+      <c r="Z47" s="54"/>
       <c r="AM47" s="34">
         <v>3</v>
       </c>
@@ -5978,10 +5944,10 @@
         <f t="shared" ref="AS47:AS50" si="120">AR47-AQ47</f>
         <v>9</v>
       </c>
-      <c r="AT47" s="54" t="s">
+      <c r="AT47" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AU47" s="55"/>
+      <c r="AU47" s="48"/>
       <c r="AW47" s="34">
         <v>3</v>
       </c>
@@ -6007,12 +5973,12 @@
         <f t="shared" ref="BC47:BC50" si="122">BB47-BA47</f>
         <v>18</v>
       </c>
-      <c r="BD47" s="54" t="s">
+      <c r="BD47" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="BE47" s="55"/>
-    </row>
-    <row r="48" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BE47" s="48"/>
+    </row>
+    <row r="48" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8">
         <v>5</v>
@@ -6127,7 +6093,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8">
         <v>6</v>
@@ -6204,10 +6170,10 @@
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT49" s="56" t="s">
+      <c r="AT49" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AU49" s="57"/>
+      <c r="AU49" s="46"/>
       <c r="AW49" s="34">
         <v>5</v>
       </c>
@@ -6233,12 +6199,12 @@
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD49" s="56" t="s">
+      <c r="BD49" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="BE49" s="57"/>
-    </row>
-    <row r="50" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BE49" s="46"/>
+    </row>
+    <row r="50" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T50" s="8">
         <v>2</v>
       </c>
@@ -6331,7 +6297,7 @@
         <v>6.3000000000000052</v>
       </c>
     </row>
-    <row r="51" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T51" s="8">
         <v>3</v>
       </c>
@@ -6358,16 +6324,16 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="50" t="s">
+    <row r="52" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -6394,7 +6360,7 @@
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="53" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>0</v>
       </c>
@@ -6442,7 +6408,7 @@
         <v>14.400000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="8">
         <v>1</v>
@@ -6495,7 +6461,7 @@
         <v>14.400000000000034</v>
       </c>
     </row>
-    <row r="55" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8">
         <v>2</v>
@@ -6548,7 +6514,7 @@
         <v>21.600000000000023</v>
       </c>
     </row>
-    <row r="56" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="8">
         <v>3</v>
@@ -6601,7 +6567,7 @@
         <v>21.599999999999909</v>
       </c>
     </row>
-    <row r="57" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="8">
         <v>4</v>
@@ -6629,7 +6595,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="8">
         <v>5</v>
@@ -6657,7 +6623,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="59" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="8">
         <v>6</v>
@@ -6685,18 +6651,18 @@
         <v>720</v>
       </c>
     </row>
-    <row r="62" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="50" t="s">
+    <row r="62" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-    </row>
-    <row r="63" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+    </row>
+    <row r="63" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>0</v>
       </c>
@@ -6719,7 +6685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="8">
         <v>1</v>
@@ -6747,7 +6713,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="8">
         <v>2</v>
@@ -6775,7 +6741,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="8">
         <v>3</v>
@@ -6803,7 +6769,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="8">
         <v>4</v>
@@ -6831,7 +6797,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="8">
         <v>5</v>
@@ -6859,7 +6825,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="8">
         <v>6</v>
@@ -6889,6 +6855,39 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T47:Z47"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AM43:AS43"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="AW13:BC13"/>
+    <mergeCell ref="AW23:BC23"/>
+    <mergeCell ref="AW33:BC33"/>
+    <mergeCell ref="AW43:BC43"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AT49:AU49"/>
     <mergeCell ref="BD49:BE49"/>
     <mergeCell ref="BD39:BE39"/>
@@ -6903,39 +6902,6 @@
     <mergeCell ref="AT29:AU29"/>
     <mergeCell ref="AT39:AU39"/>
     <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="AW13:BC13"/>
-    <mergeCell ref="AW23:BC23"/>
-    <mergeCell ref="AW33:BC33"/>
-    <mergeCell ref="AW43:BC43"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T47:Z47"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AM43:AS43"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" orientation="portrait" r:id="rId1"/>
@@ -6953,77 +6919,77 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="1" customWidth="1"/>
-    <col min="2" max="13" width="9.54296875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-    </row>
-    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-    </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+    </row>
+    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+    </row>
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="61" t="s">
+      <c r="D3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-    </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+    </row>
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -7043,7 +7009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -7060,7 +7026,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -7077,7 +7043,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -7094,7 +7060,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -7111,7 +7077,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -7128,7 +7094,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -7145,7 +7111,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -7162,7 +7128,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -7179,7 +7145,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -7196,7 +7162,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -7213,7 +7179,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -7230,7 +7196,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -7247,7 +7213,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -7264,7 +7230,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -7281,7 +7247,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -7298,7 +7264,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -7315,7 +7281,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -7332,7 +7298,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -7349,7 +7315,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -7366,7 +7332,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -7383,38 +7349,38 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="9.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="60" t="s">
+    <row r="25" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-    </row>
-    <row r="27" spans="1:13" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+    </row>
+    <row r="27" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7441,25 +7407,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:U81"/>
+  <dimension ref="B2:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I1" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="64"/>
-      <c r="K1">
-        <v>113.4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="51" t="s">
         <v>8</v>
       </c>
@@ -7469,61 +7426,31 @@
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="53"/>
-      <c r="M3" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="53"/>
-    </row>
-    <row r="4" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="42" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="42" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34">
         <v>1</v>
       </c>
@@ -7549,33 +7476,8 @@
         <f>G5-F5</f>
         <v>1.8</v>
       </c>
-      <c r="M5" s="34">
-        <v>1</v>
-      </c>
-      <c r="N5" s="8">
-        <v>18</v>
-      </c>
-      <c r="O5" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="P5" s="8">
-        <f>N5*O5</f>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="Q5" s="10">
-        <f>P5</f>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="R5" s="8">
-        <f>O5*36</f>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="S5" s="35">
-        <f>R5-Q5</f>
-        <v>10.799999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34">
         <v>2</v>
       </c>
@@ -7601,33 +7503,8 @@
         <f>G6-F6</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="M6" s="34">
-        <v>2</v>
-      </c>
-      <c r="N6" s="8">
-        <v>18</v>
-      </c>
-      <c r="O6" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="P6" s="8">
-        <f t="shared" ref="P6:P10" si="2">N6*O6</f>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="Q6" s="10">
-        <f>P6+Q5</f>
-        <v>32.4</v>
-      </c>
-      <c r="R6" s="8">
-        <f t="shared" ref="R6:R10" si="3">O6*36</f>
-        <v>43.199999999999996</v>
-      </c>
-      <c r="S6" s="36">
-        <f>R6-Q6</f>
-        <v>10.799999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34">
         <v>3</v>
       </c>
@@ -7642,7 +7519,7 @@
         <v>7.2</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" ref="F7:F10" si="4">E7+F6</f>
+        <f t="shared" ref="F7:F10" si="2">E7+F6</f>
         <v>12.600000000000001</v>
       </c>
       <c r="G7" s="8">
@@ -7650,45 +7527,11 @@
         <v>14.4</v>
       </c>
       <c r="H7" s="35">
-        <f t="shared" ref="H7:H10" si="5">G7-F7</f>
+        <f t="shared" ref="H7:H10" si="3">G7-F7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="I7" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="42"/>
-      <c r="M7" s="34">
-        <v>3</v>
-      </c>
-      <c r="N7" s="8">
-        <v>18</v>
-      </c>
-      <c r="O7" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="P7" s="8">
-        <f t="shared" si="2"/>
-        <v>43.199999999999996</v>
-      </c>
-      <c r="Q7" s="10">
-        <f t="shared" ref="Q7:Q10" si="6">P7+Q6</f>
-        <v>75.599999999999994</v>
-      </c>
-      <c r="R7" s="8">
-        <f t="shared" si="3"/>
-        <v>86.399999999999991</v>
-      </c>
-      <c r="S7" s="35">
-        <f t="shared" ref="S7:S10" si="7">R7-Q7</f>
-        <v>10.799999999999997</v>
-      </c>
-      <c r="T7" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="U7" s="55"/>
-    </row>
-    <row r="8" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34">
         <v>4</v>
       </c>
@@ -7703,7 +7546,7 @@
         <v>14.4</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="G8" s="8">
@@ -7711,56 +7554,11 @@
         <v>28.8</v>
       </c>
       <c r="H8" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.8000000000000007</v>
       </c>
-      <c r="I8" s="30">
-        <f>F10</f>
-        <v>113.4</v>
-      </c>
-      <c r="J8" s="28">
-        <f>I8/H10</f>
-        <v>63.000000000000099</v>
-      </c>
-      <c r="K8" s="43">
-        <f>K1+I8</f>
-        <v>226.8</v>
-      </c>
-      <c r="M8" s="34">
-        <v>4</v>
-      </c>
-      <c r="N8" s="8">
-        <v>18</v>
-      </c>
-      <c r="O8" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="P8" s="8">
-        <f t="shared" si="2"/>
-        <v>86.399999999999991</v>
-      </c>
-      <c r="Q8" s="10">
-        <f t="shared" si="6"/>
-        <v>162</v>
-      </c>
-      <c r="R8" s="8">
-        <f t="shared" si="3"/>
-        <v>172.79999999999998</v>
-      </c>
-      <c r="S8" s="36">
-        <f t="shared" si="7"/>
-        <v>10.799999999999983</v>
-      </c>
-      <c r="T8" s="30">
-        <f>Q10</f>
-        <v>680.39999999999986</v>
-      </c>
-      <c r="U8" s="28">
-        <f>T8/S10</f>
-        <v>62.999999999999588</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="34">
         <v>5</v>
       </c>
@@ -7775,7 +7573,7 @@
         <v>28.8</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>55.8</v>
       </c>
       <c r="G9" s="8">
@@ -7783,45 +7581,11 @@
         <v>57.6</v>
       </c>
       <c r="H9" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="I9" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="42"/>
-      <c r="M9" s="34">
-        <v>5</v>
-      </c>
-      <c r="N9" s="8">
-        <v>18</v>
-      </c>
-      <c r="O9" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="P9" s="8">
-        <f t="shared" si="2"/>
-        <v>172.79999999999998</v>
-      </c>
-      <c r="Q9" s="10">
-        <f t="shared" si="6"/>
-        <v>334.79999999999995</v>
-      </c>
-      <c r="R9" s="8">
-        <f t="shared" si="3"/>
-        <v>345.59999999999997</v>
-      </c>
-      <c r="S9" s="35">
-        <f t="shared" si="7"/>
-        <v>10.800000000000011</v>
-      </c>
-      <c r="T9" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" s="57"/>
-    </row>
-    <row r="10" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="37">
         <v>6</v>
       </c>
@@ -7836,7 +7600,7 @@
         <v>57.6</v>
       </c>
       <c r="F10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>113.4</v>
       </c>
       <c r="G10" s="38">
@@ -7844,56 +7608,11 @@
         <v>115.2</v>
       </c>
       <c r="H10" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.7999999999999972</v>
       </c>
-      <c r="I10" s="31">
-        <f>F10</f>
-        <v>113.4</v>
-      </c>
-      <c r="J10" s="29">
-        <f>I10/H10</f>
-        <v>63.000000000000099</v>
-      </c>
-      <c r="K10" s="43">
-        <f>I10+K8</f>
-        <v>340.20000000000005</v>
-      </c>
-      <c r="M10" s="37">
-        <v>6</v>
-      </c>
-      <c r="N10" s="38">
-        <v>18</v>
-      </c>
-      <c r="O10" s="39">
-        <v>19.2</v>
-      </c>
-      <c r="P10" s="38">
-        <f t="shared" si="2"/>
-        <v>345.59999999999997</v>
-      </c>
-      <c r="Q10" s="40">
-        <f t="shared" si="6"/>
-        <v>680.39999999999986</v>
-      </c>
-      <c r="R10" s="38">
-        <f t="shared" si="3"/>
-        <v>691.19999999999993</v>
-      </c>
-      <c r="S10" s="41">
-        <f t="shared" si="7"/>
-        <v>10.800000000000068</v>
-      </c>
-      <c r="T10" s="31">
-        <f>Q10-F50</f>
-        <v>113.39999999999986</v>
-      </c>
-      <c r="U10" s="29">
-        <f>T10/S10</f>
-        <v>10.499999999999922</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="34">
         <v>7</v>
       </c>
@@ -7904,2501 +7623,1134 @@
         <v>6.4</v>
       </c>
       <c r="E11" s="8">
-        <f t="shared" ref="E11" si="8">C11*D11</f>
+        <f t="shared" ref="E11" si="4">C11*D11</f>
         <v>115.2</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" ref="F11" si="9">E11+F10</f>
+        <f t="shared" ref="F11" si="5">E11+F10</f>
         <v>228.60000000000002</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" ref="G11" si="10">D11*36</f>
+        <f t="shared" ref="G11" si="6">D11*36</f>
         <v>230.4</v>
       </c>
-      <c r="H11" s="36">
-        <f t="shared" ref="H11" si="11">G11-F11</f>
+      <c r="H11" s="35">
+        <f t="shared" ref="H11" si="7">G11-F11</f>
         <v>1.7999999999999829</v>
       </c>
-      <c r="K11">
-        <v>-168.9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K12" s="19">
-        <f>SUM(K10:K11)</f>
-        <v>171.30000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
-      <c r="K13">
-        <f>K12/1.8</f>
-        <v>95.166666666666686</v>
-      </c>
-      <c r="M13" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="53"/>
-    </row>
-    <row r="14" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="32" t="s">
+    </row>
+    <row r="13" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
+    </row>
+    <row r="15" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C15" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E15" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F15" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G15" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H15" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="32" t="s">
+    </row>
+    <row r="16" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="34">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>18</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="8">
+        <f>C16*D16</f>
+        <v>1.8</v>
+      </c>
+      <c r="F16" s="10">
+        <f>E16</f>
+        <v>1.8</v>
+      </c>
+      <c r="G16" s="8">
+        <f>D16*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="H16" s="35">
+        <f>G16-F16</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="34">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8">
+        <v>18</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" ref="E17:E22" si="8">C17*D17</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="F17" s="10">
+        <f>E17+F16</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" ref="G17:G22" si="9">D17*36</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="H17" s="36">
+        <f>G17-F17</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="34">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8">
+        <v>18</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="8"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" ref="F18:F22" si="10">E18+F17</f>
+        <v>18</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="9"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="H18" s="35">
+        <f t="shared" ref="H18:H22" si="11">G18-F18</f>
+        <v>3.5999999999999979</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="34">
+        <v>4</v>
+      </c>
+      <c r="C19" s="8">
+        <v>18</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="8"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="10"/>
+        <v>39.599999999999994</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="9"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="H19" s="36">
+        <f t="shared" si="11"/>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="34">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8">
+        <v>18</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="8"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="10"/>
+        <v>82.799999999999983</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="9"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="H20" s="35">
+        <f t="shared" si="11"/>
+        <v>3.6000000000000085</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="37">
+        <v>6</v>
+      </c>
+      <c r="C21" s="38">
+        <v>18</v>
+      </c>
+      <c r="D21" s="39">
+        <v>4.8</v>
+      </c>
+      <c r="E21" s="38">
+        <f t="shared" si="8"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="F21" s="40">
+        <f t="shared" si="10"/>
+        <v>169.2</v>
+      </c>
+      <c r="G21" s="38">
+        <f t="shared" si="9"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="H21" s="41">
+        <f t="shared" si="11"/>
+        <v>3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="34">
+        <v>7</v>
+      </c>
+      <c r="C22" s="8">
+        <v>18</v>
+      </c>
+      <c r="D22" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="8"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="10"/>
+        <v>342</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="9"/>
+        <v>345.59999999999997</v>
+      </c>
+      <c r="H22" s="35">
+        <f t="shared" si="11"/>
+        <v>3.5999999999999659</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+    </row>
+    <row r="26" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="24" t="s">
+      <c r="C26" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="24" t="s">
+      <c r="E26" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="24" t="s">
+      <c r="F26" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="24" t="s">
+      <c r="G26" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="33" t="s">
+      <c r="H26" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="34">
+    <row r="27" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="34">
         <v>1</v>
       </c>
-      <c r="C15" s="8">
-        <v>18</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="C27" s="8">
+        <v>18</v>
+      </c>
+      <c r="D27" s="9">
         <v>0.2</v>
       </c>
-      <c r="E15" s="8">
-        <f>C15*D15</f>
+      <c r="E27" s="8">
+        <f>C27*D27</f>
         <v>3.6</v>
       </c>
-      <c r="F15" s="10">
-        <f>E15</f>
+      <c r="F27" s="10">
+        <f>E27</f>
         <v>3.6</v>
       </c>
-      <c r="G15" s="8">
-        <f>D15*36</f>
+      <c r="G27" s="8">
+        <f>D27*36</f>
         <v>7.2</v>
       </c>
-      <c r="H15" s="35">
-        <f>G15-F15</f>
+      <c r="H27" s="35">
+        <f>G27-F27</f>
         <v>3.6</v>
       </c>
-      <c r="M15" s="34">
-        <v>1</v>
-      </c>
-      <c r="N15" s="8">
-        <v>18</v>
-      </c>
-      <c r="O15" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="P15" s="8">
-        <f>N15*O15</f>
-        <v>12.6</v>
-      </c>
-      <c r="Q15" s="10">
-        <f>P15</f>
-        <v>12.6</v>
-      </c>
-      <c r="R15" s="8">
-        <f>O15*36</f>
-        <v>25.2</v>
-      </c>
-      <c r="S15" s="35">
-        <f>R15-Q15</f>
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="34">
+    </row>
+    <row r="28" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="34">
         <v>2</v>
       </c>
-      <c r="C16" s="8">
-        <v>18</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="C28" s="8">
+        <v>18</v>
+      </c>
+      <c r="D28" s="9">
         <v>0.4</v>
       </c>
-      <c r="E16" s="8">
-        <f t="shared" ref="E16:E20" si="12">C16*D16</f>
+      <c r="E28" s="8">
+        <f t="shared" ref="E28:E32" si="12">C28*D28</f>
         <v>7.2</v>
       </c>
-      <c r="F16" s="10">
-        <f>E16+F15</f>
+      <c r="F28" s="10">
+        <f>E28+F27</f>
         <v>10.8</v>
       </c>
-      <c r="G16" s="8">
-        <f t="shared" ref="G16:G20" si="13">D16*36</f>
+      <c r="G28" s="8">
+        <f t="shared" ref="G28:G32" si="13">D28*36</f>
         <v>14.4</v>
       </c>
-      <c r="H16" s="36">
-        <f>G16-F16</f>
+      <c r="H28" s="36">
+        <f>G28-F28</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="M16" s="34">
-        <v>2</v>
-      </c>
-      <c r="N16" s="8">
-        <v>18</v>
-      </c>
-      <c r="O16" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="P16" s="8">
-        <f t="shared" ref="P16:P20" si="14">N16*O16</f>
-        <v>25.2</v>
-      </c>
-      <c r="Q16" s="10">
-        <f>P16+Q15</f>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="R16" s="8">
-        <f t="shared" ref="R16:R20" si="15">O16*36</f>
-        <v>50.4</v>
-      </c>
-      <c r="S16" s="36">
-        <f>R16-Q16</f>
-        <v>12.600000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="34">
+    </row>
+    <row r="29" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="34">
         <v>3</v>
       </c>
-      <c r="C17" s="8">
-        <v>18</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="C29" s="8">
+        <v>18</v>
+      </c>
+      <c r="D29" s="9">
         <v>0.8</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E29" s="8">
         <f t="shared" si="12"/>
         <v>14.4</v>
       </c>
-      <c r="F17" s="10">
-        <f t="shared" ref="F17:F20" si="16">E17+F16</f>
+      <c r="F29" s="10">
+        <f t="shared" ref="F29:F32" si="14">E29+F28</f>
         <v>25.200000000000003</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G29" s="8">
         <f t="shared" si="13"/>
         <v>28.8</v>
       </c>
-      <c r="H17" s="35">
-        <f t="shared" ref="H17:H20" si="17">G17-F17</f>
+      <c r="H29" s="35">
+        <f t="shared" ref="H29:H32" si="15">G29-F29</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="I17" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="42"/>
-      <c r="M17" s="34">
-        <v>3</v>
-      </c>
-      <c r="N17" s="8">
-        <v>18</v>
-      </c>
-      <c r="O17" s="9">
-        <v>2.8</v>
-      </c>
-      <c r="P17" s="8">
-        <f t="shared" si="14"/>
-        <v>50.4</v>
-      </c>
-      <c r="Q17" s="10">
-        <f t="shared" ref="Q17:Q20" si="18">P17+Q16</f>
-        <v>88.199999999999989</v>
-      </c>
-      <c r="R17" s="8">
-        <f t="shared" si="15"/>
-        <v>100.8</v>
-      </c>
-      <c r="S17" s="35">
-        <f t="shared" ref="S17:S20" si="19">R17-Q17</f>
-        <v>12.600000000000009</v>
-      </c>
-      <c r="T17" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="U17" s="55"/>
-    </row>
-    <row r="18" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="34">
+    </row>
+    <row r="30" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="34">
         <v>4</v>
       </c>
-      <c r="C18" s="8">
-        <v>18</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="C30" s="8">
+        <v>18</v>
+      </c>
+      <c r="D30" s="9">
         <v>1.6</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E30" s="8">
         <f t="shared" si="12"/>
         <v>28.8</v>
       </c>
-      <c r="F18" s="10">
-        <f t="shared" si="16"/>
+      <c r="F30" s="10">
+        <f t="shared" si="14"/>
         <v>54</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G30" s="8">
         <f t="shared" si="13"/>
         <v>57.6</v>
       </c>
-      <c r="H18" s="36">
-        <f t="shared" si="17"/>
+      <c r="H30" s="36">
+        <f t="shared" si="15"/>
         <v>3.6000000000000014</v>
       </c>
-      <c r="I18" s="30">
-        <f>F20</f>
-        <v>226.8</v>
-      </c>
-      <c r="J18" s="28">
-        <f>I18/H20</f>
-        <v>63.000000000000099</v>
-      </c>
-      <c r="K18" s="43">
-        <f>K10+I18</f>
-        <v>567</v>
-      </c>
-      <c r="M18" s="34">
-        <v>4</v>
-      </c>
-      <c r="N18" s="8">
-        <v>18</v>
-      </c>
-      <c r="O18" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="P18" s="8">
-        <f t="shared" si="14"/>
-        <v>100.8</v>
-      </c>
-      <c r="Q18" s="10">
-        <f t="shared" si="18"/>
-        <v>189</v>
-      </c>
-      <c r="R18" s="8">
-        <f t="shared" si="15"/>
-        <v>201.6</v>
-      </c>
-      <c r="S18" s="36">
-        <f t="shared" si="19"/>
-        <v>12.599999999999994</v>
-      </c>
-      <c r="T18" s="30">
-        <f>Q20</f>
-        <v>793.8</v>
-      </c>
-      <c r="U18" s="28">
-        <f>T18/S20</f>
-        <v>62.999999999999879</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="34">
+    </row>
+    <row r="31" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="34">
         <v>5</v>
       </c>
-      <c r="C19" s="8">
-        <v>18</v>
-      </c>
-      <c r="D19" s="9">
+      <c r="C31" s="8">
+        <v>18</v>
+      </c>
+      <c r="D31" s="9">
         <v>3.2</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E31" s="8">
         <f t="shared" si="12"/>
         <v>57.6</v>
       </c>
-      <c r="F19" s="10">
-        <f t="shared" si="16"/>
+      <c r="F31" s="10">
+        <f t="shared" si="14"/>
         <v>111.6</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G31" s="8">
         <f t="shared" si="13"/>
         <v>115.2</v>
       </c>
-      <c r="H19" s="35">
-        <f t="shared" si="17"/>
+      <c r="H31" s="35">
+        <f t="shared" si="15"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="I19" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="42"/>
-      <c r="M19" s="34">
-        <v>5</v>
-      </c>
-      <c r="N19" s="8">
-        <v>18</v>
-      </c>
-      <c r="O19" s="9">
-        <v>11.2</v>
-      </c>
-      <c r="P19" s="8">
-        <f t="shared" si="14"/>
-        <v>201.6</v>
-      </c>
-      <c r="Q19" s="10">
-        <f t="shared" si="18"/>
-        <v>390.6</v>
-      </c>
-      <c r="R19" s="8">
-        <f t="shared" si="15"/>
-        <v>403.2</v>
-      </c>
-      <c r="S19" s="35">
-        <f t="shared" si="19"/>
-        <v>12.599999999999966</v>
-      </c>
-      <c r="T19" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="U19" s="57"/>
-    </row>
-    <row r="20" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="37">
+    </row>
+    <row r="32" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="37">
         <v>6</v>
       </c>
-      <c r="C20" s="38">
-        <v>18</v>
-      </c>
-      <c r="D20" s="39">
+      <c r="C32" s="38">
+        <v>18</v>
+      </c>
+      <c r="D32" s="39">
         <v>6.4</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E32" s="38">
         <f t="shared" si="12"/>
         <v>115.2</v>
       </c>
-      <c r="F20" s="40">
-        <f t="shared" si="16"/>
+      <c r="F32" s="40">
+        <f t="shared" si="14"/>
         <v>226.8</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G32" s="38">
         <f t="shared" si="13"/>
         <v>230.4</v>
       </c>
-      <c r="H20" s="41">
-        <f t="shared" si="17"/>
+      <c r="H32" s="41">
+        <f t="shared" si="15"/>
         <v>3.5999999999999943</v>
       </c>
-      <c r="I20" s="31">
-        <f>F20-F10</f>
-        <v>113.4</v>
-      </c>
-      <c r="J20" s="29">
-        <f>I20/H20</f>
-        <v>31.50000000000005</v>
-      </c>
-      <c r="K20" s="43">
-        <f>I20+K18</f>
-        <v>680.4</v>
-      </c>
-      <c r="M20" s="37">
+    </row>
+    <row r="33" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="34">
+        <v>7</v>
+      </c>
+      <c r="C33" s="8">
+        <v>18</v>
+      </c>
+      <c r="D33" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" ref="E33" si="16">C33*D33</f>
+        <v>230.4</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" ref="F33" si="17">E33+F32</f>
+        <v>457.20000000000005</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" ref="G33" si="18">D33*36</f>
+        <v>460.8</v>
+      </c>
+      <c r="H33" s="35">
+        <f t="shared" ref="H33" si="19">G33-F33</f>
+        <v>3.5999999999999659</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="53"/>
+      <c r="J36" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="53"/>
+    </row>
+    <row r="37" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="N20" s="38">
-        <v>18</v>
-      </c>
-      <c r="O20" s="39">
-        <v>22.4</v>
-      </c>
-      <c r="P20" s="38">
-        <f t="shared" si="14"/>
-        <v>403.2</v>
-      </c>
-      <c r="Q20" s="40">
-        <f t="shared" si="18"/>
-        <v>793.8</v>
-      </c>
-      <c r="R20" s="38">
-        <f t="shared" si="15"/>
-        <v>806.4</v>
-      </c>
-      <c r="S20" s="41">
-        <f t="shared" si="19"/>
-        <v>12.600000000000023</v>
-      </c>
-      <c r="T20" s="31">
-        <f>Q20-Q10</f>
-        <v>113.40000000000009</v>
-      </c>
-      <c r="U20" s="29">
-        <f>T20/S20</f>
-        <v>8.9999999999999911</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-      <c r="M23" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="53"/>
-    </row>
-    <row r="24" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="32" t="s">
+      <c r="J37" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="K37" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="L37" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="M37" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="N37" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="O37" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="P37" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N24" s="24" t="s">
+    </row>
+    <row r="38" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="34">
         <v>1</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="C38" s="8">
+        <v>18</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E38" s="8">
+        <f>C38*D38</f>
+        <v>3.6</v>
+      </c>
+      <c r="F38" s="10">
+        <f>E38</f>
+        <v>3.6</v>
+      </c>
+      <c r="G38" s="8">
+        <f>D38*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="H38" s="35">
+        <f>G38-F38</f>
+        <v>3.6</v>
+      </c>
+      <c r="J38" s="34">
+        <v>1</v>
+      </c>
+      <c r="K38" s="8">
+        <v>18</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="M38" s="8">
+        <f>K38*L38</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="N38" s="10">
+        <f>M38</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="O38" s="8">
+        <f>L38*36</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="P38" s="35">
+        <f>O38-N38</f>
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="34">
         <v>2</v>
       </c>
-      <c r="P24" s="24" t="s">
+      <c r="C39" s="8">
+        <v>18</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" ref="E39:E44" si="20">C39*D39</f>
+        <v>9</v>
+      </c>
+      <c r="F39" s="10">
+        <f>E39+F38</f>
+        <v>12.6</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" ref="G39:G44" si="21">D39*36</f>
+        <v>18</v>
+      </c>
+      <c r="H39" s="36">
+        <f>G39-F39</f>
+        <v>5.4</v>
+      </c>
+      <c r="J39" s="34">
+        <v>2</v>
+      </c>
+      <c r="K39" s="8">
+        <v>18</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M39" s="8">
+        <f t="shared" ref="M39:M44" si="22">K39*L39</f>
+        <v>9</v>
+      </c>
+      <c r="N39" s="10">
+        <f>M39+N38</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="O39" s="8">
+        <f t="shared" ref="O39:O44" si="23">L39*36</f>
+        <v>18</v>
+      </c>
+      <c r="P39" s="36">
+        <f>O39-N39</f>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="34">
         <v>3</v>
       </c>
-      <c r="Q24" s="24" t="s">
+      <c r="C40" s="8">
+        <v>18</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="F40" s="10">
+        <f t="shared" ref="F40:F44" si="24">E40+F39</f>
+        <v>30.6</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="21"/>
+        <v>36</v>
+      </c>
+      <c r="H40" s="35">
+        <f t="shared" ref="H40:H44" si="25">G40-F40</f>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="J40" s="34">
+        <v>3</v>
+      </c>
+      <c r="K40" s="8">
+        <v>18</v>
+      </c>
+      <c r="L40" s="9">
+        <v>1</v>
+      </c>
+      <c r="M40" s="8">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="N40" s="10">
+        <f t="shared" ref="N40:N44" si="26">M40+N39</f>
+        <v>32.4</v>
+      </c>
+      <c r="O40" s="8">
+        <f t="shared" si="23"/>
+        <v>36</v>
+      </c>
+      <c r="P40" s="35">
+        <f t="shared" ref="P40:P44" si="27">O40-N40</f>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="34">
         <v>4</v>
       </c>
-      <c r="R24" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="34">
-        <v>1</v>
-      </c>
-      <c r="C25" s="8">
-        <v>18</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="E25" s="8">
-        <f>C25*D25</f>
-        <v>5.3999999999999995</v>
-      </c>
-      <c r="F25" s="10">
-        <f>E25</f>
-        <v>5.3999999999999995</v>
-      </c>
-      <c r="G25" s="8">
-        <f>D25*36</f>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="H25" s="35">
-        <f>G25-F25</f>
-        <v>5.3999999999999995</v>
-      </c>
-      <c r="M25" s="34">
-        <v>1</v>
-      </c>
-      <c r="N25" s="8">
-        <v>18</v>
-      </c>
-      <c r="O25" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="P25" s="8">
-        <f>N25*O25</f>
-        <v>14.4</v>
-      </c>
-      <c r="Q25" s="10">
-        <f>P25</f>
-        <v>14.4</v>
-      </c>
-      <c r="R25" s="8">
-        <f>O25*36</f>
-        <v>28.8</v>
-      </c>
-      <c r="S25" s="35">
-        <f>R25-Q25</f>
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="34">
+      <c r="C41" s="8">
+        <v>18</v>
+      </c>
+      <c r="D41" s="9">
         <v>2</v>
       </c>
-      <c r="C26" s="8">
-        <v>18</v>
-      </c>
-      <c r="D26" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="E26" s="8">
-        <f t="shared" ref="E26:E30" si="20">C26*D26</f>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="F26" s="10">
-        <f>E26+F25</f>
-        <v>16.2</v>
-      </c>
-      <c r="G26" s="8">
-        <f t="shared" ref="G26:G30" si="21">D26*36</f>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="H26" s="36">
-        <f>G26-F26</f>
-        <v>5.3999999999999986</v>
-      </c>
-      <c r="M26" s="34">
-        <v>2</v>
-      </c>
-      <c r="N26" s="8">
-        <v>18</v>
-      </c>
-      <c r="O26" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="P26" s="8">
-        <f t="shared" ref="P26:P30" si="22">N26*O26</f>
-        <v>28.8</v>
-      </c>
-      <c r="Q26" s="10">
-        <f>P26+Q25</f>
-        <v>43.2</v>
-      </c>
-      <c r="R26" s="8">
-        <f t="shared" ref="R26:R30" si="23">O26*36</f>
-        <v>57.6</v>
-      </c>
-      <c r="S26" s="36">
-        <f>R26-Q26</f>
-        <v>14.399999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="34">
-        <v>3</v>
-      </c>
-      <c r="C27" s="8">
-        <v>18</v>
-      </c>
-      <c r="D27" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="E27" s="8">
+      <c r="E41" s="8">
         <f t="shared" si="20"/>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" ref="F27:F30" si="24">E27+F26</f>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="G27" s="8">
+        <v>36</v>
+      </c>
+      <c r="F41" s="10">
+        <f t="shared" si="24"/>
+        <v>66.599999999999994</v>
+      </c>
+      <c r="G41" s="8">
         <f t="shared" si="21"/>
-        <v>43.199999999999996</v>
-      </c>
-      <c r="H27" s="35">
-        <f t="shared" ref="H27:H30" si="25">G27-F27</f>
-        <v>5.3999999999999986</v>
-      </c>
-      <c r="I27" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="55"/>
-      <c r="K27" s="42"/>
-      <c r="M27" s="34">
-        <v>3</v>
-      </c>
-      <c r="N27" s="8">
-        <v>18</v>
-      </c>
-      <c r="O27" s="9">
-        <v>3.2</v>
-      </c>
-      <c r="P27" s="8">
-        <f t="shared" si="22"/>
-        <v>57.6</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" ref="Q27:Q30" si="26">P27+Q26</f>
-        <v>100.80000000000001</v>
-      </c>
-      <c r="R27" s="8">
-        <f t="shared" si="23"/>
-        <v>115.2</v>
-      </c>
-      <c r="S27" s="35">
-        <f t="shared" ref="S27:S30" si="27">R27-Q27</f>
-        <v>14.399999999999991</v>
-      </c>
-      <c r="T27" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="U27" s="55"/>
-    </row>
-    <row r="28" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="34">
-        <v>4</v>
-      </c>
-      <c r="C28" s="8">
-        <v>18</v>
-      </c>
-      <c r="D28" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="E28" s="8">
-        <f t="shared" si="20"/>
-        <v>43.199999999999996</v>
-      </c>
-      <c r="F28" s="10">
-        <f t="shared" si="24"/>
-        <v>81</v>
-      </c>
-      <c r="G28" s="8">
-        <f t="shared" si="21"/>
-        <v>86.399999999999991</v>
-      </c>
-      <c r="H28" s="36">
-        <f t="shared" si="25"/>
-        <v>5.3999999999999915</v>
-      </c>
-      <c r="I28" s="30">
-        <f>F30</f>
-        <v>340.19999999999993</v>
-      </c>
-      <c r="J28" s="28">
-        <f>I28/H30</f>
-        <v>62.999999999999588</v>
-      </c>
-      <c r="K28" s="43">
-        <f>K20+I28</f>
-        <v>1020.5999999999999</v>
-      </c>
-      <c r="M28" s="34">
-        <v>4</v>
-      </c>
-      <c r="N28" s="8">
-        <v>18</v>
-      </c>
-      <c r="O28" s="9">
-        <v>6.4</v>
-      </c>
-      <c r="P28" s="8">
-        <f t="shared" si="22"/>
-        <v>115.2</v>
-      </c>
-      <c r="Q28" s="10">
-        <f t="shared" si="26"/>
-        <v>216</v>
-      </c>
-      <c r="R28" s="8">
-        <f t="shared" si="23"/>
-        <v>230.4</v>
-      </c>
-      <c r="S28" s="36">
-        <f t="shared" si="27"/>
-        <v>14.400000000000006</v>
-      </c>
-      <c r="T28" s="30">
-        <f>Q30</f>
-        <v>907.2</v>
-      </c>
-      <c r="U28" s="28">
-        <f>T28/S30</f>
-        <v>63.000000000000099</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="34">
-        <v>5</v>
-      </c>
-      <c r="C29" s="8">
-        <v>18</v>
-      </c>
-      <c r="D29" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="E29" s="8">
-        <f t="shared" si="20"/>
-        <v>86.399999999999991</v>
-      </c>
-      <c r="F29" s="10">
-        <f t="shared" si="24"/>
-        <v>167.39999999999998</v>
-      </c>
-      <c r="G29" s="8">
-        <f t="shared" si="21"/>
-        <v>172.79999999999998</v>
-      </c>
-      <c r="H29" s="35">
+        <v>72</v>
+      </c>
+      <c r="H41" s="36">
         <f t="shared" si="25"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="I29" s="56" t="s">
+      <c r="J41" s="34">
+        <v>4</v>
+      </c>
+      <c r="K41" s="8">
+        <v>18</v>
+      </c>
+      <c r="L41" s="9">
+        <v>2</v>
+      </c>
+      <c r="M41" s="8">
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="42"/>
-      <c r="M29" s="34">
+      <c r="N41" s="10">
+        <f t="shared" si="26"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="O41" s="8">
+        <f t="shared" si="23"/>
+        <v>72</v>
+      </c>
+      <c r="P41" s="36">
+        <f t="shared" si="27"/>
+        <v>3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="34">
         <v>5</v>
       </c>
-      <c r="N29" s="8">
-        <v>18</v>
-      </c>
-      <c r="O29" s="9">
-        <v>12.8</v>
-      </c>
-      <c r="P29" s="8">
+      <c r="C42" s="8">
+        <v>18</v>
+      </c>
+      <c r="D42" s="9">
+        <v>4</v>
+      </c>
+      <c r="E42" s="8">
+        <f t="shared" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="F42" s="10">
+        <f t="shared" si="24"/>
+        <v>138.6</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="21"/>
+        <v>144</v>
+      </c>
+      <c r="H42" s="35">
+        <f t="shared" si="25"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="J42" s="34">
+        <v>5</v>
+      </c>
+      <c r="K42" s="8">
+        <v>18</v>
+      </c>
+      <c r="L42" s="9">
+        <v>4</v>
+      </c>
+      <c r="M42" s="8">
         <f t="shared" si="22"/>
-        <v>230.4</v>
-      </c>
-      <c r="Q29" s="10">
+        <v>72</v>
+      </c>
+      <c r="N42" s="10">
         <f t="shared" si="26"/>
-        <v>446.4</v>
-      </c>
-      <c r="R29" s="8">
+        <v>140.4</v>
+      </c>
+      <c r="O42" s="8">
         <f t="shared" si="23"/>
-        <v>460.8</v>
-      </c>
-      <c r="S29" s="35">
+        <v>144</v>
+      </c>
+      <c r="P42" s="35">
         <f t="shared" si="27"/>
-        <v>14.400000000000034</v>
-      </c>
-      <c r="T29" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="U29" s="57"/>
-    </row>
-    <row r="30" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="37">
+        <v>3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="37">
         <v>6</v>
       </c>
-      <c r="C30" s="38">
-        <v>18</v>
-      </c>
-      <c r="D30" s="39">
+      <c r="C43" s="38">
+        <v>18</v>
+      </c>
+      <c r="D43" s="39">
+        <v>8</v>
+      </c>
+      <c r="E43" s="38">
+        <f t="shared" si="20"/>
+        <v>144</v>
+      </c>
+      <c r="F43" s="40">
+        <f t="shared" si="24"/>
+        <v>282.60000000000002</v>
+      </c>
+      <c r="G43" s="38">
+        <f t="shared" si="21"/>
+        <v>288</v>
+      </c>
+      <c r="H43" s="41">
+        <f t="shared" si="25"/>
+        <v>5.3999999999999773</v>
+      </c>
+      <c r="J43" s="37">
+        <v>6</v>
+      </c>
+      <c r="K43" s="38">
+        <v>18</v>
+      </c>
+      <c r="L43" s="39">
+        <v>8</v>
+      </c>
+      <c r="M43" s="38">
+        <f t="shared" si="22"/>
+        <v>144</v>
+      </c>
+      <c r="N43" s="40">
+        <f t="shared" si="26"/>
+        <v>284.39999999999998</v>
+      </c>
+      <c r="O43" s="38">
+        <f t="shared" si="23"/>
+        <v>288</v>
+      </c>
+      <c r="P43" s="41">
+        <f t="shared" si="27"/>
+        <v>3.6000000000000227</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="34">
+        <v>7</v>
+      </c>
+      <c r="C44" s="8">
+        <v>18</v>
+      </c>
+      <c r="D44" s="9">
+        <v>16</v>
+      </c>
+      <c r="E44" s="8">
+        <f t="shared" si="20"/>
+        <v>288</v>
+      </c>
+      <c r="F44" s="10">
+        <f t="shared" si="24"/>
+        <v>570.6</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="21"/>
+        <v>576</v>
+      </c>
+      <c r="H44" s="35">
+        <f t="shared" si="25"/>
+        <v>5.3999999999999773</v>
+      </c>
+      <c r="J44" s="34">
+        <v>7</v>
+      </c>
+      <c r="K44" s="8">
+        <v>18</v>
+      </c>
+      <c r="L44" s="9">
+        <v>16</v>
+      </c>
+      <c r="M44" s="8">
+        <f t="shared" si="22"/>
+        <v>288</v>
+      </c>
+      <c r="N44" s="10">
+        <f t="shared" si="26"/>
+        <v>572.4</v>
+      </c>
+      <c r="O44" s="8">
+        <f t="shared" si="23"/>
+        <v>576</v>
+      </c>
+      <c r="P44" s="35">
+        <f t="shared" si="27"/>
+        <v>3.6000000000000227</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="53"/>
+    </row>
+    <row r="48" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="34">
+        <v>1</v>
+      </c>
+      <c r="C49" s="8">
+        <v>18</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E49" s="8">
+        <f>C49*D49</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="F49" s="10">
+        <f>E49</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="G49" s="8">
+        <f>D49*36</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="H49" s="35">
+        <f>G49-F49</f>
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="34">
+        <v>2</v>
+      </c>
+      <c r="C50" s="8">
+        <v>18</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E50" s="8">
+        <f t="shared" ref="E50:E55" si="28">C50*D50</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="F50" s="10">
+        <f>E50+F49</f>
+        <v>16.2</v>
+      </c>
+      <c r="G50" s="8">
+        <f t="shared" ref="G50:G55" si="29">D50*36</f>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="H50" s="36">
+        <f>G50-F50</f>
+        <v>5.3999999999999986</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="34">
+        <v>3</v>
+      </c>
+      <c r="C51" s="8">
+        <v>18</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" si="28"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="F51" s="10">
+        <f t="shared" ref="F51:F55" si="30">E51+F50</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="G51" s="8">
+        <f t="shared" si="29"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="H51" s="35">
+        <f t="shared" ref="H51:H55" si="31">G51-F51</f>
+        <v>5.3999999999999986</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="34">
+        <v>4</v>
+      </c>
+      <c r="C52" s="8">
+        <v>18</v>
+      </c>
+      <c r="D52" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="E52" s="8">
+        <f t="shared" si="28"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="F52" s="10">
+        <f t="shared" si="30"/>
+        <v>81</v>
+      </c>
+      <c r="G52" s="8">
+        <f t="shared" si="29"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="H52" s="36">
+        <f t="shared" si="31"/>
+        <v>5.3999999999999915</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="34">
+        <v>5</v>
+      </c>
+      <c r="C53" s="8">
+        <v>18</v>
+      </c>
+      <c r="D53" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="E53" s="8">
+        <f t="shared" si="28"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="F53" s="10">
+        <f t="shared" si="30"/>
+        <v>167.39999999999998</v>
+      </c>
+      <c r="G53" s="8">
+        <f t="shared" si="29"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="H53" s="35">
+        <f t="shared" si="31"/>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="37">
+        <v>6</v>
+      </c>
+      <c r="C54" s="38">
+        <v>18</v>
+      </c>
+      <c r="D54" s="39">
         <v>9.6</v>
       </c>
-      <c r="E30" s="38">
-        <f t="shared" si="20"/>
+      <c r="E54" s="38">
+        <f t="shared" si="28"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="F30" s="40">
-        <f t="shared" si="24"/>
+      <c r="F54" s="40">
+        <f t="shared" si="30"/>
         <v>340.19999999999993</v>
       </c>
-      <c r="G30" s="38">
-        <f t="shared" si="21"/>
+      <c r="G54" s="38">
+        <f t="shared" si="29"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="H30" s="41">
-        <f t="shared" si="25"/>
+      <c r="H54" s="41">
+        <f t="shared" si="31"/>
         <v>5.4000000000000341</v>
       </c>
-      <c r="I30" s="31">
-        <f>F30-F20</f>
-        <v>113.39999999999992</v>
-      </c>
-      <c r="J30" s="29">
-        <f>I30/H30</f>
-        <v>20.999999999999854</v>
-      </c>
-      <c r="K30" s="43">
-        <f>I30+K28</f>
-        <v>1133.9999999999998</v>
-      </c>
-      <c r="M30" s="37">
-        <v>6</v>
-      </c>
-      <c r="N30" s="38">
-        <v>18</v>
-      </c>
-      <c r="O30" s="39">
-        <v>25.6</v>
-      </c>
-      <c r="P30" s="38">
-        <f t="shared" si="22"/>
-        <v>460.8</v>
-      </c>
-      <c r="Q30" s="40">
-        <f t="shared" si="26"/>
-        <v>907.2</v>
-      </c>
-      <c r="R30" s="38">
-        <f t="shared" si="23"/>
-        <v>921.6</v>
-      </c>
-      <c r="S30" s="41">
-        <f t="shared" si="27"/>
-        <v>14.399999999999977</v>
-      </c>
-      <c r="T30" s="31">
-        <f>Q30-Q20</f>
-        <v>113.40000000000009</v>
-      </c>
-      <c r="U30" s="29">
-        <f>T30/S30</f>
-        <v>7.8750000000000187</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="53"/>
-      <c r="M33" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="53"/>
-    </row>
-    <row r="34" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="M34" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N34" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P34" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q34" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R34" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="S34" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="34">
-        <v>1</v>
-      </c>
-      <c r="C35" s="8">
-        <v>18</v>
-      </c>
-      <c r="D35" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="E35" s="8">
-        <f>C35*D35</f>
-        <v>7.2</v>
-      </c>
-      <c r="F35" s="10">
-        <f>E35</f>
-        <v>7.2</v>
-      </c>
-      <c r="G35" s="8">
-        <f>D35*36</f>
-        <v>14.4</v>
-      </c>
-      <c r="H35" s="35">
-        <f>G35-F35</f>
-        <v>7.2</v>
-      </c>
-      <c r="M35" s="34">
-        <v>1</v>
-      </c>
-      <c r="N35" s="8">
-        <v>18</v>
-      </c>
-      <c r="O35" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="P35" s="8">
-        <f>N35*O35</f>
-        <v>16.2</v>
-      </c>
-      <c r="Q35" s="10">
-        <f>P35</f>
-        <v>16.2</v>
-      </c>
-      <c r="R35" s="8">
-        <f>O35*36</f>
-        <v>32.4</v>
-      </c>
-      <c r="S35" s="35">
-        <f>R35-Q35</f>
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="34">
-        <v>2</v>
-      </c>
-      <c r="C36" s="8">
-        <v>18</v>
-      </c>
-      <c r="D36" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="E36" s="8">
-        <f t="shared" ref="E36:E40" si="28">C36*D36</f>
-        <v>14.4</v>
-      </c>
-      <c r="F36" s="10">
-        <f>E36+F35</f>
-        <v>21.6</v>
-      </c>
-      <c r="G36" s="8">
-        <f t="shared" ref="G36:G40" si="29">D36*36</f>
-        <v>28.8</v>
-      </c>
-      <c r="H36" s="36">
-        <f>G36-F36</f>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="M36" s="34">
-        <v>2</v>
-      </c>
-      <c r="N36" s="8">
-        <v>18</v>
-      </c>
-      <c r="O36" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="P36" s="8">
-        <f t="shared" ref="P36:P40" si="30">N36*O36</f>
-        <v>32.4</v>
-      </c>
-      <c r="Q36" s="10">
-        <f>P36+Q35</f>
-        <v>48.599999999999994</v>
-      </c>
-      <c r="R36" s="8">
-        <f t="shared" ref="R36:R40" si="31">O36*36</f>
-        <v>64.8</v>
-      </c>
-      <c r="S36" s="36">
-        <f>R36-Q36</f>
-        <v>16.200000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="34">
-        <v>3</v>
-      </c>
-      <c r="C37" s="8">
-        <v>18</v>
-      </c>
-      <c r="D37" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="E37" s="8">
+    </row>
+    <row r="55" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="34">
+        <v>7</v>
+      </c>
+      <c r="C55" s="8">
+        <v>18</v>
+      </c>
+      <c r="D55" s="9">
+        <v>19.2</v>
+      </c>
+      <c r="E55" s="8">
         <f t="shared" si="28"/>
-        <v>28.8</v>
-      </c>
-      <c r="F37" s="10">
-        <f t="shared" ref="F37:F40" si="32">E37+F36</f>
-        <v>50.400000000000006</v>
-      </c>
-      <c r="G37" s="8">
+        <v>345.59999999999997</v>
+      </c>
+      <c r="F55" s="10">
+        <f t="shared" si="30"/>
+        <v>685.8</v>
+      </c>
+      <c r="G55" s="8">
         <f t="shared" si="29"/>
-        <v>57.6</v>
-      </c>
-      <c r="H37" s="35">
-        <f t="shared" ref="H37:H40" si="33">G37-F37</f>
-        <v>7.1999999999999957</v>
-      </c>
-      <c r="I37" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="J37" s="55"/>
-      <c r="K37" s="42"/>
-      <c r="M37" s="34">
-        <v>3</v>
-      </c>
-      <c r="N37" s="8">
-        <v>18</v>
-      </c>
-      <c r="O37" s="9">
-        <v>3.6</v>
-      </c>
-      <c r="P37" s="8">
-        <f t="shared" si="30"/>
-        <v>64.8</v>
-      </c>
-      <c r="Q37" s="10">
-        <f t="shared" ref="Q37:Q40" si="34">P37+Q36</f>
-        <v>113.39999999999999</v>
-      </c>
-      <c r="R37" s="8">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H55" s="35">
         <f t="shared" si="31"/>
-        <v>129.6</v>
-      </c>
-      <c r="S37" s="35">
-        <f t="shared" ref="S37:S40" si="35">R37-Q37</f>
-        <v>16.200000000000003</v>
-      </c>
-      <c r="T37" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="U37" s="55"/>
-    </row>
-    <row r="38" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="34">
-        <v>4</v>
-      </c>
-      <c r="C38" s="8">
-        <v>18</v>
-      </c>
-      <c r="D38" s="9">
-        <v>3.2</v>
-      </c>
-      <c r="E38" s="8">
-        <f t="shared" si="28"/>
-        <v>57.6</v>
-      </c>
-      <c r="F38" s="10">
-        <f t="shared" si="32"/>
-        <v>108</v>
-      </c>
-      <c r="G38" s="8">
-        <f t="shared" si="29"/>
-        <v>115.2</v>
-      </c>
-      <c r="H38" s="36">
-        <f t="shared" si="33"/>
-        <v>7.2000000000000028</v>
-      </c>
-      <c r="I38" s="30">
-        <f>F40</f>
-        <v>453.6</v>
-      </c>
-      <c r="J38" s="28">
-        <f>I38/H40</f>
-        <v>63.000000000000099</v>
-      </c>
-      <c r="K38" s="43">
-        <f>K30+I38</f>
-        <v>1587.6</v>
-      </c>
-      <c r="M38" s="34">
-        <v>4</v>
-      </c>
-      <c r="N38" s="8">
-        <v>18</v>
-      </c>
-      <c r="O38" s="9">
-        <v>7.2</v>
-      </c>
-      <c r="P38" s="8">
-        <f t="shared" si="30"/>
-        <v>129.6</v>
-      </c>
-      <c r="Q38" s="10">
-        <f t="shared" si="34"/>
-        <v>243</v>
-      </c>
-      <c r="R38" s="8">
-        <f t="shared" si="31"/>
-        <v>259.2</v>
-      </c>
-      <c r="S38" s="36">
-        <f t="shared" si="35"/>
-        <v>16.199999999999989</v>
-      </c>
-      <c r="T38" s="30">
-        <f>Q40</f>
-        <v>1020.5999999999999</v>
-      </c>
-      <c r="U38" s="28">
-        <f>T38/S40</f>
-        <v>62.999999999999815</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="34">
-        <v>5</v>
-      </c>
-      <c r="C39" s="8">
-        <v>18</v>
-      </c>
-      <c r="D39" s="9">
-        <v>6.4</v>
-      </c>
-      <c r="E39" s="8">
-        <f t="shared" si="28"/>
-        <v>115.2</v>
-      </c>
-      <c r="F39" s="10">
-        <f t="shared" si="32"/>
-        <v>223.2</v>
-      </c>
-      <c r="G39" s="8">
-        <f t="shared" si="29"/>
-        <v>230.4</v>
-      </c>
-      <c r="H39" s="35">
-        <f t="shared" si="33"/>
-        <v>7.2000000000000171</v>
-      </c>
-      <c r="I39" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="J39" s="57"/>
-      <c r="K39" s="42"/>
-      <c r="M39" s="34">
-        <v>5</v>
-      </c>
-      <c r="N39" s="8">
-        <v>18</v>
-      </c>
-      <c r="O39" s="9">
-        <v>14.4</v>
-      </c>
-      <c r="P39" s="8">
-        <f t="shared" si="30"/>
-        <v>259.2</v>
-      </c>
-      <c r="Q39" s="10">
-        <f t="shared" si="34"/>
-        <v>502.2</v>
-      </c>
-      <c r="R39" s="8">
-        <f t="shared" si="31"/>
-        <v>518.4</v>
-      </c>
-      <c r="S39" s="35">
-        <f t="shared" si="35"/>
-        <v>16.199999999999989</v>
-      </c>
-      <c r="T39" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="U39" s="57"/>
-    </row>
-    <row r="40" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="37">
-        <v>6</v>
-      </c>
-      <c r="C40" s="38">
-        <v>18</v>
-      </c>
-      <c r="D40" s="39">
-        <v>12.8</v>
-      </c>
-      <c r="E40" s="38">
-        <f t="shared" si="28"/>
-        <v>230.4</v>
-      </c>
-      <c r="F40" s="40">
-        <f t="shared" si="32"/>
-        <v>453.6</v>
-      </c>
-      <c r="G40" s="38">
-        <f t="shared" si="29"/>
-        <v>460.8</v>
-      </c>
-      <c r="H40" s="41">
-        <f t="shared" si="33"/>
-        <v>7.1999999999999886</v>
-      </c>
-      <c r="I40" s="31">
-        <f>F40-F30</f>
-        <v>113.40000000000009</v>
-      </c>
-      <c r="J40" s="29">
-        <f>I40/H40</f>
-        <v>15.750000000000037</v>
-      </c>
-      <c r="K40" s="43">
-        <f>I40+K38</f>
-        <v>1701</v>
-      </c>
-      <c r="M40" s="37">
-        <v>6</v>
-      </c>
-      <c r="N40" s="38">
-        <v>18</v>
-      </c>
-      <c r="O40" s="39">
-        <v>28.8</v>
-      </c>
-      <c r="P40" s="38">
-        <f t="shared" si="30"/>
-        <v>518.4</v>
-      </c>
-      <c r="Q40" s="40">
-        <f t="shared" si="34"/>
-        <v>1020.5999999999999</v>
-      </c>
-      <c r="R40" s="38">
-        <f t="shared" si="31"/>
-        <v>1036.8</v>
-      </c>
-      <c r="S40" s="41">
-        <f t="shared" si="35"/>
-        <v>16.200000000000045</v>
-      </c>
-      <c r="T40" s="31">
-        <f>Q40-Q30</f>
-        <v>113.39999999999986</v>
-      </c>
-      <c r="U40" s="29">
-        <f>T40/S40</f>
-        <v>6.9999999999999716</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="53"/>
-      <c r="M43" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="53"/>
-    </row>
-    <row r="44" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="M44" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N44" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P44" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q44" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="34">
-        <v>1</v>
-      </c>
-      <c r="C45" s="8">
-        <v>18</v>
-      </c>
-      <c r="D45" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E45" s="8">
-        <f>C45*D45</f>
-        <v>9</v>
-      </c>
-      <c r="F45" s="10">
-        <f>E45</f>
-        <v>9</v>
-      </c>
-      <c r="G45" s="8">
-        <f>D45*36</f>
-        <v>18</v>
-      </c>
-      <c r="H45" s="35">
-        <f>G45-F45</f>
-        <v>9</v>
-      </c>
-      <c r="M45" s="34">
-        <v>1</v>
-      </c>
-      <c r="N45" s="8">
-        <v>18</v>
-      </c>
-      <c r="O45" s="9">
-        <v>1</v>
-      </c>
-      <c r="P45" s="8">
-        <f>N45*O45</f>
-        <v>18</v>
-      </c>
-      <c r="Q45" s="10">
-        <f>P45</f>
-        <v>18</v>
-      </c>
-      <c r="R45" s="8">
-        <f>O45*36</f>
-        <v>36</v>
-      </c>
-      <c r="S45" s="35">
-        <f>R45-Q45</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="34">
-        <v>2</v>
-      </c>
-      <c r="C46" s="8">
-        <v>18</v>
-      </c>
-      <c r="D46" s="9">
-        <v>1</v>
-      </c>
-      <c r="E46" s="8">
-        <f t="shared" ref="E46:E50" si="36">C46*D46</f>
-        <v>18</v>
-      </c>
-      <c r="F46" s="10">
-        <f>E46+F45</f>
-        <v>27</v>
-      </c>
-      <c r="G46" s="8">
-        <f t="shared" ref="G46:G50" si="37">D46*36</f>
-        <v>36</v>
-      </c>
-      <c r="H46" s="36">
-        <f>G46-F46</f>
-        <v>9</v>
-      </c>
-      <c r="M46" s="34">
-        <v>2</v>
-      </c>
-      <c r="N46" s="8">
-        <v>18</v>
-      </c>
-      <c r="O46" s="9">
-        <v>2</v>
-      </c>
-      <c r="P46" s="8">
-        <f t="shared" ref="P46:P50" si="38">N46*O46</f>
-        <v>36</v>
-      </c>
-      <c r="Q46" s="10">
-        <f>P46+Q45</f>
-        <v>54</v>
-      </c>
-      <c r="R46" s="8">
-        <f t="shared" ref="R46:R50" si="39">O46*36</f>
-        <v>72</v>
-      </c>
-      <c r="S46" s="36">
-        <f>R46-Q46</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="34">
-        <v>3</v>
-      </c>
-      <c r="C47" s="8">
-        <v>18</v>
-      </c>
-      <c r="D47" s="9">
-        <v>2</v>
-      </c>
-      <c r="E47" s="8">
-        <f t="shared" si="36"/>
-        <v>36</v>
-      </c>
-      <c r="F47" s="10">
-        <f t="shared" ref="F47:F50" si="40">E47+F46</f>
-        <v>63</v>
-      </c>
-      <c r="G47" s="8">
-        <f t="shared" si="37"/>
-        <v>72</v>
-      </c>
-      <c r="H47" s="35">
-        <f t="shared" ref="H47:H50" si="41">G47-F47</f>
-        <v>9</v>
-      </c>
-      <c r="I47" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="J47" s="55"/>
-      <c r="K47" s="42"/>
-      <c r="M47" s="34">
-        <v>3</v>
-      </c>
-      <c r="N47" s="8">
-        <v>18</v>
-      </c>
-      <c r="O47" s="9">
-        <v>4</v>
-      </c>
-      <c r="P47" s="8">
-        <f t="shared" si="38"/>
-        <v>72</v>
-      </c>
-      <c r="Q47" s="10">
-        <f t="shared" ref="Q47:Q50" si="42">P47+Q46</f>
-        <v>126</v>
-      </c>
-      <c r="R47" s="8">
-        <f t="shared" si="39"/>
-        <v>144</v>
-      </c>
-      <c r="S47" s="35">
-        <f t="shared" ref="S47:S50" si="43">R47-Q47</f>
-        <v>18</v>
-      </c>
-      <c r="T47" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="U47" s="55"/>
-    </row>
-    <row r="48" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="34">
-        <v>4</v>
-      </c>
-      <c r="C48" s="8">
-        <v>18</v>
-      </c>
-      <c r="D48" s="9">
-        <v>4</v>
-      </c>
-      <c r="E48" s="8">
-        <f t="shared" si="36"/>
-        <v>72</v>
-      </c>
-      <c r="F48" s="10">
-        <f t="shared" si="40"/>
-        <v>135</v>
-      </c>
-      <c r="G48" s="8">
-        <f t="shared" si="37"/>
-        <v>144</v>
-      </c>
-      <c r="H48" s="36">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="I48" s="30">
-        <f>F50</f>
-        <v>567</v>
-      </c>
-      <c r="J48" s="28">
-        <f>I48/H50</f>
-        <v>63</v>
-      </c>
-      <c r="K48" s="43">
-        <f>K40+I48</f>
-        <v>2268</v>
-      </c>
-      <c r="M48" s="34">
-        <v>4</v>
-      </c>
-      <c r="N48" s="8">
-        <v>18</v>
-      </c>
-      <c r="O48" s="9">
-        <v>8</v>
-      </c>
-      <c r="P48" s="8">
-        <f t="shared" si="38"/>
-        <v>144</v>
-      </c>
-      <c r="Q48" s="10">
-        <f t="shared" si="42"/>
-        <v>270</v>
-      </c>
-      <c r="R48" s="8">
-        <f t="shared" si="39"/>
-        <v>288</v>
-      </c>
-      <c r="S48" s="36">
-        <f t="shared" si="43"/>
-        <v>18</v>
-      </c>
-      <c r="T48" s="30">
-        <f>Q50</f>
-        <v>1134</v>
-      </c>
-      <c r="U48" s="28">
-        <f>T48/S50</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="34">
-        <v>5</v>
-      </c>
-      <c r="C49" s="8">
-        <v>18</v>
-      </c>
-      <c r="D49" s="9">
-        <v>8</v>
-      </c>
-      <c r="E49" s="8">
-        <f t="shared" si="36"/>
-        <v>144</v>
-      </c>
-      <c r="F49" s="10">
-        <f t="shared" si="40"/>
-        <v>279</v>
-      </c>
-      <c r="G49" s="8">
-        <f t="shared" si="37"/>
-        <v>288</v>
-      </c>
-      <c r="H49" s="35">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="I49" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="J49" s="57"/>
-      <c r="K49" s="42"/>
-      <c r="M49" s="34">
-        <v>5</v>
-      </c>
-      <c r="N49" s="8">
-        <v>18</v>
-      </c>
-      <c r="O49" s="9">
-        <v>16</v>
-      </c>
-      <c r="P49" s="8">
-        <f t="shared" si="38"/>
-        <v>288</v>
-      </c>
-      <c r="Q49" s="10">
-        <f t="shared" si="42"/>
-        <v>558</v>
-      </c>
-      <c r="R49" s="8">
-        <f t="shared" si="39"/>
-        <v>576</v>
-      </c>
-      <c r="S49" s="35">
-        <f t="shared" si="43"/>
-        <v>18</v>
-      </c>
-      <c r="T49" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="U49" s="57"/>
-    </row>
-    <row r="50" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="37">
-        <v>6</v>
-      </c>
-      <c r="C50" s="38">
-        <v>18</v>
-      </c>
-      <c r="D50" s="39">
-        <v>16</v>
-      </c>
-      <c r="E50" s="38">
-        <f t="shared" si="36"/>
-        <v>288</v>
-      </c>
-      <c r="F50" s="40">
-        <f t="shared" si="40"/>
-        <v>567</v>
-      </c>
-      <c r="G50" s="38">
-        <f t="shared" si="37"/>
-        <v>576</v>
-      </c>
-      <c r="H50" s="41">
-        <f t="shared" si="41"/>
-        <v>9</v>
-      </c>
-      <c r="I50" s="31">
-        <f>F50-F40</f>
-        <v>113.39999999999998</v>
-      </c>
-      <c r="J50" s="29">
-        <f>I50/H50</f>
-        <v>12.599999999999998</v>
-      </c>
-      <c r="K50" s="43">
-        <f>I50+K48</f>
-        <v>2381.4</v>
-      </c>
-      <c r="M50" s="37">
-        <v>6</v>
-      </c>
-      <c r="N50" s="38">
-        <v>18</v>
-      </c>
-      <c r="O50" s="39">
-        <v>32</v>
-      </c>
-      <c r="P50" s="38">
-        <f t="shared" si="38"/>
-        <v>576</v>
-      </c>
-      <c r="Q50" s="40">
-        <f t="shared" si="42"/>
-        <v>1134</v>
-      </c>
-      <c r="R50" s="38">
-        <f t="shared" si="39"/>
-        <v>1152</v>
-      </c>
-      <c r="S50" s="41">
-        <f t="shared" si="43"/>
-        <v>18</v>
-      </c>
-      <c r="T50" s="31">
-        <f>Q50-Q40</f>
-        <v>113.40000000000009</v>
-      </c>
-      <c r="U50" s="29">
-        <f>T50/S50</f>
-        <v>6.3000000000000052</v>
-      </c>
-    </row>
-    <row r="61" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="62" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="53"/>
-      <c r="M62" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="53"/>
-    </row>
-    <row r="63" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="H63" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="M63" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N63" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="O63" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P63" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q63" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="R63" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="S63" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="34">
-        <v>1</v>
-      </c>
-      <c r="C64" s="8">
-        <v>18</v>
-      </c>
-      <c r="D64" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E64" s="8">
-        <f>C64*D64</f>
-        <v>9</v>
-      </c>
-      <c r="F64" s="10">
-        <f>E64</f>
-        <v>9</v>
-      </c>
-      <c r="G64" s="8">
-        <f>D64*36</f>
-        <v>18</v>
-      </c>
-      <c r="H64" s="35">
-        <f>G64-F64</f>
-        <v>9</v>
-      </c>
-      <c r="M64" s="34">
-        <v>1</v>
-      </c>
-      <c r="N64" s="8">
-        <v>18</v>
-      </c>
-      <c r="O64" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="P64" s="8">
-        <f>N64*O64</f>
-        <v>3.6</v>
-      </c>
-      <c r="Q64" s="10">
-        <f>P64</f>
-        <v>3.6</v>
-      </c>
-      <c r="R64" s="8">
-        <f>O64*36</f>
-        <v>7.2</v>
-      </c>
-      <c r="S64" s="35">
-        <f>R64-Q64</f>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="65" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="34">
-        <v>2</v>
-      </c>
-      <c r="C65" s="8">
-        <v>18</v>
-      </c>
-      <c r="D65" s="9">
-        <v>1</v>
-      </c>
-      <c r="E65" s="8">
-        <f t="shared" ref="E65:E69" si="44">C65*D65</f>
-        <v>18</v>
-      </c>
-      <c r="F65" s="10">
-        <f>E65+F64</f>
-        <v>27</v>
-      </c>
-      <c r="G65" s="8">
-        <f t="shared" ref="G65:G69" si="45">D65*36</f>
-        <v>36</v>
-      </c>
-      <c r="H65" s="36">
-        <f>G65-F65</f>
-        <v>9</v>
-      </c>
-      <c r="M65" s="34">
-        <v>2</v>
-      </c>
-      <c r="N65" s="8">
-        <v>18</v>
-      </c>
-      <c r="O65" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="P65" s="8">
-        <f t="shared" ref="P65:P69" si="46">N65*O65</f>
-        <v>7.2</v>
-      </c>
-      <c r="Q65" s="10">
-        <f>P65+Q64</f>
-        <v>10.8</v>
-      </c>
-      <c r="R65" s="8">
-        <f t="shared" ref="R65:R69" si="47">O65*36</f>
-        <v>14.4</v>
-      </c>
-      <c r="S65" s="36">
-        <f>R65-Q65</f>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
-    <row r="66" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="34">
-        <v>3</v>
-      </c>
-      <c r="C66" s="8">
-        <v>18</v>
-      </c>
-      <c r="D66" s="9">
-        <v>2</v>
-      </c>
-      <c r="E66" s="8">
-        <f t="shared" si="44"/>
-        <v>36</v>
-      </c>
-      <c r="F66" s="10">
-        <f t="shared" ref="F66:F69" si="48">E66+F65</f>
-        <v>63</v>
-      </c>
-      <c r="G66" s="8">
-        <f t="shared" si="45"/>
-        <v>72</v>
-      </c>
-      <c r="H66" s="35">
-        <f t="shared" ref="H66:H69" si="49">G66-F66</f>
-        <v>9</v>
-      </c>
-      <c r="I66" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="J66" s="55"/>
-      <c r="K66" s="42"/>
-      <c r="M66" s="34">
-        <v>3</v>
-      </c>
-      <c r="N66" s="8">
-        <v>18</v>
-      </c>
-      <c r="O66" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="P66" s="8">
-        <f t="shared" si="46"/>
-        <v>14.4</v>
-      </c>
-      <c r="Q66" s="10">
-        <f t="shared" ref="Q66:Q69" si="50">P66+Q65</f>
-        <v>25.200000000000003</v>
-      </c>
-      <c r="R66" s="8">
-        <f t="shared" si="47"/>
-        <v>28.8</v>
-      </c>
-      <c r="S66" s="35">
-        <f t="shared" ref="S66:S69" si="51">R66-Q66</f>
-        <v>3.5999999999999979</v>
-      </c>
-      <c r="T66" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="U66" s="46"/>
-    </row>
-    <row r="67" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="34">
-        <v>4</v>
-      </c>
-      <c r="C67" s="8">
-        <v>18</v>
-      </c>
-      <c r="D67" s="9">
-        <v>4</v>
-      </c>
-      <c r="E67" s="8">
-        <f t="shared" si="44"/>
-        <v>72</v>
-      </c>
-      <c r="F67" s="10">
-        <f t="shared" si="48"/>
-        <v>135</v>
-      </c>
-      <c r="G67" s="8">
-        <f t="shared" si="45"/>
-        <v>144</v>
-      </c>
-      <c r="H67" s="36">
-        <f t="shared" si="49"/>
-        <v>9</v>
-      </c>
-      <c r="I67" s="30">
-        <f>F69</f>
-        <v>567</v>
-      </c>
-      <c r="J67" s="48">
-        <f>I67/H69</f>
-        <v>63</v>
-      </c>
-      <c r="K67" s="43">
-        <f>K59+I67</f>
-        <v>567</v>
-      </c>
-      <c r="M67" s="34">
-        <v>4</v>
-      </c>
-      <c r="N67" s="8">
-        <v>18</v>
-      </c>
-      <c r="O67" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="P67" s="8">
-        <f t="shared" si="46"/>
-        <v>28.8</v>
-      </c>
-      <c r="Q67" s="10">
-        <f t="shared" si="50"/>
-        <v>54</v>
-      </c>
-      <c r="R67" s="8">
-        <f t="shared" si="47"/>
-        <v>57.6</v>
-      </c>
-      <c r="S67" s="36">
-        <f t="shared" si="51"/>
-        <v>3.6000000000000014</v>
-      </c>
-      <c r="T67" s="30">
-        <f>Q69</f>
-        <v>226.8</v>
-      </c>
-      <c r="U67" s="48">
-        <f>T67/S69</f>
-        <v>63.000000000000099</v>
-      </c>
-    </row>
-    <row r="68" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="34">
-        <v>5</v>
-      </c>
-      <c r="C68" s="8">
-        <v>18</v>
-      </c>
-      <c r="D68" s="9">
-        <v>8</v>
-      </c>
-      <c r="E68" s="8">
-        <f t="shared" si="44"/>
-        <v>144</v>
-      </c>
-      <c r="F68" s="10">
-        <f t="shared" si="48"/>
-        <v>279</v>
-      </c>
-      <c r="G68" s="8">
-        <f t="shared" si="45"/>
-        <v>288</v>
-      </c>
-      <c r="H68" s="35">
-        <f t="shared" si="49"/>
-        <v>9</v>
-      </c>
-      <c r="I68" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="J68" s="57"/>
-      <c r="K68" s="42"/>
-      <c r="M68" s="34">
-        <v>5</v>
-      </c>
-      <c r="N68" s="8">
-        <v>18</v>
-      </c>
-      <c r="O68" s="9">
-        <v>3.2</v>
-      </c>
-      <c r="P68" s="8">
-        <f t="shared" si="46"/>
-        <v>57.6</v>
-      </c>
-      <c r="Q68" s="10">
-        <f t="shared" si="50"/>
-        <v>111.6</v>
-      </c>
-      <c r="R68" s="8">
-        <f t="shared" si="47"/>
-        <v>115.2</v>
-      </c>
-      <c r="S68" s="35">
-        <f t="shared" si="51"/>
-        <v>3.6000000000000085</v>
-      </c>
-      <c r="T68" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="U68" s="48"/>
-    </row>
-    <row r="69" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="37">
-        <v>6</v>
-      </c>
-      <c r="C69" s="38">
-        <v>18</v>
-      </c>
-      <c r="D69" s="39">
-        <v>16</v>
-      </c>
-      <c r="E69" s="38">
-        <f t="shared" si="44"/>
-        <v>288</v>
-      </c>
-      <c r="F69" s="40">
-        <f t="shared" si="48"/>
-        <v>567</v>
-      </c>
-      <c r="G69" s="38">
-        <f t="shared" si="45"/>
-        <v>576</v>
-      </c>
-      <c r="H69" s="41">
-        <f t="shared" si="49"/>
-        <v>9</v>
-      </c>
-      <c r="I69" s="31">
-        <f>F69-F59</f>
-        <v>567</v>
-      </c>
-      <c r="J69" s="29">
-        <f>I69/H69</f>
-        <v>63</v>
-      </c>
-      <c r="K69" s="43">
-        <f>I69+K67</f>
-        <v>1134</v>
-      </c>
-      <c r="M69" s="37">
-        <v>6</v>
-      </c>
-      <c r="N69" s="38">
-        <v>18</v>
-      </c>
-      <c r="O69" s="39">
-        <v>6.4</v>
-      </c>
-      <c r="P69" s="38">
-        <f t="shared" si="46"/>
-        <v>115.2</v>
-      </c>
-      <c r="Q69" s="40">
-        <f t="shared" si="50"/>
-        <v>226.8</v>
-      </c>
-      <c r="R69" s="38">
-        <f t="shared" si="47"/>
-        <v>230.4</v>
-      </c>
-      <c r="S69" s="41">
-        <f t="shared" si="51"/>
-        <v>3.5999999999999943</v>
-      </c>
-      <c r="T69" s="31">
-        <f>Q69-Q55</f>
-        <v>226.8</v>
-      </c>
-      <c r="U69" s="29">
-        <f>T69/S69</f>
-        <v>63.000000000000099</v>
-      </c>
-    </row>
-    <row r="70" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M70" s="34">
-        <v>7</v>
-      </c>
-      <c r="N70" s="8">
-        <v>18</v>
-      </c>
-      <c r="O70" s="9">
-        <v>12.8</v>
-      </c>
-      <c r="P70" s="8">
-        <f t="shared" ref="P70" si="52">N70*O70</f>
-        <v>230.4</v>
-      </c>
-      <c r="Q70" s="10">
-        <f t="shared" ref="Q70" si="53">P70+Q69</f>
-        <v>457.20000000000005</v>
-      </c>
-      <c r="R70" s="8">
-        <f t="shared" ref="R70" si="54">O70*36</f>
-        <v>460.8</v>
-      </c>
-      <c r="S70" s="35">
-        <f t="shared" ref="S70" si="55">R70-Q70</f>
-        <v>3.5999999999999659</v>
-      </c>
-    </row>
-    <row r="72" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="73" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M73" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="N73" s="52"/>
-      <c r="O73" s="52"/>
-      <c r="P73" s="52"/>
-      <c r="Q73" s="52"/>
-      <c r="R73" s="52"/>
-      <c r="S73" s="53"/>
-    </row>
-    <row r="74" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M74" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N74" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="O74" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P74" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q74" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="R74" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="S74" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M75" s="34">
-        <v>1</v>
-      </c>
-      <c r="N75" s="8">
-        <v>18</v>
-      </c>
-      <c r="O75" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="P75" s="8">
-        <f>N75*O75</f>
-        <v>1.8</v>
-      </c>
-      <c r="Q75" s="10">
-        <f>P75</f>
-        <v>1.8</v>
-      </c>
-      <c r="R75" s="8">
-        <f>O75*36</f>
-        <v>3.6</v>
-      </c>
-      <c r="S75" s="35">
-        <f>R75-Q75</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="76" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M76" s="34">
-        <v>2</v>
-      </c>
-      <c r="N76" s="8">
-        <v>18</v>
-      </c>
-      <c r="O76" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="P76" s="8">
-        <f t="shared" ref="P76:P81" si="56">N76*O76</f>
-        <v>3.6</v>
-      </c>
-      <c r="Q76" s="10">
-        <f>P76+Q75</f>
-        <v>5.4</v>
-      </c>
-      <c r="R76" s="8">
-        <f t="shared" ref="R76:R81" si="57">O76*36</f>
-        <v>7.2</v>
-      </c>
-      <c r="S76" s="36">
-        <f>R76-Q76</f>
-        <v>1.7999999999999998</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M77" s="34">
-        <v>3</v>
-      </c>
-      <c r="N77" s="8">
-        <v>18</v>
-      </c>
-      <c r="O77" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="P77" s="8">
-        <f t="shared" si="56"/>
-        <v>9</v>
-      </c>
-      <c r="Q77" s="10">
-        <f t="shared" ref="Q77:Q81" si="58">P77+Q76</f>
-        <v>14.4</v>
-      </c>
-      <c r="R77" s="8">
-        <f t="shared" si="57"/>
-        <v>18</v>
-      </c>
-      <c r="S77" s="35">
-        <f t="shared" ref="S77:S81" si="59">R77-Q77</f>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
-    <row r="78" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M78" s="34">
-        <v>4</v>
-      </c>
-      <c r="N78" s="8">
-        <v>18</v>
-      </c>
-      <c r="O78" s="9">
-        <v>1</v>
-      </c>
-      <c r="P78" s="8">
-        <f t="shared" si="56"/>
-        <v>18</v>
-      </c>
-      <c r="Q78" s="10">
-        <f t="shared" si="58"/>
-        <v>32.4</v>
-      </c>
-      <c r="R78" s="8">
-        <f t="shared" si="57"/>
-        <v>36</v>
-      </c>
-      <c r="S78" s="36">
-        <f t="shared" si="59"/>
-        <v>3.6000000000000014</v>
-      </c>
-    </row>
-    <row r="79" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M79" s="34">
-        <v>5</v>
-      </c>
-      <c r="N79" s="8">
-        <v>18</v>
-      </c>
-      <c r="O79" s="9">
-        <v>2</v>
-      </c>
-      <c r="P79" s="8">
-        <f t="shared" si="56"/>
-        <v>36</v>
-      </c>
-      <c r="Q79" s="10">
-        <f t="shared" si="58"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="R79" s="8">
-        <f t="shared" si="57"/>
-        <v>72</v>
-      </c>
-      <c r="S79" s="35">
-        <f t="shared" si="59"/>
-        <v>3.5999999999999943</v>
-      </c>
-    </row>
-    <row r="80" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M80" s="37">
-        <v>6</v>
-      </c>
-      <c r="N80" s="38">
-        <v>18</v>
-      </c>
-      <c r="O80" s="39">
-        <v>4</v>
-      </c>
-      <c r="P80" s="38">
-        <f t="shared" si="56"/>
-        <v>72</v>
-      </c>
-      <c r="Q80" s="40">
-        <f t="shared" si="58"/>
-        <v>140.4</v>
-      </c>
-      <c r="R80" s="38">
-        <f t="shared" si="57"/>
-        <v>144</v>
-      </c>
-      <c r="S80" s="41">
-        <f t="shared" si="59"/>
-        <v>3.5999999999999943</v>
-      </c>
-    </row>
-    <row r="81" spans="13:19" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M81" s="34">
-        <v>7</v>
-      </c>
-      <c r="N81" s="8">
-        <v>18</v>
-      </c>
-      <c r="O81" s="9">
-        <v>8</v>
-      </c>
-      <c r="P81" s="8">
-        <f t="shared" si="56"/>
-        <v>144</v>
-      </c>
-      <c r="Q81" s="10">
-        <f t="shared" si="58"/>
-        <v>284.39999999999998</v>
-      </c>
-      <c r="R81" s="8">
-        <f t="shared" si="57"/>
-        <v>288</v>
-      </c>
-      <c r="S81" s="35">
-        <f t="shared" si="59"/>
-        <v>3.6000000000000227</v>
+        <v>5.3999999999999773</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="M73:S73"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="M43:S43"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="M33:S33"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="I27:J27"/>
+  <mergeCells count="6">
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="J36:P36"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="M3:S3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="M62:S62"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B25:H25"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10413,9 +8765,9 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -10447,7 +8799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -10488,7 +8840,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -10529,7 +8881,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -10570,7 +8922,7 @@
         <v>9.2999999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -10611,7 +8963,7 @@
         <v>9.3999999999999986</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -10652,7 +9004,7 @@
         <v>9.4999999999999982</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -10693,7 +9045,7 @@
         <v>9.5999999999999979</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -10734,7 +9086,7 @@
         <v>9.6999999999999975</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -10775,7 +9127,7 @@
         <v>9.7999999999999972</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -10816,7 +9168,7 @@
         <v>9.8999999999999968</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10848,7 +9200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ref="A13:J13" si="2">A12+0.1</f>
         <v>10.1</v>
@@ -10890,7 +9242,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ref="A14:B21" si="3">A13+0.1</f>
         <v>10.199999999999999</v>
@@ -10932,7 +9284,7 @@
         <v>19.200000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="3"/>
         <v>10.299999999999999</v>
@@ -10974,7 +9326,7 @@
         <v>19.300000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="3"/>
         <v>10.399999999999999</v>
@@ -11016,7 +9368,7 @@
         <v>19.400000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="3"/>
         <v>10.499999999999998</v>
@@ -11058,7 +9410,7 @@
         <v>19.500000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="3"/>
         <v>10.599999999999998</v>
@@ -11100,7 +9452,7 @@
         <v>19.600000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="3"/>
         <v>10.699999999999998</v>
@@ -11142,7 +9494,7 @@
         <v>19.70000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="3"/>
         <v>10.799999999999997</v>
@@ -11184,7 +9536,7 @@
         <v>19.800000000000011</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="3"/>
         <v>10.899999999999997</v>
@@ -11226,7 +9578,7 @@
         <v>19.900000000000013</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -11258,7 +9610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ref="A24:J24" si="12">A23+0.1</f>
         <v>20.100000000000001</v>
@@ -11300,7 +9652,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ref="A25:A32" si="13">A24+0.1</f>
         <v>20.200000000000003</v>
@@ -11342,7 +9694,7 @@
         <v>29.200000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="13"/>
         <v>20.300000000000004</v>
@@ -11384,7 +9736,7 @@
         <v>29.300000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="13"/>
         <v>20.400000000000006</v>
@@ -11426,7 +9778,7 @@
         <v>29.400000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="13"/>
         <v>20.500000000000007</v>
@@ -11468,7 +9820,7 @@
         <v>29.500000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="13"/>
         <v>20.600000000000009</v>
@@ -11510,7 +9862,7 @@
         <v>29.600000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="13"/>
         <v>20.70000000000001</v>
@@ -11552,7 +9904,7 @@
         <v>29.70000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="13"/>
         <v>20.800000000000011</v>
@@ -11594,7 +9946,7 @@
         <v>29.800000000000011</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="13"/>
         <v>20.900000000000013</v>
@@ -11636,7 +9988,7 @@
         <v>29.900000000000013</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -11668,7 +10020,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ref="A35:J35" si="23">A34+0.1</f>
         <v>30.1</v>
@@ -11710,7 +10062,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ref="A36:A43" si="24">A35+0.1</f>
         <v>30.200000000000003</v>
@@ -11752,7 +10104,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="24"/>
         <v>30.300000000000004</v>
@@ -11794,7 +10146,7 @@
         <v>39.300000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="24"/>
         <v>30.400000000000006</v>
@@ -11836,7 +10188,7 @@
         <v>39.400000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="24"/>
         <v>30.500000000000007</v>
@@ -11878,7 +10230,7 @@
         <v>39.500000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="24"/>
         <v>30.600000000000009</v>
@@ -11920,7 +10272,7 @@
         <v>39.600000000000009</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="24"/>
         <v>30.70000000000001</v>
@@ -11962,7 +10314,7 @@
         <v>39.70000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="24"/>
         <v>30.800000000000011</v>
@@ -12004,7 +10356,7 @@
         <v>39.800000000000011</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="24"/>
         <v>30.900000000000013</v>
@@ -12063,10 +10415,10 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.65" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="66">
+    <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -12106,8 +10458,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="66"/>
+    <row r="3" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -12145,8 +10497,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="66"/>
+    <row r="4" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>

--- a/temp/iter - copia.xlsx
+++ b/temp/iter - copia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC25F9D5-17BB-4337-893D-6BE46EF07D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8CD303-49E1-403D-A466-03F468769095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13395" yWindow="2760" windowWidth="12705" windowHeight="12000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Formulario_TEST!$A$1:$M$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="39">
   <si>
     <t>Rep</t>
   </si>
@@ -441,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,22 +561,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -588,7 +576,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -903,24 +906,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="K2" s="54" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="K2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
     </row>
     <row r="3" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -965,42 +968,42 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="54" t="s">
+      <c r="T3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AB3" s="54" t="s">
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AB3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AM3" s="51" t="s">
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AM3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="53"/>
-      <c r="AW3" s="51" t="s">
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="48"/>
+      <c r="AS3" s="49"/>
+      <c r="AW3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="53"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="48"/>
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="48"/>
+      <c r="BC3" s="49"/>
     </row>
     <row r="4" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -1572,10 +1575,10 @@
         <f t="shared" ref="AS7:AS10" si="21">AR7-AQ7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AT7" s="49" t="s">
+      <c r="AT7" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AU7" s="50"/>
+      <c r="AU7" s="55"/>
       <c r="AW7" s="34">
         <v>3</v>
       </c>
@@ -1601,10 +1604,10 @@
         <f t="shared" ref="BC7:BC10" si="23">BB7-BA7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="BD7" s="47" t="s">
+      <c r="BD7" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="BE7" s="48"/>
+      <c r="BE7" s="51"/>
     </row>
     <row r="8" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -1902,10 +1905,10 @@
         <f t="shared" si="21"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AT9" s="45" t="s">
+      <c r="AT9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AU9" s="46"/>
+      <c r="AU9" s="53"/>
       <c r="AW9" s="34">
         <v>5</v>
       </c>
@@ -1931,10 +1934,10 @@
         <f t="shared" si="23"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="BD9" s="45" t="s">
+      <c r="BD9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="BE9" s="46"/>
+      <c r="BE9" s="53"/>
     </row>
     <row r="10" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T10" s="8">
@@ -2055,15 +2058,15 @@
       </c>
     </row>
     <row r="11" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="54" t="s">
+      <c r="K11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -2116,15 +2119,15 @@
       </c>
     </row>
     <row r="12" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -2244,24 +2247,24 @@
         <f>P13-O13</f>
         <v>1.8</v>
       </c>
-      <c r="AM13" s="51" t="s">
+      <c r="AM13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AN13" s="52"/>
-      <c r="AO13" s="52"/>
-      <c r="AP13" s="52"/>
-      <c r="AQ13" s="52"/>
-      <c r="AR13" s="52"/>
-      <c r="AS13" s="53"/>
-      <c r="AW13" s="51" t="s">
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="48"/>
+      <c r="AP13" s="48"/>
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="48"/>
+      <c r="AS13" s="49"/>
+      <c r="AW13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AX13" s="52"/>
-      <c r="AY13" s="52"/>
-      <c r="AZ13" s="52"/>
-      <c r="BA13" s="52"/>
-      <c r="BB13" s="52"/>
-      <c r="BC13" s="53"/>
+      <c r="AX13" s="48"/>
+      <c r="AY13" s="48"/>
+      <c r="AZ13" s="48"/>
+      <c r="BA13" s="48"/>
+      <c r="BB13" s="48"/>
+      <c r="BC13" s="49"/>
     </row>
     <row r="14" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -2516,15 +2519,15 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="54" t="s">
+      <c r="T16" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
       <c r="AM16" s="34">
         <v>2</v>
       </c>
@@ -2652,15 +2655,15 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="54" t="s">
+      <c r="AD17" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="54"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
       <c r="AM17" s="34">
         <v>3</v>
       </c>
@@ -2686,10 +2689,10 @@
         <f t="shared" ref="AS17:AS20" si="41">AR17-AQ17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="AT17" s="47" t="s">
+      <c r="AT17" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AU17" s="48"/>
+      <c r="AU17" s="51"/>
       <c r="AW17" s="34">
         <v>3</v>
       </c>
@@ -2715,10 +2718,10 @@
         <f t="shared" ref="BC17:BC20" si="43">BB17-BA17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="BD17" s="47" t="s">
+      <c r="BD17" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="BE17" s="48"/>
+      <c r="BE17" s="51"/>
     </row>
     <row r="18" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -2999,10 +3002,10 @@
         <f t="shared" si="41"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="AT19" s="45" t="s">
+      <c r="AT19" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AU19" s="46"/>
+      <c r="AU19" s="53"/>
       <c r="AW19" s="34">
         <v>5</v>
       </c>
@@ -3028,10 +3031,10 @@
         <f t="shared" si="43"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="BD19" s="45" t="s">
+      <c r="BD19" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="BE19" s="46"/>
+      <c r="BE19" s="53"/>
     </row>
     <row r="20" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S20">
@@ -3158,15 +3161,15 @@
       </c>
     </row>
     <row r="21" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K21" s="54" t="s">
+      <c r="K21" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -3225,15 +3228,15 @@
       </c>
     </row>
     <row r="22" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -3409,24 +3412,24 @@
         <f t="shared" si="55"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="AM23" s="51" t="s">
+      <c r="AM23" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AN23" s="52"/>
-      <c r="AO23" s="52"/>
-      <c r="AP23" s="52"/>
-      <c r="AQ23" s="52"/>
-      <c r="AR23" s="52"/>
-      <c r="AS23" s="53"/>
-      <c r="AW23" s="51" t="s">
+      <c r="AN23" s="48"/>
+      <c r="AO23" s="48"/>
+      <c r="AP23" s="48"/>
+      <c r="AQ23" s="48"/>
+      <c r="AR23" s="48"/>
+      <c r="AS23" s="49"/>
+      <c r="AW23" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AX23" s="52"/>
-      <c r="AY23" s="52"/>
-      <c r="AZ23" s="52"/>
-      <c r="BA23" s="52"/>
-      <c r="BB23" s="52"/>
-      <c r="BC23" s="53"/>
+      <c r="AX23" s="48"/>
+      <c r="AY23" s="48"/>
+      <c r="AZ23" s="48"/>
+      <c r="BA23" s="48"/>
+      <c r="BB23" s="48"/>
+      <c r="BC23" s="49"/>
     </row>
     <row r="24" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -3940,10 +3943,10 @@
         <f t="shared" ref="AS27:AS30" si="73">AR27-AQ27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="AT27" s="47" t="s">
+      <c r="AT27" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AU27" s="48"/>
+      <c r="AU27" s="51"/>
       <c r="AW27" s="34">
         <v>3</v>
       </c>
@@ -3969,10 +3972,10 @@
         <f t="shared" ref="BC27:BC30" si="75">BB27-BA27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="BD27" s="47" t="s">
+      <c r="BD27" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="BE27" s="48"/>
+      <c r="BE27" s="51"/>
     </row>
     <row r="28" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -4164,15 +4167,15 @@
         <f t="shared" ref="Y29:Y38" si="81">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="54" t="s">
+      <c r="AD29" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="54"/>
-      <c r="AI29" s="54"/>
-      <c r="AJ29" s="54"/>
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="46"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="46"/>
+      <c r="AI29" s="46"/>
+      <c r="AJ29" s="46"/>
       <c r="AM29" s="34">
         <v>5</v>
       </c>
@@ -4198,10 +4201,10 @@
         <f t="shared" si="73"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AT29" s="45" t="s">
+      <c r="AT29" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AU29" s="46"/>
+      <c r="AU29" s="53"/>
       <c r="AW29" s="34">
         <v>5</v>
       </c>
@@ -4227,10 +4230,10 @@
         <f t="shared" si="75"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="BD29" s="45" t="s">
+      <c r="BD29" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="BE29" s="46"/>
+      <c r="BE29" s="53"/>
     </row>
     <row r="30" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T30" s="18" t="s">
@@ -4393,24 +4396,24 @@
       </c>
     </row>
     <row r="32" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="K32" s="54" t="s">
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="K32" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -4549,24 +4552,24 @@
         <f t="shared" ref="AJ33:AJ38" si="86">AI33-AH33</f>
         <v>9</v>
       </c>
-      <c r="AM33" s="51" t="s">
+      <c r="AM33" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AN33" s="52"/>
-      <c r="AO33" s="52"/>
-      <c r="AP33" s="52"/>
-      <c r="AQ33" s="52"/>
-      <c r="AR33" s="52"/>
-      <c r="AS33" s="53"/>
-      <c r="AW33" s="51" t="s">
+      <c r="AN33" s="48"/>
+      <c r="AO33" s="48"/>
+      <c r="AP33" s="48"/>
+      <c r="AQ33" s="48"/>
+      <c r="AR33" s="48"/>
+      <c r="AS33" s="49"/>
+      <c r="AW33" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AX33" s="52"/>
-      <c r="AY33" s="52"/>
-      <c r="AZ33" s="52"/>
-      <c r="BA33" s="52"/>
-      <c r="BB33" s="52"/>
-      <c r="BC33" s="53"/>
+      <c r="AX33" s="48"/>
+      <c r="AY33" s="48"/>
+      <c r="AZ33" s="48"/>
+      <c r="BA33" s="48"/>
+      <c r="BB33" s="48"/>
+      <c r="BC33" s="49"/>
     </row>
     <row r="34" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -5130,10 +5133,10 @@
         <f t="shared" ref="AS37:AS40" si="100">AR37-AQ37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="AT37" s="47" t="s">
+      <c r="AT37" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AU37" s="48"/>
+      <c r="AU37" s="51"/>
       <c r="AW37" s="34">
         <v>3</v>
       </c>
@@ -5159,10 +5162,10 @@
         <f t="shared" ref="BC37:BC40" si="102">BB37-BA37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="BD37" s="47" t="s">
+      <c r="BD37" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="BE37" s="48"/>
+      <c r="BE37" s="51"/>
     </row>
     <row r="38" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -5418,10 +5421,10 @@
         <f t="shared" si="100"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AT39" s="45" t="s">
+      <c r="AT39" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AU39" s="46"/>
+      <c r="AU39" s="53"/>
       <c r="AW39" s="34">
         <v>5</v>
       </c>
@@ -5447,10 +5450,10 @@
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD39" s="45" t="s">
+      <c r="BD39" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="BE39" s="46"/>
+      <c r="BE39" s="53"/>
     </row>
     <row r="40" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="8">
@@ -5581,15 +5584,15 @@
       </c>
     </row>
     <row r="42" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -5638,24 +5641,24 @@
       <c r="H43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM43" s="51" t="s">
+      <c r="AM43" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="52"/>
-      <c r="AO43" s="52"/>
-      <c r="AP43" s="52"/>
-      <c r="AQ43" s="52"/>
-      <c r="AR43" s="52"/>
-      <c r="AS43" s="53"/>
-      <c r="AW43" s="51" t="s">
+      <c r="AN43" s="48"/>
+      <c r="AO43" s="48"/>
+      <c r="AP43" s="48"/>
+      <c r="AQ43" s="48"/>
+      <c r="AR43" s="48"/>
+      <c r="AS43" s="49"/>
+      <c r="AW43" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AX43" s="52"/>
-      <c r="AY43" s="52"/>
-      <c r="AZ43" s="52"/>
-      <c r="BA43" s="52"/>
-      <c r="BB43" s="52"/>
-      <c r="BC43" s="53"/>
+      <c r="AX43" s="48"/>
+      <c r="AY43" s="48"/>
+      <c r="AZ43" s="48"/>
+      <c r="BA43" s="48"/>
+      <c r="BB43" s="48"/>
+      <c r="BC43" s="49"/>
     </row>
     <row r="44" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
@@ -5910,15 +5913,15 @@
         <f t="shared" si="114"/>
         <v>126</v>
       </c>
-      <c r="T47" s="54" t="s">
+      <c r="T47" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="54"/>
-      <c r="V47" s="54"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54"/>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="54"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="46"/>
+      <c r="Z47" s="46"/>
       <c r="AM47" s="34">
         <v>3</v>
       </c>
@@ -5944,10 +5947,10 @@
         <f t="shared" ref="AS47:AS50" si="120">AR47-AQ47</f>
         <v>9</v>
       </c>
-      <c r="AT47" s="47" t="s">
+      <c r="AT47" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AU47" s="48"/>
+      <c r="AU47" s="51"/>
       <c r="AW47" s="34">
         <v>3</v>
       </c>
@@ -5973,10 +5976,10 @@
         <f t="shared" ref="BC47:BC50" si="122">BB47-BA47</f>
         <v>18</v>
       </c>
-      <c r="BD47" s="47" t="s">
+      <c r="BD47" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="BE47" s="48"/>
+      <c r="BE47" s="51"/>
     </row>
     <row r="48" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
@@ -6170,10 +6173,10 @@
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT49" s="45" t="s">
+      <c r="AT49" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AU49" s="46"/>
+      <c r="AU49" s="53"/>
       <c r="AW49" s="34">
         <v>5</v>
       </c>
@@ -6199,10 +6202,10 @@
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD49" s="45" t="s">
+      <c r="BD49" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="BE49" s="46"/>
+      <c r="BE49" s="53"/>
     </row>
     <row r="50" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T50" s="8">
@@ -6325,15 +6328,15 @@
       </c>
     </row>
     <row r="52" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -6652,15 +6655,15 @@
       </c>
     </row>
     <row r="62" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="54" t="s">
+      <c r="B62" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
     </row>
     <row r="63" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
@@ -6855,39 +6858,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T47:Z47"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AM43:AS43"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="AW13:BC13"/>
-    <mergeCell ref="AW23:BC23"/>
-    <mergeCell ref="AW33:BC33"/>
-    <mergeCell ref="AW43:BC43"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AT49:AU49"/>
     <mergeCell ref="BD49:BE49"/>
     <mergeCell ref="BD39:BE39"/>
@@ -6902,6 +6872,39 @@
     <mergeCell ref="AT29:AU29"/>
     <mergeCell ref="AT39:AU39"/>
     <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="AW13:BC13"/>
+    <mergeCell ref="AW23:BC23"/>
+    <mergeCell ref="AW33:BC33"/>
+    <mergeCell ref="AW43:BC43"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T47:Z47"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AM43:AS43"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" orientation="portrait" r:id="rId1"/>
@@ -6926,70 +6929,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="56" t="s">
+      <c r="D3" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -7351,36 +7354,36 @@
     </row>
     <row r="25" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
     </row>
     <row r="27" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7407,27 +7410,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:P55"/>
+  <dimension ref="B2:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+    <row r="2" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-    </row>
-    <row r="4" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
+      <c r="J3" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="49"/>
+    </row>
+    <row r="4" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
@@ -7449,8 +7461,29 @@
       <c r="H4" s="33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34">
         <v>1</v>
       </c>
@@ -7476,8 +7509,33 @@
         <f>G5-F5</f>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="34">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>18</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="M5" s="8">
+        <f>K5*L5</f>
+        <v>1.8</v>
+      </c>
+      <c r="N5" s="10">
+        <f>M5</f>
+        <v>1.8</v>
+      </c>
+      <c r="O5" s="8">
+        <f>L5*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="P5" s="35">
+        <f>O5-N5</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34">
         <v>2</v>
       </c>
@@ -7503,8 +7561,33 @@
         <f>G6-F6</f>
         <v>1.7999999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="34">
+        <v>2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>18</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" ref="M6:M14" si="2">K6*L6</f>
+        <v>3.6</v>
+      </c>
+      <c r="N6" s="10">
+        <f>M6+N5</f>
+        <v>5.4</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" ref="O6:O14" si="3">L6*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="P6" s="36">
+        <f>O6-N6</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34">
         <v>3</v>
       </c>
@@ -7519,7 +7602,7 @@
         <v>7.2</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" ref="F7:F10" si="2">E7+F6</f>
+        <f t="shared" ref="F7:F10" si="4">E7+F6</f>
         <v>12.600000000000001</v>
       </c>
       <c r="G7" s="8">
@@ -7527,11 +7610,36 @@
         <v>14.4</v>
       </c>
       <c r="H7" s="35">
-        <f t="shared" ref="H7:H10" si="3">G7-F7</f>
+        <f t="shared" ref="H7:H10" si="5">G7-F7</f>
         <v>1.7999999999999989</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="34">
+        <v>3</v>
+      </c>
+      <c r="K7" s="8">
+        <v>18</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N7" s="10">
+        <f t="shared" ref="N7:N14" si="6">M7+N6</f>
+        <v>14.4</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="P7" s="35">
+        <f t="shared" ref="P7:P14" si="7">O7-N7</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34">
         <v>4</v>
       </c>
@@ -7546,7 +7654,7 @@
         <v>14.4</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="G8" s="8">
@@ -7554,11 +7662,36 @@
         <v>28.8</v>
       </c>
       <c r="H8" s="36">
+        <f t="shared" si="5"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="J8" s="34">
+        <v>4</v>
+      </c>
+      <c r="K8" s="8">
+        <v>18</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="6"/>
+        <v>32.4</v>
+      </c>
+      <c r="O8" s="8">
         <f t="shared" si="3"/>
-        <v>1.8000000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="P8" s="36">
+        <f t="shared" si="7"/>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="34">
         <v>5</v>
       </c>
@@ -7573,7 +7706,7 @@
         <v>28.8</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55.8</v>
       </c>
       <c r="G9" s="8">
@@ -7581,11 +7714,36 @@
         <v>57.6</v>
       </c>
       <c r="H9" s="35">
+        <f t="shared" si="5"/>
+        <v>1.8000000000000043</v>
+      </c>
+      <c r="J9" s="34">
+        <v>5</v>
+      </c>
+      <c r="K9" s="8">
+        <v>18</v>
+      </c>
+      <c r="L9" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="2"/>
+        <v>37.800000000000004</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="6"/>
+        <v>70.2</v>
+      </c>
+      <c r="O9" s="8">
         <f t="shared" si="3"/>
-        <v>1.8000000000000043</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75.600000000000009</v>
+      </c>
+      <c r="P9" s="35">
+        <f t="shared" si="7"/>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="37">
         <v>6</v>
       </c>
@@ -7600,7 +7758,7 @@
         <v>57.6</v>
       </c>
       <c r="F10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>113.4</v>
       </c>
       <c r="G10" s="38">
@@ -7608,11 +7766,36 @@
         <v>115.2</v>
       </c>
       <c r="H10" s="41">
+        <f t="shared" si="5"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="J10" s="37">
+        <v>6</v>
+      </c>
+      <c r="K10" s="38">
+        <v>18</v>
+      </c>
+      <c r="L10" s="39">
+        <v>4.2</v>
+      </c>
+      <c r="M10" s="38">
+        <f t="shared" si="2"/>
+        <v>75.600000000000009</v>
+      </c>
+      <c r="N10" s="40">
+        <f t="shared" si="6"/>
+        <v>145.80000000000001</v>
+      </c>
+      <c r="O10" s="38">
         <f t="shared" si="3"/>
-        <v>1.7999999999999972</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151.20000000000002</v>
+      </c>
+      <c r="P10" s="41">
+        <f t="shared" si="7"/>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="34">
         <v>7</v>
       </c>
@@ -7623,282 +7806,269 @@
         <v>6.4</v>
       </c>
       <c r="E11" s="8">
-        <f t="shared" ref="E11" si="4">C11*D11</f>
+        <f t="shared" ref="E11:E13" si="8">C11*D11</f>
         <v>115.2</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" ref="F11" si="5">E11+F10</f>
+        <f t="shared" ref="F11:F13" si="9">E11+F10</f>
         <v>228.60000000000002</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" ref="G11" si="6">D11*36</f>
+        <f t="shared" ref="G11:G13" si="10">D11*36</f>
         <v>230.4</v>
       </c>
       <c r="H11" s="35">
-        <f t="shared" ref="H11" si="7">G11-F11</f>
+        <f t="shared" ref="H11:H13" si="11">G11-F11</f>
         <v>1.7999999999999829</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="51" t="s">
+      <c r="J11" s="34">
+        <v>7</v>
+      </c>
+      <c r="K11" s="8">
+        <v>18</v>
+      </c>
+      <c r="L11" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="6"/>
+        <v>298.8</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="3"/>
+        <v>306</v>
+      </c>
+      <c r="P11" s="35">
+        <f t="shared" si="7"/>
+        <v>7.1999999999999886</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="34">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="8"/>
+        <v>230.4</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="9"/>
+        <v>459</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="10"/>
+        <v>460.8</v>
+      </c>
+      <c r="H12" s="35">
+        <f t="shared" si="11"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="J12" s="34">
+        <v>8</v>
+      </c>
+      <c r="K12" s="8">
+        <v>18</v>
+      </c>
+      <c r="L12" s="9">
+        <v>17</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="6"/>
+        <v>604.79999999999995</v>
+      </c>
+      <c r="O12" s="8">
+        <f t="shared" si="3"/>
+        <v>612</v>
+      </c>
+      <c r="P12" s="35">
+        <f t="shared" si="7"/>
+        <v>7.2000000000000455</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="37">
+        <v>9</v>
+      </c>
+      <c r="C13" s="38">
+        <v>18</v>
+      </c>
+      <c r="D13" s="39">
+        <v>25.6</v>
+      </c>
+      <c r="E13" s="38">
+        <f t="shared" si="8"/>
+        <v>460.8</v>
+      </c>
+      <c r="F13" s="40">
+        <f t="shared" si="9"/>
+        <v>919.8</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" si="10"/>
+        <v>921.6</v>
+      </c>
+      <c r="H13" s="41">
+        <f t="shared" si="11"/>
+        <v>1.8000000000000682</v>
+      </c>
+      <c r="J13" s="37">
+        <v>9</v>
+      </c>
+      <c r="K13" s="38">
+        <v>18</v>
+      </c>
+      <c r="L13" s="39">
+        <v>34.1</v>
+      </c>
+      <c r="M13" s="38">
+        <f t="shared" si="2"/>
+        <v>613.80000000000007</v>
+      </c>
+      <c r="N13" s="40">
+        <f t="shared" si="6"/>
+        <v>1218.5999999999999</v>
+      </c>
+      <c r="O13" s="38">
+        <f t="shared" si="3"/>
+        <v>1227.6000000000001</v>
+      </c>
+      <c r="P13" s="41">
+        <f t="shared" si="7"/>
+        <v>9.0000000000002274</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="34">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8">
+        <v>18</v>
+      </c>
+      <c r="D14" s="9">
+        <v>51.2</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" ref="E14" si="12">C14*D14</f>
+        <v>921.6</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14" si="13">E14+F13</f>
+        <v>1841.4</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" ref="G14" si="14">D14*36</f>
+        <v>1843.2</v>
+      </c>
+      <c r="H14" s="35">
+        <f t="shared" ref="H14" si="15">G14-F14</f>
+        <v>1.7999999999999545</v>
+      </c>
+      <c r="J14" s="34">
+        <v>10</v>
+      </c>
+      <c r="K14" s="8">
+        <v>18</v>
+      </c>
+      <c r="L14" s="9">
+        <v>68.2</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="2"/>
+        <v>1227.6000000000001</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="6"/>
+        <v>2446.1999999999998</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" si="3"/>
+        <v>2455.2000000000003</v>
+      </c>
+      <c r="P14" s="35">
+        <f t="shared" si="7"/>
+        <v>9.0000000000004547</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-    </row>
-    <row r="15" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8">
-        <v>18</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="8">
-        <f>C16*D16</f>
-        <v>1.8</v>
-      </c>
-      <c r="F16" s="10">
-        <f>E16</f>
-        <v>1.8</v>
-      </c>
-      <c r="G16" s="8">
-        <f>D16*36</f>
-        <v>3.6</v>
-      </c>
-      <c r="H16" s="35">
-        <f>G16-F16</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34">
-        <v>2</v>
-      </c>
-      <c r="C17" s="8">
-        <v>18</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" ref="E17:E22" si="8">C17*D17</f>
-        <v>5.3999999999999995</v>
-      </c>
-      <c r="F17" s="10">
-        <f>E17+F16</f>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" ref="G17:G22" si="9">D17*36</f>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="H17" s="36">
-        <f>G17-F17</f>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34">
-        <v>3</v>
-      </c>
-      <c r="C18" s="8">
-        <v>18</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="E18" s="8">
-        <f t="shared" si="8"/>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" ref="F18:F22" si="10">E18+F17</f>
-        <v>18</v>
-      </c>
-      <c r="G18" s="8">
-        <f t="shared" si="9"/>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="H18" s="35">
-        <f t="shared" ref="H18:H22" si="11">G18-F18</f>
-        <v>3.5999999999999979</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34">
-        <v>4</v>
-      </c>
-      <c r="C19" s="8">
-        <v>18</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" si="8"/>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="F19" s="10">
-        <f t="shared" si="10"/>
-        <v>39.599999999999994</v>
-      </c>
-      <c r="G19" s="8">
-        <f t="shared" si="9"/>
-        <v>43.199999999999996</v>
-      </c>
-      <c r="H19" s="36">
-        <f t="shared" si="11"/>
-        <v>3.6000000000000014</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34">
-        <v>5</v>
-      </c>
-      <c r="C20" s="8">
-        <v>18</v>
-      </c>
-      <c r="D20" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" si="8"/>
-        <v>43.199999999999996</v>
-      </c>
-      <c r="F20" s="10">
-        <f t="shared" si="10"/>
-        <v>82.799999999999983</v>
-      </c>
-      <c r="G20" s="8">
-        <f t="shared" si="9"/>
-        <v>86.399999999999991</v>
-      </c>
-      <c r="H20" s="35">
-        <f t="shared" si="11"/>
-        <v>3.6000000000000085</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="37">
-        <v>6</v>
-      </c>
-      <c r="C21" s="38">
-        <v>18</v>
-      </c>
-      <c r="D21" s="39">
-        <v>4.8</v>
-      </c>
-      <c r="E21" s="38">
-        <f t="shared" si="8"/>
-        <v>86.399999999999991</v>
-      </c>
-      <c r="F21" s="40">
-        <f t="shared" si="10"/>
-        <v>169.2</v>
-      </c>
-      <c r="G21" s="38">
-        <f t="shared" si="9"/>
-        <v>172.79999999999998</v>
-      </c>
-      <c r="H21" s="41">
-        <f t="shared" si="11"/>
-        <v>3.5999999999999943</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="34">
-        <v>7</v>
-      </c>
-      <c r="C22" s="8">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="8"/>
-        <v>172.79999999999998</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" si="10"/>
-        <v>342</v>
-      </c>
-      <c r="G22" s="8">
-        <f t="shared" si="9"/>
-        <v>345.59999999999997</v>
-      </c>
-      <c r="H22" s="35">
-        <f t="shared" si="11"/>
-        <v>3.5999999999999659</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
-    </row>
-    <row r="26" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
+      <c r="J25" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="49"/>
+    </row>
+    <row r="26" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="43" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G26" s="43" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="34">
         <v>1</v>
       </c>
@@ -7906,26 +8076,51 @@
         <v>18</v>
       </c>
       <c r="D27" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E27" s="8">
         <f>C27*D27</f>
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="F27" s="10">
         <f>E27</f>
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="G27" s="8">
         <f>D27*36</f>
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="H27" s="35">
         <f>G27-F27</f>
+        <v>1.8</v>
+      </c>
+      <c r="J27" s="34">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8">
+        <v>18</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="8">
+        <f>K27*L27</f>
+        <v>1.8</v>
+      </c>
+      <c r="N27" s="10">
+        <f>M27</f>
+        <v>1.8</v>
+      </c>
+      <c r="O27" s="8">
+        <f>L27*36</f>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="35">
+        <f>O27-N27</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="34">
         <v>2</v>
       </c>
@@ -7933,26 +8128,51 @@
         <v>18</v>
       </c>
       <c r="D28" s="9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:E32" si="12">C28*D28</f>
-        <v>7.2</v>
+        <f t="shared" ref="E28:E33" si="16">C28*D28</f>
+        <v>3.6</v>
       </c>
       <c r="F28" s="10">
         <f>E28+F27</f>
-        <v>10.8</v>
+        <v>5.4</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" ref="G28:G32" si="13">D28*36</f>
-        <v>14.4</v>
+        <f t="shared" ref="G28:G33" si="17">D28*36</f>
+        <v>7.2</v>
       </c>
       <c r="H28" s="36">
         <f>G28-F28</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="J28" s="34">
+        <v>2</v>
+      </c>
+      <c r="K28" s="8">
+        <v>18</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" ref="M28:M33" si="18">K28*L28</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="N28" s="10">
+        <f>M28+N27</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="O28" s="8">
+        <f t="shared" ref="O28:O33" si="19">L28*36</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="P28" s="36">
+        <f>O28-N28</f>
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="34">
         <v>3</v>
       </c>
@@ -7960,26 +8180,51 @@
         <v>18</v>
       </c>
       <c r="D29" s="9">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" ref="F29:F33" si="20">E29+F28</f>
         <v>14.4</v>
       </c>
-      <c r="F29" s="10">
-        <f t="shared" ref="F29:F32" si="14">E29+F28</f>
-        <v>25.200000000000003</v>
-      </c>
       <c r="G29" s="8">
-        <f t="shared" si="13"/>
-        <v>28.8</v>
+        <f t="shared" si="17"/>
+        <v>18</v>
       </c>
       <c r="H29" s="35">
-        <f t="shared" ref="H29:H32" si="15">G29-F29</f>
-        <v>3.5999999999999979</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H29:H33" si="21">G29-F29</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="J29" s="34">
+        <v>3</v>
+      </c>
+      <c r="K29" s="8">
+        <v>18</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="18"/>
+        <v>12.6</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" ref="N29:N33" si="22">M29+N28</f>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="O29" s="8">
+        <f t="shared" si="19"/>
+        <v>25.2</v>
+      </c>
+      <c r="P29" s="35">
+        <f t="shared" ref="P29:P33" si="23">O29-N29</f>
+        <v>5.4000000000000021</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="34">
         <v>4</v>
       </c>
@@ -7987,26 +8232,51 @@
         <v>18</v>
       </c>
       <c r="D30" s="9">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" si="12"/>
-        <v>28.8</v>
+        <f t="shared" si="16"/>
+        <v>18</v>
       </c>
       <c r="F30" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
+        <v>32.4</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="17"/>
+        <v>36</v>
+      </c>
+      <c r="H30" s="36">
+        <f t="shared" si="21"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="J30" s="34">
+        <v>4</v>
+      </c>
+      <c r="K30" s="8">
+        <v>18</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="18"/>
+        <v>27</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="22"/>
+        <v>46.8</v>
+      </c>
+      <c r="O30" s="8">
+        <f t="shared" si="19"/>
         <v>54</v>
       </c>
-      <c r="G30" s="8">
-        <f t="shared" si="13"/>
-        <v>57.6</v>
-      </c>
-      <c r="H30" s="36">
-        <f t="shared" si="15"/>
-        <v>3.6000000000000014</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="36">
+        <f t="shared" si="23"/>
+        <v>7.2000000000000028</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="34">
         <v>5</v>
       </c>
@@ -8014,26 +8284,51 @@
         <v>18</v>
       </c>
       <c r="D31" s="9">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" si="12"/>
-        <v>57.6</v>
+        <f t="shared" si="16"/>
+        <v>37.800000000000004</v>
       </c>
       <c r="F31" s="10">
-        <f t="shared" si="14"/>
-        <v>111.6</v>
+        <f t="shared" si="20"/>
+        <v>70.2</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="13"/>
-        <v>115.2</v>
+        <f t="shared" si="17"/>
+        <v>75.600000000000009</v>
       </c>
       <c r="H31" s="35">
-        <f t="shared" si="15"/>
-        <v>3.6000000000000085</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="21"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="J31" s="34">
+        <v>5</v>
+      </c>
+      <c r="K31" s="8">
+        <v>18</v>
+      </c>
+      <c r="L31" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="M31" s="8">
+        <f t="shared" si="18"/>
+        <v>55.800000000000004</v>
+      </c>
+      <c r="N31" s="10">
+        <f t="shared" si="22"/>
+        <v>102.6</v>
+      </c>
+      <c r="O31" s="8">
+        <f t="shared" si="19"/>
+        <v>111.60000000000001</v>
+      </c>
+      <c r="P31" s="35">
+        <f t="shared" si="23"/>
+        <v>9.0000000000000142</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37">
         <v>6</v>
       </c>
@@ -8041,23 +8336,48 @@
         <v>18</v>
       </c>
       <c r="D32" s="39">
+        <v>4.2</v>
+      </c>
+      <c r="E32" s="38">
+        <f t="shared" si="16"/>
+        <v>75.600000000000009</v>
+      </c>
+      <c r="F32" s="40">
+        <f t="shared" si="20"/>
+        <v>145.80000000000001</v>
+      </c>
+      <c r="G32" s="38">
+        <f t="shared" si="17"/>
+        <v>151.20000000000002</v>
+      </c>
+      <c r="H32" s="41">
+        <f t="shared" si="21"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="J32" s="37">
+        <v>6</v>
+      </c>
+      <c r="K32" s="38">
+        <v>18</v>
+      </c>
+      <c r="L32" s="39">
         <v>6.4</v>
       </c>
-      <c r="E32" s="38">
-        <f t="shared" si="12"/>
+      <c r="M32" s="38">
+        <f t="shared" si="18"/>
         <v>115.2</v>
       </c>
-      <c r="F32" s="40">
-        <f t="shared" si="14"/>
-        <v>226.8</v>
-      </c>
-      <c r="G32" s="38">
-        <f t="shared" si="13"/>
+      <c r="N32" s="40">
+        <f t="shared" si="22"/>
+        <v>217.8</v>
+      </c>
+      <c r="O32" s="38">
+        <f t="shared" si="19"/>
         <v>230.4</v>
       </c>
-      <c r="H32" s="41">
-        <f t="shared" si="15"/>
-        <v>3.5999999999999943</v>
+      <c r="P32" s="41">
+        <f t="shared" si="23"/>
+        <v>12.599999999999994</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8068,87 +8388,82 @@
         <v>18</v>
       </c>
       <c r="D33" s="9">
-        <v>12.8</v>
+        <v>8.5</v>
       </c>
       <c r="E33" s="8">
-        <f t="shared" ref="E33" si="16">C33*D33</f>
-        <v>230.4</v>
+        <f t="shared" si="16"/>
+        <v>153</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" ref="F33" si="17">E33+F32</f>
-        <v>457.20000000000005</v>
+        <f t="shared" si="20"/>
+        <v>298.8</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" ref="G33" si="18">D33*36</f>
-        <v>460.8</v>
+        <f t="shared" si="17"/>
+        <v>306</v>
       </c>
       <c r="H33" s="35">
-        <f t="shared" ref="H33" si="19">G33-F33</f>
-        <v>3.5999999999999659</v>
+        <f t="shared" si="21"/>
+        <v>7.1999999999999886</v>
+      </c>
+      <c r="J33" s="34">
+        <v>7</v>
+      </c>
+      <c r="K33" s="8">
+        <v>18</v>
+      </c>
+      <c r="L33" s="9">
+        <v>13</v>
+      </c>
+      <c r="M33" s="8">
+        <f t="shared" si="18"/>
+        <v>234</v>
+      </c>
+      <c r="N33" s="10">
+        <f t="shared" si="22"/>
+        <v>451.8</v>
+      </c>
+      <c r="O33" s="8">
+        <f t="shared" si="19"/>
+        <v>468</v>
+      </c>
+      <c r="P33" s="35">
+        <f t="shared" si="23"/>
+        <v>16.199999999999989</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="53"/>
-      <c r="J36" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="53"/>
+      <c r="B36" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="49"/>
     </row>
     <row r="37" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="42" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="44" t="s">
+      <c r="G37" s="42" t="s">
         <v>5</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="K37" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M37" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="N37" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="O37" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P37" s="33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8178,31 +8493,6 @@
         <f>G38-F38</f>
         <v>3.6</v>
       </c>
-      <c r="J38" s="34">
-        <v>1</v>
-      </c>
-      <c r="K38" s="8">
-        <v>18</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="M38" s="8">
-        <f>K38*L38</f>
-        <v>5.3999999999999995</v>
-      </c>
-      <c r="N38" s="10">
-        <f>M38</f>
-        <v>5.3999999999999995</v>
-      </c>
-      <c r="O38" s="8">
-        <f>L38*36</f>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="P38" s="35">
-        <f>O38-N38</f>
-        <v>5.3999999999999995</v>
-      </c>
     </row>
     <row r="39" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="34">
@@ -8212,48 +8502,23 @@
         <v>18</v>
       </c>
       <c r="D39" s="9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" ref="E39:E44" si="20">C39*D39</f>
-        <v>9</v>
+        <f t="shared" ref="E39:E43" si="24">C39*D39</f>
+        <v>7.2</v>
       </c>
       <c r="F39" s="10">
         <f>E39+F38</f>
-        <v>12.6</v>
+        <v>10.8</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" ref="G39:G44" si="21">D39*36</f>
-        <v>18</v>
+        <f t="shared" ref="G39:G43" si="25">D39*36</f>
+        <v>14.4</v>
       </c>
       <c r="H39" s="36">
         <f>G39-F39</f>
-        <v>5.4</v>
-      </c>
-      <c r="J39" s="34">
-        <v>2</v>
-      </c>
-      <c r="K39" s="8">
-        <v>18</v>
-      </c>
-      <c r="L39" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="M39" s="8">
-        <f t="shared" ref="M39:M44" si="22">K39*L39</f>
-        <v>9</v>
-      </c>
-      <c r="N39" s="10">
-        <f>M39+N38</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="O39" s="8">
-        <f t="shared" ref="O39:O44" si="23">L39*36</f>
-        <v>18</v>
-      </c>
-      <c r="P39" s="36">
-        <f>O39-N39</f>
-        <v>3.6000000000000014</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8264,48 +8529,23 @@
         <v>18</v>
       </c>
       <c r="D40" s="9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" si="20"/>
-        <v>18</v>
+        <f t="shared" si="24"/>
+        <v>14.4</v>
       </c>
       <c r="F40" s="10">
-        <f t="shared" ref="F40:F44" si="24">E40+F39</f>
-        <v>30.6</v>
+        <f t="shared" ref="F40:F43" si="26">E40+F39</f>
+        <v>25.200000000000003</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="21"/>
-        <v>36</v>
+        <f t="shared" si="25"/>
+        <v>28.8</v>
       </c>
       <c r="H40" s="35">
-        <f t="shared" ref="H40:H44" si="25">G40-F40</f>
-        <v>5.3999999999999986</v>
-      </c>
-      <c r="J40" s="34">
-        <v>3</v>
-      </c>
-      <c r="K40" s="8">
-        <v>18</v>
-      </c>
-      <c r="L40" s="9">
-        <v>1</v>
-      </c>
-      <c r="M40" s="8">
-        <f t="shared" si="22"/>
-        <v>18</v>
-      </c>
-      <c r="N40" s="10">
-        <f t="shared" ref="N40:N44" si="26">M40+N39</f>
-        <v>32.4</v>
-      </c>
-      <c r="O40" s="8">
-        <f t="shared" si="23"/>
-        <v>36</v>
-      </c>
-      <c r="P40" s="35">
-        <f t="shared" ref="P40:P44" si="27">O40-N40</f>
-        <v>3.6000000000000014</v>
+        <f t="shared" ref="H40:H43" si="27">G40-F40</f>
+        <v>3.5999999999999979</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8316,48 +8556,23 @@
         <v>18</v>
       </c>
       <c r="D41" s="9">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="20"/>
-        <v>36</v>
+        <f t="shared" si="24"/>
+        <v>28.8</v>
       </c>
       <c r="F41" s="10">
-        <f t="shared" si="24"/>
-        <v>66.599999999999994</v>
+        <f t="shared" si="26"/>
+        <v>54</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="21"/>
-        <v>72</v>
+        <f t="shared" si="25"/>
+        <v>57.6</v>
       </c>
       <c r="H41" s="36">
-        <f t="shared" si="25"/>
-        <v>5.4000000000000057</v>
-      </c>
-      <c r="J41" s="34">
-        <v>4</v>
-      </c>
-      <c r="K41" s="8">
-        <v>18</v>
-      </c>
-      <c r="L41" s="9">
-        <v>2</v>
-      </c>
-      <c r="M41" s="8">
-        <f t="shared" si="22"/>
-        <v>36</v>
-      </c>
-      <c r="N41" s="10">
-        <f t="shared" si="26"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="O41" s="8">
-        <f t="shared" si="23"/>
-        <v>72</v>
-      </c>
-      <c r="P41" s="36">
         <f t="shared" si="27"/>
-        <v>3.5999999999999943</v>
+        <v>3.6000000000000014</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8368,48 +8583,23 @@
         <v>18</v>
       </c>
       <c r="D42" s="9">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="E42" s="8">
-        <f t="shared" si="20"/>
-        <v>72</v>
+        <f t="shared" si="24"/>
+        <v>57.6</v>
       </c>
       <c r="F42" s="10">
-        <f t="shared" si="24"/>
-        <v>138.6</v>
+        <f t="shared" si="26"/>
+        <v>111.6</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" si="21"/>
-        <v>144</v>
+        <f t="shared" si="25"/>
+        <v>115.2</v>
       </c>
       <c r="H42" s="35">
-        <f t="shared" si="25"/>
-        <v>5.4000000000000057</v>
-      </c>
-      <c r="J42" s="34">
-        <v>5</v>
-      </c>
-      <c r="K42" s="8">
-        <v>18</v>
-      </c>
-      <c r="L42" s="9">
-        <v>4</v>
-      </c>
-      <c r="M42" s="8">
-        <f t="shared" si="22"/>
-        <v>72</v>
-      </c>
-      <c r="N42" s="10">
-        <f t="shared" si="26"/>
-        <v>140.4</v>
-      </c>
-      <c r="O42" s="8">
-        <f t="shared" si="23"/>
-        <v>144</v>
-      </c>
-      <c r="P42" s="35">
         <f t="shared" si="27"/>
-        <v>3.5999999999999943</v>
+        <v>3.6000000000000085</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8420,48 +8610,23 @@
         <v>18</v>
       </c>
       <c r="D43" s="39">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="E43" s="38">
-        <f t="shared" si="20"/>
-        <v>144</v>
+        <f t="shared" si="24"/>
+        <v>115.2</v>
       </c>
       <c r="F43" s="40">
-        <f t="shared" si="24"/>
-        <v>282.60000000000002</v>
+        <f t="shared" si="26"/>
+        <v>226.8</v>
       </c>
       <c r="G43" s="38">
-        <f t="shared" si="21"/>
-        <v>288</v>
+        <f t="shared" si="25"/>
+        <v>230.4</v>
       </c>
       <c r="H43" s="41">
-        <f t="shared" si="25"/>
-        <v>5.3999999999999773</v>
-      </c>
-      <c r="J43" s="37">
-        <v>6</v>
-      </c>
-      <c r="K43" s="38">
-        <v>18</v>
-      </c>
-      <c r="L43" s="39">
-        <v>8</v>
-      </c>
-      <c r="M43" s="38">
-        <f t="shared" si="22"/>
-        <v>144</v>
-      </c>
-      <c r="N43" s="40">
-        <f t="shared" si="26"/>
-        <v>284.39999999999998</v>
-      </c>
-      <c r="O43" s="38">
-        <f t="shared" si="23"/>
-        <v>288</v>
-      </c>
-      <c r="P43" s="41">
         <f t="shared" si="27"/>
-        <v>3.6000000000000227</v>
+        <v>3.5999999999999943</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8472,61 +8637,45 @@
         <v>18</v>
       </c>
       <c r="D44" s="9">
-        <v>16</v>
+        <v>12.8</v>
       </c>
       <c r="E44" s="8">
-        <f t="shared" si="20"/>
-        <v>288</v>
+        <f t="shared" ref="E44" si="28">C44*D44</f>
+        <v>230.4</v>
       </c>
       <c r="F44" s="10">
-        <f t="shared" si="24"/>
-        <v>570.6</v>
+        <f t="shared" ref="F44" si="29">E44+F43</f>
+        <v>457.20000000000005</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" si="21"/>
-        <v>576</v>
+        <f t="shared" ref="G44" si="30">D44*36</f>
+        <v>460.8</v>
       </c>
       <c r="H44" s="35">
-        <f t="shared" si="25"/>
-        <v>5.3999999999999773</v>
-      </c>
-      <c r="J44" s="34">
-        <v>7</v>
-      </c>
-      <c r="K44" s="8">
-        <v>18</v>
-      </c>
-      <c r="L44" s="9">
-        <v>16</v>
-      </c>
-      <c r="M44" s="8">
-        <f t="shared" si="22"/>
-        <v>288</v>
-      </c>
-      <c r="N44" s="10">
-        <f t="shared" si="26"/>
-        <v>572.4</v>
-      </c>
-      <c r="O44" s="8">
-        <f t="shared" si="23"/>
-        <v>576</v>
-      </c>
-      <c r="P44" s="35">
-        <f t="shared" si="27"/>
-        <v>3.6000000000000227</v>
+        <f t="shared" ref="H44" si="31">G44-F44</f>
+        <v>3.5999999999999659</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="53"/>
+      <c r="B47" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="49"/>
+      <c r="J47" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="49"/>
     </row>
     <row r="48" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="32" t="s">
@@ -8550,8 +8699,29 @@
       <c r="H48" s="33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="34">
         <v>1</v>
       </c>
@@ -8559,26 +8729,51 @@
         <v>18</v>
       </c>
       <c r="D49" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E49" s="8">
         <f>C49*D49</f>
-        <v>5.3999999999999995</v>
+        <v>3.6</v>
       </c>
       <c r="F49" s="10">
         <f>E49</f>
-        <v>5.3999999999999995</v>
+        <v>3.6</v>
       </c>
       <c r="G49" s="8">
         <f>D49*36</f>
-        <v>10.799999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="H49" s="35">
         <f>G49-F49</f>
+        <v>3.6</v>
+      </c>
+      <c r="J49" s="34">
+        <v>1</v>
+      </c>
+      <c r="K49" s="8">
+        <v>18</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="M49" s="8">
+        <f>K49*L49</f>
         <v>5.3999999999999995</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N49" s="10">
+        <f>M49</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="O49" s="8">
+        <f>L49*36</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="P49" s="35">
+        <f>O49-N49</f>
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="34">
         <v>2</v>
       </c>
@@ -8586,26 +8781,51 @@
         <v>18</v>
       </c>
       <c r="D50" s="9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E50" s="8">
-        <f t="shared" ref="E50:E55" si="28">C50*D50</f>
-        <v>10.799999999999999</v>
+        <f t="shared" ref="E50:E55" si="32">C50*D50</f>
+        <v>9</v>
       </c>
       <c r="F50" s="10">
         <f>E50+F49</f>
-        <v>16.2</v>
+        <v>12.6</v>
       </c>
       <c r="G50" s="8">
-        <f t="shared" ref="G50:G55" si="29">D50*36</f>
-        <v>21.599999999999998</v>
+        <f t="shared" ref="G50:G55" si="33">D50*36</f>
+        <v>18</v>
       </c>
       <c r="H50" s="36">
         <f>G50-F50</f>
-        <v>5.3999999999999986</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.4</v>
+      </c>
+      <c r="J50" s="34">
+        <v>2</v>
+      </c>
+      <c r="K50" s="8">
+        <v>18</v>
+      </c>
+      <c r="L50" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M50" s="8">
+        <f t="shared" ref="M50:M55" si="34">K50*L50</f>
+        <v>9</v>
+      </c>
+      <c r="N50" s="10">
+        <f>M50+N49</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="O50" s="8">
+        <f t="shared" ref="O50:O55" si="35">L50*36</f>
+        <v>18</v>
+      </c>
+      <c r="P50" s="36">
+        <f>O50-N50</f>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="34">
         <v>3</v>
       </c>
@@ -8613,26 +8833,51 @@
         <v>18</v>
       </c>
       <c r="D51" s="9">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E51" s="8">
-        <f t="shared" si="28"/>
-        <v>21.599999999999998</v>
+        <f t="shared" si="32"/>
+        <v>18</v>
       </c>
       <c r="F51" s="10">
-        <f t="shared" ref="F51:F55" si="30">E51+F50</f>
-        <v>37.799999999999997</v>
+        <f t="shared" ref="F51:F55" si="36">E51+F50</f>
+        <v>30.6</v>
       </c>
       <c r="G51" s="8">
-        <f t="shared" si="29"/>
-        <v>43.199999999999996</v>
+        <f t="shared" si="33"/>
+        <v>36</v>
       </c>
       <c r="H51" s="35">
-        <f t="shared" ref="H51:H55" si="31">G51-F51</f>
+        <f t="shared" ref="H51:H55" si="37">G51-F51</f>
         <v>5.3999999999999986</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="34">
+        <v>3</v>
+      </c>
+      <c r="K51" s="8">
+        <v>18</v>
+      </c>
+      <c r="L51" s="9">
+        <v>1</v>
+      </c>
+      <c r="M51" s="8">
+        <f t="shared" si="34"/>
+        <v>18</v>
+      </c>
+      <c r="N51" s="10">
+        <f t="shared" ref="N51:N55" si="38">M51+N50</f>
+        <v>32.4</v>
+      </c>
+      <c r="O51" s="8">
+        <f t="shared" si="35"/>
+        <v>36</v>
+      </c>
+      <c r="P51" s="35">
+        <f t="shared" ref="P51:P55" si="39">O51-N51</f>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="34">
         <v>4</v>
       </c>
@@ -8640,26 +8885,51 @@
         <v>18</v>
       </c>
       <c r="D52" s="9">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="E52" s="8">
-        <f t="shared" si="28"/>
-        <v>43.199999999999996</v>
+        <f t="shared" si="32"/>
+        <v>36</v>
       </c>
       <c r="F52" s="10">
-        <f t="shared" si="30"/>
-        <v>81</v>
+        <f t="shared" si="36"/>
+        <v>66.599999999999994</v>
       </c>
       <c r="G52" s="8">
-        <f t="shared" si="29"/>
-        <v>86.399999999999991</v>
+        <f t="shared" si="33"/>
+        <v>72</v>
       </c>
       <c r="H52" s="36">
-        <f t="shared" si="31"/>
-        <v>5.3999999999999915</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="J52" s="34">
+        <v>4</v>
+      </c>
+      <c r="K52" s="8">
+        <v>18</v>
+      </c>
+      <c r="L52" s="9">
+        <v>2</v>
+      </c>
+      <c r="M52" s="8">
+        <f t="shared" si="34"/>
+        <v>36</v>
+      </c>
+      <c r="N52" s="10">
+        <f t="shared" si="38"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="O52" s="8">
+        <f t="shared" si="35"/>
+        <v>72</v>
+      </c>
+      <c r="P52" s="36">
+        <f t="shared" si="39"/>
+        <v>3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="34">
         <v>5</v>
       </c>
@@ -8667,26 +8937,51 @@
         <v>18</v>
       </c>
       <c r="D53" s="9">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="E53" s="8">
-        <f t="shared" si="28"/>
-        <v>86.399999999999991</v>
+        <f t="shared" si="32"/>
+        <v>72</v>
       </c>
       <c r="F53" s="10">
-        <f t="shared" si="30"/>
-        <v>167.39999999999998</v>
+        <f t="shared" si="36"/>
+        <v>138.6</v>
       </c>
       <c r="G53" s="8">
-        <f t="shared" si="29"/>
-        <v>172.79999999999998</v>
+        <f t="shared" si="33"/>
+        <v>144</v>
       </c>
       <c r="H53" s="35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>5.4000000000000057</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J53" s="34">
+        <v>5</v>
+      </c>
+      <c r="K53" s="8">
+        <v>18</v>
+      </c>
+      <c r="L53" s="9">
+        <v>4</v>
+      </c>
+      <c r="M53" s="8">
+        <f t="shared" si="34"/>
+        <v>72</v>
+      </c>
+      <c r="N53" s="10">
+        <f t="shared" si="38"/>
+        <v>140.4</v>
+      </c>
+      <c r="O53" s="8">
+        <f t="shared" si="35"/>
+        <v>144</v>
+      </c>
+      <c r="P53" s="35">
+        <f t="shared" si="39"/>
+        <v>3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="37">
         <v>6</v>
       </c>
@@ -8694,26 +8989,51 @@
         <v>18</v>
       </c>
       <c r="D54" s="39">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="E54" s="38">
-        <f t="shared" si="28"/>
-        <v>172.79999999999998</v>
+        <f t="shared" si="32"/>
+        <v>144</v>
       </c>
       <c r="F54" s="40">
-        <f t="shared" si="30"/>
-        <v>340.19999999999993</v>
+        <f t="shared" si="36"/>
+        <v>282.60000000000002</v>
       </c>
       <c r="G54" s="38">
-        <f t="shared" si="29"/>
-        <v>345.59999999999997</v>
+        <f t="shared" si="33"/>
+        <v>288</v>
       </c>
       <c r="H54" s="41">
-        <f t="shared" si="31"/>
-        <v>5.4000000000000341</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>5.3999999999999773</v>
+      </c>
+      <c r="J54" s="37">
+        <v>6</v>
+      </c>
+      <c r="K54" s="38">
+        <v>18</v>
+      </c>
+      <c r="L54" s="39">
+        <v>8</v>
+      </c>
+      <c r="M54" s="38">
+        <f t="shared" si="34"/>
+        <v>144</v>
+      </c>
+      <c r="N54" s="40">
+        <f t="shared" si="38"/>
+        <v>284.39999999999998</v>
+      </c>
+      <c r="O54" s="38">
+        <f t="shared" si="35"/>
+        <v>288</v>
+      </c>
+      <c r="P54" s="41">
+        <f t="shared" si="39"/>
+        <v>3.6000000000000227</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="34">
         <v>7</v>
       </c>
@@ -8721,33 +9041,284 @@
         <v>18</v>
       </c>
       <c r="D55" s="9">
+        <v>16</v>
+      </c>
+      <c r="E55" s="8">
+        <f t="shared" si="32"/>
+        <v>288</v>
+      </c>
+      <c r="F55" s="10">
+        <f t="shared" si="36"/>
+        <v>570.6</v>
+      </c>
+      <c r="G55" s="8">
+        <f t="shared" si="33"/>
+        <v>576</v>
+      </c>
+      <c r="H55" s="35">
+        <f t="shared" si="37"/>
+        <v>5.3999999999999773</v>
+      </c>
+      <c r="J55" s="34">
+        <v>7</v>
+      </c>
+      <c r="K55" s="8">
+        <v>18</v>
+      </c>
+      <c r="L55" s="9">
+        <v>16</v>
+      </c>
+      <c r="M55" s="8">
+        <f t="shared" si="34"/>
+        <v>288</v>
+      </c>
+      <c r="N55" s="10">
+        <f t="shared" si="38"/>
+        <v>572.4</v>
+      </c>
+      <c r="O55" s="8">
+        <f t="shared" si="35"/>
+        <v>576</v>
+      </c>
+      <c r="P55" s="35">
+        <f t="shared" si="39"/>
+        <v>3.6000000000000227</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="49"/>
+    </row>
+    <row r="59" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="34">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8">
+        <v>18</v>
+      </c>
+      <c r="D60" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E60" s="8">
+        <f>C60*D60</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="F60" s="10">
+        <f>E60</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="G60" s="8">
+        <f>D60*36</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="H60" s="35">
+        <f>G60-F60</f>
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="34">
+        <v>2</v>
+      </c>
+      <c r="C61" s="8">
+        <v>18</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E61" s="8">
+        <f t="shared" ref="E61:E66" si="40">C61*D61</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="F61" s="10">
+        <f>E61+F60</f>
+        <v>16.2</v>
+      </c>
+      <c r="G61" s="8">
+        <f t="shared" ref="G61:G66" si="41">D61*36</f>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="H61" s="36">
+        <f>G61-F61</f>
+        <v>5.3999999999999986</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="34">
+        <v>3</v>
+      </c>
+      <c r="C62" s="8">
+        <v>18</v>
+      </c>
+      <c r="D62" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="E62" s="8">
+        <f t="shared" si="40"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="F62" s="10">
+        <f t="shared" ref="F62:F66" si="42">E62+F61</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="G62" s="8">
+        <f t="shared" si="41"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="H62" s="35">
+        <f t="shared" ref="H62:H66" si="43">G62-F62</f>
+        <v>5.3999999999999986</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="34">
+        <v>4</v>
+      </c>
+      <c r="C63" s="8">
+        <v>18</v>
+      </c>
+      <c r="D63" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="E63" s="8">
+        <f t="shared" si="40"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="F63" s="10">
+        <f t="shared" si="42"/>
+        <v>81</v>
+      </c>
+      <c r="G63" s="8">
+        <f t="shared" si="41"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="H63" s="36">
+        <f t="shared" si="43"/>
+        <v>5.3999999999999915</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="34">
+        <v>5</v>
+      </c>
+      <c r="C64" s="8">
+        <v>18</v>
+      </c>
+      <c r="D64" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="E64" s="8">
+        <f t="shared" si="40"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="F64" s="10">
+        <f t="shared" si="42"/>
+        <v>167.39999999999998</v>
+      </c>
+      <c r="G64" s="8">
+        <f t="shared" si="41"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="H64" s="35">
+        <f t="shared" si="43"/>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="37">
+        <v>6</v>
+      </c>
+      <c r="C65" s="38">
+        <v>18</v>
+      </c>
+      <c r="D65" s="39">
+        <v>9.6</v>
+      </c>
+      <c r="E65" s="38">
+        <f t="shared" si="40"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="F65" s="40">
+        <f t="shared" si="42"/>
+        <v>340.19999999999993</v>
+      </c>
+      <c r="G65" s="38">
+        <f t="shared" si="41"/>
+        <v>345.59999999999997</v>
+      </c>
+      <c r="H65" s="41">
+        <f t="shared" si="43"/>
+        <v>5.4000000000000341</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="34">
+        <v>7</v>
+      </c>
+      <c r="C66" s="8">
+        <v>18</v>
+      </c>
+      <c r="D66" s="9">
         <v>19.2</v>
       </c>
-      <c r="E55" s="8">
-        <f t="shared" si="28"/>
+      <c r="E66" s="8">
+        <f t="shared" si="40"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="F55" s="10">
-        <f t="shared" si="30"/>
+      <c r="F66" s="10">
+        <f t="shared" si="42"/>
         <v>685.8</v>
       </c>
-      <c r="G55" s="8">
-        <f t="shared" si="29"/>
+      <c r="G66" s="8">
+        <f t="shared" si="41"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="H55" s="35">
-        <f t="shared" si="31"/>
+      <c r="H66" s="35">
+        <f t="shared" si="43"/>
         <v>5.3999999999999773</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B3:H3"/>
     <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="J36:P36"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J3:P3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -10418,7 +10989,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59">
+      <c r="A2" s="60">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -10459,7 +11030,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -10498,7 +11069,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>

--- a/temp/iter - copia.xlsx
+++ b/temp/iter - copia.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC25F9D5-17BB-4337-893D-6BE46EF07D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C0281E-B666-4903-B8C1-A7D0287C1963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13395" yWindow="2760" windowWidth="12705" windowHeight="12000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
     <sheet name="Formulario_TEST" sheetId="14" r:id="rId2"/>
     <sheet name="Martingala ITER_2" sheetId="16" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="17" r:id="rId4"/>
-    <sheet name="Tablero" sheetId="15" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="18" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="17" r:id="rId5"/>
+    <sheet name="Tablero" sheetId="15" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Formulario_TEST!$A$1:$M$27</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="43">
   <si>
     <t>Rep</t>
   </si>
@@ -157,6 +158,18 @@
   <si>
     <t>Martingala ITER-2,5</t>
   </si>
+  <si>
+    <t>POKERSTARS</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
 </sst>
 </file>
 
@@ -222,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -437,11 +450,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,22 +585,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -588,7 +629,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -602,6 +658,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -903,24 +971,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="K2" s="54" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="K2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
     </row>
     <row r="3" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -965,42 +1033,42 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="54" t="s">
+      <c r="T3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AB3" s="54" t="s">
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AB3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AM3" s="51" t="s">
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AM3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="53"/>
-      <c r="AW3" s="51" t="s">
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="60"/>
+      <c r="AW3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="53"/>
+      <c r="AX3" s="59"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="59"/>
+      <c r="BC3" s="60"/>
     </row>
     <row r="4" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -1572,10 +1640,10 @@
         <f t="shared" ref="AS7:AS10" si="21">AR7-AQ7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AT7" s="49" t="s">
+      <c r="AT7" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="AU7" s="50"/>
+      <c r="AU7" s="66"/>
       <c r="AW7" s="34">
         <v>3</v>
       </c>
@@ -1601,10 +1669,10 @@
         <f t="shared" ref="BC7:BC10" si="23">BB7-BA7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="BD7" s="47" t="s">
+      <c r="BD7" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="BE7" s="48"/>
+      <c r="BE7" s="62"/>
     </row>
     <row r="8" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -1902,10 +1970,10 @@
         <f t="shared" si="21"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AT9" s="45" t="s">
+      <c r="AT9" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AU9" s="46"/>
+      <c r="AU9" s="64"/>
       <c r="AW9" s="34">
         <v>5</v>
       </c>
@@ -1931,10 +1999,10 @@
         <f t="shared" si="23"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="BD9" s="45" t="s">
+      <c r="BD9" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="BE9" s="46"/>
+      <c r="BE9" s="64"/>
     </row>
     <row r="10" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T10" s="8">
@@ -2055,15 +2123,15 @@
       </c>
     </row>
     <row r="11" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="54" t="s">
+      <c r="K11" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -2116,15 +2184,15 @@
       </c>
     </row>
     <row r="12" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -2244,24 +2312,24 @@
         <f>P13-O13</f>
         <v>1.8</v>
       </c>
-      <c r="AM13" s="51" t="s">
+      <c r="AM13" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AN13" s="52"/>
-      <c r="AO13" s="52"/>
-      <c r="AP13" s="52"/>
-      <c r="AQ13" s="52"/>
-      <c r="AR13" s="52"/>
-      <c r="AS13" s="53"/>
-      <c r="AW13" s="51" t="s">
+      <c r="AN13" s="59"/>
+      <c r="AO13" s="59"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="59"/>
+      <c r="AR13" s="59"/>
+      <c r="AS13" s="60"/>
+      <c r="AW13" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AX13" s="52"/>
-      <c r="AY13" s="52"/>
-      <c r="AZ13" s="52"/>
-      <c r="BA13" s="52"/>
-      <c r="BB13" s="52"/>
-      <c r="BC13" s="53"/>
+      <c r="AX13" s="59"/>
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="59"/>
+      <c r="BA13" s="59"/>
+      <c r="BB13" s="59"/>
+      <c r="BC13" s="60"/>
     </row>
     <row r="14" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -2516,15 +2584,15 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="54" t="s">
+      <c r="T16" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
       <c r="AM16" s="34">
         <v>2</v>
       </c>
@@ -2652,15 +2720,15 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="54" t="s">
+      <c r="AD17" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="54"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="57"/>
+      <c r="AJ17" s="57"/>
       <c r="AM17" s="34">
         <v>3</v>
       </c>
@@ -2686,10 +2754,10 @@
         <f t="shared" ref="AS17:AS20" si="41">AR17-AQ17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="AT17" s="47" t="s">
+      <c r="AT17" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="AU17" s="48"/>
+      <c r="AU17" s="62"/>
       <c r="AW17" s="34">
         <v>3</v>
       </c>
@@ -2715,10 +2783,10 @@
         <f t="shared" ref="BC17:BC20" si="43">BB17-BA17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="BD17" s="47" t="s">
+      <c r="BD17" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="BE17" s="48"/>
+      <c r="BE17" s="62"/>
     </row>
     <row r="18" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -2999,10 +3067,10 @@
         <f t="shared" si="41"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="AT19" s="45" t="s">
+      <c r="AT19" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AU19" s="46"/>
+      <c r="AU19" s="64"/>
       <c r="AW19" s="34">
         <v>5</v>
       </c>
@@ -3028,10 +3096,10 @@
         <f t="shared" si="43"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="BD19" s="45" t="s">
+      <c r="BD19" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="BE19" s="46"/>
+      <c r="BE19" s="64"/>
     </row>
     <row r="20" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S20">
@@ -3158,15 +3226,15 @@
       </c>
     </row>
     <row r="21" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K21" s="54" t="s">
+      <c r="K21" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -3225,15 +3293,15 @@
       </c>
     </row>
     <row r="22" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -3409,24 +3477,24 @@
         <f t="shared" si="55"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="AM23" s="51" t="s">
+      <c r="AM23" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AN23" s="52"/>
-      <c r="AO23" s="52"/>
-      <c r="AP23" s="52"/>
-      <c r="AQ23" s="52"/>
-      <c r="AR23" s="52"/>
-      <c r="AS23" s="53"/>
-      <c r="AW23" s="51" t="s">
+      <c r="AN23" s="59"/>
+      <c r="AO23" s="59"/>
+      <c r="AP23" s="59"/>
+      <c r="AQ23" s="59"/>
+      <c r="AR23" s="59"/>
+      <c r="AS23" s="60"/>
+      <c r="AW23" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AX23" s="52"/>
-      <c r="AY23" s="52"/>
-      <c r="AZ23" s="52"/>
-      <c r="BA23" s="52"/>
-      <c r="BB23" s="52"/>
-      <c r="BC23" s="53"/>
+      <c r="AX23" s="59"/>
+      <c r="AY23" s="59"/>
+      <c r="AZ23" s="59"/>
+      <c r="BA23" s="59"/>
+      <c r="BB23" s="59"/>
+      <c r="BC23" s="60"/>
     </row>
     <row r="24" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -3940,10 +4008,10 @@
         <f t="shared" ref="AS27:AS30" si="73">AR27-AQ27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="AT27" s="47" t="s">
+      <c r="AT27" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="AU27" s="48"/>
+      <c r="AU27" s="62"/>
       <c r="AW27" s="34">
         <v>3</v>
       </c>
@@ -3969,10 +4037,10 @@
         <f t="shared" ref="BC27:BC30" si="75">BB27-BA27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="BD27" s="47" t="s">
+      <c r="BD27" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="BE27" s="48"/>
+      <c r="BE27" s="62"/>
     </row>
     <row r="28" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -4164,15 +4232,15 @@
         <f t="shared" ref="Y29:Y38" si="81">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="54" t="s">
+      <c r="AD29" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="54"/>
-      <c r="AI29" s="54"/>
-      <c r="AJ29" s="54"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="57"/>
+      <c r="AJ29" s="57"/>
       <c r="AM29" s="34">
         <v>5</v>
       </c>
@@ -4198,10 +4266,10 @@
         <f t="shared" si="73"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AT29" s="45" t="s">
+      <c r="AT29" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AU29" s="46"/>
+      <c r="AU29" s="64"/>
       <c r="AW29" s="34">
         <v>5</v>
       </c>
@@ -4227,10 +4295,10 @@
         <f t="shared" si="75"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="BD29" s="45" t="s">
+      <c r="BD29" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="BE29" s="46"/>
+      <c r="BE29" s="64"/>
     </row>
     <row r="30" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T30" s="18" t="s">
@@ -4393,24 +4461,24 @@
       </c>
     </row>
     <row r="32" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="K32" s="54" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="K32" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -4549,24 +4617,24 @@
         <f t="shared" ref="AJ33:AJ38" si="86">AI33-AH33</f>
         <v>9</v>
       </c>
-      <c r="AM33" s="51" t="s">
+      <c r="AM33" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AN33" s="52"/>
-      <c r="AO33" s="52"/>
-      <c r="AP33" s="52"/>
-      <c r="AQ33" s="52"/>
-      <c r="AR33" s="52"/>
-      <c r="AS33" s="53"/>
-      <c r="AW33" s="51" t="s">
+      <c r="AN33" s="59"/>
+      <c r="AO33" s="59"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="59"/>
+      <c r="AS33" s="60"/>
+      <c r="AW33" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AX33" s="52"/>
-      <c r="AY33" s="52"/>
-      <c r="AZ33" s="52"/>
-      <c r="BA33" s="52"/>
-      <c r="BB33" s="52"/>
-      <c r="BC33" s="53"/>
+      <c r="AX33" s="59"/>
+      <c r="AY33" s="59"/>
+      <c r="AZ33" s="59"/>
+      <c r="BA33" s="59"/>
+      <c r="BB33" s="59"/>
+      <c r="BC33" s="60"/>
     </row>
     <row r="34" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -5130,10 +5198,10 @@
         <f t="shared" ref="AS37:AS40" si="100">AR37-AQ37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="AT37" s="47" t="s">
+      <c r="AT37" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="AU37" s="48"/>
+      <c r="AU37" s="62"/>
       <c r="AW37" s="34">
         <v>3</v>
       </c>
@@ -5159,10 +5227,10 @@
         <f t="shared" ref="BC37:BC40" si="102">BB37-BA37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="BD37" s="47" t="s">
+      <c r="BD37" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="BE37" s="48"/>
+      <c r="BE37" s="62"/>
     </row>
     <row r="38" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -5418,10 +5486,10 @@
         <f t="shared" si="100"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AT39" s="45" t="s">
+      <c r="AT39" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AU39" s="46"/>
+      <c r="AU39" s="64"/>
       <c r="AW39" s="34">
         <v>5</v>
       </c>
@@ -5447,10 +5515,10 @@
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD39" s="45" t="s">
+      <c r="BD39" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="BE39" s="46"/>
+      <c r="BE39" s="64"/>
     </row>
     <row r="40" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="8">
@@ -5581,15 +5649,15 @@
       </c>
     </row>
     <row r="42" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -5638,24 +5706,24 @@
       <c r="H43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM43" s="51" t="s">
+      <c r="AM43" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="52"/>
-      <c r="AO43" s="52"/>
-      <c r="AP43" s="52"/>
-      <c r="AQ43" s="52"/>
-      <c r="AR43" s="52"/>
-      <c r="AS43" s="53"/>
-      <c r="AW43" s="51" t="s">
+      <c r="AN43" s="59"/>
+      <c r="AO43" s="59"/>
+      <c r="AP43" s="59"/>
+      <c r="AQ43" s="59"/>
+      <c r="AR43" s="59"/>
+      <c r="AS43" s="60"/>
+      <c r="AW43" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AX43" s="52"/>
-      <c r="AY43" s="52"/>
-      <c r="AZ43" s="52"/>
-      <c r="BA43" s="52"/>
-      <c r="BB43" s="52"/>
-      <c r="BC43" s="53"/>
+      <c r="AX43" s="59"/>
+      <c r="AY43" s="59"/>
+      <c r="AZ43" s="59"/>
+      <c r="BA43" s="59"/>
+      <c r="BB43" s="59"/>
+      <c r="BC43" s="60"/>
     </row>
     <row r="44" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
@@ -5910,15 +5978,15 @@
         <f t="shared" si="114"/>
         <v>126</v>
       </c>
-      <c r="T47" s="54" t="s">
+      <c r="T47" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="54"/>
-      <c r="V47" s="54"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54"/>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="54"/>
+      <c r="U47" s="57"/>
+      <c r="V47" s="57"/>
+      <c r="W47" s="57"/>
+      <c r="X47" s="57"/>
+      <c r="Y47" s="57"/>
+      <c r="Z47" s="57"/>
       <c r="AM47" s="34">
         <v>3</v>
       </c>
@@ -5944,10 +6012,10 @@
         <f t="shared" ref="AS47:AS50" si="120">AR47-AQ47</f>
         <v>9</v>
       </c>
-      <c r="AT47" s="47" t="s">
+      <c r="AT47" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="AU47" s="48"/>
+      <c r="AU47" s="62"/>
       <c r="AW47" s="34">
         <v>3</v>
       </c>
@@ -5973,10 +6041,10 @@
         <f t="shared" ref="BC47:BC50" si="122">BB47-BA47</f>
         <v>18</v>
       </c>
-      <c r="BD47" s="47" t="s">
+      <c r="BD47" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="BE47" s="48"/>
+      <c r="BE47" s="62"/>
     </row>
     <row r="48" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
@@ -6170,10 +6238,10 @@
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT49" s="45" t="s">
+      <c r="AT49" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AU49" s="46"/>
+      <c r="AU49" s="64"/>
       <c r="AW49" s="34">
         <v>5</v>
       </c>
@@ -6199,10 +6267,10 @@
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD49" s="45" t="s">
+      <c r="BD49" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="BE49" s="46"/>
+      <c r="BE49" s="64"/>
     </row>
     <row r="50" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T50" s="8">
@@ -6325,15 +6393,15 @@
       </c>
     </row>
     <row r="52" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -6652,15 +6720,15 @@
       </c>
     </row>
     <row r="62" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="54" t="s">
+      <c r="B62" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
     </row>
     <row r="63" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
@@ -6855,39 +6923,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T47:Z47"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AM43:AS43"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="AW13:BC13"/>
-    <mergeCell ref="AW23:BC23"/>
-    <mergeCell ref="AW33:BC33"/>
-    <mergeCell ref="AW43:BC43"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AT49:AU49"/>
     <mergeCell ref="BD49:BE49"/>
     <mergeCell ref="BD39:BE39"/>
@@ -6902,6 +6937,39 @@
     <mergeCell ref="AT29:AU29"/>
     <mergeCell ref="AT39:AU39"/>
     <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="AW13:BC13"/>
+    <mergeCell ref="AW23:BC23"/>
+    <mergeCell ref="AW33:BC33"/>
+    <mergeCell ref="AW43:BC43"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T47:Z47"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AM43:AS43"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" orientation="portrait" r:id="rId1"/>
@@ -6926,70 +6994,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="56" t="s">
+      <c r="D3" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
     </row>
     <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -7351,36 +7419,36 @@
     </row>
     <row r="25" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
     </row>
     <row r="27" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7407,27 +7475,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:P55"/>
+  <dimension ref="B2:AE108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="J79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W88" sqref="W88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+    <row r="2" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-    </row>
-    <row r="4" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="M3" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="60"/>
+    </row>
+    <row r="4" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
@@ -7449,8 +7529,32 @@
       <c r="H4" s="33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="M4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34">
         <v>1</v>
       </c>
@@ -7476,8 +7580,36 @@
         <f>G5-F5</f>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="M5" s="34">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>18</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="8">
+        <f>N5*O5</f>
+        <v>1.8</v>
+      </c>
+      <c r="Q5" s="10">
+        <f>P5</f>
+        <v>1.8</v>
+      </c>
+      <c r="R5" s="8">
+        <f>O5*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="S5" s="35">
+        <f>R5-Q5</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34">
         <v>2</v>
       </c>
@@ -7503,8 +7635,36 @@
         <f>G6-F6</f>
         <v>1.7999999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="M6" s="34">
+        <v>2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>18</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" ref="P6" si="2">N6*O6</f>
+        <v>9</v>
+      </c>
+      <c r="Q6" s="10">
+        <f>P6+Q5</f>
+        <v>10.8</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" ref="R6" si="3">O6*36</f>
+        <v>18</v>
+      </c>
+      <c r="S6" s="36">
+        <f>R6-Q6</f>
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34">
         <v>3</v>
       </c>
@@ -7519,7 +7679,7 @@
         <v>7.2</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" ref="F7:F10" si="2">E7+F6</f>
+        <f t="shared" ref="F7:F10" si="4">E7+F6</f>
         <v>12.600000000000001</v>
       </c>
       <c r="G7" s="8">
@@ -7527,11 +7687,21 @@
         <v>14.4</v>
       </c>
       <c r="H7" s="35">
-        <f t="shared" ref="H7:H10" si="3">G7-F7</f>
+        <f t="shared" ref="H7:H10" si="5">G7-F7</f>
         <v>1.7999999999999989</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="35"/>
+    </row>
+    <row r="8" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34">
         <v>4</v>
       </c>
@@ -7546,7 +7716,7 @@
         <v>14.4</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="G8" s="8">
@@ -7554,11 +7724,14 @@
         <v>28.8</v>
       </c>
       <c r="H8" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.8000000000000007</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+    </row>
+    <row r="9" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="34">
         <v>5</v>
       </c>
@@ -7573,7 +7746,7 @@
         <v>28.8</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55.8</v>
       </c>
       <c r="G9" s="8">
@@ -7581,11 +7754,14 @@
         <v>57.6</v>
       </c>
       <c r="H9" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.8000000000000043</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+    </row>
+    <row r="10" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="37">
         <v>6</v>
       </c>
@@ -7600,7 +7776,7 @@
         <v>57.6</v>
       </c>
       <c r="F10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>113.4</v>
       </c>
       <c r="G10" s="38">
@@ -7608,11 +7784,30 @@
         <v>115.2</v>
       </c>
       <c r="H10" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7999999999999972</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="R10">
+        <v>0.1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>19</v>
+      </c>
+      <c r="U10" s="19">
+        <v>-10.8</v>
+      </c>
+      <c r="V10">
+        <f>T10*U10</f>
+        <v>-205.20000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="34">
         <v>7</v>
       </c>
@@ -7623,35 +7818,68 @@
         <v>6.4</v>
       </c>
       <c r="E11" s="8">
-        <f t="shared" ref="E11" si="4">C11*D11</f>
+        <f t="shared" ref="E11" si="6">C11*D11</f>
         <v>115.2</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" ref="F11" si="5">E11+F10</f>
+        <f t="shared" ref="F11" si="7">E11+F10</f>
         <v>228.60000000000002</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" ref="G11" si="6">D11*36</f>
+        <f t="shared" ref="G11" si="8">D11*36</f>
         <v>230.4</v>
       </c>
       <c r="H11" s="35">
-        <f t="shared" ref="H11" si="7">G11-F11</f>
+        <f t="shared" ref="H11" si="9">G11-F11</f>
         <v>1.7999999999999829</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="51" t="s">
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="T11">
+        <v>21</v>
+      </c>
+      <c r="U11" s="19">
+        <v>7.2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ref="V11:V12" si="10">T11*U11</f>
+        <v>151.20000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="20">
+        <v>25</v>
+      </c>
+      <c r="U12" s="20">
+        <v>1.8</v>
+      </c>
+      <c r="V12" s="20">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V13">
+        <f>SUM(V10:V12)</f>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-    </row>
-    <row r="15" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
         <v>0</v>
       </c>
@@ -7673,8 +7901,11 @@
       <c r="H15" s="33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34">
         <v>1</v>
       </c>
@@ -7700,8 +7931,23 @@
         <f>G16-F16</f>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="S16">
+        <v>0.1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>39.6</v>
+      </c>
+      <c r="V16">
+        <v>-19.8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="34">
         <v>2</v>
       </c>
@@ -7712,7 +7958,7 @@
         <v>0.3</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" ref="E17:E22" si="8">C17*D17</f>
+        <f t="shared" ref="E17:E22" si="11">C17*D17</f>
         <v>5.3999999999999995</v>
       </c>
       <c r="F17" s="10">
@@ -7720,15 +7966,30 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" ref="G17:G22" si="9">D17*36</f>
+        <f t="shared" ref="G17:G22" si="12">D17*36</f>
         <v>10.799999999999999</v>
       </c>
       <c r="H17" s="36">
         <f>G17-F17</f>
         <v>3.5999999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="S17">
+        <v>0.1</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <v>327.60000000000002</v>
+      </c>
+      <c r="V17">
+        <v>-91.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="34">
         <v>3</v>
       </c>
@@ -7739,23 +8000,38 @@
         <v>0.6</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>10.799999999999999</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" ref="F18:F22" si="10">E18+F17</f>
+        <f t="shared" ref="F18:F22" si="13">E18+F17</f>
         <v>18</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>21.599999999999998</v>
       </c>
       <c r="H18" s="35">
-        <f t="shared" ref="H18:H22" si="11">G18-F18</f>
+        <f t="shared" ref="H18:H22" si="14">G18-F18</f>
         <v>3.5999999999999979</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="S18">
+        <v>0.1</v>
+      </c>
+      <c r="T18">
+        <v>10</v>
+      </c>
+      <c r="U18">
+        <v>687.6</v>
+      </c>
+      <c r="V18">
+        <v>-181.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="34">
         <v>4</v>
       </c>
@@ -7766,23 +8042,38 @@
         <v>1.2</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>21.599999999999998</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>39.599999999999994</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>43.199999999999996</v>
       </c>
       <c r="H19" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.6000000000000014</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="S19">
+        <v>0.1</v>
+      </c>
+      <c r="T19">
+        <v>20</v>
+      </c>
+      <c r="U19">
+        <v>1407.6</v>
+      </c>
+      <c r="V19">
+        <v>-361.8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="34">
         <v>5</v>
       </c>
@@ -7793,23 +8084,26 @@
         <v>2.4</v>
       </c>
       <c r="E20" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>43.199999999999996</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>82.799999999999983</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>86.399999999999991</v>
       </c>
       <c r="H20" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.6000000000000085</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+    </row>
+    <row r="21" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="37">
         <v>6</v>
       </c>
@@ -7820,23 +8114,26 @@
         <v>4.8</v>
       </c>
       <c r="E21" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>86.399999999999991</v>
       </c>
       <c r="F21" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>169.2</v>
       </c>
       <c r="G21" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>172.79999999999998</v>
       </c>
       <c r="H21" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.5999999999999943</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+    </row>
+    <row r="22" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="34">
         <v>7</v>
       </c>
@@ -7847,35 +8144,41 @@
         <v>9.6</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>172.79999999999998</v>
       </c>
       <c r="F22" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>342</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>345.59999999999997</v>
       </c>
       <c r="H22" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.5999999999999659</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="51" t="s">
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+    </row>
+    <row r="24" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
-    </row>
-    <row r="26" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32" t="s">
         <v>0</v>
       </c>
@@ -7897,8 +8200,11 @@
       <c r="H26" s="33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="34">
         <v>1</v>
       </c>
@@ -7924,8 +8230,11 @@
         <f>G27-F27</f>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+    </row>
+    <row r="28" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="34">
         <v>2</v>
       </c>
@@ -7936,7 +8245,7 @@
         <v>0.4</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:E32" si="12">C28*D28</f>
+        <f t="shared" ref="E28:E32" si="15">C28*D28</f>
         <v>7.2</v>
       </c>
       <c r="F28" s="10">
@@ -7944,15 +8253,18 @@
         <v>10.8</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" ref="G28:G32" si="13">D28*36</f>
+        <f t="shared" ref="G28:G32" si="16">D28*36</f>
         <v>14.4</v>
       </c>
       <c r="H28" s="36">
         <f>G28-F28</f>
         <v>3.5999999999999996</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+    </row>
+    <row r="29" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="34">
         <v>3</v>
       </c>
@@ -7963,23 +8275,26 @@
         <v>0.8</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14.4</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" ref="F29:F32" si="14">E29+F28</f>
+        <f t="shared" ref="F29:F32" si="17">E29+F28</f>
         <v>25.200000000000003</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>28.8</v>
       </c>
       <c r="H29" s="35">
-        <f t="shared" ref="H29:H32" si="15">G29-F29</f>
+        <f t="shared" ref="H29:H32" si="18">G29-F29</f>
         <v>3.5999999999999979</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+    </row>
+    <row r="30" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="34">
         <v>4</v>
       </c>
@@ -7990,23 +8305,26 @@
         <v>1.6</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>28.8</v>
       </c>
       <c r="F30" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>54</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>57.6</v>
       </c>
       <c r="H30" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3.6000000000000014</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+    </row>
+    <row r="31" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="34">
         <v>5</v>
       </c>
@@ -8017,23 +8335,26 @@
         <v>3.2</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>57.6</v>
       </c>
       <c r="F31" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>111.6</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>115.2</v>
       </c>
       <c r="H31" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3.6000000000000085</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+    </row>
+    <row r="32" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37">
         <v>6</v>
       </c>
@@ -8044,23 +8365,26 @@
         <v>6.4</v>
       </c>
       <c r="E32" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>115.2</v>
       </c>
       <c r="F32" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>226.8</v>
       </c>
       <c r="G32" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>230.4</v>
       </c>
       <c r="H32" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3.5999999999999943</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+    </row>
+    <row r="33" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="34">
         <v>7</v>
       </c>
@@ -8071,44 +8395,50 @@
         <v>12.8</v>
       </c>
       <c r="E33" s="8">
-        <f t="shared" ref="E33" si="16">C33*D33</f>
+        <f t="shared" ref="E33" si="19">C33*D33</f>
         <v>230.4</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" ref="F33" si="17">E33+F32</f>
+        <f t="shared" ref="F33" si="20">E33+F32</f>
         <v>457.20000000000005</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" ref="G33" si="18">D33*36</f>
+        <f t="shared" ref="G33" si="21">D33*36</f>
         <v>460.8</v>
       </c>
       <c r="H33" s="35">
-        <f t="shared" ref="H33" si="19">G33-F33</f>
+        <f t="shared" ref="H33" si="22">G33-F33</f>
         <v>3.5999999999999659</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="51" t="s">
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+    </row>
+    <row r="35" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="53"/>
-      <c r="J36" s="51" t="s">
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="M36" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="53"/>
-    </row>
-    <row r="37" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="60"/>
+    </row>
+    <row r="37" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="32" t="s">
         <v>0</v>
       </c>
@@ -8130,29 +8460,32 @@
       <c r="H37" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J37" s="32" t="s">
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="M37" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="K37" s="44" t="s">
+      <c r="N37" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="O37" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M37" s="44" t="s">
+      <c r="P37" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="44" t="s">
+      <c r="Q37" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O37" s="44" t="s">
+      <c r="R37" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="P37" s="33" t="s">
+      <c r="S37" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="34">
         <v>1</v>
       </c>
@@ -8178,33 +8511,43 @@
         <f>G38-F38</f>
         <v>3.6</v>
       </c>
-      <c r="J38" s="34">
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="M38" s="34">
         <v>1</v>
       </c>
-      <c r="K38" s="8">
-        <v>18</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="M38" s="8">
-        <f>K38*L38</f>
-        <v>5.3999999999999995</v>
-      </c>
-      <c r="N38" s="10">
-        <f>M38</f>
-        <v>5.3999999999999995</v>
-      </c>
-      <c r="O38" s="8">
-        <f>L38*36</f>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="P38" s="35">
-        <f>O38-N38</f>
-        <v>5.3999999999999995</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N38" s="8">
+        <v>18</v>
+      </c>
+      <c r="O38" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="P38" s="8">
+        <f>N38*O38</f>
+        <v>1.8</v>
+      </c>
+      <c r="Q38" s="10">
+        <f>P38</f>
+        <v>1.8</v>
+      </c>
+      <c r="R38" s="8">
+        <f>O38*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="S38" s="35">
+        <f>R38-Q38</f>
+        <v>1.8</v>
+      </c>
+      <c r="U38">
+        <v>25</v>
+      </c>
+      <c r="V38">
+        <f>U38*S38</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="34">
         <v>2</v>
       </c>
@@ -8215,7 +8558,7 @@
         <v>0.5</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" ref="E39:E44" si="20">C39*D39</f>
+        <f t="shared" ref="E39:E44" si="23">C39*D39</f>
         <v>9</v>
       </c>
       <c r="F39" s="10">
@@ -8223,40 +8566,50 @@
         <v>12.6</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" ref="G39:G44" si="21">D39*36</f>
+        <f t="shared" ref="G39:G44" si="24">D39*36</f>
         <v>18</v>
       </c>
       <c r="H39" s="36">
         <f>G39-F39</f>
         <v>5.4</v>
       </c>
-      <c r="J39" s="34">
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="M39" s="34">
         <v>2</v>
       </c>
-      <c r="K39" s="8">
-        <v>18</v>
-      </c>
-      <c r="L39" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="M39" s="8">
-        <f t="shared" ref="M39:M44" si="22">K39*L39</f>
-        <v>9</v>
-      </c>
-      <c r="N39" s="10">
-        <f>M39+N38</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="O39" s="8">
-        <f t="shared" ref="O39:O44" si="23">L39*36</f>
-        <v>18</v>
-      </c>
-      <c r="P39" s="36">
-        <f>O39-N39</f>
-        <v>3.6000000000000014</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N39" s="8">
+        <v>18</v>
+      </c>
+      <c r="O39" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="P39" s="8">
+        <f t="shared" ref="P39:P44" si="25">N39*O39</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="Q39" s="10">
+        <f>P39+Q38</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="R39" s="8">
+        <f t="shared" ref="R39:R44" si="26">O39*36</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="S39" s="36">
+        <f>R39-Q39</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="U39">
+        <v>21</v>
+      </c>
+      <c r="V39">
+        <f t="shared" ref="V39:V44" si="27">U39*S39</f>
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="34">
         <v>3</v>
       </c>
@@ -8267,268 +8620,367 @@
         <v>1</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>18</v>
       </c>
       <c r="F40" s="10">
-        <f t="shared" ref="F40:F44" si="24">E40+F39</f>
+        <f t="shared" ref="F40:F44" si="28">E40+F39</f>
         <v>30.6</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>36</v>
       </c>
       <c r="H40" s="35">
-        <f t="shared" ref="H40:H44" si="25">G40-F40</f>
+        <f t="shared" ref="H40:H44" si="29">G40-F40</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="J40" s="34">
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="M40" s="34">
         <v>3</v>
       </c>
-      <c r="K40" s="8">
-        <v>18</v>
-      </c>
-      <c r="L40" s="9">
-        <v>1</v>
-      </c>
-      <c r="M40" s="8">
-        <f t="shared" si="22"/>
-        <v>18</v>
-      </c>
-      <c r="N40" s="10">
-        <f t="shared" ref="N40:N44" si="26">M40+N39</f>
-        <v>32.4</v>
-      </c>
-      <c r="O40" s="8">
+      <c r="N40" s="8">
+        <v>18</v>
+      </c>
+      <c r="O40" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="P40" s="8">
+        <f t="shared" si="25"/>
+        <v>12.6</v>
+      </c>
+      <c r="Q40" s="10">
+        <f t="shared" ref="Q40:Q44" si="30">P40+Q39</f>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="R40" s="8">
+        <f t="shared" si="26"/>
+        <v>25.2</v>
+      </c>
+      <c r="S40" s="35">
+        <f t="shared" ref="S40:S44" si="31">R40-Q40</f>
+        <v>5.4000000000000021</v>
+      </c>
+      <c r="U40">
+        <v>9</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="27"/>
+        <v>48.600000000000023</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="34">
+        <v>4</v>
+      </c>
+      <c r="C41" s="8">
+        <v>18</v>
+      </c>
+      <c r="D41" s="9">
+        <v>2</v>
+      </c>
+      <c r="E41" s="8">
         <f t="shared" si="23"/>
         <v>36</v>
       </c>
-      <c r="P40" s="35">
-        <f t="shared" ref="P40:P44" si="27">O40-N40</f>
-        <v>3.6000000000000014</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="34">
+      <c r="F41" s="10">
+        <f t="shared" si="28"/>
+        <v>66.599999999999994</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="H41" s="36">
+        <f t="shared" si="29"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="M41" s="34">
         <v>4</v>
       </c>
-      <c r="C41" s="8">
-        <v>18</v>
-      </c>
-      <c r="D41" s="9">
-        <v>2</v>
-      </c>
-      <c r="E41" s="8">
-        <f t="shared" si="20"/>
-        <v>36</v>
-      </c>
-      <c r="F41" s="10">
-        <f t="shared" si="24"/>
-        <v>66.599999999999994</v>
-      </c>
-      <c r="G41" s="8">
-        <f t="shared" si="21"/>
-        <v>72</v>
-      </c>
-      <c r="H41" s="36">
+      <c r="N41" s="8">
+        <v>18</v>
+      </c>
+      <c r="O41" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="P41" s="8">
         <f t="shared" si="25"/>
-        <v>5.4000000000000057</v>
-      </c>
-      <c r="J41" s="34">
+        <v>27</v>
+      </c>
+      <c r="Q41" s="10">
+        <f t="shared" si="30"/>
+        <v>46.8</v>
+      </c>
+      <c r="R41" s="8">
+        <f t="shared" si="26"/>
+        <v>54</v>
+      </c>
+      <c r="S41" s="36">
+        <f t="shared" si="31"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="U41">
+        <v>5</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="27"/>
+        <v>36.000000000000014</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="34">
+        <v>5</v>
+      </c>
+      <c r="C42" s="8">
+        <v>18</v>
+      </c>
+      <c r="D42" s="9">
         <v>4</v>
       </c>
-      <c r="K41" s="8">
-        <v>18</v>
-      </c>
-      <c r="L41" s="9">
-        <v>2</v>
-      </c>
-      <c r="M41" s="8">
-        <f t="shared" si="22"/>
-        <v>36</v>
-      </c>
-      <c r="N41" s="10">
-        <f t="shared" si="26"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="O41" s="8">
+      <c r="E42" s="8">
         <f t="shared" si="23"/>
         <v>72</v>
       </c>
-      <c r="P41" s="36">
+      <c r="F42" s="10">
+        <f t="shared" si="28"/>
+        <v>138.6</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="24"/>
+        <v>144</v>
+      </c>
+      <c r="H42" s="35">
+        <f t="shared" si="29"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="M42" s="34">
+        <v>5</v>
+      </c>
+      <c r="N42" s="8">
+        <v>18</v>
+      </c>
+      <c r="O42" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="P42" s="8">
+        <f t="shared" si="25"/>
+        <v>55.800000000000004</v>
+      </c>
+      <c r="Q42" s="10">
+        <f t="shared" si="30"/>
+        <v>102.6</v>
+      </c>
+      <c r="R42" s="8">
+        <f t="shared" si="26"/>
+        <v>111.60000000000001</v>
+      </c>
+      <c r="S42" s="35">
+        <f t="shared" si="31"/>
+        <v>9.0000000000000142</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42">
         <f t="shared" si="27"/>
-        <v>3.5999999999999943</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="34">
-        <v>5</v>
-      </c>
-      <c r="C42" s="8">
-        <v>18</v>
-      </c>
-      <c r="D42" s="9">
-        <v>4</v>
-      </c>
-      <c r="E42" s="8">
-        <f t="shared" si="20"/>
-        <v>72</v>
-      </c>
-      <c r="F42" s="10">
-        <f t="shared" si="24"/>
-        <v>138.6</v>
-      </c>
-      <c r="G42" s="8">
-        <f t="shared" si="21"/>
-        <v>144</v>
-      </c>
-      <c r="H42" s="35">
-        <f t="shared" si="25"/>
-        <v>5.4000000000000057</v>
-      </c>
-      <c r="J42" s="34">
-        <v>5</v>
-      </c>
-      <c r="K42" s="8">
-        <v>18</v>
-      </c>
-      <c r="L42" s="9">
-        <v>4</v>
-      </c>
-      <c r="M42" s="8">
-        <f t="shared" si="22"/>
-        <v>72</v>
-      </c>
-      <c r="N42" s="10">
-        <f t="shared" si="26"/>
-        <v>140.4</v>
-      </c>
-      <c r="O42" s="8">
+        <v>27.000000000000043</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="37">
+        <v>6</v>
+      </c>
+      <c r="C43" s="38">
+        <v>18</v>
+      </c>
+      <c r="D43" s="39">
+        <v>8</v>
+      </c>
+      <c r="E43" s="38">
         <f t="shared" si="23"/>
         <v>144</v>
       </c>
-      <c r="P42" s="35">
+      <c r="F43" s="40">
+        <f t="shared" si="28"/>
+        <v>282.60000000000002</v>
+      </c>
+      <c r="G43" s="38">
+        <f t="shared" si="24"/>
+        <v>288</v>
+      </c>
+      <c r="H43" s="41">
+        <f t="shared" si="29"/>
+        <v>5.3999999999999773</v>
+      </c>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="M43" s="37">
+        <v>6</v>
+      </c>
+      <c r="N43" s="38">
+        <v>18</v>
+      </c>
+      <c r="O43" s="39">
+        <v>6.3</v>
+      </c>
+      <c r="P43" s="38">
+        <f t="shared" si="25"/>
+        <v>113.39999999999999</v>
+      </c>
+      <c r="Q43" s="40">
+        <f t="shared" si="30"/>
+        <v>216</v>
+      </c>
+      <c r="R43" s="38">
+        <f t="shared" si="26"/>
+        <v>226.79999999999998</v>
+      </c>
+      <c r="S43" s="41">
+        <f t="shared" si="31"/>
+        <v>10.799999999999983</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="V43">
         <f t="shared" si="27"/>
-        <v>3.5999999999999943</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="37">
-        <v>6</v>
-      </c>
-      <c r="C43" s="38">
-        <v>18</v>
-      </c>
-      <c r="D43" s="39">
-        <v>8</v>
-      </c>
-      <c r="E43" s="38">
-        <f t="shared" si="20"/>
-        <v>144</v>
-      </c>
-      <c r="F43" s="40">
-        <f t="shared" si="24"/>
-        <v>282.60000000000002</v>
-      </c>
-      <c r="G43" s="38">
-        <f t="shared" si="21"/>
-        <v>288</v>
-      </c>
-      <c r="H43" s="41">
-        <f t="shared" si="25"/>
-        <v>5.3999999999999773</v>
-      </c>
-      <c r="J43" s="37">
-        <v>6</v>
-      </c>
-      <c r="K43" s="38">
-        <v>18</v>
-      </c>
-      <c r="L43" s="39">
-        <v>8</v>
-      </c>
-      <c r="M43" s="38">
-        <f t="shared" si="22"/>
-        <v>144</v>
-      </c>
-      <c r="N43" s="40">
-        <f t="shared" si="26"/>
-        <v>284.39999999999998</v>
-      </c>
-      <c r="O43" s="38">
+        <v>21.599999999999966</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="34">
+        <v>7</v>
+      </c>
+      <c r="C44" s="8">
+        <v>18</v>
+      </c>
+      <c r="D44" s="9">
+        <v>16</v>
+      </c>
+      <c r="E44" s="8">
         <f t="shared" si="23"/>
         <v>288</v>
       </c>
-      <c r="P43" s="41">
+      <c r="F44" s="10">
+        <f t="shared" si="28"/>
+        <v>570.6</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="24"/>
+        <v>576</v>
+      </c>
+      <c r="H44" s="35">
+        <f t="shared" si="29"/>
+        <v>5.3999999999999773</v>
+      </c>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="M44" s="34">
+        <v>7</v>
+      </c>
+      <c r="N44" s="8">
+        <v>18</v>
+      </c>
+      <c r="O44" s="9">
+        <v>12.7</v>
+      </c>
+      <c r="P44" s="8">
+        <f t="shared" si="25"/>
+        <v>228.6</v>
+      </c>
+      <c r="Q44" s="10">
+        <f t="shared" si="30"/>
+        <v>444.6</v>
+      </c>
+      <c r="R44" s="8">
+        <f t="shared" si="26"/>
+        <v>457.2</v>
+      </c>
+      <c r="S44" s="35">
+        <f t="shared" si="31"/>
+        <v>12.599999999999966</v>
+      </c>
+      <c r="U44" s="20">
+        <v>5</v>
+      </c>
+      <c r="V44" s="20">
         <f t="shared" si="27"/>
-        <v>3.6000000000000227</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="34">
-        <v>7</v>
-      </c>
-      <c r="C44" s="8">
-        <v>18</v>
-      </c>
-      <c r="D44" s="9">
-        <v>16</v>
-      </c>
-      <c r="E44" s="8">
-        <f t="shared" si="20"/>
-        <v>288</v>
-      </c>
-      <c r="F44" s="10">
-        <f t="shared" si="24"/>
-        <v>570.6</v>
-      </c>
-      <c r="G44" s="8">
-        <f t="shared" si="21"/>
-        <v>576</v>
-      </c>
-      <c r="H44" s="35">
-        <f t="shared" si="25"/>
-        <v>5.3999999999999773</v>
-      </c>
-      <c r="J44" s="34">
-        <v>7</v>
-      </c>
-      <c r="K44" s="8">
-        <v>18</v>
-      </c>
-      <c r="L44" s="9">
-        <v>16</v>
-      </c>
-      <c r="M44" s="8">
-        <f t="shared" si="22"/>
-        <v>288</v>
-      </c>
-      <c r="N44" s="10">
-        <f t="shared" si="26"/>
-        <v>572.4</v>
-      </c>
-      <c r="O44" s="8">
-        <f t="shared" si="23"/>
-        <v>576</v>
-      </c>
-      <c r="P44" s="35">
-        <f t="shared" si="27"/>
-        <v>3.6000000000000227</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="51" t="s">
+        <v>62.999999999999829</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="34">
+        <v>8</v>
+      </c>
+      <c r="N45" s="8">
+        <v>18</v>
+      </c>
+      <c r="O45" s="9">
+        <v>25.5</v>
+      </c>
+      <c r="P45" s="8">
+        <f t="shared" ref="P45" si="32">N45*O45</f>
+        <v>459</v>
+      </c>
+      <c r="Q45" s="10">
+        <f t="shared" ref="Q45" si="33">P45+Q44</f>
+        <v>903.6</v>
+      </c>
+      <c r="R45" s="8">
+        <f t="shared" ref="R45" si="34">O45*36</f>
+        <v>918</v>
+      </c>
+      <c r="S45" s="36">
+        <f t="shared" ref="S45" si="35">R45-Q45</f>
+        <v>14.399999999999977</v>
+      </c>
+      <c r="V45" s="22">
+        <f>SUM(V38:V44)</f>
+        <v>316.7999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M46" s="34"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="35"/>
+    </row>
+    <row r="47" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="53"/>
-    </row>
-    <row r="48" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="41"/>
+    </row>
+    <row r="48" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="32" t="s">
         <v>0</v>
       </c>
@@ -8550,8 +9002,18 @@
       <c r="H48" s="33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="35"/>
+    </row>
+    <row r="49" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="34">
         <v>1</v>
       </c>
@@ -8577,8 +9039,18 @@
         <f>G49-F49</f>
         <v>5.3999999999999995</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="36"/>
+    </row>
+    <row r="50" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="34">
         <v>2</v>
       </c>
@@ -8589,7 +9061,7 @@
         <v>0.6</v>
       </c>
       <c r="E50" s="8">
-        <f t="shared" ref="E50:E55" si="28">C50*D50</f>
+        <f t="shared" ref="E50:E55" si="36">C50*D50</f>
         <v>10.799999999999999</v>
       </c>
       <c r="F50" s="10">
@@ -8597,15 +9069,18 @@
         <v>16.2</v>
       </c>
       <c r="G50" s="8">
-        <f t="shared" ref="G50:G55" si="29">D50*36</f>
+        <f t="shared" ref="G50:G55" si="37">D50*36</f>
         <v>21.599999999999998</v>
       </c>
       <c r="H50" s="36">
         <f>G50-F50</f>
         <v>5.3999999999999986</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+    </row>
+    <row r="51" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="34">
         <v>3</v>
       </c>
@@ -8616,23 +9091,26 @@
         <v>1.2</v>
       </c>
       <c r="E51" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>21.599999999999998</v>
       </c>
       <c r="F51" s="10">
-        <f t="shared" ref="F51:F55" si="30">E51+F50</f>
+        <f t="shared" ref="F51:F55" si="38">E51+F50</f>
         <v>37.799999999999997</v>
       </c>
       <c r="G51" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>43.199999999999996</v>
       </c>
       <c r="H51" s="35">
-        <f t="shared" ref="H51:H55" si="31">G51-F51</f>
+        <f t="shared" ref="H51:H55" si="39">G51-F51</f>
         <v>5.3999999999999986</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+    </row>
+    <row r="52" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="34">
         <v>4</v>
       </c>
@@ -8643,23 +9121,26 @@
         <v>2.4</v>
       </c>
       <c r="E52" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>43.199999999999996</v>
       </c>
       <c r="F52" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>81</v>
       </c>
       <c r="G52" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>86.399999999999991</v>
       </c>
       <c r="H52" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>5.3999999999999915</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+    </row>
+    <row r="53" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="34">
         <v>5</v>
       </c>
@@ -8670,23 +9151,26 @@
         <v>4.8</v>
       </c>
       <c r="E53" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>86.399999999999991</v>
       </c>
       <c r="F53" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>167.39999999999998</v>
       </c>
       <c r="G53" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>172.79999999999998</v>
       </c>
       <c r="H53" s="35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>5.4000000000000057</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+    </row>
+    <row r="54" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="37">
         <v>6</v>
       </c>
@@ -8697,23 +9181,35 @@
         <v>9.6</v>
       </c>
       <c r="E54" s="38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>172.79999999999998</v>
       </c>
       <c r="F54" s="40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>340.19999999999993</v>
       </c>
       <c r="G54" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>345.59999999999997</v>
       </c>
       <c r="H54" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>5.4000000000000341</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="M54" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="59"/>
+      <c r="S54" s="60"/>
+    </row>
+    <row r="55" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="34">
         <v>7</v>
       </c>
@@ -8724,30 +9220,1724 @@
         <v>19.2</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>345.59999999999997</v>
       </c>
       <c r="F55" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>685.8</v>
       </c>
       <c r="G55" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>691.19999999999993</v>
       </c>
       <c r="H55" s="35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>5.3999999999999773</v>
       </c>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="M55" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N55" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P55" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q55" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="R55" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="S55" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M56" s="34">
+        <v>1</v>
+      </c>
+      <c r="N56" s="8">
+        <v>18</v>
+      </c>
+      <c r="O56" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="P56" s="8">
+        <f>N56*O56</f>
+        <v>1.8</v>
+      </c>
+      <c r="Q56" s="10">
+        <f>P56</f>
+        <v>1.8</v>
+      </c>
+      <c r="R56" s="8">
+        <f>O56*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="S56" s="35">
+        <f>R56-Q56</f>
+        <v>1.8</v>
+      </c>
+      <c r="U56">
+        <v>25</v>
+      </c>
+      <c r="V56">
+        <f>U56*S56</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M57" s="34">
+        <v>2</v>
+      </c>
+      <c r="N57" s="8">
+        <v>18</v>
+      </c>
+      <c r="O57" s="9">
+        <v>1</v>
+      </c>
+      <c r="P57" s="8">
+        <f t="shared" ref="P57:P63" si="40">N57*O57</f>
+        <v>18</v>
+      </c>
+      <c r="Q57" s="10">
+        <f>P57+Q56</f>
+        <v>19.8</v>
+      </c>
+      <c r="R57" s="8">
+        <f t="shared" ref="R57:R63" si="41">O57*36</f>
+        <v>36</v>
+      </c>
+      <c r="S57" s="36">
+        <f>R57-Q57</f>
+        <v>16.2</v>
+      </c>
+      <c r="U57">
+        <v>21</v>
+      </c>
+      <c r="V57">
+        <f t="shared" ref="V57:V62" si="42">U57*S57</f>
+        <v>340.2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M58" s="34">
+        <v>3</v>
+      </c>
+      <c r="N58" s="8">
+        <v>18</v>
+      </c>
+      <c r="O58" s="9">
+        <v>2</v>
+      </c>
+      <c r="P58" s="8">
+        <f t="shared" si="40"/>
+        <v>36</v>
+      </c>
+      <c r="Q58" s="10">
+        <f t="shared" ref="Q58:Q63" si="43">P58+Q57</f>
+        <v>55.8</v>
+      </c>
+      <c r="R58" s="8">
+        <f t="shared" si="41"/>
+        <v>72</v>
+      </c>
+      <c r="S58" s="35">
+        <f t="shared" ref="S58:S63" si="44">R58-Q58</f>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="U58">
+        <v>9</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="42"/>
+        <v>145.80000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M59" s="34">
+        <v>4</v>
+      </c>
+      <c r="N59" s="8">
+        <v>18</v>
+      </c>
+      <c r="O59" s="9">
+        <v>4</v>
+      </c>
+      <c r="P59" s="8">
+        <f t="shared" si="40"/>
+        <v>72</v>
+      </c>
+      <c r="Q59" s="10">
+        <f t="shared" si="43"/>
+        <v>127.8</v>
+      </c>
+      <c r="R59" s="8">
+        <f t="shared" si="41"/>
+        <v>144</v>
+      </c>
+      <c r="S59" s="36">
+        <f t="shared" si="44"/>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="U59">
+        <v>5</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="42"/>
+        <v>81.000000000000014</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M60" s="34">
+        <v>5</v>
+      </c>
+      <c r="N60" s="8">
+        <v>18</v>
+      </c>
+      <c r="O60" s="9">
+        <v>8</v>
+      </c>
+      <c r="P60" s="8">
+        <f t="shared" si="40"/>
+        <v>144</v>
+      </c>
+      <c r="Q60" s="10">
+        <f t="shared" si="43"/>
+        <v>271.8</v>
+      </c>
+      <c r="R60" s="8">
+        <f t="shared" si="41"/>
+        <v>288</v>
+      </c>
+      <c r="S60" s="35">
+        <f t="shared" si="44"/>
+        <v>16.199999999999989</v>
+      </c>
+      <c r="U60">
+        <v>3</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="42"/>
+        <v>48.599999999999966</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M61" s="37">
+        <v>6</v>
+      </c>
+      <c r="N61" s="38">
+        <v>18</v>
+      </c>
+      <c r="O61" s="39">
+        <v>16</v>
+      </c>
+      <c r="P61" s="38">
+        <f t="shared" si="40"/>
+        <v>288</v>
+      </c>
+      <c r="Q61" s="40">
+        <f t="shared" si="43"/>
+        <v>559.79999999999995</v>
+      </c>
+      <c r="R61" s="38">
+        <f t="shared" si="41"/>
+        <v>576</v>
+      </c>
+      <c r="S61" s="41">
+        <f t="shared" si="44"/>
+        <v>16.200000000000045</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="42"/>
+        <v>32.400000000000091</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M62" s="34">
+        <v>7</v>
+      </c>
+      <c r="N62" s="8">
+        <v>18</v>
+      </c>
+      <c r="O62" s="9">
+        <v>32</v>
+      </c>
+      <c r="P62" s="8">
+        <f t="shared" si="40"/>
+        <v>576</v>
+      </c>
+      <c r="Q62" s="10">
+        <f t="shared" si="43"/>
+        <v>1135.8</v>
+      </c>
+      <c r="R62" s="8">
+        <f t="shared" si="41"/>
+        <v>1152</v>
+      </c>
+      <c r="S62" s="35">
+        <f t="shared" si="44"/>
+        <v>16.200000000000045</v>
+      </c>
+      <c r="U62" s="20">
+        <v>0</v>
+      </c>
+      <c r="V62" s="20">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M63" s="34">
+        <v>8</v>
+      </c>
+      <c r="N63" s="8">
+        <v>18</v>
+      </c>
+      <c r="O63" s="9"/>
+      <c r="P63" s="8">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="10">
+        <f t="shared" si="43"/>
+        <v>1135.8</v>
+      </c>
+      <c r="R63" s="8">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="36">
+        <f t="shared" si="44"/>
+        <v>-1135.8</v>
+      </c>
+      <c r="V63" s="22">
+        <f>SUM(V56:V62)</f>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>39</v>
+      </c>
+      <c r="P69">
+        <v>888</v>
+      </c>
+      <c r="Z69">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="M72" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="N72" s="59"/>
+      <c r="O72" s="59"/>
+      <c r="P72" s="59"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="59"/>
+      <c r="S72" s="60"/>
+      <c r="W72" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="X72" s="59"/>
+      <c r="Y72" s="59"/>
+      <c r="Z72" s="59"/>
+      <c r="AA72" s="59"/>
+      <c r="AB72" s="59"/>
+      <c r="AC72" s="60"/>
+    </row>
+    <row r="73" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="M73" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N73" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P73" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q73" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="R73" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="S73" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="W73" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="X73" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z73" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA73" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB73" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC73" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="34">
+        <v>1</v>
+      </c>
+      <c r="C74" s="8">
+        <v>18</v>
+      </c>
+      <c r="D74" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E74" s="8">
+        <f>C74*D74</f>
+        <v>3.6</v>
+      </c>
+      <c r="F74" s="10">
+        <f>E74</f>
+        <v>3.6</v>
+      </c>
+      <c r="G74" s="8">
+        <f>D74*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="H74" s="35">
+        <f>G74-F74</f>
+        <v>3.6</v>
+      </c>
+      <c r="I74">
+        <v>22</v>
+      </c>
+      <c r="J74">
+        <f>H74*I74</f>
+        <v>79.2</v>
+      </c>
+      <c r="K74" s="47"/>
+      <c r="M74" s="34">
+        <v>1</v>
+      </c>
+      <c r="N74" s="8">
+        <v>18</v>
+      </c>
+      <c r="O74" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="P74" s="8">
+        <f>N74*O74</f>
+        <v>1.8</v>
+      </c>
+      <c r="Q74" s="10">
+        <f>P74</f>
+        <v>1.8</v>
+      </c>
+      <c r="R74" s="8">
+        <f>O74*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="S74" s="35">
+        <f>R74-Q74</f>
+        <v>1.8</v>
+      </c>
+      <c r="T74">
+        <v>22</v>
+      </c>
+      <c r="U74">
+        <f>S74*T74</f>
+        <v>39.6</v>
+      </c>
+      <c r="W74" s="34">
+        <v>1</v>
+      </c>
+      <c r="X74" s="8">
+        <v>30</v>
+      </c>
+      <c r="Y74" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Z74" s="8">
+        <f>X74*Y74</f>
+        <v>3</v>
+      </c>
+      <c r="AA74" s="10">
+        <f>Z74</f>
+        <v>3</v>
+      </c>
+      <c r="AB74" s="8">
+        <f>Y74*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="AC74" s="35">
+        <f>AB74-AA74</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AD74">
+        <v>22</v>
+      </c>
+      <c r="AE74">
+        <f>AC74*AD74</f>
+        <v>13.200000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="34">
+        <v>2</v>
+      </c>
+      <c r="C75" s="8">
+        <v>19</v>
+      </c>
+      <c r="D75" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E75" s="8">
+        <f t="shared" ref="E75:E79" si="45">C75*D75</f>
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="F75" s="10">
+        <f>E75+F74</f>
+        <v>11.200000000000001</v>
+      </c>
+      <c r="G75" s="8">
+        <f t="shared" ref="G75:G79" si="46">D75*36</f>
+        <v>14.4</v>
+      </c>
+      <c r="H75" s="36">
+        <f>G75-F75</f>
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="I75">
+        <v>11</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ref="J75:J81" si="47">H75*I75</f>
+        <v>35.199999999999989</v>
+      </c>
+      <c r="K75" s="48"/>
+      <c r="M75" s="34">
+        <v>2</v>
+      </c>
+      <c r="N75" s="8">
+        <v>19</v>
+      </c>
+      <c r="O75" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="P75" s="8">
+        <f t="shared" ref="P75:P80" si="48">N75*O75</f>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="Q75" s="10">
+        <f>P75+Q74</f>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="R75" s="8">
+        <f t="shared" ref="R75:R80" si="49">O75*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="S75" s="36">
+        <f>R75-Q75</f>
+        <v>1.5999999999999996</v>
+      </c>
+      <c r="T75">
+        <v>11</v>
+      </c>
+      <c r="U75">
+        <f t="shared" ref="U75:U81" si="50">S75*T75</f>
+        <v>17.599999999999994</v>
+      </c>
+      <c r="W75" s="34">
+        <v>2</v>
+      </c>
+      <c r="X75" s="8">
+        <v>31</v>
+      </c>
+      <c r="Y75" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="8">
+        <f t="shared" ref="Z75" si="51">X75*Y75</f>
+        <v>31</v>
+      </c>
+      <c r="AA75" s="10">
+        <f>Z75+AA74</f>
+        <v>34</v>
+      </c>
+      <c r="AB75" s="8">
+        <f t="shared" ref="AB75" si="52">Y75*36</f>
+        <v>36</v>
+      </c>
+      <c r="AC75" s="36">
+        <f>AB75-AA75</f>
+        <v>2</v>
+      </c>
+      <c r="AD75">
+        <v>11</v>
+      </c>
+      <c r="AE75">
+        <f t="shared" ref="AE75:AE78" si="53">AC75*AD75</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="34">
+        <v>3</v>
+      </c>
+      <c r="C76" s="8">
+        <v>20</v>
+      </c>
+      <c r="D76" s="9">
+        <v>1</v>
+      </c>
+      <c r="E76" s="8">
+        <f t="shared" si="45"/>
+        <v>20</v>
+      </c>
+      <c r="F76" s="10">
+        <f t="shared" ref="F76:F79" si="54">E76+F75</f>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="G76" s="8">
+        <f t="shared" si="46"/>
+        <v>36</v>
+      </c>
+      <c r="H76" s="35">
+        <f t="shared" ref="H76:H79" si="55">G76-F76</f>
+        <v>4.7999999999999972</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="47"/>
+        <v>14.399999999999991</v>
+      </c>
+      <c r="K76" s="47"/>
+      <c r="M76" s="34">
+        <v>3</v>
+      </c>
+      <c r="N76" s="8">
+        <v>20</v>
+      </c>
+      <c r="O76" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="P76" s="8">
+        <f t="shared" si="48"/>
+        <v>8</v>
+      </c>
+      <c r="Q76" s="10">
+        <f t="shared" ref="Q76:Q80" si="56">P76+Q75</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="R76" s="8">
+        <f t="shared" si="49"/>
+        <v>14.4</v>
+      </c>
+      <c r="S76" s="35">
+        <f t="shared" ref="S76:S80" si="57">R76-Q76</f>
+        <v>0.79999999999999893</v>
+      </c>
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="50"/>
+        <v>2.3999999999999968</v>
+      </c>
+      <c r="W76" s="34">
+        <v>3</v>
+      </c>
+      <c r="X76" s="8">
+        <v>32</v>
+      </c>
+      <c r="Y76" s="9">
+        <v>10</v>
+      </c>
+      <c r="Z76" s="8">
+        <f>X76*Y76</f>
+        <v>320</v>
+      </c>
+      <c r="AA76" s="10">
+        <f>Z76+AA75</f>
+        <v>354</v>
+      </c>
+      <c r="AB76" s="8">
+        <f>Y76*36</f>
+        <v>360</v>
+      </c>
+      <c r="AC76" s="35">
+        <f>AB76-AA76</f>
+        <v>6</v>
+      </c>
+      <c r="AD76">
+        <v>3</v>
+      </c>
+      <c r="AE76">
+        <f t="shared" si="53"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="34">
+        <v>4</v>
+      </c>
+      <c r="C77" s="8">
+        <v>21</v>
+      </c>
+      <c r="D77" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="E77" s="8">
+        <f t="shared" si="45"/>
+        <v>50.4</v>
+      </c>
+      <c r="F77" s="10">
+        <f t="shared" si="54"/>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="G77" s="8">
+        <f t="shared" si="46"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="H77" s="36">
+        <f t="shared" si="55"/>
+        <v>4.7999999999999972</v>
+      </c>
+      <c r="I77">
+        <v>4</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="47"/>
+        <v>19.199999999999989</v>
+      </c>
+      <c r="K77" s="48"/>
+      <c r="M77" s="34">
+        <v>4</v>
+      </c>
+      <c r="N77" s="8">
+        <v>21</v>
+      </c>
+      <c r="O77" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="P77" s="8">
+        <f t="shared" si="48"/>
+        <v>18.900000000000002</v>
+      </c>
+      <c r="Q77" s="10">
+        <f t="shared" si="56"/>
+        <v>32.5</v>
+      </c>
+      <c r="R77" s="8">
+        <f t="shared" si="49"/>
+        <v>32.4</v>
+      </c>
+      <c r="S77" s="36">
+        <f t="shared" si="57"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="T77">
+        <v>4</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="50"/>
+        <v>-0.40000000000000568</v>
+      </c>
+      <c r="W77" s="34"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="8"/>
+      <c r="AC77" s="36"/>
+      <c r="AD77">
+        <v>4</v>
+      </c>
+      <c r="AE77">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="34">
+        <v>5</v>
+      </c>
+      <c r="C78" s="8">
+        <v>22</v>
+      </c>
+      <c r="D78" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="E78" s="8">
+        <f t="shared" si="45"/>
+        <v>136.4</v>
+      </c>
+      <c r="F78" s="10">
+        <f t="shared" si="54"/>
+        <v>218</v>
+      </c>
+      <c r="G78" s="8">
+        <f t="shared" si="46"/>
+        <v>223.20000000000002</v>
+      </c>
+      <c r="H78" s="35">
+        <f t="shared" si="55"/>
+        <v>5.2000000000000171</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="47"/>
+      <c r="M78" s="34">
+        <v>5</v>
+      </c>
+      <c r="N78" s="8">
+        <v>22</v>
+      </c>
+      <c r="O78" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="P78" s="8">
+        <f t="shared" si="48"/>
+        <v>52.8</v>
+      </c>
+      <c r="Q78" s="10">
+        <f t="shared" si="56"/>
+        <v>85.3</v>
+      </c>
+      <c r="R78" s="8">
+        <f t="shared" si="49"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="S78" s="35">
+        <f t="shared" si="57"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="W78" s="34"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="10"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="35"/>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="37">
+        <v>6</v>
+      </c>
+      <c r="C79" s="38">
+        <v>23</v>
+      </c>
+      <c r="D79" s="39">
+        <v>17.2</v>
+      </c>
+      <c r="E79" s="38">
+        <f t="shared" si="45"/>
+        <v>395.59999999999997</v>
+      </c>
+      <c r="F79" s="40">
+        <f t="shared" si="54"/>
+        <v>613.59999999999991</v>
+      </c>
+      <c r="G79" s="38">
+        <f t="shared" si="46"/>
+        <v>619.19999999999993</v>
+      </c>
+      <c r="H79" s="41">
+        <f t="shared" si="55"/>
+        <v>5.6000000000000227</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="47"/>
+        <v>11.200000000000045</v>
+      </c>
+      <c r="K79" s="48"/>
+      <c r="M79" s="37">
+        <v>6</v>
+      </c>
+      <c r="N79" s="38">
+        <v>23</v>
+      </c>
+      <c r="O79" s="39">
+        <v>6.6</v>
+      </c>
+      <c r="P79" s="38">
+        <f t="shared" si="48"/>
+        <v>151.79999999999998</v>
+      </c>
+      <c r="Q79" s="40">
+        <f t="shared" si="56"/>
+        <v>237.09999999999997</v>
+      </c>
+      <c r="R79" s="38">
+        <f t="shared" si="49"/>
+        <v>237.6</v>
+      </c>
+      <c r="S79" s="41">
+        <f t="shared" si="57"/>
+        <v>0.50000000000002842</v>
+      </c>
+      <c r="T79">
+        <v>2</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="50"/>
+        <v>1.0000000000000568</v>
+      </c>
+      <c r="W79" s="37"/>
+      <c r="X79" s="38"/>
+      <c r="Y79" s="39"/>
+      <c r="Z79" s="38"/>
+      <c r="AA79" s="40"/>
+      <c r="AB79" s="38"/>
+      <c r="AC79" s="41"/>
+    </row>
+    <row r="80" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="34">
+        <v>7</v>
+      </c>
+      <c r="C80" s="8">
+        <v>24</v>
+      </c>
+      <c r="D80" s="9">
+        <v>51.6</v>
+      </c>
+      <c r="E80" s="8">
+        <f t="shared" ref="E80:E81" si="58">C80*D80</f>
+        <v>1238.4000000000001</v>
+      </c>
+      <c r="F80" s="10">
+        <f t="shared" ref="F80:F81" si="59">E80+F79</f>
+        <v>1852</v>
+      </c>
+      <c r="G80" s="8">
+        <f t="shared" ref="G80:G81" si="60">D80*36</f>
+        <v>1857.6000000000001</v>
+      </c>
+      <c r="H80" s="35">
+        <f t="shared" ref="H80:H81" si="61">G80-F80</f>
+        <v>5.6000000000001364</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="47"/>
+        <v>5.6000000000001364</v>
+      </c>
+      <c r="K80" s="47"/>
+      <c r="M80" s="34">
+        <v>7</v>
+      </c>
+      <c r="N80" s="8">
+        <v>24</v>
+      </c>
+      <c r="O80" s="9">
+        <v>20</v>
+      </c>
+      <c r="P80" s="8">
+        <f t="shared" si="48"/>
+        <v>480</v>
+      </c>
+      <c r="Q80" s="10">
+        <f t="shared" si="56"/>
+        <v>717.09999999999991</v>
+      </c>
+      <c r="R80" s="8">
+        <f t="shared" si="49"/>
+        <v>720</v>
+      </c>
+      <c r="S80" s="35">
+        <f t="shared" si="57"/>
+        <v>2.9000000000000909</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="50"/>
+        <v>2.9000000000000909</v>
+      </c>
+      <c r="W80" s="34"/>
+      <c r="X80" s="8"/>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="8"/>
+      <c r="AA80" s="10"/>
+      <c r="AB80" s="8"/>
+      <c r="AC80" s="35"/>
+    </row>
+    <row r="81" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="37">
+        <v>8</v>
+      </c>
+      <c r="C81" s="38">
+        <v>25</v>
+      </c>
+      <c r="D81" s="39">
+        <v>170</v>
+      </c>
+      <c r="E81" s="38">
+        <f t="shared" si="58"/>
+        <v>4250</v>
+      </c>
+      <c r="F81" s="40">
+        <f t="shared" si="59"/>
+        <v>6102</v>
+      </c>
+      <c r="G81" s="38">
+        <f t="shared" si="60"/>
+        <v>6120</v>
+      </c>
+      <c r="H81" s="41">
+        <f t="shared" si="61"/>
+        <v>18</v>
+      </c>
+      <c r="I81" s="49">
+        <v>0</v>
+      </c>
+      <c r="J81" s="20">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="48"/>
+      <c r="M81" s="37">
+        <v>8</v>
+      </c>
+      <c r="N81" s="38">
+        <v>25</v>
+      </c>
+      <c r="O81" s="39">
+        <v>66</v>
+      </c>
+      <c r="P81" s="38">
+        <f t="shared" ref="P81" si="62">N81*O81</f>
+        <v>1650</v>
+      </c>
+      <c r="Q81" s="40">
+        <f t="shared" ref="Q81" si="63">P81+Q80</f>
+        <v>2367.1</v>
+      </c>
+      <c r="R81" s="38">
+        <f t="shared" ref="R81" si="64">O81*36</f>
+        <v>2376</v>
+      </c>
+      <c r="S81" s="41">
+        <f t="shared" ref="S81" si="65">R81-Q81</f>
+        <v>8.9000000000000909</v>
+      </c>
+      <c r="T81" s="49">
+        <v>0</v>
+      </c>
+      <c r="U81" s="20">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="W81" s="37"/>
+      <c r="X81" s="38"/>
+      <c r="Y81" s="39"/>
+      <c r="Z81" s="38"/>
+      <c r="AA81" s="40"/>
+      <c r="AB81" s="38"/>
+      <c r="AC81" s="41"/>
+      <c r="AD81" s="49"/>
+      <c r="AE81" s="20"/>
+    </row>
+    <row r="82" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J82" s="22">
+        <f>SUM(J74:J81)</f>
+        <v>164.80000000000015</v>
+      </c>
+      <c r="U82" s="22">
+        <f>SUM(U74:U81)</f>
+        <v>63.100000000000136</v>
+      </c>
+      <c r="AE82" s="22">
+        <f>SUM(AE74:AE81)</f>
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <f>F81/J82</f>
+        <v>37.026699029126178</v>
+      </c>
+      <c r="M83" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="N83" s="59"/>
+      <c r="O83" s="59"/>
+      <c r="P83" s="59"/>
+      <c r="Q83" s="59"/>
+      <c r="R83" s="59"/>
+      <c r="S83" s="60"/>
+      <c r="T83">
+        <f>Q81/U82</f>
+        <v>37.513470681457918</v>
+      </c>
+    </row>
+    <row r="84" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M84" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N84" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P84" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q84" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="R84" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="S84" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M85" s="34">
+        <v>1</v>
+      </c>
+      <c r="N85" s="8">
+        <v>24</v>
+      </c>
+      <c r="O85" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="P85" s="8">
+        <f>N85*O85</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="Q85" s="10">
+        <f>P85</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="R85" s="8">
+        <f>O85*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="S85" s="35">
+        <f>R85-Q85</f>
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="T85">
+        <v>22</v>
+      </c>
+      <c r="U85">
+        <f>S85*T85</f>
+        <v>26.399999999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M86" s="34">
+        <v>2</v>
+      </c>
+      <c r="N86" s="8">
+        <v>25</v>
+      </c>
+      <c r="O86" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="P86" s="8">
+        <f t="shared" ref="P86:P89" si="66">N86*O86</f>
+        <v>7.5</v>
+      </c>
+      <c r="Q86" s="10">
+        <f>P86+Q85</f>
+        <v>9.9</v>
+      </c>
+      <c r="R86" s="8">
+        <f t="shared" ref="R86:R89" si="67">O86*36</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="S86" s="36">
+        <f>R86-Q86</f>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="T86">
+        <v>11</v>
+      </c>
+      <c r="U86">
+        <f t="shared" ref="U86:U92" si="68">S86*T86</f>
+        <v>9.8999999999999844</v>
+      </c>
+      <c r="Z86">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="87" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M87" s="34">
+        <v>3</v>
+      </c>
+      <c r="N87" s="8">
+        <v>26</v>
+      </c>
+      <c r="O87" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="P87" s="8">
+        <f t="shared" si="66"/>
+        <v>31.2</v>
+      </c>
+      <c r="Q87" s="10">
+        <f t="shared" ref="Q87:Q89" si="69">P87+Q86</f>
+        <v>41.1</v>
+      </c>
+      <c r="R87" s="8">
+        <f t="shared" si="67"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="S87" s="35">
+        <f t="shared" ref="S87:S89" si="70">R87-Q87</f>
+        <v>2.0999999999999943</v>
+      </c>
+      <c r="T87">
+        <v>3</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="68"/>
+        <v>6.2999999999999829</v>
+      </c>
+    </row>
+    <row r="88" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M88" s="34">
+        <v>4</v>
+      </c>
+      <c r="N88" s="8">
+        <v>27</v>
+      </c>
+      <c r="O88" s="9">
+        <v>6</v>
+      </c>
+      <c r="P88" s="8">
+        <f t="shared" si="66"/>
+        <v>162</v>
+      </c>
+      <c r="Q88" s="10">
+        <f t="shared" si="69"/>
+        <v>203.1</v>
+      </c>
+      <c r="R88" s="8">
+        <f t="shared" si="67"/>
+        <v>216</v>
+      </c>
+      <c r="S88" s="36">
+        <f t="shared" si="70"/>
+        <v>12.900000000000006</v>
+      </c>
+      <c r="T88">
+        <v>4</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="68"/>
+        <v>51.600000000000023</v>
+      </c>
+    </row>
+    <row r="89" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M89" s="34">
+        <v>5</v>
+      </c>
+      <c r="N89" s="8">
+        <v>28</v>
+      </c>
+      <c r="O89" s="9">
+        <v>26</v>
+      </c>
+      <c r="P89" s="8">
+        <f t="shared" si="66"/>
+        <v>728</v>
+      </c>
+      <c r="Q89" s="10">
+        <f t="shared" si="69"/>
+        <v>931.1</v>
+      </c>
+      <c r="R89" s="8">
+        <f t="shared" si="67"/>
+        <v>936</v>
+      </c>
+      <c r="S89" s="35">
+        <f t="shared" si="70"/>
+        <v>4.8999999999999773</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="W89" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="X89" s="72"/>
+      <c r="Y89" s="72"/>
+      <c r="Z89" s="72"/>
+      <c r="AA89" s="72"/>
+      <c r="AB89" s="72"/>
+      <c r="AC89" s="73"/>
+    </row>
+    <row r="90" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M90" s="37"/>
+      <c r="N90" s="38"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="38"/>
+      <c r="Q90" s="40"/>
+      <c r="R90" s="38"/>
+      <c r="S90" s="41"/>
+      <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="W90" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="X90" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y90" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z90" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA90" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB90" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC90" s="54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M91" s="34"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="35"/>
+      <c r="T91">
+        <v>1</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="W91" s="55">
+        <v>1</v>
+      </c>
+      <c r="X91" s="25">
+        <v>30</v>
+      </c>
+      <c r="Y91" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z91" s="25">
+        <f>X91*Y91</f>
+        <v>30</v>
+      </c>
+      <c r="AA91" s="27">
+        <f>Z91</f>
+        <v>30</v>
+      </c>
+      <c r="AB91" s="25">
+        <f>Y91*36</f>
+        <v>36</v>
+      </c>
+      <c r="AC91" s="56">
+        <f>AB91-AA91</f>
+        <v>6</v>
+      </c>
+      <c r="AD91">
+        <v>22</v>
+      </c>
+      <c r="AE91">
+        <f>AC91*AD91</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M92" s="34"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="49">
+        <v>0</v>
+      </c>
+      <c r="U92" s="20">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="W92" s="55">
+        <v>1</v>
+      </c>
+      <c r="X92" s="25">
+        <v>31</v>
+      </c>
+      <c r="Y92" s="26">
+        <v>7.2</v>
+      </c>
+      <c r="Z92" s="25">
+        <f>X92*Y92</f>
+        <v>223.20000000000002</v>
+      </c>
+      <c r="AA92" s="27">
+        <f>Z92+Z91</f>
+        <v>253.20000000000002</v>
+      </c>
+      <c r="AB92" s="25">
+        <f>Y92*36</f>
+        <v>259.2</v>
+      </c>
+      <c r="AC92" s="56">
+        <f>AB92-AA92</f>
+        <v>5.9999999999999716</v>
+      </c>
+    </row>
+    <row r="93" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U93" s="22">
+        <f>SUM(U85:U92)</f>
+        <v>94.199999999999989</v>
+      </c>
+    </row>
+    <row r="94" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T94">
+        <f>Q92/U93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W96" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="X96" s="72"/>
+      <c r="Y96" s="72"/>
+      <c r="Z96" s="72"/>
+      <c r="AA96" s="72"/>
+      <c r="AB96" s="72"/>
+      <c r="AC96" s="73"/>
+    </row>
+    <row r="97" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W97" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="X97" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y97" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z97" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA97" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB97" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC97" s="54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W98" s="55">
+        <v>1</v>
+      </c>
+      <c r="X98" s="25">
+        <v>30</v>
+      </c>
+      <c r="Y98" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Z98" s="25">
+        <f>X98*Y98</f>
+        <v>3</v>
+      </c>
+      <c r="AA98" s="27">
+        <f>Z98</f>
+        <v>3</v>
+      </c>
+      <c r="AB98" s="25">
+        <f>Y98*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="AC98" s="56">
+        <f>AB98-AA98</f>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="99" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W99" s="55">
+        <v>1</v>
+      </c>
+      <c r="X99" s="25">
+        <v>31</v>
+      </c>
+      <c r="Y99" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z99" s="25">
+        <f>X99*Y99</f>
+        <v>31</v>
+      </c>
+      <c r="AA99" s="27">
+        <f>Z99+Z98</f>
+        <v>34</v>
+      </c>
+      <c r="AB99" s="25">
+        <f>Y99*36</f>
+        <v>36</v>
+      </c>
+      <c r="AC99" s="56">
+        <f>AB99-AA99</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W100" s="55">
+        <v>1</v>
+      </c>
+      <c r="X100" s="25">
+        <v>32</v>
+      </c>
+      <c r="Y100" s="26">
+        <v>10</v>
+      </c>
+      <c r="Z100" s="25">
+        <f>X100*Y100</f>
+        <v>320</v>
+      </c>
+      <c r="AA100" s="27">
+        <f>Z100+Z99+Z98</f>
+        <v>354</v>
+      </c>
+      <c r="AB100" s="25">
+        <f>Y100*36</f>
+        <v>360</v>
+      </c>
+      <c r="AC100" s="56">
+        <f>AB100-AA100</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S101">
+        <v>45</v>
+      </c>
+      <c r="T101">
+        <v>38</v>
+      </c>
+      <c r="U101">
+        <f>S101*T101</f>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="102" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U102">
+        <f>U101/60</f>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="104" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N104">
+        <v>24</v>
+      </c>
+      <c r="O104">
+        <v>36</v>
+      </c>
+      <c r="P104">
+        <f>N104/O104</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R104">
+        <v>30</v>
+      </c>
+      <c r="S104">
+        <v>36</v>
+      </c>
+      <c r="T104">
+        <f>R104/S104</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="105" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N105">
+        <v>25</v>
+      </c>
+      <c r="O105">
+        <v>36</v>
+      </c>
+      <c r="P105">
+        <f t="shared" ref="P105:P108" si="71">N105/O105</f>
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="R105">
+        <v>31</v>
+      </c>
+      <c r="S105">
+        <v>36</v>
+      </c>
+      <c r="T105">
+        <f t="shared" ref="T105:T106" si="72">R105/S105</f>
+        <v>0.86111111111111116</v>
+      </c>
+    </row>
+    <row r="106" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N106">
+        <v>26</v>
+      </c>
+      <c r="O106">
+        <v>36</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="71"/>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="R106">
+        <v>32</v>
+      </c>
+      <c r="S106">
+        <v>36</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="72"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="107" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N107">
+        <v>27</v>
+      </c>
+      <c r="O107">
+        <v>36</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="71"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="108" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N108">
+        <v>28</v>
+      </c>
+      <c r="O108">
+        <v>36</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="71"/>
+        <v>0.77777777777777779</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="14">
+    <mergeCell ref="W96:AC96"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="W72:AC72"/>
+    <mergeCell ref="W89:AC89"/>
+    <mergeCell ref="M72:S72"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="M83:S83"/>
+    <mergeCell ref="M54:S54"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="B47:H47"/>
-    <mergeCell ref="J36:P36"/>
+    <mergeCell ref="M36:S36"/>
     <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B25:H25"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -8755,6 +10945,854 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6728465-9ADE-4AA1-8D92-91E1A2C59DF5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A4:ER14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CI22" sqref="CI22:CK22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" customWidth="1"/>
+    <col min="15" max="15" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" customWidth="1"/>
+    <col min="22" max="22" width="4.42578125" customWidth="1"/>
+    <col min="23" max="23" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" customWidth="1"/>
+    <col min="26" max="26" width="4.42578125" customWidth="1"/>
+    <col min="27" max="27" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" customWidth="1"/>
+    <col min="30" max="30" width="4.42578125" customWidth="1"/>
+    <col min="31" max="31" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.85546875" customWidth="1"/>
+    <col min="34" max="34" width="4.42578125" customWidth="1"/>
+    <col min="35" max="35" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.85546875" customWidth="1"/>
+    <col min="38" max="38" width="4.42578125" customWidth="1"/>
+    <col min="39" max="39" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.85546875" customWidth="1"/>
+    <col min="42" max="42" width="4.42578125" customWidth="1"/>
+    <col min="43" max="43" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.85546875" customWidth="1"/>
+    <col min="46" max="46" width="4.42578125" customWidth="1"/>
+    <col min="47" max="47" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.85546875" customWidth="1"/>
+    <col min="50" max="50" width="4.42578125" customWidth="1"/>
+    <col min="51" max="51" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.85546875" customWidth="1"/>
+    <col min="54" max="54" width="4.42578125" customWidth="1"/>
+    <col min="55" max="55" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.85546875" customWidth="1"/>
+    <col min="58" max="58" width="4.42578125" customWidth="1"/>
+    <col min="59" max="59" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.85546875" customWidth="1"/>
+    <col min="62" max="62" width="4.42578125" customWidth="1"/>
+    <col min="63" max="63" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="4.85546875" customWidth="1"/>
+    <col min="66" max="66" width="4.42578125" customWidth="1"/>
+    <col min="67" max="67" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="4.85546875" customWidth="1"/>
+    <col min="70" max="70" width="4.42578125" customWidth="1"/>
+    <col min="71" max="71" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="4.85546875" customWidth="1"/>
+    <col min="74" max="74" width="4.42578125" customWidth="1"/>
+    <col min="75" max="75" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="4.85546875" customWidth="1"/>
+    <col min="78" max="78" width="4.42578125" customWidth="1"/>
+    <col min="79" max="79" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="4.85546875" customWidth="1"/>
+    <col min="82" max="82" width="4.42578125" customWidth="1"/>
+    <col min="83" max="83" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="4.85546875" customWidth="1"/>
+    <col min="86" max="86" width="4.42578125" customWidth="1"/>
+    <col min="87" max="87" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="4.85546875" customWidth="1"/>
+    <col min="90" max="90" width="4.42578125" customWidth="1"/>
+    <col min="91" max="91" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="4.85546875" customWidth="1"/>
+    <col min="94" max="94" width="4.42578125" customWidth="1"/>
+    <col min="95" max="95" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="4.85546875" customWidth="1"/>
+    <col min="98" max="98" width="4.42578125" customWidth="1"/>
+    <col min="99" max="99" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="4.85546875" customWidth="1"/>
+    <col min="102" max="102" width="4.42578125" customWidth="1"/>
+    <col min="103" max="103" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="4.85546875" customWidth="1"/>
+    <col min="106" max="106" width="4.42578125" customWidth="1"/>
+    <col min="107" max="107" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="4.85546875" customWidth="1"/>
+    <col min="110" max="110" width="4.42578125" customWidth="1"/>
+    <col min="111" max="111" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="4.85546875" customWidth="1"/>
+    <col min="114" max="114" width="4.42578125" customWidth="1"/>
+    <col min="115" max="115" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="4.85546875" customWidth="1"/>
+    <col min="118" max="118" width="4.42578125" customWidth="1"/>
+    <col min="119" max="119" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="4.85546875" customWidth="1"/>
+    <col min="122" max="122" width="4.42578125" customWidth="1"/>
+    <col min="123" max="123" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="4.85546875" customWidth="1"/>
+    <col min="126" max="126" width="4.42578125" customWidth="1"/>
+    <col min="127" max="127" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="4.85546875" customWidth="1"/>
+    <col min="130" max="130" width="4.42578125" customWidth="1"/>
+    <col min="131" max="131" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="4.85546875" customWidth="1"/>
+    <col min="134" max="134" width="4.42578125" customWidth="1"/>
+    <col min="135" max="135" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="4.85546875" customWidth="1"/>
+    <col min="138" max="138" width="4.42578125" customWidth="1"/>
+    <col min="139" max="139" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="4.85546875" customWidth="1"/>
+    <col min="142" max="142" width="4.42578125" customWidth="1"/>
+    <col min="143" max="143" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="4.85546875" customWidth="1"/>
+    <col min="146" max="146" width="4.42578125" customWidth="1"/>
+    <col min="147" max="147" width="1.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A4" s="74">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="E4" s="74">
+        <v>1</v>
+      </c>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="I4" s="74">
+        <v>2</v>
+      </c>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="M4" s="74">
+        <v>3</v>
+      </c>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="Q4" s="74">
+        <v>4</v>
+      </c>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="U4" s="74">
+        <v>5</v>
+      </c>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="Y4" s="74">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AC4" s="74">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AG4" s="74">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AK4" s="74">
+        <v>9</v>
+      </c>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+    </row>
+    <row r="5" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="ER5" s="50"/>
+    </row>
+    <row r="7" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A7" s="74">
+        <v>10</v>
+      </c>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="E7" s="74">
+        <v>11</v>
+      </c>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="I7" s="74">
+        <v>12</v>
+      </c>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="M7" s="74">
+        <v>13</v>
+      </c>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="Q7" s="74">
+        <v>14</v>
+      </c>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="U7" s="74">
+        <v>15</v>
+      </c>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="Y7" s="74">
+        <v>16</v>
+      </c>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AC7" s="74">
+        <v>17</v>
+      </c>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AG7" s="74">
+        <v>18</v>
+      </c>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="74"/>
+      <c r="AK7" s="74">
+        <v>19</v>
+      </c>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+    </row>
+    <row r="8" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN8" s="50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A10" s="74">
+        <v>20</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="E10" s="74">
+        <v>21</v>
+      </c>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="I10" s="74">
+        <v>22</v>
+      </c>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="M10" s="74">
+        <v>23</v>
+      </c>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="Q10" s="74">
+        <v>24</v>
+      </c>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="U10" s="74">
+        <v>25</v>
+      </c>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="Y10" s="74">
+        <v>26</v>
+      </c>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AC10" s="74">
+        <v>27</v>
+      </c>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AG10" s="74">
+        <v>28</v>
+      </c>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AK10" s="74">
+        <v>29</v>
+      </c>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+    </row>
+    <row r="11" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN11" s="50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A13" s="74">
+        <v>30</v>
+      </c>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="E13" s="51">
+        <v>31</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="I13" s="51">
+        <v>32</v>
+      </c>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="M13" s="74">
+        <v>33</v>
+      </c>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="Q13" s="74">
+        <v>34</v>
+      </c>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="U13" s="74">
+        <v>35</v>
+      </c>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="Y13" s="74">
+        <v>36</v>
+      </c>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+    </row>
+    <row r="14" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" t="s">
+        <v>41</v>
+      </c>
+      <c r="V14" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="W14" t="s">
+        <v>42</v>
+      </c>
+      <c r="X14" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z14" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="AK10:AM10"/>
+    <mergeCell ref="AG7:AI7"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AG10:AI10"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="U13:W13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6037E6E-3BFA-4141-85F8-5D761FC0DC30}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -10404,7 +13442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE15A31C-658C-4517-9C16-F9A3BB1636BA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -10418,7 +13456,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59">
+      <c r="A2" s="75">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -10459,7 +13497,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -10498,7 +13536,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>

--- a/temp/iter - copia.xlsx
+++ b/temp/iter - copia.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C0281E-B666-4903-B8C1-A7D0287C1963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EE3925-EF54-4A57-8B89-5DB8C61DABDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
     <sheet name="Formulario_TEST" sheetId="14" r:id="rId2"/>
     <sheet name="Martingala ITER_2" sheetId="16" r:id="rId3"/>
-    <sheet name="Hoja2" sheetId="18" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="17" r:id="rId5"/>
-    <sheet name="Tablero" sheetId="15" r:id="rId6"/>
+    <sheet name="Hoja5" sheetId="21" r:id="rId4"/>
+    <sheet name="Hoja4" sheetId="20" r:id="rId5"/>
+    <sheet name="Hoja3" sheetId="19" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="18" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="17" r:id="rId8"/>
+    <sheet name="Tablero" sheetId="15" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Formulario_TEST!$A$1:$M$27</definedName>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="47">
   <si>
     <t>Rep</t>
   </si>
@@ -170,6 +173,18 @@
   <si>
     <t>]</t>
   </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>pg</t>
+  </si>
+  <si>
+    <t>ppg</t>
+  </si>
+  <si>
+    <t>pppg</t>
+  </si>
 </sst>
 </file>
 
@@ -215,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +246,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -617,7 +644,76 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,22 +725,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -659,6 +740,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,6 +756,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -963,34 +1062,34 @@
       <selection activeCell="BG20" sqref="BG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="8" width="16" hidden="1" customWidth="1"/>
     <col min="9" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+    <row r="2" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="K2" s="57" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="K2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-    </row>
-    <row r="3" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+    </row>
+    <row r="3" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1033,44 +1132,44 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="57" t="s">
+      <c r="T3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AB3" s="57" t="s">
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AB3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AM3" s="58" t="s">
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AM3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="60"/>
-      <c r="AW3" s="58" t="s">
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="82"/>
+      <c r="AS3" s="83"/>
+      <c r="AW3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="59"/>
-      <c r="BC3" s="60"/>
-    </row>
-    <row r="4" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX3" s="82"/>
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="82"/>
+      <c r="BA3" s="82"/>
+      <c r="BB3" s="82"/>
+      <c r="BC3" s="83"/>
+    </row>
+    <row r="4" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -1207,7 +1306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -1360,7 +1459,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -1513,7 +1612,7 @@
         <v>10.799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -1640,10 +1739,10 @@
         <f t="shared" ref="AS7:AS10" si="21">AR7-AQ7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AT7" s="65" t="s">
+      <c r="AT7" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="AU7" s="66"/>
+      <c r="AU7" s="80"/>
       <c r="AW7" s="34">
         <v>3</v>
       </c>
@@ -1669,12 +1768,12 @@
         <f t="shared" ref="BC7:BC10" si="23">BB7-BA7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="BD7" s="61" t="s">
+      <c r="BD7" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="BE7" s="62"/>
-    </row>
-    <row r="8" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BE7" s="78"/>
+    </row>
+    <row r="8" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -1843,7 +1942,7 @@
         <v>62.999999999999588</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>6</v>
@@ -1970,10 +2069,10 @@
         <f t="shared" si="21"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AT9" s="63" t="s">
+      <c r="AT9" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="AU9" s="64"/>
+      <c r="AU9" s="76"/>
       <c r="AW9" s="34">
         <v>5</v>
       </c>
@@ -1999,12 +2098,12 @@
         <f t="shared" si="23"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="BD9" s="63" t="s">
+      <c r="BD9" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="BE9" s="64"/>
-    </row>
-    <row r="10" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE9" s="76"/>
+    </row>
+    <row r="10" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T10" s="8">
         <v>6</v>
       </c>
@@ -2122,16 +2221,16 @@
         <v>10.499999999999922</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="57" t="s">
+    <row r="11" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -2183,16 +2282,16 @@
         <v>1.7999999999999829</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="57" t="s">
+    <row r="12" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -2265,7 +2364,7 @@
         <v>1.8000000000000114</v>
       </c>
     </row>
-    <row r="13" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -2312,26 +2411,26 @@
         <f>P13-O13</f>
         <v>1.8</v>
       </c>
-      <c r="AM13" s="58" t="s">
+      <c r="AM13" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="59"/>
-      <c r="AS13" s="60"/>
-      <c r="AW13" s="58" t="s">
+      <c r="AN13" s="82"/>
+      <c r="AO13" s="82"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="82"/>
+      <c r="AR13" s="82"/>
+      <c r="AS13" s="83"/>
+      <c r="AW13" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AX13" s="59"/>
-      <c r="AY13" s="59"/>
-      <c r="AZ13" s="59"/>
-      <c r="BA13" s="59"/>
-      <c r="BB13" s="59"/>
-      <c r="BC13" s="60"/>
-    </row>
-    <row r="14" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX13" s="82"/>
+      <c r="AY13" s="82"/>
+      <c r="AZ13" s="82"/>
+      <c r="BA13" s="82"/>
+      <c r="BB13" s="82"/>
+      <c r="BC13" s="83"/>
+    </row>
+    <row r="14" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>1</v>
@@ -2426,7 +2525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>2</v>
@@ -2529,7 +2628,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="16" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>3</v>
@@ -2584,15 +2683,15 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="57" t="s">
+      <c r="T16" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
       <c r="AM16" s="34">
         <v>2</v>
       </c>
@@ -2644,7 +2743,7 @@
         <v>12.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>4</v>
@@ -2720,15 +2819,15 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="57" t="s">
+      <c r="AD17" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
-      <c r="AH17" s="57"/>
-      <c r="AI17" s="57"/>
-      <c r="AJ17" s="57"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="84"/>
+      <c r="AH17" s="84"/>
+      <c r="AI17" s="84"/>
+      <c r="AJ17" s="84"/>
       <c r="AM17" s="34">
         <v>3</v>
       </c>
@@ -2754,10 +2853,10 @@
         <f t="shared" ref="AS17:AS20" si="41">AR17-AQ17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="AT17" s="61" t="s">
+      <c r="AT17" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AU17" s="62"/>
+      <c r="AU17" s="78"/>
       <c r="AW17" s="34">
         <v>3</v>
       </c>
@@ -2783,12 +2882,12 @@
         <f t="shared" ref="BC17:BC20" si="43">BB17-BA17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="BD17" s="61" t="s">
+      <c r="BD17" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="BE17" s="62"/>
-    </row>
-    <row r="18" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BE17" s="78"/>
+    </row>
+    <row r="18" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>5</v>
@@ -2959,7 +3058,7 @@
         <v>62.999999999999879</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>6</v>
@@ -3067,10 +3166,10 @@
         <f t="shared" si="41"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="AT19" s="63" t="s">
+      <c r="AT19" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="AU19" s="64"/>
+      <c r="AU19" s="76"/>
       <c r="AW19" s="34">
         <v>5</v>
       </c>
@@ -3096,12 +3195,12 @@
         <f t="shared" si="43"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="BD19" s="63" t="s">
+      <c r="BD19" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="BE19" s="64"/>
-    </row>
-    <row r="20" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE19" s="76"/>
+    </row>
+    <row r="20" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="S20">
         <v>25</v>
       </c>
@@ -3225,16 +3324,16 @@
         <v>8.9999999999999911</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K21" s="57" t="s">
+    <row r="21" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -3292,16 +3391,16 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="57" t="s">
+    <row r="22" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -3377,7 +3476,7 @@
         <v>3.6000000000000014</v>
       </c>
     </row>
-    <row r="23" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -3477,26 +3576,26 @@
         <f t="shared" si="55"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="AM23" s="58" t="s">
+      <c r="AM23" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AN23" s="59"/>
-      <c r="AO23" s="59"/>
-      <c r="AP23" s="59"/>
-      <c r="AQ23" s="59"/>
-      <c r="AR23" s="59"/>
-      <c r="AS23" s="60"/>
-      <c r="AW23" s="58" t="s">
+      <c r="AN23" s="82"/>
+      <c r="AO23" s="82"/>
+      <c r="AP23" s="82"/>
+      <c r="AQ23" s="82"/>
+      <c r="AR23" s="82"/>
+      <c r="AS23" s="83"/>
+      <c r="AW23" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AX23" s="59"/>
-      <c r="AY23" s="59"/>
-      <c r="AZ23" s="59"/>
-      <c r="BA23" s="59"/>
-      <c r="BB23" s="59"/>
-      <c r="BC23" s="60"/>
-    </row>
-    <row r="24" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX23" s="82"/>
+      <c r="AY23" s="82"/>
+      <c r="AZ23" s="82"/>
+      <c r="BA23" s="82"/>
+      <c r="BB23" s="82"/>
+      <c r="BC23" s="83"/>
+    </row>
+    <row r="24" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>1</v>
@@ -3641,7 +3740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>2</v>
@@ -3794,7 +3893,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>3</v>
@@ -3931,7 +4030,7 @@
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>4</v>
@@ -4008,10 +4107,10 @@
         <f t="shared" ref="AS27:AS30" si="73">AR27-AQ27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="AT27" s="61" t="s">
+      <c r="AT27" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AU27" s="62"/>
+      <c r="AU27" s="78"/>
       <c r="AW27" s="34">
         <v>3</v>
       </c>
@@ -4037,12 +4136,12 @@
         <f t="shared" ref="BC27:BC30" si="75">BB27-BA27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="BD27" s="61" t="s">
+      <c r="BD27" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="BE27" s="62"/>
-    </row>
-    <row r="28" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BE27" s="78"/>
+    </row>
+    <row r="28" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>5</v>
@@ -4183,7 +4282,7 @@
         <v>63.000000000000099</v>
       </c>
     </row>
-    <row r="29" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>6</v>
@@ -4232,15 +4331,15 @@
         <f t="shared" ref="Y29:Y38" si="81">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="57" t="s">
+      <c r="AD29" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="57"/>
-      <c r="AJ29" s="57"/>
+      <c r="AE29" s="84"/>
+      <c r="AF29" s="84"/>
+      <c r="AG29" s="84"/>
+      <c r="AH29" s="84"/>
+      <c r="AI29" s="84"/>
+      <c r="AJ29" s="84"/>
       <c r="AM29" s="34">
         <v>5</v>
       </c>
@@ -4266,10 +4365,10 @@
         <f t="shared" si="73"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AT29" s="63" t="s">
+      <c r="AT29" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="AU29" s="64"/>
+      <c r="AU29" s="76"/>
       <c r="AW29" s="34">
         <v>5</v>
       </c>
@@ -4295,12 +4394,12 @@
         <f t="shared" si="75"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="BD29" s="63" t="s">
+      <c r="BD29" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="BE29" s="64"/>
-    </row>
-    <row r="30" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE29" s="76"/>
+    </row>
+    <row r="30" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T30" s="18" t="s">
         <v>25</v>
       </c>
@@ -4411,7 +4510,7 @@
         <v>7.8750000000000187</v>
       </c>
     </row>
-    <row r="31" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T31" s="18" t="s">
         <v>24</v>
       </c>
@@ -4460,25 +4559,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="57" t="s">
+    <row r="32" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="K32" s="57" t="s">
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="K32" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -4527,7 +4626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -4617,26 +4716,26 @@
         <f t="shared" ref="AJ33:AJ38" si="86">AI33-AH33</f>
         <v>9</v>
       </c>
-      <c r="AM33" s="58" t="s">
+      <c r="AM33" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AN33" s="59"/>
-      <c r="AO33" s="59"/>
-      <c r="AP33" s="59"/>
-      <c r="AQ33" s="59"/>
-      <c r="AR33" s="59"/>
-      <c r="AS33" s="60"/>
-      <c r="AW33" s="58" t="s">
+      <c r="AN33" s="82"/>
+      <c r="AO33" s="82"/>
+      <c r="AP33" s="82"/>
+      <c r="AQ33" s="82"/>
+      <c r="AR33" s="82"/>
+      <c r="AS33" s="83"/>
+      <c r="AW33" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AX33" s="59"/>
-      <c r="AY33" s="59"/>
-      <c r="AZ33" s="59"/>
-      <c r="BA33" s="59"/>
-      <c r="BB33" s="59"/>
-      <c r="BC33" s="60"/>
-    </row>
-    <row r="34" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX33" s="82"/>
+      <c r="AY33" s="82"/>
+      <c r="AZ33" s="82"/>
+      <c r="BA33" s="82"/>
+      <c r="BB33" s="82"/>
+      <c r="BC33" s="83"/>
+    </row>
+    <row r="34" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="8">
         <v>1</v>
@@ -4777,7 +4876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>2</v>
@@ -4926,7 +5025,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="36" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
         <v>3</v>
@@ -5075,7 +5174,7 @@
         <v>16.200000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>4</v>
@@ -5198,10 +5297,10 @@
         <f t="shared" ref="AS37:AS40" si="100">AR37-AQ37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="AT37" s="61" t="s">
+      <c r="AT37" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AU37" s="62"/>
+      <c r="AU37" s="78"/>
       <c r="AW37" s="34">
         <v>3</v>
       </c>
@@ -5227,12 +5326,12 @@
         <f t="shared" ref="BC37:BC40" si="102">BB37-BA37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="BD37" s="61" t="s">
+      <c r="BD37" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="BE37" s="62"/>
-    </row>
-    <row r="38" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BE37" s="78"/>
+    </row>
+    <row r="38" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="8">
         <v>5</v>
@@ -5397,7 +5496,7 @@
         <v>62.999999999999815</v>
       </c>
     </row>
-    <row r="39" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>6</v>
@@ -5486,10 +5585,10 @@
         <f t="shared" si="100"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AT39" s="63" t="s">
+      <c r="AT39" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="AU39" s="64"/>
+      <c r="AU39" s="76"/>
       <c r="AW39" s="34">
         <v>5</v>
       </c>
@@ -5515,12 +5614,12 @@
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD39" s="63" t="s">
+      <c r="BD39" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="BE39" s="64"/>
-    </row>
-    <row r="40" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE39" s="76"/>
+    </row>
+    <row r="40" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K40" s="8">
         <v>7</v>
       </c>
@@ -5617,7 +5716,7 @@
         <v>6.9999999999999716</v>
       </c>
     </row>
-    <row r="41" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K41" s="8">
         <v>8</v>
       </c>
@@ -5648,16 +5747,16 @@
         <v>1121.4000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="57" t="s">
+    <row r="42" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -5684,7 +5783,7 @@
         <v>1.8000000000000682</v>
       </c>
     </row>
-    <row r="43" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -5706,26 +5805,26 @@
       <c r="H43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM43" s="58" t="s">
+      <c r="AM43" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="59"/>
-      <c r="AO43" s="59"/>
-      <c r="AP43" s="59"/>
-      <c r="AQ43" s="59"/>
-      <c r="AR43" s="59"/>
-      <c r="AS43" s="60"/>
-      <c r="AW43" s="58" t="s">
+      <c r="AN43" s="82"/>
+      <c r="AO43" s="82"/>
+      <c r="AP43" s="82"/>
+      <c r="AQ43" s="82"/>
+      <c r="AR43" s="82"/>
+      <c r="AS43" s="83"/>
+      <c r="AW43" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AX43" s="59"/>
-      <c r="AY43" s="59"/>
-      <c r="AZ43" s="59"/>
-      <c r="BA43" s="59"/>
-      <c r="BB43" s="59"/>
-      <c r="BC43" s="60"/>
-    </row>
-    <row r="44" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX43" s="82"/>
+      <c r="AY43" s="82"/>
+      <c r="AZ43" s="82"/>
+      <c r="BA43" s="82"/>
+      <c r="BB43" s="82"/>
+      <c r="BC43" s="83"/>
+    </row>
+    <row r="44" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="8">
         <v>1</v>
@@ -5795,7 +5894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>2</v>
@@ -5873,7 +5972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="7"/>
       <c r="B46" s="8">
         <v>3</v>
@@ -5951,7 +6050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>4</v>
@@ -5978,15 +6077,15 @@
         <f t="shared" si="114"/>
         <v>126</v>
       </c>
-      <c r="T47" s="57" t="s">
+      <c r="T47" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="57"/>
-      <c r="V47" s="57"/>
-      <c r="W47" s="57"/>
-      <c r="X47" s="57"/>
-      <c r="Y47" s="57"/>
-      <c r="Z47" s="57"/>
+      <c r="U47" s="84"/>
+      <c r="V47" s="84"/>
+      <c r="W47" s="84"/>
+      <c r="X47" s="84"/>
+      <c r="Y47" s="84"/>
+      <c r="Z47" s="84"/>
       <c r="AM47" s="34">
         <v>3</v>
       </c>
@@ -6012,10 +6111,10 @@
         <f t="shared" ref="AS47:AS50" si="120">AR47-AQ47</f>
         <v>9</v>
       </c>
-      <c r="AT47" s="61" t="s">
+      <c r="AT47" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AU47" s="62"/>
+      <c r="AU47" s="78"/>
       <c r="AW47" s="34">
         <v>3</v>
       </c>
@@ -6041,12 +6140,12 @@
         <f t="shared" ref="BC47:BC50" si="122">BB47-BA47</f>
         <v>18</v>
       </c>
-      <c r="BD47" s="61" t="s">
+      <c r="BD47" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="BE47" s="62"/>
-    </row>
-    <row r="48" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BE47" s="78"/>
+    </row>
+    <row r="48" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="8">
         <v>5</v>
@@ -6161,7 +6260,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
       <c r="B49" s="8">
         <v>6</v>
@@ -6238,10 +6337,10 @@
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT49" s="63" t="s">
+      <c r="AT49" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="AU49" s="64"/>
+      <c r="AU49" s="76"/>
       <c r="AW49" s="34">
         <v>5</v>
       </c>
@@ -6267,12 +6366,12 @@
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD49" s="63" t="s">
+      <c r="BD49" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="BE49" s="64"/>
-    </row>
-    <row r="50" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE49" s="76"/>
+    </row>
+    <row r="50" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T50" s="8">
         <v>2</v>
       </c>
@@ -6365,7 +6464,7 @@
         <v>6.3000000000000052</v>
       </c>
     </row>
-    <row r="51" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T51" s="8">
         <v>3</v>
       </c>
@@ -6392,16 +6491,16 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="57" t="s">
+    <row r="52" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -6428,7 +6527,7 @@
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="53" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>0</v>
       </c>
@@ -6476,7 +6575,7 @@
         <v>14.400000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7"/>
       <c r="B54" s="8">
         <v>1</v>
@@ -6529,7 +6628,7 @@
         <v>14.400000000000034</v>
       </c>
     </row>
-    <row r="55" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7"/>
       <c r="B55" s="8">
         <v>2</v>
@@ -6582,7 +6681,7 @@
         <v>21.600000000000023</v>
       </c>
     </row>
-    <row r="56" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7"/>
       <c r="B56" s="8">
         <v>3</v>
@@ -6635,7 +6734,7 @@
         <v>21.599999999999909</v>
       </c>
     </row>
-    <row r="57" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7"/>
       <c r="B57" s="8">
         <v>4</v>
@@ -6663,7 +6762,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
       <c r="B58" s="8">
         <v>5</v>
@@ -6691,7 +6790,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="59" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7"/>
       <c r="B59" s="8">
         <v>6</v>
@@ -6719,18 +6818,18 @@
         <v>720</v>
       </c>
     </row>
-    <row r="62" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="57" t="s">
+    <row r="62" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-    </row>
-    <row r="63" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="84"/>
+      <c r="H62" s="84"/>
+    </row>
+    <row r="63" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
         <v>0</v>
       </c>
@@ -6753,7 +6852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7"/>
       <c r="B64" s="8">
         <v>1</v>
@@ -6781,7 +6880,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7"/>
       <c r="B65" s="8">
         <v>2</v>
@@ -6809,7 +6908,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7"/>
       <c r="B66" s="8">
         <v>3</v>
@@ -6837,7 +6936,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7"/>
       <c r="B67" s="8">
         <v>4</v>
@@ -6865,7 +6964,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7"/>
       <c r="B68" s="8">
         <v>5</v>
@@ -6893,7 +6992,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7"/>
       <c r="B69" s="8">
         <v>6</v>
@@ -6923,6 +7022,39 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T47:Z47"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AM43:AS43"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="AW13:BC13"/>
+    <mergeCell ref="AW23:BC23"/>
+    <mergeCell ref="AW33:BC33"/>
+    <mergeCell ref="AW43:BC43"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AT49:AU49"/>
     <mergeCell ref="BD49:BE49"/>
     <mergeCell ref="BD39:BE39"/>
@@ -6937,39 +7069,6 @@
     <mergeCell ref="AT29:AU29"/>
     <mergeCell ref="AT39:AU39"/>
     <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="AW13:BC13"/>
-    <mergeCell ref="AW23:BC23"/>
-    <mergeCell ref="AW33:BC33"/>
-    <mergeCell ref="AW43:BC43"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T47:Z47"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AM43:AS43"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" orientation="portrait" r:id="rId1"/>
@@ -6987,77 +7086,77 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2" max="13" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" style="1" customWidth="1"/>
+    <col min="2" max="13" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-    </row>
-    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-    </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+    </row>
+    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+    </row>
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="68" t="s">
+      <c r="D3" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-    </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+    </row>
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -7077,7 +7176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -7094,7 +7193,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -7111,7 +7210,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -7128,7 +7227,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -7145,7 +7244,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -7162,7 +7261,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -7179,7 +7278,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -7196,7 +7295,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -7213,7 +7312,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -7230,7 +7329,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -7247,7 +7346,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -7264,7 +7363,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -7281,7 +7380,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -7298,7 +7397,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -7315,7 +7414,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -7332,7 +7431,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -7349,7 +7448,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -7366,7 +7465,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -7383,7 +7482,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -7400,7 +7499,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -7417,38 +7516,38 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
+    <row r="25" spans="1:13" ht="9.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-    </row>
-    <row r="27" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+    </row>
+    <row r="27" spans="1:13" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7466,7 +7565,7 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7475,39 +7574,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AE108"/>
+  <dimension ref="B2:BB117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W88" sqref="W88"/>
+    <sheetView tabSelected="1" topLeftCell="H74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE99" sqref="AE98:AE99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+    <row r="2" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="60"/>
-    </row>
-    <row r="4" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="83"/>
+    </row>
+    <row r="4" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
@@ -7554,7 +7653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="34">
         <v>1</v>
       </c>
@@ -7609,7 +7708,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="34">
         <v>2</v>
       </c>
@@ -7664,7 +7763,7 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="34">
         <v>3</v>
       </c>
@@ -7701,7 +7800,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="35"/>
     </row>
-    <row r="8" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="34">
         <v>4</v>
       </c>
@@ -7731,7 +7830,7 @@
       <c r="J8" s="48"/>
       <c r="K8" s="48"/>
     </row>
-    <row r="9" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="34">
         <v>5</v>
       </c>
@@ -7761,7 +7860,7 @@
       <c r="J9" s="47"/>
       <c r="K9" s="47"/>
     </row>
-    <row r="10" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="37">
         <v>6</v>
       </c>
@@ -7807,7 +7906,7 @@
         <v>-205.20000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="34">
         <v>7</v>
       </c>
@@ -7847,7 +7946,7 @@
         <v>151.20000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T12" s="20">
         <v>25</v>
       </c>
@@ -7859,27 +7958,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="V13">
         <f>SUM(V10:V12)</f>
         <v>-9</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
+    <row r="14" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="32" t="s">
         <v>0</v>
       </c>
@@ -7905,7 +8004,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="34">
         <v>1</v>
       </c>
@@ -7947,7 +8046,7 @@
         <v>-19.8</v>
       </c>
     </row>
-    <row r="17" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="34">
         <v>2</v>
       </c>
@@ -7989,7 +8088,7 @@
         <v>-91.8</v>
       </c>
     </row>
-    <row r="18" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="34">
         <v>3</v>
       </c>
@@ -8031,7 +8130,7 @@
         <v>-181.8</v>
       </c>
     </row>
-    <row r="19" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="34">
         <v>4</v>
       </c>
@@ -8073,7 +8172,7 @@
         <v>-361.8</v>
       </c>
     </row>
-    <row r="20" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="34">
         <v>5</v>
       </c>
@@ -8103,7 +8202,7 @@
       <c r="J20" s="47"/>
       <c r="K20" s="47"/>
     </row>
-    <row r="21" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="37">
         <v>6</v>
       </c>
@@ -8133,7 +8232,7 @@
       <c r="J21" s="48"/>
       <c r="K21" s="48"/>
     </row>
-    <row r="22" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="34">
         <v>7</v>
       </c>
@@ -8163,22 +8262,22 @@
       <c r="J22" s="47"/>
       <c r="K22" s="47"/>
     </row>
-    <row r="24" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="58" t="s">
+    <row r="24" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="83"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="32" t="s">
         <v>0</v>
       </c>
@@ -8204,7 +8303,7 @@
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="34">
         <v>1</v>
       </c>
@@ -8234,7 +8333,7 @@
       <c r="J27" s="47"/>
       <c r="K27" s="47"/>
     </row>
-    <row r="28" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34">
         <v>2</v>
       </c>
@@ -8264,7 +8363,7 @@
       <c r="J28" s="48"/>
       <c r="K28" s="48"/>
     </row>
-    <row r="29" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="34">
         <v>3</v>
       </c>
@@ -8294,7 +8393,7 @@
       <c r="J29" s="47"/>
       <c r="K29" s="47"/>
     </row>
-    <row r="30" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="34">
         <v>4</v>
       </c>
@@ -8324,7 +8423,7 @@
       <c r="J30" s="48"/>
       <c r="K30" s="48"/>
     </row>
-    <row r="31" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="34">
         <v>5</v>
       </c>
@@ -8354,7 +8453,7 @@
       <c r="J31" s="47"/>
       <c r="K31" s="47"/>
     </row>
-    <row r="32" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="37">
         <v>6</v>
       </c>
@@ -8384,7 +8483,7 @@
       <c r="J32" s="48"/>
       <c r="K32" s="48"/>
     </row>
-    <row r="33" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="34">
         <v>7</v>
       </c>
@@ -8414,31 +8513,31 @@
       <c r="J33" s="47"/>
       <c r="K33" s="47"/>
     </row>
-    <row r="35" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="58" t="s">
+    <row r="35" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="60"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="83"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
-      <c r="M36" s="58" t="s">
+      <c r="M36" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="60"/>
-    </row>
-    <row r="37" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="83"/>
+    </row>
+    <row r="37" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="32" t="s">
         <v>0</v>
       </c>
@@ -8485,7 +8584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="34">
         <v>1</v>
       </c>
@@ -8547,7 +8646,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="34">
         <v>2</v>
       </c>
@@ -8609,7 +8708,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="40" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="34">
         <v>3</v>
       </c>
@@ -8671,7 +8770,7 @@
         <v>48.600000000000023</v>
       </c>
     </row>
-    <row r="41" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="34">
         <v>4</v>
       </c>
@@ -8733,7 +8832,7 @@
         <v>36.000000000000014</v>
       </c>
     </row>
-    <row r="42" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="34">
         <v>5</v>
       </c>
@@ -8795,7 +8894,7 @@
         <v>27.000000000000043</v>
       </c>
     </row>
-    <row r="43" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="37">
         <v>6</v>
       </c>
@@ -8857,7 +8956,7 @@
         <v>21.599999999999966</v>
       </c>
     </row>
-    <row r="44" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="34">
         <v>7</v>
       </c>
@@ -8919,7 +9018,7 @@
         <v>62.999999999999829</v>
       </c>
     </row>
-    <row r="45" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M45" s="34">
         <v>8</v>
       </c>
@@ -8950,7 +9049,7 @@
         <v>316.7999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M46" s="34"/>
       <c r="N46" s="8"/>
       <c r="O46" s="9"/>
@@ -8959,16 +9058,16 @@
       <c r="R46" s="8"/>
       <c r="S46" s="35"/>
     </row>
-    <row r="47" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="58" t="s">
+    <row r="47" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="60"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="83"/>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
@@ -8980,7 +9079,7 @@
       <c r="R47" s="38"/>
       <c r="S47" s="41"/>
     </row>
-    <row r="48" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="32" t="s">
         <v>0</v>
       </c>
@@ -9013,7 +9112,7 @@
       <c r="R48" s="8"/>
       <c r="S48" s="35"/>
     </row>
-    <row r="49" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="34">
         <v>1</v>
       </c>
@@ -9050,7 +9149,7 @@
       <c r="R49" s="8"/>
       <c r="S49" s="36"/>
     </row>
-    <row r="50" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="34">
         <v>2</v>
       </c>
@@ -9080,7 +9179,7 @@
       <c r="J50" s="48"/>
       <c r="K50" s="48"/>
     </row>
-    <row r="51" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="34">
         <v>3</v>
       </c>
@@ -9110,7 +9209,7 @@
       <c r="J51" s="47"/>
       <c r="K51" s="47"/>
     </row>
-    <row r="52" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="34">
         <v>4</v>
       </c>
@@ -9140,7 +9239,7 @@
       <c r="J52" s="48"/>
       <c r="K52" s="48"/>
     </row>
-    <row r="53" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B53" s="34">
         <v>5</v>
       </c>
@@ -9170,7 +9269,7 @@
       <c r="J53" s="47"/>
       <c r="K53" s="47"/>
     </row>
-    <row r="54" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B54" s="37">
         <v>6</v>
       </c>
@@ -9199,17 +9298,17 @@
       <c r="I54" s="48"/>
       <c r="J54" s="48"/>
       <c r="K54" s="48"/>
-      <c r="M54" s="58" t="s">
+      <c r="M54" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="60"/>
-    </row>
-    <row r="55" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N54" s="82"/>
+      <c r="O54" s="82"/>
+      <c r="P54" s="82"/>
+      <c r="Q54" s="82"/>
+      <c r="R54" s="82"/>
+      <c r="S54" s="83"/>
+    </row>
+    <row r="55" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="34">
         <v>7</v>
       </c>
@@ -9260,7 +9359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M56" s="34">
         <v>1</v>
       </c>
@@ -9294,7 +9393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M57" s="34">
         <v>2</v>
       </c>
@@ -9328,7 +9427,7 @@
         <v>340.2</v>
       </c>
     </row>
-    <row r="58" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M58" s="34">
         <v>3</v>
       </c>
@@ -9362,7 +9461,7 @@
         <v>145.80000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M59" s="34">
         <v>4</v>
       </c>
@@ -9396,7 +9495,7 @@
         <v>81.000000000000014</v>
       </c>
     </row>
-    <row r="60" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M60" s="34">
         <v>5</v>
       </c>
@@ -9430,7 +9529,7 @@
         <v>48.599999999999966</v>
       </c>
     </row>
-    <row r="61" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M61" s="37">
         <v>6</v>
       </c>
@@ -9464,7 +9563,7 @@
         <v>32.400000000000091</v>
       </c>
     </row>
-    <row r="62" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M62" s="34">
         <v>7</v>
       </c>
@@ -9498,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M63" s="34">
         <v>8</v>
       </c>
@@ -9527,7 +9626,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="69" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E69" t="s">
         <v>39</v>
       </c>
@@ -9538,40 +9637,40 @@
         <v>888</v>
       </c>
     </row>
-    <row r="71" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="58" t="s">
+    <row r="71" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="72" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="60"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="83"/>
       <c r="I72" s="18"/>
       <c r="J72" s="18"/>
       <c r="K72" s="18"/>
-      <c r="M72" s="58" t="s">
+      <c r="M72" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="59"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="59"/>
-      <c r="S72" s="60"/>
-      <c r="W72" s="58" t="s">
+      <c r="N72" s="82"/>
+      <c r="O72" s="82"/>
+      <c r="P72" s="82"/>
+      <c r="Q72" s="82"/>
+      <c r="R72" s="82"/>
+      <c r="S72" s="83"/>
+      <c r="W72" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="X72" s="59"/>
-      <c r="Y72" s="59"/>
-      <c r="Z72" s="59"/>
-      <c r="AA72" s="59"/>
-      <c r="AB72" s="59"/>
-      <c r="AC72" s="60"/>
-    </row>
-    <row r="73" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X72" s="82"/>
+      <c r="Y72" s="82"/>
+      <c r="Z72" s="82"/>
+      <c r="AA72" s="82"/>
+      <c r="AB72" s="82"/>
+      <c r="AC72" s="83"/>
+    </row>
+    <row r="73" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="32" t="s">
         <v>0</v>
       </c>
@@ -9639,7 +9738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="34">
         <v>1</v>
       </c>
@@ -9712,33 +9811,33 @@
         <v>30</v>
       </c>
       <c r="Y74" s="9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Z74" s="8">
         <f>X74*Y74</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA74" s="10">
         <f>Z74</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB74" s="8">
         <f>Y74*36</f>
-        <v>3.6</v>
+        <v>18</v>
       </c>
       <c r="AC74" s="35">
         <f>AB74-AA74</f>
-        <v>0.60000000000000009</v>
+        <v>3</v>
       </c>
       <c r="AD74">
-        <v>22</v>
+        <v>326</v>
       </c>
       <c r="AE74">
         <f>AC74*AD74</f>
-        <v>13.200000000000003</v>
-      </c>
-    </row>
-    <row r="75" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="34">
         <v>2</v>
       </c>
@@ -9811,33 +9910,33 @@
         <v>31</v>
       </c>
       <c r="Y75" s="9">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="Z75" s="8">
         <f t="shared" ref="Z75" si="51">X75*Y75</f>
-        <v>31</v>
+        <v>99.2</v>
       </c>
       <c r="AA75" s="10">
         <f>Z75+AA74</f>
-        <v>34</v>
+        <v>114.2</v>
       </c>
       <c r="AB75" s="8">
         <f t="shared" ref="AB75" si="52">Y75*36</f>
-        <v>36</v>
+        <v>115.2</v>
       </c>
       <c r="AC75" s="36">
         <f>AB75-AA75</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD75">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="AE75">
         <f t="shared" ref="AE75:AE78" si="53">AC75*AD75</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="34">
         <v>3</v>
       </c>
@@ -9910,33 +10009,33 @@
         <v>32</v>
       </c>
       <c r="Y76" s="9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Z76" s="8">
         <f>X76*Y76</f>
-        <v>320</v>
+        <v>960</v>
       </c>
       <c r="AA76" s="10">
         <f>Z76+AA75</f>
-        <v>354</v>
+        <v>1074.2</v>
       </c>
       <c r="AB76" s="8">
         <f>Y76*36</f>
-        <v>360</v>
+        <v>1080</v>
       </c>
       <c r="AC76" s="35">
         <f>AB76-AA76</f>
-        <v>6</v>
+        <v>5.7999999999999545</v>
       </c>
       <c r="AD76">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE76">
         <f t="shared" si="53"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57.999999999999545</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="34">
         <v>4</v>
       </c>
@@ -10008,16 +10107,16 @@
       <c r="Z77" s="8"/>
       <c r="AA77" s="10"/>
       <c r="AB77" s="8"/>
-      <c r="AC77" s="36"/>
+      <c r="AC77" s="35"/>
       <c r="AD77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE77">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="34">
         <v>5</v>
       </c>
@@ -10089,7 +10188,7 @@
       <c r="Z78" s="8"/>
       <c r="AA78" s="10"/>
       <c r="AB78" s="8"/>
-      <c r="AC78" s="35"/>
+      <c r="AC78" s="36"/>
       <c r="AD78">
         <v>0</v>
       </c>
@@ -10098,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B79" s="37">
         <v>6</v>
       </c>
@@ -10164,15 +10263,15 @@
         <f t="shared" si="50"/>
         <v>1.0000000000000568</v>
       </c>
-      <c r="W79" s="37"/>
-      <c r="X79" s="38"/>
-      <c r="Y79" s="39"/>
-      <c r="Z79" s="38"/>
-      <c r="AA79" s="40"/>
-      <c r="AB79" s="38"/>
-      <c r="AC79" s="41"/>
-    </row>
-    <row r="80" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W79" s="34"/>
+      <c r="X79" s="8"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="10"/>
+      <c r="AB79" s="8"/>
+      <c r="AC79" s="35"/>
+    </row>
+    <row r="80" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="34">
         <v>7</v>
       </c>
@@ -10246,7 +10345,7 @@
       <c r="AB80" s="8"/>
       <c r="AC80" s="35"/>
     </row>
-    <row r="81" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B81" s="37">
         <v>8</v>
       </c>
@@ -10322,7 +10421,7 @@
       <c r="AD81" s="49"/>
       <c r="AE81" s="20"/>
     </row>
-    <row r="82" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J82" s="22">
         <f>SUM(J74:J81)</f>
         <v>164.80000000000015</v>
@@ -10333,29 +10432,29 @@
       </c>
       <c r="AE82" s="22">
         <f>SUM(AE74:AE81)</f>
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1103.9999999999995</v>
+      </c>
+    </row>
+    <row r="83" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I83">
         <f>F81/J82</f>
         <v>37.026699029126178</v>
       </c>
-      <c r="M83" s="58" t="s">
+      <c r="M83" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="N83" s="59"/>
-      <c r="O83" s="59"/>
-      <c r="P83" s="59"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="59"/>
-      <c r="S83" s="60"/>
+      <c r="N83" s="82"/>
+      <c r="O83" s="82"/>
+      <c r="P83" s="82"/>
+      <c r="Q83" s="82"/>
+      <c r="R83" s="82"/>
+      <c r="S83" s="83"/>
       <c r="T83">
         <f>Q81/U82</f>
         <v>37.513470681457918</v>
       </c>
     </row>
-    <row r="84" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M84" s="32" t="s">
         <v>0</v>
       </c>
@@ -10378,7 +10477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M85" s="34">
         <v>1</v>
       </c>
@@ -10412,7 +10511,7 @@
         <v>26.399999999999995</v>
       </c>
     </row>
-    <row r="86" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M86" s="34">
         <v>2</v>
       </c>
@@ -10449,7 +10548,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="87" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M87" s="34">
         <v>3</v>
       </c>
@@ -10483,7 +10582,7 @@
         <v>6.2999999999999829</v>
       </c>
     </row>
-    <row r="88" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M88" s="34">
         <v>4</v>
       </c>
@@ -10517,7 +10616,7 @@
         <v>51.600000000000023</v>
       </c>
     </row>
-    <row r="89" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M89" s="34">
         <v>5</v>
       </c>
@@ -10550,17 +10649,17 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="W89" s="71" t="s">
+      <c r="W89" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="X89" s="72"/>
-      <c r="Y89" s="72"/>
-      <c r="Z89" s="72"/>
-      <c r="AA89" s="72"/>
-      <c r="AB89" s="72"/>
-      <c r="AC89" s="73"/>
-    </row>
-    <row r="90" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X89" s="96"/>
+      <c r="Y89" s="96"/>
+      <c r="Z89" s="96"/>
+      <c r="AA89" s="96"/>
+      <c r="AB89" s="96"/>
+      <c r="AC89" s="97"/>
+    </row>
+    <row r="90" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M90" s="37"/>
       <c r="N90" s="38"/>
       <c r="O90" s="39"/>
@@ -10575,29 +10674,29 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="W90" s="52" t="s">
+      <c r="W90" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="X90" s="53" t="s">
+      <c r="X90" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="Y90" s="26" t="s">
+      <c r="Y90" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Z90" s="53" t="s">
+      <c r="Z90" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AA90" s="53" t="s">
+      <c r="AA90" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AB90" s="53" t="s">
+      <c r="AB90" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AC90" s="54" t="s">
+      <c r="AC90" s="60" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M91" s="34"/>
       <c r="N91" s="8"/>
       <c r="O91" s="9"/>
@@ -10612,40 +10711,40 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="W91" s="55">
+      <c r="W91" s="61">
         <v>1</v>
       </c>
-      <c r="X91" s="25">
+      <c r="X91" s="62">
         <v>30</v>
       </c>
-      <c r="Y91" s="26">
-        <v>1</v>
-      </c>
-      <c r="Z91" s="25">
+      <c r="Y91" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="Z91" s="62">
         <f>X91*Y91</f>
-        <v>30</v>
-      </c>
-      <c r="AA91" s="27">
+        <v>3</v>
+      </c>
+      <c r="AA91" s="63">
         <f>Z91</f>
-        <v>30</v>
-      </c>
-      <c r="AB91" s="25">
+        <v>3</v>
+      </c>
+      <c r="AB91" s="62">
         <f>Y91*36</f>
-        <v>36</v>
-      </c>
-      <c r="AC91" s="56">
+        <v>3.6</v>
+      </c>
+      <c r="AC91" s="64">
         <f>AB91-AA91</f>
-        <v>6</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="AD91">
         <v>22</v>
       </c>
       <c r="AE91">
         <f>AC91*AD91</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="92" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13.200000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M92" s="34"/>
       <c r="N92" s="8"/>
       <c r="O92" s="9"/>
@@ -10660,57 +10759,57 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="W92" s="55">
+      <c r="W92" s="61">
         <v>1</v>
       </c>
-      <c r="X92" s="25">
-        <v>31</v>
-      </c>
-      <c r="Y92" s="26">
-        <v>7.2</v>
-      </c>
-      <c r="Z92" s="25">
+      <c r="X92" s="62">
+        <v>30</v>
+      </c>
+      <c r="Y92" s="59">
+        <v>1</v>
+      </c>
+      <c r="Z92" s="62">
         <f>X92*Y92</f>
-        <v>223.20000000000002</v>
-      </c>
-      <c r="AA92" s="27">
+        <v>30</v>
+      </c>
+      <c r="AA92" s="63">
         <f>Z92+Z91</f>
-        <v>253.20000000000002</v>
-      </c>
-      <c r="AB92" s="25">
+        <v>33</v>
+      </c>
+      <c r="AB92" s="62">
         <f>Y92*36</f>
-        <v>259.2</v>
-      </c>
-      <c r="AC92" s="56">
+        <v>36</v>
+      </c>
+      <c r="AC92" s="65">
         <f>AB92-AA92</f>
-        <v>5.9999999999999716</v>
-      </c>
-    </row>
-    <row r="93" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="U93" s="22">
         <f>SUM(U85:U92)</f>
         <v>94.199999999999989</v>
       </c>
     </row>
-    <row r="94" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T94">
         <f>Q92/U93</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W96" s="71" t="s">
+    <row r="95" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="96" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W96" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="X96" s="72"/>
-      <c r="Y96" s="72"/>
-      <c r="Z96" s="72"/>
-      <c r="AA96" s="72"/>
-      <c r="AB96" s="72"/>
-      <c r="AC96" s="73"/>
-    </row>
-    <row r="97" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X96" s="93"/>
+      <c r="Y96" s="93"/>
+      <c r="Z96" s="93"/>
+      <c r="AA96" s="93"/>
+      <c r="AB96" s="93"/>
+      <c r="AC96" s="94"/>
+    </row>
+    <row r="97" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W97" s="52" t="s">
         <v>0</v>
       </c>
@@ -10732,8 +10831,17 @@
       <c r="AC97" s="54" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF97" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG97" s="90"/>
+      <c r="AH97" s="90"/>
+      <c r="AI97" s="90"/>
+      <c r="AJ97" s="90"/>
+      <c r="AK97" s="90"/>
+      <c r="AL97" s="91"/>
+    </row>
+    <row r="98" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W98" s="55">
         <v>1</v>
       </c>
@@ -10759,24 +10867,52 @@
         <f>AB98-AA98</f>
         <v>0.60000000000000009</v>
       </c>
-    </row>
-    <row r="99" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD98">
+        <v>104</v>
+      </c>
+      <c r="AE98">
+        <f>AC98*AD98</f>
+        <v>62.400000000000006</v>
+      </c>
+      <c r="AF98" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH98" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI98" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ98" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK98" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL98" s="69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W99" s="55">
         <v>1</v>
       </c>
       <c r="X99" s="25">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y99" s="26">
         <v>1</v>
       </c>
       <c r="Z99" s="25">
         <f>X99*Y99</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA99" s="27">
         <f>Z99+Z98</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB99" s="25">
         <f>Y99*36</f>
@@ -10784,10 +10920,52 @@
       </c>
       <c r="AC99" s="56">
         <f>AB99-AA99</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="AD99">
+        <v>17</v>
+      </c>
+      <c r="AE99">
+        <f>AC99*AD99</f>
+        <v>51</v>
+      </c>
+      <c r="AF99" s="70">
+        <v>1</v>
+      </c>
+      <c r="AG99" s="71">
+        <v>30</v>
+      </c>
+      <c r="AH99" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="AI99" s="71">
+        <f>AG99*AH99</f>
+        <v>3</v>
+      </c>
+      <c r="AJ99" s="72">
+        <f>AI99</f>
+        <v>3</v>
+      </c>
+      <c r="AK99" s="71">
+        <f>AH99*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="AL99" s="73">
+        <f>AK99-AJ99</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AM99">
+        <v>4936</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
+        <f>AM99*AN99</f>
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="100" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W100" s="55">
         <v>1</v>
       </c>
@@ -10803,7 +10981,7 @@
       </c>
       <c r="AA100" s="27">
         <f>Z100+Z99+Z98</f>
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB100" s="25">
         <f>Y100*36</f>
@@ -10811,10 +10989,29 @@
       </c>
       <c r="AC100" s="56">
         <f>AB100-AA100</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="AF100" s="70">
+        <v>1</v>
+      </c>
+      <c r="AG100" s="71"/>
+      <c r="AH100" s="68"/>
+      <c r="AI100" s="71"/>
+      <c r="AJ100" s="72"/>
+      <c r="AK100" s="71"/>
+      <c r="AL100" s="74"/>
+      <c r="AM100">
+        <v>266</v>
+      </c>
+      <c r="AN100">
+        <v>-35</v>
+      </c>
+      <c r="AO100">
+        <f t="shared" ref="AO100" si="71">AM100*AN100</f>
+        <v>-9310</v>
+      </c>
+    </row>
+    <row r="101" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S101">
         <v>45</v>
       </c>
@@ -10825,14 +11022,65 @@
         <f>S101*T101</f>
         <v>1710</v>
       </c>
-    </row>
-    <row r="102" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W101" s="55">
+        <v>1</v>
+      </c>
+      <c r="X101" s="25">
+        <v>33</v>
+      </c>
+      <c r="Y101" s="26">
+        <v>100</v>
+      </c>
+      <c r="Z101" s="25">
+        <f>X101*Y101</f>
+        <v>3300</v>
+      </c>
+      <c r="AA101" s="27">
+        <f>Z101</f>
+        <v>3300</v>
+      </c>
+      <c r="AB101" s="25">
+        <f>Y101*36</f>
+        <v>3600</v>
+      </c>
+      <c r="AC101" s="56">
+        <f>AB101-AA101</f>
+        <v>300</v>
+      </c>
+      <c r="AF101" s="70">
+        <v>1</v>
+      </c>
+      <c r="AG101" s="71"/>
+      <c r="AH101" s="68"/>
+      <c r="AI101" s="71"/>
+      <c r="AJ101" s="72"/>
+      <c r="AK101" s="71"/>
+      <c r="AL101" s="73"/>
+      <c r="AM101">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="U102">
         <f>U101/60</f>
         <v>28.5</v>
       </c>
-    </row>
-    <row r="104" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF102" s="70"/>
+      <c r="AG102" s="71"/>
+      <c r="AH102" s="68"/>
+      <c r="AI102" s="71"/>
+      <c r="AJ102" s="72"/>
+      <c r="AK102" s="71"/>
+      <c r="AL102" s="73"/>
+      <c r="AO102" s="20"/>
+    </row>
+    <row r="103" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AO103" s="22">
+        <f>SUM(AO99:AO102)</f>
+        <v>-4374</v>
+      </c>
+    </row>
+    <row r="104" spans="14:41" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N104">
         <v>24</v>
       </c>
@@ -10854,7 +11102,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="105" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N105">
         <v>25</v>
       </c>
@@ -10862,7 +11110,7 @@
         <v>36</v>
       </c>
       <c r="P105">
-        <f t="shared" ref="P105:P108" si="71">N105/O105</f>
+        <f t="shared" ref="P105:P108" si="72">N105/O105</f>
         <v>0.69444444444444442</v>
       </c>
       <c r="R105">
@@ -10872,11 +11120,20 @@
         <v>36</v>
       </c>
       <c r="T105">
-        <f t="shared" ref="T105:T106" si="72">R105/S105</f>
+        <f t="shared" ref="T105:T106" si="73">R105/S105</f>
         <v>0.86111111111111116</v>
       </c>
-    </row>
-    <row r="106" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF105" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG105" s="90"/>
+      <c r="AH105" s="90"/>
+      <c r="AI105" s="90"/>
+      <c r="AJ105" s="90"/>
+      <c r="AK105" s="90"/>
+      <c r="AL105" s="91"/>
+    </row>
+    <row r="106" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N106">
         <v>26</v>
       </c>
@@ -10884,7 +11141,7 @@
         <v>36</v>
       </c>
       <c r="P106">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.72222222222222221</v>
       </c>
       <c r="R106">
@@ -10894,11 +11151,32 @@
         <v>36</v>
       </c>
       <c r="T106">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="107" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF106" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG106" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH106" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI106" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ106" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK106" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL106" s="69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N107">
         <v>27</v>
       </c>
@@ -10906,11 +11184,36 @@
         <v>36</v>
       </c>
       <c r="P107">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="108" spans="14:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF107" s="70">
+        <v>1</v>
+      </c>
+      <c r="AG107" s="71">
+        <v>34</v>
+      </c>
+      <c r="AH107" s="68">
+        <v>1</v>
+      </c>
+      <c r="AI107" s="71">
+        <f>AG107*AH107</f>
+        <v>34</v>
+      </c>
+      <c r="AJ107" s="72">
+        <f>AI107</f>
+        <v>34</v>
+      </c>
+      <c r="AK107" s="71">
+        <f>AH107*36</f>
+        <v>36</v>
+      </c>
+      <c r="AL107" s="73">
+        <f>AK107-AJ107</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N108">
         <v>28</v>
       </c>
@@ -10918,12 +11221,282 @@
         <v>36</v>
       </c>
       <c r="P108">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.77777777777777779</v>
       </c>
+      <c r="AF108" s="70"/>
+      <c r="AG108" s="71"/>
+      <c r="AH108" s="68"/>
+      <c r="AI108" s="71"/>
+      <c r="AJ108" s="72"/>
+      <c r="AK108" s="71"/>
+      <c r="AL108" s="74"/>
+    </row>
+    <row r="109" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AF109" s="70"/>
+      <c r="AG109" s="71"/>
+      <c r="AH109" s="68"/>
+      <c r="AI109" s="71"/>
+      <c r="AJ109" s="72"/>
+      <c r="AK109" s="71"/>
+      <c r="AL109" s="73"/>
+    </row>
+    <row r="110" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AF110" s="70"/>
+      <c r="AG110" s="71"/>
+      <c r="AH110" s="68"/>
+      <c r="AI110" s="71"/>
+      <c r="AJ110" s="72"/>
+      <c r="AK110" s="71"/>
+      <c r="AL110" s="73"/>
+    </row>
+    <row r="114" spans="23:54" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W114">
+        <f t="shared" ref="W114:W116" si="74">SUM(Y114:BC114)</f>
+        <v>2</v>
+      </c>
+      <c r="X114" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI114">
+        <v>1</v>
+      </c>
+      <c r="AS114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="23:54" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W115">
+        <f t="shared" si="74"/>
+        <v>10</v>
+      </c>
+      <c r="X115" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA115">
+        <v>1</v>
+      </c>
+      <c r="AC115">
+        <v>1</v>
+      </c>
+      <c r="AE115">
+        <v>1</v>
+      </c>
+      <c r="AP115">
+        <v>1</v>
+      </c>
+      <c r="AU115">
+        <v>1</v>
+      </c>
+      <c r="AV115">
+        <v>1</v>
+      </c>
+      <c r="AW115">
+        <v>1</v>
+      </c>
+      <c r="BA115">
+        <v>1</v>
+      </c>
+      <c r="BB115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="23:54" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W116">
+        <f t="shared" si="74"/>
+        <v>68</v>
+      </c>
+      <c r="X116" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y116">
+        <v>3</v>
+      </c>
+      <c r="Z116">
+        <v>5</v>
+      </c>
+      <c r="AA116">
+        <v>2</v>
+      </c>
+      <c r="AC116">
+        <v>2</v>
+      </c>
+      <c r="AD116">
+        <v>2</v>
+      </c>
+      <c r="AE116">
+        <v>1</v>
+      </c>
+      <c r="AF116">
+        <v>3</v>
+      </c>
+      <c r="AG116">
+        <v>2</v>
+      </c>
+      <c r="AH116">
+        <v>4</v>
+      </c>
+      <c r="AI116">
+        <v>3</v>
+      </c>
+      <c r="AJ116">
+        <v>2</v>
+      </c>
+      <c r="AK116">
+        <v>2</v>
+      </c>
+      <c r="AL116">
+        <v>3</v>
+      </c>
+      <c r="AM116">
+        <v>1</v>
+      </c>
+      <c r="AN116">
+        <v>3</v>
+      </c>
+      <c r="AO116">
+        <v>2</v>
+      </c>
+      <c r="AQ116">
+        <v>3</v>
+      </c>
+      <c r="AR116">
+        <v>4</v>
+      </c>
+      <c r="AS116">
+        <v>1</v>
+      </c>
+      <c r="AT116">
+        <v>2</v>
+      </c>
+      <c r="AU116">
+        <v>3</v>
+      </c>
+      <c r="AV116">
+        <v>1</v>
+      </c>
+      <c r="AW116">
+        <v>1</v>
+      </c>
+      <c r="AX116">
+        <v>3</v>
+      </c>
+      <c r="AY116">
+        <v>3</v>
+      </c>
+      <c r="AZ116">
+        <v>4</v>
+      </c>
+      <c r="BA116">
+        <v>1</v>
+      </c>
+      <c r="BB116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="23:54" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W117">
+        <f>SUM(Y117:BC117)</f>
+        <v>326</v>
+      </c>
+      <c r="X117" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y117">
+        <v>11</v>
+      </c>
+      <c r="Z117">
+        <v>6</v>
+      </c>
+      <c r="AA117">
+        <v>10</v>
+      </c>
+      <c r="AB117">
+        <v>17</v>
+      </c>
+      <c r="AC117">
+        <v>11</v>
+      </c>
+      <c r="AD117">
+        <v>11</v>
+      </c>
+      <c r="AE117">
+        <v>12</v>
+      </c>
+      <c r="AF117">
+        <v>11</v>
+      </c>
+      <c r="AG117">
+        <v>12</v>
+      </c>
+      <c r="AH117">
+        <v>9</v>
+      </c>
+      <c r="AI117">
+        <v>7</v>
+      </c>
+      <c r="AJ117">
+        <v>12</v>
+      </c>
+      <c r="AK117">
+        <v>13</v>
+      </c>
+      <c r="AL117">
+        <v>11</v>
+      </c>
+      <c r="AM117">
+        <v>14</v>
+      </c>
+      <c r="AN117">
+        <v>11</v>
+      </c>
+      <c r="AO117">
+        <v>13</v>
+      </c>
+      <c r="AP117">
+        <v>13</v>
+      </c>
+      <c r="AQ117">
+        <v>11</v>
+      </c>
+      <c r="AR117">
+        <v>9</v>
+      </c>
+      <c r="AS117">
+        <v>10</v>
+      </c>
+      <c r="AT117">
+        <v>13</v>
+      </c>
+      <c r="AU117">
+        <v>9</v>
+      </c>
+      <c r="AV117">
+        <v>10</v>
+      </c>
+      <c r="AW117">
+        <v>12</v>
+      </c>
+      <c r="AX117">
+        <v>12</v>
+      </c>
+      <c r="AY117">
+        <v>9</v>
+      </c>
+      <c r="AZ117">
+        <v>9</v>
+      </c>
+      <c r="BA117">
+        <v>12</v>
+      </c>
+      <c r="BB117">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="AF97:AL97"/>
+    <mergeCell ref="AF105:AL105"/>
     <mergeCell ref="W96:AC96"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B25:H25"/>
@@ -10945,6 +11518,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFD9DE7-2892-46CE-A9BC-61CFE070D0DC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABD7869-3B55-4F2B-B7E1-71CDF2104E33}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BD8C72-1447-4914-A528-AFDAAC88378E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6728465-9ADE-4AA1-8D92-91E1A2C59DF5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -10955,210 +11566,210 @@
       <selection activeCell="CI22" sqref="CI22:CK22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="3" max="3" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" customWidth="1"/>
-    <col min="14" max="14" width="4.42578125" customWidth="1"/>
-    <col min="15" max="15" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" customWidth="1"/>
-    <col min="19" max="19" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" customWidth="1"/>
-    <col min="22" max="22" width="4.42578125" customWidth="1"/>
-    <col min="23" max="23" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" customWidth="1"/>
-    <col min="26" max="26" width="4.42578125" customWidth="1"/>
-    <col min="27" max="27" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.85546875" customWidth="1"/>
-    <col min="30" max="30" width="4.42578125" customWidth="1"/>
-    <col min="31" max="31" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.85546875" customWidth="1"/>
-    <col min="34" max="34" width="4.42578125" customWidth="1"/>
-    <col min="35" max="35" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.85546875" customWidth="1"/>
-    <col min="38" max="38" width="4.42578125" customWidth="1"/>
-    <col min="39" max="39" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.85546875" customWidth="1"/>
-    <col min="42" max="42" width="4.42578125" customWidth="1"/>
-    <col min="43" max="43" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.85546875" customWidth="1"/>
-    <col min="46" max="46" width="4.42578125" customWidth="1"/>
-    <col min="47" max="47" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="4.85546875" customWidth="1"/>
-    <col min="50" max="50" width="4.42578125" customWidth="1"/>
-    <col min="51" max="51" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="4.85546875" customWidth="1"/>
-    <col min="54" max="54" width="4.42578125" customWidth="1"/>
-    <col min="55" max="55" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="4.85546875" customWidth="1"/>
-    <col min="58" max="58" width="4.42578125" customWidth="1"/>
-    <col min="59" max="59" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="4.85546875" customWidth="1"/>
-    <col min="62" max="62" width="4.42578125" customWidth="1"/>
-    <col min="63" max="63" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="4.85546875" customWidth="1"/>
-    <col min="66" max="66" width="4.42578125" customWidth="1"/>
-    <col min="67" max="67" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="4.85546875" customWidth="1"/>
-    <col min="70" max="70" width="4.42578125" customWidth="1"/>
-    <col min="71" max="71" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="4.85546875" customWidth="1"/>
-    <col min="74" max="74" width="4.42578125" customWidth="1"/>
-    <col min="75" max="75" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="4.85546875" customWidth="1"/>
-    <col min="78" max="78" width="4.42578125" customWidth="1"/>
-    <col min="79" max="79" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="4.85546875" customWidth="1"/>
-    <col min="82" max="82" width="4.42578125" customWidth="1"/>
-    <col min="83" max="83" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="4.85546875" customWidth="1"/>
-    <col min="86" max="86" width="4.42578125" customWidth="1"/>
-    <col min="87" max="87" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="4.85546875" customWidth="1"/>
-    <col min="90" max="90" width="4.42578125" customWidth="1"/>
-    <col min="91" max="91" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="4.85546875" customWidth="1"/>
-    <col min="94" max="94" width="4.42578125" customWidth="1"/>
-    <col min="95" max="95" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="4.85546875" customWidth="1"/>
-    <col min="98" max="98" width="4.42578125" customWidth="1"/>
-    <col min="99" max="99" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="4.85546875" customWidth="1"/>
-    <col min="102" max="102" width="4.42578125" customWidth="1"/>
-    <col min="103" max="103" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="4.85546875" customWidth="1"/>
-    <col min="106" max="106" width="4.42578125" customWidth="1"/>
-    <col min="107" max="107" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="4.85546875" customWidth="1"/>
-    <col min="110" max="110" width="4.42578125" customWidth="1"/>
-    <col min="111" max="111" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="4.85546875" customWidth="1"/>
-    <col min="114" max="114" width="4.42578125" customWidth="1"/>
-    <col min="115" max="115" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="4.85546875" customWidth="1"/>
-    <col min="118" max="118" width="4.42578125" customWidth="1"/>
-    <col min="119" max="119" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="4.85546875" customWidth="1"/>
-    <col min="122" max="122" width="4.42578125" customWidth="1"/>
-    <col min="123" max="123" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="4.85546875" customWidth="1"/>
-    <col min="126" max="126" width="4.42578125" customWidth="1"/>
-    <col min="127" max="127" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="4.85546875" customWidth="1"/>
-    <col min="130" max="130" width="4.42578125" customWidth="1"/>
-    <col min="131" max="131" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="4.85546875" customWidth="1"/>
-    <col min="134" max="134" width="4.42578125" customWidth="1"/>
-    <col min="135" max="135" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="4.85546875" customWidth="1"/>
-    <col min="138" max="138" width="4.42578125" customWidth="1"/>
-    <col min="139" max="139" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="4.85546875" customWidth="1"/>
-    <col min="142" max="142" width="4.42578125" customWidth="1"/>
-    <col min="143" max="143" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="1.28515625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="4.85546875" customWidth="1"/>
-    <col min="146" max="146" width="4.42578125" customWidth="1"/>
-    <col min="147" max="147" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="4.453125" customWidth="1"/>
+    <col min="3" max="3" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" customWidth="1"/>
+    <col min="6" max="6" width="4.453125" customWidth="1"/>
+    <col min="7" max="7" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" customWidth="1"/>
+    <col min="10" max="10" width="4.453125" customWidth="1"/>
+    <col min="11" max="11" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.81640625" customWidth="1"/>
+    <col min="14" max="14" width="4.453125" customWidth="1"/>
+    <col min="15" max="15" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.81640625" customWidth="1"/>
+    <col min="18" max="18" width="4.453125" customWidth="1"/>
+    <col min="19" max="19" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.81640625" customWidth="1"/>
+    <col min="22" max="22" width="4.453125" customWidth="1"/>
+    <col min="23" max="23" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.81640625" customWidth="1"/>
+    <col min="26" max="26" width="4.453125" customWidth="1"/>
+    <col min="27" max="27" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.81640625" customWidth="1"/>
+    <col min="30" max="30" width="4.453125" customWidth="1"/>
+    <col min="31" max="31" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.81640625" customWidth="1"/>
+    <col min="34" max="34" width="4.453125" customWidth="1"/>
+    <col min="35" max="35" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.81640625" customWidth="1"/>
+    <col min="38" max="38" width="4.453125" customWidth="1"/>
+    <col min="39" max="39" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.81640625" customWidth="1"/>
+    <col min="42" max="42" width="4.453125" customWidth="1"/>
+    <col min="43" max="43" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.81640625" customWidth="1"/>
+    <col min="46" max="46" width="4.453125" customWidth="1"/>
+    <col min="47" max="47" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.81640625" customWidth="1"/>
+    <col min="50" max="50" width="4.453125" customWidth="1"/>
+    <col min="51" max="51" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.81640625" customWidth="1"/>
+    <col min="54" max="54" width="4.453125" customWidth="1"/>
+    <col min="55" max="55" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.81640625" customWidth="1"/>
+    <col min="58" max="58" width="4.453125" customWidth="1"/>
+    <col min="59" max="59" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.81640625" customWidth="1"/>
+    <col min="62" max="62" width="4.453125" customWidth="1"/>
+    <col min="63" max="63" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="4.81640625" customWidth="1"/>
+    <col min="66" max="66" width="4.453125" customWidth="1"/>
+    <col min="67" max="67" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="4.81640625" customWidth="1"/>
+    <col min="70" max="70" width="4.453125" customWidth="1"/>
+    <col min="71" max="71" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="4.81640625" customWidth="1"/>
+    <col min="74" max="74" width="4.453125" customWidth="1"/>
+    <col min="75" max="75" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="4.81640625" customWidth="1"/>
+    <col min="78" max="78" width="4.453125" customWidth="1"/>
+    <col min="79" max="79" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="4.81640625" customWidth="1"/>
+    <col min="82" max="82" width="4.453125" customWidth="1"/>
+    <col min="83" max="83" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="4.81640625" customWidth="1"/>
+    <col min="86" max="86" width="4.453125" customWidth="1"/>
+    <col min="87" max="87" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="4.81640625" customWidth="1"/>
+    <col min="90" max="90" width="4.453125" customWidth="1"/>
+    <col min="91" max="91" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="4.81640625" customWidth="1"/>
+    <col min="94" max="94" width="4.453125" customWidth="1"/>
+    <col min="95" max="95" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="4.81640625" customWidth="1"/>
+    <col min="98" max="98" width="4.453125" customWidth="1"/>
+    <col min="99" max="99" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="4.81640625" customWidth="1"/>
+    <col min="102" max="102" width="4.453125" customWidth="1"/>
+    <col min="103" max="103" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="4.81640625" customWidth="1"/>
+    <col min="106" max="106" width="4.453125" customWidth="1"/>
+    <col min="107" max="107" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="4.81640625" customWidth="1"/>
+    <col min="110" max="110" width="4.453125" customWidth="1"/>
+    <col min="111" max="111" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="4.81640625" customWidth="1"/>
+    <col min="114" max="114" width="4.453125" customWidth="1"/>
+    <col min="115" max="115" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="4.81640625" customWidth="1"/>
+    <col min="118" max="118" width="4.453125" customWidth="1"/>
+    <col min="119" max="119" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="4.81640625" customWidth="1"/>
+    <col min="122" max="122" width="4.453125" customWidth="1"/>
+    <col min="123" max="123" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="4.81640625" customWidth="1"/>
+    <col min="126" max="126" width="4.453125" customWidth="1"/>
+    <col min="127" max="127" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="4.81640625" customWidth="1"/>
+    <col min="130" max="130" width="4.453125" customWidth="1"/>
+    <col min="131" max="131" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="4.81640625" customWidth="1"/>
+    <col min="134" max="134" width="4.453125" customWidth="1"/>
+    <col min="135" max="135" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="4.81640625" customWidth="1"/>
+    <col min="138" max="138" width="4.453125" customWidth="1"/>
+    <col min="139" max="139" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="4.81640625" customWidth="1"/>
+    <col min="142" max="142" width="4.453125" customWidth="1"/>
+    <col min="143" max="143" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="4.81640625" customWidth="1"/>
+    <col min="146" max="146" width="4.453125" customWidth="1"/>
+    <col min="147" max="147" width="1.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A4" s="74">
+    <row r="4" spans="1:148" x14ac:dyDescent="0.35">
+      <c r="A4" s="98">
         <v>0</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="E4" s="74">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="E4" s="98">
         <v>1</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="I4" s="74">
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="I4" s="98">
         <v>2</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="M4" s="74">
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="M4" s="98">
         <v>3</v>
       </c>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="Q4" s="74">
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="Q4" s="98">
         <v>4</v>
       </c>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="U4" s="74">
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="U4" s="98">
         <v>5</v>
       </c>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="Y4" s="74">
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="Y4" s="98">
         <v>6</v>
       </c>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AC4" s="74">
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AC4" s="98">
         <v>7</v>
       </c>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AG4" s="74">
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AG4" s="98">
         <v>8</v>
       </c>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AK4" s="74">
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AK4" s="98">
         <v>9</v>
       </c>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-    </row>
-    <row r="5" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="98"/>
+    </row>
+    <row r="5" spans="1:148" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -11281,59 +11892,59 @@
       </c>
       <c r="ER5" s="50"/>
     </row>
-    <row r="7" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A7" s="74">
+    <row r="7" spans="1:148" x14ac:dyDescent="0.35">
+      <c r="A7" s="98">
         <v>10</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="E7" s="74">
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="E7" s="98">
         <v>11</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="I7" s="74">
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="I7" s="98">
         <v>12</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="M7" s="74">
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="M7" s="98">
         <v>13</v>
       </c>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="Q7" s="74">
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="Q7" s="98">
         <v>14</v>
       </c>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="U7" s="74">
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="U7" s="98">
         <v>15</v>
       </c>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="Y7" s="74">
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="Y7" s="98">
         <v>16</v>
       </c>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AC7" s="74">
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AC7" s="98">
         <v>17</v>
       </c>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AG7" s="74">
-        <v>18</v>
-      </c>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="74"/>
-      <c r="AK7" s="74">
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AG7" s="98">
+        <v>18</v>
+      </c>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AK7" s="98">
         <v>19</v>
       </c>
-      <c r="AL7" s="74"/>
-      <c r="AM7" s="74"/>
-    </row>
-    <row r="8" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="98"/>
+    </row>
+    <row r="8" spans="1:148" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -11455,59 +12066,59 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A10" s="74">
+    <row r="10" spans="1:148" x14ac:dyDescent="0.35">
+      <c r="A10" s="98">
         <v>20</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="E10" s="74">
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="E10" s="98">
         <v>21</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="I10" s="74">
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="I10" s="98">
         <v>22</v>
       </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="M10" s="74">
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="M10" s="98">
         <v>23</v>
       </c>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="Q10" s="74">
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="Q10" s="98">
         <v>24</v>
       </c>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="U10" s="74">
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="U10" s="98">
         <v>25</v>
       </c>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="Y10" s="74">
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="Y10" s="98">
         <v>26</v>
       </c>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AC10" s="74">
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AC10" s="98">
         <v>27</v>
       </c>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AG10" s="74">
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="98"/>
+      <c r="AG10" s="98">
         <v>28</v>
       </c>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AK10" s="74">
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="98"/>
+      <c r="AK10" s="98">
         <v>29</v>
       </c>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-    </row>
-    <row r="11" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="AL10" s="98"/>
+      <c r="AM10" s="98"/>
+    </row>
+    <row r="11" spans="1:148" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -11629,12 +12240,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A13" s="74">
+    <row r="13" spans="1:148" x14ac:dyDescent="0.35">
+      <c r="A13" s="98">
         <v>30</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
       <c r="E13" s="51">
         <v>31</v>
       </c>
@@ -11645,28 +12256,28 @@
       </c>
       <c r="J13" s="51"/>
       <c r="K13" s="51"/>
-      <c r="M13" s="74">
+      <c r="M13" s="98">
         <v>33</v>
       </c>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="Q13" s="74">
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="Q13" s="98">
         <v>34</v>
       </c>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="U13" s="74">
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="U13" s="98">
         <v>35</v>
       </c>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="Y13" s="74">
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="Y13" s="98">
         <v>36</v>
       </c>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="74"/>
-    </row>
-    <row r="14" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+    </row>
+    <row r="14" spans="1:148" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -11751,18 +12362,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AG10:AI10"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="U13:W13"/>
     <mergeCell ref="AK10:AM10"/>
     <mergeCell ref="AG7:AI7"/>
     <mergeCell ref="AK7:AM7"/>
@@ -11779,20 +12385,25 @@
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="U10:W10"/>
     <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AG10:AI10"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="U4:W4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6037E6E-3BFA-4141-85F8-5D761FC0DC30}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11803,9 +12414,9 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0</v>
       </c>
@@ -11837,7 +12448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -11878,7 +12489,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -11919,7 +12530,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -11960,7 +12571,7 @@
         <v>9.2999999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -12001,7 +12612,7 @@
         <v>9.3999999999999986</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -12042,7 +12653,7 @@
         <v>9.4999999999999982</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -12083,7 +12694,7 @@
         <v>9.5999999999999979</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -12124,7 +12735,7 @@
         <v>9.6999999999999975</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -12165,7 +12776,7 @@
         <v>9.7999999999999972</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -12206,7 +12817,7 @@
         <v>9.8999999999999968</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -12238,7 +12849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" ref="A13:J13" si="2">A12+0.1</f>
         <v>10.1</v>
@@ -12280,7 +12891,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" ref="A14:B21" si="3">A13+0.1</f>
         <v>10.199999999999999</v>
@@ -12322,7 +12933,7 @@
         <v>19.200000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="3"/>
         <v>10.299999999999999</v>
@@ -12364,7 +12975,7 @@
         <v>19.300000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="3"/>
         <v>10.399999999999999</v>
@@ -12406,7 +13017,7 @@
         <v>19.400000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="3"/>
         <v>10.499999999999998</v>
@@ -12448,7 +13059,7 @@
         <v>19.500000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="3"/>
         <v>10.599999999999998</v>
@@ -12490,7 +13101,7 @@
         <v>19.600000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="3"/>
         <v>10.699999999999998</v>
@@ -12532,7 +13143,7 @@
         <v>19.70000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="3"/>
         <v>10.799999999999997</v>
@@ -12574,7 +13185,7 @@
         <v>19.800000000000011</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="3"/>
         <v>10.899999999999997</v>
@@ -12616,7 +13227,7 @@
         <v>19.900000000000013</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>20</v>
       </c>
@@ -12648,7 +13259,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" ref="A24:J24" si="12">A23+0.1</f>
         <v>20.100000000000001</v>
@@ -12690,7 +13301,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" ref="A25:A32" si="13">A24+0.1</f>
         <v>20.200000000000003</v>
@@ -12732,7 +13343,7 @@
         <v>29.200000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="13"/>
         <v>20.300000000000004</v>
@@ -12774,7 +13385,7 @@
         <v>29.300000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="13"/>
         <v>20.400000000000006</v>
@@ -12816,7 +13427,7 @@
         <v>29.400000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="13"/>
         <v>20.500000000000007</v>
@@ -12858,7 +13469,7 @@
         <v>29.500000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="13"/>
         <v>20.600000000000009</v>
@@ -12900,7 +13511,7 @@
         <v>29.600000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="13"/>
         <v>20.70000000000001</v>
@@ -12942,7 +13553,7 @@
         <v>29.70000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="13"/>
         <v>20.800000000000011</v>
@@ -12984,7 +13595,7 @@
         <v>29.800000000000011</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="13"/>
         <v>20.900000000000013</v>
@@ -13026,7 +13637,7 @@
         <v>29.900000000000013</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>30</v>
       </c>
@@ -13058,7 +13669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" ref="A35:J35" si="23">A34+0.1</f>
         <v>30.1</v>
@@ -13100,7 +13711,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" ref="A36:A43" si="24">A35+0.1</f>
         <v>30.200000000000003</v>
@@ -13142,7 +13753,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="24"/>
         <v>30.300000000000004</v>
@@ -13184,7 +13795,7 @@
         <v>39.300000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="24"/>
         <v>30.400000000000006</v>
@@ -13226,7 +13837,7 @@
         <v>39.400000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="24"/>
         <v>30.500000000000007</v>
@@ -13268,7 +13879,7 @@
         <v>39.500000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="24"/>
         <v>30.600000000000009</v>
@@ -13310,7 +13921,7 @@
         <v>39.600000000000009</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="24"/>
         <v>30.70000000000001</v>
@@ -13352,7 +13963,7 @@
         <v>39.70000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="24"/>
         <v>30.800000000000011</v>
@@ -13394,7 +14005,7 @@
         <v>39.800000000000011</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="24"/>
         <v>30.900000000000013</v>
@@ -13442,7 +14053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE15A31C-658C-4517-9C16-F9A3BB1636BA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -13453,10 +14064,10 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75">
+    <row r="2" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="99">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -13496,8 +14107,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
+    <row r="3" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="99"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -13535,8 +14146,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
+    <row r="4" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="99"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>

--- a/temp/iter - copia.xlsx
+++ b/temp/iter - copia.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EE3925-EF54-4A57-8B89-5DB8C61DABDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4810EF4-D293-40F4-ACB8-B7EA0EB9C372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
-    <sheet name="Formulario_TEST" sheetId="14" r:id="rId2"/>
-    <sheet name="Martingala ITER_2" sheetId="16" r:id="rId3"/>
-    <sheet name="Hoja5" sheetId="21" r:id="rId4"/>
-    <sheet name="Hoja4" sheetId="20" r:id="rId5"/>
-    <sheet name="Hoja3" sheetId="19" r:id="rId6"/>
-    <sheet name="Hoja2" sheetId="18" r:id="rId7"/>
-    <sheet name="Hoja1" sheetId="17" r:id="rId8"/>
-    <sheet name="Tablero" sheetId="15" r:id="rId9"/>
+    <sheet name="Hoja6" sheetId="22" r:id="rId2"/>
+    <sheet name="Formulario_TEST" sheetId="14" r:id="rId3"/>
+    <sheet name="Martingala ITER_2" sheetId="16" r:id="rId4"/>
+    <sheet name="Hoja7" sheetId="23" r:id="rId5"/>
+    <sheet name="Hoja5" sheetId="21" r:id="rId6"/>
+    <sheet name="Hoja4" sheetId="20" r:id="rId7"/>
+    <sheet name="Hoja3" sheetId="19" r:id="rId8"/>
+    <sheet name="Hoja2" sheetId="18" r:id="rId9"/>
+    <sheet name="Hoja1" sheetId="17" r:id="rId10"/>
+    <sheet name="Tablero" sheetId="15" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Formulario_TEST!$A$1:$M$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Formulario_TEST!$A$1:$M$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7075,7 +7077,1810 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6037E6E-3BFA-4141-85F8-5D761FC0DC30}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:J2" si="0">B1+0.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>6.1</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>8.1</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:J10" si="1">B2+0.1</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>4.2999999999999989</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>5.2999999999999989</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>6.2999999999999989</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>7.2999999999999989</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>8.2999999999999989</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>9.2999999999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>4.3999999999999986</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>9.3999999999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999982</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>5.4999999999999982</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>6.4999999999999982</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999982</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>8.4999999999999982</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>9.4999999999999982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>1.6000000000000005</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>2.6000000000000005</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999979</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>5.5999999999999979</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>6.5999999999999979</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>7.5999999999999979</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>8.5999999999999979</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000006</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>2.7000000000000006</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>3.7000000000000006</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>4.6999999999999975</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999975</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>6.6999999999999975</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>7.6999999999999975</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999975</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>9.6999999999999975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000007</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000007</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999972</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>6.7999999999999972</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>7.7999999999999972</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>9.7999999999999972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>1.9000000000000008</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000008</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>3.9000000000000008</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>4.8999999999999968</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>5.8999999999999968</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>6.8999999999999968</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>7.8999999999999968</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999968</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>9.8999999999999968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" ref="A13:J13" si="2">A12+0.1</f>
+        <v>10.1</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>11.1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>12.1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>13.1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>14.1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>15.1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" ref="A14:B21" si="3">A13+0.1</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>11.2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C21" si="4">C13+0.1</f>
+        <v>12.2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D21" si="5">D13+0.1</f>
+        <v>13.2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E21" si="6">E13+0.1</f>
+        <v>14.2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F21" si="7">F13+0.1</f>
+        <v>15.2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G21" si="8">G13+0.1</f>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H21" si="9">H13+0.1</f>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I21" si="10">I13+0.1</f>
+        <v>18.200000000000003</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:J21" si="11">J13+0.1</f>
+        <v>19.200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>10.299999999999999</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>11.299999999999999</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>13.299999999999999</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="6"/>
+        <v>14.299999999999999</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="7"/>
+        <v>15.299999999999999</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="8"/>
+        <v>16.300000000000004</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="9"/>
+        <v>17.300000000000004</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="10"/>
+        <v>18.300000000000004</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="11"/>
+        <v>19.300000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="3"/>
+        <v>10.399999999999999</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>12.399999999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>13.399999999999999</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="6"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="7"/>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="8"/>
+        <v>16.400000000000006</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="9"/>
+        <v>17.400000000000006</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="10"/>
+        <v>18.400000000000006</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="11"/>
+        <v>19.400000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>10.499999999999998</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="3"/>
+        <v>11.499999999999998</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>12.499999999999998</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>13.499999999999998</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="6"/>
+        <v>14.499999999999998</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="7"/>
+        <v>15.499999999999998</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="8"/>
+        <v>16.500000000000007</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="9"/>
+        <v>17.500000000000007</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="10"/>
+        <v>18.500000000000007</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="11"/>
+        <v>19.500000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="3"/>
+        <v>10.599999999999998</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="3"/>
+        <v>11.599999999999998</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>12.599999999999998</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>13.599999999999998</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="6"/>
+        <v>14.599999999999998</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="7"/>
+        <v>15.599999999999998</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="8"/>
+        <v>16.600000000000009</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="9"/>
+        <v>17.600000000000009</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="10"/>
+        <v>18.600000000000009</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="11"/>
+        <v>19.600000000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="3"/>
+        <v>10.699999999999998</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="3"/>
+        <v>11.699999999999998</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>12.699999999999998</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>13.699999999999998</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="6"/>
+        <v>14.699999999999998</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="7"/>
+        <v>15.699999999999998</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="8"/>
+        <v>16.70000000000001</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="9"/>
+        <v>17.70000000000001</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="10"/>
+        <v>18.70000000000001</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="11"/>
+        <v>19.70000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f t="shared" si="3"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="3"/>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>12.799999999999997</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>13.799999999999997</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="6"/>
+        <v>14.799999999999997</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="7"/>
+        <v>15.799999999999997</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="8"/>
+        <v>16.800000000000011</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="9"/>
+        <v>17.800000000000011</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="10"/>
+        <v>18.800000000000011</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="11"/>
+        <v>19.800000000000011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="3"/>
+        <v>10.899999999999997</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="3"/>
+        <v>11.899999999999997</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>12.899999999999997</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>13.899999999999997</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>14.899999999999997</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="7"/>
+        <v>15.899999999999997</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="8"/>
+        <v>16.900000000000013</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="9"/>
+        <v>17.900000000000013</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>18.900000000000013</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="11"/>
+        <v>19.900000000000013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <v>28</v>
+      </c>
+      <c r="J23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f t="shared" ref="A24:J24" si="12">A23+0.1</f>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="12"/>
+        <v>21.1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="12"/>
+        <v>22.1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="12"/>
+        <v>23.1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="12"/>
+        <v>24.1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="12"/>
+        <v>25.1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="12"/>
+        <v>26.1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="12"/>
+        <v>27.1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="12"/>
+        <v>28.1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="12"/>
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f t="shared" ref="A25:A32" si="13">A24+0.1</f>
+        <v>20.200000000000003</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:B32" si="14">B24+0.1</f>
+        <v>21.200000000000003</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:C32" si="15">C24+0.1</f>
+        <v>22.200000000000003</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:D32" si="16">D24+0.1</f>
+        <v>23.200000000000003</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E32" si="17">E24+0.1</f>
+        <v>24.200000000000003</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F32" si="18">F24+0.1</f>
+        <v>25.200000000000003</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G32" si="19">G24+0.1</f>
+        <v>26.200000000000003</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H32" si="20">H24+0.1</f>
+        <v>27.200000000000003</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:I32" si="21">I24+0.1</f>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J32" si="22">J24+0.1</f>
+        <v>29.200000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f t="shared" si="13"/>
+        <v>20.300000000000004</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="14"/>
+        <v>21.300000000000004</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="15"/>
+        <v>22.300000000000004</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="16"/>
+        <v>23.300000000000004</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="17"/>
+        <v>24.300000000000004</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="18"/>
+        <v>25.300000000000004</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="19"/>
+        <v>26.300000000000004</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="20"/>
+        <v>27.300000000000004</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="21"/>
+        <v>28.300000000000004</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="22"/>
+        <v>29.300000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f t="shared" si="13"/>
+        <v>20.400000000000006</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="14"/>
+        <v>21.400000000000006</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="15"/>
+        <v>22.400000000000006</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="16"/>
+        <v>23.400000000000006</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="17"/>
+        <v>24.400000000000006</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="18"/>
+        <v>25.400000000000006</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="19"/>
+        <v>26.400000000000006</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="20"/>
+        <v>27.400000000000006</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="21"/>
+        <v>28.400000000000006</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="22"/>
+        <v>29.400000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f t="shared" si="13"/>
+        <v>20.500000000000007</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="14"/>
+        <v>21.500000000000007</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="15"/>
+        <v>22.500000000000007</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="16"/>
+        <v>23.500000000000007</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="17"/>
+        <v>24.500000000000007</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="18"/>
+        <v>25.500000000000007</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="19"/>
+        <v>26.500000000000007</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="20"/>
+        <v>27.500000000000007</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="21"/>
+        <v>28.500000000000007</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="22"/>
+        <v>29.500000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f t="shared" si="13"/>
+        <v>20.600000000000009</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="14"/>
+        <v>21.600000000000009</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="15"/>
+        <v>22.600000000000009</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="16"/>
+        <v>23.600000000000009</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="17"/>
+        <v>24.600000000000009</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="18"/>
+        <v>25.600000000000009</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="19"/>
+        <v>26.600000000000009</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="20"/>
+        <v>27.600000000000009</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="21"/>
+        <v>28.600000000000009</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="22"/>
+        <v>29.600000000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f t="shared" si="13"/>
+        <v>20.70000000000001</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="14"/>
+        <v>21.70000000000001</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="15"/>
+        <v>22.70000000000001</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="16"/>
+        <v>23.70000000000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="17"/>
+        <v>24.70000000000001</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="18"/>
+        <v>25.70000000000001</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="19"/>
+        <v>26.70000000000001</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="20"/>
+        <v>27.70000000000001</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="21"/>
+        <v>28.70000000000001</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="22"/>
+        <v>29.70000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f t="shared" si="13"/>
+        <v>20.800000000000011</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="14"/>
+        <v>21.800000000000011</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="15"/>
+        <v>22.800000000000011</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="16"/>
+        <v>23.800000000000011</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="17"/>
+        <v>24.800000000000011</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="18"/>
+        <v>25.800000000000011</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="19"/>
+        <v>26.800000000000011</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="20"/>
+        <v>27.800000000000011</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="21"/>
+        <v>28.800000000000011</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="22"/>
+        <v>29.800000000000011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f t="shared" si="13"/>
+        <v>20.900000000000013</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="14"/>
+        <v>21.900000000000013</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="15"/>
+        <v>22.900000000000013</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="16"/>
+        <v>23.900000000000013</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="17"/>
+        <v>24.900000000000013</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="18"/>
+        <v>25.900000000000013</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="19"/>
+        <v>26.900000000000013</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="20"/>
+        <v>27.900000000000013</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="21"/>
+        <v>28.900000000000013</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="22"/>
+        <v>29.900000000000013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>34</v>
+      </c>
+      <c r="F34">
+        <v>35</v>
+      </c>
+      <c r="G34">
+        <v>36</v>
+      </c>
+      <c r="H34">
+        <v>37</v>
+      </c>
+      <c r="I34">
+        <v>38</v>
+      </c>
+      <c r="J34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f t="shared" ref="A35:J35" si="23">A34+0.1</f>
+        <v>30.1</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="23"/>
+        <v>31.1</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="23"/>
+        <v>32.1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="23"/>
+        <v>33.1</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="23"/>
+        <v>34.1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="23"/>
+        <v>35.1</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="23"/>
+        <v>36.1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="23"/>
+        <v>37.1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="23"/>
+        <v>38.1</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="23"/>
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f t="shared" ref="A36:A43" si="24">A35+0.1</f>
+        <v>30.200000000000003</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:B43" si="25">B35+0.1</f>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C43" si="26">C35+0.1</f>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:D43" si="27">D35+0.1</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:E43" si="28">E35+0.1</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:F43" si="29">F35+0.1</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G43" si="30">G35+0.1</f>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H43" si="31">H35+0.1</f>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I43" si="32">I35+0.1</f>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36:J43" si="33">J35+0.1</f>
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f t="shared" si="24"/>
+        <v>30.300000000000004</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="25"/>
+        <v>31.300000000000004</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="26"/>
+        <v>32.300000000000004</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="27"/>
+        <v>33.300000000000004</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="28"/>
+        <v>34.300000000000004</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="29"/>
+        <v>35.300000000000004</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="30"/>
+        <v>36.300000000000004</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="31"/>
+        <v>37.300000000000004</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="32"/>
+        <v>38.300000000000004</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="33"/>
+        <v>39.300000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f t="shared" si="24"/>
+        <v>30.400000000000006</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="25"/>
+        <v>31.400000000000006</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="26"/>
+        <v>32.400000000000006</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="27"/>
+        <v>33.400000000000006</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="28"/>
+        <v>34.400000000000006</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="29"/>
+        <v>35.400000000000006</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="30"/>
+        <v>36.400000000000006</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="31"/>
+        <v>37.400000000000006</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="32"/>
+        <v>38.400000000000006</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="33"/>
+        <v>39.400000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f t="shared" si="24"/>
+        <v>30.500000000000007</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="25"/>
+        <v>31.500000000000007</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="26"/>
+        <v>32.500000000000007</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="27"/>
+        <v>33.500000000000007</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="28"/>
+        <v>34.500000000000007</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="29"/>
+        <v>35.500000000000007</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="30"/>
+        <v>36.500000000000007</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="31"/>
+        <v>37.500000000000007</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="32"/>
+        <v>38.500000000000007</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="33"/>
+        <v>39.500000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f t="shared" si="24"/>
+        <v>30.600000000000009</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="25"/>
+        <v>31.600000000000009</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="26"/>
+        <v>32.600000000000009</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="27"/>
+        <v>33.600000000000009</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="28"/>
+        <v>34.600000000000009</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="29"/>
+        <v>35.600000000000009</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="30"/>
+        <v>36.600000000000009</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="31"/>
+        <v>37.600000000000009</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="32"/>
+        <v>38.600000000000009</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="33"/>
+        <v>39.600000000000009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f t="shared" si="24"/>
+        <v>30.70000000000001</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="25"/>
+        <v>31.70000000000001</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="26"/>
+        <v>32.70000000000001</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="27"/>
+        <v>33.70000000000001</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="28"/>
+        <v>34.70000000000001</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="29"/>
+        <v>35.70000000000001</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="30"/>
+        <v>36.70000000000001</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="31"/>
+        <v>37.70000000000001</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="32"/>
+        <v>38.70000000000001</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="33"/>
+        <v>39.70000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f t="shared" si="24"/>
+        <v>30.800000000000011</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="25"/>
+        <v>31.800000000000011</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="26"/>
+        <v>32.800000000000011</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="27"/>
+        <v>33.800000000000011</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="28"/>
+        <v>34.800000000000011</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="29"/>
+        <v>35.800000000000011</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="30"/>
+        <v>36.800000000000011</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="31"/>
+        <v>37.800000000000011</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="32"/>
+        <v>38.800000000000011</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="33"/>
+        <v>39.800000000000011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f t="shared" si="24"/>
+        <v>30.900000000000013</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="25"/>
+        <v>31.900000000000013</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="26"/>
+        <v>32.900000000000013</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="27"/>
+        <v>33.900000000000013</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="28"/>
+        <v>34.900000000000013</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="29"/>
+        <v>35.900000000000013</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="30"/>
+        <v>36.900000000000013</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="31"/>
+        <v>37.900000000000013</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="32"/>
+        <v>38.900000000000013</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="33"/>
+        <v>39.900000000000013</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE15A31C-658C-4517-9C16-F9A3BB1636BA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.65" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="99">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5">
+        <v>30</v>
+      </c>
+      <c r="L2" s="5">
+        <v>33</v>
+      </c>
+      <c r="M2" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="99"/>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5">
+        <v>23</v>
+      </c>
+      <c r="J3" s="5">
+        <v>26</v>
+      </c>
+      <c r="K3" s="5">
+        <v>29</v>
+      </c>
+      <c r="L3" s="5">
+        <v>32</v>
+      </c>
+      <c r="M3" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="99"/>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5">
+        <v>19</v>
+      </c>
+      <c r="I4" s="5">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5">
+        <v>25</v>
+      </c>
+      <c r="K4" s="5">
+        <v>28</v>
+      </c>
+      <c r="L4" s="5">
+        <v>31</v>
+      </c>
+      <c r="M4" s="5">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9C123B-0922-4D1B-A64C-E745EA1B1D10}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6BC8A2-7499-4BFF-BCA9-5C315E2A9716}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7569,15 +9374,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9606BF1C-A351-497E-AD56-66400B551869}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:BB117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE99" sqref="AE98:AE99"/>
+    <sheetView tabSelected="1" topLeftCell="H65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH85" sqref="AH85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9878,30 +11683,30 @@
         <v>19</v>
       </c>
       <c r="O75" s="9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P75" s="8">
         <f t="shared" ref="P75:P80" si="48">N75*O75</f>
-        <v>3.8000000000000003</v>
+        <v>5.7</v>
       </c>
       <c r="Q75" s="10">
         <f>P75+Q74</f>
-        <v>5.6000000000000005</v>
+        <v>7.5</v>
       </c>
       <c r="R75" s="8">
         <f t="shared" ref="R75:R80" si="49">O75*36</f>
-        <v>7.2</v>
+        <v>10.799999999999999</v>
       </c>
       <c r="S75" s="36">
         <f>R75-Q75</f>
-        <v>1.5999999999999996</v>
+        <v>3.2999999999999989</v>
       </c>
       <c r="T75">
         <v>11</v>
       </c>
       <c r="U75">
         <f t="shared" ref="U75:U81" si="50">S75*T75</f>
-        <v>17.599999999999994</v>
+        <v>36.29999999999999</v>
       </c>
       <c r="W75" s="34">
         <v>2</v>
@@ -9977,30 +11782,30 @@
         <v>20</v>
       </c>
       <c r="O76" s="9">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="P76" s="8">
         <f t="shared" si="48"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Q76" s="10">
         <f t="shared" ref="Q76:Q80" si="56">P76+Q75</f>
-        <v>13.600000000000001</v>
+        <v>21.5</v>
       </c>
       <c r="R76" s="8">
         <f t="shared" si="49"/>
-        <v>14.4</v>
+        <v>25.2</v>
       </c>
       <c r="S76" s="35">
         <f t="shared" ref="S76:S80" si="57">R76-Q76</f>
-        <v>0.79999999999999893</v>
+        <v>3.6999999999999993</v>
       </c>
       <c r="T76">
         <v>3</v>
       </c>
       <c r="U76">
         <f t="shared" si="50"/>
-        <v>2.3999999999999968</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="W76" s="34">
         <v>3</v>
@@ -10076,30 +11881,30 @@
         <v>21</v>
       </c>
       <c r="O77" s="9">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="P77" s="8">
         <f t="shared" si="48"/>
-        <v>18.900000000000002</v>
+        <v>35.699999999999996</v>
       </c>
       <c r="Q77" s="10">
         <f t="shared" si="56"/>
-        <v>32.5</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="R77" s="8">
         <f t="shared" si="49"/>
-        <v>32.4</v>
+        <v>61.199999999999996</v>
       </c>
       <c r="S77" s="36">
         <f t="shared" si="57"/>
-        <v>-0.10000000000000142</v>
+        <v>4</v>
       </c>
       <c r="T77">
         <v>4</v>
       </c>
       <c r="U77">
         <f t="shared" si="50"/>
-        <v>-0.40000000000000568</v>
+        <v>16</v>
       </c>
       <c r="W77" s="34"/>
       <c r="X77" s="8"/>
@@ -10157,23 +11962,23 @@
         <v>22</v>
       </c>
       <c r="O78" s="9">
-        <v>2.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P78" s="8">
         <f t="shared" si="48"/>
-        <v>52.8</v>
+        <v>96.800000000000011</v>
       </c>
       <c r="Q78" s="10">
         <f t="shared" si="56"/>
-        <v>85.3</v>
+        <v>154</v>
       </c>
       <c r="R78" s="8">
         <f t="shared" si="49"/>
-        <v>86.399999999999991</v>
+        <v>158.4</v>
       </c>
       <c r="S78" s="35">
         <f t="shared" si="57"/>
-        <v>1.0999999999999943</v>
+        <v>4.4000000000000057</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -10238,30 +12043,30 @@
         <v>23</v>
       </c>
       <c r="O79" s="39">
-        <v>6.6</v>
+        <v>12.2</v>
       </c>
       <c r="P79" s="38">
         <f t="shared" si="48"/>
-        <v>151.79999999999998</v>
+        <v>280.59999999999997</v>
       </c>
       <c r="Q79" s="40">
         <f t="shared" si="56"/>
-        <v>237.09999999999997</v>
+        <v>434.59999999999997</v>
       </c>
       <c r="R79" s="38">
         <f t="shared" si="49"/>
-        <v>237.6</v>
+        <v>439.2</v>
       </c>
       <c r="S79" s="41">
         <f t="shared" si="57"/>
-        <v>0.50000000000002842</v>
+        <v>4.6000000000000227</v>
       </c>
       <c r="T79">
         <v>2</v>
       </c>
       <c r="U79">
         <f t="shared" si="50"/>
-        <v>1.0000000000000568</v>
+        <v>9.2000000000000455</v>
       </c>
       <c r="W79" s="34"/>
       <c r="X79" s="8"/>
@@ -10312,30 +12117,30 @@
         <v>24</v>
       </c>
       <c r="O80" s="9">
-        <v>20</v>
+        <v>36.6</v>
       </c>
       <c r="P80" s="8">
         <f t="shared" si="48"/>
-        <v>480</v>
+        <v>878.40000000000009</v>
       </c>
       <c r="Q80" s="10">
         <f t="shared" si="56"/>
-        <v>717.09999999999991</v>
+        <v>1313</v>
       </c>
       <c r="R80" s="8">
         <f t="shared" si="49"/>
-        <v>720</v>
+        <v>1317.6000000000001</v>
       </c>
       <c r="S80" s="35">
         <f t="shared" si="57"/>
-        <v>2.9000000000000909</v>
+        <v>4.6000000000001364</v>
       </c>
       <c r="T80">
         <v>1</v>
       </c>
       <c r="U80">
         <f t="shared" si="50"/>
-        <v>2.9000000000000909</v>
+        <v>4.6000000000001364</v>
       </c>
       <c r="W80" s="34"/>
       <c r="X80" s="8"/>
@@ -10379,31 +12184,13 @@
         <v>0</v>
       </c>
       <c r="K81" s="48"/>
-      <c r="M81" s="37">
-        <v>8</v>
-      </c>
-      <c r="N81" s="38">
-        <v>25</v>
-      </c>
-      <c r="O81" s="39">
-        <v>66</v>
-      </c>
-      <c r="P81" s="38">
-        <f t="shared" ref="P81" si="62">N81*O81</f>
-        <v>1650</v>
-      </c>
-      <c r="Q81" s="40">
-        <f t="shared" ref="Q81" si="63">P81+Q80</f>
-        <v>2367.1</v>
-      </c>
-      <c r="R81" s="38">
-        <f t="shared" ref="R81" si="64">O81*36</f>
-        <v>2376</v>
-      </c>
-      <c r="S81" s="41">
-        <f t="shared" ref="S81" si="65">R81-Q81</f>
-        <v>8.9000000000000909</v>
-      </c>
+      <c r="M81" s="37"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="38"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="38"/>
+      <c r="S81" s="41"/>
       <c r="T81" s="49">
         <v>0</v>
       </c>
@@ -10428,7 +12215,7 @@
       </c>
       <c r="U82" s="22">
         <f>SUM(U74:U81)</f>
-        <v>63.100000000000136</v>
+        <v>116.80000000000017</v>
       </c>
       <c r="AE82" s="22">
         <f>SUM(AE74:AE81)</f>
@@ -10451,7 +12238,7 @@
       <c r="S83" s="83"/>
       <c r="T83">
         <f>Q81/U82</f>
-        <v>37.513470681457918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -10482,18 +12269,18 @@
         <v>1</v>
       </c>
       <c r="N85" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O85" s="9">
         <v>0.1</v>
       </c>
       <c r="P85" s="8">
         <f>N85*O85</f>
-        <v>2.4000000000000004</v>
+        <v>2.5</v>
       </c>
       <c r="Q85" s="10">
         <f>P85</f>
-        <v>2.4000000000000004</v>
+        <v>2.5</v>
       </c>
       <c r="R85" s="8">
         <f>O85*36</f>
@@ -10501,14 +12288,14 @@
       </c>
       <c r="S85" s="35">
         <f>R85-Q85</f>
-        <v>1.1999999999999997</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T85">
-        <v>22</v>
+        <v>1216</v>
       </c>
       <c r="U85">
         <f>S85*T85</f>
-        <v>26.399999999999995</v>
+        <v>1337.6000000000001</v>
       </c>
     </row>
     <row r="86" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -10519,30 +12306,30 @@
         <v>25</v>
       </c>
       <c r="O86" s="9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P86" s="8">
-        <f t="shared" ref="P86:P89" si="66">N86*O86</f>
-        <v>7.5</v>
+        <f t="shared" ref="P86:P89" si="62">N86*O86</f>
+        <v>10</v>
       </c>
       <c r="Q86" s="10">
         <f>P86+Q85</f>
-        <v>9.9</v>
+        <v>12.5</v>
       </c>
       <c r="R86" s="8">
-        <f t="shared" ref="R86:R89" si="67">O86*36</f>
-        <v>10.799999999999999</v>
+        <f t="shared" ref="R86:R89" si="63">O86*36</f>
+        <v>14.4</v>
       </c>
       <c r="S86" s="36">
         <f>R86-Q86</f>
-        <v>0.89999999999999858</v>
+        <v>1.9000000000000004</v>
       </c>
       <c r="T86">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="U86">
-        <f t="shared" ref="U86:U92" si="68">S86*T86</f>
-        <v>9.8999999999999844</v>
+        <f t="shared" ref="U86:U92" si="64">S86*T86</f>
+        <v>589.00000000000011</v>
       </c>
       <c r="Z86">
         <v>888</v>
@@ -10553,33 +12340,33 @@
         <v>3</v>
       </c>
       <c r="N87" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O87" s="9">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P87" s="8">
-        <f t="shared" si="66"/>
-        <v>31.2</v>
+        <f t="shared" si="62"/>
+        <v>35</v>
       </c>
       <c r="Q87" s="10">
-        <f t="shared" ref="Q87:Q89" si="69">P87+Q86</f>
-        <v>41.1</v>
+        <f t="shared" ref="Q87:Q89" si="65">P87+Q86</f>
+        <v>47.5</v>
       </c>
       <c r="R87" s="8">
-        <f t="shared" si="67"/>
-        <v>43.199999999999996</v>
+        <f t="shared" si="63"/>
+        <v>50.4</v>
       </c>
       <c r="S87" s="35">
-        <f t="shared" ref="S87:S89" si="70">R87-Q87</f>
-        <v>2.0999999999999943</v>
+        <f t="shared" ref="S87:S89" si="66">R87-Q87</f>
+        <v>2.8999999999999986</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="U87">
-        <f t="shared" si="68"/>
-        <v>6.2999999999999829</v>
+        <f t="shared" si="64"/>
+        <v>376.99999999999983</v>
       </c>
     </row>
     <row r="88" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10587,33 +12374,33 @@
         <v>4</v>
       </c>
       <c r="N88" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O88" s="9">
-        <v>6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="P88" s="8">
+        <f t="shared" si="62"/>
+        <v>114.99999999999999</v>
+      </c>
+      <c r="Q88" s="10">
+        <f t="shared" si="65"/>
+        <v>162.5</v>
+      </c>
+      <c r="R88" s="8">
+        <f t="shared" si="63"/>
+        <v>165.6</v>
+      </c>
+      <c r="S88" s="36">
         <f t="shared" si="66"/>
-        <v>162</v>
-      </c>
-      <c r="Q88" s="10">
-        <f t="shared" si="69"/>
-        <v>203.1</v>
-      </c>
-      <c r="R88" s="8">
-        <f t="shared" si="67"/>
-        <v>216</v>
-      </c>
-      <c r="S88" s="36">
-        <f t="shared" si="70"/>
-        <v>12.900000000000006</v>
+        <v>3.0999999999999943</v>
       </c>
       <c r="T88">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="U88">
-        <f t="shared" si="68"/>
-        <v>51.600000000000023</v>
+        <f t="shared" si="64"/>
+        <v>216.9999999999996</v>
       </c>
     </row>
     <row r="89" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -10621,33 +12408,33 @@
         <v>5</v>
       </c>
       <c r="N89" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O89" s="9">
-        <v>26</v>
+        <v>15.1</v>
       </c>
       <c r="P89" s="8">
+        <f t="shared" si="62"/>
+        <v>377.5</v>
+      </c>
+      <c r="Q89" s="10">
+        <f t="shared" si="65"/>
+        <v>540</v>
+      </c>
+      <c r="R89" s="8">
+        <f t="shared" si="63"/>
+        <v>543.6</v>
+      </c>
+      <c r="S89" s="35">
         <f t="shared" si="66"/>
-        <v>728</v>
-      </c>
-      <c r="Q89" s="10">
-        <f t="shared" si="69"/>
-        <v>931.1</v>
-      </c>
-      <c r="R89" s="8">
-        <f t="shared" si="67"/>
-        <v>936</v>
-      </c>
-      <c r="S89" s="35">
-        <f t="shared" si="70"/>
-        <v>4.8999999999999773</v>
+        <v>3.6000000000000227</v>
       </c>
       <c r="T89">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U89">
-        <f t="shared" si="68"/>
-        <v>0</v>
+        <f t="shared" si="64"/>
+        <v>144.00000000000091</v>
       </c>
       <c r="W89" s="95" t="s">
         <v>38</v>
@@ -10659,20 +12446,38 @@
       <c r="AB89" s="96"/>
       <c r="AC89" s="97"/>
     </row>
-    <row r="90" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M90" s="37"/>
-      <c r="N90" s="38"/>
-      <c r="O90" s="39"/>
-      <c r="P90" s="38"/>
-      <c r="Q90" s="40"/>
-      <c r="R90" s="38"/>
-      <c r="S90" s="41"/>
+    <row r="90" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M90" s="34">
+        <v>6</v>
+      </c>
+      <c r="N90" s="8">
+        <v>25</v>
+      </c>
+      <c r="O90" s="9">
+        <v>49.5</v>
+      </c>
+      <c r="P90" s="8">
+        <f t="shared" ref="P90" si="67">N90*O90</f>
+        <v>1237.5</v>
+      </c>
+      <c r="Q90" s="10">
+        <f t="shared" ref="Q90" si="68">P90+Q89</f>
+        <v>1777.5</v>
+      </c>
+      <c r="R90" s="8">
+        <f t="shared" ref="R90" si="69">O90*36</f>
+        <v>1782</v>
+      </c>
+      <c r="S90" s="35">
+        <f t="shared" ref="S90" si="70">R90-Q90</f>
+        <v>4.5</v>
+      </c>
       <c r="T90">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="U90">
-        <f t="shared" si="68"/>
-        <v>0</v>
+        <f t="shared" si="64"/>
+        <v>112.5</v>
       </c>
       <c r="W90" s="57" t="s">
         <v>0</v>
@@ -10708,7 +12513,7 @@
         <v>1</v>
       </c>
       <c r="U91">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="W91" s="61">
@@ -10756,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="U92" s="20">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="W92" s="61">
@@ -10788,7 +12593,7 @@
     <row r="93" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="U93" s="22">
         <f>SUM(U85:U92)</f>
-        <v>94.199999999999989</v>
+        <v>2777.1000000000008</v>
       </c>
     </row>
     <row r="94" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -10846,18 +12651,18 @@
         <v>1</v>
       </c>
       <c r="X98" s="25">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y98" s="26">
         <v>0.1</v>
       </c>
       <c r="Z98" s="25">
         <f>X98*Y98</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AA98" s="27">
         <f>Z98</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AB98" s="25">
         <f>Y98*36</f>
@@ -10865,14 +12670,14 @@
       </c>
       <c r="AC98" s="56">
         <f>AB98-AA98</f>
-        <v>0.60000000000000009</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD98">
         <v>104</v>
       </c>
       <c r="AE98">
         <f>AC98*AD98</f>
-        <v>62.400000000000006</v>
+        <v>114.4</v>
       </c>
       <c r="AF98" s="66" t="s">
         <v>0</v>
@@ -10901,18 +12706,18 @@
         <v>1</v>
       </c>
       <c r="X99" s="25">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y99" s="26">
         <v>1</v>
       </c>
       <c r="Z99" s="25">
         <f>X99*Y99</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA99" s="27">
         <f>Z99+Z98</f>
-        <v>33</v>
+        <v>27.5</v>
       </c>
       <c r="AB99" s="25">
         <f>Y99*36</f>
@@ -10920,14 +12725,14 @@
       </c>
       <c r="AC99" s="56">
         <f>AB99-AA99</f>
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="AD99">
         <v>17</v>
       </c>
       <c r="AE99">
         <f>AC99*AD99</f>
-        <v>51</v>
+        <v>144.5</v>
       </c>
       <c r="AF99" s="70">
         <v>1</v>
@@ -10970,18 +12775,18 @@
         <v>1</v>
       </c>
       <c r="X100" s="25">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Y100" s="26">
         <v>10</v>
       </c>
       <c r="Z100" s="25">
         <f>X100*Y100</f>
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="AA100" s="27">
         <f>Z100+Z99+Z98</f>
-        <v>353</v>
+        <v>277.5</v>
       </c>
       <c r="AB100" s="25">
         <f>Y100*36</f>
@@ -10989,7 +12794,7 @@
       </c>
       <c r="AC100" s="56">
         <f>AB100-AA100</f>
-        <v>7</v>
+        <v>82.5</v>
       </c>
       <c r="AF100" s="70">
         <v>1</v>
@@ -11026,18 +12831,18 @@
         <v>1</v>
       </c>
       <c r="X101" s="25">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="Y101" s="26">
         <v>100</v>
       </c>
       <c r="Z101" s="25">
         <f>X101*Y101</f>
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="AA101" s="27">
-        <f>Z101</f>
-        <v>3300</v>
+        <f>Z101+Z100+Z99+Z98</f>
+        <v>2777.5</v>
       </c>
       <c r="AB101" s="25">
         <f>Y101*36</f>
@@ -11045,7 +12850,7 @@
       </c>
       <c r="AC101" s="56">
         <f>AB101-AA101</f>
-        <v>300</v>
+        <v>822.5</v>
       </c>
       <c r="AF101" s="70">
         <v>1</v>
@@ -11517,7 +13322,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EFBBB3-77DE-4B98-B754-9C383575EE88}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFD9DE7-2892-46CE-A9BC-61CFE070D0DC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11529,7 +13348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABD7869-3B55-4F2B-B7E1-71CDF2104E33}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11541,7 +13360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BD8C72-1447-4914-A528-AFDAAC88378E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11555,7 +13374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6728465-9ADE-4AA1-8D92-91E1A2C59DF5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12401,1795 +14220,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6037E6E-3BFA-4141-85F8-5D761FC0DC30}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.1</v>
-      </c>
-      <c r="B2">
-        <f t="shared" ref="B2:J2" si="0">B1+0.1</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C2">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="D2">
-        <f t="shared" si="0"/>
-        <v>3.1</v>
-      </c>
-      <c r="E2">
-        <f t="shared" si="0"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>7.1</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>8.1</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>0.2</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:J10" si="1">B2+0.1</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="1"/>
-        <v>3.2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="1"/>
-        <v>4.1999999999999993</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
-        <v>5.1999999999999993</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="1"/>
-        <v>6.1999999999999993</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="1"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="1"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="1"/>
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>0.3</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="1"/>
-        <v>1.3000000000000003</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>2.3000000000000003</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>4.2999999999999989</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>5.2999999999999989</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>6.2999999999999989</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>7.2999999999999989</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>8.2999999999999989</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
-        <v>9.2999999999999989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>0.4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="1"/>
-        <v>1.4000000000000004</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>4.3999999999999986</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>5.3999999999999986</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>6.3999999999999986</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>7.3999999999999986</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>9.3999999999999986</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>0.5</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="1"/>
-        <v>1.5000000000000004</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000004</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>3.5000000000000004</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>4.4999999999999982</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>5.4999999999999982</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>6.4999999999999982</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999982</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>8.4999999999999982</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>9.4999999999999982</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>0.6</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="1"/>
-        <v>1.6000000000000005</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>2.6000000000000005</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>3.6000000000000005</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>4.5999999999999979</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>5.5999999999999979</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>6.5999999999999979</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>7.5999999999999979</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>8.5999999999999979</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>9.5999999999999979</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>0.7</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="1"/>
-        <v>1.7000000000000006</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>2.7000000000000006</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>3.7000000000000006</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>4.6999999999999975</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>5.6999999999999975</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>6.6999999999999975</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>7.6999999999999975</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>8.6999999999999975</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>9.6999999999999975</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>0.8</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="1"/>
-        <v>1.8000000000000007</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>2.8000000000000007</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>3.8000000000000007</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>4.7999999999999972</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>5.7999999999999972</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>6.7999999999999972</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>7.7999999999999972</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>8.7999999999999972</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>9.7999999999999972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>0.9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="1"/>
-        <v>1.9000000000000008</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>2.9000000000000008</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>3.9000000000000008</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>4.8999999999999968</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>5.8999999999999968</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>6.8999999999999968</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>7.8999999999999968</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>8.8999999999999968</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>9.8999999999999968</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <v>16</v>
-      </c>
-      <c r="H12">
-        <v>17</v>
-      </c>
-      <c r="I12">
-        <v>18</v>
-      </c>
-      <c r="J12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <f t="shared" ref="A13:J13" si="2">A12+0.1</f>
-        <v>10.1</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="2"/>
-        <v>11.1</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="2"/>
-        <v>12.1</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>13.1</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>14.1</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>15.1</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>17.100000000000001</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
-        <v>18.100000000000001</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
-        <v>19.100000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <f t="shared" ref="A14:B21" si="3">A13+0.1</f>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="3"/>
-        <v>11.2</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ref="C14:C21" si="4">C13+0.1</f>
-        <v>12.2</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14:D21" si="5">D13+0.1</f>
-        <v>13.2</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ref="E14:E21" si="6">E13+0.1</f>
-        <v>14.2</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ref="F14:F21" si="7">F13+0.1</f>
-        <v>15.2</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ref="G14:G21" si="8">G13+0.1</f>
-        <v>16.200000000000003</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ref="H14:H21" si="9">H13+0.1</f>
-        <v>17.200000000000003</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ref="I14:I21" si="10">I13+0.1</f>
-        <v>18.200000000000003</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ref="J14:J21" si="11">J13+0.1</f>
-        <v>19.200000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <f t="shared" si="3"/>
-        <v>10.299999999999999</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="3"/>
-        <v>11.299999999999999</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="4"/>
-        <v>12.299999999999999</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="5"/>
-        <v>13.299999999999999</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="6"/>
-        <v>14.299999999999999</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="7"/>
-        <v>15.299999999999999</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="8"/>
-        <v>16.300000000000004</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="9"/>
-        <v>17.300000000000004</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="10"/>
-        <v>18.300000000000004</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="11"/>
-        <v>19.300000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <f t="shared" si="3"/>
-        <v>10.399999999999999</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="3"/>
-        <v>11.399999999999999</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="4"/>
-        <v>12.399999999999999</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="5"/>
-        <v>13.399999999999999</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="6"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="7"/>
-        <v>15.399999999999999</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="8"/>
-        <v>16.400000000000006</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="9"/>
-        <v>17.400000000000006</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="10"/>
-        <v>18.400000000000006</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="11"/>
-        <v>19.400000000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <f t="shared" si="3"/>
-        <v>10.499999999999998</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="3"/>
-        <v>11.499999999999998</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="4"/>
-        <v>12.499999999999998</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="5"/>
-        <v>13.499999999999998</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="6"/>
-        <v>14.499999999999998</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="7"/>
-        <v>15.499999999999998</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="8"/>
-        <v>16.500000000000007</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="9"/>
-        <v>17.500000000000007</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="10"/>
-        <v>18.500000000000007</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="11"/>
-        <v>19.500000000000007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <f t="shared" si="3"/>
-        <v>10.599999999999998</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="3"/>
-        <v>11.599999999999998</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="4"/>
-        <v>12.599999999999998</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="5"/>
-        <v>13.599999999999998</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="6"/>
-        <v>14.599999999999998</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="7"/>
-        <v>15.599999999999998</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="8"/>
-        <v>16.600000000000009</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="9"/>
-        <v>17.600000000000009</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="10"/>
-        <v>18.600000000000009</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="11"/>
-        <v>19.600000000000009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <f t="shared" si="3"/>
-        <v>10.699999999999998</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="3"/>
-        <v>11.699999999999998</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="4"/>
-        <v>12.699999999999998</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="5"/>
-        <v>13.699999999999998</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="6"/>
-        <v>14.699999999999998</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="7"/>
-        <v>15.699999999999998</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="8"/>
-        <v>16.70000000000001</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="9"/>
-        <v>17.70000000000001</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="10"/>
-        <v>18.70000000000001</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="11"/>
-        <v>19.70000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <f t="shared" si="3"/>
-        <v>10.799999999999997</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="3"/>
-        <v>11.799999999999997</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="4"/>
-        <v>12.799999999999997</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="5"/>
-        <v>13.799999999999997</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="6"/>
-        <v>14.799999999999997</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="7"/>
-        <v>15.799999999999997</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="8"/>
-        <v>16.800000000000011</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="9"/>
-        <v>17.800000000000011</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="10"/>
-        <v>18.800000000000011</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="11"/>
-        <v>19.800000000000011</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <f t="shared" si="3"/>
-        <v>10.899999999999997</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="3"/>
-        <v>11.899999999999997</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="4"/>
-        <v>12.899999999999997</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="5"/>
-        <v>13.899999999999997</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="6"/>
-        <v>14.899999999999997</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="7"/>
-        <v>15.899999999999997</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="8"/>
-        <v>16.900000000000013</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="9"/>
-        <v>17.900000000000013</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="10"/>
-        <v>18.900000000000013</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="11"/>
-        <v>19.900000000000013</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>24</v>
-      </c>
-      <c r="F23">
-        <v>25</v>
-      </c>
-      <c r="G23">
-        <v>26</v>
-      </c>
-      <c r="H23">
-        <v>27</v>
-      </c>
-      <c r="I23">
-        <v>28</v>
-      </c>
-      <c r="J23">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <f t="shared" ref="A24:J24" si="12">A23+0.1</f>
-        <v>20.100000000000001</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="12"/>
-        <v>21.1</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="12"/>
-        <v>22.1</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="12"/>
-        <v>23.1</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="12"/>
-        <v>24.1</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="12"/>
-        <v>25.1</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="12"/>
-        <v>26.1</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="12"/>
-        <v>27.1</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="12"/>
-        <v>28.1</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="12"/>
-        <v>29.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <f t="shared" ref="A25:A32" si="13">A24+0.1</f>
-        <v>20.200000000000003</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ref="B25:B32" si="14">B24+0.1</f>
-        <v>21.200000000000003</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ref="C25:C32" si="15">C24+0.1</f>
-        <v>22.200000000000003</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ref="D25:D32" si="16">D24+0.1</f>
-        <v>23.200000000000003</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ref="E25:E32" si="17">E24+0.1</f>
-        <v>24.200000000000003</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ref="F25:F32" si="18">F24+0.1</f>
-        <v>25.200000000000003</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ref="G25:G32" si="19">G24+0.1</f>
-        <v>26.200000000000003</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ref="H25:H32" si="20">H24+0.1</f>
-        <v>27.200000000000003</v>
-      </c>
-      <c r="I25">
-        <f t="shared" ref="I25:I32" si="21">I24+0.1</f>
-        <v>28.200000000000003</v>
-      </c>
-      <c r="J25">
-        <f t="shared" ref="J25:J32" si="22">J24+0.1</f>
-        <v>29.200000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <f t="shared" si="13"/>
-        <v>20.300000000000004</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="14"/>
-        <v>21.300000000000004</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="15"/>
-        <v>22.300000000000004</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="16"/>
-        <v>23.300000000000004</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="17"/>
-        <v>24.300000000000004</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="18"/>
-        <v>25.300000000000004</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="19"/>
-        <v>26.300000000000004</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="20"/>
-        <v>27.300000000000004</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="21"/>
-        <v>28.300000000000004</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="22"/>
-        <v>29.300000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <f t="shared" si="13"/>
-        <v>20.400000000000006</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="14"/>
-        <v>21.400000000000006</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="15"/>
-        <v>22.400000000000006</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="16"/>
-        <v>23.400000000000006</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="17"/>
-        <v>24.400000000000006</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="18"/>
-        <v>25.400000000000006</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="19"/>
-        <v>26.400000000000006</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="20"/>
-        <v>27.400000000000006</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="21"/>
-        <v>28.400000000000006</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="22"/>
-        <v>29.400000000000006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <f t="shared" si="13"/>
-        <v>20.500000000000007</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="14"/>
-        <v>21.500000000000007</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="15"/>
-        <v>22.500000000000007</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="16"/>
-        <v>23.500000000000007</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="17"/>
-        <v>24.500000000000007</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="18"/>
-        <v>25.500000000000007</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="19"/>
-        <v>26.500000000000007</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="20"/>
-        <v>27.500000000000007</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="21"/>
-        <v>28.500000000000007</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="22"/>
-        <v>29.500000000000007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <f t="shared" si="13"/>
-        <v>20.600000000000009</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="14"/>
-        <v>21.600000000000009</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="15"/>
-        <v>22.600000000000009</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="16"/>
-        <v>23.600000000000009</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="17"/>
-        <v>24.600000000000009</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="18"/>
-        <v>25.600000000000009</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="19"/>
-        <v>26.600000000000009</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="20"/>
-        <v>27.600000000000009</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="21"/>
-        <v>28.600000000000009</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="22"/>
-        <v>29.600000000000009</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <f t="shared" si="13"/>
-        <v>20.70000000000001</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="14"/>
-        <v>21.70000000000001</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="15"/>
-        <v>22.70000000000001</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="16"/>
-        <v>23.70000000000001</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="17"/>
-        <v>24.70000000000001</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="18"/>
-        <v>25.70000000000001</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="19"/>
-        <v>26.70000000000001</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="20"/>
-        <v>27.70000000000001</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="21"/>
-        <v>28.70000000000001</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="22"/>
-        <v>29.70000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <f t="shared" si="13"/>
-        <v>20.800000000000011</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="14"/>
-        <v>21.800000000000011</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="15"/>
-        <v>22.800000000000011</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="16"/>
-        <v>23.800000000000011</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="17"/>
-        <v>24.800000000000011</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="18"/>
-        <v>25.800000000000011</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="19"/>
-        <v>26.800000000000011</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="20"/>
-        <v>27.800000000000011</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="21"/>
-        <v>28.800000000000011</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="22"/>
-        <v>29.800000000000011</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <f t="shared" si="13"/>
-        <v>20.900000000000013</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="14"/>
-        <v>21.900000000000013</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="15"/>
-        <v>22.900000000000013</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="16"/>
-        <v>23.900000000000013</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="17"/>
-        <v>24.900000000000013</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="18"/>
-        <v>25.900000000000013</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="19"/>
-        <v>26.900000000000013</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="20"/>
-        <v>27.900000000000013</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="21"/>
-        <v>28.900000000000013</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="22"/>
-        <v>29.900000000000013</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>30</v>
-      </c>
-      <c r="B34">
-        <v>31</v>
-      </c>
-      <c r="C34">
-        <v>32</v>
-      </c>
-      <c r="D34">
-        <v>33</v>
-      </c>
-      <c r="E34">
-        <v>34</v>
-      </c>
-      <c r="F34">
-        <v>35</v>
-      </c>
-      <c r="G34">
-        <v>36</v>
-      </c>
-      <c r="H34">
-        <v>37</v>
-      </c>
-      <c r="I34">
-        <v>38</v>
-      </c>
-      <c r="J34">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <f t="shared" ref="A35:J35" si="23">A34+0.1</f>
-        <v>30.1</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="23"/>
-        <v>31.1</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="23"/>
-        <v>32.1</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="23"/>
-        <v>33.1</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="23"/>
-        <v>34.1</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="23"/>
-        <v>35.1</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="23"/>
-        <v>36.1</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="23"/>
-        <v>37.1</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="23"/>
-        <v>38.1</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="23"/>
-        <v>39.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <f t="shared" ref="A36:A43" si="24">A35+0.1</f>
-        <v>30.200000000000003</v>
-      </c>
-      <c r="B36">
-        <f t="shared" ref="B36:B43" si="25">B35+0.1</f>
-        <v>31.200000000000003</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ref="C36:C43" si="26">C35+0.1</f>
-        <v>32.200000000000003</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ref="D36:D43" si="27">D35+0.1</f>
-        <v>33.200000000000003</v>
-      </c>
-      <c r="E36">
-        <f t="shared" ref="E36:E43" si="28">E35+0.1</f>
-        <v>34.200000000000003</v>
-      </c>
-      <c r="F36">
-        <f t="shared" ref="F36:F43" si="29">F35+0.1</f>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="G36">
-        <f t="shared" ref="G36:G43" si="30">G35+0.1</f>
-        <v>36.200000000000003</v>
-      </c>
-      <c r="H36">
-        <f t="shared" ref="H36:H43" si="31">H35+0.1</f>
-        <v>37.200000000000003</v>
-      </c>
-      <c r="I36">
-        <f t="shared" ref="I36:I43" si="32">I35+0.1</f>
-        <v>38.200000000000003</v>
-      </c>
-      <c r="J36">
-        <f t="shared" ref="J36:J43" si="33">J35+0.1</f>
-        <v>39.200000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <f t="shared" si="24"/>
-        <v>30.300000000000004</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="25"/>
-        <v>31.300000000000004</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="26"/>
-        <v>32.300000000000004</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="27"/>
-        <v>33.300000000000004</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="28"/>
-        <v>34.300000000000004</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="29"/>
-        <v>35.300000000000004</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="30"/>
-        <v>36.300000000000004</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="31"/>
-        <v>37.300000000000004</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="32"/>
-        <v>38.300000000000004</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="33"/>
-        <v>39.300000000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <f t="shared" si="24"/>
-        <v>30.400000000000006</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="25"/>
-        <v>31.400000000000006</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="26"/>
-        <v>32.400000000000006</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="27"/>
-        <v>33.400000000000006</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="28"/>
-        <v>34.400000000000006</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="29"/>
-        <v>35.400000000000006</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="30"/>
-        <v>36.400000000000006</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="31"/>
-        <v>37.400000000000006</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="32"/>
-        <v>38.400000000000006</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="33"/>
-        <v>39.400000000000006</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <f t="shared" si="24"/>
-        <v>30.500000000000007</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="25"/>
-        <v>31.500000000000007</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="26"/>
-        <v>32.500000000000007</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="27"/>
-        <v>33.500000000000007</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="28"/>
-        <v>34.500000000000007</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="29"/>
-        <v>35.500000000000007</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="30"/>
-        <v>36.500000000000007</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="31"/>
-        <v>37.500000000000007</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="32"/>
-        <v>38.500000000000007</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="33"/>
-        <v>39.500000000000007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <f t="shared" si="24"/>
-        <v>30.600000000000009</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="25"/>
-        <v>31.600000000000009</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="26"/>
-        <v>32.600000000000009</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="27"/>
-        <v>33.600000000000009</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="28"/>
-        <v>34.600000000000009</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="29"/>
-        <v>35.600000000000009</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="30"/>
-        <v>36.600000000000009</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="31"/>
-        <v>37.600000000000009</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="32"/>
-        <v>38.600000000000009</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="33"/>
-        <v>39.600000000000009</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <f t="shared" si="24"/>
-        <v>30.70000000000001</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="25"/>
-        <v>31.70000000000001</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="26"/>
-        <v>32.70000000000001</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="27"/>
-        <v>33.70000000000001</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="28"/>
-        <v>34.70000000000001</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="29"/>
-        <v>35.70000000000001</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="30"/>
-        <v>36.70000000000001</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="31"/>
-        <v>37.70000000000001</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="32"/>
-        <v>38.70000000000001</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="33"/>
-        <v>39.70000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <f t="shared" si="24"/>
-        <v>30.800000000000011</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="25"/>
-        <v>31.800000000000011</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="26"/>
-        <v>32.800000000000011</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="27"/>
-        <v>33.800000000000011</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="28"/>
-        <v>34.800000000000011</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="29"/>
-        <v>35.800000000000011</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="30"/>
-        <v>36.800000000000011</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="31"/>
-        <v>37.800000000000011</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="32"/>
-        <v>38.800000000000011</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="33"/>
-        <v>39.800000000000011</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <f t="shared" si="24"/>
-        <v>30.900000000000013</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="25"/>
-        <v>31.900000000000013</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="26"/>
-        <v>32.900000000000013</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="27"/>
-        <v>33.900000000000013</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="28"/>
-        <v>34.900000000000013</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="29"/>
-        <v>35.900000000000013</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="30"/>
-        <v>36.900000000000013</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="31"/>
-        <v>37.900000000000013</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="32"/>
-        <v>38.900000000000013</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="33"/>
-        <v>39.900000000000013</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE15A31C-658C-4517-9C16-F9A3BB1636BA}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.65" customHeight="1" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="99">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5">
-        <v>15</v>
-      </c>
-      <c r="G2" s="5">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5">
-        <v>21</v>
-      </c>
-      <c r="I2" s="5">
-        <v>24</v>
-      </c>
-      <c r="J2" s="5">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5">
-        <v>30</v>
-      </c>
-      <c r="L2" s="5">
-        <v>33</v>
-      </c>
-      <c r="M2" s="5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="99"/>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5">
-        <v>17</v>
-      </c>
-      <c r="H3" s="5">
-        <v>20</v>
-      </c>
-      <c r="I3" s="5">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5">
-        <v>26</v>
-      </c>
-      <c r="K3" s="5">
-        <v>29</v>
-      </c>
-      <c r="L3" s="5">
-        <v>32</v>
-      </c>
-      <c r="M3" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="99"/>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5">
-        <v>16</v>
-      </c>
-      <c r="H4" s="5">
-        <v>19</v>
-      </c>
-      <c r="I4" s="5">
-        <v>22</v>
-      </c>
-      <c r="J4" s="5">
-        <v>25</v>
-      </c>
-      <c r="K4" s="5">
-        <v>28</v>
-      </c>
-      <c r="L4" s="5">
-        <v>31</v>
-      </c>
-      <c r="M4" s="5">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
 </file>
--- a/temp/iter - copia.xlsx
+++ b/temp/iter - copia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EE3925-EF54-4A57-8B89-5DB8C61DABDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630B7767-2863-4990-8A0F-8146176DCBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Formulario_TEST!$A$1:$M$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1062,14 +1062,14 @@
       <selection activeCell="BG20" sqref="BG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="8" width="16" hidden="1" customWidth="1"/>
     <col min="9" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="84" t="s">
         <v>8</v>
       </c>
@@ -1089,7 +1089,7 @@
       <c r="P2" s="84"/>
       <c r="Q2" s="84"/>
     </row>
-    <row r="3" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1169,7 @@
       <c r="BB3" s="82"/>
       <c r="BC3" s="83"/>
     </row>
-    <row r="4" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -1459,7 +1459,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -1612,7 +1612,7 @@
         <v>10.799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="BE7" s="78"/>
     </row>
-    <row r="8" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -1942,7 +1942,7 @@
         <v>62.999999999999588</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>6</v>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="BE9" s="76"/>
     </row>
-    <row r="10" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T10" s="8">
         <v>6</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>10.499999999999922</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K11" s="84" t="s">
         <v>8</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>1.7999999999999829</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="84" t="s">
         <v>9</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>1.8000000000000114</v>
       </c>
     </row>
-    <row r="13" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -2430,7 +2430,7 @@
       <c r="BB13" s="82"/>
       <c r="BC13" s="83"/>
     </row>
-    <row r="14" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>1</v>
@@ -2525,7 +2525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>2</v>
@@ -2628,7 +2628,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="16" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>3</v>
@@ -2743,7 +2743,7 @@
         <v>12.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>4</v>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="BE17" s="78"/>
     </row>
-    <row r="18" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>5</v>
@@ -3058,7 +3058,7 @@
         <v>62.999999999999879</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>6</v>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="BE19" s="76"/>
     </row>
-    <row r="20" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S20">
         <v>25</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>8.9999999999999911</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K21" s="84" t="s">
         <v>8</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="84" t="s">
         <v>10</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>3.6000000000000014</v>
       </c>
     </row>
-    <row r="23" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -3595,7 +3595,7 @@
       <c r="BB23" s="82"/>
       <c r="BC23" s="83"/>
     </row>
-    <row r="24" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>1</v>
@@ -3740,7 +3740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>2</v>
@@ -3893,7 +3893,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>3</v>
@@ -4030,7 +4030,7 @@
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>4</v>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="BE27" s="78"/>
     </row>
-    <row r="28" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>5</v>
@@ -4282,7 +4282,7 @@
         <v>63.000000000000099</v>
       </c>
     </row>
-    <row r="29" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>6</v>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="BE29" s="76"/>
     </row>
-    <row r="30" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T30" s="18" t="s">
         <v>25</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>7.8750000000000187</v>
       </c>
     </row>
-    <row r="31" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T31" s="18" t="s">
         <v>24</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="84" t="s">
         <v>11</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -4735,7 +4735,7 @@
       <c r="BB33" s="82"/>
       <c r="BC33" s="83"/>
     </row>
-    <row r="34" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8">
         <v>1</v>
@@ -4876,7 +4876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>2</v>
@@ -5025,7 +5025,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="36" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
         <v>3</v>
@@ -5174,7 +5174,7 @@
         <v>16.200000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>4</v>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="BE37" s="78"/>
     </row>
-    <row r="38" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="8">
         <v>5</v>
@@ -5496,7 +5496,7 @@
         <v>62.999999999999815</v>
       </c>
     </row>
-    <row r="39" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>6</v>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="BE39" s="76"/>
     </row>
-    <row r="40" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="8">
         <v>7</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>6.9999999999999716</v>
       </c>
     </row>
-    <row r="41" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K41" s="8">
         <v>8</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>1121.4000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="84" t="s">
         <v>12</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>1.8000000000000682</v>
       </c>
     </row>
-    <row r="43" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -5824,7 +5824,7 @@
       <c r="BB43" s="82"/>
       <c r="BC43" s="83"/>
     </row>
-    <row r="44" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8">
         <v>1</v>
@@ -5894,7 +5894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>2</v>
@@ -5972,7 +5972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="8">
         <v>3</v>
@@ -6050,7 +6050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>4</v>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="BE47" s="78"/>
     </row>
-    <row r="48" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8">
         <v>5</v>
@@ -6260,7 +6260,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8">
         <v>6</v>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="BE49" s="76"/>
     </row>
-    <row r="50" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T50" s="8">
         <v>2</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>6.3000000000000052</v>
       </c>
     </row>
-    <row r="51" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T51" s="8">
         <v>3</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="84" t="s">
         <v>13</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="53" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>0</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>14.400000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="8">
         <v>1</v>
@@ -6628,7 +6628,7 @@
         <v>14.400000000000034</v>
       </c>
     </row>
-    <row r="55" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8">
         <v>2</v>
@@ -6681,7 +6681,7 @@
         <v>21.600000000000023</v>
       </c>
     </row>
-    <row r="56" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="8">
         <v>3</v>
@@ -6734,7 +6734,7 @@
         <v>21.599999999999909</v>
       </c>
     </row>
-    <row r="57" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="8">
         <v>4</v>
@@ -6762,7 +6762,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="8">
         <v>5</v>
@@ -6790,7 +6790,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="59" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="8">
         <v>6</v>
@@ -6818,7 +6818,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="62" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="84" t="s">
         <v>14</v>
       </c>
@@ -6829,7 +6829,7 @@
       <c r="G62" s="84"/>
       <c r="H62" s="84"/>
     </row>
-    <row r="63" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>0</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="8">
         <v>1</v>
@@ -6880,7 +6880,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="8">
         <v>2</v>
@@ -6908,7 +6908,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="8">
         <v>3</v>
@@ -6936,7 +6936,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="8">
         <v>4</v>
@@ -6964,7 +6964,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="8">
         <v>5</v>
@@ -6992,7 +6992,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="8">
         <v>6</v>
@@ -7086,13 +7086,13 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="1" customWidth="1"/>
-    <col min="2" max="13" width="9.54296875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -7106,7 +7106,7 @@
       <c r="L1" s="87"/>
       <c r="M1" s="87"/>
     </row>
-    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="87"/>
       <c r="C2" s="87"/>
       <c r="D2" s="87"/>
@@ -7120,7 +7120,7 @@
       <c r="L2" s="87"/>
       <c r="M2" s="87"/>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="86" t="s">
         <v>20</v>
@@ -7149,7 +7149,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="86"/>
       <c r="C4" s="86"/>
@@ -7176,7 +7176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -7193,7 +7193,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -7210,7 +7210,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -7227,7 +7227,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -7244,7 +7244,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -7261,7 +7261,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -7278,7 +7278,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -7295,7 +7295,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -7312,7 +7312,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -7329,7 +7329,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -7346,7 +7346,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -7363,7 +7363,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -7397,7 +7397,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -7414,7 +7414,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -7431,7 +7431,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -7448,7 +7448,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -7465,7 +7465,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -7482,7 +7482,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -7499,7 +7499,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -7516,8 +7516,8 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="9.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="85" t="s">
         <v>21</v>
       </c>
@@ -7534,7 +7534,7 @@
       <c r="L26" s="85"/>
       <c r="M26" s="85"/>
     </row>
-    <row r="27" spans="1:13" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="85"/>
       <c r="B27" s="85"/>
       <c r="C27" s="85"/>
@@ -7565,7 +7565,7 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7576,14 +7576,14 @@
   </sheetPr>
   <dimension ref="B2:BB117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE99" sqref="AE98:AE99"/>
+    <sheetView tabSelected="1" topLeftCell="L74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC83" sqref="AC83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="81" t="s">
         <v>8</v>
       </c>
@@ -7606,7 +7606,7 @@
       <c r="R3" s="82"/>
       <c r="S3" s="83"/>
     </row>
-    <row r="4" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34">
         <v>1</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34">
         <v>2</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34">
         <v>3</v>
       </c>
@@ -7800,7 +7800,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="35"/>
     </row>
-    <row r="8" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34">
         <v>4</v>
       </c>
@@ -7830,7 +7830,7 @@
       <c r="J8" s="48"/>
       <c r="K8" s="48"/>
     </row>
-    <row r="9" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="34">
         <v>5</v>
       </c>
@@ -7860,7 +7860,7 @@
       <c r="J9" s="47"/>
       <c r="K9" s="47"/>
     </row>
-    <row r="10" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="37">
         <v>6</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>-205.20000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="34">
         <v>7</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>151.20000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T12" s="20">
         <v>25</v>
       </c>
@@ -7958,13 +7958,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V13">
         <f>SUM(V10:V12)</f>
         <v>-9</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="81" t="s">
         <v>37</v>
       </c>
@@ -7978,7 +7978,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
         <v>0</v>
       </c>
@@ -8004,7 +8004,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34">
         <v>1</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>-19.8</v>
       </c>
     </row>
-    <row r="17" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="34">
         <v>2</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>-91.8</v>
       </c>
     </row>
-    <row r="18" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="34">
         <v>3</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>-181.8</v>
       </c>
     </row>
-    <row r="19" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="34">
         <v>4</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>-361.8</v>
       </c>
     </row>
-    <row r="20" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="34">
         <v>5</v>
       </c>
@@ -8202,7 +8202,7 @@
       <c r="J20" s="47"/>
       <c r="K20" s="47"/>
     </row>
-    <row r="21" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="37">
         <v>6</v>
       </c>
@@ -8232,7 +8232,7 @@
       <c r="J21" s="48"/>
       <c r="K21" s="48"/>
     </row>
-    <row r="22" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="34">
         <v>7</v>
       </c>
@@ -8262,8 +8262,8 @@
       <c r="J22" s="47"/>
       <c r="K22" s="47"/>
     </row>
-    <row r="24" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="81" t="s">
         <v>9</v>
       </c>
@@ -8277,7 +8277,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32" t="s">
         <v>0</v>
       </c>
@@ -8303,7 +8303,7 @@
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="34">
         <v>1</v>
       </c>
@@ -8333,7 +8333,7 @@
       <c r="J27" s="47"/>
       <c r="K27" s="47"/>
     </row>
-    <row r="28" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="34">
         <v>2</v>
       </c>
@@ -8363,7 +8363,7 @@
       <c r="J28" s="48"/>
       <c r="K28" s="48"/>
     </row>
-    <row r="29" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="34">
         <v>3</v>
       </c>
@@ -8393,7 +8393,7 @@
       <c r="J29" s="47"/>
       <c r="K29" s="47"/>
     </row>
-    <row r="30" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="34">
         <v>4</v>
       </c>
@@ -8423,7 +8423,7 @@
       <c r="J30" s="48"/>
       <c r="K30" s="48"/>
     </row>
-    <row r="31" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="34">
         <v>5</v>
       </c>
@@ -8453,7 +8453,7 @@
       <c r="J31" s="47"/>
       <c r="K31" s="47"/>
     </row>
-    <row r="32" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37">
         <v>6</v>
       </c>
@@ -8483,7 +8483,7 @@
       <c r="J32" s="48"/>
       <c r="K32" s="48"/>
     </row>
-    <row r="33" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="34">
         <v>7</v>
       </c>
@@ -8513,8 +8513,8 @@
       <c r="J33" s="47"/>
       <c r="K33" s="47"/>
     </row>
-    <row r="35" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="36" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="81" t="s">
         <v>38</v>
       </c>
@@ -8537,7 +8537,7 @@
       <c r="R36" s="82"/>
       <c r="S36" s="83"/>
     </row>
-    <row r="37" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="32" t="s">
         <v>0</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="34">
         <v>1</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="34">
         <v>2</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="40" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="34">
         <v>3</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>48.600000000000023</v>
       </c>
     </row>
-    <row r="41" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="34">
         <v>4</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>36.000000000000014</v>
       </c>
     </row>
-    <row r="42" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="34">
         <v>5</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>27.000000000000043</v>
       </c>
     </row>
-    <row r="43" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="37">
         <v>6</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>21.599999999999966</v>
       </c>
     </row>
-    <row r="44" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="34">
         <v>7</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>62.999999999999829</v>
       </c>
     </row>
-    <row r="45" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M45" s="34">
         <v>8</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>316.7999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M46" s="34"/>
       <c r="N46" s="8"/>
       <c r="O46" s="9"/>
@@ -9058,7 +9058,7 @@
       <c r="R46" s="8"/>
       <c r="S46" s="35"/>
     </row>
-    <row r="47" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="81" t="s">
         <v>10</v>
       </c>
@@ -9079,7 +9079,7 @@
       <c r="R47" s="38"/>
       <c r="S47" s="41"/>
     </row>
-    <row r="48" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="32" t="s">
         <v>0</v>
       </c>
@@ -9112,7 +9112,7 @@
       <c r="R48" s="8"/>
       <c r="S48" s="35"/>
     </row>
-    <row r="49" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="34">
         <v>1</v>
       </c>
@@ -9149,7 +9149,7 @@
       <c r="R49" s="8"/>
       <c r="S49" s="36"/>
     </row>
-    <row r="50" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="34">
         <v>2</v>
       </c>
@@ -9179,7 +9179,7 @@
       <c r="J50" s="48"/>
       <c r="K50" s="48"/>
     </row>
-    <row r="51" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="34">
         <v>3</v>
       </c>
@@ -9209,7 +9209,7 @@
       <c r="J51" s="47"/>
       <c r="K51" s="47"/>
     </row>
-    <row r="52" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="34">
         <v>4</v>
       </c>
@@ -9239,7 +9239,7 @@
       <c r="J52" s="48"/>
       <c r="K52" s="48"/>
     </row>
-    <row r="53" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="34">
         <v>5</v>
       </c>
@@ -9269,7 +9269,7 @@
       <c r="J53" s="47"/>
       <c r="K53" s="47"/>
     </row>
-    <row r="54" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="37">
         <v>6</v>
       </c>
@@ -9308,7 +9308,7 @@
       <c r="R54" s="82"/>
       <c r="S54" s="83"/>
     </row>
-    <row r="55" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="34">
         <v>7</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M56" s="34">
         <v>1</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M57" s="34">
         <v>2</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>340.2</v>
       </c>
     </row>
-    <row r="58" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M58" s="34">
         <v>3</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>145.80000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M59" s="34">
         <v>4</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>81.000000000000014</v>
       </c>
     </row>
-    <row r="60" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="34">
         <v>5</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>48.599999999999966</v>
       </c>
     </row>
-    <row r="61" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M61" s="37">
         <v>6</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>32.400000000000091</v>
       </c>
     </row>
-    <row r="62" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M62" s="34">
         <v>7</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M63" s="34">
         <v>8</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="69" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>39</v>
       </c>
@@ -9637,8 +9637,8 @@
         <v>888</v>
       </c>
     </row>
-    <row r="71" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="72" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="81" t="s">
         <v>38</v>
       </c>
@@ -9670,7 +9670,7 @@
       <c r="AB72" s="82"/>
       <c r="AC72" s="83"/>
     </row>
-    <row r="73" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="32" t="s">
         <v>0</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="34">
         <v>1</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="75" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="34">
         <v>2</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="34">
         <v>3</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>57.999999999999545</v>
       </c>
     </row>
-    <row r="77" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="34">
         <v>4</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="34">
         <v>5</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="37">
         <v>6</v>
       </c>
@@ -10271,7 +10271,7 @@
       <c r="AB79" s="8"/>
       <c r="AC79" s="35"/>
     </row>
-    <row r="80" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="34">
         <v>7</v>
       </c>
@@ -10345,7 +10345,7 @@
       <c r="AB80" s="8"/>
       <c r="AC80" s="35"/>
     </row>
-    <row r="81" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="37">
         <v>8</v>
       </c>
@@ -10421,7 +10421,7 @@
       <c r="AD81" s="49"/>
       <c r="AE81" s="20"/>
     </row>
-    <row r="82" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J82" s="22">
         <f>SUM(J74:J81)</f>
         <v>164.80000000000015</v>
@@ -10435,7 +10435,7 @@
         <v>1103.9999999999995</v>
       </c>
     </row>
-    <row r="83" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I83">
         <f>F81/J82</f>
         <v>37.026699029126178</v>
@@ -10454,7 +10454,7 @@
         <v>37.513470681457918</v>
       </c>
     </row>
-    <row r="84" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M84" s="32" t="s">
         <v>0</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M85" s="34">
         <v>1</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>26.399999999999995</v>
       </c>
     </row>
-    <row r="86" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M86" s="34">
         <v>2</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="87" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M87" s="34">
         <v>3</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>6.2999999999999829</v>
       </c>
     </row>
-    <row r="88" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M88" s="34">
         <v>4</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>51.600000000000023</v>
       </c>
     </row>
-    <row r="89" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M89" s="34">
         <v>5</v>
       </c>
@@ -10659,7 +10659,7 @@
       <c r="AB89" s="96"/>
       <c r="AC89" s="97"/>
     </row>
-    <row r="90" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M90" s="37"/>
       <c r="N90" s="38"/>
       <c r="O90" s="39"/>
@@ -10696,7 +10696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M91" s="34"/>
       <c r="N91" s="8"/>
       <c r="O91" s="9"/>
@@ -10744,7 +10744,7 @@
         <v>13.200000000000003</v>
       </c>
     </row>
-    <row r="92" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M92" s="34"/>
       <c r="N92" s="8"/>
       <c r="O92" s="9"/>
@@ -10785,20 +10785,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U93" s="22">
         <f>SUM(U85:U92)</f>
         <v>94.199999999999989</v>
       </c>
     </row>
-    <row r="94" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T94">
         <f>Q92/U93</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="96" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="2:31" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W96" s="92" t="s">
         <v>38</v>
       </c>
@@ -10809,7 +10809,7 @@
       <c r="AB96" s="93"/>
       <c r="AC96" s="94"/>
     </row>
-    <row r="97" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="14:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W97" s="52" t="s">
         <v>0</v>
       </c>
@@ -10841,7 +10841,7 @@
       <c r="AK97" s="90"/>
       <c r="AL97" s="91"/>
     </row>
-    <row r="98" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="14:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W98" s="55">
         <v>1</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="14:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W99" s="55">
         <v>1</v>
       </c>
@@ -10965,23 +10965,23 @@
         <v>4936</v>
       </c>
     </row>
-    <row r="100" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="14:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W100" s="55">
         <v>1</v>
       </c>
       <c r="X100" s="25">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y100" s="26">
         <v>10</v>
       </c>
       <c r="Z100" s="25">
         <f>X100*Y100</f>
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AA100" s="27">
         <f>Z100+Z99+Z98</f>
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="AB100" s="25">
         <f>Y100*36</f>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="AC100" s="56">
         <f>AB100-AA100</f>
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AF100" s="70">
         <v>1</v>
@@ -11011,7 +11011,7 @@
         <v>-9310</v>
       </c>
     </row>
-    <row r="101" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="14:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S101">
         <v>45</v>
       </c>
@@ -11022,31 +11022,13 @@
         <f>S101*T101</f>
         <v>1710</v>
       </c>
-      <c r="W101" s="55">
-        <v>1</v>
-      </c>
-      <c r="X101" s="25">
-        <v>33</v>
-      </c>
-      <c r="Y101" s="26">
-        <v>100</v>
-      </c>
-      <c r="Z101" s="25">
-        <f>X101*Y101</f>
-        <v>3300</v>
-      </c>
-      <c r="AA101" s="27">
-        <f>Z101</f>
-        <v>3300</v>
-      </c>
-      <c r="AB101" s="25">
-        <f>Y101*36</f>
-        <v>3600</v>
-      </c>
-      <c r="AC101" s="56">
-        <f>AB101-AA101</f>
-        <v>300</v>
-      </c>
+      <c r="W101" s="55"/>
+      <c r="X101" s="25"/>
+      <c r="Y101" s="26"/>
+      <c r="Z101" s="25"/>
+      <c r="AA101" s="27"/>
+      <c r="AB101" s="25"/>
+      <c r="AC101" s="56"/>
       <c r="AF101" s="70">
         <v>1</v>
       </c>
@@ -11060,7 +11042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="14:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U102">
         <f>U101/60</f>
         <v>28.5</v>
@@ -11074,13 +11056,13 @@
       <c r="AL102" s="73"/>
       <c r="AO102" s="20"/>
     </row>
-    <row r="103" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="14:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AO103" s="22">
         <f>SUM(AO99:AO102)</f>
         <v>-4374</v>
       </c>
     </row>
-    <row r="104" spans="14:41" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="14:41" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N104">
         <v>24</v>
       </c>
@@ -11102,7 +11084,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="105" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="14:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N105">
         <v>25</v>
       </c>
@@ -11133,7 +11115,7 @@
       <c r="AK105" s="90"/>
       <c r="AL105" s="91"/>
     </row>
-    <row r="106" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="14:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N106">
         <v>26</v>
       </c>
@@ -11176,7 +11158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="14:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N107">
         <v>27</v>
       </c>
@@ -11213,7 +11195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="14:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N108">
         <v>28</v>
       </c>
@@ -11232,7 +11214,7 @@
       <c r="AK108" s="71"/>
       <c r="AL108" s="74"/>
     </row>
-    <row r="109" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="14:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AF109" s="70"/>
       <c r="AG109" s="71"/>
       <c r="AH109" s="68"/>
@@ -11241,7 +11223,7 @@
       <c r="AK109" s="71"/>
       <c r="AL109" s="73"/>
     </row>
-    <row r="110" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="14:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AF110" s="70"/>
       <c r="AG110" s="71"/>
       <c r="AH110" s="68"/>
@@ -11250,7 +11232,7 @@
       <c r="AK110" s="71"/>
       <c r="AL110" s="73"/>
     </row>
-    <row r="114" spans="23:54" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="23:54" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W114">
         <f t="shared" ref="W114:W116" si="74">SUM(Y114:BC114)</f>
         <v>2</v>
@@ -11265,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="23:54" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="23:54" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W115">
         <f t="shared" si="74"/>
         <v>10</v>
@@ -11301,7 +11283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="23:54" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="23:54" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W116">
         <f t="shared" si="74"/>
         <v>68</v>
@@ -11394,7 +11376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="23:54" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="23:54" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W117">
         <f>SUM(Y117:BC117)</f>
         <v>326</v>
@@ -11523,7 +11505,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11535,7 +11517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11549,7 +11531,7 @@
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11566,158 +11548,158 @@
       <selection activeCell="CI22" sqref="CI22:CK22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="4.453125" customWidth="1"/>
-    <col min="3" max="3" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" customWidth="1"/>
-    <col min="6" max="6" width="4.453125" customWidth="1"/>
-    <col min="7" max="7" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.81640625" customWidth="1"/>
-    <col min="10" max="10" width="4.453125" customWidth="1"/>
-    <col min="11" max="11" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.81640625" customWidth="1"/>
-    <col min="14" max="14" width="4.453125" customWidth="1"/>
-    <col min="15" max="15" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.81640625" customWidth="1"/>
-    <col min="18" max="18" width="4.453125" customWidth="1"/>
-    <col min="19" max="19" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.81640625" customWidth="1"/>
-    <col min="22" max="22" width="4.453125" customWidth="1"/>
-    <col min="23" max="23" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.81640625" customWidth="1"/>
-    <col min="26" max="26" width="4.453125" customWidth="1"/>
-    <col min="27" max="27" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.81640625" customWidth="1"/>
-    <col min="30" max="30" width="4.453125" customWidth="1"/>
-    <col min="31" max="31" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.81640625" customWidth="1"/>
-    <col min="34" max="34" width="4.453125" customWidth="1"/>
-    <col min="35" max="35" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.81640625" customWidth="1"/>
-    <col min="38" max="38" width="4.453125" customWidth="1"/>
-    <col min="39" max="39" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.81640625" customWidth="1"/>
-    <col min="42" max="42" width="4.453125" customWidth="1"/>
-    <col min="43" max="43" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.81640625" customWidth="1"/>
-    <col min="46" max="46" width="4.453125" customWidth="1"/>
-    <col min="47" max="47" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="4.81640625" customWidth="1"/>
-    <col min="50" max="50" width="4.453125" customWidth="1"/>
-    <col min="51" max="51" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="4.81640625" customWidth="1"/>
-    <col min="54" max="54" width="4.453125" customWidth="1"/>
-    <col min="55" max="55" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="4.81640625" customWidth="1"/>
-    <col min="58" max="58" width="4.453125" customWidth="1"/>
-    <col min="59" max="59" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="4.81640625" customWidth="1"/>
-    <col min="62" max="62" width="4.453125" customWidth="1"/>
-    <col min="63" max="63" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="4.81640625" customWidth="1"/>
-    <col min="66" max="66" width="4.453125" customWidth="1"/>
-    <col min="67" max="67" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="4.81640625" customWidth="1"/>
-    <col min="70" max="70" width="4.453125" customWidth="1"/>
-    <col min="71" max="71" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="4.81640625" customWidth="1"/>
-    <col min="74" max="74" width="4.453125" customWidth="1"/>
-    <col min="75" max="75" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="4.81640625" customWidth="1"/>
-    <col min="78" max="78" width="4.453125" customWidth="1"/>
-    <col min="79" max="79" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="4.81640625" customWidth="1"/>
-    <col min="82" max="82" width="4.453125" customWidth="1"/>
-    <col min="83" max="83" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="4.81640625" customWidth="1"/>
-    <col min="86" max="86" width="4.453125" customWidth="1"/>
-    <col min="87" max="87" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="4.81640625" customWidth="1"/>
-    <col min="90" max="90" width="4.453125" customWidth="1"/>
-    <col min="91" max="91" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="4.81640625" customWidth="1"/>
-    <col min="94" max="94" width="4.453125" customWidth="1"/>
-    <col min="95" max="95" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="4.81640625" customWidth="1"/>
-    <col min="98" max="98" width="4.453125" customWidth="1"/>
-    <col min="99" max="99" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="4.81640625" customWidth="1"/>
-    <col min="102" max="102" width="4.453125" customWidth="1"/>
-    <col min="103" max="103" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="4.81640625" customWidth="1"/>
-    <col min="106" max="106" width="4.453125" customWidth="1"/>
-    <col min="107" max="107" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="4.81640625" customWidth="1"/>
-    <col min="110" max="110" width="4.453125" customWidth="1"/>
-    <col min="111" max="111" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="4.81640625" customWidth="1"/>
-    <col min="114" max="114" width="4.453125" customWidth="1"/>
-    <col min="115" max="115" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="4.81640625" customWidth="1"/>
-    <col min="118" max="118" width="4.453125" customWidth="1"/>
-    <col min="119" max="119" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="4.81640625" customWidth="1"/>
-    <col min="122" max="122" width="4.453125" customWidth="1"/>
-    <col min="123" max="123" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="4.81640625" customWidth="1"/>
-    <col min="126" max="126" width="4.453125" customWidth="1"/>
-    <col min="127" max="127" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="4.81640625" customWidth="1"/>
-    <col min="130" max="130" width="4.453125" customWidth="1"/>
-    <col min="131" max="131" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="4.81640625" customWidth="1"/>
-    <col min="134" max="134" width="4.453125" customWidth="1"/>
-    <col min="135" max="135" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="4.81640625" customWidth="1"/>
-    <col min="138" max="138" width="4.453125" customWidth="1"/>
-    <col min="139" max="139" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="4.81640625" customWidth="1"/>
-    <col min="142" max="142" width="4.453125" customWidth="1"/>
-    <col min="143" max="143" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="1.26953125" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="4.81640625" customWidth="1"/>
-    <col min="146" max="146" width="4.453125" customWidth="1"/>
-    <col min="147" max="147" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" customWidth="1"/>
+    <col min="15" max="15" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" customWidth="1"/>
+    <col min="22" max="22" width="4.42578125" customWidth="1"/>
+    <col min="23" max="23" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" customWidth="1"/>
+    <col min="26" max="26" width="4.42578125" customWidth="1"/>
+    <col min="27" max="27" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" customWidth="1"/>
+    <col min="30" max="30" width="4.42578125" customWidth="1"/>
+    <col min="31" max="31" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.85546875" customWidth="1"/>
+    <col min="34" max="34" width="4.42578125" customWidth="1"/>
+    <col min="35" max="35" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.85546875" customWidth="1"/>
+    <col min="38" max="38" width="4.42578125" customWidth="1"/>
+    <col min="39" max="39" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.85546875" customWidth="1"/>
+    <col min="42" max="42" width="4.42578125" customWidth="1"/>
+    <col min="43" max="43" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.85546875" customWidth="1"/>
+    <col min="46" max="46" width="4.42578125" customWidth="1"/>
+    <col min="47" max="47" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.85546875" customWidth="1"/>
+    <col min="50" max="50" width="4.42578125" customWidth="1"/>
+    <col min="51" max="51" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.85546875" customWidth="1"/>
+    <col min="54" max="54" width="4.42578125" customWidth="1"/>
+    <col min="55" max="55" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.85546875" customWidth="1"/>
+    <col min="58" max="58" width="4.42578125" customWidth="1"/>
+    <col min="59" max="59" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.85546875" customWidth="1"/>
+    <col min="62" max="62" width="4.42578125" customWidth="1"/>
+    <col min="63" max="63" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="4.85546875" customWidth="1"/>
+    <col min="66" max="66" width="4.42578125" customWidth="1"/>
+    <col min="67" max="67" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="4.85546875" customWidth="1"/>
+    <col min="70" max="70" width="4.42578125" customWidth="1"/>
+    <col min="71" max="71" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="4.85546875" customWidth="1"/>
+    <col min="74" max="74" width="4.42578125" customWidth="1"/>
+    <col min="75" max="75" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="4.85546875" customWidth="1"/>
+    <col min="78" max="78" width="4.42578125" customWidth="1"/>
+    <col min="79" max="79" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="4.85546875" customWidth="1"/>
+    <col min="82" max="82" width="4.42578125" customWidth="1"/>
+    <col min="83" max="83" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="4.85546875" customWidth="1"/>
+    <col min="86" max="86" width="4.42578125" customWidth="1"/>
+    <col min="87" max="87" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="4.85546875" customWidth="1"/>
+    <col min="90" max="90" width="4.42578125" customWidth="1"/>
+    <col min="91" max="91" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="4.85546875" customWidth="1"/>
+    <col min="94" max="94" width="4.42578125" customWidth="1"/>
+    <col min="95" max="95" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="4.85546875" customWidth="1"/>
+    <col min="98" max="98" width="4.42578125" customWidth="1"/>
+    <col min="99" max="99" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="4.85546875" customWidth="1"/>
+    <col min="102" max="102" width="4.42578125" customWidth="1"/>
+    <col min="103" max="103" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="4.85546875" customWidth="1"/>
+    <col min="106" max="106" width="4.42578125" customWidth="1"/>
+    <col min="107" max="107" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="4.85546875" customWidth="1"/>
+    <col min="110" max="110" width="4.42578125" customWidth="1"/>
+    <col min="111" max="111" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="4.85546875" customWidth="1"/>
+    <col min="114" max="114" width="4.42578125" customWidth="1"/>
+    <col min="115" max="115" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="4.85546875" customWidth="1"/>
+    <col min="118" max="118" width="4.42578125" customWidth="1"/>
+    <col min="119" max="119" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="4.85546875" customWidth="1"/>
+    <col min="122" max="122" width="4.42578125" customWidth="1"/>
+    <col min="123" max="123" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="4.85546875" customWidth="1"/>
+    <col min="126" max="126" width="4.42578125" customWidth="1"/>
+    <col min="127" max="127" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="4.85546875" customWidth="1"/>
+    <col min="130" max="130" width="4.42578125" customWidth="1"/>
+    <col min="131" max="131" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="4.85546875" customWidth="1"/>
+    <col min="134" max="134" width="4.42578125" customWidth="1"/>
+    <col min="135" max="135" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="4.85546875" customWidth="1"/>
+    <col min="138" max="138" width="4.42578125" customWidth="1"/>
+    <col min="139" max="139" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="4.85546875" customWidth="1"/>
+    <col min="142" max="142" width="4.42578125" customWidth="1"/>
+    <col min="143" max="143" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="1.28515625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="4.85546875" customWidth="1"/>
+    <col min="146" max="146" width="4.42578125" customWidth="1"/>
+    <col min="147" max="147" width="1.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:148" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A4" s="98">
         <v>0</v>
       </c>
@@ -11769,7 +11751,7 @@
       <c r="AL4" s="98"/>
       <c r="AM4" s="98"/>
     </row>
-    <row r="5" spans="1:148" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -11892,7 +11874,7 @@
       </c>
       <c r="ER5" s="50"/>
     </row>
-    <row r="7" spans="1:148" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A7" s="98">
         <v>10</v>
       </c>
@@ -11944,7 +11926,7 @@
       <c r="AL7" s="98"/>
       <c r="AM7" s="98"/>
     </row>
-    <row r="8" spans="1:148" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -12066,7 +12048,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:148" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A10" s="98">
         <v>20</v>
       </c>
@@ -12118,7 +12100,7 @@
       <c r="AL10" s="98"/>
       <c r="AM10" s="98"/>
     </row>
-    <row r="11" spans="1:148" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -12240,7 +12222,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:148" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A13" s="98">
         <v>30</v>
       </c>
@@ -12277,7 +12259,7 @@
       <c r="Z13" s="98"/>
       <c r="AA13" s="98"/>
     </row>
-    <row r="14" spans="1:148" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -12414,9 +12396,9 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -12448,7 +12430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -12489,7 +12471,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -12530,7 +12512,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -12571,7 +12553,7 @@
         <v>9.2999999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -12612,7 +12594,7 @@
         <v>9.3999999999999986</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -12653,7 +12635,7 @@
         <v>9.4999999999999982</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -12694,7 +12676,7 @@
         <v>9.5999999999999979</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -12735,7 +12717,7 @@
         <v>9.6999999999999975</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -12776,7 +12758,7 @@
         <v>9.7999999999999972</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -12817,7 +12799,7 @@
         <v>9.8999999999999968</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -12849,7 +12831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ref="A13:J13" si="2">A12+0.1</f>
         <v>10.1</v>
@@ -12891,7 +12873,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ref="A14:B21" si="3">A13+0.1</f>
         <v>10.199999999999999</v>
@@ -12933,7 +12915,7 @@
         <v>19.200000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="3"/>
         <v>10.299999999999999</v>
@@ -12975,7 +12957,7 @@
         <v>19.300000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="3"/>
         <v>10.399999999999999</v>
@@ -13017,7 +12999,7 @@
         <v>19.400000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="3"/>
         <v>10.499999999999998</v>
@@ -13059,7 +13041,7 @@
         <v>19.500000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="3"/>
         <v>10.599999999999998</v>
@@ -13101,7 +13083,7 @@
         <v>19.600000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="3"/>
         <v>10.699999999999998</v>
@@ -13143,7 +13125,7 @@
         <v>19.70000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="3"/>
         <v>10.799999999999997</v>
@@ -13185,7 +13167,7 @@
         <v>19.800000000000011</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="3"/>
         <v>10.899999999999997</v>
@@ -13227,7 +13209,7 @@
         <v>19.900000000000013</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -13259,7 +13241,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ref="A24:J24" si="12">A23+0.1</f>
         <v>20.100000000000001</v>
@@ -13301,7 +13283,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ref="A25:A32" si="13">A24+0.1</f>
         <v>20.200000000000003</v>
@@ -13343,7 +13325,7 @@
         <v>29.200000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="13"/>
         <v>20.300000000000004</v>
@@ -13385,7 +13367,7 @@
         <v>29.300000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="13"/>
         <v>20.400000000000006</v>
@@ -13427,7 +13409,7 @@
         <v>29.400000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="13"/>
         <v>20.500000000000007</v>
@@ -13469,7 +13451,7 @@
         <v>29.500000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="13"/>
         <v>20.600000000000009</v>
@@ -13511,7 +13493,7 @@
         <v>29.600000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="13"/>
         <v>20.70000000000001</v>
@@ -13553,7 +13535,7 @@
         <v>29.70000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="13"/>
         <v>20.800000000000011</v>
@@ -13595,7 +13577,7 @@
         <v>29.800000000000011</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="13"/>
         <v>20.900000000000013</v>
@@ -13637,7 +13619,7 @@
         <v>29.900000000000013</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -13669,7 +13651,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ref="A35:J35" si="23">A34+0.1</f>
         <v>30.1</v>
@@ -13711,7 +13693,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ref="A36:A43" si="24">A35+0.1</f>
         <v>30.200000000000003</v>
@@ -13753,7 +13735,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="24"/>
         <v>30.300000000000004</v>
@@ -13795,7 +13777,7 @@
         <v>39.300000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="24"/>
         <v>30.400000000000006</v>
@@ -13837,7 +13819,7 @@
         <v>39.400000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="24"/>
         <v>30.500000000000007</v>
@@ -13879,7 +13861,7 @@
         <v>39.500000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="24"/>
         <v>30.600000000000009</v>
@@ -13921,7 +13903,7 @@
         <v>39.600000000000009</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="24"/>
         <v>30.70000000000001</v>
@@ -13963,7 +13945,7 @@
         <v>39.70000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="24"/>
         <v>30.800000000000011</v>
@@ -14005,7 +13987,7 @@
         <v>39.800000000000011</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="24"/>
         <v>30.900000000000013</v>
@@ -14064,9 +14046,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.65" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="99">
         <v>0</v>
       </c>
@@ -14107,7 +14089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="99"/>
       <c r="B3" s="5">
         <v>2</v>
@@ -14146,7 +14128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="99"/>
       <c r="B4" s="5">
         <v>1</v>

--- a/temp/iter - copia.xlsx
+++ b/temp/iter - copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4810EF4-D293-40F4-ACB8-B7EA0EB9C372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64841D67-7EB8-4C57-9383-F20565918CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="47">
   <si>
     <t>Rep</t>
   </si>
@@ -700,22 +700,7 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -727,7 +712,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1072,24 +1072,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="K2" s="84" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="K2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
     </row>
     <row r="3" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
@@ -1134,42 +1134,42 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="84" t="s">
+      <c r="T3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AB3" s="84" t="s">
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AB3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AM3" s="81" t="s">
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75"/>
+      <c r="AM3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="AN3" s="82"/>
-      <c r="AO3" s="82"/>
-      <c r="AP3" s="82"/>
-      <c r="AQ3" s="82"/>
-      <c r="AR3" s="82"/>
-      <c r="AS3" s="83"/>
-      <c r="AW3" s="81" t="s">
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="78"/>
+      <c r="AW3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="82"/>
-      <c r="AY3" s="82"/>
-      <c r="AZ3" s="82"/>
-      <c r="BA3" s="82"/>
-      <c r="BB3" s="82"/>
-      <c r="BC3" s="83"/>
+      <c r="AX3" s="77"/>
+      <c r="AY3" s="77"/>
+      <c r="AZ3" s="77"/>
+      <c r="BA3" s="77"/>
+      <c r="BB3" s="77"/>
+      <c r="BC3" s="78"/>
     </row>
     <row r="4" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
@@ -1741,10 +1741,10 @@
         <f t="shared" ref="AS7:AS10" si="21">AR7-AQ7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AT7" s="79" t="s">
+      <c r="AT7" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AU7" s="80"/>
+      <c r="AU7" s="84"/>
       <c r="AW7" s="34">
         <v>3</v>
       </c>
@@ -1770,10 +1770,10 @@
         <f t="shared" ref="BC7:BC10" si="23">BB7-BA7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="BD7" s="77" t="s">
+      <c r="BD7" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="BE7" s="78"/>
+      <c r="BE7" s="80"/>
     </row>
     <row r="8" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
@@ -2071,10 +2071,10 @@
         <f t="shared" si="21"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AT9" s="75" t="s">
+      <c r="AT9" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="AU9" s="76"/>
+      <c r="AU9" s="82"/>
       <c r="AW9" s="34">
         <v>5</v>
       </c>
@@ -2100,10 +2100,10 @@
         <f t="shared" si="23"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="BD9" s="75" t="s">
+      <c r="BD9" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="BE9" s="76"/>
+      <c r="BE9" s="82"/>
     </row>
     <row r="10" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T10" s="8">
@@ -2224,15 +2224,15 @@
       </c>
     </row>
     <row r="11" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K11" s="84" t="s">
+      <c r="K11" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -2285,15 +2285,15 @@
       </c>
     </row>
     <row r="12" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -2413,24 +2413,24 @@
         <f>P13-O13</f>
         <v>1.8</v>
       </c>
-      <c r="AM13" s="81" t="s">
+      <c r="AM13" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="AN13" s="82"/>
-      <c r="AO13" s="82"/>
-      <c r="AP13" s="82"/>
-      <c r="AQ13" s="82"/>
-      <c r="AR13" s="82"/>
-      <c r="AS13" s="83"/>
-      <c r="AW13" s="81" t="s">
+      <c r="AN13" s="77"/>
+      <c r="AO13" s="77"/>
+      <c r="AP13" s="77"/>
+      <c r="AQ13" s="77"/>
+      <c r="AR13" s="77"/>
+      <c r="AS13" s="78"/>
+      <c r="AW13" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="AX13" s="82"/>
-      <c r="AY13" s="82"/>
-      <c r="AZ13" s="82"/>
-      <c r="BA13" s="82"/>
-      <c r="BB13" s="82"/>
-      <c r="BC13" s="83"/>
+      <c r="AX13" s="77"/>
+      <c r="AY13" s="77"/>
+      <c r="AZ13" s="77"/>
+      <c r="BA13" s="77"/>
+      <c r="BB13" s="77"/>
+      <c r="BC13" s="78"/>
     </row>
     <row r="14" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
@@ -2685,15 +2685,15 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="84" t="s">
+      <c r="T16" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="75"/>
       <c r="AM16" s="34">
         <v>2</v>
       </c>
@@ -2821,15 +2821,15 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="84" t="s">
+      <c r="AD17" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="84"/>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="84"/>
-      <c r="AJ17" s="84"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="75"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
       <c r="AM17" s="34">
         <v>3</v>
       </c>
@@ -2855,10 +2855,10 @@
         <f t="shared" ref="AS17:AS20" si="41">AR17-AQ17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="AT17" s="77" t="s">
+      <c r="AT17" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="AU17" s="78"/>
+      <c r="AU17" s="80"/>
       <c r="AW17" s="34">
         <v>3</v>
       </c>
@@ -2884,10 +2884,10 @@
         <f t="shared" ref="BC17:BC20" si="43">BB17-BA17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="BD17" s="77" t="s">
+      <c r="BD17" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="BE17" s="78"/>
+      <c r="BE17" s="80"/>
     </row>
     <row r="18" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
@@ -3168,10 +3168,10 @@
         <f t="shared" si="41"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="AT19" s="75" t="s">
+      <c r="AT19" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="AU19" s="76"/>
+      <c r="AU19" s="82"/>
       <c r="AW19" s="34">
         <v>5</v>
       </c>
@@ -3197,10 +3197,10 @@
         <f t="shared" si="43"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="BD19" s="75" t="s">
+      <c r="BD19" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="BE19" s="76"/>
+      <c r="BE19" s="82"/>
     </row>
     <row r="20" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="S20">
@@ -3327,15 +3327,15 @@
       </c>
     </row>
     <row r="21" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K21" s="84" t="s">
+      <c r="K21" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -3394,15 +3394,15 @@
       </c>
     </row>
     <row r="22" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -3578,24 +3578,24 @@
         <f t="shared" si="55"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="AM23" s="81" t="s">
+      <c r="AM23" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="AN23" s="82"/>
-      <c r="AO23" s="82"/>
-      <c r="AP23" s="82"/>
-      <c r="AQ23" s="82"/>
-      <c r="AR23" s="82"/>
-      <c r="AS23" s="83"/>
-      <c r="AW23" s="81" t="s">
+      <c r="AN23" s="77"/>
+      <c r="AO23" s="77"/>
+      <c r="AP23" s="77"/>
+      <c r="AQ23" s="77"/>
+      <c r="AR23" s="77"/>
+      <c r="AS23" s="78"/>
+      <c r="AW23" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="AX23" s="82"/>
-      <c r="AY23" s="82"/>
-      <c r="AZ23" s="82"/>
-      <c r="BA23" s="82"/>
-      <c r="BB23" s="82"/>
-      <c r="BC23" s="83"/>
+      <c r="AX23" s="77"/>
+      <c r="AY23" s="77"/>
+      <c r="AZ23" s="77"/>
+      <c r="BA23" s="77"/>
+      <c r="BB23" s="77"/>
+      <c r="BC23" s="78"/>
     </row>
     <row r="24" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
@@ -4109,10 +4109,10 @@
         <f t="shared" ref="AS27:AS30" si="73">AR27-AQ27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="AT27" s="77" t="s">
+      <c r="AT27" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="AU27" s="78"/>
+      <c r="AU27" s="80"/>
       <c r="AW27" s="34">
         <v>3</v>
       </c>
@@ -4138,10 +4138,10 @@
         <f t="shared" ref="BC27:BC30" si="75">BB27-BA27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="BD27" s="77" t="s">
+      <c r="BD27" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="BE27" s="78"/>
+      <c r="BE27" s="80"/>
     </row>
     <row r="28" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
@@ -4333,15 +4333,15 @@
         <f t="shared" ref="Y29:Y38" si="81">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="84" t="s">
+      <c r="AD29" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="84"/>
-      <c r="AF29" s="84"/>
-      <c r="AG29" s="84"/>
-      <c r="AH29" s="84"/>
-      <c r="AI29" s="84"/>
-      <c r="AJ29" s="84"/>
+      <c r="AE29" s="75"/>
+      <c r="AF29" s="75"/>
+      <c r="AG29" s="75"/>
+      <c r="AH29" s="75"/>
+      <c r="AI29" s="75"/>
+      <c r="AJ29" s="75"/>
       <c r="AM29" s="34">
         <v>5</v>
       </c>
@@ -4367,10 +4367,10 @@
         <f t="shared" si="73"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AT29" s="75" t="s">
+      <c r="AT29" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="AU29" s="76"/>
+      <c r="AU29" s="82"/>
       <c r="AW29" s="34">
         <v>5</v>
       </c>
@@ -4396,10 +4396,10 @@
         <f t="shared" si="75"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="BD29" s="75" t="s">
+      <c r="BD29" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="BE29" s="76"/>
+      <c r="BE29" s="82"/>
     </row>
     <row r="30" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T30" s="18" t="s">
@@ -4562,24 +4562,24 @@
       </c>
     </row>
     <row r="32" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="K32" s="84" t="s">
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="K32" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -4718,24 +4718,24 @@
         <f t="shared" ref="AJ33:AJ38" si="86">AI33-AH33</f>
         <v>9</v>
       </c>
-      <c r="AM33" s="81" t="s">
+      <c r="AM33" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="AN33" s="82"/>
-      <c r="AO33" s="82"/>
-      <c r="AP33" s="82"/>
-      <c r="AQ33" s="82"/>
-      <c r="AR33" s="82"/>
-      <c r="AS33" s="83"/>
-      <c r="AW33" s="81" t="s">
+      <c r="AN33" s="77"/>
+      <c r="AO33" s="77"/>
+      <c r="AP33" s="77"/>
+      <c r="AQ33" s="77"/>
+      <c r="AR33" s="77"/>
+      <c r="AS33" s="78"/>
+      <c r="AW33" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="AX33" s="82"/>
-      <c r="AY33" s="82"/>
-      <c r="AZ33" s="82"/>
-      <c r="BA33" s="82"/>
-      <c r="BB33" s="82"/>
-      <c r="BC33" s="83"/>
+      <c r="AX33" s="77"/>
+      <c r="AY33" s="77"/>
+      <c r="AZ33" s="77"/>
+      <c r="BA33" s="77"/>
+      <c r="BB33" s="77"/>
+      <c r="BC33" s="78"/>
     </row>
     <row r="34" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
@@ -5299,10 +5299,10 @@
         <f t="shared" ref="AS37:AS40" si="100">AR37-AQ37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="AT37" s="77" t="s">
+      <c r="AT37" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="AU37" s="78"/>
+      <c r="AU37" s="80"/>
       <c r="AW37" s="34">
         <v>3</v>
       </c>
@@ -5328,10 +5328,10 @@
         <f t="shared" ref="BC37:BC40" si="102">BB37-BA37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="BD37" s="77" t="s">
+      <c r="BD37" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="BE37" s="78"/>
+      <c r="BE37" s="80"/>
     </row>
     <row r="38" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
@@ -5587,10 +5587,10 @@
         <f t="shared" si="100"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AT39" s="75" t="s">
+      <c r="AT39" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="AU39" s="76"/>
+      <c r="AU39" s="82"/>
       <c r="AW39" s="34">
         <v>5</v>
       </c>
@@ -5616,10 +5616,10 @@
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD39" s="75" t="s">
+      <c r="BD39" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="BE39" s="76"/>
+      <c r="BE39" s="82"/>
     </row>
     <row r="40" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K40" s="8">
@@ -5750,15 +5750,15 @@
       </c>
     </row>
     <row r="42" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -5807,24 +5807,24 @@
       <c r="H43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM43" s="81" t="s">
+      <c r="AM43" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="82"/>
-      <c r="AO43" s="82"/>
-      <c r="AP43" s="82"/>
-      <c r="AQ43" s="82"/>
-      <c r="AR43" s="82"/>
-      <c r="AS43" s="83"/>
-      <c r="AW43" s="81" t="s">
+      <c r="AN43" s="77"/>
+      <c r="AO43" s="77"/>
+      <c r="AP43" s="77"/>
+      <c r="AQ43" s="77"/>
+      <c r="AR43" s="77"/>
+      <c r="AS43" s="78"/>
+      <c r="AW43" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="AX43" s="82"/>
-      <c r="AY43" s="82"/>
-      <c r="AZ43" s="82"/>
-      <c r="BA43" s="82"/>
-      <c r="BB43" s="82"/>
-      <c r="BC43" s="83"/>
+      <c r="AX43" s="77"/>
+      <c r="AY43" s="77"/>
+      <c r="AZ43" s="77"/>
+      <c r="BA43" s="77"/>
+      <c r="BB43" s="77"/>
+      <c r="BC43" s="78"/>
     </row>
     <row r="44" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
@@ -6079,15 +6079,15 @@
         <f t="shared" si="114"/>
         <v>126</v>
       </c>
-      <c r="T47" s="84" t="s">
+      <c r="T47" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="84"/>
-      <c r="V47" s="84"/>
-      <c r="W47" s="84"/>
-      <c r="X47" s="84"/>
-      <c r="Y47" s="84"/>
-      <c r="Z47" s="84"/>
+      <c r="U47" s="75"/>
+      <c r="V47" s="75"/>
+      <c r="W47" s="75"/>
+      <c r="X47" s="75"/>
+      <c r="Y47" s="75"/>
+      <c r="Z47" s="75"/>
       <c r="AM47" s="34">
         <v>3</v>
       </c>
@@ -6113,10 +6113,10 @@
         <f t="shared" ref="AS47:AS50" si="120">AR47-AQ47</f>
         <v>9</v>
       </c>
-      <c r="AT47" s="77" t="s">
+      <c r="AT47" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="AU47" s="78"/>
+      <c r="AU47" s="80"/>
       <c r="AW47" s="34">
         <v>3</v>
       </c>
@@ -6142,10 +6142,10 @@
         <f t="shared" ref="BC47:BC50" si="122">BB47-BA47</f>
         <v>18</v>
       </c>
-      <c r="BD47" s="77" t="s">
+      <c r="BD47" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="BE47" s="78"/>
+      <c r="BE47" s="80"/>
     </row>
     <row r="48" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
@@ -6339,10 +6339,10 @@
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT49" s="75" t="s">
+      <c r="AT49" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="AU49" s="76"/>
+      <c r="AU49" s="82"/>
       <c r="AW49" s="34">
         <v>5</v>
       </c>
@@ -6368,10 +6368,10 @@
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD49" s="75" t="s">
+      <c r="BD49" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="BE49" s="76"/>
+      <c r="BE49" s="82"/>
     </row>
     <row r="50" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T50" s="8">
@@ -6494,15 +6494,15 @@
       </c>
     </row>
     <row r="52" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="84" t="s">
+      <c r="B52" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -6821,15 +6821,15 @@
       </c>
     </row>
     <row r="62" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="84" t="s">
+      <c r="B62" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
     </row>
     <row r="63" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
@@ -7024,39 +7024,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T47:Z47"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AM43:AS43"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="AW13:BC13"/>
-    <mergeCell ref="AW23:BC23"/>
-    <mergeCell ref="AW33:BC33"/>
-    <mergeCell ref="AW43:BC43"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AT49:AU49"/>
     <mergeCell ref="BD49:BE49"/>
     <mergeCell ref="BD39:BE39"/>
@@ -7071,6 +7038,39 @@
     <mergeCell ref="AT29:AU29"/>
     <mergeCell ref="AT39:AU39"/>
     <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="AW13:BC13"/>
+    <mergeCell ref="AW23:BC23"/>
+    <mergeCell ref="AW33:BC33"/>
+    <mergeCell ref="AW43:BC43"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T47:Z47"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AM43:AS43"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" orientation="portrait" r:id="rId1"/>
@@ -9381,35 +9381,35 @@
   </sheetPr>
   <dimension ref="B2:BB117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH85" sqref="AH85"/>
+    <sheetView tabSelected="1" topLeftCell="H83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V110" sqref="V110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
-      <c r="M3" s="81" t="s">
+      <c r="M3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="83"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="78"/>
     </row>
     <row r="4" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="32" t="s">
@@ -9770,15 +9770,15 @@
       </c>
     </row>
     <row r="14" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
@@ -10069,15 +10069,15 @@
     </row>
     <row r="24" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="83"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="78"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
@@ -10320,27 +10320,27 @@
     </row>
     <row r="35" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="36" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="83"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="78"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
-      <c r="M36" s="81" t="s">
+      <c r="M36" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="83"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="77"/>
+      <c r="R36" s="77"/>
+      <c r="S36" s="78"/>
     </row>
     <row r="37" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="32" t="s">
@@ -10864,15 +10864,15 @@
       <c r="S46" s="35"/>
     </row>
     <row r="47" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="83"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="78"/>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
@@ -11103,15 +11103,15 @@
       <c r="I54" s="48"/>
       <c r="J54" s="48"/>
       <c r="K54" s="48"/>
-      <c r="M54" s="81" t="s">
+      <c r="M54" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="N54" s="82"/>
-      <c r="O54" s="82"/>
-      <c r="P54" s="82"/>
-      <c r="Q54" s="82"/>
-      <c r="R54" s="82"/>
-      <c r="S54" s="83"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="77"/>
+      <c r="P54" s="77"/>
+      <c r="Q54" s="77"/>
+      <c r="R54" s="77"/>
+      <c r="S54" s="78"/>
     </row>
     <row r="55" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="34">
@@ -11444,36 +11444,36 @@
     </row>
     <row r="71" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="72" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="81" t="s">
+      <c r="B72" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="82"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="82"/>
-      <c r="H72" s="83"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="78"/>
       <c r="I72" s="18"/>
       <c r="J72" s="18"/>
       <c r="K72" s="18"/>
-      <c r="M72" s="81" t="s">
+      <c r="M72" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="82"/>
-      <c r="O72" s="82"/>
-      <c r="P72" s="82"/>
-      <c r="Q72" s="82"/>
-      <c r="R72" s="82"/>
-      <c r="S72" s="83"/>
-      <c r="W72" s="81" t="s">
+      <c r="N72" s="77"/>
+      <c r="O72" s="77"/>
+      <c r="P72" s="77"/>
+      <c r="Q72" s="77"/>
+      <c r="R72" s="77"/>
+      <c r="S72" s="78"/>
+      <c r="W72" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="X72" s="82"/>
-      <c r="Y72" s="82"/>
-      <c r="Z72" s="82"/>
-      <c r="AA72" s="82"/>
-      <c r="AB72" s="82"/>
-      <c r="AC72" s="83"/>
+      <c r="X72" s="77"/>
+      <c r="Y72" s="77"/>
+      <c r="Z72" s="77"/>
+      <c r="AA72" s="77"/>
+      <c r="AB72" s="77"/>
+      <c r="AC72" s="78"/>
     </row>
     <row r="73" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="32" t="s">
@@ -12227,15 +12227,15 @@
         <f>F81/J82</f>
         <v>37.026699029126178</v>
       </c>
-      <c r="M83" s="81" t="s">
+      <c r="M83" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="N83" s="82"/>
-      <c r="O83" s="82"/>
-      <c r="P83" s="82"/>
-      <c r="Q83" s="82"/>
-      <c r="R83" s="82"/>
-      <c r="S83" s="83"/>
+      <c r="N83" s="77"/>
+      <c r="O83" s="77"/>
+      <c r="P83" s="77"/>
+      <c r="Q83" s="77"/>
+      <c r="R83" s="77"/>
+      <c r="S83" s="78"/>
       <c r="T83">
         <f>Q81/U82</f>
         <v>0</v>
@@ -12651,18 +12651,18 @@
         <v>1</v>
       </c>
       <c r="X98" s="25">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y98" s="26">
         <v>0.1</v>
       </c>
       <c r="Z98" s="25">
         <f>X98*Y98</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AA98" s="27">
         <f>Z98</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AB98" s="25">
         <f>Y98*36</f>
@@ -12670,14 +12670,14 @@
       </c>
       <c r="AC98" s="56">
         <f>AB98-AA98</f>
-        <v>1.1000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="AD98">
         <v>104</v>
       </c>
       <c r="AE98">
         <f>AC98*AD98</f>
-        <v>114.4</v>
+        <v>62.400000000000006</v>
       </c>
       <c r="AF98" s="66" t="s">
         <v>0</v>
@@ -12706,18 +12706,18 @@
         <v>1</v>
       </c>
       <c r="X99" s="25">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y99" s="26">
         <v>1</v>
       </c>
       <c r="Z99" s="25">
         <f>X99*Y99</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA99" s="27">
         <f>Z99+Z98</f>
-        <v>27.5</v>
+        <v>33</v>
       </c>
       <c r="AB99" s="25">
         <f>Y99*36</f>
@@ -12725,14 +12725,14 @@
       </c>
       <c r="AC99" s="56">
         <f>AB99-AA99</f>
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="AD99">
         <v>17</v>
       </c>
       <c r="AE99">
         <f>AC99*AD99</f>
-        <v>144.5</v>
+        <v>51</v>
       </c>
       <c r="AF99" s="70">
         <v>1</v>
@@ -12775,18 +12775,18 @@
         <v>1</v>
       </c>
       <c r="X100" s="25">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y100" s="26">
         <v>10</v>
       </c>
       <c r="Z100" s="25">
         <f>X100*Y100</f>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AA100" s="27">
         <f>Z100+Z99+Z98</f>
-        <v>277.5</v>
+        <v>333</v>
       </c>
       <c r="AB100" s="25">
         <f>Y100*36</f>
@@ -12794,7 +12794,7 @@
       </c>
       <c r="AC100" s="56">
         <f>AB100-AA100</f>
-        <v>82.5</v>
+        <v>27</v>
       </c>
       <c r="AF100" s="70">
         <v>1</v>
@@ -12831,18 +12831,18 @@
         <v>1</v>
       </c>
       <c r="X101" s="25">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y101" s="26">
         <v>100</v>
       </c>
       <c r="Z101" s="25">
         <f>X101*Y101</f>
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AA101" s="27">
         <f>Z101+Z100+Z99+Z98</f>
-        <v>2777.5</v>
+        <v>3333</v>
       </c>
       <c r="AB101" s="25">
         <f>Y101*36</f>
@@ -12850,7 +12850,7 @@
       </c>
       <c r="AC101" s="56">
         <f>AB101-AA101</f>
-        <v>822.5</v>
+        <v>267</v>
       </c>
       <c r="AF101" s="70">
         <v>1</v>
@@ -12879,7 +12879,7 @@
       <c r="AL102" s="73"/>
       <c r="AO102" s="20"/>
     </row>
-    <row r="103" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="14:41" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AO103" s="22">
         <f>SUM(AO99:AO102)</f>
         <v>-4374</v>
@@ -12906,6 +12906,15 @@
         <f>R104/S104</f>
         <v>0.83333333333333337</v>
       </c>
+      <c r="W104" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="X104" s="96"/>
+      <c r="Y104" s="96"/>
+      <c r="Z104" s="96"/>
+      <c r="AA104" s="96"/>
+      <c r="AB104" s="96"/>
+      <c r="AC104" s="97"/>
     </row>
     <row r="105" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N105">
@@ -12927,6 +12936,27 @@
       <c r="T105">
         <f t="shared" ref="T105:T106" si="73">R105/S105</f>
         <v>0.86111111111111116</v>
+      </c>
+      <c r="W105" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="X105" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y105" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z105" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA105" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB105" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC105" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="AF105" s="89" t="s">
         <v>38</v>
@@ -12959,6 +12989,31 @@
         <f t="shared" si="73"/>
         <v>0.88888888888888884</v>
       </c>
+      <c r="W106" s="61">
+        <v>1</v>
+      </c>
+      <c r="X106" s="62">
+        <v>28</v>
+      </c>
+      <c r="Y106" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="Z106" s="62">
+        <f>X106*Y106</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="AA106" s="63">
+        <f>Z106</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="AB106" s="62">
+        <f>Y106*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="AC106" s="64">
+        <f>AB106-AA106</f>
+        <v>0.79999999999999982</v>
+      </c>
       <c r="AF106" s="66" t="s">
         <v>0</v>
       </c>
@@ -12992,6 +13047,31 @@
         <f t="shared" si="72"/>
         <v>0.75</v>
       </c>
+      <c r="W107" s="61">
+        <v>1</v>
+      </c>
+      <c r="X107" s="62">
+        <v>28</v>
+      </c>
+      <c r="Y107" s="59">
+        <v>1</v>
+      </c>
+      <c r="Z107" s="62">
+        <f>X107*Y107</f>
+        <v>28</v>
+      </c>
+      <c r="AA107" s="63">
+        <f>Z107+Z106</f>
+        <v>30.8</v>
+      </c>
+      <c r="AB107" s="62">
+        <f>Y107*36</f>
+        <v>36</v>
+      </c>
+      <c r="AC107" s="65">
+        <f>AB107-AA107</f>
+        <v>5.1999999999999993</v>
+      </c>
       <c r="AF107" s="70">
         <v>1</v>
       </c>
@@ -13028,6 +13108,31 @@
       <c r="P108">
         <f t="shared" si="72"/>
         <v>0.77777777777777779</v>
+      </c>
+      <c r="W108" s="61">
+        <v>1</v>
+      </c>
+      <c r="X108" s="62">
+        <v>28</v>
+      </c>
+      <c r="Y108" s="59">
+        <v>5</v>
+      </c>
+      <c r="Z108" s="62">
+        <f>X108*Y108</f>
+        <v>140</v>
+      </c>
+      <c r="AA108" s="63">
+        <f>Z108+Z107+Z106</f>
+        <v>170.8</v>
+      </c>
+      <c r="AB108" s="62">
+        <f>Y108*36</f>
+        <v>180</v>
+      </c>
+      <c r="AC108" s="64">
+        <f>AB108-AA108</f>
+        <v>9.1999999999999886</v>
       </c>
       <c r="AF108" s="70"/>
       <c r="AG108" s="71"/>
@@ -13038,6 +13143,31 @@
       <c r="AL108" s="74"/>
     </row>
     <row r="109" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W109" s="61">
+        <v>1</v>
+      </c>
+      <c r="X109" s="62">
+        <v>28</v>
+      </c>
+      <c r="Y109" s="59">
+        <v>25</v>
+      </c>
+      <c r="Z109" s="62">
+        <f>X109*Y109</f>
+        <v>700</v>
+      </c>
+      <c r="AA109" s="63">
+        <f>Z109+Z108+Z107+Z106</f>
+        <v>870.8</v>
+      </c>
+      <c r="AB109" s="62">
+        <f>Y109*36</f>
+        <v>900</v>
+      </c>
+      <c r="AC109" s="65">
+        <f>AB109-AA109</f>
+        <v>29.200000000000045</v>
+      </c>
       <c r="AF109" s="70"/>
       <c r="AG109" s="71"/>
       <c r="AH109" s="68"/>
@@ -13299,7 +13429,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="W104:AC104"/>
     <mergeCell ref="AF97:AL97"/>
     <mergeCell ref="AF105:AL105"/>
     <mergeCell ref="W96:AC96"/>
@@ -14181,13 +14312,18 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AG10:AI10"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="U4:W4"/>
     <mergeCell ref="AK10:AM10"/>
     <mergeCell ref="AG7:AI7"/>
     <mergeCell ref="AK7:AM7"/>
@@ -14204,18 +14340,13 @@
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="U10:W10"/>
     <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AG10:AI10"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="U13:W13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/temp/iter - copia.xlsx
+++ b/temp/iter - copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64841D67-7EB8-4C57-9383-F20565918CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277B64A8-31F0-4B2D-8D64-E3287AEFB0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <sheet name="Tablero" sheetId="15" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Formulario_TEST!$A$1:$M$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Formulario_TEST!$A$1:$M$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -700,7 +700,22 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,22 +727,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -740,6 +740,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,15 +767,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1072,24 +1072,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="K2" s="75" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="K2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
     </row>
     <row r="3" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
@@ -1134,42 +1134,42 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="75" t="s">
+      <c r="T3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AB3" s="75" t="s">
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AB3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AM3" s="76" t="s">
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AM3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="77"/>
-      <c r="AQ3" s="77"/>
-      <c r="AR3" s="77"/>
-      <c r="AS3" s="78"/>
-      <c r="AW3" s="76" t="s">
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="82"/>
+      <c r="AS3" s="83"/>
+      <c r="AW3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="77"/>
-      <c r="AY3" s="77"/>
-      <c r="AZ3" s="77"/>
-      <c r="BA3" s="77"/>
-      <c r="BB3" s="77"/>
-      <c r="BC3" s="78"/>
+      <c r="AX3" s="82"/>
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="82"/>
+      <c r="BA3" s="82"/>
+      <c r="BB3" s="82"/>
+      <c r="BC3" s="83"/>
     </row>
     <row r="4" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
@@ -1741,10 +1741,10 @@
         <f t="shared" ref="AS7:AS10" si="21">AR7-AQ7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AT7" s="83" t="s">
+      <c r="AT7" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="AU7" s="84"/>
+      <c r="AU7" s="80"/>
       <c r="AW7" s="34">
         <v>3</v>
       </c>
@@ -1770,10 +1770,10 @@
         <f t="shared" ref="BC7:BC10" si="23">BB7-BA7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="BD7" s="79" t="s">
+      <c r="BD7" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="BE7" s="80"/>
+      <c r="BE7" s="78"/>
     </row>
     <row r="8" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
@@ -2071,10 +2071,10 @@
         <f t="shared" si="21"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AT9" s="81" t="s">
+      <c r="AT9" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="AU9" s="82"/>
+      <c r="AU9" s="76"/>
       <c r="AW9" s="34">
         <v>5</v>
       </c>
@@ -2100,10 +2100,10 @@
         <f t="shared" si="23"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="BD9" s="81" t="s">
+      <c r="BD9" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="BE9" s="82"/>
+      <c r="BE9" s="76"/>
     </row>
     <row r="10" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T10" s="8">
@@ -2224,15 +2224,15 @@
       </c>
     </row>
     <row r="11" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K11" s="75" t="s">
+      <c r="K11" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -2285,15 +2285,15 @@
       </c>
     </row>
     <row r="12" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -2413,24 +2413,24 @@
         <f>P13-O13</f>
         <v>1.8</v>
       </c>
-      <c r="AM13" s="76" t="s">
+      <c r="AM13" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AN13" s="77"/>
-      <c r="AO13" s="77"/>
-      <c r="AP13" s="77"/>
-      <c r="AQ13" s="77"/>
-      <c r="AR13" s="77"/>
-      <c r="AS13" s="78"/>
-      <c r="AW13" s="76" t="s">
+      <c r="AN13" s="82"/>
+      <c r="AO13" s="82"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="82"/>
+      <c r="AR13" s="82"/>
+      <c r="AS13" s="83"/>
+      <c r="AW13" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AX13" s="77"/>
-      <c r="AY13" s="77"/>
-      <c r="AZ13" s="77"/>
-      <c r="BA13" s="77"/>
-      <c r="BB13" s="77"/>
-      <c r="BC13" s="78"/>
+      <c r="AX13" s="82"/>
+      <c r="AY13" s="82"/>
+      <c r="AZ13" s="82"/>
+      <c r="BA13" s="82"/>
+      <c r="BB13" s="82"/>
+      <c r="BC13" s="83"/>
     </row>
     <row r="14" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
@@ -2685,15 +2685,15 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="75" t="s">
+      <c r="T16" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="75"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
       <c r="AM16" s="34">
         <v>2</v>
       </c>
@@ -2821,15 +2821,15 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="75" t="s">
+      <c r="AD17" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="75"/>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="75"/>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="84"/>
+      <c r="AH17" s="84"/>
+      <c r="AI17" s="84"/>
+      <c r="AJ17" s="84"/>
       <c r="AM17" s="34">
         <v>3</v>
       </c>
@@ -2855,10 +2855,10 @@
         <f t="shared" ref="AS17:AS20" si="41">AR17-AQ17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="AT17" s="79" t="s">
+      <c r="AT17" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AU17" s="80"/>
+      <c r="AU17" s="78"/>
       <c r="AW17" s="34">
         <v>3</v>
       </c>
@@ -2884,10 +2884,10 @@
         <f t="shared" ref="BC17:BC20" si="43">BB17-BA17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="BD17" s="79" t="s">
+      <c r="BD17" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="BE17" s="80"/>
+      <c r="BE17" s="78"/>
     </row>
     <row r="18" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
@@ -3168,10 +3168,10 @@
         <f t="shared" si="41"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="AT19" s="81" t="s">
+      <c r="AT19" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="AU19" s="82"/>
+      <c r="AU19" s="76"/>
       <c r="AW19" s="34">
         <v>5</v>
       </c>
@@ -3197,10 +3197,10 @@
         <f t="shared" si="43"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="BD19" s="81" t="s">
+      <c r="BD19" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="BE19" s="82"/>
+      <c r="BE19" s="76"/>
     </row>
     <row r="20" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="S20">
@@ -3327,15 +3327,15 @@
       </c>
     </row>
     <row r="21" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K21" s="75" t="s">
+      <c r="K21" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -3394,15 +3394,15 @@
       </c>
     </row>
     <row r="22" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -3578,24 +3578,24 @@
         <f t="shared" si="55"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="AM23" s="76" t="s">
+      <c r="AM23" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AN23" s="77"/>
-      <c r="AO23" s="77"/>
-      <c r="AP23" s="77"/>
-      <c r="AQ23" s="77"/>
-      <c r="AR23" s="77"/>
-      <c r="AS23" s="78"/>
-      <c r="AW23" s="76" t="s">
+      <c r="AN23" s="82"/>
+      <c r="AO23" s="82"/>
+      <c r="AP23" s="82"/>
+      <c r="AQ23" s="82"/>
+      <c r="AR23" s="82"/>
+      <c r="AS23" s="83"/>
+      <c r="AW23" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AX23" s="77"/>
-      <c r="AY23" s="77"/>
-      <c r="AZ23" s="77"/>
-      <c r="BA23" s="77"/>
-      <c r="BB23" s="77"/>
-      <c r="BC23" s="78"/>
+      <c r="AX23" s="82"/>
+      <c r="AY23" s="82"/>
+      <c r="AZ23" s="82"/>
+      <c r="BA23" s="82"/>
+      <c r="BB23" s="82"/>
+      <c r="BC23" s="83"/>
     </row>
     <row r="24" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
@@ -4109,10 +4109,10 @@
         <f t="shared" ref="AS27:AS30" si="73">AR27-AQ27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="AT27" s="79" t="s">
+      <c r="AT27" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AU27" s="80"/>
+      <c r="AU27" s="78"/>
       <c r="AW27" s="34">
         <v>3</v>
       </c>
@@ -4138,10 +4138,10 @@
         <f t="shared" ref="BC27:BC30" si="75">BB27-BA27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="BD27" s="79" t="s">
+      <c r="BD27" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="BE27" s="80"/>
+      <c r="BE27" s="78"/>
     </row>
     <row r="28" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
@@ -4333,15 +4333,15 @@
         <f t="shared" ref="Y29:Y38" si="81">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="75" t="s">
+      <c r="AD29" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="75"/>
-      <c r="AF29" s="75"/>
-      <c r="AG29" s="75"/>
-      <c r="AH29" s="75"/>
-      <c r="AI29" s="75"/>
-      <c r="AJ29" s="75"/>
+      <c r="AE29" s="84"/>
+      <c r="AF29" s="84"/>
+      <c r="AG29" s="84"/>
+      <c r="AH29" s="84"/>
+      <c r="AI29" s="84"/>
+      <c r="AJ29" s="84"/>
       <c r="AM29" s="34">
         <v>5</v>
       </c>
@@ -4367,10 +4367,10 @@
         <f t="shared" si="73"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AT29" s="81" t="s">
+      <c r="AT29" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="AU29" s="82"/>
+      <c r="AU29" s="76"/>
       <c r="AW29" s="34">
         <v>5</v>
       </c>
@@ -4396,10 +4396,10 @@
         <f t="shared" si="75"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="BD29" s="81" t="s">
+      <c r="BD29" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="BE29" s="82"/>
+      <c r="BE29" s="76"/>
     </row>
     <row r="30" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T30" s="18" t="s">
@@ -4562,24 +4562,24 @@
       </c>
     </row>
     <row r="32" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="K32" s="75" t="s">
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="K32" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -4718,24 +4718,24 @@
         <f t="shared" ref="AJ33:AJ38" si="86">AI33-AH33</f>
         <v>9</v>
       </c>
-      <c r="AM33" s="76" t="s">
+      <c r="AM33" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AN33" s="77"/>
-      <c r="AO33" s="77"/>
-      <c r="AP33" s="77"/>
-      <c r="AQ33" s="77"/>
-      <c r="AR33" s="77"/>
-      <c r="AS33" s="78"/>
-      <c r="AW33" s="76" t="s">
+      <c r="AN33" s="82"/>
+      <c r="AO33" s="82"/>
+      <c r="AP33" s="82"/>
+      <c r="AQ33" s="82"/>
+      <c r="AR33" s="82"/>
+      <c r="AS33" s="83"/>
+      <c r="AW33" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AX33" s="77"/>
-      <c r="AY33" s="77"/>
-      <c r="AZ33" s="77"/>
-      <c r="BA33" s="77"/>
-      <c r="BB33" s="77"/>
-      <c r="BC33" s="78"/>
+      <c r="AX33" s="82"/>
+      <c r="AY33" s="82"/>
+      <c r="AZ33" s="82"/>
+      <c r="BA33" s="82"/>
+      <c r="BB33" s="82"/>
+      <c r="BC33" s="83"/>
     </row>
     <row r="34" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
@@ -5299,10 +5299,10 @@
         <f t="shared" ref="AS37:AS40" si="100">AR37-AQ37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="AT37" s="79" t="s">
+      <c r="AT37" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AU37" s="80"/>
+      <c r="AU37" s="78"/>
       <c r="AW37" s="34">
         <v>3</v>
       </c>
@@ -5328,10 +5328,10 @@
         <f t="shared" ref="BC37:BC40" si="102">BB37-BA37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="BD37" s="79" t="s">
+      <c r="BD37" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="BE37" s="80"/>
+      <c r="BE37" s="78"/>
     </row>
     <row r="38" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
@@ -5587,10 +5587,10 @@
         <f t="shared" si="100"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AT39" s="81" t="s">
+      <c r="AT39" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="AU39" s="82"/>
+      <c r="AU39" s="76"/>
       <c r="AW39" s="34">
         <v>5</v>
       </c>
@@ -5616,10 +5616,10 @@
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD39" s="81" t="s">
+      <c r="BD39" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="BE39" s="82"/>
+      <c r="BE39" s="76"/>
     </row>
     <row r="40" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K40" s="8">
@@ -5750,15 +5750,15 @@
       </c>
     </row>
     <row r="42" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -5807,24 +5807,24 @@
       <c r="H43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM43" s="76" t="s">
+      <c r="AM43" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="77"/>
-      <c r="AO43" s="77"/>
-      <c r="AP43" s="77"/>
-      <c r="AQ43" s="77"/>
-      <c r="AR43" s="77"/>
-      <c r="AS43" s="78"/>
-      <c r="AW43" s="76" t="s">
+      <c r="AN43" s="82"/>
+      <c r="AO43" s="82"/>
+      <c r="AP43" s="82"/>
+      <c r="AQ43" s="82"/>
+      <c r="AR43" s="82"/>
+      <c r="AS43" s="83"/>
+      <c r="AW43" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AX43" s="77"/>
-      <c r="AY43" s="77"/>
-      <c r="AZ43" s="77"/>
-      <c r="BA43" s="77"/>
-      <c r="BB43" s="77"/>
-      <c r="BC43" s="78"/>
+      <c r="AX43" s="82"/>
+      <c r="AY43" s="82"/>
+      <c r="AZ43" s="82"/>
+      <c r="BA43" s="82"/>
+      <c r="BB43" s="82"/>
+      <c r="BC43" s="83"/>
     </row>
     <row r="44" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
@@ -6079,15 +6079,15 @@
         <f t="shared" si="114"/>
         <v>126</v>
       </c>
-      <c r="T47" s="75" t="s">
+      <c r="T47" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="75"/>
-      <c r="V47" s="75"/>
-      <c r="W47" s="75"/>
-      <c r="X47" s="75"/>
-      <c r="Y47" s="75"/>
-      <c r="Z47" s="75"/>
+      <c r="U47" s="84"/>
+      <c r="V47" s="84"/>
+      <c r="W47" s="84"/>
+      <c r="X47" s="84"/>
+      <c r="Y47" s="84"/>
+      <c r="Z47" s="84"/>
       <c r="AM47" s="34">
         <v>3</v>
       </c>
@@ -6113,10 +6113,10 @@
         <f t="shared" ref="AS47:AS50" si="120">AR47-AQ47</f>
         <v>9</v>
       </c>
-      <c r="AT47" s="79" t="s">
+      <c r="AT47" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AU47" s="80"/>
+      <c r="AU47" s="78"/>
       <c r="AW47" s="34">
         <v>3</v>
       </c>
@@ -6142,10 +6142,10 @@
         <f t="shared" ref="BC47:BC50" si="122">BB47-BA47</f>
         <v>18</v>
       </c>
-      <c r="BD47" s="79" t="s">
+      <c r="BD47" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="BE47" s="80"/>
+      <c r="BE47" s="78"/>
     </row>
     <row r="48" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
@@ -6339,10 +6339,10 @@
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT49" s="81" t="s">
+      <c r="AT49" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="AU49" s="82"/>
+      <c r="AU49" s="76"/>
       <c r="AW49" s="34">
         <v>5</v>
       </c>
@@ -6368,10 +6368,10 @@
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD49" s="81" t="s">
+      <c r="BD49" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="BE49" s="82"/>
+      <c r="BE49" s="76"/>
     </row>
     <row r="50" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T50" s="8">
@@ -6494,15 +6494,15 @@
       </c>
     </row>
     <row r="52" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="75" t="s">
+      <c r="B52" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -6821,15 +6821,15 @@
       </c>
     </row>
     <row r="62" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="75" t="s">
+      <c r="B62" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="75"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="84"/>
+      <c r="H62" s="84"/>
     </row>
     <row r="63" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
@@ -7024,6 +7024,39 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T47:Z47"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AM43:AS43"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="AW13:BC13"/>
+    <mergeCell ref="AW23:BC23"/>
+    <mergeCell ref="AW33:BC33"/>
+    <mergeCell ref="AW43:BC43"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AT49:AU49"/>
     <mergeCell ref="BD49:BE49"/>
     <mergeCell ref="BD39:BE39"/>
@@ -7038,39 +7071,6 @@
     <mergeCell ref="AT29:AU29"/>
     <mergeCell ref="AT39:AU39"/>
     <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="AW13:BC13"/>
-    <mergeCell ref="AW23:BC23"/>
-    <mergeCell ref="AW33:BC33"/>
-    <mergeCell ref="AW43:BC43"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T47:Z47"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AM43:AS43"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" orientation="portrait" r:id="rId1"/>
@@ -9370,7 +9370,7 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9381,35 +9381,35 @@
   </sheetPr>
   <dimension ref="B2:BB117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V110" sqref="V110"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T66" sqref="T66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="78"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="83"/>
     </row>
     <row r="4" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="32" t="s">
@@ -9770,15 +9770,15 @@
       </c>
     </row>
     <row r="14" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="78"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
@@ -10069,15 +10069,15 @@
     </row>
     <row r="24" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="78"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="83"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
@@ -10320,27 +10320,27 @@
     </row>
     <row r="35" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="36" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="78"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="83"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
-      <c r="M36" s="76" t="s">
+      <c r="M36" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="77"/>
-      <c r="Q36" s="77"/>
-      <c r="R36" s="77"/>
-      <c r="S36" s="78"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="83"/>
     </row>
     <row r="37" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="32" t="s">
@@ -10864,15 +10864,15 @@
       <c r="S46" s="35"/>
     </row>
     <row r="47" spans="2:22" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="76" t="s">
+      <c r="B47" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="78"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="83"/>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
@@ -11103,15 +11103,15 @@
       <c r="I54" s="48"/>
       <c r="J54" s="48"/>
       <c r="K54" s="48"/>
-      <c r="M54" s="76" t="s">
+      <c r="M54" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-      <c r="P54" s="77"/>
-      <c r="Q54" s="77"/>
-      <c r="R54" s="77"/>
-      <c r="S54" s="78"/>
+      <c r="N54" s="82"/>
+      <c r="O54" s="82"/>
+      <c r="P54" s="82"/>
+      <c r="Q54" s="82"/>
+      <c r="R54" s="82"/>
+      <c r="S54" s="83"/>
     </row>
     <row r="55" spans="2:22" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="34">
@@ -11444,36 +11444,36 @@
     </row>
     <row r="71" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="72" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="76" t="s">
+      <c r="B72" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="78"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="83"/>
       <c r="I72" s="18"/>
       <c r="J72" s="18"/>
       <c r="K72" s="18"/>
-      <c r="M72" s="76" t="s">
+      <c r="M72" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="77"/>
-      <c r="O72" s="77"/>
-      <c r="P72" s="77"/>
-      <c r="Q72" s="77"/>
-      <c r="R72" s="77"/>
-      <c r="S72" s="78"/>
-      <c r="W72" s="76" t="s">
+      <c r="N72" s="82"/>
+      <c r="O72" s="82"/>
+      <c r="P72" s="82"/>
+      <c r="Q72" s="82"/>
+      <c r="R72" s="82"/>
+      <c r="S72" s="83"/>
+      <c r="W72" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="X72" s="77"/>
-      <c r="Y72" s="77"/>
-      <c r="Z72" s="77"/>
-      <c r="AA72" s="77"/>
-      <c r="AB72" s="77"/>
-      <c r="AC72" s="78"/>
+      <c r="X72" s="82"/>
+      <c r="Y72" s="82"/>
+      <c r="Z72" s="82"/>
+      <c r="AA72" s="82"/>
+      <c r="AB72" s="82"/>
+      <c r="AC72" s="83"/>
     </row>
     <row r="73" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="32" t="s">
@@ -11551,30 +11551,30 @@
         <v>18</v>
       </c>
       <c r="D74" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E74" s="8">
         <f>C74*D74</f>
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="F74" s="10">
         <f>E74</f>
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="G74" s="8">
         <f>D74*36</f>
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="H74" s="35">
         <f>G74-F74</f>
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="I74">
         <v>22</v>
       </c>
       <c r="J74">
         <f>H74*I74</f>
-        <v>79.2</v>
+        <v>39.6</v>
       </c>
       <c r="K74" s="47"/>
       <c r="M74" s="34">
@@ -11647,33 +11647,33 @@
         <v>2</v>
       </c>
       <c r="C75" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D75" s="9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E75" s="8">
         <f t="shared" ref="E75:E79" si="45">C75*D75</f>
-        <v>7.6000000000000005</v>
+        <v>3.6</v>
       </c>
       <c r="F75" s="10">
         <f>E75+F74</f>
-        <v>11.200000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="G75" s="8">
         <f t="shared" ref="G75:G79" si="46">D75*36</f>
-        <v>14.4</v>
+        <v>7.2</v>
       </c>
       <c r="H75" s="36">
         <f>G75-F75</f>
-        <v>3.1999999999999993</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="I75">
         <v>11</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75:J81" si="47">H75*I75</f>
-        <v>35.199999999999989</v>
+        <v>19.799999999999997</v>
       </c>
       <c r="K75" s="48"/>
       <c r="M75" s="34">
@@ -11746,33 +11746,33 @@
         <v>3</v>
       </c>
       <c r="C76" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D76" s="9">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E76" s="8">
         <f t="shared" si="45"/>
-        <v>20</v>
+        <v>7.2</v>
       </c>
       <c r="F76" s="10">
         <f t="shared" ref="F76:F79" si="54">E76+F75</f>
-        <v>31.200000000000003</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="G76" s="8">
         <f t="shared" si="46"/>
-        <v>36</v>
+        <v>14.4</v>
       </c>
       <c r="H76" s="35">
         <f t="shared" ref="H76:H79" si="55">G76-F76</f>
-        <v>4.7999999999999972</v>
+        <v>1.7999999999999989</v>
       </c>
       <c r="I76">
         <v>3</v>
       </c>
       <c r="J76">
         <f t="shared" si="47"/>
-        <v>14.399999999999991</v>
+        <v>5.3999999999999968</v>
       </c>
       <c r="K76" s="47"/>
       <c r="M76" s="34">
@@ -11845,33 +11845,33 @@
         <v>4</v>
       </c>
       <c r="C77" s="8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D77" s="9">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="E77" s="8">
         <f t="shared" si="45"/>
-        <v>50.4</v>
+        <v>14.4</v>
       </c>
       <c r="F77" s="10">
         <f t="shared" si="54"/>
-        <v>81.599999999999994</v>
+        <v>27</v>
       </c>
       <c r="G77" s="8">
         <f t="shared" si="46"/>
-        <v>86.399999999999991</v>
+        <v>28.8</v>
       </c>
       <c r="H77" s="36">
         <f t="shared" si="55"/>
-        <v>4.7999999999999972</v>
+        <v>1.8000000000000007</v>
       </c>
       <c r="I77">
         <v>4</v>
       </c>
       <c r="J77">
         <f t="shared" si="47"/>
-        <v>19.199999999999989</v>
+        <v>7.2000000000000028</v>
       </c>
       <c r="K77" s="48"/>
       <c r="M77" s="34">
@@ -11926,26 +11926,26 @@
         <v>5</v>
       </c>
       <c r="C78" s="8">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D78" s="9">
-        <v>6.2</v>
+        <v>1.6</v>
       </c>
       <c r="E78" s="8">
         <f t="shared" si="45"/>
-        <v>136.4</v>
+        <v>28.8</v>
       </c>
       <c r="F78" s="10">
         <f t="shared" si="54"/>
-        <v>218</v>
+        <v>55.8</v>
       </c>
       <c r="G78" s="8">
         <f t="shared" si="46"/>
-        <v>223.20000000000002</v>
+        <v>57.6</v>
       </c>
       <c r="H78" s="35">
         <f t="shared" si="55"/>
-        <v>5.2000000000000171</v>
+        <v>1.8000000000000043</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -12007,33 +12007,33 @@
         <v>6</v>
       </c>
       <c r="C79" s="38">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D79" s="39">
-        <v>17.2</v>
+        <v>3.2</v>
       </c>
       <c r="E79" s="38">
         <f t="shared" si="45"/>
-        <v>395.59999999999997</v>
+        <v>57.6</v>
       </c>
       <c r="F79" s="40">
         <f t="shared" si="54"/>
-        <v>613.59999999999991</v>
+        <v>113.4</v>
       </c>
       <c r="G79" s="38">
         <f t="shared" si="46"/>
-        <v>619.19999999999993</v>
+        <v>115.2</v>
       </c>
       <c r="H79" s="41">
         <f t="shared" si="55"/>
-        <v>5.6000000000000227</v>
+        <v>1.7999999999999972</v>
       </c>
       <c r="I79">
         <v>2</v>
       </c>
       <c r="J79">
         <f t="shared" si="47"/>
-        <v>11.200000000000045</v>
+        <v>3.5999999999999943</v>
       </c>
       <c r="K79" s="48"/>
       <c r="M79" s="37">
@@ -12081,33 +12081,33 @@
         <v>7</v>
       </c>
       <c r="C80" s="8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D80" s="9">
-        <v>51.6</v>
+        <v>6.4</v>
       </c>
       <c r="E80" s="8">
         <f t="shared" ref="E80:E81" si="58">C80*D80</f>
-        <v>1238.4000000000001</v>
+        <v>115.2</v>
       </c>
       <c r="F80" s="10">
         <f t="shared" ref="F80:F81" si="59">E80+F79</f>
-        <v>1852</v>
+        <v>228.60000000000002</v>
       </c>
       <c r="G80" s="8">
         <f t="shared" ref="G80:G81" si="60">D80*36</f>
-        <v>1857.6000000000001</v>
+        <v>230.4</v>
       </c>
       <c r="H80" s="35">
         <f t="shared" ref="H80:H81" si="61">G80-F80</f>
-        <v>5.6000000000001364</v>
+        <v>1.7999999999999829</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80">
         <f t="shared" si="47"/>
-        <v>5.6000000000001364</v>
+        <v>1.7999999999999829</v>
       </c>
       <c r="K80" s="47"/>
       <c r="M80" s="34">
@@ -12155,26 +12155,26 @@
         <v>8</v>
       </c>
       <c r="C81" s="38">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D81" s="39">
-        <v>170</v>
+        <v>12.8</v>
       </c>
       <c r="E81" s="38">
         <f t="shared" si="58"/>
-        <v>4250</v>
+        <v>230.4</v>
       </c>
       <c r="F81" s="40">
         <f t="shared" si="59"/>
-        <v>6102</v>
+        <v>459</v>
       </c>
       <c r="G81" s="38">
         <f t="shared" si="60"/>
-        <v>6120</v>
+        <v>460.8</v>
       </c>
       <c r="H81" s="41">
         <f t="shared" si="61"/>
-        <v>18</v>
+        <v>1.8000000000000114</v>
       </c>
       <c r="I81" s="49">
         <v>0</v>
@@ -12211,7 +12211,7 @@
     <row r="82" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J82" s="22">
         <f>SUM(J74:J81)</f>
-        <v>164.80000000000015</v>
+        <v>77.399999999999977</v>
       </c>
       <c r="U82" s="22">
         <f>SUM(U74:U81)</f>
@@ -12225,17 +12225,17 @@
     <row r="83" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I83">
         <f>F81/J82</f>
-        <v>37.026699029126178</v>
-      </c>
-      <c r="M83" s="76" t="s">
+        <v>5.9302325581395365</v>
+      </c>
+      <c r="M83" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="N83" s="77"/>
-      <c r="O83" s="77"/>
-      <c r="P83" s="77"/>
-      <c r="Q83" s="77"/>
-      <c r="R83" s="77"/>
-      <c r="S83" s="78"/>
+      <c r="N83" s="82"/>
+      <c r="O83" s="82"/>
+      <c r="P83" s="82"/>
+      <c r="Q83" s="82"/>
+      <c r="R83" s="82"/>
+      <c r="S83" s="83"/>
       <c r="T83">
         <f>Q81/U82</f>
         <v>0</v>
@@ -12436,15 +12436,15 @@
         <f t="shared" si="64"/>
         <v>144.00000000000091</v>
       </c>
-      <c r="W89" s="95" t="s">
+      <c r="W89" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="X89" s="96"/>
-      <c r="Y89" s="96"/>
-      <c r="Z89" s="96"/>
-      <c r="AA89" s="96"/>
-      <c r="AB89" s="96"/>
-      <c r="AC89" s="97"/>
+      <c r="X89" s="90"/>
+      <c r="Y89" s="90"/>
+      <c r="Z89" s="90"/>
+      <c r="AA89" s="90"/>
+      <c r="AB89" s="90"/>
+      <c r="AC89" s="91"/>
     </row>
     <row r="90" spans="2:31" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M90" s="34">
@@ -12604,15 +12604,15 @@
     </row>
     <row r="95" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="96" spans="2:31" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="W96" s="92" t="s">
+      <c r="W96" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="X96" s="93"/>
-      <c r="Y96" s="93"/>
-      <c r="Z96" s="93"/>
-      <c r="AA96" s="93"/>
-      <c r="AB96" s="93"/>
-      <c r="AC96" s="94"/>
+      <c r="X96" s="96"/>
+      <c r="Y96" s="96"/>
+      <c r="Z96" s="96"/>
+      <c r="AA96" s="96"/>
+      <c r="AB96" s="96"/>
+      <c r="AC96" s="97"/>
     </row>
     <row r="97" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W97" s="52" t="s">
@@ -12636,15 +12636,15 @@
       <c r="AC97" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AF97" s="89" t="s">
+      <c r="AF97" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="AG97" s="90"/>
-      <c r="AH97" s="90"/>
-      <c r="AI97" s="90"/>
-      <c r="AJ97" s="90"/>
-      <c r="AK97" s="90"/>
-      <c r="AL97" s="91"/>
+      <c r="AG97" s="93"/>
+      <c r="AH97" s="93"/>
+      <c r="AI97" s="93"/>
+      <c r="AJ97" s="93"/>
+      <c r="AK97" s="93"/>
+      <c r="AL97" s="94"/>
     </row>
     <row r="98" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W98" s="55">
@@ -12906,15 +12906,15 @@
         <f>R104/S104</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="W104" s="95" t="s">
+      <c r="W104" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="X104" s="96"/>
-      <c r="Y104" s="96"/>
-      <c r="Z104" s="96"/>
-      <c r="AA104" s="96"/>
-      <c r="AB104" s="96"/>
-      <c r="AC104" s="97"/>
+      <c r="X104" s="90"/>
+      <c r="Y104" s="90"/>
+      <c r="Z104" s="90"/>
+      <c r="AA104" s="90"/>
+      <c r="AB104" s="90"/>
+      <c r="AC104" s="91"/>
     </row>
     <row r="105" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N105">
@@ -12958,15 +12958,15 @@
       <c r="AC105" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AF105" s="89" t="s">
+      <c r="AF105" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="AG105" s="90"/>
-      <c r="AH105" s="90"/>
-      <c r="AI105" s="90"/>
-      <c r="AJ105" s="90"/>
-      <c r="AK105" s="90"/>
-      <c r="AL105" s="91"/>
+      <c r="AG105" s="93"/>
+      <c r="AH105" s="93"/>
+      <c r="AI105" s="93"/>
+      <c r="AJ105" s="93"/>
+      <c r="AK105" s="93"/>
+      <c r="AL105" s="94"/>
     </row>
     <row r="106" spans="14:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N106">
@@ -13430,6 +13430,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="W104:AC104"/>
     <mergeCell ref="AF97:AL97"/>
     <mergeCell ref="AF105:AL105"/>
@@ -13446,7 +13447,6 @@
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="M36:S36"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -14312,18 +14312,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AG10:AI10"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="U13:W13"/>
     <mergeCell ref="AK10:AM10"/>
     <mergeCell ref="AG7:AI7"/>
     <mergeCell ref="AK7:AM7"/>
@@ -14340,13 +14335,18 @@
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="U10:W10"/>
     <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AG10:AI10"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="U4:W4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
